--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1565FD-B4AE-0244-B667-EB5778BF7F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D919B1-785D-7041-B023-9DDA159EA843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="760" windowWidth="22100" windowHeight="18540" activeTab="1" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="1680" yWindow="500" windowWidth="22400" windowHeight="16720" activeTab="1" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Removals (tonnes)</t>
   </si>
   <si>
-    <t>Satisficable</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Demanded</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Satisfiable</t>
   </si>
 </sst>
 </file>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E3B73C-8C04-4845-96FD-F75302BA5D7D}">
   <dimension ref="A1:AX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,22 +869,22 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
       <c r="U1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V1" s="12"/>
       <c r="W1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="AC1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
@@ -892,7 +892,7 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
@@ -900,13 +900,13 @@
       <c r="AM1" s="1"/>
       <c r="AN1"/>
       <c r="AP1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AQ1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
@@ -923,7 +923,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>24</v>
@@ -950,10 +950,10 @@
         <v>25</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>24</v>
@@ -968,13 +968,13 @@
         <v>25</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>24</v>
@@ -983,10 +983,10 @@
         <v>25</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>19</v>
@@ -998,10 +998,10 @@
         <v>21</v>
       </c>
       <c r="AF2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="AH2" s="4" t="s">
         <v>22</v>
@@ -1016,10 +1016,10 @@
         <v>21</v>
       </c>
       <c r="AL2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="AN2" s="4" t="s">
         <v>22</v>
@@ -1302,27 +1302,27 @@
         <v>0</v>
       </c>
       <c r="AI4" s="4">
-        <f>AC4*$AQ3</f>
-        <v>1</v>
+        <f>AC4*$AQ2</f>
+        <v>0</v>
       </c>
       <c r="AJ4" s="4">
-        <f>AD4*$AQ3</f>
+        <f t="shared" ref="AJ4:AN4" si="4">AD4*$AQ2</f>
         <v>0</v>
       </c>
       <c r="AK4" s="4">
-        <f>AE4*$AQ3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL4" s="4">
-        <f>AF4*$AQ3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM4" s="4">
-        <f>AG4*$AQ3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN4" s="4">
-        <f>AH4*$AQ3</f>
+        <f>AH4*$AQ2</f>
         <v>0</v>
       </c>
       <c r="AP4">
@@ -1339,7 +1339,7 @@
         <v>4100000</v>
       </c>
       <c r="AX4">
-        <f t="shared" ref="AX4:AX30" si="4">ROUND(AW4/4,0)</f>
+        <f t="shared" ref="AX4:AX30" si="5">ROUND(AW4/4,0)</f>
         <v>1025000</v>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>142.193365444888</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G30" si="5">G$3*AA5</f>
+        <f t="shared" ref="G5:G30" si="6">G$3*AA5</f>
         <v>97.794292882182489</v>
       </c>
       <c r="H5" s="5">
@@ -1368,11 +1368,11 @@
         <v>50000</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J30" si="6">J$3*Z5</f>
+        <f t="shared" ref="J5:J30" si="7">J$3*Z5</f>
         <v>0.94795576963258665</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" ref="K5:K30" si="7">K$3*AA5</f>
+        <f t="shared" ref="K5:K30" si="8">K$3*AA5</f>
         <v>2.9338287864654746</v>
       </c>
       <c r="L5" s="6">
@@ -1380,7 +1380,7 @@
         <v>9900</v>
       </c>
       <c r="M5" s="6">
-        <f t="shared" ref="M5:M30" si="8">MAX(M4-D4,I4)</f>
+        <f t="shared" ref="M5:M30" si="9">MAX(M4-D4,I4)</f>
         <v>249800</v>
       </c>
       <c r="N5" s="7">
@@ -1399,11 +1399,11 @@
         <v>1024800.8689355539</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" ref="R5:R30" si="9">MAX(L5-H5,0)*F$3</f>
+        <f t="shared" ref="R5:R30" si="10">MAX(L5-H5,0)*F$3</f>
         <v>735000</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" ref="S5:S30" si="10">MAX(M5-I5, 0)*G$3</f>
+        <f t="shared" ref="S5:S30" si="11">MAX(M5-I5, 0)*G$3</f>
         <v>19980000</v>
       </c>
       <c r="T5" s="5">
@@ -1456,27 +1456,27 @@
         <v>0</v>
       </c>
       <c r="AI5" s="4">
-        <f>AC5*$AQ4</f>
-        <v>6.0000000000000009</v>
+        <f t="shared" ref="AI5:AI30" si="12">AC5*$AQ3</f>
+        <v>1</v>
       </c>
       <c r="AJ5" s="4">
-        <f>AD5*$AQ4</f>
-        <v>6.0000000000000009</v>
+        <f t="shared" ref="AJ5:AJ30" si="13">AD5*$AQ3</f>
+        <v>1</v>
       </c>
       <c r="AK5" s="4">
-        <f>AE5*$AQ4</f>
+        <f t="shared" ref="AK5:AK30" si="14">AE5*$AQ3</f>
         <v>0</v>
       </c>
       <c r="AL5" s="4">
-        <f>AF5*$AQ4</f>
+        <f t="shared" ref="AL5:AL30" si="15">AF5*$AQ3</f>
         <v>0</v>
       </c>
       <c r="AM5" s="4">
-        <f>AG5*$AQ4</f>
+        <f t="shared" ref="AM5:AM30" si="16">AG5*$AQ3</f>
         <v>0</v>
       </c>
       <c r="AN5" s="4">
-        <f>AH5*$AQ4</f>
+        <f>AH5*$AQ3</f>
         <v>0</v>
       </c>
       <c r="AP5">
@@ -1493,7 +1493,7 @@
         <v>4250000</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1062500</v>
       </c>
     </row>
@@ -1508,11 +1508,11 @@
         <v>0.7</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F5:F30" si="11">F$3*Z6</f>
+        <f t="shared" ref="F5:F30" si="17">F$3*Z6</f>
         <v>137.52987726421449</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.389308996039688</v>
       </c>
       <c r="H6" s="5">
@@ -1522,19 +1522,19 @@
         <v>50000</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9168658484280966</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.8916792698811906</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" ref="L6:L30" si="12">MAX(L5-C5,H5)</f>
+        <f t="shared" ref="L6:L30" si="18">MAX(L5-C5,H5)</f>
         <v>9860</v>
       </c>
       <c r="M6" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>249680</v>
       </c>
       <c r="N6" s="7">
@@ -1553,11 +1553,11 @@
         <v>1061255.2543846935</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>729000</v>
       </c>
       <c r="S6" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19968000</v>
       </c>
       <c r="T6" s="5">
@@ -1572,23 +1572,23 @@
         <v>0</v>
       </c>
       <c r="W6" s="5">
-        <f t="shared" ref="W4:W30" si="13">(R6+S6)*(1-T6)+U6</f>
+        <f t="shared" ref="W4:W30" si="19">(R6+S6)*(1-T6)+U6</f>
         <v>14500328.89308949</v>
       </c>
       <c r="X6" s="5">
-        <f t="shared" ref="X6:X30" si="14">X5-P5+L6*J5</f>
+        <f t="shared" ref="X6:X30" si="20">X5-P5+L6*J5</f>
         <v>668395.2035040824</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" ref="Y6:Y30" si="15">Y5-Q5+M6*K5</f>
+        <f t="shared" ref="Y6:Y30" si="21">Y5-Q5+M6*K5</f>
         <v>19247017.220329206</v>
       </c>
       <c r="Z6" s="4">
-        <f t="shared" ref="Z6:Z30" si="16">X6/R6</f>
+        <f t="shared" ref="Z6:Z30" si="22">X6/R6</f>
         <v>0.9168658484280966</v>
       </c>
       <c r="AA6" s="4">
-        <f t="shared" ref="AA6:AA30" si="17">Y6/S6</f>
+        <f t="shared" ref="AA6:AA30" si="23">Y6/S6</f>
         <v>0.96389308996039691</v>
       </c>
       <c r="AB6" s="5">
@@ -1610,27 +1610,27 @@
         <v>0</v>
       </c>
       <c r="AI6" s="4">
-        <f>AC6*$AQ5</f>
-        <v>26</v>
+        <f t="shared" si="12"/>
+        <v>6.0000000000000009</v>
       </c>
       <c r="AJ6" s="4">
-        <f>AD6*$AQ5</f>
-        <v>26</v>
+        <f t="shared" si="13"/>
+        <v>6.0000000000000009</v>
       </c>
       <c r="AK6" s="4">
-        <f>AE6*$AQ5</f>
-        <v>33.800000000000004</v>
+        <f t="shared" si="14"/>
+        <v>7.8000000000000007</v>
       </c>
       <c r="AL6" s="4">
-        <f>AF6*$AQ5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AM6" s="4">
-        <f>AG6*$AQ5</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN6" s="4">
-        <f>AH6*$AQ5</f>
+        <f t="shared" ref="AN5:AN30" si="24">AH6*$AQ4</f>
         <v>0</v>
       </c>
       <c r="AP6">
@@ -1647,7 +1647,7 @@
         <v>4400000</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1100000</v>
       </c>
     </row>
@@ -1662,11 +1662,11 @@
         <v>0.7</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>132.6374862286807</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>94.745487294728719</v>
       </c>
       <c r="H7" s="5">
@@ -1676,19 +1676,19 @@
         <v>50000</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.88424990819120475</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.8423646188418616</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9815</v>
       </c>
       <c r="M7" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>249560</v>
       </c>
       <c r="N7" s="7">
@@ -1707,11 +1707,11 @@
         <v>1066404.5555112255</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>722250</v>
       </c>
       <c r="S7" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19956000</v>
       </c>
       <c r="T7" s="5">
@@ -1726,23 +1726,23 @@
         <v>0</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14486911.701748962</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>638649.49619109766</v>
       </c>
       <c r="Y7" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>18907409.444536064</v>
       </c>
       <c r="Z7" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.88424990819120475</v>
       </c>
       <c r="AA7" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.94745487294728725</v>
       </c>
       <c r="AB7" s="6">
@@ -1764,27 +1764,27 @@
         <v>0</v>
       </c>
       <c r="AI7" s="4">
-        <f>AC7*$AQ6</f>
-        <v>86</v>
+        <f t="shared" si="12"/>
+        <v>26</v>
       </c>
       <c r="AJ7" s="4">
-        <f>AD7*$AQ6</f>
-        <v>86</v>
+        <f t="shared" si="13"/>
+        <v>26</v>
       </c>
       <c r="AK7" s="4">
-        <f>AE7*$AQ6</f>
-        <v>111.8</v>
+        <f t="shared" si="14"/>
+        <v>33.800000000000004</v>
       </c>
       <c r="AL7" s="4">
-        <f>AF7*$AQ6</f>
-        <v>172</v>
+        <f t="shared" si="15"/>
+        <v>52</v>
       </c>
       <c r="AM7" s="4">
-        <f>AG7*$AQ6</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN7" s="4">
-        <f>AH7*$AQ6</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AP7">
@@ -1801,7 +1801,7 @@
         <v>4420000</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1105000</v>
       </c>
     </row>
@@ -1816,11 +1816,11 @@
         <v>0.7</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>127.60863172019944</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>93.01045086015219</v>
       </c>
       <c r="H8" s="5">
@@ -1830,19 +1830,19 @@
         <v>50000</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.85072421146799626</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7903135258045655</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9770</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>249440</v>
       </c>
       <c r="N8" s="7">
@@ -1853,19 +1853,19 @@
         <v>1127100</v>
       </c>
       <c r="P8" s="7">
-        <f t="shared" ref="P8:P30" si="18">$O8*R8/($R8+$S8)</f>
+        <f t="shared" ref="P8:P30" si="25">$O8*R8/($R8+$S8)</f>
         <v>39034.829013286864</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" ref="Q8:Q30" si="19">$O8*S8/($R8+$S8)</f>
+        <f t="shared" ref="Q8:Q30" si="26">$O8*S8/($R8+$S8)</f>
         <v>1088065.1709867131</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>715500</v>
       </c>
       <c r="S8" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19944000</v>
       </c>
       <c r="T8" s="5">
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14473035.919560418</v>
       </c>
       <c r="X8" s="5">
@@ -1888,15 +1888,15 @@
         <v>608693.17330535129</v>
       </c>
       <c r="Y8" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>18550004.319548752</v>
       </c>
       <c r="Z8" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.85072421146799626</v>
       </c>
       <c r="AA8" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.93010450860152183</v>
       </c>
       <c r="AB8" s="6">
@@ -1918,27 +1918,27 @@
         <v>200</v>
       </c>
       <c r="AI8" s="4">
-        <f>AC8*$AQ7</f>
-        <v>266</v>
+        <f t="shared" si="12"/>
+        <v>86</v>
       </c>
       <c r="AJ8" s="4">
-        <f>AD8*$AQ7</f>
-        <v>266</v>
+        <f t="shared" si="13"/>
+        <v>86</v>
       </c>
       <c r="AK8" s="4">
-        <f>AE8*$AQ7</f>
-        <v>345.8</v>
+        <f t="shared" si="14"/>
+        <v>111.8</v>
       </c>
       <c r="AL8" s="4">
-        <f>AF8*$AQ7</f>
-        <v>532</v>
+        <f t="shared" si="15"/>
+        <v>172</v>
       </c>
       <c r="AM8" s="4">
-        <f>AG8*$AQ7</f>
-        <v>532</v>
+        <f t="shared" si="16"/>
+        <v>172</v>
       </c>
       <c r="AN8" s="4">
-        <f>AH8*$AQ7</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AP8">
@@ -1955,7 +1955,7 @@
         <v>4508400</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1127100</v>
       </c>
     </row>
@@ -1970,11 +1970,11 @@
         <v>0.7</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>122.18517777370995</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>91.097833217016017</v>
       </c>
       <c r="H9" s="5">
@@ -1984,19 +1984,19 @@
         <v>50000</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.81456785182473301</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7329349965104806</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9730</v>
       </c>
       <c r="M9" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>249320</v>
       </c>
       <c r="N9" s="7">
@@ -2007,19 +2007,19 @@
         <v>1149643</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>39516.10631494804</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1110126.8936850519</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>709500</v>
       </c>
       <c r="S9" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19932000</v>
       </c>
       <c r="T9" s="5">
@@ -2034,23 +2034,23 @@
         <v>0</v>
       </c>
       <c r="W9" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14460978.699212309</v>
       </c>
       <c r="X9" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>577935.89086964808</v>
       </c>
       <c r="Y9" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>18157620.116815634</v>
       </c>
       <c r="Z9" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.81456785182473301</v>
       </c>
       <c r="AA9" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.91097833217016022</v>
       </c>
       <c r="AB9" s="5">
@@ -2075,28 +2075,28 @@
         <v>200</v>
       </c>
       <c r="AI9" s="4">
-        <f>AC9*$AQ8</f>
-        <v>566</v>
+        <f t="shared" si="12"/>
+        <v>266</v>
       </c>
       <c r="AJ9" s="4">
-        <f>AD9*$AQ8</f>
-        <v>566</v>
+        <f t="shared" si="13"/>
+        <v>266</v>
       </c>
       <c r="AK9" s="4">
-        <f>AE9*$AQ8</f>
-        <v>735.80000000000007</v>
+        <f t="shared" si="14"/>
+        <v>345.8</v>
       </c>
       <c r="AL9" s="4">
-        <f>AF9*$AQ8</f>
-        <v>1132</v>
+        <f t="shared" si="15"/>
+        <v>532</v>
       </c>
       <c r="AM9" s="4">
-        <f>AG9*$AQ8</f>
-        <v>1132</v>
+        <f t="shared" si="16"/>
+        <v>532</v>
       </c>
       <c r="AN9" s="4">
-        <f>AH9*$AQ8</f>
-        <v>1132</v>
+        <f t="shared" si="24"/>
+        <v>532</v>
       </c>
       <c r="AP9">
         <v>6</v>
@@ -2112,7 +2112,7 @@
         <v>4598570</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1149643</v>
       </c>
     </row>
@@ -2127,11 +2127,11 @@
         <v>0.7</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>116.73179516247083</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88.9986979129568</v>
       </c>
       <c r="H10" s="5">
@@ -2141,19 +2141,19 @@
         <v>50000</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.7782119677498055</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6699609373887041</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9680</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>249200</v>
       </c>
       <c r="N10" s="7">
@@ -2164,19 +2164,19 @@
         <v>1172635</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>39918.037532732036</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1132716.9624672679</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>702000</v>
       </c>
       <c r="S10" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19920000</v>
       </c>
       <c r="T10" s="5">
@@ -2191,23 +2191,23 @@
         <v>0</v>
       </c>
       <c r="W10" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14447778.626021512</v>
       </c>
       <c r="X10" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>546304.80136036349</v>
       </c>
       <c r="Y10" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>17728540.624260996</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.7782119677498055</v>
       </c>
       <c r="AA10" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.88998697912956803</v>
       </c>
       <c r="AB10" s="6">
@@ -2232,28 +2232,28 @@
         <v>200</v>
       </c>
       <c r="AI10" s="4">
-        <f>AC10*$AQ9</f>
-        <v>1166</v>
+        <f t="shared" si="12"/>
+        <v>566</v>
       </c>
       <c r="AJ10" s="4">
-        <f>AD10*$AQ9</f>
-        <v>1166</v>
+        <f t="shared" si="13"/>
+        <v>566</v>
       </c>
       <c r="AK10" s="4">
-        <f>AE10*$AQ9</f>
-        <v>1515.8</v>
+        <f t="shared" si="14"/>
+        <v>735.80000000000007</v>
       </c>
       <c r="AL10" s="4">
-        <f>AF10*$AQ9</f>
-        <v>2332</v>
+        <f t="shared" si="15"/>
+        <v>1132</v>
       </c>
       <c r="AM10" s="4">
-        <f>AG10*$AQ9</f>
-        <v>2332</v>
+        <f t="shared" si="16"/>
+        <v>1132</v>
       </c>
       <c r="AN10" s="4">
-        <f>AH10*$AQ9</f>
-        <v>2332</v>
+        <f t="shared" si="24"/>
+        <v>1132</v>
       </c>
       <c r="AP10">
         <v>10</v>
@@ -2269,7 +2269,7 @@
         <v>4690540</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1172635</v>
       </c>
     </row>
@@ -2284,11 +2284,11 @@
         <v>0.7</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>111.22795735008324</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86.703122021692309</v>
       </c>
       <c r="H11" s="5">
@@ -2298,19 +2298,19 @@
         <v>50000</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.74151971566722163</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6010936606507693</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9620</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>249080</v>
       </c>
       <c r="N11" s="7">
@@ -2321,19 +2321,19 @@
         <v>1196088</v>
       </c>
       <c r="P11" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>40235.376146788993</v>
       </c>
       <c r="Q11" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1155852.6238532111</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>693000</v>
       </c>
       <c r="S11" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19908000</v>
       </c>
       <c r="T11" s="5">
@@ -2348,23 +2348,23 @@
         <v>0</v>
       </c>
       <c r="W11" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14435769.019264327</v>
       </c>
       <c r="X11" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>513873.1629573846</v>
       </c>
       <c r="Y11" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>17260857.532078505</v>
       </c>
       <c r="Z11" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.74151971566722163</v>
       </c>
       <c r="AA11" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.86703122021692303</v>
       </c>
       <c r="AB11" s="6">
@@ -2389,28 +2389,28 @@
         <v>200</v>
       </c>
       <c r="AI11" s="4">
-        <f>AC11*$AQ10</f>
-        <v>2166</v>
+        <f t="shared" si="12"/>
+        <v>1166</v>
       </c>
       <c r="AJ11" s="4">
-        <f>AD11*$AQ10</f>
-        <v>2166</v>
+        <f t="shared" si="13"/>
+        <v>1166</v>
       </c>
       <c r="AK11" s="4">
-        <f>AE11*$AQ10</f>
-        <v>2815.8</v>
+        <f t="shared" si="14"/>
+        <v>1515.8</v>
       </c>
       <c r="AL11" s="4">
-        <f>AF11*$AQ10</f>
-        <v>4332</v>
+        <f t="shared" si="15"/>
+        <v>2332</v>
       </c>
       <c r="AM11" s="4">
-        <f>AG11*$AQ10</f>
-        <v>4332</v>
+        <f t="shared" si="16"/>
+        <v>2332</v>
       </c>
       <c r="AN11" s="4">
-        <f>AH11*$AQ10</f>
-        <v>4332</v>
+        <f t="shared" si="24"/>
+        <v>2332</v>
       </c>
       <c r="AP11">
         <v>12</v>
@@ -2426,7 +2426,7 @@
         <v>4784350</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1196088</v>
       </c>
     </row>
@@ -2441,11 +2441,11 @@
         <v>0.7</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>106.34890586366096</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84.200709619928176</v>
       </c>
       <c r="H12" s="5">
@@ -2455,19 +2455,19 @@
         <v>50000</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.70899270575773976</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.5260212885978452</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9520</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>248960</v>
       </c>
       <c r="N12" s="7">
@@ -2478,19 +2478,19 @@
         <v>1220010</v>
       </c>
       <c r="P12" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>40204.470691163602</v>
       </c>
       <c r="Q12" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1179805.5293088364</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>678000</v>
       </c>
       <c r="S12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19896000</v>
       </c>
       <c r="T12" s="5">
@@ -2505,23 +2505,23 @@
         <v>0</v>
       </c>
       <c r="W12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14416317.283018529</v>
       </c>
       <c r="X12" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>480697.05450374755</v>
       </c>
       <c r="Y12" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>16752573.18598091</v>
       </c>
       <c r="Z12" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.70899270575773976</v>
       </c>
       <c r="AA12" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.84200709619928182</v>
       </c>
       <c r="AB12" s="5">
@@ -2546,28 +2546,28 @@
         <v>200</v>
       </c>
       <c r="AI12" s="4">
-        <f>AC12*$AQ11</f>
-        <v>3365.9999999999995</v>
+        <f t="shared" si="12"/>
+        <v>2166</v>
       </c>
       <c r="AJ12" s="4">
-        <f>AD12*$AQ11</f>
-        <v>3365.9999999999995</v>
+        <f t="shared" si="13"/>
+        <v>2166</v>
       </c>
       <c r="AK12" s="4">
-        <f>AE12*$AQ11</f>
-        <v>4375.7999999999993</v>
+        <f t="shared" si="14"/>
+        <v>2815.8</v>
       </c>
       <c r="AL12" s="4">
-        <f>AF12*$AQ11</f>
-        <v>6731.9999999999991</v>
+        <f t="shared" si="15"/>
+        <v>4332</v>
       </c>
       <c r="AM12" s="4">
-        <f>AG12*$AQ11</f>
-        <v>6731.9999999999991</v>
+        <f t="shared" si="16"/>
+        <v>4332</v>
       </c>
       <c r="AN12" s="4">
-        <f>AH12*$AQ11</f>
-        <v>6731.9999999999991</v>
+        <f t="shared" si="24"/>
+        <v>4332</v>
       </c>
       <c r="AP12">
         <v>13.5</v>
@@ -2583,7 +2583,7 @@
         <v>4880040</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1220010</v>
       </c>
     </row>
@@ -2598,11 +2598,11 @@
         <v>0.7</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>101.16997626715425</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>81.479293875109448</v>
       </c>
       <c r="H13" s="5">
@@ -2612,19 +2612,19 @@
         <v>50000</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.67446650844769507</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4443788162532836</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9420</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>248840</v>
       </c>
       <c r="N13" s="7">
@@ -2635,19 +2635,19 @@
         <v>1244410</v>
       </c>
       <c r="P13" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>40153.980143086585</v>
       </c>
       <c r="Q13" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1204256.0198569135</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>663000</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19884000</v>
       </c>
       <c r="T13" s="5">
@@ -2662,23 +2662,23 @@
         <v>0</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14396826.159024211</v>
       </c>
       <c r="X13" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>447171.29510082182</v>
       </c>
       <c r="Y13" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>16201342.794126762</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.67446650844769507</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.81479293875109449</v>
       </c>
       <c r="AB13" s="6">
@@ -2703,28 +2703,28 @@
         <v>200</v>
       </c>
       <c r="AI13" s="4">
-        <f>AC13*$AQ12</f>
-        <v>4716</v>
+        <f t="shared" si="12"/>
+        <v>3365.9999999999995</v>
       </c>
       <c r="AJ13" s="4">
-        <f>AD13*$AQ12</f>
-        <v>4716</v>
+        <f t="shared" si="13"/>
+        <v>3365.9999999999995</v>
       </c>
       <c r="AK13" s="4">
-        <f>AE13*$AQ12</f>
-        <v>6130.7999999999993</v>
+        <f t="shared" si="14"/>
+        <v>4375.7999999999993</v>
       </c>
       <c r="AL13" s="4">
-        <f>AF13*$AQ12</f>
-        <v>9432</v>
+        <f t="shared" si="15"/>
+        <v>6731.9999999999991</v>
       </c>
       <c r="AM13" s="4">
-        <f>AG13*$AQ12</f>
-        <v>9432</v>
+        <f t="shared" si="16"/>
+        <v>6731.9999999999991</v>
       </c>
       <c r="AN13" s="4">
-        <f>AH13*$AQ12</f>
-        <v>9432</v>
+        <f t="shared" si="24"/>
+        <v>6731.9999999999991</v>
       </c>
       <c r="AP13">
         <v>12</v>
@@ -2740,7 +2740,7 @@
         <v>4977640</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1244410</v>
       </c>
     </row>
@@ -2755,11 +2755,11 @@
         <v>0.7</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>95.672070096404568</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.527841553182185</v>
       </c>
       <c r="H14" s="5">
@@ -2769,19 +2769,19 @@
         <v>50000</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.6378138006426971</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3558352465954657</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9320</v>
       </c>
       <c r="M14" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>248720</v>
       </c>
       <c r="N14" s="7">
@@ -2792,19 +2792,19 @@
         <v>1269298</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>40083.094736842104</v>
       </c>
       <c r="Q14" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1229214.9052631578</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>648000</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19872000</v>
       </c>
       <c r="T14" s="5">
@@ -2819,23 +2819,23 @@
         <v>0</v>
       </c>
       <c r="W14" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14375953.974615866</v>
       </c>
       <c r="X14" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>413303.34281646775</v>
       </c>
       <c r="Y14" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>15605052.673448365</v>
       </c>
       <c r="Z14" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.6378138006426971</v>
       </c>
       <c r="AA14" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.78527841553182187</v>
       </c>
       <c r="AB14" s="6">
@@ -2860,28 +2860,28 @@
         <v>200</v>
       </c>
       <c r="AI14" s="4">
-        <f>AC14*$AQ13</f>
-        <v>5916</v>
+        <f t="shared" si="12"/>
+        <v>4716</v>
       </c>
       <c r="AJ14" s="4">
-        <f>AD14*$AQ13</f>
-        <v>5916</v>
+        <f t="shared" si="13"/>
+        <v>4716</v>
       </c>
       <c r="AK14" s="4">
-        <f>AE14*$AQ13</f>
-        <v>7690.7999999999993</v>
+        <f t="shared" si="14"/>
+        <v>6130.7999999999993</v>
       </c>
       <c r="AL14" s="4">
-        <f>AF14*$AQ13</f>
-        <v>11832</v>
+        <f t="shared" si="15"/>
+        <v>9432</v>
       </c>
       <c r="AM14" s="4">
-        <f>AG14*$AQ13</f>
-        <v>11832</v>
+        <f t="shared" si="16"/>
+        <v>9432</v>
       </c>
       <c r="AN14" s="4">
-        <f>AH14*$AQ13</f>
-        <v>11832</v>
+        <f t="shared" si="24"/>
+        <v>9432</v>
       </c>
       <c r="AP14">
         <v>10</v>
@@ -2897,7 +2897,7 @@
         <v>5077190</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1269298</v>
       </c>
     </row>
@@ -2912,11 +2912,11 @@
         <v>0.7</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>89.413596131500981</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75.334835903770596</v>
       </c>
       <c r="H15" s="5">
@@ -2926,19 +2926,19 @@
         <v>50000</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.59609064087667318</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2600450771131175</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9240</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>248600</v>
       </c>
       <c r="N15" s="7">
@@ -2949,19 +2949,19 @@
         <v>1294683</v>
       </c>
       <c r="P15" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>40174.589578454332</v>
       </c>
       <c r="Q15" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1254508.4104215456</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>636000</v>
       </c>
       <c r="S15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19860000</v>
       </c>
       <c r="T15" s="5">
@@ -2976,23 +2976,23 @@
         <v>0</v>
       </c>
       <c r="W15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14358222.34001282</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>379113.64759756415</v>
       </c>
       <c r="Y15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>14961498.41048884</v>
       </c>
       <c r="Z15" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.59609064087667318</v>
       </c>
       <c r="AA15" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.75334835903770592</v>
       </c>
       <c r="AB15" s="5">
@@ -3017,28 +3017,28 @@
         <v>200</v>
       </c>
       <c r="AI15" s="4">
-        <f>AC15*$AQ14</f>
-        <v>6916</v>
+        <f t="shared" si="12"/>
+        <v>5916</v>
       </c>
       <c r="AJ15" s="4">
-        <f>AD15*$AQ14</f>
-        <v>6916</v>
+        <f t="shared" si="13"/>
+        <v>5916</v>
       </c>
       <c r="AK15" s="4">
-        <f>AE15*$AQ14</f>
-        <v>8990.7999999999993</v>
+        <f t="shared" si="14"/>
+        <v>7690.7999999999993</v>
       </c>
       <c r="AL15" s="4">
-        <f>AF15*$AQ14</f>
-        <v>13832</v>
+        <f t="shared" si="15"/>
+        <v>11832</v>
       </c>
       <c r="AM15" s="4">
-        <f>AG15*$AQ14</f>
-        <v>13832</v>
+        <f t="shared" si="16"/>
+        <v>11832</v>
       </c>
       <c r="AN15" s="4">
-        <f>AH15*$AQ14</f>
-        <v>13832</v>
+        <f t="shared" si="24"/>
+        <v>11832</v>
       </c>
       <c r="AP15">
         <v>6</v>
@@ -3054,7 +3054,7 @@
         <v>5178730</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1294683</v>
       </c>
     </row>
@@ -3069,11 +3069,11 @@
         <v>0.7</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>82.689610742555715</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.88918783166244</v>
       </c>
       <c r="H16" s="5">
@@ -3083,19 +3083,19 @@
         <v>50000</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55126407161703805</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.156675634949873</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9165</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>248480</v>
       </c>
       <c r="N16" s="7">
@@ -3106,19 +3106,19 @@
         <v>1320575</v>
       </c>
       <c r="P16" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>40298.896398871671</v>
       </c>
       <c r="Q16" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1280276.1036011283</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>624750</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19848000</v>
       </c>
       <c r="T16" s="5">
@@ -3133,23 +3133,23 @@
         <v>0</v>
       </c>
       <c r="W16" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14340436.655429047</v>
       </c>
       <c r="X16" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>344402.22874274454</v>
       </c>
       <c r="Y16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>14268566.000828361</v>
       </c>
       <c r="Z16" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.55126407161703805</v>
       </c>
       <c r="AA16" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.71889187831662438</v>
       </c>
       <c r="AB16" s="6">
@@ -3174,28 +3174,28 @@
         <v>200</v>
       </c>
       <c r="AI16" s="4">
-        <f>AC16*$AQ15</f>
-        <v>7516</v>
+        <f t="shared" si="12"/>
+        <v>6916</v>
       </c>
       <c r="AJ16" s="4">
-        <f>AD16*$AQ15</f>
-        <v>7516</v>
+        <f t="shared" si="13"/>
+        <v>6916</v>
       </c>
       <c r="AK16" s="4">
-        <f>AE16*$AQ15</f>
-        <v>9770.7999999999993</v>
+        <f t="shared" si="14"/>
+        <v>8990.7999999999993</v>
       </c>
       <c r="AL16" s="4">
-        <f>AF16*$AQ15</f>
-        <v>15032</v>
+        <f t="shared" si="15"/>
+        <v>13832</v>
       </c>
       <c r="AM16" s="4">
-        <f>AG16*$AQ15</f>
-        <v>15032</v>
+        <f t="shared" si="16"/>
+        <v>13832</v>
       </c>
       <c r="AN16" s="4">
-        <f>AH16*$AQ15</f>
-        <v>15032</v>
+        <f t="shared" si="24"/>
+        <v>13832</v>
       </c>
       <c r="AP16">
         <v>3</v>
@@ -3211,7 +3211,7 @@
         <v>5282300</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1320575</v>
       </c>
     </row>
@@ -3226,11 +3226,11 @@
         <v>0.7</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>75.303920028245059</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.17867441985976</v>
       </c>
       <c r="H17" s="5">
@@ -3240,19 +3240,19 @@
         <v>50000</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.50202613352163372</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0453602325957929</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9105</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>248360</v>
       </c>
       <c r="N17" s="7">
@@ -3263,19 +3263,19 @@
         <v>1346988</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>40554.371190729398</v>
       </c>
       <c r="Q17" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1306433.6288092707</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>615750</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19836000</v>
       </c>
       <c r="T17" s="5">
@@ -3290,23 +3290,23 @@
         <v>0</v>
       </c>
       <c r="W17" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14324060.518412059</v>
       </c>
       <c r="X17" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>309122.59171594598</v>
       </c>
       <c r="Y17" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>13523921.857923383</v>
       </c>
       <c r="Z17" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.50202613352163372</v>
       </c>
       <c r="AA17" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.68178674419859764</v>
       </c>
       <c r="AB17" s="6">
@@ -3331,28 +3331,28 @@
         <v>200</v>
       </c>
       <c r="AI17" s="4">
-        <f>AC17*$AQ16</f>
-        <v>7816</v>
+        <f t="shared" si="12"/>
+        <v>7516</v>
       </c>
       <c r="AJ17" s="4">
-        <f>AD17*$AQ16</f>
-        <v>7816</v>
+        <f t="shared" si="13"/>
+        <v>7516</v>
       </c>
       <c r="AK17" s="4">
-        <f>AE17*$AQ16</f>
-        <v>10160.799999999999</v>
+        <f t="shared" si="14"/>
+        <v>9770.7999999999993</v>
       </c>
       <c r="AL17" s="4">
-        <f>AF17*$AQ16</f>
-        <v>15632</v>
+        <f t="shared" si="15"/>
+        <v>15032</v>
       </c>
       <c r="AM17" s="4">
-        <f>AG17*$AQ16</f>
-        <v>15632</v>
+        <f t="shared" si="16"/>
+        <v>15032</v>
       </c>
       <c r="AN17" s="4">
-        <f>AH17*$AQ16</f>
-        <v>15632</v>
+        <f t="shared" si="24"/>
+        <v>15032</v>
       </c>
       <c r="AP17">
         <v>1.8</v>
@@ -3368,7 +3368,7 @@
         <v>5387950</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1346988</v>
       </c>
     </row>
@@ -3383,11 +3383,11 @@
         <v>0.7</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>67.187967386369053</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.191023271053737</v>
       </c>
       <c r="H18" s="5">
@@ -3397,19 +3397,19 @@
         <v>50000</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.44791978257579368</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9257306981316122</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9065</v>
       </c>
       <c r="M18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>248240</v>
       </c>
       <c r="N18" s="7">
@@ -3420,19 +3420,19 @@
         <v>1373928</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>40998.475463387775</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1332929.5245366122</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>609750</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19824000</v>
       </c>
       <c r="T18" s="5">
@@ -3447,23 +3447,23 @@
         <v>0</v>
       </c>
       <c r="W18" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14309957.677498179</v>
       </c>
       <c r="X18" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>273119.0874255902</v>
       </c>
       <c r="Y18" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>12725228.453253692</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.44791978257579368</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.64191023271053738</v>
       </c>
       <c r="AB18" s="5">
@@ -3488,28 +3488,28 @@
         <v>200</v>
       </c>
       <c r="AI18" s="4">
-        <f>AC18*$AQ17</f>
-        <v>7995.9999999999991</v>
+        <f t="shared" si="12"/>
+        <v>7816</v>
       </c>
       <c r="AJ18" s="4">
-        <f>AD18*$AQ17</f>
-        <v>7995.9999999999991</v>
+        <f t="shared" si="13"/>
+        <v>7816</v>
       </c>
       <c r="AK18" s="4">
-        <f>AE18*$AQ17</f>
-        <v>10394.799999999999</v>
+        <f t="shared" si="14"/>
+        <v>10160.799999999999</v>
       </c>
       <c r="AL18" s="4">
-        <f>AF18*$AQ17</f>
-        <v>15991.999999999998</v>
+        <f t="shared" si="15"/>
+        <v>15632</v>
       </c>
       <c r="AM18" s="4">
-        <f>AG18*$AQ17</f>
-        <v>15991.999999999998</v>
+        <f t="shared" si="16"/>
+        <v>15632</v>
       </c>
       <c r="AN18" s="4">
-        <f>AH18*$AQ17</f>
-        <v>15991.999999999998</v>
+        <f t="shared" si="24"/>
+        <v>15632</v>
       </c>
       <c r="AP18">
         <v>1.1000000000000001</v>
@@ -3525,7 +3525,7 @@
         <v>5495710</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1373928</v>
       </c>
     </row>
@@ -3540,11 +3540,11 @@
         <v>0.7</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>58.386167217700972</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.913745354015226</v>
       </c>
       <c r="H19" s="5">
@@ -3554,19 +3554,19 @@
         <v>50000</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.38924111478467316</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7974123606204566</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9045</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>248120</v>
       </c>
       <c r="N19" s="7">
@@ -3577,19 +3577,19 @@
         <v>1401405</v>
       </c>
       <c r="P19" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>41643.219283746555</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1359761.7807162534</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>606750</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19812000</v>
       </c>
       <c r="T19" s="5">
@@ -3604,23 +3604,23 @@
         <v>0</v>
       </c>
       <c r="W19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14298975.160950786</v>
       </c>
       <c r="X19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>236172.04639560045</v>
       </c>
       <c r="Y19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>11870111.229537496</v>
       </c>
       <c r="Z19" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.38924111478467316</v>
       </c>
       <c r="AA19" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.59913745354015224</v>
       </c>
       <c r="AB19" s="6">
@@ -3645,28 +3645,28 @@
         <v>200</v>
       </c>
       <c r="AI19" s="4">
-        <f>AC19*$AQ18</f>
-        <v>8105.9999999999991</v>
+        <f t="shared" si="12"/>
+        <v>7995.9999999999991</v>
       </c>
       <c r="AJ19" s="4">
-        <f>AD19*$AQ18</f>
-        <v>8105.9999999999991</v>
+        <f t="shared" si="13"/>
+        <v>7995.9999999999991</v>
       </c>
       <c r="AK19" s="4">
-        <f>AE19*$AQ18</f>
-        <v>10537.8</v>
+        <f t="shared" si="14"/>
+        <v>10394.799999999999</v>
       </c>
       <c r="AL19" s="4">
-        <f>AF19*$AQ18</f>
-        <v>16211.999999999998</v>
+        <f t="shared" si="15"/>
+        <v>15991.999999999998</v>
       </c>
       <c r="AM19" s="4">
-        <f>AG19*$AQ18</f>
-        <v>16211.999999999998</v>
+        <f t="shared" si="16"/>
+        <v>15991.999999999998</v>
       </c>
       <c r="AN19" s="4">
-        <f>AH19*$AQ18</f>
-        <v>16211.999999999998</v>
+        <f t="shared" si="24"/>
+        <v>15991.999999999998</v>
       </c>
       <c r="AP19">
         <v>0.5</v>
@@ -3682,7 +3682,7 @@
         <v>5605620</v>
       </c>
       <c r="AX19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1401405</v>
       </c>
     </row>
@@ -3697,11 +3697,11 @@
         <v>0.7</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>49.202913831747971</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.333877344722815</v>
       </c>
       <c r="H20" s="5">
@@ -3711,19 +3711,19 @@
         <v>50000</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.32801942554498648</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6600163203416844</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9025</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>248000</v>
       </c>
       <c r="N20" s="7">
@@ -3734,19 +3734,19 @@
         <v>1429433</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>42297.135269251972</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1387135.8647307481</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>603750</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19800000</v>
       </c>
       <c r="T20" s="5">
@@ -3761,23 +3761,23 @@
         <v>0</v>
       </c>
       <c r="W20" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14287961.886490602</v>
       </c>
       <c r="X20" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>198041.72817278557</v>
       </c>
       <c r="Y20" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>10956107.714255117</v>
       </c>
       <c r="Z20" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.32801942554498648</v>
       </c>
       <c r="AA20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.55333877344722815</v>
       </c>
       <c r="AB20" s="6">
@@ -3802,28 +3802,28 @@
         <v>200</v>
       </c>
       <c r="AI20" s="4">
-        <f>AC20*$AQ19</f>
-        <v>8155.9999999999991</v>
+        <f t="shared" si="12"/>
+        <v>8105.9999999999991</v>
       </c>
       <c r="AJ20" s="4">
-        <f>AD20*$AQ19</f>
-        <v>8155.9999999999991</v>
+        <f t="shared" si="13"/>
+        <v>8105.9999999999991</v>
       </c>
       <c r="AK20" s="4">
-        <f>AE20*$AQ19</f>
-        <v>10602.8</v>
+        <f t="shared" si="14"/>
+        <v>10537.8</v>
       </c>
       <c r="AL20" s="4">
-        <f>AF20*$AQ19</f>
-        <v>16311.999999999998</v>
+        <f t="shared" si="15"/>
+        <v>16211.999999999998</v>
       </c>
       <c r="AM20" s="4">
-        <f>AG20*$AQ19</f>
-        <v>16311.999999999998</v>
+        <f t="shared" si="16"/>
+        <v>16211.999999999998</v>
       </c>
       <c r="AN20" s="4">
-        <f>AH20*$AQ19</f>
-        <v>16311.999999999998</v>
+        <f t="shared" si="24"/>
+        <v>16211.999999999998</v>
       </c>
       <c r="AP20">
         <v>0.3</v>
@@ -3839,7 +3839,7 @@
         <v>5717730</v>
       </c>
       <c r="AX20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1429433</v>
       </c>
     </row>
@@ -3854,11 +3854,11 @@
         <v>0.7</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>39.625070619367335</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50.436914771632637</v>
       </c>
       <c r="H21" s="5">
@@ -3868,19 +3868,19 @@
         <v>50000</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.26416713746244891</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.513107443148979</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>9005</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>247880</v>
       </c>
       <c r="N21" s="7">
@@ -3891,19 +3891,19 @@
         <v>0</v>
       </c>
       <c r="P21" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q21" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>600750</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19788000</v>
       </c>
       <c r="T21" s="5">
@@ -3918,23 +3918,23 @@
         <v>0</v>
       </c>
       <c r="W21" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14276916.451829487</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>158698.4078305662</v>
       </c>
       <c r="Y21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>9980456.6950106658</v>
       </c>
       <c r="Z21" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.26416713746244891</v>
       </c>
       <c r="AA21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.50436914771632635</v>
       </c>
       <c r="AB21" s="5">
@@ -3959,28 +3959,28 @@
         <v>200</v>
       </c>
       <c r="AI21" s="4">
-        <f>AC21*$AQ20</f>
-        <v>8185.9999999999982</v>
+        <f t="shared" si="12"/>
+        <v>8155.9999999999991</v>
       </c>
       <c r="AJ21" s="4">
-        <f>AD21*$AQ20</f>
-        <v>8185.9999999999982</v>
+        <f t="shared" si="13"/>
+        <v>8155.9999999999991</v>
       </c>
       <c r="AK21" s="4">
-        <f>AE21*$AQ20</f>
-        <v>10641.799999999997</v>
+        <f t="shared" si="14"/>
+        <v>10602.8</v>
       </c>
       <c r="AL21" s="4">
-        <f>AF21*$AQ20</f>
-        <v>16371.999999999996</v>
+        <f t="shared" si="15"/>
+        <v>16311.999999999998</v>
       </c>
       <c r="AM21" s="4">
-        <f>AG21*$AQ20</f>
-        <v>16371.999999999996</v>
+        <f t="shared" si="16"/>
+        <v>16311.999999999998</v>
       </c>
       <c r="AN21" s="4">
-        <f>AH21*$AQ20</f>
-        <v>16371.999999999996</v>
+        <f t="shared" si="24"/>
+        <v>16311.999999999998</v>
       </c>
       <c r="AP21">
         <v>0.2</v>
@@ -3996,7 +3996,7 @@
         <v>5832080</v>
       </c>
       <c r="AX21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1458020</v>
       </c>
     </row>
@@ -4011,11 +4011,11 @@
         <v>0.7</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>40.419560742952648</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.363188688942444</v>
       </c>
       <c r="H22" s="5">
@@ -4025,19 +4025,19 @@
         <v>50000</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.26946373828635101</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5708956606682731</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8985</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>247760</v>
       </c>
       <c r="N22" s="7">
@@ -4048,19 +4048,19 @@
         <v>0</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>597750</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19776000</v>
       </c>
       <c r="T22" s="5">
@@ -4075,23 +4075,23 @@
         <v>0</v>
       </c>
       <c r="W22" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14266589.381700272</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>161071.94956066631</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>10355344.195125258</v>
       </c>
       <c r="Z22" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.26946373828635101</v>
       </c>
       <c r="AA22" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.52363188688942441</v>
       </c>
       <c r="AB22" s="6">
@@ -4116,28 +4116,28 @@
         <v>200</v>
       </c>
       <c r="AI22" s="4">
-        <f>AC22*$AQ21</f>
-        <v>8205.9999999999982</v>
+        <f t="shared" si="12"/>
+        <v>8185.9999999999982</v>
       </c>
       <c r="AJ22" s="4">
-        <f>AD22*$AQ21</f>
-        <v>8205.9999999999982</v>
+        <f t="shared" si="13"/>
+        <v>8185.9999999999982</v>
       </c>
       <c r="AK22" s="4">
-        <f>AE22*$AQ21</f>
-        <v>10667.8</v>
+        <f t="shared" si="14"/>
+        <v>10641.799999999997</v>
       </c>
       <c r="AL22" s="4">
-        <f>AF22*$AQ21</f>
-        <v>16411.999999999996</v>
+        <f t="shared" si="15"/>
+        <v>16371.999999999996</v>
       </c>
       <c r="AM22" s="4">
-        <f>AG22*$AQ21</f>
-        <v>16411.999999999996</v>
+        <f t="shared" si="16"/>
+        <v>16371.999999999996</v>
       </c>
       <c r="AN22" s="4">
-        <f>AH22*$AQ21</f>
-        <v>16411.999999999996</v>
+        <f t="shared" si="24"/>
+        <v>16371.999999999996</v>
       </c>
       <c r="AP22">
         <v>0.18</v>
@@ -4153,7 +4153,7 @@
         <v>5948720</v>
       </c>
       <c r="AX22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1487180</v>
       </c>
     </row>
@@ -4168,11 +4168,11 @@
         <v>0.7</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>41.23270919909293</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.36329081427418</v>
       </c>
       <c r="H23" s="5">
@@ -4182,19 +4182,19 @@
         <v>50000</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27488472799395286</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6308987244282254</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8965</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>247640</v>
       </c>
       <c r="N23" s="7">
@@ -4205,19 +4205,19 @@
         <v>0</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>594750</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19764000</v>
       </c>
       <c r="T23" s="5">
@@ -4232,23 +4232,23 @@
         <v>0</v>
       </c>
       <c r="W23" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14256268.774357187</v>
       </c>
       <c r="X23" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>163487.69197440345</v>
       </c>
       <c r="Y23" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>10744360.796533149</v>
       </c>
       <c r="Z23" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.27488472799395286</v>
       </c>
       <c r="AA23" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.54363290814274179</v>
       </c>
       <c r="AB23" s="6">
@@ -4273,28 +4273,28 @@
         <v>200</v>
       </c>
       <c r="AI23" s="4">
-        <f>AC23*$AQ22</f>
-        <v>8224</v>
+        <f t="shared" si="12"/>
+        <v>8205.9999999999982</v>
       </c>
       <c r="AJ23" s="4">
-        <f>AD23*$AQ22</f>
-        <v>8224</v>
+        <f t="shared" si="13"/>
+        <v>8205.9999999999982</v>
       </c>
       <c r="AK23" s="4">
-        <f>AE23*$AQ22</f>
-        <v>10691.199999999999</v>
+        <f t="shared" si="14"/>
+        <v>10667.8</v>
       </c>
       <c r="AL23" s="4">
-        <f>AF23*$AQ22</f>
-        <v>16448</v>
+        <f t="shared" si="15"/>
+        <v>16411.999999999996</v>
       </c>
       <c r="AM23" s="4">
-        <f>AG23*$AQ22</f>
-        <v>16448</v>
+        <f t="shared" si="16"/>
+        <v>16411.999999999996</v>
       </c>
       <c r="AN23" s="4">
-        <f>AH23*$AQ22</f>
-        <v>16448</v>
+        <f t="shared" si="24"/>
+        <v>16411.999999999996</v>
       </c>
       <c r="AP23">
         <v>0.17</v>
@@ -4310,7 +4310,7 @@
         <v>6067690</v>
       </c>
       <c r="AX23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1516923</v>
       </c>
     </row>
@@ -4325,11 +4325,11 @@
         <v>0.7</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>42.065028102993502</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.440061000423356</v>
       </c>
       <c r="H24" s="5">
@@ -4339,19 +4339,19 @@
         <v>50000</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.28043352068662336</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6932018300127007</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8945</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>247520</v>
       </c>
       <c r="N24" s="7">
@@ -4362,19 +4362,19 @@
         <v>0</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>591750</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19752000</v>
       </c>
       <c r="T24" s="5">
@@ -4386,26 +4386,26 @@
       </c>
       <c r="V24" s="14">
         <f t="shared" si="3"/>
-        <v>8241</v>
+        <v>8224</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14245954.875517478</v>
       </c>
       <c r="X24" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>165946.53586630936</v>
       </c>
       <c r="Y24" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>11148040.848803623</v>
       </c>
       <c r="Z24" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.28043352068662336</v>
       </c>
       <c r="AA24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.56440061000423358</v>
       </c>
       <c r="AB24" s="5">
@@ -4430,28 +4430,28 @@
         <v>200</v>
       </c>
       <c r="AI24" s="4">
-        <f>AC24*$AQ23</f>
-        <v>8241</v>
+        <f t="shared" si="12"/>
+        <v>8224</v>
       </c>
       <c r="AJ24" s="4">
-        <f>AD24*$AQ23</f>
-        <v>8241</v>
+        <f t="shared" si="13"/>
+        <v>8224</v>
       </c>
       <c r="AK24" s="4">
-        <f>AE24*$AQ23</f>
-        <v>10713.3</v>
+        <f t="shared" si="14"/>
+        <v>10691.199999999999</v>
       </c>
       <c r="AL24" s="4">
-        <f>AF24*$AQ23</f>
-        <v>16482</v>
+        <f t="shared" si="15"/>
+        <v>16448</v>
       </c>
       <c r="AM24" s="4">
-        <f>AG24*$AQ23</f>
-        <v>16482</v>
+        <f t="shared" si="16"/>
+        <v>16448</v>
       </c>
       <c r="AN24" s="4">
-        <f>AH24*$AQ23</f>
-        <v>16482</v>
+        <f t="shared" si="24"/>
+        <v>16448</v>
       </c>
       <c r="AP24">
         <v>0.16</v>
@@ -4467,7 +4467,7 @@
         <v>6189040</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1547260</v>
       </c>
     </row>
@@ -4482,11 +4482,11 @@
         <v>0.7</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>42.9170458696656</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.596448741381792</v>
       </c>
       <c r="H25" s="5">
@@ -4496,19 +4496,19 @@
         <v>50000</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.28611363913110399</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7578934622414537</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8925</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>247400</v>
       </c>
       <c r="N25" s="7">
@@ -4519,19 +4519,19 @@
         <v>0</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>588750</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19740000</v>
       </c>
       <c r="T25" s="5">
@@ -4543,26 +4543,26 @@
       </c>
       <c r="V25" s="14">
         <f t="shared" si="3"/>
-        <v>16514</v>
+        <v>16482</v>
       </c>
       <c r="W25" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14235647.940336451</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>168449.40503843749</v>
       </c>
       <c r="Y25" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>11566938.981548766</v>
       </c>
       <c r="Z25" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.28611363913110399</v>
       </c>
       <c r="AA25" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.5859644874138179</v>
       </c>
       <c r="AB25" s="6">
@@ -4587,28 +4587,28 @@
         <v>200</v>
       </c>
       <c r="AI25" s="4">
-        <f>AC25*$AQ24</f>
-        <v>8257</v>
+        <f t="shared" si="12"/>
+        <v>8241</v>
       </c>
       <c r="AJ25" s="4">
-        <f>AD25*$AQ24</f>
-        <v>8257</v>
+        <f t="shared" si="13"/>
+        <v>8241</v>
       </c>
       <c r="AK25" s="4">
-        <f>AE25*$AQ24</f>
-        <v>10734.099999999999</v>
+        <f t="shared" si="14"/>
+        <v>10713.3</v>
       </c>
       <c r="AL25" s="4">
-        <f>AF25*$AQ24</f>
-        <v>16514</v>
+        <f t="shared" si="15"/>
+        <v>16482</v>
       </c>
       <c r="AM25" s="4">
-        <f>AG25*$AQ24</f>
-        <v>16514</v>
+        <f t="shared" si="16"/>
+        <v>16482</v>
       </c>
       <c r="AN25" s="4">
-        <f>AH25*$AQ24</f>
-        <v>16514</v>
+        <f t="shared" si="24"/>
+        <v>16482</v>
       </c>
       <c r="AP25">
         <v>0.15</v>
@@ -4624,7 +4624,7 @@
         <v>6312820</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1578205</v>
       </c>
     </row>
@@ -4639,11 +4639,11 @@
         <v>0.7</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43.789307809193332</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.835517421390072</v>
       </c>
       <c r="H26" s="5">
@@ -4653,19 +4653,19 @@
         <v>50000</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.29192871872795556</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8250655226417023</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8905</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>247280</v>
       </c>
       <c r="N26" s="7">
@@ -4676,19 +4676,19 @@
         <v>0</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q26" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>585750</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19728000</v>
       </c>
       <c r="T26" s="5">
@@ -4700,26 +4700,26 @@
       </c>
       <c r="V26" s="14">
         <f t="shared" si="3"/>
-        <v>27297.599999999999</v>
+        <v>27248.1</v>
       </c>
       <c r="W26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14225348.233772725</v>
       </c>
       <c r="X26" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>170997.24699489996</v>
       </c>
       <c r="Y26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>12001630.876891833</v>
       </c>
       <c r="Z26" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.29192871872795556</v>
       </c>
       <c r="AA26" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.60835517421390073</v>
       </c>
       <c r="AB26" s="6">
@@ -4744,28 +4744,28 @@
         <v>200</v>
       </c>
       <c r="AI26" s="4">
-        <f>AC26*$AQ25</f>
-        <v>8272</v>
+        <f t="shared" si="12"/>
+        <v>8257</v>
       </c>
       <c r="AJ26" s="4">
-        <f>AD26*$AQ25</f>
-        <v>8272</v>
+        <f t="shared" si="13"/>
+        <v>8257</v>
       </c>
       <c r="AK26" s="4">
-        <f>AE26*$AQ25</f>
-        <v>10753.6</v>
+        <f t="shared" si="14"/>
+        <v>10734.099999999999</v>
       </c>
       <c r="AL26" s="4">
-        <f>AF26*$AQ25</f>
-        <v>16544</v>
+        <f t="shared" si="15"/>
+        <v>16514</v>
       </c>
       <c r="AM26" s="4">
-        <f>AG26*$AQ25</f>
-        <v>16544</v>
+        <f t="shared" si="16"/>
+        <v>16514</v>
       </c>
       <c r="AN26" s="4">
-        <f>AH26*$AQ25</f>
-        <v>16544</v>
+        <f t="shared" si="24"/>
+        <v>16514</v>
       </c>
       <c r="AP26">
         <v>0.14000000000000001</v>
@@ -4781,7 +4781,7 @@
         <v>6439080</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1609770</v>
       </c>
     </row>
@@ -4796,11 +4796,11 @@
         <v>0.7</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>44.682376746666108</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.16044872929578</v>
       </c>
       <c r="H27" s="5">
@@ -4810,19 +4810,19 @@
         <v>50000</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.29788251164444074</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8948134618788735</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8885</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>247160</v>
       </c>
       <c r="N27" s="7">
@@ -4833,19 +4833,19 @@
         <v>0</v>
       </c>
       <c r="P27" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q27" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>582750</v>
       </c>
       <c r="S27" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19716000</v>
       </c>
       <c r="T27" s="5">
@@ -4857,26 +4857,26 @@
       </c>
       <c r="V27" s="14">
         <f t="shared" si="3"/>
-        <v>43915.8</v>
+        <v>43841.599999999999</v>
       </c>
       <c r="W27" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14214743.254330488</v>
       </c>
       <c r="X27" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>173591.03366079784</v>
       </c>
       <c r="Y27" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>12452714.071467957</v>
       </c>
       <c r="Z27" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.29788251164444074</v>
       </c>
       <c r="AA27" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.63160448729295782</v>
       </c>
       <c r="AB27" s="5">
@@ -4901,28 +4901,28 @@
         <v>200</v>
       </c>
       <c r="AI27" s="4">
-        <f>AC27*$AQ26</f>
-        <v>8286</v>
+        <f t="shared" si="12"/>
+        <v>8272</v>
       </c>
       <c r="AJ27" s="4">
-        <f>AD27*$AQ26</f>
-        <v>8286</v>
+        <f t="shared" si="13"/>
+        <v>8272</v>
       </c>
       <c r="AK27" s="4">
-        <f>AE27*$AQ26</f>
-        <v>10771.8</v>
+        <f t="shared" si="14"/>
+        <v>10753.6</v>
       </c>
       <c r="AL27" s="4">
-        <f>AF27*$AQ26</f>
-        <v>16572</v>
+        <f t="shared" si="15"/>
+        <v>16544</v>
       </c>
       <c r="AM27" s="4">
-        <f>AG27*$AQ26</f>
-        <v>16572</v>
+        <f t="shared" si="16"/>
+        <v>16544</v>
       </c>
       <c r="AN27" s="4">
-        <f>AH27*$AQ26</f>
-        <v>16572</v>
+        <f t="shared" si="24"/>
+        <v>16544</v>
       </c>
       <c r="AP27">
         <v>0.13</v>
@@ -4938,7 +4938,7 @@
         <v>6567860</v>
       </c>
       <c r="AX27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1641965</v>
       </c>
     </row>
@@ -4953,11 +4953,11 @@
         <v>0.7</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>45.4799331488109</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.574547244673738</v>
       </c>
       <c r="H28" s="5">
@@ -4967,19 +4967,19 @@
         <v>50000</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30319955432540602</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9672364173402124</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8875</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>247040</v>
       </c>
       <c r="N28" s="7">
@@ -4990,19 +4990,19 @@
         <v>1674805</v>
       </c>
       <c r="P28" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>47989.569083447335</v>
       </c>
       <c r="Q28" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1626815.4309165527</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>581250</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19704000</v>
       </c>
       <c r="T28" s="5">
@@ -5014,26 +5014,26 @@
       </c>
       <c r="V28" s="14">
         <f t="shared" si="3"/>
-        <v>60582.7</v>
+        <v>60487.8</v>
       </c>
       <c r="W28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14205501.621500595</v>
       </c>
       <c r="X28" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>176234.74095164225</v>
       </c>
       <c r="Y28" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>12920808.789090514</v>
       </c>
       <c r="Z28" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.30319955432540602</v>
       </c>
       <c r="AA28" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.65574547244673742</v>
       </c>
       <c r="AB28" s="6">
@@ -5058,28 +5058,28 @@
         <v>200</v>
       </c>
       <c r="AI28" s="4">
-        <f>AC28*$AQ27</f>
-        <v>8299</v>
+        <f t="shared" si="12"/>
+        <v>8286</v>
       </c>
       <c r="AJ28" s="4">
-        <f>AD28*$AQ27</f>
-        <v>8299</v>
+        <f t="shared" si="13"/>
+        <v>8286</v>
       </c>
       <c r="AK28" s="4">
-        <f>AE28*$AQ27</f>
-        <v>10788.699999999999</v>
+        <f t="shared" si="14"/>
+        <v>10771.8</v>
       </c>
       <c r="AL28" s="4">
-        <f>AF28*$AQ27</f>
-        <v>16598</v>
+        <f t="shared" si="15"/>
+        <v>16572</v>
       </c>
       <c r="AM28" s="4">
-        <f>AG28*$AQ27</f>
-        <v>16598</v>
+        <f t="shared" si="16"/>
+        <v>16572</v>
       </c>
       <c r="AN28" s="4">
-        <f>AH28*$AQ27</f>
-        <v>16598</v>
+        <f t="shared" si="24"/>
+        <v>16572</v>
       </c>
       <c r="AP28">
         <v>0.125</v>
@@ -5095,7 +5095,7 @@
         <v>6699220</v>
       </c>
       <c r="AX28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1674805</v>
       </c>
     </row>
@@ -5110,11 +5110,11 @@
         <v>0.7</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>33.876594027759289</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.819944009463768</v>
       </c>
       <c r="H29" s="5">
@@ -5124,19 +5124,19 @@
         <v>50000</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.22584396018506192</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7945983202839129</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8865</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>246920</v>
       </c>
       <c r="N29" s="7">
@@ -5147,19 +5147,19 @@
         <v>0</v>
       </c>
       <c r="P29" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q29" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>579750</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19692000</v>
       </c>
       <c r="T29" s="5">
@@ -5171,26 +5171,26 @@
       </c>
       <c r="V29" s="14">
         <f t="shared" si="3"/>
-        <v>60673.95</v>
+        <v>60582.7</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14195368.443375893</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>130933.03591728964</v>
       </c>
       <c r="Y29" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>11779743.374343606</v>
       </c>
       <c r="Z29" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.22584396018506192</v>
       </c>
       <c r="AA29" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.59819944009463766</v>
       </c>
       <c r="AB29" s="6">
@@ -5215,28 +5215,28 @@
         <v>200</v>
       </c>
       <c r="AI29" s="4">
-        <f>AC29*$AQ28</f>
-        <v>8311.5</v>
+        <f t="shared" si="12"/>
+        <v>8299</v>
       </c>
       <c r="AJ29" s="4">
-        <f>AD29*$AQ28</f>
-        <v>8311.5</v>
+        <f t="shared" si="13"/>
+        <v>8299</v>
       </c>
       <c r="AK29" s="4">
-        <f>AE29*$AQ28</f>
-        <v>10804.949999999999</v>
+        <f t="shared" si="14"/>
+        <v>10788.699999999999</v>
       </c>
       <c r="AL29" s="4">
-        <f>AF29*$AQ28</f>
-        <v>16623</v>
+        <f t="shared" si="15"/>
+        <v>16598</v>
       </c>
       <c r="AM29" s="4">
-        <f>AG29*$AQ28</f>
-        <v>16623</v>
+        <f t="shared" si="16"/>
+        <v>16598</v>
       </c>
       <c r="AN29" s="4">
-        <f>AH29*$AQ28</f>
-        <v>16623</v>
+        <f t="shared" si="24"/>
+        <v>16598</v>
       </c>
       <c r="AP29">
         <v>0.1225</v>
@@ -5252,7 +5252,7 @@
         <v>6833200</v>
       </c>
       <c r="AX29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1708300</v>
       </c>
     </row>
@@ -5267,11 +5267,11 @@
         <v>0.7</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>34.438863576302921</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.106962600557289</v>
       </c>
       <c r="H30" s="5">
@@ -5281,19 +5281,19 @@
         <v>50000</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.22959242384201947</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8632088780167186</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8860</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>246800</v>
       </c>
       <c r="N30" s="7">
@@ -5304,19 +5304,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>579000</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19680000</v>
       </c>
       <c r="T30" s="5">
@@ -5328,26 +5328,26 @@
       </c>
       <c r="V30" s="14">
         <f t="shared" si="3"/>
-        <v>60763.375</v>
+        <v>60673.95</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14186637.520880964</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>132934.01340452928</v>
       </c>
       <c r="Y30" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>12222650.239789676</v>
       </c>
       <c r="Z30" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.22959242384201947</v>
       </c>
       <c r="AA30" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.62106962600557292</v>
       </c>
       <c r="AB30" s="5">
@@ -5372,28 +5372,28 @@
         <v>200</v>
       </c>
       <c r="AI30" s="4">
-        <f>AC30*$AQ29</f>
-        <v>8323.75</v>
+        <f t="shared" si="12"/>
+        <v>8311.5</v>
       </c>
       <c r="AJ30" s="4">
-        <f>AD30*$AQ29</f>
-        <v>8323.75</v>
+        <f t="shared" si="13"/>
+        <v>8311.5</v>
       </c>
       <c r="AK30" s="4">
-        <f>AE30*$AQ29</f>
-        <v>10820.875</v>
+        <f t="shared" si="14"/>
+        <v>10804.949999999999</v>
       </c>
       <c r="AL30" s="4">
-        <f>AF30*$AQ29</f>
-        <v>16647.5</v>
+        <f t="shared" si="15"/>
+        <v>16623</v>
       </c>
       <c r="AM30" s="4">
-        <f>AG30*$AQ29</f>
-        <v>16647.5</v>
+        <f t="shared" si="16"/>
+        <v>16623</v>
       </c>
       <c r="AN30" s="4">
-        <f>AH30*$AQ29</f>
-        <v>16647.5</v>
+        <f t="shared" si="24"/>
+        <v>16623</v>
       </c>
       <c r="AP30">
         <v>0.12239999999999999</v>
@@ -5409,7 +5409,7 @@
         <v>6969860</v>
       </c>
       <c r="AX30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1742465</v>
       </c>
     </row>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F24505-A3C9-FA40-9649-D29A953EF31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE5110E-AA8A-0949-A78E-AD3CE8A4FF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="780" windowWidth="33680" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
@@ -5621,7 +5621,7 @@
   <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE5110E-AA8A-0949-A78E-AD3CE8A4FF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BCE304-90C2-984A-9BC2-F6666261E3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="780" windowWidth="33680" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="2280" yWindow="760" windowWidth="33680" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="166">
   <si>
     <t>forest_primary_c_ha</t>
   </si>
@@ -196,9 +196,6 @@
     <t>t = 0</t>
   </si>
   <si>
-    <t>tonne C/ha</t>
-  </si>
-  <si>
     <t>protected area</t>
   </si>
   <si>
@@ -208,39 +205,21 @@
     <t xml:space="preserve">c available from conversion </t>
   </si>
   <si>
-    <t>min frac original stock required (minimum fraction of original stock that must remain on the land to allow it to remain that land use type)</t>
-  </si>
-  <si>
     <t>frac la conversion available for use</t>
   </si>
   <si>
     <t>land use conversion away</t>
   </si>
   <si>
-    <t>average stock per ha available--subtracts out min frac of original value that mus tremain in each type</t>
-  </si>
-  <si>
     <t>Demand</t>
   </si>
   <si>
     <t>calculated variables</t>
   </si>
   <si>
-    <t>demand satisfiable</t>
-  </si>
-  <si>
-    <t>total c available</t>
-  </si>
-  <si>
-    <t>c_available_from_new_forests (based on lag)</t>
-  </si>
-  <si>
     <t>C stock</t>
   </si>
   <si>
-    <t>adjusted sequestration</t>
-  </si>
-  <si>
     <t>Sequestration</t>
   </si>
   <si>
@@ -259,9 +238,6 @@
     <t>current average stock</t>
   </si>
   <si>
-    <t>c available from stock without sequestration</t>
-  </si>
-  <si>
     <t>c available from new sequestration</t>
   </si>
   <si>
@@ -286,15 +262,9 @@
     <t>Aforestation</t>
   </si>
   <si>
-    <t>area_from _t0</t>
-  </si>
-  <si>
     <t>area_from_t1</t>
   </si>
   <si>
-    <t>area_from_T2</t>
-  </si>
-  <si>
     <t>c_stock_t0</t>
   </si>
   <si>
@@ -304,14 +274,275 @@
     <t>c_stock_t2</t>
   </si>
   <si>
-    <t>`</t>
+    <t>Protection</t>
+  </si>
+  <si>
+    <t>Removals</t>
+  </si>
+  <si>
+    <t>original forest</t>
+  </si>
+  <si>
+    <t>average stock per ha available (accounts for min frac)</t>
+  </si>
+  <si>
+    <t>new forest</t>
+  </si>
+  <si>
+    <t>c available from stock beginning of period</t>
+  </si>
+  <si>
+    <t>after X years, new forests enter the full pool, and it's assumed that wood is pulled uniformly (deal with average sequestration factors)</t>
+  </si>
+  <si>
+    <t>t = 3</t>
+  </si>
+  <si>
+    <t>area_from_t2</t>
+  </si>
+  <si>
+    <t>area_from_t3</t>
+  </si>
+  <si>
+    <t>c_stock_t3</t>
+  </si>
+  <si>
+    <t>protection applies in an oldest first set</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>t = 4</t>
+  </si>
+  <si>
+    <t>t = 5</t>
+  </si>
+  <si>
+    <t>T x T</t>
+  </si>
+  <si>
+    <t>NEW FOREST PROTECTION MATRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Y) area_from _t0</t>
+  </si>
+  <si>
+    <t>zeros</t>
+  </si>
+  <si>
+    <t>adjusted sequestration in original</t>
+  </si>
+  <si>
+    <t>NPP Curve and Young Forest Assumptions</t>
+  </si>
+  <si>
+    <t>sequestration_factor_t0_base</t>
+  </si>
+  <si>
+    <t>sequestration_factor_t1_base</t>
+  </si>
+  <si>
+    <t>sequestration_factor_t2_base</t>
+  </si>
+  <si>
+    <t>sequestration_factor_t3_base</t>
+  </si>
+  <si>
+    <t>unproctected</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>orig</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>avail</t>
+  </si>
+  <si>
+    <t>unavail</t>
+  </si>
+  <si>
+    <t>c stock</t>
+  </si>
+  <si>
+    <t>6 bins</t>
+  </si>
+  <si>
+    <t>descrip</t>
+  </si>
+  <si>
+    <t>from original forests, c stock available</t>
+  </si>
+  <si>
+    <t>from original forests, c stock that is unavailable without affecting land use transition</t>
+  </si>
+  <si>
+    <t>from new forests, c stock available</t>
+  </si>
+  <si>
+    <t>from new forests, c stock unavailable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from original forests, c stock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">from protected forests, c stock </t>
+  </si>
+  <si>
+    <t>last in, last out</t>
+  </si>
+  <si>
+    <t>LILO</t>
+  </si>
+  <si>
+    <t>young_forest_protected</t>
+  </si>
+  <si>
+    <t>c_stock_over_thresh_t0</t>
+  </si>
+  <si>
+    <t>c_stock_over_thresh_t1</t>
+  </si>
+  <si>
+    <t>c_stock_over_thresh_t2</t>
+  </si>
+  <si>
+    <t>c_stock_over_thresh_t3</t>
+  </si>
+  <si>
+    <t>D = P + I - E</t>
+  </si>
+  <si>
+    <t>FRAC_IMPORTS = I/(P + I - E)</t>
+  </si>
+  <si>
+    <t>adjusted sequestration_factor_t0</t>
+  </si>
+  <si>
+    <t>adjusted sequestration_factor_t1</t>
+  </si>
+  <si>
+    <t>adjusted sequestration_factor_t2</t>
+  </si>
+  <si>
+    <t>adjusted sequestration_factor_t3</t>
+  </si>
+  <si>
+    <t>removals_from_nf_planted_at_t0</t>
+  </si>
+  <si>
+    <t>removals_from_nf_planted_at_t1</t>
+  </si>
+  <si>
+    <t>removals_from_nf_planted_at_t2</t>
+  </si>
+  <si>
+    <t>removals_from_nf_planted_at_t3</t>
+  </si>
+  <si>
+    <t>if_untouched_c_stock_t0</t>
+  </si>
+  <si>
+    <t>if_untouched_c_stock_t1</t>
+  </si>
+  <si>
+    <t>if_untouched_c_stock_t2</t>
+  </si>
+  <si>
+    <t>if_untouched_c_stock_t3</t>
+  </si>
+  <si>
+    <t>land use conversion away from new forest</t>
+  </si>
+  <si>
+    <t>forest area (start)</t>
+  </si>
+  <si>
+    <t>c_stock_available_for_harvest_planted_at_t0</t>
+  </si>
+  <si>
+    <t>c_stock_available_for_harvest_planted_at_t1</t>
+  </si>
+  <si>
+    <t>c_stock_available_for_harvest_planted_at_t2</t>
+  </si>
+  <si>
+    <t>c_stock_available_for_harvest_planted_at_t3</t>
+  </si>
+  <si>
+    <t>base tonne C/ha reqd maintained</t>
+  </si>
+  <si>
+    <t>base storage tonne C/ha</t>
+  </si>
+  <si>
+    <t>removals from nf</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t>dead storage (minimum fraction of original stock that must remain on the land to allow it to remain that land use type)</t>
+  </si>
+  <si>
+    <t>buffer zone (fraction of stock above dead storage which contributes to slowing removals)</t>
+  </si>
+  <si>
+    <t>some reservoir terms</t>
+  </si>
+  <si>
+    <t>(percentage of forest stock available out of full stock  ) carbon_stock_factor</t>
+  </si>
+  <si>
+    <t>healthy storage available</t>
+  </si>
+  <si>
+    <t>frac_removals_satisficable</t>
+  </si>
+  <si>
+    <t>removals allocation</t>
+  </si>
+  <si>
+    <t>removals from original</t>
+  </si>
+  <si>
+    <t>total starting stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock in unprotected reservoir dead storage </t>
+  </si>
+  <si>
+    <t>stock to allocate from original pool excluding conversion</t>
+  </si>
+  <si>
+    <t>total starting stock in original</t>
+  </si>
+  <si>
+    <t>total starting stock in new</t>
+  </si>
+  <si>
+    <t>total accessible pool</t>
+  </si>
+  <si>
+    <t>removals  unmet by original</t>
+  </si>
+  <si>
+    <t>drops</t>
+  </si>
+  <si>
+    <t>cumulative_vals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,6 +575,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -391,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,24 +656,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -454,9 +673,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -465,6 +681,38 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,60 +1259,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="12" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="13" t="s">
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="13"/>
+      <c r="V1" s="23"/>
       <c r="W1" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
       <c r="AI1" s="7" t="s">
         <v>37</v>
       </c>
@@ -1411,7 +1659,7 @@
         <v>1025000</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" ref="P4:P7" si="1">$O4*R4/($R4+$S4)</f>
+        <f t="shared" ref="P4:P5" si="1">$O4*R4/($R4+$S4)</f>
         <v>36708.669962619075</v>
       </c>
       <c r="Q4" s="5">
@@ -1430,7 +1678,7 @@
         <v>0.3</v>
       </c>
       <c r="U4" s="9">
-        <f t="shared" ref="U3:U30" si="3">(C4*F4 + D4*G4)*E4</f>
+        <f t="shared" ref="U4:U30" si="3">(C4*F4 + D4*G4)*E4</f>
         <v>12046.325970274902</v>
       </c>
       <c r="V4" s="9">
@@ -1561,7 +1809,7 @@
         <v>1062500</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" ref="O4:O30" si="11">INT(Z5&gt;T5)*MIN(N5,W5)</f>
+        <f t="shared" ref="O5:O30" si="11">INT(Z5&gt;T5)*MIN(N5,W5)</f>
         <v>1062500</v>
       </c>
       <c r="P5" s="5">
@@ -1784,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" ref="AI5:AI30" si="25">AC6*$AQ4</f>
+        <f t="shared" ref="AI6:AI30" si="25">AC6*$AQ4</f>
         <v>6.0000000000000009</v>
       </c>
       <c r="AJ6" s="3">
@@ -5601,16 +5849,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="R1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5618,37 +5866,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:AJ134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.83203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="56" style="10" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="5" customWidth="1"/>
     <col min="6" max="7" width="13.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="5" customWidth="1"/>
     <col min="9" max="10" width="13.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" customWidth="1"/>
-    <col min="19" max="19" width="4.1640625" customWidth="1"/>
-    <col min="21" max="21" width="9.1640625" customWidth="1"/>
-    <col min="22" max="22" width="3.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" style="5" customWidth="1"/>
+    <col min="15" max="16" width="13.33203125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" style="5" customWidth="1"/>
+    <col min="18" max="19" width="13.33203125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="4.33203125" customWidth="1"/>
+    <col min="21" max="23" width="14.6640625" customWidth="1"/>
+    <col min="27" max="27" width="4.1640625" customWidth="1"/>
+    <col min="29" max="29" width="9.1640625" customWidth="1"/>
+    <col min="30" max="30" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
-      <c r="B1" s="16"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E1" s="5">
         <v>1</v>
@@ -5659,85 +5914,156 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="16"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="14">
+        <v>64</v>
+      </c>
+      <c r="E2" s="21">
         <v>150</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="5"/>
+      <c r="M2" s="4">
+        <v>249700</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="14">
+        <v>65</v>
+      </c>
+      <c r="E3" s="21">
         <v>30</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="23"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="26">
+        <v>1</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="26">
+        <v>2</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="26">
+        <v>3</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="26">
+        <v>4</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="26">
+        <v>5</v>
+      </c>
+      <c r="S4" s="26"/>
+      <c r="U4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="AC4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="I5" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="M5" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="L5" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="25"/>
+      <c r="R5" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" s="25"/>
+      <c r="U5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N5" t="s">
+      <c r="V5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="O5" t="s">
+      <c r="W5" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -5758,20 +6084,38 @@
       <c r="J6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f>SUM(M$6:M6)</f>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
-        <v>78</v>
+      <c r="L6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="24">
+        <v>0</v>
+      </c>
+      <c r="V6" s="24">
+        <f>SUM(U$6:U6)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C7" s="4">
         <v>10000</v>
@@ -5780,957 +6124,2555 @@
         <v>250000</v>
       </c>
       <c r="F7" s="4">
-        <f>C7-C8</f>
+        <f>C7-C9</f>
         <v>9950</v>
       </c>
       <c r="G7" s="4">
-        <f>D7-D8</f>
+        <f>MAX(D7-D9,0)</f>
         <v>249900</v>
       </c>
       <c r="I7" s="4">
-        <f>F7-F8</f>
+        <f>F7-F9</f>
         <v>9888</v>
       </c>
       <c r="J7" s="4">
-        <f>G7-G8</f>
+        <f>MAX(G7-G9,0)</f>
         <v>249790</v>
       </c>
-      <c r="M7">
+      <c r="L7" s="4">
+        <f>I7-I9</f>
+        <v>9830</v>
+      </c>
+      <c r="M7" s="4">
+        <f>MAX(J7-J9,0)</f>
+        <v>249696</v>
+      </c>
+      <c r="O7" s="4">
+        <f>L7-L9</f>
+        <v>9760</v>
+      </c>
+      <c r="P7" s="4">
+        <f>MAX(M7-M9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <f>O7-O9</f>
+        <v>9660</v>
+      </c>
+      <c r="S7" s="4">
+        <f>MAX(P7-P9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="24">
         <v>0.01</v>
       </c>
-      <c r="N7">
-        <f>SUM(M$6:M7)</f>
+      <c r="V7" s="24">
+        <f>SUM(U$6:U7)</f>
         <v>0.01</v>
       </c>
-      <c r="O7">
+      <c r="W7" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="AC7">
+        <f>ROUND(AB7/4,0)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C7</f>
+        <v>10000</v>
+      </c>
+      <c r="D8" s="4">
+        <f>D7</f>
+        <v>250000</v>
+      </c>
+      <c r="F8" s="4">
+        <f>F7</f>
+        <v>9950</v>
+      </c>
+      <c r="G8" s="4">
+        <f>D8-D9+D11</f>
+        <v>249985</v>
+      </c>
+      <c r="I8" s="4">
+        <f>I7</f>
+        <v>9888</v>
+      </c>
+      <c r="J8" s="4">
+        <f>G8-G9+G11</f>
+        <v>249955</v>
+      </c>
+      <c r="L8" s="4">
+        <f>L7</f>
+        <v>9830</v>
+      </c>
+      <c r="M8" s="4">
+        <f>J8-J9+J11</f>
+        <v>249953</v>
+      </c>
+      <c r="O8" s="4">
+        <f>O7</f>
+        <v>9760</v>
+      </c>
+      <c r="P8" s="4">
+        <f>M8-M9+M11</f>
+        <v>296</v>
+      </c>
+      <c r="R8" s="4">
+        <f>R7</f>
+        <v>9660</v>
+      </c>
+      <c r="S8" s="4">
+        <f>P8-P9+P11</f>
+        <v>349</v>
+      </c>
+      <c r="U8" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="V8" s="24">
+        <f>SUM(U$6:U8)</f>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="W8" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="4">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4">
+        <v>100</v>
+      </c>
+      <c r="F9" s="4">
+        <v>62</v>
+      </c>
+      <c r="G9" s="4">
+        <v>110</v>
+      </c>
+      <c r="I9" s="4">
+        <v>58</v>
+      </c>
+      <c r="J9" s="4">
+        <v>94</v>
+      </c>
+      <c r="L9" s="4">
+        <v>70</v>
+      </c>
+      <c r="M9" s="4">
+        <v>249700</v>
+      </c>
+      <c r="O9" s="4">
+        <v>100</v>
+      </c>
+      <c r="P9" s="4">
+        <v>39</v>
+      </c>
+      <c r="R9" s="4">
+        <v>98</v>
+      </c>
+      <c r="S9" s="4">
+        <v>105</v>
+      </c>
+      <c r="U9" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="V9" s="24">
+        <f>SUM(U$6:U9)</f>
+        <v>0.18</v>
+      </c>
+      <c r="W9" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>4100000</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" ref="AC9:AC133" si="0">ROUND(AB9/4,0)</f>
+        <v>1025000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="4">
+        <f>-MIN(D7-D9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f>-MIN(G7-G9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f>-MIN(J7-J9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <f>-MIN(M7-M9,0)</f>
+        <v>4</v>
+      </c>
+      <c r="P10" s="4">
+        <f>-MIN(P7-P9,0)</f>
+        <v>39</v>
+      </c>
+      <c r="S10" s="4">
+        <f>-MIN(S7-S9,0)</f>
+        <v>105</v>
+      </c>
+      <c r="U10" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="V10" s="24">
+        <f>SUM(U$6:U10)</f>
+        <v>0.38</v>
+      </c>
+      <c r="W10" s="24">
         <v>20</v>
       </c>
-      <c r="T7" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="U7">
-        <f>ROUND(T7/4,0)</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4">
-        <v>50</v>
-      </c>
-      <c r="D8" s="4">
-        <v>100</v>
-      </c>
-      <c r="F8" s="4">
-        <v>62</v>
-      </c>
-      <c r="G8" s="4">
-        <v>110</v>
-      </c>
-      <c r="I8" s="4">
-        <v>58</v>
-      </c>
-      <c r="J8" s="4">
-        <v>94</v>
-      </c>
-      <c r="M8">
-        <v>0.05</v>
-      </c>
-      <c r="N8">
-        <f>SUM(M$6:M8)</f>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="O8">
+      <c r="AB10" s="5"/>
+    </row>
+    <row r="11" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="4">
+        <v>85</v>
+      </c>
+      <c r="G11" s="4">
+        <v>80</v>
+      </c>
+      <c r="J11" s="4">
+        <v>92</v>
+      </c>
+      <c r="M11" s="4">
+        <v>43</v>
+      </c>
+      <c r="P11" s="4">
+        <v>92</v>
+      </c>
+      <c r="S11" s="4">
+        <v>43</v>
+      </c>
+      <c r="U11" s="24">
+        <v>0.36</v>
+      </c>
+      <c r="V11" s="24">
+        <f>SUM(U$6:U11)</f>
+        <v>0.74</v>
+      </c>
+      <c r="W11" s="24">
         <v>20</v>
       </c>
-      <c r="T8" s="5">
-        <v>4100000</v>
-      </c>
-      <c r="U8">
-        <f t="shared" ref="U8:U60" si="0">ROUND(T8/4,0)</f>
-        <v>1025000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="4">
-        <v>85</v>
-      </c>
-      <c r="G9" s="4">
-        <v>80</v>
-      </c>
-      <c r="J9" s="4">
-        <v>92</v>
-      </c>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="U12" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="V12" s="24">
+        <f>SUM(U$6:U12)</f>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="W12" s="24">
+        <v>20</v>
+      </c>
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4">
         <v>0.7</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F13" s="4">
         <v>0.7</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I13" s="4">
         <v>0.7</v>
       </c>
-      <c r="M10">
-        <v>0.2</v>
-      </c>
-      <c r="N10">
-        <f>SUM(M$6:M10)</f>
-        <v>0.26</v>
-      </c>
-      <c r="O10">
+      <c r="L13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="U13" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="V13" s="24">
+        <f>SUM(U$6:U13)</f>
+        <v>3.1399999999999997</v>
+      </c>
+      <c r="W13" s="24">
         <v>20</v>
       </c>
-      <c r="T10" s="5">
+      <c r="AB13" s="5">
         <v>4250000</v>
       </c>
-      <c r="U10">
+      <c r="AC13">
         <f t="shared" si="0"/>
         <v>1062500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="4">
+    <row r="14" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="4">
         <v>0.3</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F14" s="4">
         <v>0.3</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I14" s="4">
         <v>0.3</v>
       </c>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="L14" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="U14" s="24">
+        <v>3</v>
+      </c>
+      <c r="V14" s="24">
+        <f>SUM(U$6:U14)</f>
+        <v>6.14</v>
+      </c>
+      <c r="W14" s="24">
+        <v>20</v>
+      </c>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="4">
+      <c r="C15" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="U15" s="24">
+        <v>6</v>
+      </c>
+      <c r="V15" s="24">
+        <f>SUM(U$6:U15)</f>
+        <v>12.14</v>
+      </c>
+      <c r="W15" s="24">
+        <v>20</v>
+      </c>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="U16" s="24">
+        <v>10</v>
+      </c>
+      <c r="V16" s="24">
+        <f>SUM(U$6:U16)</f>
+        <v>22.14</v>
+      </c>
+      <c r="W16" s="24">
+        <v>20</v>
+      </c>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="U17" s="24">
+        <v>12</v>
+      </c>
+      <c r="V17" s="24">
+        <f>SUM(U$6:U17)</f>
+        <v>34.14</v>
+      </c>
+      <c r="W17" s="24">
+        <v>20</v>
+      </c>
+      <c r="AB17" s="5"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="U18" s="24">
+        <v>13.5</v>
+      </c>
+      <c r="V18" s="24">
+        <f>SUM(U$6:U18)</f>
+        <v>47.64</v>
+      </c>
+      <c r="W18" s="24">
+        <v>20</v>
+      </c>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="4">
+        <v>150</v>
+      </c>
+      <c r="D19" s="4">
         <v>100</v>
       </c>
-      <c r="M12">
-        <v>0.6</v>
-      </c>
-      <c r="N12">
-        <f>SUM(M$6:M12)</f>
-        <v>0.86</v>
-      </c>
-      <c r="O12">
+      <c r="U19" s="24">
+        <v>12</v>
+      </c>
+      <c r="V19" s="24">
+        <f>SUM(U$6:U19)</f>
+        <v>59.64</v>
+      </c>
+      <c r="W19" s="24">
         <v>20</v>
       </c>
-      <c r="T12" s="5">
+      <c r="AB19" s="5">
         <v>4400000</v>
       </c>
-      <c r="U12">
+      <c r="AC19">
         <f t="shared" si="0"/>
         <v>1100000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="4">
+    <row r="20" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="4">
+        <f>C$19*$C$14</f>
+        <v>45</v>
+      </c>
+      <c r="D20" s="4">
+        <f>D$19*$C$14</f>
+        <v>30</v>
+      </c>
+      <c r="U20" s="24">
+        <v>10</v>
+      </c>
+      <c r="V20" s="24">
+        <f>SUM(U$6:U20)</f>
+        <v>69.64</v>
+      </c>
+      <c r="W20" s="24">
+        <v>20</v>
+      </c>
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="21" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="4">
+        <f>C19-C20</f>
+        <v>105</v>
+      </c>
+      <c r="D21" s="4">
+        <f>D19-D20</f>
+        <v>70</v>
+      </c>
+      <c r="U21" s="24">
+        <v>6</v>
+      </c>
+      <c r="V21" s="24">
+        <f>SUM(U$6:U21)</f>
+        <v>75.64</v>
+      </c>
+      <c r="W21" s="24">
+        <v>20</v>
+      </c>
+      <c r="AB21" s="5"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="U22" s="24">
+        <v>3</v>
+      </c>
+      <c r="V22" s="24">
+        <f>SUM(U$6:U22)</f>
+        <v>78.64</v>
+      </c>
+      <c r="W22" s="24">
+        <v>20</v>
+      </c>
+      <c r="AB22" s="5"/>
+    </row>
+    <row r="23" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4">
         <v>5000</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D23" s="4">
         <v>50000</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F23" s="4">
         <v>5000</v>
       </c>
-      <c r="G13" s="4">
-        <v>50000</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="G23" s="4">
+        <v>250000</v>
+      </c>
+      <c r="I23" s="4">
         <v>6000</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J23" s="4">
+        <v>250000</v>
+      </c>
+      <c r="L23" s="4">
+        <v>6000</v>
+      </c>
+      <c r="M23" s="4">
+        <v>249800</v>
+      </c>
+      <c r="O23" s="4">
+        <v>6500</v>
+      </c>
+      <c r="P23" s="4">
         <v>49000</v>
       </c>
-      <c r="M13">
+      <c r="R23" s="4">
+        <v>7200</v>
+      </c>
+      <c r="S23" s="4">
+        <v>49500</v>
+      </c>
+      <c r="U23" s="24">
         <v>1.8</v>
       </c>
-      <c r="N13">
-        <f>SUM(M$6:M13)</f>
-        <v>2.66</v>
-      </c>
-      <c r="O13">
+      <c r="V23" s="24">
+        <f>SUM(U$6:U23)</f>
+        <v>80.44</v>
+      </c>
+      <c r="W23" s="24">
         <v>20</v>
       </c>
-      <c r="T13" s="5">
+      <c r="AB23" s="5">
         <v>4420000</v>
       </c>
-      <c r="U13">
+      <c r="AC23">
         <f t="shared" si="0"/>
         <v>1105000</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>3</v>
-      </c>
-      <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17">
-        <f>SUM(M$6:M17)</f>
-        <v>5.66</v>
-      </c>
-      <c r="O17">
-        <v>20</v>
-      </c>
-      <c r="T17" s="5">
+      <c r="AG23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="AB24" s="5"/>
+      <c r="AI24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AB25" s="5"/>
+      <c r="AG25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AB26" s="5"/>
+      <c r="AG26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AB27" s="5">
         <v>4508400</v>
       </c>
-      <c r="U17">
+      <c r="AC27">
         <f t="shared" si="0"/>
         <v>1127100</v>
       </c>
-    </row>
-    <row r="18" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="M18">
-        <v>6</v>
-      </c>
-      <c r="N18">
-        <f>SUM(M$6:M18)</f>
-        <v>11.66</v>
-      </c>
-      <c r="O18">
-        <v>20</v>
-      </c>
-      <c r="T18" s="5">
+      <c r="AG27" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="AB28" s="5">
         <v>4598570</v>
       </c>
-      <c r="U18">
+      <c r="AC28">
         <f t="shared" si="0"/>
         <v>1149643</v>
       </c>
-    </row>
-    <row r="19" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="M19">
-        <v>10</v>
-      </c>
-      <c r="N19">
-        <f>SUM(M$6:M19)</f>
-        <v>21.66</v>
-      </c>
-      <c r="O19">
-        <v>20</v>
-      </c>
-      <c r="T19" s="5">
+      <c r="AG28" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F29" s="4">
+        <v>205000</v>
+      </c>
+      <c r="I29" s="4">
+        <v>211000</v>
+      </c>
+      <c r="L29" s="4">
+        <v>221000</v>
+      </c>
+      <c r="O29" s="4">
+        <v>211000</v>
+      </c>
+      <c r="R29" s="4">
+        <v>221000</v>
+      </c>
+      <c r="AB29" s="5">
         <v>4690540</v>
       </c>
-      <c r="U19">
+      <c r="AC29">
         <f t="shared" si="0"/>
         <v>1172635</v>
       </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M20">
-        <v>12</v>
-      </c>
-      <c r="N20">
-        <f>SUM(M$6:M20)</f>
-        <v>33.659999999999997</v>
-      </c>
-      <c r="O20">
-        <v>20</v>
-      </c>
-      <c r="T20" s="5">
+      <c r="AG29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB30" s="5">
         <v>4784350</v>
       </c>
-      <c r="U20">
+      <c r="AC30">
         <f t="shared" si="0"/>
         <v>1196088</v>
       </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M21">
-        <v>13.5</v>
-      </c>
-      <c r="N21">
-        <f>SUM(M$6:M21)</f>
-        <v>47.16</v>
-      </c>
-      <c r="O21">
-        <v>20</v>
-      </c>
-      <c r="T21" s="5">
+      <c r="AG30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AB31" s="5">
         <v>4880040</v>
       </c>
-      <c r="U21">
+      <c r="AC31">
         <f t="shared" si="0"/>
         <v>1220010</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M22">
-        <v>12</v>
-      </c>
-      <c r="N22">
-        <f>SUM(M$6:M22)</f>
-        <v>59.16</v>
-      </c>
-      <c r="O22">
-        <v>20</v>
-      </c>
-      <c r="T22" s="5">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AB32" s="5">
         <v>4977640</v>
       </c>
-      <c r="U22">
+      <c r="AC32">
         <f t="shared" si="0"/>
         <v>1244410</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M23">
-        <v>10</v>
-      </c>
-      <c r="N23">
-        <f>SUM(M$6:M23)</f>
-        <v>69.16</v>
-      </c>
-      <c r="O23">
-        <v>20</v>
-      </c>
-      <c r="T23" s="5">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB33" s="5">
         <v>5077190</v>
       </c>
-      <c r="U23">
+      <c r="AC33">
         <f t="shared" si="0"/>
         <v>1269298</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M24">
-        <v>6</v>
-      </c>
-      <c r="N24">
-        <f>SUM(M$6:M24)</f>
-        <v>75.16</v>
-      </c>
-      <c r="O24">
-        <v>20</v>
-      </c>
-      <c r="T24" s="5">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB34" s="5">
         <v>5178730</v>
       </c>
-      <c r="U24">
+      <c r="AC34">
         <f t="shared" si="0"/>
         <v>1294683</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M25">
-        <v>3</v>
-      </c>
-      <c r="N25">
-        <f>SUM(M$6:M25)</f>
-        <v>78.16</v>
-      </c>
-      <c r="O25">
-        <v>20</v>
-      </c>
-      <c r="T25" s="5">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB35" s="5">
         <v>5282300</v>
       </c>
-      <c r="U25">
+      <c r="AC35">
         <f t="shared" si="0"/>
         <v>1320575</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="M26">
-        <v>1.8</v>
-      </c>
-      <c r="N26">
-        <f>SUM(M$6:M26)</f>
-        <v>79.959999999999994</v>
-      </c>
-      <c r="O26">
-        <v>20</v>
-      </c>
-      <c r="T26" s="5">
+    <row r="36" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="AB36" s="5">
         <v>5387950</v>
       </c>
-      <c r="U26">
+      <c r="AC36">
         <f t="shared" si="0"/>
         <v>1346988</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="4">
-        <f>C15</f>
+    <row r="37" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="4">
+        <f>C25</f>
+        <v>0.92</v>
+      </c>
+      <c r="D37" s="4">
+        <f>D25</f>
+        <v>0.3</v>
+      </c>
+      <c r="AB37" s="5"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B38" s="14"/>
+      <c r="AB38" s="5"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB39" s="5"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B40" s="14"/>
+      <c r="AB40" s="5"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB41" s="5"/>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B42" s="14"/>
+      <c r="AB42" s="5"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B43" s="14"/>
+      <c r="U43" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB43" s="5"/>
+    </row>
+    <row r="44" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B44" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB44" s="5"/>
+    </row>
+    <row r="45" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B45" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <f>SUM(G$45:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <f>SUM(J$45:J45)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <f>SUM(M$45:M45)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <f>SUM(P$45:P45)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="5">
+        <f>SUM(S$45:S45)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="5"/>
+    </row>
+    <row r="46" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B46" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="4">
+        <f>D11</f>
+        <v>85</v>
+      </c>
+      <c r="E46" s="5">
+        <f>SUM(D$45:D46)</f>
+        <v>85</v>
+      </c>
+      <c r="F46" s="4">
+        <f>IF(E46&gt;=G$10, IF(E45&lt;G$10, G$10-E45, 0),D46)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <f>D46-F46</f>
+        <v>85</v>
+      </c>
+      <c r="H46" s="5">
+        <f>SUM(G$45:G46)</f>
+        <v>85</v>
+      </c>
+      <c r="I46" s="4">
+        <f>IF(H46&gt;=J$10, IF(H45&lt;J$10, J$10-H45, 0),G46)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <f>D11</f>
+        <v>85</v>
+      </c>
+      <c r="K46" s="5">
+        <f>SUM(J$45:J46)</f>
+        <v>85</v>
+      </c>
+      <c r="L46" s="4">
+        <f>IF(K46&gt;=M$10, IF(K45&lt;M$10, M$10-K45, 0),J46)</f>
+        <v>4</v>
+      </c>
+      <c r="M46" s="4">
+        <f>J46-L46</f>
+        <v>81</v>
+      </c>
+      <c r="N46" s="5">
+        <f>SUM(M$45:M46)</f>
+        <v>81</v>
+      </c>
+      <c r="O46" s="4">
+        <f>IF(N46&gt;=P$10, IF(N45&lt;P$10, P$10-N45, 0),M46)</f>
+        <v>39</v>
+      </c>
+      <c r="P46" s="4">
+        <f>M46-O46</f>
+        <v>42</v>
+      </c>
+      <c r="Q46" s="5">
+        <f>SUM(P$45:P46)</f>
+        <v>42</v>
+      </c>
+      <c r="R46" s="4">
+        <f>IF(Q46&gt;=S$10, IF(Q45&lt;S$10, S$10-Q45, 0),P46)</f>
+        <v>42</v>
+      </c>
+      <c r="S46" s="4">
+        <f>P46-R46</f>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="5"/>
+    </row>
+    <row r="47" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B47" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <f>SUM(D$45:D47)</f>
+        <v>85</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" ref="F47:F49" si="1">IF(E47&gt;=G$10, IF(E46&lt;G$10, G$10-E46, 0),D47)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <f>G11</f>
+        <v>80</v>
+      </c>
+      <c r="H47" s="5">
+        <f>SUM(G$45:G47)</f>
+        <v>165</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" ref="I47:I49" si="2">IF(H47&gt;=J$10, IF(H46&lt;J$10, J$10-H46, 0),G47)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <f>G47-I47</f>
+        <v>80</v>
+      </c>
+      <c r="K47" s="5">
+        <f>SUM(J$45:J47)</f>
+        <v>165</v>
+      </c>
+      <c r="L47" s="4">
+        <f t="shared" ref="L47:L49" si="3">IF(K47&gt;=M$10, IF(K46&lt;M$10, M$10-K46, 0),J47)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <f>J47-L47</f>
+        <v>80</v>
+      </c>
+      <c r="N47" s="5">
+        <f>SUM(M$45:M47)</f>
+        <v>161</v>
+      </c>
+      <c r="O47" s="4">
+        <f t="shared" ref="O47:O49" si="4">IF(N47&gt;=P$10, IF(N46&lt;P$10, P$10-N46, 0),M47)</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <f>M47-O47</f>
+        <v>80</v>
+      </c>
+      <c r="Q47" s="5">
+        <f>SUM(P$45:P47)</f>
+        <v>122</v>
+      </c>
+      <c r="R47" s="4">
+        <f t="shared" ref="R47:R49" si="5">IF(Q47&gt;=S$10, IF(Q46&lt;S$10, S$10-Q46, 0),P47)</f>
+        <v>63</v>
+      </c>
+      <c r="S47" s="4">
+        <f>P47-R47</f>
+        <v>17</v>
+      </c>
+      <c r="AB47" s="5"/>
+    </row>
+    <row r="48" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B48" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <f>SUM(D$45:D48)</f>
+        <v>85</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <f>SUM(G$45:G48)</f>
+        <v>165</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <f>J11</f>
+        <v>92</v>
+      </c>
+      <c r="K48" s="5">
+        <f>SUM(J$45:J48)</f>
+        <v>257</v>
+      </c>
+      <c r="L48" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <f>J48-L48</f>
+        <v>92</v>
+      </c>
+      <c r="N48" s="5">
+        <f>SUM(M$45:M48)</f>
+        <v>253</v>
+      </c>
+      <c r="O48" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="4">
+        <f>M48-O48</f>
+        <v>92</v>
+      </c>
+      <c r="Q48" s="5">
+        <f>SUM(P$45:P48)</f>
+        <v>214</v>
+      </c>
+      <c r="R48" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="4">
+        <f>P48-R48</f>
+        <v>92</v>
+      </c>
+      <c r="AB48" s="5"/>
+    </row>
+    <row r="49" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B49" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <f>SUM(D$45:D49)</f>
+        <v>85</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <f>SUM(G$45:G49)</f>
+        <v>165</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="5">
+        <f>SUM(J$45:J49)</f>
+        <v>257</v>
+      </c>
+      <c r="L49" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <f>M11</f>
+        <v>43</v>
+      </c>
+      <c r="N49" s="5">
+        <f>SUM(M$45:M49)</f>
+        <v>296</v>
+      </c>
+      <c r="O49" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <f>M49-O49</f>
+        <v>43</v>
+      </c>
+      <c r="Q49" s="5">
+        <f>SUM(P$45:P49)</f>
+        <v>257</v>
+      </c>
+      <c r="R49" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="4">
+        <f>P49-R49</f>
+        <v>43</v>
+      </c>
+      <c r="AB49" s="5"/>
+    </row>
+    <row r="50" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B50" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB50" s="5"/>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B51" s="14"/>
+      <c r="AB51" s="5"/>
+    </row>
+    <row r="52" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B52" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="4">
+        <f>D46*V6</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <f>G46*V7</f>
+        <v>0.85</v>
+      </c>
+      <c r="J52" s="4">
+        <f>J46*V8</f>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="M52" s="4">
+        <f>M46*V9</f>
+        <v>14.58</v>
+      </c>
+      <c r="P52" s="4">
+        <f>P46*V10</f>
+        <v>15.96</v>
+      </c>
+      <c r="S52" s="4">
+        <f>S46*V11</f>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="5"/>
+    </row>
+    <row r="53" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B53" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" s="4">
+        <f>G47*V6</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <f>J47*V7</f>
+        <v>0.8</v>
+      </c>
+      <c r="M53" s="4">
+        <f>M47*V8</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="P53" s="4">
+        <f>P47*V9</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="S53" s="4">
+        <f>S47*V10</f>
+        <v>6.46</v>
+      </c>
+      <c r="AB53" s="5"/>
+    </row>
+    <row r="54" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B54" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J54" s="4">
+        <f>J48*V6</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
+        <f>M48*V7</f>
+        <v>0.92</v>
+      </c>
+      <c r="P54" s="4">
+        <f>P48*V8</f>
+        <v>5.5200000000000005</v>
+      </c>
+      <c r="S54" s="4">
+        <f>S48*V9</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB54" s="5"/>
+    </row>
+    <row r="55" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B55" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M55" s="4">
+        <f>M49*V6</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <f>P49*V7</f>
+        <v>0.43</v>
+      </c>
+      <c r="S55" s="4">
+        <f>S49*V8</f>
+        <v>2.58</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB55" s="5"/>
+    </row>
+    <row r="56" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B56" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="W56" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB56" s="5"/>
+    </row>
+    <row r="57" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B57" s="14"/>
+      <c r="W57" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB57" s="5"/>
+    </row>
+    <row r="58" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B58" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB58" s="5"/>
+    </row>
+    <row r="59" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B59" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB59" s="5"/>
+    </row>
+    <row r="60" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B60" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB60" s="5"/>
+    </row>
+    <row r="61" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B61" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB61" s="5"/>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B62" s="14"/>
+      <c r="AB62" s="5"/>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B63" s="14"/>
+      <c r="AB63" s="5"/>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B64" s="14"/>
+      <c r="AB64" s="5"/>
+    </row>
+    <row r="65" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B65" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="AB65" s="5"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B66" s="14"/>
+      <c r="AB66" s="5"/>
+    </row>
+    <row r="67" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B67" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="4">
+        <f>MAX(D$23-(D$7-D$9), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <f>MAX(G$23-(G$7-G$9), 0)</f>
+        <v>210</v>
+      </c>
+      <c r="J67" s="4">
+        <f>MAX(J$23-(J$7-J$9), 0)</f>
+        <v>304</v>
+      </c>
+      <c r="M67" s="4">
+        <f>MAX(M$23-(M$7-M$9), 0)</f>
+        <v>249804</v>
+      </c>
+      <c r="P67" s="4">
+        <f>MAX(P$23-(P$7-P$9), 0)</f>
+        <v>49039</v>
+      </c>
+      <c r="S67" s="4">
+        <f>MAX(S$23-(S$7-S$9), 0)</f>
+        <v>49605</v>
+      </c>
+      <c r="AB67" s="5"/>
+    </row>
+    <row r="68" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B68" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
+      <c r="P68" s="4">
+        <v>0</v>
+      </c>
+      <c r="S68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="5"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B69" s="14"/>
+      <c r="AB69" s="5"/>
+    </row>
+    <row r="70" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B70" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="4">
+        <f>U6</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <f>U7</f>
+        <v>0.01</v>
+      </c>
+      <c r="J70" s="4">
+        <f>U8</f>
+        <v>0.05</v>
+      </c>
+      <c r="M70" s="4">
+        <f>U9</f>
+        <v>0.12</v>
+      </c>
+      <c r="P70" s="4">
+        <f>U10</f>
+        <v>0.2</v>
+      </c>
+      <c r="S70" s="4">
+        <f>U11</f>
+        <v>0.36</v>
+      </c>
+      <c r="AB70" s="5"/>
+    </row>
+    <row r="71" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B71" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <f>U7</f>
+        <v>0.01</v>
+      </c>
+      <c r="M71" s="4">
+        <f>U8</f>
+        <v>0.05</v>
+      </c>
+      <c r="P71" s="4">
+        <f>U9</f>
+        <v>0.12</v>
+      </c>
+      <c r="S71" s="4">
+        <f>U10</f>
+        <v>0.2</v>
+      </c>
+      <c r="AB71" s="5"/>
+    </row>
+    <row r="72" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B72" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
+        <f>U7</f>
+        <v>0.01</v>
+      </c>
+      <c r="P72" s="4">
+        <f>U8</f>
+        <v>0.05</v>
+      </c>
+      <c r="S72" s="4">
+        <f>U9</f>
+        <v>0.12</v>
+      </c>
+      <c r="AB72" s="5"/>
+    </row>
+    <row r="73" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B73" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="P73" s="4">
+        <f>U7</f>
+        <v>0.01</v>
+      </c>
+      <c r="S73" s="4">
+        <f>U8</f>
+        <v>0.05</v>
+      </c>
+      <c r="AB73" s="5"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B74" s="14"/>
+      <c r="AB74" s="5"/>
+    </row>
+    <row r="75" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>0</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="4">
+        <f>D70</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <f>INT(F$4-$W$6 &gt; $A75)*G52</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <f>INT(I$4-$W$6 &gt; $A75)*J52</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="4">
+        <f>INT(L$4-$W$6 &gt; $A75)*M52</f>
+        <v>14.58</v>
+      </c>
+      <c r="P75" s="4">
+        <f>INT(O$4-$W$6 &gt; $A75)*P52</f>
+        <v>15.96</v>
+      </c>
+      <c r="S75" s="4">
+        <f>INT(R$4-$W$6 &gt; $A75)*S52</f>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="5"/>
+    </row>
+    <row r="76" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>1</v>
       </c>
-      <c r="D27" s="4">
-        <f>D15</f>
+      <c r="B76" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" ref="D76:D78" si="6">D71</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <f>INT(F$4-$W$6 &gt; $A76)*G53</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
+        <f>INT(I$4-$W$6 &gt; $A76)*J53</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="4">
+        <f>INT(L$4-$W$6 &gt; $A76)*M53</f>
+        <v>0</v>
+      </c>
+      <c r="P76" s="4">
+        <f>INT(O$4-$W$6 &gt; $A76)*P53</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="S76" s="4">
+        <f>INT(R$4-$W$6 &gt; $A76)*S53</f>
+        <v>6.46</v>
+      </c>
+      <c r="AB76" s="5"/>
+    </row>
+    <row r="77" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>2</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <f>INT(F$4-$W$6 &gt; $A77)*G54</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="4">
+        <f>INT(I$4-$W$6 &gt; $A77)*J54</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="4">
+        <f>INT(L$4-$W$6 &gt; $A77)*M54</f>
+        <v>0</v>
+      </c>
+      <c r="P77" s="4">
+        <f>INT(O$4-$W$6 &gt; $A77)*P54</f>
+        <v>0</v>
+      </c>
+      <c r="S77" s="4">
+        <f>INT(R$4-$W$6 &gt; $A77)*S54</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="AB77" s="5"/>
+    </row>
+    <row r="78" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>3</v>
       </c>
-      <c r="T27" s="5"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="20"/>
-      <c r="T28" s="5"/>
-    </row>
-    <row r="29" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="T29" s="5"/>
-    </row>
-    <row r="30" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="4">
-        <f>D9</f>
-        <v>85</v>
-      </c>
-      <c r="G30" s="4">
-        <f>D9</f>
-        <v>85</v>
-      </c>
-      <c r="J30" s="4">
-        <f>D9</f>
-        <v>85</v>
-      </c>
-      <c r="T30" s="5"/>
-    </row>
-    <row r="31" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <f>G9</f>
-        <v>80</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J31" s="4">
-        <f>G9</f>
-        <v>80</v>
-      </c>
-      <c r="T31" s="5"/>
-    </row>
-    <row r="32" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B32" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
-        <f>J9</f>
-        <v>92</v>
-      </c>
-      <c r="T32" s="5"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
-      <c r="T33" s="5"/>
-    </row>
-    <row r="34" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="4">
-        <f>D30*N6</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <f>G30*N7</f>
-        <v>0.85</v>
-      </c>
-      <c r="J34" s="4">
-        <f>J30*N8</f>
-        <v>5.1000000000000005</v>
-      </c>
-      <c r="T34" s="5"/>
-    </row>
-    <row r="35" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="4">
-        <f>G31*N6</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="4">
-        <f>J31*N7</f>
-        <v>0.8</v>
-      </c>
-      <c r="T35" s="5"/>
-    </row>
-    <row r="36" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="J36" s="4">
-        <f>J32*N6</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="5"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B37" s="19"/>
-      <c r="T37" s="5"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B38" s="19"/>
-      <c r="T38" s="5"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="19"/>
-      <c r="T39" s="5"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="19"/>
-      <c r="T40" s="5"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B41" s="19"/>
-      <c r="T41" s="5"/>
-    </row>
-    <row r="42" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B42" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="T42" s="5"/>
-    </row>
-    <row r="43" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B43" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="4">
-        <f>C8*C12*$C$10</f>
-        <v>5250</v>
-      </c>
-      <c r="D43" s="4">
-        <f>D8*D12*$C$10</f>
-        <v>7000</v>
-      </c>
-      <c r="M43">
+      <c r="B78" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
+        <f>INT(F$4-$W$6 &gt; $A78)*G55</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="4">
+        <f>INT(I$4-$W$6 &gt; $A78)*J55</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="4">
+        <f>INT(L$4-$W$6 &gt; $A78)*M55</f>
+        <v>0</v>
+      </c>
+      <c r="P78" s="4">
+        <f>INT(O$4-$W$6 &gt; $A78)*P55</f>
+        <v>0</v>
+      </c>
+      <c r="S78" s="4">
+        <f>INT(R$4-$W$6 &gt; $A78)*S55</f>
+        <v>0</v>
+      </c>
+      <c r="AB78" s="5"/>
+    </row>
+    <row r="79" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B79" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB79" s="5"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B80" s="14"/>
+      <c r="AB80" s="5"/>
+    </row>
+    <row r="81" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B81" s="13"/>
+      <c r="AB81" s="5"/>
+    </row>
+    <row r="82" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B82" s="13"/>
+      <c r="AB82" s="5"/>
+    </row>
+    <row r="83" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B83" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="AB83" s="5"/>
+    </row>
+    <row r="84" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B84" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="4">
+        <f>C19*C7</f>
+        <v>1500000</v>
+      </c>
+      <c r="D84" s="4">
+        <f>D19*D7</f>
+        <v>25000000</v>
+      </c>
+      <c r="U84">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N43">
-        <f>SUM(M$6:M43)</f>
-        <v>81.059999999999988</v>
-      </c>
-      <c r="O43">
+      <c r="V84">
+        <f>SUM(U$6:U84)</f>
+        <v>81.539999999999992</v>
+      </c>
+      <c r="W84">
         <v>20</v>
       </c>
-      <c r="T43" s="5">
+      <c r="AB84" s="5">
         <v>5495710</v>
       </c>
-      <c r="U43">
+      <c r="AC84">
         <f t="shared" si="0"/>
         <v>1373928</v>
       </c>
     </row>
-    <row r="44" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B44" s="16" t="s">
+    <row r="85" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B85" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" s="4">
+        <f>SUM(D104:D107)</f>
+        <v>0</v>
+      </c>
+      <c r="AB85" s="5"/>
+    </row>
+    <row r="86" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B86" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="4">
+        <f>C84+C85</f>
+        <v>1500000</v>
+      </c>
+      <c r="D86" s="4">
+        <f>D84+D85</f>
+        <v>25000000</v>
+      </c>
+      <c r="AB86" s="5"/>
+    </row>
+    <row r="87" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB87" s="5"/>
+    </row>
+    <row r="88" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B88" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="4">
+        <f>C9*C19*$C$13</f>
+        <v>5250</v>
+      </c>
+      <c r="D88" s="4">
+        <f>D9*D19*$C$13</f>
+        <v>7000</v>
+      </c>
+      <c r="AB88" s="5"/>
+    </row>
+    <row r="89" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B89" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="4">
+        <f>C23*C19</f>
+        <v>750000</v>
+      </c>
+      <c r="D89" s="4">
+        <f>D23*D19</f>
+        <v>5000000</v>
+      </c>
+      <c r="AB89" s="5"/>
+    </row>
+    <row r="90" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B90" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="4">
+        <f>$C20*MAX(C7-C9-C23,0)</f>
+        <v>222750</v>
+      </c>
+      <c r="D90" s="4">
+        <f>$D20*MAX(D7-D9-D23,0)</f>
+        <v>5997000</v>
+      </c>
+      <c r="AB90" s="5"/>
+    </row>
+    <row r="91" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB91" s="5"/>
+    </row>
+    <row r="92" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B92" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="4">
+        <f>MAX(C7-C9-C23, 0)*C95</f>
+        <v>519750</v>
+      </c>
+      <c r="D92" s="4">
+        <f>MAX(D7-D9-D23, 0)*D95</f>
+        <v>13993000</v>
+      </c>
+      <c r="AB92" s="5"/>
+    </row>
+    <row r="93" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB93" s="5"/>
+    </row>
+    <row r="94" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B94" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="AB94" s="5"/>
+    </row>
+    <row r="95" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B95" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="4">
+        <f>MAX(C84/C7-C20,0)</f>
+        <v>105</v>
+      </c>
+      <c r="D95" s="4">
+        <f>MAX(D84/D7-D20,0)</f>
+        <v>70</v>
+      </c>
+      <c r="AB95" s="5"/>
+    </row>
+    <row r="96" spans="2:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="B96" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" s="4">
+        <f>C95/$C$21</f>
+        <v>1</v>
+      </c>
+      <c r="D96" s="4">
+        <f>D95/$D$21</f>
+        <v>1</v>
+      </c>
+      <c r="AB96" s="5"/>
+    </row>
+    <row r="97" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B97" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" s="4">
+        <f>MAX(MIN((C96-C14)/$C$15, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D97" s="4">
+        <f>MAX(MIN((D96-$C$14)/$C$15, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB97" s="5"/>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB98" s="5"/>
+    </row>
+    <row r="99" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B99" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="4">
+        <f>C92*C97</f>
+        <v>519750</v>
+      </c>
+      <c r="D99" s="4">
+        <f>D92*D97</f>
+        <v>13993000</v>
+      </c>
+      <c r="AB99" s="5"/>
+    </row>
+    <row r="100" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B100" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" s="4">
+        <f>C99+D99</f>
+        <v>14512750</v>
+      </c>
+      <c r="AB100" s="5"/>
+    </row>
+    <row r="101" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B101" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C101" s="4">
+        <f>C99/$C100</f>
+        <v>3.5813336548896658E-2</v>
+      </c>
+      <c r="D101" s="4">
+        <f>D99/$C100</f>
+        <v>0.96418666345110338</v>
+      </c>
+      <c r="AB101" s="5"/>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB102" s="5"/>
+    </row>
+    <row r="103" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B103" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="AB103" s="5"/>
+    </row>
+    <row r="104" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B104" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D104" s="4">
+        <f>D46*D75</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="4">
+        <f>D104 - D116 + G70*G46</f>
+        <v>0.85</v>
+      </c>
+      <c r="J104" s="4">
+        <f>G104 - G116 + J70*J46</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M104" s="4">
+        <f>J104 - J116 + M70*M46</f>
+        <v>14.819999999999999</v>
+      </c>
+      <c r="P104" s="4">
+        <f>M104 - M116 + P70*P46</f>
+        <v>22.22</v>
+      </c>
+      <c r="S104" s="4">
+        <f>P104 - P116 + S70*S46</f>
+        <v>22.22</v>
+      </c>
+      <c r="AB104" s="5"/>
+    </row>
+    <row r="105" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B105" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0</v>
+      </c>
+      <c r="G105" s="4">
+        <f>D105 - D117 + G71*G47</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="4">
+        <f>G105 - G117 + J71*J47</f>
+        <v>0.8</v>
+      </c>
+      <c r="M105" s="4">
+        <f>J105 - J117 + M71*M47</f>
+        <v>4.8</v>
+      </c>
+      <c r="P105" s="4">
+        <f>M105 - M117 + P71*P47</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="S105" s="4">
+        <f>P105 - P117 + S71*S47</f>
+        <v>17.799999999999997</v>
+      </c>
+      <c r="AB105" s="5"/>
+    </row>
+    <row r="106" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B106" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0</v>
+      </c>
+      <c r="G106" s="4">
+        <f>D106 - D118 + G72*G48</f>
+        <v>0</v>
+      </c>
+      <c r="J106" s="4">
+        <f>G106 - G118 + J72*J48</f>
+        <v>0</v>
+      </c>
+      <c r="M106" s="4">
+        <f>J106 - J118 + M72*M48</f>
+        <v>0.92</v>
+      </c>
+      <c r="P106" s="4">
+        <f>M106 - M118 + P72*P48</f>
+        <v>5.5200000000000005</v>
+      </c>
+      <c r="S106" s="4">
+        <f>P106 - P118 + S72*S48</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB106" s="5"/>
+    </row>
+    <row r="107" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B107" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0</v>
+      </c>
+      <c r="G107" s="4">
+        <f>D107 - D119 + G73*G49</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="4">
+        <f>G107 - G119 + J73*J49</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="4">
+        <f>J107 - J119 + M73*M49</f>
+        <v>0</v>
+      </c>
+      <c r="P107" s="4">
+        <f>M107 - M119 + P73*P49</f>
+        <v>0.43</v>
+      </c>
+      <c r="S107" s="4">
+        <f>P107 - P119 + S73*S49</f>
+        <v>2.58</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB107" s="5"/>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B108" s="14"/>
+      <c r="AB108" s="5"/>
+    </row>
+    <row r="109" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>0</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" s="4">
+        <f>INT(C$4-$W$6&gt;$A109)*D104</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="4">
+        <f>INT(F$4-$W$6&gt;$A109)*G104</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="4">
+        <f>INT(I$4-$W$6&gt;$A109)*J104</f>
+        <v>0</v>
+      </c>
+      <c r="M109" s="4">
+        <f>INT(L$4-$W$6&gt;$A109)*M104</f>
+        <v>14.819999999999999</v>
+      </c>
+      <c r="P109" s="4">
+        <f>INT(O$4-$W$6&gt;$A109)*P104</f>
+        <v>22.22</v>
+      </c>
+      <c r="S109" s="4">
+        <f>INT(R$4-$W$6&gt;$A109)*S104</f>
+        <v>22.22</v>
+      </c>
+      <c r="AB109" s="5"/>
+    </row>
+    <row r="110" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>1</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D110" s="4">
+        <f t="shared" ref="D110:D112" si="7">INT(C$4-$W$6&gt;$A110)*D105</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="4">
+        <f t="shared" ref="G110:G112" si="8">INT(F$4-$W$6&gt;$A110)*G105</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="4">
+        <f t="shared" ref="J110:J112" si="9">INT(I$4-$W$6&gt;$A110)*J105</f>
+        <v>0</v>
+      </c>
+      <c r="M110" s="4">
+        <f t="shared" ref="M110:M112" si="10">INT(L$4-$W$6&gt;$A110)*M105</f>
+        <v>0</v>
+      </c>
+      <c r="P110" s="4">
+        <f t="shared" ref="P110:P112" si="11">INT(O$4-$W$6&gt;$A110)*P105</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="S110" s="4">
+        <f t="shared" ref="S110:S112" si="12">INT(R$4-$W$6&gt;$A110)*S105</f>
+        <v>17.799999999999997</v>
+      </c>
+      <c r="AB110" s="5"/>
+    </row>
+    <row r="111" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>2</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D111" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P111" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S111" s="4">
+        <f t="shared" si="12"/>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="AB111" s="5"/>
+    </row>
+    <row r="112" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>3</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D112" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P112" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S112" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB112" s="5"/>
+    </row>
+    <row r="113" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B113" s="14"/>
+      <c r="AB113" s="5"/>
+    </row>
+    <row r="114" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X114" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB114" s="5"/>
+    </row>
+    <row r="115" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB115" s="5"/>
+    </row>
+    <row r="116" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+      <c r="G116" s="4">
+        <f>INT(F4-$W$6 &gt; 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="4">
+        <f>INT(I4-$W$6 &gt; 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M116" s="4">
+        <f>INT(L4-$W$6 &gt; 0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB116" s="5"/>
+    </row>
+    <row r="117" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="5"/>
+    </row>
+    <row r="118" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="5"/>
+    </row>
+    <row r="119" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B119" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="5"/>
+    </row>
+    <row r="120" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB120" s="5"/>
+    </row>
+    <row r="121" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B121" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="4">
-        <f>C13*C12</f>
-        <v>750000</v>
-      </c>
-      <c r="D44" s="4">
-        <f>D13*D12</f>
-        <v>5000000</v>
-      </c>
-      <c r="T44" s="5"/>
-    </row>
-    <row r="45" spans="2:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="B45" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="4">
-        <f>MAX(C12 - $C$12*$C$11, 0)</f>
-        <v>105</v>
-      </c>
-      <c r="D45" s="4">
-        <f>MAX(D12 - $D$12*$C$11, 0)</f>
-        <v>70</v>
-      </c>
-      <c r="T45" s="5"/>
-    </row>
-    <row r="46" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B46" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="4">
-        <f>MAX(C7-C8 - C13, 0)*C45</f>
-        <v>519750</v>
-      </c>
-      <c r="D46" s="4">
-        <f>MAX(D7-D8 - D13, 0)*D45</f>
-        <v>13993000</v>
-      </c>
-      <c r="T46" s="5"/>
-    </row>
-    <row r="47" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B47" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T47" s="5"/>
-    </row>
-    <row r="48" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B48" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0</v>
-      </c>
-      <c r="T48" s="5"/>
-    </row>
-    <row r="49" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B49" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="4">
-        <f>C46+C43+D46+D43+D48</f>
-        <v>14525000</v>
-      </c>
-      <c r="M49">
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="AB121" s="5"/>
+    </row>
+    <row r="122" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B122" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C122" s="4">
+        <f>MIN(C100,C29)</f>
+        <v>200000</v>
+      </c>
+      <c r="U122">
         <v>0.5</v>
       </c>
-      <c r="N49">
-        <f>SUM(M$6:M49)</f>
-        <v>81.559999999999988</v>
-      </c>
-      <c r="O49">
+      <c r="V122">
+        <f>SUM(U$6:U122)</f>
+        <v>82.039999999999992</v>
+      </c>
+      <c r="W122">
         <v>20</v>
       </c>
-      <c r="T49" s="5">
+      <c r="AB122" s="5">
         <v>5605620</v>
       </c>
-      <c r="U49">
+      <c r="AC122">
         <f t="shared" si="0"/>
         <v>1401405</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M50">
+    <row r="123" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B123" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123" s="4">
+        <f>C29-C122</f>
+        <v>0</v>
+      </c>
+      <c r="U123">
         <v>0.3</v>
       </c>
-      <c r="N50">
-        <f>SUM(M$6:M50)</f>
-        <v>81.859999999999985</v>
-      </c>
-      <c r="O50">
+      <c r="V123">
+        <f>SUM(U$6:U123)</f>
+        <v>82.339999999999989</v>
+      </c>
+      <c r="W123">
         <v>20</v>
       </c>
-      <c r="T50" s="5">
+      <c r="AB123" s="5">
         <v>5717730</v>
       </c>
-      <c r="U50">
+      <c r="AC123">
         <f t="shared" si="0"/>
         <v>1429433</v>
       </c>
     </row>
-    <row r="51" spans="2:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="B51" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="4">
-        <f>MIN(C19,C49)</f>
-        <v>1000000</v>
-      </c>
-      <c r="M51">
+    <row r="124" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B124" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C124" s="4">
+        <f>MIN(C29,C122)</f>
+        <v>200000</v>
+      </c>
+      <c r="U124">
         <v>0.2</v>
       </c>
-      <c r="N51">
-        <f>SUM(M$6:M51)</f>
-        <v>82.059999999999988</v>
-      </c>
-      <c r="O51">
+      <c r="V124">
+        <f>SUM(U$6:U124)</f>
+        <v>82.539999999999992</v>
+      </c>
+      <c r="W124">
         <v>20</v>
       </c>
-      <c r="T51" s="5">
+      <c r="AB124" s="5">
         <v>5832080</v>
       </c>
-      <c r="U51">
+      <c r="AC124">
         <f t="shared" si="0"/>
         <v>1458020</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M52">
+    <row r="125" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="U125">
         <v>0.18</v>
       </c>
-      <c r="N52">
-        <f>SUM(M$6:M52)</f>
-        <v>82.24</v>
-      </c>
-      <c r="O52">
+      <c r="V125">
+        <f>SUM(U$6:U125)</f>
+        <v>82.72</v>
+      </c>
+      <c r="W125">
         <v>20</v>
       </c>
-      <c r="T52" s="5">
+      <c r="AB125" s="5">
         <v>5948720</v>
       </c>
-      <c r="U52">
+      <c r="AC125">
         <f t="shared" si="0"/>
         <v>1487180</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M53">
+    <row r="126" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="U126">
         <v>0.17</v>
       </c>
-      <c r="N53">
-        <f>SUM(M$6:M53)</f>
-        <v>82.41</v>
-      </c>
-      <c r="O53">
+      <c r="V126">
+        <f>SUM(U$6:U126)</f>
+        <v>82.89</v>
+      </c>
+      <c r="W126">
         <v>20</v>
       </c>
-      <c r="T53" s="5">
+      <c r="AB126" s="5">
         <v>6067690</v>
       </c>
-      <c r="U53">
+      <c r="AC126">
         <f t="shared" si="0"/>
         <v>1516923</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M54">
+    <row r="127" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="U127">
         <v>0.16</v>
       </c>
-      <c r="N54">
-        <f>SUM(M$6:M54)</f>
-        <v>82.57</v>
-      </c>
-      <c r="O54">
+      <c r="V127">
+        <f>SUM(U$6:U127)</f>
+        <v>83.05</v>
+      </c>
+      <c r="W127">
         <v>20</v>
       </c>
-      <c r="T54" s="5">
+      <c r="AB127" s="5">
         <v>6189040</v>
       </c>
-      <c r="U54">
+      <c r="AC127">
         <f t="shared" si="0"/>
         <v>1547260</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M55">
+    <row r="128" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="U128">
         <v>0.15</v>
       </c>
-      <c r="N55">
-        <f>SUM(M$6:M55)</f>
-        <v>82.72</v>
-      </c>
-      <c r="O55">
+      <c r="V128">
+        <f>SUM(U$6:U128)</f>
+        <v>83.2</v>
+      </c>
+      <c r="W128">
         <v>20</v>
       </c>
-      <c r="T55" s="5">
+      <c r="AB128" s="5">
         <v>6312820</v>
       </c>
-      <c r="U55">
+      <c r="AC128">
         <f t="shared" si="0"/>
         <v>1578205</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M56">
+    <row r="129" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="U129">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N56">
-        <f>SUM(M$6:M56)</f>
-        <v>82.86</v>
-      </c>
-      <c r="O56">
+      <c r="V129">
+        <f>SUM(U$6:U129)</f>
+        <v>83.34</v>
+      </c>
+      <c r="W129">
         <v>20</v>
       </c>
-      <c r="T56" s="5">
+      <c r="AB129" s="5">
         <v>6439080</v>
       </c>
-      <c r="U56">
+      <c r="AC129">
         <f t="shared" si="0"/>
         <v>1609770</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M57">
+    <row r="130" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="U130">
         <v>0.13</v>
       </c>
-      <c r="N57">
-        <f>SUM(M$6:M57)</f>
-        <v>82.99</v>
-      </c>
-      <c r="O57">
+      <c r="V130">
+        <f>SUM(U$6:U130)</f>
+        <v>83.47</v>
+      </c>
+      <c r="W130">
         <v>20</v>
       </c>
-      <c r="T57" s="5">
+      <c r="AB130" s="5">
         <v>6567860</v>
       </c>
-      <c r="U57">
+      <c r="AC130">
         <f t="shared" si="0"/>
         <v>1641965</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M58">
+    <row r="131" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="B131" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" s="4">
+        <f>C25*(C7-C9)</f>
+        <v>9154</v>
+      </c>
+      <c r="D131" s="4">
+        <f>D25*(D7-D9)</f>
+        <v>74970</v>
+      </c>
+      <c r="U131">
         <v>0.125</v>
       </c>
-      <c r="N58">
-        <f>SUM(M$6:M58)</f>
-        <v>83.114999999999995</v>
-      </c>
-      <c r="O58">
+      <c r="V131">
+        <f>SUM(U$6:U131)</f>
+        <v>83.594999999999999</v>
+      </c>
+      <c r="W131">
         <v>20</v>
       </c>
-      <c r="T58" s="5">
+      <c r="AB131" s="5">
         <v>6699220</v>
       </c>
-      <c r="U58">
+      <c r="AC131">
         <f t="shared" si="0"/>
         <v>1674805</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M59">
+    <row r="132" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="U132">
         <v>0.1225</v>
       </c>
-      <c r="N59">
-        <f>SUM(M$6:M59)</f>
-        <v>83.237499999999997</v>
-      </c>
-      <c r="O59">
+      <c r="V132">
+        <f>SUM(U$6:U132)</f>
+        <v>83.717500000000001</v>
+      </c>
+      <c r="W132">
         <v>20</v>
       </c>
-      <c r="T59" s="5">
+      <c r="AB132" s="5">
         <v>6833200</v>
       </c>
-      <c r="U59">
+      <c r="AC132">
         <f t="shared" si="0"/>
         <v>1708300</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M60">
+    <row r="133" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="U133">
         <v>0.12239999999999999</v>
       </c>
-      <c r="N60">
-        <f>SUM(M$6:M60)</f>
-        <v>83.359899999999996</v>
-      </c>
-      <c r="O60">
+      <c r="V133">
+        <f>SUM(U$6:U133)</f>
+        <v>83.8399</v>
+      </c>
+      <c r="W133">
         <v>20</v>
       </c>
-      <c r="T60" s="5">
+      <c r="AB133" s="5">
         <v>6969860</v>
       </c>
-      <c r="U60">
+      <c r="AC133">
         <f t="shared" si="0"/>
         <v>1742465</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M61">
+    <row r="134" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="U134">
         <v>0.12230000000000001</v>
       </c>
-      <c r="N61">
-        <f>SUM(M$6:M61)</f>
-        <v>83.482199999999992</v>
-      </c>
-      <c r="O61">
+      <c r="V134">
+        <f>SUM(U$6:U134)</f>
+        <v>83.962199999999996</v>
+      </c>
+      <c r="W134">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="U4:W4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BCE304-90C2-984A-9BC2-F6666261E3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7571DA-52A7-8645-AA69-9CA167440341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="760" windowWidth="33680" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33680" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="175">
   <si>
     <t>forest_primary_c_ha</t>
   </si>
@@ -202,9 +202,6 @@
     <t>demanded removals (hwp + fuelwood)</t>
   </si>
   <si>
-    <t xml:space="preserve">c available from conversion </t>
-  </si>
-  <si>
     <t>frac la conversion available for use</t>
   </si>
   <si>
@@ -403,18 +400,6 @@
     <t>young_forest_protected</t>
   </si>
   <si>
-    <t>c_stock_over_thresh_t0</t>
-  </si>
-  <si>
-    <t>c_stock_over_thresh_t1</t>
-  </si>
-  <si>
-    <t>c_stock_over_thresh_t2</t>
-  </si>
-  <si>
-    <t>c_stock_over_thresh_t3</t>
-  </si>
-  <si>
     <t>D = P + I - E</t>
   </si>
   <si>
@@ -536,6 +521,48 @@
   </si>
   <si>
     <t>cumulative_vals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c available from original conversion </t>
+  </si>
+  <si>
+    <t>conversion away from new forest</t>
+  </si>
+  <si>
+    <t>base sequestration factor from NPP</t>
+  </si>
+  <si>
+    <t>stock in new forest if no removals (includes changes to area of new forest)</t>
+  </si>
+  <si>
+    <t>c_available_for_removals_mask_t0</t>
+  </si>
+  <si>
+    <t>c_available_for_removals_mask_t1</t>
+  </si>
+  <si>
+    <t>c_available_for_removals_mask_t2</t>
+  </si>
+  <si>
+    <t>c_available_for_removals_mask_t3</t>
+  </si>
+  <si>
+    <t>adjusted new forest sequestration factor from NPP</t>
+  </si>
+  <si>
+    <t>adjusted_sequestration_factor_t0</t>
+  </si>
+  <si>
+    <t>adjusted_sequestration_factor_t1</t>
+  </si>
+  <si>
+    <t>adjusted_sequestration_factor_t2</t>
+  </si>
+  <si>
+    <t>adjusted_sequestration_factor_t3</t>
+  </si>
+  <si>
+    <t>t = 6</t>
   </si>
 </sst>
 </file>
@@ -709,10 +736,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5866,16 +5893,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
-  <dimension ref="A1:AJ134"/>
+  <dimension ref="A1:AL150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="F46" zoomScale="108" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="V75" sqref="V75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="56" style="10" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="10" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="5" customWidth="1"/>
@@ -5889,21 +5916,23 @@
     <col min="15" max="16" width="13.33203125" style="4" customWidth="1"/>
     <col min="17" max="17" width="23.6640625" style="5" customWidth="1"/>
     <col min="18" max="19" width="13.33203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" customWidth="1"/>
-    <col min="21" max="23" width="14.6640625" customWidth="1"/>
-    <col min="27" max="27" width="4.1640625" customWidth="1"/>
-    <col min="29" max="29" width="9.1640625" customWidth="1"/>
-    <col min="30" max="30" width="3.33203125" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" style="5" customWidth="1"/>
+    <col min="21" max="22" width="13.33203125" style="4" customWidth="1"/>
+    <col min="23" max="25" width="14.6640625" customWidth="1"/>
+    <col min="26" max="28" width="14.1640625" customWidth="1"/>
+    <col min="29" max="29" width="4.1640625" customWidth="1"/>
+    <col min="31" max="31" width="9.1640625" customWidth="1"/>
+    <col min="32" max="32" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
       <c r="B1" s="10"/>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="5">
         <v>1</v>
@@ -5922,15 +5951,18 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
       <c r="B2" s="10"/>
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="21">
         <v>150</v>
@@ -5951,13 +5983,16 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
       <c r="B3" s="10"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="21">
         <v>30</v>
@@ -5976,8 +6011,11 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="8">
         <v>0</v>
       </c>
@@ -6007,16 +6045,21 @@
         <v>5</v>
       </c>
       <c r="S4" s="26"/>
-      <c r="U4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="AC4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="18"/>
+      <c r="U4" s="26">
+        <v>6</v>
+      </c>
+      <c r="V4" s="26"/>
+      <c r="Z4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AE4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
@@ -6027,40 +6070,44 @@
       <c r="D5" s="25"/>
       <c r="E5" s="17"/>
       <c r="F5" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="25"/>
       <c r="I5" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="25"/>
       <c r="L5" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M5" s="25"/>
       <c r="O5" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P5" s="25"/>
       <c r="R5" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S5" s="25"/>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="V5" s="25"/>
+      <c r="Z5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="AA5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="W5" s="27" t="s">
+      <c r="AB5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="AE5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -6102,20 +6149,26 @@
       <c r="S6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="24">
-        <v>0</v>
-      </c>
-      <c r="V6" s="24">
-        <f>SUM(U$6:U6)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="24">
+      <c r="U6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="24">
+        <f>SUM(Z$6:Z6)</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4">
         <v>10000</v>
@@ -6153,7 +6206,7 @@
       </c>
       <c r="P7" s="4">
         <f>MAX(M7-M9,0)</f>
-        <v>0</v>
+        <v>249504</v>
       </c>
       <c r="R7" s="4">
         <f>O7-O9</f>
@@ -6161,29 +6214,37 @@
       </c>
       <c r="S7" s="4">
         <f>MAX(P7-P9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="24">
+        <v>249465</v>
+      </c>
+      <c r="U7" s="4">
+        <f>R7-R9</f>
+        <v>9562</v>
+      </c>
+      <c r="V7" s="4">
+        <f>MAX(S7-S9,0)</f>
+        <v>249360</v>
+      </c>
+      <c r="Z7" s="24">
         <v>0.01</v>
       </c>
-      <c r="V7" s="24">
-        <f>SUM(U$6:U7)</f>
+      <c r="AA7" s="24">
+        <f>SUM(Z$6:Z7)</f>
         <v>0.01</v>
       </c>
-      <c r="W7" s="24">
+      <c r="AB7" s="24">
         <v>2</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AD7" s="5">
         <v>4000000</v>
       </c>
-      <c r="AC7">
-        <f>ROUND(AB7/4,0)</f>
+      <c r="AE7">
+        <f>ROUND(AD7/4,0)</f>
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4">
         <f>C7</f>
@@ -6223,7 +6284,7 @@
       </c>
       <c r="P8" s="4">
         <f>M8-M9+M11</f>
-        <v>296</v>
+        <v>249804</v>
       </c>
       <c r="R8" s="4">
         <f>R7</f>
@@ -6231,23 +6292,31 @@
       </c>
       <c r="S8" s="4">
         <f>P8-P9+P11</f>
-        <v>349</v>
-      </c>
-      <c r="U8" s="24">
+        <v>249857</v>
+      </c>
+      <c r="U8" s="4">
+        <f>U7</f>
+        <v>9562</v>
+      </c>
+      <c r="V8" s="4">
+        <f>S8-S9+S11</f>
+        <v>249795</v>
+      </c>
+      <c r="Z8" s="24">
         <v>0.05</v>
       </c>
-      <c r="V8" s="24">
-        <f>SUM(U$6:U8)</f>
+      <c r="AA8" s="24">
+        <f>SUM(Z$6:Z8)</f>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="W8" s="24">
+      <c r="AB8" s="24">
         <v>2</v>
       </c>
-      <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD8" s="5"/>
+    </row>
+    <row r="9" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4">
         <v>50</v>
@@ -6271,7 +6340,7 @@
         <v>70</v>
       </c>
       <c r="M9" s="4">
-        <v>249700</v>
+        <v>192</v>
       </c>
       <c r="O9" s="4">
         <v>100</v>
@@ -6285,27 +6354,33 @@
       <c r="S9" s="4">
         <v>105</v>
       </c>
-      <c r="U9" s="24">
+      <c r="U9" s="4">
+        <v>98</v>
+      </c>
+      <c r="V9" s="4">
+        <v>105</v>
+      </c>
+      <c r="Z9" s="24">
         <v>0.12</v>
       </c>
-      <c r="V9" s="24">
-        <f>SUM(U$6:U9)</f>
+      <c r="AA9" s="24">
+        <f>SUM(Z$6:Z9)</f>
         <v>0.18</v>
       </c>
-      <c r="W9" s="24">
+      <c r="AB9" s="24">
         <v>2</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AD9" s="5">
         <v>4100000</v>
       </c>
-      <c r="AC9">
-        <f t="shared" ref="AC9:AC133" si="0">ROUND(AB9/4,0)</f>
+      <c r="AE9">
+        <f t="shared" ref="AE9:AE149" si="0">ROUND(AD9/4,0)</f>
         <v>1025000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D10" s="4">
         <f>-MIN(D7-D9,0)</f>
@@ -6321,31 +6396,35 @@
       </c>
       <c r="M10" s="4">
         <f>-MIN(M7-M9,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P10" s="4">
         <f>-MIN(P7-P9,0)</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4">
         <f>-MIN(S7-S9,0)</f>
-        <v>105</v>
-      </c>
-      <c r="U10" s="24">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <f>-MIN(V7-V9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="24">
         <v>0.2</v>
       </c>
-      <c r="V10" s="24">
-        <f>SUM(U$6:U10)</f>
+      <c r="AA10" s="24">
+        <f>SUM(Z$6:Z10)</f>
         <v>0.38</v>
       </c>
-      <c r="W10" s="24">
+      <c r="AB10" s="24">
         <v>20</v>
       </c>
-      <c r="AB10" s="5"/>
-    </row>
-    <row r="11" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD10" s="5"/>
+    </row>
+    <row r="11" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="4">
         <v>85</v>
@@ -6365,34 +6444,37 @@
       <c r="S11" s="4">
         <v>43</v>
       </c>
-      <c r="U11" s="24">
+      <c r="V11" s="4">
+        <v>43</v>
+      </c>
+      <c r="Z11" s="24">
         <v>0.36</v>
       </c>
-      <c r="V11" s="24">
-        <f>SUM(U$6:U11)</f>
+      <c r="AA11" s="24">
+        <f>SUM(Z$6:Z11)</f>
         <v>0.74</v>
       </c>
-      <c r="W11" s="24">
+      <c r="AB11" s="24">
         <v>20</v>
       </c>
-      <c r="AB11" s="5"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="U12" s="24">
+      <c r="AD11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z12" s="24">
         <v>0.6</v>
       </c>
-      <c r="V12" s="24">
-        <f>SUM(U$6:U12)</f>
+      <c r="AA12" s="24">
+        <f>SUM(Z$6:Z12)</f>
         <v>1.3399999999999999</v>
       </c>
-      <c r="W12" s="24">
+      <c r="AB12" s="24">
         <v>20</v>
       </c>
-      <c r="AB12" s="5"/>
-    </row>
-    <row r="13" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD12" s="5"/>
+    </row>
+    <row r="13" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4">
         <v>0.7</v>
@@ -6412,33 +6494,36 @@
       <c r="R13" s="4">
         <v>0.7</v>
       </c>
-      <c r="U13" s="24">
+      <c r="U13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Z13" s="24">
         <v>1.8</v>
       </c>
-      <c r="V13" s="24">
-        <f>SUM(U$6:U13)</f>
+      <c r="AA13" s="24">
+        <f>SUM(Z$6:Z13)</f>
         <v>3.1399999999999997</v>
       </c>
-      <c r="W13" s="24">
+      <c r="AB13" s="24">
         <v>20</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AD13" s="5">
         <v>4250000</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <f t="shared" si="0"/>
         <v>1062500</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C14" s="4">
-        <v>0.3</v>
+        <v>1E-3</v>
       </c>
       <c r="F14" s="4">
         <v>0.3</v>
@@ -6455,83 +6540,86 @@
       <c r="R14" s="4">
         <v>0.3</v>
       </c>
-      <c r="U14" s="24">
+      <c r="U14" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Z14" s="24">
         <v>3</v>
       </c>
-      <c r="V14" s="24">
-        <f>SUM(U$6:U14)</f>
+      <c r="AA14" s="24">
+        <f>SUM(Z$6:Z14)</f>
         <v>6.14</v>
       </c>
-      <c r="W14" s="24">
+      <c r="AB14" s="24">
         <v>20</v>
       </c>
-      <c r="AB14" s="5"/>
-    </row>
-    <row r="15" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="AD14" s="5"/>
+    </row>
+    <row r="15" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
       <c r="B15" s="10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4">
         <v>0.2</v>
       </c>
-      <c r="U15" s="24">
+      <c r="Z15" s="24">
         <v>6</v>
       </c>
-      <c r="V15" s="24">
-        <f>SUM(U$6:U15)</f>
+      <c r="AA15" s="24">
+        <f>SUM(Z$6:Z15)</f>
         <v>12.14</v>
       </c>
-      <c r="W15" s="24">
+      <c r="AB15" s="24">
         <v>20</v>
       </c>
-      <c r="AB15" s="5"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="5"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="30"/>
-      <c r="U16" s="24">
+      <c r="Z16" s="24">
         <v>10</v>
       </c>
-      <c r="V16" s="24">
-        <f>SUM(U$6:U16)</f>
+      <c r="AA16" s="24">
+        <f>SUM(Z$6:Z16)</f>
         <v>22.14</v>
       </c>
-      <c r="W16" s="24">
+      <c r="AB16" s="24">
         <v>20</v>
       </c>
-      <c r="AB16" s="5"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AD16" s="5"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
-      <c r="U17" s="24">
+      <c r="Z17" s="24">
         <v>12</v>
       </c>
-      <c r="V17" s="24">
-        <f>SUM(U$6:U17)</f>
+      <c r="AA17" s="24">
+        <f>SUM(Z$6:Z17)</f>
         <v>34.14</v>
       </c>
-      <c r="W17" s="24">
+      <c r="AB17" s="24">
         <v>20</v>
       </c>
-      <c r="AB17" s="5"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AD17" s="5"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
-      <c r="U18" s="24">
+      <c r="Z18" s="24">
         <v>13.5</v>
       </c>
-      <c r="V18" s="24">
-        <f>SUM(U$6:U18)</f>
+      <c r="AA18" s="24">
+        <f>SUM(Z$6:Z18)</f>
         <v>47.64</v>
       </c>
-      <c r="W18" s="24">
+      <c r="AB18" s="24">
         <v>20</v>
       </c>
-      <c r="AB18" s="5"/>
-    </row>
-    <row r="19" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD18" s="5"/>
+    </row>
+    <row r="19" spans="1:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C19" s="4">
         <v>150</v>
@@ -6539,86 +6627,86 @@
       <c r="D19" s="4">
         <v>100</v>
       </c>
-      <c r="U19" s="24">
+      <c r="Z19" s="24">
         <v>12</v>
       </c>
-      <c r="V19" s="24">
-        <f>SUM(U$6:U19)</f>
+      <c r="AA19" s="24">
+        <f>SUM(Z$6:Z19)</f>
         <v>59.64</v>
       </c>
-      <c r="W19" s="24">
+      <c r="AB19" s="24">
         <v>20</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AD19" s="5">
         <v>4400000</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <f t="shared" si="0"/>
         <v>1100000</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C20" s="4">
         <f>C$19*$C$14</f>
-        <v>45</v>
+        <v>0.15</v>
       </c>
       <c r="D20" s="4">
         <f>D$19*$C$14</f>
-        <v>30</v>
-      </c>
-      <c r="U20" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="Z20" s="24">
         <v>10</v>
       </c>
-      <c r="V20" s="24">
-        <f>SUM(U$6:U20)</f>
+      <c r="AA20" s="24">
+        <f>SUM(Z$6:Z20)</f>
         <v>69.64</v>
       </c>
-      <c r="W20" s="24">
+      <c r="AB20" s="24">
         <v>20</v>
       </c>
-      <c r="AB20" s="5"/>
-    </row>
-    <row r="21" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD20" s="5"/>
+    </row>
+    <row r="21" spans="1:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C21" s="4">
         <f>C19-C20</f>
-        <v>105</v>
+        <v>149.85</v>
       </c>
       <c r="D21" s="4">
         <f>D19-D20</f>
-        <v>70</v>
-      </c>
-      <c r="U21" s="24">
+        <v>99.9</v>
+      </c>
+      <c r="Z21" s="24">
         <v>6</v>
       </c>
-      <c r="V21" s="24">
-        <f>SUM(U$6:U21)</f>
+      <c r="AA21" s="24">
+        <f>SUM(Z$6:Z21)</f>
         <v>75.64</v>
       </c>
-      <c r="W21" s="24">
+      <c r="AB21" s="24">
         <v>20</v>
       </c>
-      <c r="AB21" s="5"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="U22" s="24">
+      <c r="AD21" s="5"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="Z22" s="24">
         <v>3</v>
       </c>
-      <c r="V22" s="24">
-        <f>SUM(U$6:U22)</f>
+      <c r="AA22" s="24">
+        <f>SUM(Z$6:Z22)</f>
         <v>78.64</v>
       </c>
-      <c r="W22" s="24">
+      <c r="AB22" s="24">
         <v>20</v>
       </c>
-      <c r="AB22" s="5"/>
-    </row>
-    <row r="23" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD22" s="5"/>
+    </row>
+    <row r="23" spans="1:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>52</v>
       </c>
@@ -6658,30 +6746,36 @@
       <c r="S23" s="4">
         <v>49500</v>
       </c>
-      <c r="U23" s="24">
+      <c r="U23" s="4">
+        <v>7200</v>
+      </c>
+      <c r="V23" s="4">
+        <v>49500</v>
+      </c>
+      <c r="Z23" s="24">
         <v>1.8</v>
       </c>
-      <c r="V23" s="24">
-        <f>SUM(U$6:U23)</f>
+      <c r="AA23" s="24">
+        <f>SUM(Z$6:Z23)</f>
         <v>80.44</v>
       </c>
-      <c r="W23" s="24">
+      <c r="AB23" s="24">
         <v>20</v>
       </c>
-      <c r="AB23" s="5">
+      <c r="AD23" s="5">
         <v>4420000</v>
       </c>
-      <c r="AC23">
+      <c r="AE23">
         <f t="shared" si="0"/>
         <v>1105000</v>
       </c>
-      <c r="AG23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="AI23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -6695,17 +6789,19 @@
       <c r="P24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
-      <c r="AB24" s="5"/>
-      <c r="AI24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="AD24" s="5"/>
+      <c r="AK24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4">
         <v>0.92</v>
@@ -6713,59 +6809,59 @@
       <c r="D25" s="4">
         <v>0.3</v>
       </c>
-      <c r="AB25" s="5"/>
-      <c r="AG25" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>105</v>
-      </c>
+      <c r="AD25" s="5"/>
       <c r="AI25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AD26" s="5"/>
+      <c r="AI26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK26" t="s">
         <v>107</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AL26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AB26" s="5"/>
-      <c r="AG26" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AB27" s="5">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AD27" s="5">
         <v>4508400</v>
       </c>
-      <c r="AC27">
+      <c r="AE27">
         <f t="shared" si="0"/>
         <v>1127100</v>
       </c>
-      <c r="AG27" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK27" t="s">
         <v>106</v>
       </c>
-      <c r="AI27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="AL27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -6779,27 +6875,29 @@
       <c r="P28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
-      <c r="AB28" s="5">
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="AD28" s="5">
         <v>4598570</v>
       </c>
-      <c r="AC28">
+      <c r="AE28">
         <f t="shared" si="0"/>
         <v>1149643</v>
       </c>
-      <c r="AG28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>106</v>
-      </c>
       <c r="AI28" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AJ28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>53</v>
       </c>
@@ -6821,98 +6919,101 @@
       <c r="R29" s="4">
         <v>221000</v>
       </c>
-      <c r="AB29" s="5">
+      <c r="U29" s="4">
+        <v>235000</v>
+      </c>
+      <c r="AD29" s="5">
         <v>4690540</v>
       </c>
-      <c r="AC29">
+      <c r="AE29">
         <f t="shared" si="0"/>
         <v>1172635</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AI29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>104</v>
       </c>
-      <c r="AH29" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="AK29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB30" s="5">
+        <v>143</v>
+      </c>
+      <c r="AD30" s="5">
         <v>4784350</v>
       </c>
-      <c r="AC30">
+      <c r="AE30">
         <f t="shared" si="0"/>
         <v>1196088</v>
       </c>
-      <c r="AG30" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>106</v>
-      </c>
       <c r="AI30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AJ30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AB31" s="5">
+        <v>105</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AD31" s="5">
         <v>4880040</v>
       </c>
-      <c r="AC31">
+      <c r="AE31">
         <f t="shared" si="0"/>
         <v>1220010</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AB32" s="5">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AD32" s="5">
         <v>4977640</v>
       </c>
-      <c r="AC32">
+      <c r="AE32">
         <f t="shared" si="0"/>
         <v>1244410</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB33" s="5">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AD33" s="5">
         <v>5077190</v>
       </c>
-      <c r="AC33">
+      <c r="AE33">
         <f t="shared" si="0"/>
         <v>1269298</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB34" s="5">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AD34" s="5">
         <v>5178730</v>
       </c>
-      <c r="AC34">
+      <c r="AE34">
         <f t="shared" si="0"/>
         <v>1294683</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB35" s="5">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AD35" s="5">
         <v>5282300</v>
       </c>
-      <c r="AC35">
+      <c r="AE35">
         <f t="shared" si="0"/>
         <v>1320575</v>
       </c>
     </row>
-    <row r="36" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -6926,17 +7027,19 @@
       <c r="P36" s="12"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
-      <c r="AB36" s="5">
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="AD36" s="5">
         <v>5387950</v>
       </c>
-      <c r="AC36">
+      <c r="AE36">
         <f t="shared" si="0"/>
         <v>1346988</v>
       </c>
     </row>
-    <row r="37" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="4">
         <f>C25</f>
@@ -6946,56 +7049,58 @@
         <f>D25</f>
         <v>0.3</v>
       </c>
-      <c r="AB37" s="5"/>
-    </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD37" s="5"/>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B38" s="14"/>
-      <c r="AB38" s="5"/>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB39" s="5"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="5"/>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AD39" s="5"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B40" s="14"/>
-      <c r="AB40" s="5"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB41" s="5"/>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="5"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AD41" s="5"/>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B42" s="14"/>
-      <c r="AB42" s="5"/>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="5"/>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B43" s="14"/>
-      <c r="U43" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB43" s="5"/>
-    </row>
-    <row r="44" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="W43" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD43" s="5"/>
+    </row>
+    <row r="44" spans="2:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="D44" s="8"/>
       <c r="F44" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB44" s="5"/>
-    </row>
-    <row r="45" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="AD44" s="5"/>
+    </row>
+    <row r="45" spans="2:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
@@ -7035,11 +7140,21 @@
       <c r="S45" s="4">
         <v>0</v>
       </c>
-      <c r="AB45" s="5"/>
-    </row>
-    <row r="46" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="T45" s="5">
+        <f>SUM(V$45:V45)</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="5"/>
+    </row>
+    <row r="46" spans="2:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
       </c>
       <c r="D46" s="4">
         <f>D11</f>
@@ -7075,41 +7190,56 @@
       </c>
       <c r="L46" s="4">
         <f>IF(K46&gt;=M$10, IF(K45&lt;M$10, M$10-K45, 0),J46)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M46" s="4">
         <f>J46-L46</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N46" s="5">
         <f>SUM(M$45:M46)</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O46" s="4">
         <f>IF(N46&gt;=P$10, IF(N45&lt;P$10, P$10-N45, 0),M46)</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="P46" s="4">
         <f>M46-O46</f>
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="Q46" s="5">
         <f>SUM(P$45:P46)</f>
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="R46" s="4">
         <f>IF(Q46&gt;=S$10, IF(Q45&lt;S$10, S$10-Q45, 0),P46)</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="S46" s="4">
         <f>P46-R46</f>
-        <v>0</v>
-      </c>
-      <c r="AB46" s="5"/>
-    </row>
-    <row r="47" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="T46" s="5">
+        <f>SUM(S$45:S46)</f>
+        <v>85</v>
+      </c>
+      <c r="U46" s="4">
+        <f>IF(T46&gt;=V$10, IF(T45&lt;V$10, V$10-T45, 0),S46)</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="4">
+        <f>S46-U46</f>
+        <v>85</v>
+      </c>
+      <c r="AD46" s="5"/>
+    </row>
+    <row r="47" spans="2:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
@@ -7152,7 +7282,7 @@
       </c>
       <c r="N47" s="5">
         <f>SUM(M$45:M47)</f>
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O47" s="4">
         <f t="shared" ref="O47:O49" si="4">IF(N47&gt;=P$10, IF(N46&lt;P$10, P$10-N46, 0),M47)</f>
@@ -7164,21 +7294,36 @@
       </c>
       <c r="Q47" s="5">
         <f>SUM(P$45:P47)</f>
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="R47" s="4">
         <f t="shared" ref="R47:R49" si="5">IF(Q47&gt;=S$10, IF(Q46&lt;S$10, S$10-Q46, 0),P47)</f>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="S47" s="4">
         <f>P47-R47</f>
-        <v>17</v>
-      </c>
-      <c r="AB47" s="5"/>
-    </row>
-    <row r="48" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="T47" s="5">
+        <f>SUM(S$45:S47)</f>
+        <v>165</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" ref="U47:U49" si="6">IF(T47&gt;=V$10, IF(T46&lt;V$10, V$10-T46, 0),S47)</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="4">
+        <f>S47-U47</f>
+        <v>80</v>
+      </c>
+      <c r="AD47" s="5"/>
+    </row>
+    <row r="48" spans="2:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
@@ -7220,7 +7365,7 @@
       </c>
       <c r="N48" s="5">
         <f>SUM(M$45:M48)</f>
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O48" s="4">
         <f t="shared" si="4"/>
@@ -7232,7 +7377,7 @@
       </c>
       <c r="Q48" s="5">
         <f>SUM(P$45:P48)</f>
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="R48" s="4">
         <f t="shared" si="5"/>
@@ -7242,11 +7387,26 @@
         <f>P48-R48</f>
         <v>92</v>
       </c>
-      <c r="AB48" s="5"/>
-    </row>
-    <row r="49" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="T48" s="5">
+        <f>SUM(S$45:S48)</f>
+        <v>257</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="4">
+        <f>S48-U48</f>
+        <v>92</v>
+      </c>
+      <c r="AD48" s="5"/>
+    </row>
+    <row r="49" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -7287,7 +7447,7 @@
       </c>
       <c r="N49" s="5">
         <f>SUM(M$45:M49)</f>
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O49" s="4">
         <f t="shared" si="4"/>
@@ -7299,7 +7459,7 @@
       </c>
       <c r="Q49" s="5">
         <f>SUM(P$45:P49)</f>
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="R49" s="4">
         <f t="shared" si="5"/>
@@ -7309,1363 +7469,1904 @@
         <f>P49-R49</f>
         <v>43</v>
       </c>
-      <c r="AB49" s="5"/>
-    </row>
-    <row r="50" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="T49" s="5">
+        <f>SUM(S$45:S49)</f>
+        <v>300</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="4">
+        <f>S49-U49</f>
+        <v>43</v>
+      </c>
+      <c r="AD49" s="5"/>
+    </row>
+    <row r="50" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB50" s="5"/>
-    </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="AD50" s="5"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B51" s="14"/>
-      <c r="AB51" s="5"/>
-    </row>
-    <row r="52" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD51" s="5"/>
+    </row>
+    <row r="52" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="29" t="s">
+        <v>163</v>
+      </c>
       <c r="B52" s="14" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="D52" s="4">
-        <f>D46*V6</f>
+        <f>Z6</f>
         <v>0</v>
       </c>
       <c r="G52" s="4">
-        <f>G46*V7</f>
+        <f>Z7</f>
+        <v>0.01</v>
+      </c>
+      <c r="J52" s="4">
+        <f>Z8</f>
+        <v>0.05</v>
+      </c>
+      <c r="M52" s="4">
+        <f>Z9</f>
+        <v>0.12</v>
+      </c>
+      <c r="P52" s="4">
+        <f>Z10</f>
+        <v>0.2</v>
+      </c>
+      <c r="S52" s="4">
+        <f>Z11</f>
+        <v>0.36</v>
+      </c>
+      <c r="V52" s="4">
+        <f>Z12</f>
+        <v>0.6</v>
+      </c>
+      <c r="AD52" s="5"/>
+    </row>
+    <row r="53" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="29"/>
+      <c r="B53" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <f>Z7</f>
+        <v>0.01</v>
+      </c>
+      <c r="M53" s="4">
+        <f>Z8</f>
+        <v>0.05</v>
+      </c>
+      <c r="P53" s="4">
+        <f>Z9</f>
+        <v>0.12</v>
+      </c>
+      <c r="S53" s="4">
+        <f>Z10</f>
+        <v>0.2</v>
+      </c>
+      <c r="V53" s="4">
+        <f>Z11</f>
+        <v>0.36</v>
+      </c>
+      <c r="AD53" s="5"/>
+    </row>
+    <row r="54" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="29"/>
+      <c r="B54" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
+        <f>Z7</f>
+        <v>0.01</v>
+      </c>
+      <c r="P54" s="4">
+        <f>Z8</f>
+        <v>0.05</v>
+      </c>
+      <c r="S54" s="4">
+        <f>Z9</f>
+        <v>0.12</v>
+      </c>
+      <c r="V54" s="4">
+        <f>Z10</f>
+        <v>0.2</v>
+      </c>
+      <c r="AD54" s="5"/>
+    </row>
+    <row r="55" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="29"/>
+      <c r="B55" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <f>Z7</f>
+        <v>0.01</v>
+      </c>
+      <c r="S55" s="4">
+        <f>Z8</f>
+        <v>0.05</v>
+      </c>
+      <c r="V55" s="4">
+        <f>Z9</f>
+        <v>0.12</v>
+      </c>
+      <c r="AD55" s="5"/>
+    </row>
+    <row r="56" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B56" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD56" s="5"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B57" s="14"/>
+      <c r="AD57" s="5"/>
+    </row>
+    <row r="58" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="4">
+        <f>D46*D52</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <f>G46*G52</f>
         <v>0.85</v>
       </c>
-      <c r="J52" s="4">
-        <f>J46*V8</f>
-        <v>5.1000000000000005</v>
-      </c>
-      <c r="M52" s="4">
-        <f>M46*V9</f>
-        <v>14.58</v>
-      </c>
-      <c r="P52" s="4">
-        <f>P46*V10</f>
-        <v>15.96</v>
-      </c>
-      <c r="S52" s="4">
-        <f>S46*V11</f>
-        <v>0</v>
-      </c>
-      <c r="AB52" s="5"/>
-    </row>
-    <row r="53" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B53" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G53" s="4">
-        <f>G47*V6</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="4">
-        <f>J47*V7</f>
+      <c r="J58" s="4">
+        <f>G58+J46*J52</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M58" s="4">
+        <f>J58+M46*M52</f>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="P58" s="4">
+        <f>M58+P46*P52</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="S58" s="4">
+        <f>S46*S52</f>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="V58" s="4">
+        <f>V46*V52</f>
+        <v>51</v>
+      </c>
+      <c r="AD58" s="5"/>
+    </row>
+    <row r="59" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="29"/>
+      <c r="B59" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G59" s="4">
+        <f>G47*G53</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" ref="J59:J60" si="7">G59+J47*J53</f>
         <v>0.8</v>
       </c>
-      <c r="M53" s="4">
-        <f>M47*V8</f>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="P53" s="4">
-        <f>P47*V9</f>
+      <c r="M59" s="4">
+        <f t="shared" ref="M59:M60" si="8">J59+M47*M53</f>
+        <v>4.8</v>
+      </c>
+      <c r="P59" s="4">
+        <f t="shared" ref="P59" si="9">M59+P47*P53</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="S53" s="4">
-        <f>S47*V10</f>
-        <v>6.46</v>
-      </c>
-      <c r="AB53" s="5"/>
-    </row>
-    <row r="54" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B54" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="J54" s="4">
-        <f>J48*V6</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="4">
-        <f>M48*V7</f>
+      <c r="S59" s="4">
+        <f>S47*S53</f>
+        <v>16</v>
+      </c>
+      <c r="V59" s="4">
+        <f>V47*V53</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="AD59" s="5"/>
+    </row>
+    <row r="60" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="29"/>
+      <c r="B60" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" si="8"/>
         <v>0.92</v>
       </c>
-      <c r="P54" s="4">
-        <f>P48*V8</f>
+      <c r="P60" s="4">
+        <f>M60+P48*P54</f>
         <v>5.5200000000000005</v>
       </c>
-      <c r="S54" s="4">
-        <f>S48*V9</f>
+      <c r="S60" s="4">
+        <f>S48*S54</f>
+        <v>11.04</v>
+      </c>
+      <c r="V60" s="4">
+        <f>V48*V54</f>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD60" s="5"/>
+    </row>
+    <row r="61" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="29"/>
+      <c r="B61" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J61" s="4">
+        <f>G61+J49*J55</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
+        <f>J61+M49*M55</f>
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <f>M61+P49*P55</f>
+        <v>0.43</v>
+      </c>
+      <c r="S61" s="4">
+        <f>S49*S55</f>
+        <v>2.15</v>
+      </c>
+      <c r="V61" s="4">
+        <f>V49*V55</f>
+        <v>5.16</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD61" s="5"/>
+    </row>
+    <row r="62" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B62" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD62" s="5"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B63" s="14"/>
+      <c r="Y63" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD63" s="5"/>
+    </row>
+    <row r="64" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>0</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="4">
+        <f>D31</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <f>INT(F$4-$AB$6 &gt; $A64)*MAX(D74-$C$20*D46,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
+        <f>INT(I$4-$AB$6 &gt; $A64)*MAX(G74-$C$20*G46,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="4">
+        <f>INT(L$4-$AB$6 &gt; $A64)*MAX(J74-$C$20*J46,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="4">
+        <f>INT(O$4-$AB$6 &gt; $A64)*MAX(M74-$C$20*M46,0)</f>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="S64" s="4">
+        <f>INT(R$4-$AB$6 &gt; $A64)*MAX(P74-$C$20*P46,0)</f>
+        <v>19.549999999999997</v>
+      </c>
+      <c r="V64" s="4">
+        <f>INT(U$4-$AB$6 &gt; $A64)*MAX(S74-$C$20*S46,0)</f>
+        <v>50.149999999999991</v>
+      </c>
+      <c r="AD64" s="5"/>
+    </row>
+    <row r="65" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>1</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" s="4">
+        <f>D32</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <f>INT(F$4-$AB$6 &gt; $A65)*MAX(D75-$C$20*D47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
+        <f>INT(I$4-$AB$6 &gt; $A65)*MAX(G75-$C$20*G47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="4">
+        <f>INT(L$4-$AB$6 &gt; $A65)*MAX(J75-$C$20*J47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="4">
+        <f>INT(O$4-$AB$6 &gt; $A65)*MAX(M75-$C$20*M47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S65" s="4">
+        <f>INT(R$4-$AB$6 &gt; $A65)*MAX(P75-$C$20*P47,0)</f>
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="V65" s="4">
+        <f>INT(U$4-$AB$6 &gt; $A65)*MAX(S75-$C$20*S47,0)</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AD65" s="5"/>
+    </row>
+    <row r="66" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>2</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="4">
+        <f>D33</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <f>INT(F$4-$AB$6 &gt; $A66)*MAX(D76-$C$20*D48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <f>INT(I$4-$AB$6 &gt; $A66)*MAX(G76-$C$20*G48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="4">
+        <f>INT(L$4-$AB$6 &gt; $A66)*MAX(J76-$C$20*J48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <f>INT(O$4-$AB$6 &gt; $A66)*MAX(M76-$C$20*M48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S66" s="4">
+        <f>INT(R$4-$AB$6 &gt; $A66)*MAX(P76-$C$20*P48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V66" s="4">
+        <f>INT(U$4-$AB$6 &gt; $A66)*MAX(S76-$C$20*S48,0)</f>
+        <v>2.76</v>
+      </c>
+      <c r="AD66" s="5"/>
+    </row>
+    <row r="67" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>3</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" s="4">
+        <f>D34</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <f>INT(F$4-$AB$6 &gt; $A67)*MAX(D77-$C$20*D49,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <f>INT(I$4-$AB$6 &gt; $A67)*MAX(G77-$C$20*G49,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="4">
+        <f>INT(L$4-$AB$6 &gt; $A67)*MAX(J77-$C$20*J49,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <f>INT(O$4-$AB$6 &gt; $A67)*MAX(M77-$C$20*M49,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S67" s="4">
+        <f>INT(R$4-$AB$6 &gt; $A67)*MAX(P77-$C$20*P49,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V67" s="4">
+        <f>INT(U$4-$AB$6 &gt; $A67)*MAX(S77-$C$20*S49,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD67" s="5"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B68" s="14"/>
+      <c r="AD68" s="5"/>
+    </row>
+    <row r="69" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="4">
+        <f>D52</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <f>G52</f>
+        <v>0.01</v>
+      </c>
+      <c r="J69" s="4">
+        <f>J52</f>
+        <v>0.05</v>
+      </c>
+      <c r="M69" s="4">
+        <f>M52</f>
+        <v>0.12</v>
+      </c>
+      <c r="P69" s="4">
+        <f>P52</f>
+        <v>0.2</v>
+      </c>
+      <c r="S69" s="4">
+        <f>S52</f>
+        <v>0.36</v>
+      </c>
+      <c r="V69" s="4">
+        <f>V52</f>
+        <v>0.6</v>
+      </c>
+      <c r="AD69" s="5"/>
+    </row>
+    <row r="70" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="29"/>
+      <c r="B70" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="4">
+        <f t="shared" ref="D70:D72" si="10">D53</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <f t="shared" ref="G70:G72" si="11">G53</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="4">
+        <f t="shared" ref="J70:J72" si="12">J53</f>
+        <v>0.01</v>
+      </c>
+      <c r="M70" s="4">
+        <f t="shared" ref="M70:M72" si="13">M53</f>
+        <v>0.05</v>
+      </c>
+      <c r="P70" s="4">
+        <f t="shared" ref="P70:P72" si="14">P53</f>
+        <v>0.12</v>
+      </c>
+      <c r="S70" s="4">
+        <f t="shared" ref="S70:S72" si="15">S53</f>
+        <v>0.2</v>
+      </c>
+      <c r="V70" s="4">
+        <f t="shared" ref="V70:V72" si="16">V53</f>
+        <v>0.36</v>
+      </c>
+      <c r="AD70" s="5"/>
+    </row>
+    <row r="71" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="29"/>
+      <c r="B71" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="4">
+        <f>D54</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <f>G54</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <f>J54</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="4">
+        <f>M54</f>
+        <v>0.01</v>
+      </c>
+      <c r="P71" s="4">
+        <f>P54</f>
+        <v>0.05</v>
+      </c>
+      <c r="S71" s="4">
+        <f>S54</f>
+        <v>0.12</v>
+      </c>
+      <c r="V71" s="4">
+        <f>V54</f>
+        <v>0.2</v>
+      </c>
+      <c r="AD71" s="5"/>
+    </row>
+    <row r="72" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="29"/>
+      <c r="B72" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <f t="shared" si="14"/>
+        <v>0.01</v>
+      </c>
+      <c r="S72" s="4">
+        <f t="shared" si="15"/>
+        <v>0.05</v>
+      </c>
+      <c r="V72" s="4">
+        <f t="shared" si="16"/>
+        <v>0.12</v>
+      </c>
+      <c r="AD72" s="5"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B73" s="14"/>
+      <c r="AD73" s="5"/>
+    </row>
+    <row r="74" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B74" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="4">
+        <f>D52*D46</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <f>D74+G46*G69</f>
+        <v>0.85</v>
+      </c>
+      <c r="J74" s="4">
+        <f>G74+J46*J69</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M74" s="4">
+        <f>J74+M46*M69</f>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="P74" s="4">
+        <f>M74+P46*P69</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="S74" s="4">
+        <f>P74+S46*S69</f>
+        <v>62.899999999999991</v>
+      </c>
+      <c r="V74" s="4">
+        <f>S74+V46*V69</f>
+        <v>113.89999999999999</v>
+      </c>
+      <c r="AD74" s="5"/>
+    </row>
+    <row r="75" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B75" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" ref="D75:D77" si="17">D53*D47</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <f t="shared" ref="G75:G77" si="18">D75+G47*G70</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <f t="shared" ref="J75:J77" si="19">G75+J47*J70</f>
+        <v>0.8</v>
+      </c>
+      <c r="M75" s="4">
+        <f t="shared" ref="M75:M77" si="20">J75+M47*M70</f>
+        <v>4.8</v>
+      </c>
+      <c r="P75" s="4">
+        <f t="shared" ref="P75:P77" si="21">M75+P47*P70</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="S75" s="4">
+        <f t="shared" ref="S75:S77" si="22">P75+S47*S70</f>
+        <v>30.4</v>
+      </c>
+      <c r="V75" s="4">
+        <f t="shared" ref="V75:V77" si="23">S75+V47*V70</f>
+        <v>59.199999999999996</v>
+      </c>
+      <c r="AD75" s="5"/>
+    </row>
+    <row r="76" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B76" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="4">
+        <f t="shared" si="20"/>
+        <v>0.92</v>
+      </c>
+      <c r="P76" s="4">
+        <f t="shared" si="21"/>
+        <v>5.5200000000000005</v>
+      </c>
+      <c r="S76" s="4">
+        <f t="shared" si="22"/>
         <v>16.559999999999999</v>
       </c>
-      <c r="Y54" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB54" s="5"/>
-    </row>
-    <row r="55" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B55" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="M55" s="4">
-        <f>M49*V6</f>
-        <v>0</v>
-      </c>
-      <c r="P55" s="4">
-        <f>P49*V7</f>
+      <c r="V76" s="4">
+        <f t="shared" si="23"/>
+        <v>34.96</v>
+      </c>
+      <c r="AD76" s="5"/>
+    </row>
+    <row r="77" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B77" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="4">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="4">
+        <f t="shared" si="21"/>
         <v>0.43</v>
       </c>
-      <c r="S55" s="4">
-        <f>S49*V8</f>
+      <c r="S77" s="4">
+        <f t="shared" si="22"/>
         <v>2.58</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="V77" s="4">
+        <f t="shared" si="23"/>
+        <v>7.74</v>
+      </c>
+      <c r="AD77" s="5"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B78" s="14"/>
+      <c r="AD78" s="5"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B79" s="14"/>
+      <c r="AD79" s="5"/>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B80" s="14"/>
+      <c r="AD80" s="5"/>
+    </row>
+    <row r="81" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B81" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="AD81" s="5"/>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B82" s="14"/>
+      <c r="AD82" s="5"/>
+    </row>
+    <row r="83" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B83" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AB55" s="5"/>
-    </row>
-    <row r="56" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B56" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="W56" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB56" s="5"/>
-    </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B57" s="14"/>
-      <c r="W57" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB57" s="5"/>
-    </row>
-    <row r="58" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B58" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB58" s="5"/>
-    </row>
-    <row r="59" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B59" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB59" s="5"/>
-    </row>
-    <row r="60" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B60" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB60" s="5"/>
-    </row>
-    <row r="61" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B61" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB61" s="5"/>
-    </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B62" s="14"/>
-      <c r="AB62" s="5"/>
-    </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B63" s="14"/>
-      <c r="AB63" s="5"/>
-    </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B64" s="14"/>
-      <c r="AB64" s="5"/>
-    </row>
-    <row r="65" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B65" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="AB65" s="5"/>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B66" s="14"/>
-      <c r="AB66" s="5"/>
-    </row>
-    <row r="67" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B67" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" s="4">
+      <c r="D83" s="4">
         <f>MAX(D$23-(D$7-D$9), 0)</f>
         <v>0</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G83" s="4">
         <f>MAX(G$23-(G$7-G$9), 0)</f>
         <v>210</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J83" s="4">
         <f>MAX(J$23-(J$7-J$9), 0)</f>
         <v>304</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M83" s="4">
         <f>MAX(M$23-(M$7-M$9), 0)</f>
-        <v>249804</v>
-      </c>
-      <c r="P67" s="4">
+        <v>296</v>
+      </c>
+      <c r="P83" s="4">
         <f>MAX(P$23-(P$7-P$9), 0)</f>
-        <v>49039</v>
-      </c>
-      <c r="S67" s="4">
+        <v>0</v>
+      </c>
+      <c r="S83" s="4">
         <f>MAX(S$23-(S$7-S$9), 0)</f>
-        <v>49605</v>
-      </c>
-      <c r="AB67" s="5"/>
-    </row>
-    <row r="68" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B68" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4">
-        <v>0</v>
-      </c>
-      <c r="J68" s="4">
-        <v>0</v>
-      </c>
-      <c r="M68" s="4">
-        <v>0</v>
-      </c>
-      <c r="P68" s="4">
-        <v>0</v>
-      </c>
-      <c r="S68" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="5"/>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B69" s="14"/>
-      <c r="AB69" s="5"/>
-    </row>
-    <row r="70" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B70" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D70" s="4">
-        <f>U6</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="4">
-        <f>U7</f>
-        <v>0.01</v>
-      </c>
-      <c r="J70" s="4">
-        <f>U8</f>
-        <v>0.05</v>
-      </c>
-      <c r="M70" s="4">
-        <f>U9</f>
-        <v>0.12</v>
-      </c>
-      <c r="P70" s="4">
-        <f>U10</f>
-        <v>0.2</v>
-      </c>
-      <c r="S70" s="4">
-        <f>U11</f>
-        <v>0.36</v>
-      </c>
-      <c r="AB70" s="5"/>
-    </row>
-    <row r="71" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B71" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="4">
-        <v>0</v>
-      </c>
-      <c r="J71" s="4">
-        <f>U7</f>
-        <v>0.01</v>
-      </c>
-      <c r="M71" s="4">
-        <f>U8</f>
-        <v>0.05</v>
-      </c>
-      <c r="P71" s="4">
-        <f>U9</f>
-        <v>0.12</v>
-      </c>
-      <c r="S71" s="4">
-        <f>U10</f>
-        <v>0.2</v>
-      </c>
-      <c r="AB71" s="5"/>
-    </row>
-    <row r="72" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B72" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="4">
-        <v>0</v>
-      </c>
-      <c r="J72" s="4">
-        <v>0</v>
-      </c>
-      <c r="M72" s="4">
-        <f>U7</f>
-        <v>0.01</v>
-      </c>
-      <c r="P72" s="4">
-        <f>U8</f>
-        <v>0.05</v>
-      </c>
-      <c r="S72" s="4">
-        <f>U9</f>
-        <v>0.12</v>
-      </c>
-      <c r="AB72" s="5"/>
-    </row>
-    <row r="73" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B73" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4">
-        <v>0</v>
-      </c>
-      <c r="J73" s="4">
-        <v>0</v>
-      </c>
-      <c r="M73" s="4">
-        <v>0</v>
-      </c>
-      <c r="P73" s="4">
-        <f>U7</f>
-        <v>0.01</v>
-      </c>
-      <c r="S73" s="4">
-        <f>U8</f>
-        <v>0.05</v>
-      </c>
-      <c r="AB73" s="5"/>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B74" s="14"/>
-      <c r="AB74" s="5"/>
-    </row>
-    <row r="75" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>0</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D75" s="4">
-        <f>D70</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="4">
-        <f>INT(F$4-$W$6 &gt; $A75)*G52</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="4">
-        <f>INT(I$4-$W$6 &gt; $A75)*J52</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="4">
-        <f>INT(L$4-$W$6 &gt; $A75)*M52</f>
-        <v>14.58</v>
-      </c>
-      <c r="P75" s="4">
-        <f>INT(O$4-$W$6 &gt; $A75)*P52</f>
-        <v>15.96</v>
-      </c>
-      <c r="S75" s="4">
-        <f>INT(R$4-$W$6 &gt; $A75)*S52</f>
-        <v>0</v>
-      </c>
-      <c r="AB75" s="5"/>
-    </row>
-    <row r="76" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="4">
+        <f>MAX(V$23-(V$7-V$9), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD83" s="5"/>
+    </row>
+    <row r="84" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B84" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0</v>
+      </c>
+      <c r="J84" s="4">
+        <v>0</v>
+      </c>
+      <c r="M84" s="4">
+        <v>0</v>
+      </c>
+      <c r="P84" s="4">
+        <v>0</v>
+      </c>
+      <c r="S84" s="4">
+        <v>0</v>
+      </c>
+      <c r="V84" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="5"/>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B85" s="14"/>
+      <c r="AD85" s="5"/>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B90" s="14"/>
+      <c r="AD90" s="5"/>
+    </row>
+    <row r="91" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
+        <v>0</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" s="4">
+        <f>D52</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="4">
+        <f>INT(F$4-$AB$6 &gt; $A91)*G58</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="4">
+        <f>INT(I$4-$AB$6 &gt; $A91)*J58</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="4">
+        <f>INT(L$4-$AB$6 &gt; $A91)*M58</f>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="P91" s="4">
+        <f>INT(O$4-$AB$6 &gt; $A91)*P58</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="S91" s="4">
+        <f>INT(R$4-$AB$6 &gt; $A91)*S58</f>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="V91" s="4">
+        <f>INT(U$4-$AB$6 &gt; $A91)*V58</f>
+        <v>51</v>
+      </c>
+      <c r="AD91" s="5"/>
+    </row>
+    <row r="92" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
         <v>1</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D76" s="4">
-        <f t="shared" ref="D76:D78" si="6">D71</f>
-        <v>0</v>
-      </c>
-      <c r="G76" s="4">
-        <f>INT(F$4-$W$6 &gt; $A76)*G53</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="4">
-        <f>INT(I$4-$W$6 &gt; $A76)*J53</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="4">
-        <f>INT(L$4-$W$6 &gt; $A76)*M53</f>
-        <v>0</v>
-      </c>
-      <c r="P76" s="4">
-        <f>INT(O$4-$W$6 &gt; $A76)*P53</f>
+      <c r="B92" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="4">
+        <f>D53</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="4">
+        <f>INT(F$4-$AB$6 &gt; $A92)*G59</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="4">
+        <f>INT(I$4-$AB$6 &gt; $A92)*J59</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="4">
+        <f>INT(L$4-$AB$6 &gt; $A92)*M59</f>
+        <v>0</v>
+      </c>
+      <c r="P92" s="4">
+        <f>INT(O$4-$AB$6 &gt; $A92)*P59</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="S76" s="4">
-        <f>INT(R$4-$W$6 &gt; $A76)*S53</f>
-        <v>6.46</v>
-      </c>
-      <c r="AB76" s="5"/>
-    </row>
-    <row r="77" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+      <c r="S92" s="4">
+        <f>INT(R$4-$AB$6 &gt; $A92)*S59</f>
+        <v>16</v>
+      </c>
+      <c r="V92" s="4">
+        <f>INT(U$4-$AB$6 &gt; $A92)*V59</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="AD92" s="5"/>
+    </row>
+    <row r="93" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
         <v>2</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D77" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="4">
-        <f>INT(F$4-$W$6 &gt; $A77)*G54</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="4">
-        <f>INT(I$4-$W$6 &gt; $A77)*J54</f>
-        <v>0</v>
-      </c>
-      <c r="M77" s="4">
-        <f>INT(L$4-$W$6 &gt; $A77)*M54</f>
-        <v>0</v>
-      </c>
-      <c r="P77" s="4">
-        <f>INT(O$4-$W$6 &gt; $A77)*P54</f>
-        <v>0</v>
-      </c>
-      <c r="S77" s="4">
-        <f>INT(R$4-$W$6 &gt; $A77)*S54</f>
-        <v>16.559999999999999</v>
-      </c>
-      <c r="AB77" s="5"/>
-    </row>
-    <row r="78" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+      <c r="B93" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D93" s="4">
+        <f>D54</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="4">
+        <f>INT(F$4-$AB$6 &gt; $A93)*G60</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="4">
+        <f>INT(I$4-$AB$6 &gt; $A93)*J60</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="4">
+        <f>INT(L$4-$AB$6 &gt; $A93)*M60</f>
+        <v>0</v>
+      </c>
+      <c r="P93" s="4">
+        <f>INT(O$4-$AB$6 &gt; $A93)*P60</f>
+        <v>0</v>
+      </c>
+      <c r="S93" s="4">
+        <f>INT(R$4-$AB$6 &gt; $A93)*S60</f>
+        <v>11.04</v>
+      </c>
+      <c r="V93" s="4">
+        <f>INT(U$4-$AB$6 &gt; $A93)*V60</f>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AD93" s="5"/>
+    </row>
+    <row r="94" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
         <v>3</v>
       </c>
-      <c r="B78" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D78" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="4">
-        <f>INT(F$4-$W$6 &gt; $A78)*G55</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="4">
-        <f>INT(I$4-$W$6 &gt; $A78)*J55</f>
-        <v>0</v>
-      </c>
-      <c r="M78" s="4">
-        <f>INT(L$4-$W$6 &gt; $A78)*M55</f>
-        <v>0</v>
-      </c>
-      <c r="P78" s="4">
-        <f>INT(O$4-$W$6 &gt; $A78)*P55</f>
-        <v>0</v>
-      </c>
-      <c r="S78" s="4">
-        <f>INT(R$4-$W$6 &gt; $A78)*S55</f>
-        <v>0</v>
-      </c>
-      <c r="AB78" s="5"/>
-    </row>
-    <row r="79" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B79" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB79" s="5"/>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B80" s="14"/>
-      <c r="AB80" s="5"/>
-    </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B81" s="13"/>
-      <c r="AB81" s="5"/>
-    </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B82" s="13"/>
-      <c r="AB82" s="5"/>
-    </row>
-    <row r="83" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B83" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" s="12"/>
-      <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
-      <c r="AB83" s="5"/>
-    </row>
-    <row r="84" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B84" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C84" s="4">
+      <c r="B94" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94" s="4">
+        <f>D55</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="4">
+        <f>INT(F$4-$AB$6 &gt; $A94)*G61</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="4">
+        <f>INT(I$4-$AB$6 &gt; $A94)*J61</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="4">
+        <f>INT(L$4-$AB$6 &gt; $A94)*M61</f>
+        <v>0</v>
+      </c>
+      <c r="P94" s="4">
+        <f>INT(O$4-$AB$6 &gt; $A94)*P61</f>
+        <v>0</v>
+      </c>
+      <c r="S94" s="4">
+        <f>INT(R$4-$AB$6 &gt; $A94)*S61</f>
+        <v>0</v>
+      </c>
+      <c r="V94" s="4">
+        <f>INT(U$4-$AB$6 &gt; $A94)*V61</f>
+        <v>5.16</v>
+      </c>
+      <c r="AD94" s="5"/>
+    </row>
+    <row r="95" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B95" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD95" s="5"/>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B96" s="14"/>
+      <c r="AD96" s="5"/>
+    </row>
+    <row r="97" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B97" s="13"/>
+      <c r="AD97" s="5"/>
+    </row>
+    <row r="98" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B98" s="13"/>
+      <c r="AD98" s="5"/>
+    </row>
+    <row r="99" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="B99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="AD99" s="5"/>
+    </row>
+    <row r="100" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="B100" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" s="4">
         <f>C19*C7</f>
         <v>1500000</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D100" s="4">
         <f>D19*D7</f>
         <v>25000000</v>
       </c>
-      <c r="U84">
+      <c r="W100">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V84">
-        <f>SUM(U$6:U84)</f>
-        <v>81.539999999999992</v>
-      </c>
-      <c r="W84">
+      <c r="X100">
+        <f>SUM(W$6:W100)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y100">
         <v>20</v>
       </c>
-      <c r="AB84" s="5">
+      <c r="AD100" s="5">
         <v>5495710</v>
       </c>
-      <c r="AC84">
+      <c r="AE100">
         <f t="shared" si="0"/>
         <v>1373928</v>
       </c>
     </row>
-    <row r="85" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B85" s="10" t="s">
+    <row r="101" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="B101" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" s="4">
+        <f>SUM(D120:D123)</f>
+        <v>0</v>
+      </c>
+      <c r="AD101" s="5"/>
+    </row>
+    <row r="102" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="B102" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" s="4">
+        <f>C100+C101</f>
+        <v>1500000</v>
+      </c>
+      <c r="D102" s="4">
+        <f>D100+D101</f>
+        <v>25000000</v>
+      </c>
+      <c r="AD102" s="5"/>
+    </row>
+    <row r="103" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AD103" s="5"/>
+    </row>
+    <row r="104" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="B104" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D85" s="4">
-        <f>SUM(D104:D107)</f>
-        <v>0</v>
-      </c>
-      <c r="AB85" s="5"/>
-    </row>
-    <row r="86" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B86" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="4">
-        <f>C84+C85</f>
-        <v>1500000</v>
-      </c>
-      <c r="D86" s="4">
-        <f>D84+D85</f>
-        <v>25000000</v>
-      </c>
-      <c r="AB86" s="5"/>
-    </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB87" s="5"/>
-    </row>
-    <row r="88" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B88" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="4">
+      <c r="C104" s="4">
         <f>C9*C19*$C$13</f>
         <v>5250</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D104" s="4">
         <f>D9*D19*$C$13</f>
         <v>7000</v>
       </c>
-      <c r="AB88" s="5"/>
-    </row>
-    <row r="89" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B89" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C89" s="4">
+      <c r="AD104" s="5"/>
+    </row>
+    <row r="105" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="B105" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="4">
         <f>C23*C19</f>
         <v>750000</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D105" s="4">
         <f>D23*D19</f>
         <v>5000000</v>
       </c>
-      <c r="AB89" s="5"/>
-    </row>
-    <row r="90" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B90" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90" s="4">
+      <c r="AD105" s="5"/>
+    </row>
+    <row r="106" spans="2:31" ht="34" x14ac:dyDescent="0.2">
+      <c r="B106" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" s="4">
         <f>$C20*MAX(C7-C9-C23,0)</f>
-        <v>222750</v>
-      </c>
-      <c r="D90" s="4">
+        <v>742.5</v>
+      </c>
+      <c r="D106" s="4">
         <f>$D20*MAX(D7-D9-D23,0)</f>
-        <v>5997000</v>
-      </c>
-      <c r="AB90" s="5"/>
-    </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB91" s="5"/>
-    </row>
-    <row r="92" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B92" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C92" s="4">
-        <f>MAX(C7-C9-C23, 0)*C95</f>
-        <v>519750</v>
-      </c>
-      <c r="D92" s="4">
-        <f>MAX(D7-D9-D23, 0)*D95</f>
-        <v>13993000</v>
-      </c>
-      <c r="AB92" s="5"/>
-    </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB93" s="5"/>
-    </row>
-    <row r="94" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B94" s="15" t="s">
+        <v>19990</v>
+      </c>
+      <c r="AD106" s="5"/>
+    </row>
+    <row r="107" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AD107" s="5"/>
+    </row>
+    <row r="108" spans="2:31" ht="34" x14ac:dyDescent="0.2">
+      <c r="B108" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" s="4">
+        <f>MAX(C7-C9-C23, 0)*C111</f>
+        <v>741757.5</v>
+      </c>
+      <c r="D108" s="4">
+        <f>MAX(D7-D9-D23, 0)*D111</f>
+        <v>19970010</v>
+      </c>
+      <c r="AD108" s="5"/>
+    </row>
+    <row r="109" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AD109" s="5"/>
+    </row>
+    <row r="110" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="B110" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="AD110" s="5"/>
+    </row>
+    <row r="111" spans="2:31" ht="34" x14ac:dyDescent="0.2">
+      <c r="B111" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="AB94" s="5"/>
-    </row>
-    <row r="95" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B95" s="10" t="s">
+      <c r="C111" s="4">
+        <f>MAX(C100/C7-C20,0)</f>
+        <v>149.85</v>
+      </c>
+      <c r="D111" s="4">
+        <f>MAX(D100/D7-D20,0)</f>
+        <v>99.9</v>
+      </c>
+      <c r="AD111" s="5"/>
+    </row>
+    <row r="112" spans="2:31" ht="34" x14ac:dyDescent="0.2">
+      <c r="B112" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="4">
+        <f>C111/$C$21</f>
+        <v>1</v>
+      </c>
+      <c r="D112" s="4">
+        <f>D111/$D$21</f>
+        <v>1</v>
+      </c>
+      <c r="AD112" s="5"/>
+    </row>
+    <row r="113" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B113" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" s="4">
+        <f>MAX(MIN((C112-C14)/$C$15, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D113" s="4">
+        <f>MAX(MIN((D112-$C$14)/$C$15, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD113" s="5"/>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD114" s="5"/>
+    </row>
+    <row r="115" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B115" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C115" s="4">
+        <f>C108*C113</f>
+        <v>741757.5</v>
+      </c>
+      <c r="D115" s="4">
+        <f>D108*D113</f>
+        <v>19970010</v>
+      </c>
+      <c r="AD115" s="5"/>
+    </row>
+    <row r="116" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B116" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="4">
+        <f>C115+D115</f>
+        <v>20711767.5</v>
+      </c>
+      <c r="AD116" s="5"/>
+    </row>
+    <row r="117" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B117" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" s="4">
+        <f>C115/$C116</f>
+        <v>3.5813336548896658E-2</v>
+      </c>
+      <c r="D117" s="4">
+        <f>D115/$C116</f>
+        <v>0.96418666345110338</v>
+      </c>
+      <c r="AD117" s="5"/>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD118" s="5"/>
+    </row>
+    <row r="119" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B119" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C95" s="4">
-        <f>MAX(C84/C7-C20,0)</f>
-        <v>105</v>
-      </c>
-      <c r="D95" s="4">
-        <f>MAX(D84/D7-D20,0)</f>
-        <v>70</v>
-      </c>
-      <c r="AB95" s="5"/>
-    </row>
-    <row r="96" spans="2:29" ht="34" x14ac:dyDescent="0.2">
-      <c r="B96" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C96" s="4">
-        <f>C95/$C$21</f>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="AD119" s="5"/>
+    </row>
+    <row r="120" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B120" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D120" s="4">
+        <f>D46*D91</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="4">
+        <f>D120 - D132 + G52*G46</f>
+        <v>0.85</v>
+      </c>
+      <c r="J120" s="4">
+        <f>G120 - G132 + J52*J46</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M120" s="4">
+        <f>J120 - J132 + M52*M46</f>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="P120" s="4">
+        <f>M120 - M132 + P52*P46</f>
+        <v>31.299999999999997</v>
+      </c>
+      <c r="S120" s="4">
+        <f>P120 - P132 + S52*S46</f>
+        <v>61.899999999999991</v>
+      </c>
+      <c r="V120" s="4">
+        <f>S120 - S132 + V52*V46</f>
+        <v>112.89999999999999</v>
+      </c>
+      <c r="AD120" s="5"/>
+    </row>
+    <row r="121" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B121" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0</v>
+      </c>
+      <c r="G121" s="4">
+        <f>D121 - D133 + G53*G47</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="4">
+        <f>G121 - G133 + J53*J47</f>
+        <v>0.8</v>
+      </c>
+      <c r="M121" s="4">
+        <f>J121 - J133 + M53*M47</f>
+        <v>4.8</v>
+      </c>
+      <c r="P121" s="4">
+        <f>M121 - M133 + P53*P47</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="S121" s="4">
+        <f>P121 - P133 + S53*S47</f>
+        <v>30.4</v>
+      </c>
+      <c r="V121" s="4">
+        <f>S121 - S133 + V53*V47</f>
+        <v>59.199999999999996</v>
+      </c>
+      <c r="AD121" s="5"/>
+    </row>
+    <row r="122" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B122" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0</v>
+      </c>
+      <c r="G122" s="4">
+        <f>D122 - D134 + G54*G48</f>
+        <v>0</v>
+      </c>
+      <c r="J122" s="4">
+        <f>G122 - G134 + J54*J48</f>
+        <v>0</v>
+      </c>
+      <c r="M122" s="4">
+        <f>J122 - J134 + M54*M48</f>
+        <v>0.92</v>
+      </c>
+      <c r="P122" s="4">
+        <f>M122 - M134 + P54*P48</f>
+        <v>5.5200000000000005</v>
+      </c>
+      <c r="S122" s="4">
+        <f>P122 - P134 + S54*S48</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="V122" s="4">
+        <f>S122 - S134 + V54*V48</f>
+        <v>34.96</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD122" s="5"/>
+    </row>
+    <row r="123" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="B123" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0</v>
+      </c>
+      <c r="G123" s="4">
+        <f>D123 - D135 + G55*G49</f>
+        <v>0</v>
+      </c>
+      <c r="J123" s="4">
+        <f>G123 - G135 + J55*J49</f>
+        <v>0</v>
+      </c>
+      <c r="M123" s="4">
+        <f>J123 - J135 + M55*M49</f>
+        <v>0</v>
+      </c>
+      <c r="P123" s="4">
+        <f>M123 - M135 + P55*P49</f>
+        <v>0.43</v>
+      </c>
+      <c r="S123" s="4">
+        <f>P123 - P135 + S55*S49</f>
+        <v>2.58</v>
+      </c>
+      <c r="V123" s="4">
+        <f>S123 - S135 + V55*V49</f>
+        <v>7.74</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD123" s="5"/>
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B124" s="14"/>
+      <c r="AD124" s="5"/>
+    </row>
+    <row r="125" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="5">
+        <v>0</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D125" s="4">
+        <f>INT(C$4-$AB$6&gt;$A125)*D120</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="4">
+        <f>INT(F$4-$AB$6&gt;$A125)*G120</f>
+        <v>0</v>
+      </c>
+      <c r="J125" s="4">
+        <f>INT(I$4-$AB$6&gt;$A125)*J120</f>
+        <v>0</v>
+      </c>
+      <c r="M125" s="4">
+        <f>INT(L$4-$AB$6&gt;$A125)*M120</f>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="P125" s="4">
+        <f>INT(O$4-$AB$6&gt;$A125)*P120</f>
+        <v>31.299999999999997</v>
+      </c>
+      <c r="S125" s="4">
+        <f>INT(R$4-$AB$6&gt;$A125)*S120</f>
+        <v>61.899999999999991</v>
+      </c>
+      <c r="V125" s="4">
+        <f>INT(U$4-$AB$6&gt;$A125)*V120</f>
+        <v>112.89999999999999</v>
+      </c>
+      <c r="AD125" s="5"/>
+    </row>
+    <row r="126" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+      <c r="A126" s="5">
         <v>1</v>
       </c>
-      <c r="D96" s="4">
-        <f>D95/$D$21</f>
+      <c r="B126" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D126" s="4">
+        <f>INT(C$4-$AB$6&gt;$A126)*D121</f>
+        <v>0</v>
+      </c>
+      <c r="G126" s="4">
+        <f>INT(F$4-$AB$6&gt;$A126)*G121</f>
+        <v>0</v>
+      </c>
+      <c r="J126" s="4">
+        <f>INT(I$4-$AB$6&gt;$A126)*J121</f>
+        <v>0</v>
+      </c>
+      <c r="M126" s="4">
+        <f>INT(L$4-$AB$6&gt;$A126)*M121</f>
+        <v>0</v>
+      </c>
+      <c r="P126" s="4">
+        <f>INT(O$4-$AB$6&gt;$A126)*P121</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="S126" s="4">
+        <f>INT(R$4-$AB$6&gt;$A126)*S121</f>
+        <v>30.4</v>
+      </c>
+      <c r="V126" s="4">
+        <f>INT(U$4-$AB$6&gt;$A126)*V121</f>
+        <v>59.199999999999996</v>
+      </c>
+      <c r="AD126" s="5"/>
+    </row>
+    <row r="127" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="5">
+        <v>2</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" s="4">
+        <f>INT(C$4-$AB$6&gt;$A127)*D122</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="4">
+        <f>INT(F$4-$AB$6&gt;$A127)*G122</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="4">
+        <f>INT(I$4-$AB$6&gt;$A127)*J122</f>
+        <v>0</v>
+      </c>
+      <c r="M127" s="4">
+        <f>INT(L$4-$AB$6&gt;$A127)*M122</f>
+        <v>0</v>
+      </c>
+      <c r="P127" s="4">
+        <f>INT(O$4-$AB$6&gt;$A127)*P122</f>
+        <v>0</v>
+      </c>
+      <c r="S127" s="4">
+        <f>INT(R$4-$AB$6&gt;$A127)*S122</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="V127" s="4">
+        <f>INT(U$4-$AB$6&gt;$A127)*V122</f>
+        <v>34.96</v>
+      </c>
+      <c r="AD127" s="5"/>
+    </row>
+    <row r="128" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+      <c r="A128" s="5">
+        <v>3</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D128" s="4">
+        <f>INT(C$4-$AB$6&gt;$A128)*D123</f>
+        <v>0</v>
+      </c>
+      <c r="G128" s="4">
+        <f>INT(F$4-$AB$6&gt;$A128)*G123</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="4">
+        <f>INT(I$4-$AB$6&gt;$A128)*J123</f>
+        <v>0</v>
+      </c>
+      <c r="M128" s="4">
+        <f>INT(L$4-$AB$6&gt;$A128)*M123</f>
+        <v>0</v>
+      </c>
+      <c r="P128" s="4">
+        <f>INT(O$4-$AB$6&gt;$A128)*P123</f>
+        <v>0</v>
+      </c>
+      <c r="S128" s="4">
+        <f>INT(R$4-$AB$6&gt;$A128)*S123</f>
+        <v>0</v>
+      </c>
+      <c r="V128" s="4">
+        <f>INT(U$4-$AB$6&gt;$A128)*V123</f>
+        <v>7.74</v>
+      </c>
+      <c r="AD128" s="5"/>
+    </row>
+    <row r="129" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B129" s="14"/>
+      <c r="AD129" s="5"/>
+    </row>
+    <row r="130" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD130" s="5"/>
+    </row>
+    <row r="131" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD131" s="5"/>
+    </row>
+    <row r="132" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0</v>
+      </c>
+      <c r="G132" s="4">
+        <f>INT(F4-$AB$6 &gt; 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J132" s="4">
+        <f>INT(I4-$AB$6 &gt; 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M132" s="4">
+        <f>INT(L4-$AB$6 &gt; 0)</f>
         <v>1</v>
       </c>
-      <c r="AB96" s="5"/>
-    </row>
-    <row r="97" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B97" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C97" s="4">
-        <f>MAX(MIN((C96-C14)/$C$15, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="D97" s="4">
-        <f>MAX(MIN((D96-$C$14)/$C$15, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="AB97" s="5"/>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="AB98" s="5"/>
-    </row>
-    <row r="99" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B99" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C99" s="4">
-        <f>C92*C97</f>
-        <v>519750</v>
-      </c>
-      <c r="D99" s="4">
-        <f>D92*D97</f>
-        <v>13993000</v>
-      </c>
-      <c r="AB99" s="5"/>
-    </row>
-    <row r="100" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B100" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C100" s="4">
-        <f>C99+D99</f>
-        <v>14512750</v>
-      </c>
-      <c r="AB100" s="5"/>
-    </row>
-    <row r="101" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B101" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C101" s="4">
-        <f>C99/$C100</f>
-        <v>3.5813336548896658E-2</v>
-      </c>
-      <c r="D101" s="4">
-        <f>D99/$C100</f>
-        <v>0.96418666345110338</v>
-      </c>
-      <c r="AB101" s="5"/>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="AB102" s="5"/>
-    </row>
-    <row r="103" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B103" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="AB103" s="5"/>
-    </row>
-    <row r="104" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B104" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D104" s="4">
-        <f>D46*D75</f>
-        <v>0</v>
-      </c>
-      <c r="G104" s="4">
-        <f>D104 - D116 + G70*G46</f>
-        <v>0.85</v>
-      </c>
-      <c r="J104" s="4">
-        <f>G104 - G116 + J70*J46</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M104" s="4">
-        <f>J104 - J116 + M70*M46</f>
-        <v>14.819999999999999</v>
-      </c>
-      <c r="P104" s="4">
-        <f>M104 - M116 + P70*P46</f>
-        <v>22.22</v>
-      </c>
-      <c r="S104" s="4">
-        <f>P104 - P116 + S70*S46</f>
-        <v>22.22</v>
-      </c>
-      <c r="AB104" s="5"/>
-    </row>
-    <row r="105" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B105" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D105" s="4">
-        <v>0</v>
-      </c>
-      <c r="G105" s="4">
-        <f>D105 - D117 + G71*G47</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="4">
-        <f>G105 - G117 + J71*J47</f>
-        <v>0.8</v>
-      </c>
-      <c r="M105" s="4">
-        <f>J105 - J117 + M71*M47</f>
-        <v>4.8</v>
-      </c>
-      <c r="P105" s="4">
-        <f>M105 - M117 + P71*P47</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="S105" s="4">
-        <f>P105 - P117 + S71*S47</f>
-        <v>17.799999999999997</v>
-      </c>
-      <c r="AB105" s="5"/>
-    </row>
-    <row r="106" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B106" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D106" s="4">
-        <v>0</v>
-      </c>
-      <c r="G106" s="4">
-        <f>D106 - D118 + G72*G48</f>
-        <v>0</v>
-      </c>
-      <c r="J106" s="4">
-        <f>G106 - G118 + J72*J48</f>
-        <v>0</v>
-      </c>
-      <c r="M106" s="4">
-        <f>J106 - J118 + M72*M48</f>
-        <v>0.92</v>
-      </c>
-      <c r="P106" s="4">
-        <f>M106 - M118 + P72*P48</f>
-        <v>5.5200000000000005</v>
-      </c>
-      <c r="S106" s="4">
-        <f>P106 - P118 + S72*S48</f>
-        <v>16.559999999999999</v>
-      </c>
-      <c r="Y106" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB106" s="5"/>
-    </row>
-    <row r="107" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B107" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D107" s="4">
-        <v>0</v>
-      </c>
-      <c r="G107" s="4">
-        <f>D107 - D119 + G73*G49</f>
-        <v>0</v>
-      </c>
-      <c r="J107" s="4">
-        <f>G107 - G119 + J73*J49</f>
-        <v>0</v>
-      </c>
-      <c r="M107" s="4">
-        <f>J107 - J119 + M73*M49</f>
-        <v>0</v>
-      </c>
-      <c r="P107" s="4">
-        <f>M107 - M119 + P73*P49</f>
-        <v>0.43</v>
-      </c>
-      <c r="S107" s="4">
-        <f>P107 - P119 + S73*S49</f>
-        <v>2.58</v>
-      </c>
-      <c r="Y107" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB107" s="5"/>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B108" s="14"/>
-      <c r="AB108" s="5"/>
-    </row>
-    <row r="109" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
-        <v>0</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D109" s="4">
-        <f>INT(C$4-$W$6&gt;$A109)*D104</f>
-        <v>0</v>
-      </c>
-      <c r="G109" s="4">
-        <f>INT(F$4-$W$6&gt;$A109)*G104</f>
-        <v>0</v>
-      </c>
-      <c r="J109" s="4">
-        <f>INT(I$4-$W$6&gt;$A109)*J104</f>
-        <v>0</v>
-      </c>
-      <c r="M109" s="4">
-        <f>INT(L$4-$W$6&gt;$A109)*M104</f>
-        <v>14.819999999999999</v>
-      </c>
-      <c r="P109" s="4">
-        <f>INT(O$4-$W$6&gt;$A109)*P104</f>
-        <v>22.22</v>
-      </c>
-      <c r="S109" s="4">
-        <f>INT(R$4-$W$6&gt;$A109)*S104</f>
-        <v>22.22</v>
-      </c>
-      <c r="AB109" s="5"/>
-    </row>
-    <row r="110" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
-        <v>1</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D110" s="4">
-        <f t="shared" ref="D110:D112" si="7">INT(C$4-$W$6&gt;$A110)*D105</f>
-        <v>0</v>
-      </c>
-      <c r="G110" s="4">
-        <f t="shared" ref="G110:G112" si="8">INT(F$4-$W$6&gt;$A110)*G105</f>
-        <v>0</v>
-      </c>
-      <c r="J110" s="4">
-        <f t="shared" ref="J110:J112" si="9">INT(I$4-$W$6&gt;$A110)*J105</f>
-        <v>0</v>
-      </c>
-      <c r="M110" s="4">
-        <f t="shared" ref="M110:M112" si="10">INT(L$4-$W$6&gt;$A110)*M105</f>
-        <v>0</v>
-      </c>
-      <c r="P110" s="4">
-        <f t="shared" ref="P110:P112" si="11">INT(O$4-$W$6&gt;$A110)*P105</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="S110" s="4">
-        <f t="shared" ref="S110:S112" si="12">INT(R$4-$W$6&gt;$A110)*S105</f>
-        <v>17.799999999999997</v>
-      </c>
-      <c r="AB110" s="5"/>
-    </row>
-    <row r="111" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>2</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D111" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M111" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P111" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S111" s="4">
-        <f t="shared" si="12"/>
-        <v>16.559999999999999</v>
-      </c>
-      <c r="AB111" s="5"/>
-    </row>
-    <row r="112" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
-        <v>3</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D112" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M112" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P112" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S112" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB112" s="5"/>
-    </row>
-    <row r="113" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B113" s="14"/>
-      <c r="AB113" s="5"/>
-    </row>
-    <row r="114" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="X114" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB114" s="5"/>
-    </row>
-    <row r="115" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB115" s="5"/>
-    </row>
-    <row r="116" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D116" s="4">
-        <v>0</v>
-      </c>
-      <c r="G116" s="4">
-        <f>INT(F4-$W$6 &gt; 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="4">
-        <f>INT(I4-$W$6 &gt; 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M116" s="4">
-        <f>INT(L4-$W$6 &gt; 0)</f>
-        <v>1</v>
-      </c>
-      <c r="AB116" s="5"/>
-    </row>
-    <row r="117" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D117" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB117" s="5"/>
-    </row>
-    <row r="118" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D118" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB118" s="5"/>
-    </row>
-    <row r="119" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B119" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D119" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB119" s="5"/>
-    </row>
-    <row r="120" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB120" s="5"/>
-    </row>
-    <row r="121" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B121" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="AB121" s="5"/>
-    </row>
-    <row r="122" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B122" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C122" s="4">
-        <f>MIN(C100,C29)</f>
+      <c r="AD132" s="5"/>
+    </row>
+    <row r="133" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD133" s="5"/>
+    </row>
+    <row r="134" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D134" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD134" s="5"/>
+    </row>
+    <row r="135" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="B135" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D135" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD135" s="5"/>
+    </row>
+    <row r="136" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AD136" s="5"/>
+    </row>
+    <row r="137" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="B137" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="AD137" s="5"/>
+    </row>
+    <row r="138" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="B138" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C138" s="4">
+        <f>MIN(C116,C29)</f>
         <v>200000</v>
       </c>
-      <c r="U122">
+      <c r="W138">
         <v>0.5</v>
       </c>
-      <c r="V122">
-        <f>SUM(U$6:U122)</f>
-        <v>82.039999999999992</v>
-      </c>
-      <c r="W122">
+      <c r="X138">
+        <f>SUM(W$6:W138)</f>
+        <v>1.6</v>
+      </c>
+      <c r="Y138">
         <v>20</v>
       </c>
-      <c r="AB122" s="5">
+      <c r="AD138" s="5">
         <v>5605620</v>
       </c>
-      <c r="AC122">
+      <c r="AE138">
         <f t="shared" si="0"/>
         <v>1401405</v>
       </c>
     </row>
-    <row r="123" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B123" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C123" s="4">
-        <f>C29-C122</f>
-        <v>0</v>
-      </c>
-      <c r="U123">
+    <row r="139" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="B139" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C139" s="4">
+        <f>C29-C138</f>
+        <v>0</v>
+      </c>
+      <c r="W139">
         <v>0.3</v>
       </c>
-      <c r="V123">
-        <f>SUM(U$6:U123)</f>
-        <v>82.339999999999989</v>
-      </c>
-      <c r="W123">
+      <c r="X139">
+        <f>SUM(W$6:W139)</f>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="Y139">
         <v>20</v>
       </c>
-      <c r="AB123" s="5">
+      <c r="AD139" s="5">
         <v>5717730</v>
       </c>
-      <c r="AC123">
+      <c r="AE139">
         <f t="shared" si="0"/>
         <v>1429433</v>
       </c>
     </row>
-    <row r="124" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B124" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C124" s="4">
-        <f>MIN(C29,C122)</f>
+    <row r="140" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="B140" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140" s="4">
+        <f>MIN(C29,C138)</f>
         <v>200000</v>
       </c>
-      <c r="U124">
+      <c r="W140">
         <v>0.2</v>
       </c>
-      <c r="V124">
-        <f>SUM(U$6:U124)</f>
-        <v>82.539999999999992</v>
-      </c>
-      <c r="W124">
+      <c r="X140">
+        <f>SUM(W$6:W140)</f>
+        <v>2.1</v>
+      </c>
+      <c r="Y140">
         <v>20</v>
       </c>
-      <c r="AB124" s="5">
+      <c r="AD140" s="5">
         <v>5832080</v>
       </c>
-      <c r="AC124">
+      <c r="AE140">
         <f t="shared" si="0"/>
         <v>1458020</v>
       </c>
     </row>
-    <row r="125" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="U125">
+    <row r="141" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W141">
         <v>0.18</v>
       </c>
-      <c r="V125">
-        <f>SUM(U$6:U125)</f>
-        <v>82.72</v>
-      </c>
-      <c r="W125">
+      <c r="X141">
+        <f>SUM(W$6:W141)</f>
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="Y141">
         <v>20</v>
       </c>
-      <c r="AB125" s="5">
+      <c r="AD141" s="5">
         <v>5948720</v>
       </c>
-      <c r="AC125">
+      <c r="AE141">
         <f t="shared" si="0"/>
         <v>1487180</v>
       </c>
     </row>
-    <row r="126" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="U126">
+    <row r="142" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W142">
         <v>0.17</v>
       </c>
-      <c r="V126">
-        <f>SUM(U$6:U126)</f>
-        <v>82.89</v>
-      </c>
-      <c r="W126">
+      <c r="X142">
+        <f>SUM(W$6:W142)</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Y142">
         <v>20</v>
       </c>
-      <c r="AB126" s="5">
+      <c r="AD142" s="5">
         <v>6067690</v>
       </c>
-      <c r="AC126">
+      <c r="AE142">
         <f t="shared" si="0"/>
         <v>1516923</v>
       </c>
     </row>
-    <row r="127" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="U127">
+    <row r="143" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W143">
         <v>0.16</v>
       </c>
-      <c r="V127">
-        <f>SUM(U$6:U127)</f>
-        <v>83.05</v>
-      </c>
-      <c r="W127">
+      <c r="X143">
+        <f>SUM(W$6:W143)</f>
+        <v>2.6100000000000003</v>
+      </c>
+      <c r="Y143">
         <v>20</v>
       </c>
-      <c r="AB127" s="5">
+      <c r="AD143" s="5">
         <v>6189040</v>
       </c>
-      <c r="AC127">
+      <c r="AE143">
         <f t="shared" si="0"/>
         <v>1547260</v>
       </c>
     </row>
-    <row r="128" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="U128">
+    <row r="144" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W144">
         <v>0.15</v>
       </c>
-      <c r="V128">
-        <f>SUM(U$6:U128)</f>
-        <v>83.2</v>
-      </c>
-      <c r="W128">
+      <c r="X144">
+        <f>SUM(W$6:W144)</f>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="Y144">
         <v>20</v>
       </c>
-      <c r="AB128" s="5">
+      <c r="AD144" s="5">
         <v>6312820</v>
       </c>
-      <c r="AC128">
+      <c r="AE144">
         <f t="shared" si="0"/>
         <v>1578205</v>
       </c>
     </row>
-    <row r="129" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="U129">
+    <row r="145" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W145">
         <v>0.14000000000000001</v>
       </c>
-      <c r="V129">
-        <f>SUM(U$6:U129)</f>
-        <v>83.34</v>
-      </c>
-      <c r="W129">
+      <c r="X145">
+        <f>SUM(W$6:W145)</f>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="Y145">
         <v>20</v>
       </c>
-      <c r="AB129" s="5">
+      <c r="AD145" s="5">
         <v>6439080</v>
       </c>
-      <c r="AC129">
+      <c r="AE145">
         <f t="shared" si="0"/>
         <v>1609770</v>
       </c>
     </row>
-    <row r="130" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="U130">
+    <row r="146" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W146">
         <v>0.13</v>
       </c>
-      <c r="V130">
-        <f>SUM(U$6:U130)</f>
-        <v>83.47</v>
-      </c>
-      <c r="W130">
+      <c r="X146">
+        <f>SUM(W$6:W146)</f>
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="Y146">
         <v>20</v>
       </c>
-      <c r="AB130" s="5">
+      <c r="AD146" s="5">
         <v>6567860</v>
       </c>
-      <c r="AC130">
+      <c r="AE146">
         <f t="shared" si="0"/>
         <v>1641965</v>
       </c>
     </row>
-    <row r="131" spans="2:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="B131" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C131" s="4">
+    <row r="147" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="B147" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C147" s="4">
         <f>C25*(C7-C9)</f>
         <v>9154</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D147" s="4">
         <f>D25*(D7-D9)</f>
         <v>74970</v>
       </c>
-      <c r="U131">
+      <c r="W147">
         <v>0.125</v>
       </c>
-      <c r="V131">
-        <f>SUM(U$6:U131)</f>
-        <v>83.594999999999999</v>
-      </c>
-      <c r="W131">
+      <c r="X147">
+        <f>SUM(W$6:W147)</f>
+        <v>3.1550000000000002</v>
+      </c>
+      <c r="Y147">
         <v>20</v>
       </c>
-      <c r="AB131" s="5">
+      <c r="AD147" s="5">
         <v>6699220</v>
       </c>
-      <c r="AC131">
+      <c r="AE147">
         <f t="shared" si="0"/>
         <v>1674805</v>
       </c>
     </row>
-    <row r="132" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="U132">
+    <row r="148" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W148">
         <v>0.1225</v>
       </c>
-      <c r="V132">
-        <f>SUM(U$6:U132)</f>
-        <v>83.717500000000001</v>
-      </c>
-      <c r="W132">
+      <c r="X148">
+        <f>SUM(W$6:W148)</f>
+        <v>3.2775000000000003</v>
+      </c>
+      <c r="Y148">
         <v>20</v>
       </c>
-      <c r="AB132" s="5">
+      <c r="AD148" s="5">
         <v>6833200</v>
       </c>
-      <c r="AC132">
+      <c r="AE148">
         <f t="shared" si="0"/>
         <v>1708300</v>
       </c>
     </row>
-    <row r="133" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="U133">
+    <row r="149" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W149">
         <v>0.12239999999999999</v>
       </c>
-      <c r="V133">
-        <f>SUM(U$6:U133)</f>
-        <v>83.8399</v>
-      </c>
-      <c r="W133">
+      <c r="X149">
+        <f>SUM(W$6:W149)</f>
+        <v>3.3999000000000001</v>
+      </c>
+      <c r="Y149">
         <v>20</v>
       </c>
-      <c r="AB133" s="5">
+      <c r="AD149" s="5">
         <v>6969860</v>
       </c>
-      <c r="AC133">
+      <c r="AE149">
         <f t="shared" si="0"/>
         <v>1742465</v>
       </c>
     </row>
-    <row r="134" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="U134">
+    <row r="150" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W150">
         <v>0.12230000000000001</v>
       </c>
-      <c r="V134">
-        <f>SUM(U$6:U134)</f>
-        <v>83.962199999999996</v>
-      </c>
-      <c r="W134">
+      <c r="X150">
+        <f>SUM(W$6:W150)</f>
+        <v>3.5222000000000002</v>
+      </c>
+      <c r="Y150">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="R5:S5"/>
-    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="F5:G5"/>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7571DA-52A7-8645-AA69-9CA167440341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984A3765-5932-754A-B648-01A41D8B7BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="33680" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="179">
   <si>
     <t>forest_primary_c_ha</t>
   </si>
@@ -472,24 +472,15 @@
     <t>buffer</t>
   </si>
   <si>
-    <t>dead storage (minimum fraction of original stock that must remain on the land to allow it to remain that land use type)</t>
-  </si>
-  <si>
     <t>buffer zone (fraction of stock above dead storage which contributes to slowing removals)</t>
   </si>
   <si>
     <t>some reservoir terms</t>
   </si>
   <si>
-    <t>(percentage of forest stock available out of full stock  ) carbon_stock_factor</t>
-  </si>
-  <si>
     <t>healthy storage available</t>
   </si>
   <si>
-    <t>frac_removals_satisficable</t>
-  </si>
-  <si>
     <t>removals allocation</t>
   </si>
   <si>
@@ -563,6 +554,27 @@
   </si>
   <si>
     <t>t = 6</t>
+  </si>
+  <si>
+    <t>adjustment factor</t>
+  </si>
+  <si>
+    <t>calculate how much is available for removals when considering dead storage</t>
+  </si>
+  <si>
+    <t>(percentage of forest stock available out of full stock not in dead storage ) carbon_stock_factor</t>
+  </si>
+  <si>
+    <t>frac_removables_satisficable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is the fraciton of total wood removal deamands from forest that can be taken </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dead storage (minimum fraction of original stock that must remain on the land to allow it to remain that land use type). Note that sequestration factors dcline linearly below the </t>
+  </si>
+  <si>
+    <t>sequestration adjustment threshold--below this carbon stock depletion level, sequestration factors will start to decline</t>
   </si>
 </sst>
 </file>
@@ -709,14 +721,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,22 +741,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,60 +1298,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="22" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="21" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="22" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="23" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="23"/>
+      <c r="V1" s="26"/>
       <c r="W1" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
       <c r="AI1" s="7" t="s">
         <v>37</v>
       </c>
@@ -5876,16 +5888,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5895,14 +5907,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
   <dimension ref="A1:AL150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F46" zoomScale="108" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="V75" sqref="V75"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="125" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="10" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="5" customWidth="1"/>
@@ -5926,7 +5938,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
+      <c r="A1" s="22"/>
       <c r="B1" s="10"/>
       <c r="C1" s="5" t="s">
         <v>60</v>
@@ -5956,7 +5968,7 @@
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="10"/>
       <c r="C2" s="5" t="s">
         <v>61</v>
@@ -5964,10 +5976,10 @@
       <c r="D2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="27">
         <v>150</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -5988,16 +6000,16 @@
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="10"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="27">
         <v>30</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -6021,85 +6033,85 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="26">
+      <c r="F4" s="20">
         <v>1</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="26">
+      <c r="I4" s="20">
         <v>2</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="26">
+      <c r="L4" s="20">
         <v>3</v>
       </c>
-      <c r="M4" s="26"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="18"/>
-      <c r="O4" s="26">
+      <c r="O4" s="20">
         <v>4</v>
       </c>
-      <c r="P4" s="26"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="26">
+      <c r="R4" s="20">
         <v>5</v>
       </c>
-      <c r="S4" s="26"/>
+      <c r="S4" s="20"/>
       <c r="T4" s="18"/>
-      <c r="U4" s="26">
+      <c r="U4" s="20">
         <v>6</v>
       </c>
-      <c r="V4" s="26"/>
-      <c r="Z4" s="28" t="s">
+      <c r="V4" s="20"/>
+      <c r="Z4" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
       <c r="AE4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="I5" s="25" t="s">
+      <c r="G5" s="29"/>
+      <c r="I5" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="L5" s="25" t="s">
+      <c r="J5" s="29"/>
+      <c r="L5" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="O5" s="25" t="s">
+      <c r="M5" s="29"/>
+      <c r="O5" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="R5" s="25" t="s">
+      <c r="P5" s="29"/>
+      <c r="R5" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="S5" s="25"/>
-      <c r="U5" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="V5" s="25"/>
-      <c r="Z5" s="27" t="s">
+      <c r="S5" s="29"/>
+      <c r="U5" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="V5" s="29"/>
+      <c r="Z5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AA5" s="27" t="s">
+      <c r="AA5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AB5" s="27" t="s">
+      <c r="AB5" s="21" t="s">
         <v>41</v>
       </c>
       <c r="AE5" t="s">
@@ -6107,7 +6119,7 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -6155,14 +6167,14 @@
       <c r="V6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="24">
+      <c r="Z6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="19">
         <f>SUM(Z$6:Z6)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6" s="19">
         <v>2</v>
       </c>
     </row>
@@ -6224,14 +6236,14 @@
         <f>MAX(S7-S9,0)</f>
         <v>249360</v>
       </c>
-      <c r="Z7" s="24">
+      <c r="Z7" s="19">
         <v>0.01</v>
       </c>
-      <c r="AA7" s="24">
+      <c r="AA7" s="19">
         <f>SUM(Z$6:Z7)</f>
         <v>0.01</v>
       </c>
-      <c r="AB7" s="24">
+      <c r="AB7" s="19">
         <v>2</v>
       </c>
       <c r="AD7" s="5">
@@ -6302,14 +6314,14 @@
         <f>S8-S9+S11</f>
         <v>249795</v>
       </c>
-      <c r="Z8" s="24">
+      <c r="Z8" s="19">
         <v>0.05</v>
       </c>
-      <c r="AA8" s="24">
+      <c r="AA8" s="19">
         <f>SUM(Z$6:Z8)</f>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="AB8" s="24">
+      <c r="AB8" s="19">
         <v>2</v>
       </c>
       <c r="AD8" s="5"/>
@@ -6360,14 +6372,14 @@
       <c r="V9" s="4">
         <v>105</v>
       </c>
-      <c r="Z9" s="24">
+      <c r="Z9" s="19">
         <v>0.12</v>
       </c>
-      <c r="AA9" s="24">
+      <c r="AA9" s="19">
         <f>SUM(Z$6:Z9)</f>
         <v>0.18</v>
       </c>
-      <c r="AB9" s="24">
+      <c r="AB9" s="19">
         <v>2</v>
       </c>
       <c r="AD9" s="5">
@@ -6378,7 +6390,7 @@
         <v>1025000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>134</v>
       </c>
@@ -6410,14 +6422,14 @@
         <f>-MIN(V7-V9,0)</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="24">
+      <c r="Z10" s="19">
         <v>0.2</v>
       </c>
-      <c r="AA10" s="24">
+      <c r="AA10" s="19">
         <f>SUM(Z$6:Z10)</f>
         <v>0.38</v>
       </c>
-      <c r="AB10" s="24">
+      <c r="AB10" s="19">
         <v>20</v>
       </c>
       <c r="AD10" s="5"/>
@@ -6447,27 +6459,27 @@
       <c r="V11" s="4">
         <v>43</v>
       </c>
-      <c r="Z11" s="24">
+      <c r="Z11" s="19">
         <v>0.36</v>
       </c>
-      <c r="AA11" s="24">
+      <c r="AA11" s="19">
         <f>SUM(Z$6:Z11)</f>
         <v>0.74</v>
       </c>
-      <c r="AB11" s="24">
+      <c r="AB11" s="19">
         <v>20</v>
       </c>
       <c r="AD11" s="5"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="Z12" s="24">
+      <c r="Z12" s="19">
         <v>0.6</v>
       </c>
-      <c r="AA12" s="24">
+      <c r="AA12" s="19">
         <f>SUM(Z$6:Z12)</f>
         <v>1.3399999999999999</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AB12" s="19">
         <v>20</v>
       </c>
       <c r="AD12" s="5"/>
@@ -6497,14 +6509,14 @@
       <c r="U13" s="4">
         <v>0.7</v>
       </c>
-      <c r="Z13" s="24">
+      <c r="Z13" s="19">
         <v>1.8</v>
       </c>
-      <c r="AA13" s="24">
+      <c r="AA13" s="19">
         <f>SUM(Z$6:Z13)</f>
         <v>3.1399999999999997</v>
       </c>
-      <c r="AB13" s="24">
+      <c r="AB13" s="19">
         <v>20</v>
       </c>
       <c r="AD13" s="5">
@@ -6515,12 +6527,12 @@
         <v>1062500</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
-        <v>146</v>
+    <row r="14" spans="1:31" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C14" s="4">
         <v>1E-3</v>
@@ -6543,81 +6555,84 @@
       <c r="U14" s="4">
         <v>0.3</v>
       </c>
-      <c r="Z14" s="24">
+      <c r="Z14" s="19">
         <v>3</v>
       </c>
-      <c r="AA14" s="24">
+      <c r="AA14" s="19">
         <f>SUM(Z$6:Z14)</f>
         <v>6.14</v>
       </c>
-      <c r="AB14" s="24">
+      <c r="AB14" s="19">
         <v>20</v>
       </c>
       <c r="AD14" s="5"/>
     </row>
     <row r="15" spans="1:31" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="4">
         <v>0.2</v>
       </c>
-      <c r="Z15" s="24">
+      <c r="Z15" s="19">
         <v>6</v>
       </c>
-      <c r="AA15" s="24">
+      <c r="AA15" s="19">
         <f>SUM(Z$6:Z15)</f>
         <v>12.14</v>
       </c>
-      <c r="AB15" s="24">
+      <c r="AB15" s="19">
         <v>20</v>
       </c>
       <c r="AD15" s="5"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="Z16" s="24">
+    <row r="16" spans="1:31" ht="51" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="Z16" s="19">
         <v>10</v>
       </c>
-      <c r="AA16" s="24">
+      <c r="AA16" s="19">
         <f>SUM(Z$6:Z16)</f>
         <v>22.14</v>
       </c>
-      <c r="AB16" s="24">
+      <c r="AB16" s="19">
         <v>20</v>
       </c>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="Z17" s="24">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="Z17" s="19">
         <v>12</v>
       </c>
-      <c r="AA17" s="24">
+      <c r="AA17" s="19">
         <f>SUM(Z$6:Z17)</f>
         <v>34.14</v>
       </c>
-      <c r="AB17" s="24">
+      <c r="AB17" s="19">
         <v>20</v>
       </c>
       <c r="AD17" s="5"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="Z18" s="24">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="Z18" s="19">
         <v>13.5</v>
       </c>
-      <c r="AA18" s="24">
+      <c r="AA18" s="19">
         <f>SUM(Z$6:Z18)</f>
         <v>47.64</v>
       </c>
-      <c r="AB18" s="24">
+      <c r="AB18" s="19">
         <v>20</v>
       </c>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="1:38" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>141</v>
       </c>
@@ -6627,14 +6642,14 @@
       <c r="D19" s="4">
         <v>100</v>
       </c>
-      <c r="Z19" s="24">
+      <c r="Z19" s="19">
         <v>12</v>
       </c>
-      <c r="AA19" s="24">
+      <c r="AA19" s="19">
         <f>SUM(Z$6:Z19)</f>
         <v>59.64</v>
       </c>
-      <c r="AB19" s="24">
+      <c r="AB19" s="19">
         <v>20</v>
       </c>
       <c r="AD19" s="5">
@@ -6645,7 +6660,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>140</v>
       </c>
@@ -6657,21 +6672,21 @@
         <f>D$19*$C$14</f>
         <v>0.1</v>
       </c>
-      <c r="Z20" s="24">
+      <c r="Z20" s="19">
         <v>10</v>
       </c>
-      <c r="AA20" s="24">
+      <c r="AA20" s="19">
         <f>SUM(Z$6:Z20)</f>
         <v>69.64</v>
       </c>
-      <c r="AB20" s="24">
+      <c r="AB20" s="19">
         <v>20</v>
       </c>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="1:38" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C21" s="4">
         <f>C19-C20</f>
@@ -6681,32 +6696,32 @@
         <f>D19-D20</f>
         <v>99.9</v>
       </c>
-      <c r="Z21" s="24">
+      <c r="Z21" s="19">
         <v>6</v>
       </c>
-      <c r="AA21" s="24">
+      <c r="AA21" s="19">
         <f>SUM(Z$6:Z21)</f>
         <v>75.64</v>
       </c>
-      <c r="AB21" s="24">
+      <c r="AB21" s="19">
         <v>20</v>
       </c>
       <c r="AD21" s="5"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="Z22" s="24">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="Z22" s="19">
         <v>3</v>
       </c>
-      <c r="AA22" s="24">
+      <c r="AA22" s="19">
         <f>SUM(Z$6:Z22)</f>
         <v>78.64</v>
       </c>
-      <c r="AB22" s="24">
+      <c r="AB22" s="19">
         <v>20</v>
       </c>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="1:38" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>52</v>
       </c>
@@ -6752,14 +6767,14 @@
       <c r="V23" s="4">
         <v>49500</v>
       </c>
-      <c r="Z23" s="24">
+      <c r="Z23" s="19">
         <v>1.8</v>
       </c>
-      <c r="AA23" s="24">
+      <c r="AA23" s="19">
         <f>SUM(Z$6:Z23)</f>
         <v>80.44</v>
       </c>
-      <c r="AB23" s="24">
+      <c r="AB23" s="19">
         <v>20</v>
       </c>
       <c r="AD23" s="5">
@@ -6773,7 +6788,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
         <v>59</v>
       </c>
@@ -6799,7 +6814,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:38" ht="34" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
@@ -6823,7 +6838,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
       <c r="AD26" s="5"/>
       <c r="AI26" t="s">
         <v>102</v>
@@ -6838,7 +6853,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="AD27" s="5">
         <v>4508400</v>
       </c>
@@ -6859,7 +6874,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
         <v>56</v>
       </c>
@@ -6897,7 +6912,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>53</v>
       </c>
@@ -6942,7 +6957,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:38" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
         <v>143</v>
       </c>
@@ -6966,7 +6981,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
       <c r="AD31" s="5">
         <v>4880040</v>
       </c>
@@ -6975,7 +6990,7 @@
         <v>1220010</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
       <c r="AD32" s="5">
         <v>4977640</v>
       </c>
@@ -7081,20 +7096,20 @@
         <v>72</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D44" s="8"/>
       <c r="F44" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD44" s="5"/>
     </row>
@@ -7494,8 +7509,8 @@
       <c r="AD51" s="5"/>
     </row>
     <row r="52" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="29" t="s">
-        <v>163</v>
+      <c r="A52" s="28" t="s">
+        <v>160</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>98</v>
@@ -7531,7 +7546,7 @@
       <c r="AD52" s="5"/>
     </row>
     <row r="53" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="29"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="14" t="s">
         <v>99</v>
       </c>
@@ -7564,7 +7579,7 @@
       <c r="AD53" s="5"/>
     </row>
     <row r="54" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="29"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="14" t="s">
         <v>100</v>
       </c>
@@ -7596,7 +7611,7 @@
       <c r="AD54" s="5"/>
     </row>
     <row r="55" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="29"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="14" t="s">
         <v>101</v>
       </c>
@@ -7637,8 +7652,8 @@
       <c r="AD57" s="5"/>
     </row>
     <row r="58" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="29" t="s">
-        <v>164</v>
+      <c r="A58" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>130</v>
@@ -7674,7 +7689,7 @@
       <c r="AD58" s="5"/>
     </row>
     <row r="59" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="29"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="14" t="s">
         <v>131</v>
       </c>
@@ -7705,7 +7720,7 @@
       <c r="AD59" s="5"/>
     </row>
     <row r="60" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="29"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="14" t="s">
         <v>132</v>
       </c>
@@ -7735,7 +7750,7 @@
       <c r="AD60" s="5"/>
     </row>
     <row r="61" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="29"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="14" t="s">
         <v>133</v>
       </c>
@@ -7781,11 +7796,11 @@
       <c r="AD63" s="5"/>
     </row>
     <row r="64" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="22">
         <v>0</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D64" s="4">
         <f>D31</f>
@@ -7818,11 +7833,11 @@
       <c r="AD64" s="5"/>
     </row>
     <row r="65" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="22">
         <v>1</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D65" s="4">
         <f>D32</f>
@@ -7855,11 +7870,11 @@
       <c r="AD65" s="5"/>
     </row>
     <row r="66" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="22">
         <v>2</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D66" s="4">
         <f>D33</f>
@@ -7892,11 +7907,11 @@
       <c r="AD66" s="5"/>
     </row>
     <row r="67" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+      <c r="A67" s="22">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D67" s="4">
         <f>D34</f>
@@ -7930,21 +7945,28 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B68" s="14"/>
+      <c r="F68" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="AD68" s="5"/>
     </row>
     <row r="69" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="29" t="s">
-        <v>169</v>
+      <c r="A69" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D69" s="4">
         <f>D52</f>
         <v>0</v>
       </c>
+      <c r="F69" s="4">
+        <f>IF(D74=0,1,MIN(MAX((D74/D58-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
+      </c>
       <c r="G69" s="4">
-        <f>G52</f>
+        <f>G52*F69</f>
         <v>0.01</v>
       </c>
       <c r="J69" s="4">
@@ -7970,9 +7992,9 @@
       <c r="AD69" s="5"/>
     </row>
     <row r="70" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="29"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D70" s="4">
         <f t="shared" ref="D70:D72" si="10">D53</f>
@@ -8005,9 +8027,9 @@
       <c r="AD70" s="5"/>
     </row>
     <row r="71" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="29"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D71" s="4">
         <f>D54</f>
@@ -8040,9 +8062,9 @@
       <c r="AD71" s="5"/>
     </row>
     <row r="72" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="29"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D72" s="4">
         <f t="shared" si="10"/>
@@ -8308,7 +8330,7 @@
       <c r="AD90" s="5"/>
     </row>
     <row r="91" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+      <c r="A91" s="22">
         <v>0</v>
       </c>
       <c r="B91" s="14" t="s">
@@ -8345,7 +8367,7 @@
       <c r="AD91" s="5"/>
     </row>
     <row r="92" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="A92" s="22">
         <v>1</v>
       </c>
       <c r="B92" s="14" t="s">
@@ -8382,7 +8404,7 @@
       <c r="AD92" s="5"/>
     </row>
     <row r="93" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="A93" s="22">
         <v>2</v>
       </c>
       <c r="B93" s="14" t="s">
@@ -8419,7 +8441,7 @@
       <c r="AD93" s="5"/>
     </row>
     <row r="94" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="A94" s="22">
         <v>3</v>
       </c>
       <c r="B94" s="14" t="s">
@@ -8465,15 +8487,15 @@
       <c r="B96" s="14"/>
       <c r="AD96" s="5"/>
     </row>
-    <row r="97" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B97" s="13"/>
       <c r="AD97" s="5"/>
     </row>
-    <row r="98" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="AD98" s="5"/>
     </row>
-    <row r="99" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B99" s="11" t="s">
         <v>58</v>
       </c>
@@ -8493,9 +8515,9 @@
       <c r="V99" s="12"/>
       <c r="AD99" s="5"/>
     </row>
-    <row r="100" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B100" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C100" s="4">
         <f>C19*C7</f>
@@ -8523,9 +8545,9 @@
         <v>1373928</v>
       </c>
     </row>
-    <row r="101" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B101" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D101" s="4">
         <f>SUM(D120:D123)</f>
@@ -8533,9 +8555,9 @@
       </c>
       <c r="AD101" s="5"/>
     </row>
-    <row r="102" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B102" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C102" s="4">
         <f>C100+C101</f>
@@ -8547,12 +8569,12 @@
       </c>
       <c r="AD102" s="5"/>
     </row>
-    <row r="103" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AD103" s="5"/>
     </row>
-    <row r="104" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B104" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C104" s="4">
         <f>C9*C19*$C$13</f>
@@ -8564,7 +8586,7 @@
       </c>
       <c r="AD104" s="5"/>
     </row>
-    <row r="105" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B105" s="10" t="s">
         <v>70</v>
       </c>
@@ -8578,9 +8600,9 @@
       </c>
       <c r="AD105" s="5"/>
     </row>
-    <row r="106" spans="2:31" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B106" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C106" s="4">
         <f>$C20*MAX(C7-C9-C23,0)</f>
@@ -8592,12 +8614,12 @@
       </c>
       <c r="AD106" s="5"/>
     </row>
-    <row r="107" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AD107" s="5"/>
     </row>
-    <row r="108" spans="2:31" ht="34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="B108" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C108" s="4">
         <f>MAX(C7-C9-C23, 0)*C111</f>
@@ -8609,10 +8631,10 @@
       </c>
       <c r="AD108" s="5"/>
     </row>
-    <row r="109" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AD109" s="5"/>
     </row>
-    <row r="110" spans="2:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B110" s="15" t="s">
         <v>79</v>
       </c>
@@ -8620,7 +8642,10 @@
       <c r="D110" s="8"/>
       <c r="AD110" s="5"/>
     </row>
-    <row r="111" spans="2:31" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" ht="68" x14ac:dyDescent="0.2">
+      <c r="A111" s="22" t="s">
+        <v>173</v>
+      </c>
       <c r="B111" s="10" t="s">
         <v>80</v>
       </c>
@@ -8634,9 +8659,9 @@
       </c>
       <c r="AD111" s="5"/>
     </row>
-    <row r="112" spans="2:31" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="B112" s="10" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C112" s="4">
         <f>C111/$C$21</f>
@@ -8648,12 +8673,15 @@
       </c>
       <c r="AD112" s="5"/>
     </row>
-    <row r="113" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" ht="51" x14ac:dyDescent="0.2">
+      <c r="A113" s="22" t="s">
+        <v>176</v>
+      </c>
       <c r="B113" s="10" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C113" s="4">
-        <f>MAX(MIN((C112-C14)/$C$15, 1), 0)</f>
+        <f>MAX(MIN(C112/$C$15, 1), 0)</f>
         <v>1</v>
       </c>
       <c r="D113" s="4">
@@ -8681,7 +8709,7 @@
     </row>
     <row r="116" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="B116" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C116" s="4">
         <f>C115+D115</f>
@@ -8691,7 +8719,7 @@
     </row>
     <row r="117" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="B117" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C117" s="4">
         <f>C115/$C116</f>
@@ -8858,7 +8886,7 @@
       <c r="AD124" s="5"/>
     </row>
     <row r="125" spans="1:30" ht="34" x14ac:dyDescent="0.2">
-      <c r="A125" s="5">
+      <c r="A125" s="22">
         <v>0</v>
       </c>
       <c r="B125" s="14" t="s">
@@ -8895,7 +8923,7 @@
       <c r="AD125" s="5"/>
     </row>
     <row r="126" spans="1:30" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="5">
+      <c r="A126" s="22">
         <v>1</v>
       </c>
       <c r="B126" s="14" t="s">
@@ -8932,7 +8960,7 @@
       <c r="AD126" s="5"/>
     </row>
     <row r="127" spans="1:30" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" s="5">
+      <c r="A127" s="22">
         <v>2</v>
       </c>
       <c r="B127" s="14" t="s">
@@ -8969,7 +8997,7 @@
       <c r="AD127" s="5"/>
     </row>
     <row r="128" spans="1:30" ht="34" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
+      <c r="A128" s="22">
         <v>3</v>
       </c>
       <c r="B128" s="14" t="s">
@@ -9085,7 +9113,7 @@
     </row>
     <row r="138" spans="2:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B138" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C138" s="4">
         <f>MIN(C116,C29)</f>
@@ -9111,7 +9139,7 @@
     </row>
     <row r="139" spans="2:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B139" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C139" s="4">
         <f>C29-C138</f>
@@ -9137,7 +9165,7 @@
     </row>
     <row r="140" spans="2:31" ht="17" x14ac:dyDescent="0.2">
       <c r="B140" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C140" s="4">
         <f>MIN(C29,C138)</f>
@@ -9357,6 +9385,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="A58:A61"/>
@@ -9366,11 +9399,6 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="R5:S5"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984A3765-5932-754A-B648-01A41D8B7BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C4592-B751-4F47-8785-704E9E206D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="33680" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
@@ -5907,8 +5907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
   <dimension ref="A1:AL150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="125" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="L55" zoomScale="125" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="T67" sqref="T67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7969,24 +7969,44 @@
         <f>G52*F69</f>
         <v>0.01</v>
       </c>
+      <c r="I69" s="4">
+        <f>IF(G74=0,1,MIN(MAX((G74/G58-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
+      </c>
       <c r="J69" s="4">
-        <f>J52</f>
+        <f>J52*I69</f>
         <v>0.05</v>
       </c>
+      <c r="L69" s="4">
+        <f>IF(J74=0,1,MIN(MAX((J74/J58-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
+      </c>
       <c r="M69" s="4">
-        <f>M52</f>
+        <f>M52*L69</f>
         <v>0.12</v>
       </c>
+      <c r="O69" s="4">
+        <f>IF(M74=0,1,MIN(MAX((M74/M58-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
+      </c>
       <c r="P69" s="4">
-        <f>P52</f>
+        <f>P52*O69</f>
         <v>0.2</v>
       </c>
+      <c r="R69" s="4">
+        <f>IF(P74=0,1,MIN(MAX((P74/P58-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
+      </c>
       <c r="S69" s="4">
-        <f>S52</f>
+        <f>S52*R69</f>
         <v>0.36</v>
       </c>
+      <c r="U69" s="4">
+        <f>IF(S74=0,1,MIN(MAX((S74/S58-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
+      </c>
       <c r="V69" s="4">
-        <f>V52</f>
+        <f>V52*U69</f>
         <v>0.6</v>
       </c>
       <c r="AD69" s="5"/>
@@ -8000,28 +8020,52 @@
         <f t="shared" ref="D70:D72" si="10">D53</f>
         <v>0</v>
       </c>
+      <c r="F70" s="4">
+        <f t="shared" ref="F70:F72" si="11">IF(D75=0,1,MIN(MAX((D75/D59-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
+      </c>
       <c r="G70" s="4">
-        <f t="shared" ref="G70:G72" si="11">G53</f>
-        <v>0</v>
+        <f t="shared" ref="G70:G72" si="12">G53</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
+        <f t="shared" ref="I70:I71" si="13">IF(G75=0,1,MIN(MAX((G75/G59-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="J70" s="4">
-        <f t="shared" ref="J70:J72" si="12">J53</f>
+        <f t="shared" ref="J70:J72" si="14">J53</f>
         <v>0.01</v>
       </c>
+      <c r="L70" s="4">
+        <f t="shared" ref="L70:L71" si="15">IF(J75=0,1,MIN(MAX((J75/J59-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
+      </c>
       <c r="M70" s="4">
-        <f t="shared" ref="M70:M72" si="13">M53</f>
+        <f t="shared" ref="M70:M72" si="16">M53</f>
         <v>0.05</v>
       </c>
+      <c r="O70" s="4">
+        <f t="shared" ref="O70:O71" si="17">IF(M75=0,1,MIN(MAX((M75/M59-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
+      </c>
       <c r="P70" s="4">
-        <f t="shared" ref="P70:P72" si="14">P53</f>
+        <f t="shared" ref="P70:P72" si="18">P53</f>
         <v>0.12</v>
       </c>
+      <c r="R70" s="4">
+        <f t="shared" ref="R70:R71" si="19">IF(P75=0,1,MIN(MAX((P75/P59-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
+      </c>
       <c r="S70" s="4">
-        <f t="shared" ref="S70:S72" si="15">S53</f>
+        <f t="shared" ref="S70:S72" si="20">S53</f>
         <v>0.2</v>
       </c>
+      <c r="U70" s="4">
+        <f t="shared" ref="U70:U71" si="21">IF(S75=0,1,MIN(MAX((S75/S59-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
+      </c>
       <c r="V70" s="4">
-        <f t="shared" ref="V70:V72" si="16">V53</f>
+        <f t="shared" ref="V70:V72" si="22">V53</f>
         <v>0.36</v>
       </c>
       <c r="AD70" s="5"/>
@@ -8035,25 +8079,49 @@
         <f>D54</f>
         <v>0</v>
       </c>
+      <c r="F71" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="G71" s="4">
         <f>G54</f>
         <v>0</v>
       </c>
+      <c r="I71" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
       <c r="J71" s="4">
         <f>J54</f>
         <v>0</v>
+      </c>
+      <c r="L71" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="M71" s="4">
         <f>M54</f>
         <v>0.01</v>
       </c>
+      <c r="O71" s="4">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="P71" s="4">
         <f>P54</f>
         <v>0.05</v>
       </c>
+      <c r="R71" s="4">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
       <c r="S71" s="4">
         <f>S54</f>
         <v>0.12</v>
+      </c>
+      <c r="U71" s="4">
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="V71" s="4">
         <f>V54</f>
@@ -8070,28 +8138,52 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="F72" s="4">
+        <f>IF(D77=0,1,MIN(MAX((D77/D61-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
+      </c>
       <c r="G72" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <f>IF(G77=0,1,MIN(MAX((G77/G61-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="J72" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="4">
+        <f>IF(J77=0,1,MIN(MAX((J77/J61-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="4">
+        <f>IF(M77=0,1,MIN(MAX((M77/M61-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.01</v>
       </c>
+      <c r="R72" s="4">
+        <f>IF(P77=0,1,MIN(MAX((P77/P61-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
+      </c>
       <c r="S72" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.05</v>
       </c>
+      <c r="U72" s="4">
+        <f>IF(S77=0,1,MIN(MAX((S77/S61-$C$14)/($C$16-$C$14), 0), 1))</f>
+        <v>1</v>
+      </c>
       <c r="V72" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.12</v>
       </c>
       <c r="AD72" s="5"/>
@@ -8139,31 +8231,31 @@
         <v>75</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" ref="D75:D77" si="17">D53*D47</f>
+        <f t="shared" ref="D75:D77" si="23">D53*D47</f>
         <v>0</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" ref="G75:G77" si="18">D75+G47*G70</f>
+        <f t="shared" ref="G75:G77" si="24">D75+G47*G70</f>
         <v>0</v>
       </c>
       <c r="J75" s="4">
-        <f t="shared" ref="J75:J77" si="19">G75+J47*J70</f>
+        <f t="shared" ref="J75:J77" si="25">G75+J47*J70</f>
         <v>0.8</v>
       </c>
       <c r="M75" s="4">
-        <f t="shared" ref="M75:M77" si="20">J75+M47*M70</f>
+        <f t="shared" ref="M75:M77" si="26">J75+M47*M70</f>
         <v>4.8</v>
       </c>
       <c r="P75" s="4">
-        <f t="shared" ref="P75:P77" si="21">M75+P47*P70</f>
+        <f t="shared" ref="P75:P77" si="27">M75+P47*P70</f>
         <v>14.399999999999999</v>
       </c>
       <c r="S75" s="4">
-        <f t="shared" ref="S75:S77" si="22">P75+S47*S70</f>
+        <f t="shared" ref="S75:S77" si="28">P75+S47*S70</f>
         <v>30.4</v>
       </c>
       <c r="V75" s="4">
-        <f t="shared" ref="V75:V77" si="23">S75+V47*V70</f>
+        <f t="shared" ref="V75:V77" si="29">S75+V47*V70</f>
         <v>59.199999999999996</v>
       </c>
       <c r="AD75" s="5"/>
@@ -8173,31 +8265,31 @@
         <v>76</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J76" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M76" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.92</v>
       </c>
       <c r="P76" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>5.5200000000000005</v>
       </c>
       <c r="S76" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>16.559999999999999</v>
       </c>
       <c r="V76" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>34.96</v>
       </c>
       <c r="AD76" s="5"/>
@@ -8207,31 +8299,31 @@
         <v>87</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J77" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M77" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P77" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.43</v>
       </c>
       <c r="S77" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>2.58</v>
       </c>
       <c r="V77" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>7.74</v>
       </c>
       <c r="AD77" s="5"/>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C4592-B751-4F47-8785-704E9E206D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532E185F-8291-3942-B9FE-FF580E75DE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33680" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="33680" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="205">
   <si>
     <t>forest_primary_c_ha</t>
   </si>
@@ -235,9 +235,6 @@
     <t>current average stock</t>
   </si>
   <si>
-    <t>c available from new sequestration</t>
-  </si>
-  <si>
     <t>t = 1</t>
   </si>
   <si>
@@ -250,15 +247,9 @@
     <t>initial area  from steady state</t>
   </si>
   <si>
-    <t>stock in protected areas</t>
-  </si>
-  <si>
     <t>nominal annual sequestration (tonna/ha/year)</t>
   </si>
   <si>
-    <t>Aforestation</t>
-  </si>
-  <si>
     <t>area_from_t1</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
     <t>c_stock_t2</t>
   </si>
   <si>
-    <t>Protection</t>
-  </si>
-  <si>
     <t>Removals</t>
   </si>
   <si>
@@ -283,9 +271,6 @@
     <t>average stock per ha available (accounts for min frac)</t>
   </si>
   <si>
-    <t>new forest</t>
-  </si>
-  <si>
     <t>c available from stock beginning of period</t>
   </si>
   <si>
@@ -304,9 +289,6 @@
     <t>c_stock_t3</t>
   </si>
   <si>
-    <t>protection applies in an oldest first set</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
@@ -364,15 +346,9 @@
     <t>unavail</t>
   </si>
   <si>
-    <t>c stock</t>
-  </si>
-  <si>
     <t>6 bins</t>
   </si>
   <si>
-    <t>descrip</t>
-  </si>
-  <si>
     <t>from original forests, c stock available</t>
   </si>
   <si>
@@ -406,30 +382,6 @@
     <t>FRAC_IMPORTS = I/(P + I - E)</t>
   </si>
   <si>
-    <t>adjusted sequestration_factor_t0</t>
-  </si>
-  <si>
-    <t>adjusted sequestration_factor_t1</t>
-  </si>
-  <si>
-    <t>adjusted sequestration_factor_t2</t>
-  </si>
-  <si>
-    <t>adjusted sequestration_factor_t3</t>
-  </si>
-  <si>
-    <t>removals_from_nf_planted_at_t0</t>
-  </si>
-  <si>
-    <t>removals_from_nf_planted_at_t1</t>
-  </si>
-  <si>
-    <t>removals_from_nf_planted_at_t2</t>
-  </si>
-  <si>
-    <t>removals_from_nf_planted_at_t3</t>
-  </si>
-  <si>
     <t>if_untouched_c_stock_t0</t>
   </si>
   <si>
@@ -448,30 +400,12 @@
     <t>forest area (start)</t>
   </si>
   <si>
-    <t>c_stock_available_for_harvest_planted_at_t0</t>
-  </si>
-  <si>
-    <t>c_stock_available_for_harvest_planted_at_t1</t>
-  </si>
-  <si>
-    <t>c_stock_available_for_harvest_planted_at_t2</t>
-  </si>
-  <si>
-    <t>c_stock_available_for_harvest_planted_at_t3</t>
-  </si>
-  <si>
     <t>base tonne C/ha reqd maintained</t>
   </si>
   <si>
     <t>base storage tonne C/ha</t>
   </si>
   <si>
-    <t>removals from nf</t>
-  </si>
-  <si>
-    <t>buffer</t>
-  </si>
-  <si>
     <t>buffer zone (fraction of stock above dead storage which contributes to slowing removals)</t>
   </si>
   <si>
@@ -490,9 +424,6 @@
     <t>total starting stock</t>
   </si>
   <si>
-    <t xml:space="preserve">stock in unprotected reservoir dead storage </t>
-  </si>
-  <si>
     <t>stock to allocate from original pool excluding conversion</t>
   </si>
   <si>
@@ -520,12 +451,6 @@
     <t>conversion away from new forest</t>
   </si>
   <si>
-    <t>base sequestration factor from NPP</t>
-  </si>
-  <si>
-    <t>stock in new forest if no removals (includes changes to area of new forest)</t>
-  </si>
-  <si>
     <t>c_available_for_removals_mask_t0</t>
   </si>
   <si>
@@ -575,6 +500,161 @@
   </si>
   <si>
     <t>sequestration adjustment threshold--below this carbon stock depletion level, sequestration factors will start to decline</t>
+  </si>
+  <si>
+    <t>YOUNG FOREST/AFORESTATION</t>
+  </si>
+  <si>
+    <t>STARTING FOREST</t>
+  </si>
+  <si>
+    <t>if_untouched_c_stock</t>
+  </si>
+  <si>
+    <t>average_stock_per_ha</t>
+  </si>
+  <si>
+    <t>removals</t>
+  </si>
+  <si>
+    <t>c_available_for_removals</t>
+  </si>
+  <si>
+    <t>area from steady state after conversion away</t>
+  </si>
+  <si>
+    <t>c_stock_total</t>
+  </si>
+  <si>
+    <t>original_forest_protected</t>
+  </si>
+  <si>
+    <t>land use conversion away from new forest without protection</t>
+  </si>
+  <si>
+    <t>young forest</t>
+  </si>
+  <si>
+    <t>removals from young</t>
+  </si>
+  <si>
+    <t>total c available for removals</t>
+  </si>
+  <si>
+    <t>NxN arrays</t>
+  </si>
+  <si>
+    <t>c_stock_removal_allocation_t0</t>
+  </si>
+  <si>
+    <t>c_stock_removal_allocation_t1</t>
+  </si>
+  <si>
+    <t>c_stock_removal_allocation_t2</t>
+  </si>
+  <si>
+    <t>c_stock_removal_allocation_t3</t>
+  </si>
+  <si>
+    <t>arr_young_sf_base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock in new forest if no removals (includes changes to area of new forest)
+arr_young_stock_if_no_removals
+</t>
+  </si>
+  <si>
+    <t>Auxiliary Variables and Notes</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Python Variable</t>
+  </si>
+  <si>
+    <t>arr_area_remaining_from_orig</t>
+  </si>
+  <si>
+    <t>arr_area</t>
+  </si>
+  <si>
+    <t>arr_conversion_away_total</t>
+  </si>
+  <si>
+    <t>arr_conversion_away_new_forest_no_protection</t>
+  </si>
+  <si>
+    <t>arr_conversion_away_new_forest</t>
+  </si>
+  <si>
+    <t>arr_conversion_into</t>
+  </si>
+  <si>
+    <t>arr_area_remaining_from_orig_after_conversion_away</t>
+  </si>
+  <si>
+    <t>frac_biomass_from_conversion_available_for_use</t>
+  </si>
+  <si>
+    <t>frac_biomass_dead_storage</t>
+  </si>
+  <si>
+    <t>frac_biomass_buffer</t>
+  </si>
+  <si>
+    <t>frac_biomass_adjustment_threshold</t>
+  </si>
+  <si>
+    <t>arr_biomass_factor_stst_storage</t>
+  </si>
+  <si>
+    <t>arr_biomass_factor_min_reqd</t>
+  </si>
+  <si>
+    <t>arr_biomass_factor_healthy_available</t>
+  </si>
+  <si>
+    <t>arr_area_protected_total</t>
+  </si>
+  <si>
+    <t>arr_area_protected_young</t>
+  </si>
+  <si>
+    <t>arr_area_protected_original</t>
+  </si>
+  <si>
+    <t>Classification (input/output)</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>input/output (starting condition input)</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>adjustment_factor_sf</t>
+  </si>
+  <si>
+    <t>total removals from original</t>
+  </si>
+  <si>
+    <t>c converted</t>
+  </si>
+  <si>
+    <t>ag c lost from conversion</t>
+  </si>
+  <si>
+    <t>bg c lost from conversion</t>
+  </si>
+  <si>
+    <t>arr_annual_sf_nominal</t>
+  </si>
+  <si>
+    <t>vec_total_removals_demanded</t>
   </si>
 </sst>
 </file>
@@ -623,7 +703,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,6 +734,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -667,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,6 +850,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5905,53 +6019,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
-  <dimension ref="A1:AL150"/>
+  <dimension ref="A1:AO139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L55" zoomScale="125" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="T67" sqref="T67"/>
+    <sheetView tabSelected="1" topLeftCell="I10" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="5" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="44" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="5" customWidth="1"/>
     <col min="9" max="10" width="13.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="5" customWidth="1"/>
-    <col min="15" max="16" width="13.33203125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="5" customWidth="1"/>
+    <col min="12" max="13" width="13.33203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="22.6640625" style="5" customWidth="1"/>
     <col min="18" max="19" width="13.33203125" style="4" customWidth="1"/>
     <col min="20" max="20" width="23.6640625" style="5" customWidth="1"/>
     <col min="21" max="22" width="13.33203125" style="4" customWidth="1"/>
-    <col min="23" max="25" width="14.6640625" customWidth="1"/>
-    <col min="26" max="28" width="14.1640625" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" customWidth="1"/>
-    <col min="31" max="31" width="9.1640625" customWidth="1"/>
-    <col min="32" max="32" width="3.33203125" customWidth="1"/>
+    <col min="23" max="23" width="23.6640625" style="5" customWidth="1"/>
+    <col min="24" max="25" width="13.33203125" style="4" customWidth="1"/>
+    <col min="26" max="28" width="14.6640625" customWidth="1"/>
+    <col min="29" max="31" width="14.1640625" customWidth="1"/>
+    <col min="32" max="32" width="4.1640625" customWidth="1"/>
+    <col min="34" max="34" width="9.1640625" customWidth="1"/>
+    <col min="35" max="35" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="5">
+      <c r="H1" s="5">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -5966,53 +6083,59 @@
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
-    </row>
-    <row r="2" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="5" t="s">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+    </row>
+    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="27">
+      <c r="H2" s="27">
         <v>150</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="4">
-        <v>249700</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="P2" s="4">
+        <v>249700</v>
+      </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-    </row>
-    <row r="3" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+    </row>
+    <row r="3" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="27">
+      <c r="H3" s="27">
         <v>30</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -6026,111 +6149,110 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
-    </row>
-    <row r="4" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="20">
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:34" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="20">
         <v>1</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="20">
-        <v>2</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="18"/>
       <c r="L4" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" s="20"/>
       <c r="N4" s="18"/>
       <c r="O4" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" s="20"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S4" s="20"/>
       <c r="T4" s="18"/>
       <c r="U4" s="20">
+        <v>5</v>
+      </c>
+      <c r="V4" s="20"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="20">
         <v>6</v>
       </c>
-      <c r="V4" s="20"/>
-      <c r="Z4" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AE4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="29" t="s">
+      <c r="Y4" s="20"/>
+      <c r="AC4" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AH4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="29" t="s">
-        <v>66</v>
-      </c>
       <c r="G5" s="29"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J5" s="29"/>
       <c r="L5" s="29" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="M5" s="29"/>
       <c r="O5" s="29" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="P5" s="29"/>
       <c r="R5" s="29" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S5" s="29"/>
       <c r="U5" s="29" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="V5" s="29"/>
-      <c r="Z5" s="21" t="s">
+      <c r="X5" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y5" s="29"/>
+      <c r="AC5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AD5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AB5" s="21" t="s">
+      <c r="AE5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AE5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="AH5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
@@ -6167,204 +6289,222 @@
       <c r="V6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="19">
-        <f>SUM(Z$6:Z6)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="19">
+      <c r="X6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="19">
+        <f>SUM(AC$6:AC6)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="4">
+    <row r="7" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="4">
         <v>10000</v>
       </c>
-      <c r="D7" s="4">
+      <c r="G7" s="4">
         <v>250000</v>
       </c>
-      <c r="F7" s="4">
-        <f>C7-C9</f>
+      <c r="I7" s="4">
+        <f>F13</f>
         <v>9950</v>
       </c>
-      <c r="G7" s="4">
-        <f>MAX(D7-D9,0)</f>
+      <c r="J7" s="4">
+        <f>G13</f>
         <v>249900</v>
       </c>
-      <c r="I7" s="4">
-        <f>F7-F9</f>
+      <c r="L7" s="4">
+        <f>I13</f>
         <v>9888</v>
       </c>
-      <c r="J7" s="4">
-        <f>MAX(G7-G9,0)</f>
+      <c r="M7" s="4">
+        <f>J13</f>
         <v>249790</v>
       </c>
-      <c r="L7" s="4">
-        <f>I7-I9</f>
+      <c r="O7" s="4">
+        <f>L13</f>
         <v>9830</v>
       </c>
-      <c r="M7" s="4">
-        <f>MAX(J7-J9,0)</f>
+      <c r="P7" s="4">
+        <f>M13</f>
         <v>249696</v>
       </c>
-      <c r="O7" s="4">
-        <f>L7-L9</f>
+      <c r="R7" s="4">
+        <f>O13</f>
         <v>9760</v>
       </c>
-      <c r="P7" s="4">
-        <f>MAX(M7-M9,0)</f>
+      <c r="S7" s="4">
+        <f>P13</f>
         <v>249504</v>
       </c>
-      <c r="R7" s="4">
-        <f>O7-O9</f>
+      <c r="U7" s="4">
+        <f>R13</f>
         <v>9660</v>
       </c>
-      <c r="S7" s="4">
-        <f>MAX(P7-P9,0)</f>
+      <c r="V7" s="4">
+        <f>S13</f>
         <v>249465</v>
       </c>
-      <c r="U7" s="4">
-        <f>R7-R9</f>
+      <c r="X7" s="4">
+        <f>U7-U9</f>
         <v>9562</v>
       </c>
-      <c r="V7" s="4">
-        <f>MAX(S7-S9,0)</f>
+      <c r="Y7" s="4">
+        <f>MAX(V7-V9,0)</f>
         <v>249360</v>
       </c>
-      <c r="Z7" s="19">
+      <c r="AC7" s="19">
         <v>0.01</v>
       </c>
-      <c r="AA7" s="19">
-        <f>SUM(Z$6:Z7)</f>
+      <c r="AD7" s="19">
+        <f>SUM(AC$6:AC7)</f>
         <v>0.01</v>
       </c>
-      <c r="AB7" s="19">
+      <c r="AE7" s="19">
         <v>2</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AG7" s="5">
         <v>4000000</v>
       </c>
-      <c r="AE7">
-        <f>ROUND(AD7/4,0)</f>
+      <c r="AH7">
+        <f>ROUND(AG7/4,0)</f>
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="4">
-        <f>C7</f>
-        <v>10000</v>
-      </c>
-      <c r="D8" s="4">
-        <f>D7</f>
-        <v>250000</v>
+    <row r="8" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="F8" s="4">
         <f>F7</f>
-        <v>9950</v>
+        <v>10000</v>
       </c>
       <c r="G8" s="4">
-        <f>D8-D9+D11</f>
-        <v>249985</v>
+        <f>G7</f>
+        <v>250000</v>
       </c>
       <c r="I8" s="4">
         <f>I7</f>
-        <v>9888</v>
+        <v>9950</v>
       </c>
       <c r="J8" s="4">
-        <f>G8-G9+G11</f>
-        <v>249955</v>
+        <f>G8-G9+G12</f>
+        <v>249985</v>
       </c>
       <c r="L8" s="4">
         <f>L7</f>
-        <v>9830</v>
+        <v>9888</v>
       </c>
       <c r="M8" s="4">
-        <f>J8-J9+J11</f>
-        <v>249953</v>
+        <f>J8-J9+J12</f>
+        <v>249955</v>
       </c>
       <c r="O8" s="4">
         <f>O7</f>
-        <v>9760</v>
+        <v>9830</v>
       </c>
       <c r="P8" s="4">
-        <f>M8-M9+M11</f>
-        <v>249804</v>
+        <f>M8-M9+M12</f>
+        <v>249953</v>
       </c>
       <c r="R8" s="4">
         <f>R7</f>
-        <v>9660</v>
+        <v>9760</v>
       </c>
       <c r="S8" s="4">
-        <f>P8-P9+P11</f>
-        <v>249857</v>
+        <f>P8-P9+P12</f>
+        <v>249804</v>
       </c>
       <c r="U8" s="4">
         <f>U7</f>
+        <v>9660</v>
+      </c>
+      <c r="V8" s="4">
+        <f>S8-S9+S12</f>
+        <v>249857</v>
+      </c>
+      <c r="X8" s="4">
+        <f>X7</f>
         <v>9562</v>
       </c>
-      <c r="V8" s="4">
-        <f>S8-S9+S11</f>
+      <c r="Y8" s="4">
+        <f>V8-V9+V12</f>
         <v>249795</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AC8" s="19">
         <v>0.05</v>
       </c>
-      <c r="AA8" s="19">
-        <f>SUM(Z$6:Z8)</f>
+      <c r="AD8" s="19">
+        <f>SUM(AC$6:AC8)</f>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AE8" s="19">
         <v>2</v>
       </c>
-      <c r="AD8" s="5"/>
-    </row>
-    <row r="9" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+      <c r="AG8" s="5"/>
+    </row>
+    <row r="9" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="4">
+      <c r="F9" s="4">
         <v>50</v>
       </c>
-      <c r="D9" s="4">
+      <c r="G9" s="4">
         <v>100</v>
       </c>
-      <c r="F9" s="4">
+      <c r="I9" s="4">
         <v>62</v>
       </c>
-      <c r="G9" s="4">
+      <c r="J9" s="4">
         <v>110</v>
       </c>
-      <c r="I9" s="4">
+      <c r="L9" s="4">
         <v>58</v>
       </c>
-      <c r="J9" s="4">
+      <c r="M9" s="4">
         <v>94</v>
       </c>
-      <c r="L9" s="4">
+      <c r="O9" s="4">
         <v>70</v>
       </c>
-      <c r="M9" s="4">
+      <c r="P9" s="4">
         <v>192</v>
       </c>
-      <c r="O9" s="4">
+      <c r="R9" s="4">
         <v>100</v>
       </c>
-      <c r="P9" s="4">
+      <c r="S9" s="4">
         <v>39</v>
-      </c>
-      <c r="R9" s="4">
-        <v>98</v>
-      </c>
-      <c r="S9" s="4">
-        <v>105</v>
       </c>
       <c r="U9" s="4">
         <v>98</v>
@@ -6372,31 +6512,39 @@
       <c r="V9" s="4">
         <v>105</v>
       </c>
-      <c r="Z9" s="19">
+      <c r="X9" s="4">
+        <v>98</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>105</v>
+      </c>
+      <c r="AC9" s="19">
         <v>0.12</v>
       </c>
-      <c r="AA9" s="19">
-        <f>SUM(Z$6:Z9)</f>
+      <c r="AD9" s="19">
+        <f>SUM(AC$6:AC9)</f>
         <v>0.18</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AE9" s="19">
         <v>2</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AG9" s="5">
         <v>4100000</v>
       </c>
-      <c r="AE9">
-        <f t="shared" ref="AE9:AE149" si="0">ROUND(AD9/4,0)</f>
+      <c r="AH9">
+        <f t="shared" ref="AH9:AH139" si="0">ROUND(AG9/4,0)</f>
         <v>1025000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="4">
-        <f>-MIN(D7-D9,0)</f>
-        <v>0</v>
+    <row r="10" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="G10" s="4">
         <f>-MIN(G7-G9,0)</f>
@@ -6422,464 +6570,695 @@
         <f>-MIN(V7-V9,0)</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="19">
+      <c r="Y10" s="4">
+        <f>-MIN(Y7-Y9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="19">
         <v>0.2</v>
       </c>
-      <c r="AA10" s="19">
-        <f>SUM(Z$6:Z10)</f>
+      <c r="AD10" s="19">
+        <f>SUM(AC$6:AC10)</f>
         <v>0.38</v>
       </c>
-      <c r="AB10" s="19">
+      <c r="AE10" s="19">
         <v>20</v>
       </c>
-      <c r="AD10" s="5"/>
-    </row>
-    <row r="11" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="AG10" s="5"/>
+    </row>
+    <row r="11" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="4">
+        <f>MAX(G10-G23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f>MAX(J10-J23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f>MAX(M10-M23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <f>MAX(P10-P23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <f>MAX(S10-S23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <f>MAX(V10-V23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>MAX(Y10-Y23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="AD11" s="19">
+        <f>SUM(AC$6:AC11)</f>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="AE11" s="19">
+        <v>20</v>
+      </c>
+      <c r="AG11" s="5"/>
+    </row>
+    <row r="12" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="4">
         <v>85</v>
       </c>
-      <c r="G11" s="4">
+      <c r="J12" s="4">
         <v>80</v>
       </c>
-      <c r="J11" s="4">
+      <c r="M12" s="4">
         <v>92</v>
       </c>
-      <c r="M11" s="4">
+      <c r="P12" s="4">
         <v>43</v>
       </c>
-      <c r="P11" s="4">
+      <c r="S12" s="4">
         <v>92</v>
       </c>
-      <c r="S11" s="4">
+      <c r="V12" s="4">
         <v>43</v>
       </c>
-      <c r="V11" s="4">
+      <c r="Y12" s="4">
         <v>43</v>
       </c>
-      <c r="Z11" s="19">
+      <c r="AC12" s="19">
         <v>0.36</v>
       </c>
-      <c r="AA11" s="19">
-        <f>SUM(Z$6:Z11)</f>
-        <v>0.74</v>
-      </c>
-      <c r="AB11" s="19">
+      <c r="AD12" s="19">
+        <f>SUM(AC$6:AC12)</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="AE12" s="19">
         <v>20</v>
       </c>
-      <c r="AD11" s="5"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="Z12" s="19">
+      <c r="AG12" s="5"/>
+    </row>
+    <row r="13" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="4">
+        <f>MAX(F7-F9,0)</f>
+        <v>9950</v>
+      </c>
+      <c r="G13" s="4">
+        <f>MAX(G7-G9,0)</f>
+        <v>249900</v>
+      </c>
+      <c r="I13" s="4">
+        <f>MAX(I7-I9,0)</f>
+        <v>9888</v>
+      </c>
+      <c r="J13" s="4">
+        <f>MAX(J7-J9,0)</f>
+        <v>249790</v>
+      </c>
+      <c r="L13" s="4">
+        <f>MAX(L7-L9,0)</f>
+        <v>9830</v>
+      </c>
+      <c r="M13" s="4">
+        <f>MAX(M7-M9,0)</f>
+        <v>249696</v>
+      </c>
+      <c r="O13" s="4">
+        <f>MAX(O7-O9,0)</f>
+        <v>9760</v>
+      </c>
+      <c r="P13" s="4">
+        <f>MAX(P7-P9,0)</f>
+        <v>249504</v>
+      </c>
+      <c r="R13" s="4">
+        <f>MAX(R7-R9,0)</f>
+        <v>9660</v>
+      </c>
+      <c r="S13" s="4">
+        <f>MAX(S7-S9,0)</f>
+        <v>249465</v>
+      </c>
+      <c r="U13" s="4">
+        <f>MAX(U7-U9,0)</f>
+        <v>9562</v>
+      </c>
+      <c r="V13" s="4">
+        <f>MAX(V7-V9,0)</f>
+        <v>249360</v>
+      </c>
+      <c r="X13" s="4">
+        <f>MAX(X7-X9,0)</f>
+        <v>9464</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>MAX(Y7-Y9,0)</f>
+        <v>249255</v>
+      </c>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AG13" s="5"/>
+    </row>
+    <row r="14" spans="1:34" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AC14" s="19">
         <v>0.6</v>
       </c>
-      <c r="AA12" s="19">
-        <f>SUM(Z$6:Z12)</f>
-        <v>1.3399999999999999</v>
-      </c>
-      <c r="AB12" s="19">
+      <c r="AD14" s="19">
+        <f>SUM(AC$6:AC14)</f>
+        <v>1.54</v>
+      </c>
+      <c r="AE14" s="19">
         <v>20</v>
       </c>
-      <c r="AD12" s="5"/>
-    </row>
-    <row r="13" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="U13" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="Z13" s="19">
+      <c r="AG14" s="5"/>
+    </row>
+    <row r="15" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AC15" s="19">
         <v>1.8</v>
       </c>
-      <c r="AA13" s="19">
-        <f>SUM(Z$6:Z13)</f>
-        <v>3.1399999999999997</v>
-      </c>
-      <c r="AB13" s="19">
+      <c r="AD15" s="19">
+        <f>SUM(AC$6:AC15)</f>
+        <v>3.34</v>
+      </c>
+      <c r="AE15" s="19">
         <v>20</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AG15" s="5">
         <v>4250000</v>
       </c>
-      <c r="AE13">
+      <c r="AH15">
         <f t="shared" si="0"/>
         <v>1062500</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="U14" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="Z14" s="19">
+    <row r="16" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AC16" s="19">
         <v>3</v>
       </c>
-      <c r="AA14" s="19">
-        <f>SUM(Z$6:Z14)</f>
-        <v>6.14</v>
-      </c>
-      <c r="AB14" s="19">
+      <c r="AD16" s="19">
+        <f>SUM(AC$6:AC16)</f>
+        <v>6.34</v>
+      </c>
+      <c r="AE16" s="19">
         <v>20</v>
       </c>
-      <c r="AD14" s="5"/>
-    </row>
-    <row r="15" spans="1:31" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="Z15" s="19">
+      <c r="AG16" s="5"/>
+    </row>
+    <row r="17" spans="1:41" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="AC17" s="19">
         <v>6</v>
       </c>
-      <c r="AA15" s="19">
-        <f>SUM(Z$6:Z15)</f>
-        <v>12.14</v>
-      </c>
-      <c r="AB15" s="19">
+      <c r="AD17" s="19">
+        <f>SUM(AC$6:AC17)</f>
+        <v>12.34</v>
+      </c>
+      <c r="AE17" s="19">
         <v>20</v>
       </c>
-      <c r="AD15" s="5"/>
-    </row>
-    <row r="16" spans="1:31" ht="51" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="Z16" s="19">
+      <c r="AG17" s="5"/>
+    </row>
+    <row r="18" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="4">
+        <v>150</v>
+      </c>
+      <c r="G18" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC18" s="19">
         <v>10</v>
       </c>
-      <c r="AA16" s="19">
-        <f>SUM(Z$6:Z16)</f>
-        <v>22.14</v>
-      </c>
-      <c r="AB16" s="19">
+      <c r="AD18" s="19">
+        <f>SUM(AC$6:AC18)</f>
+        <v>22.34</v>
+      </c>
+      <c r="AE18" s="19">
         <v>20</v>
       </c>
-      <c r="AD16" s="5"/>
-    </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="Z17" s="19">
+      <c r="AG18" s="5"/>
+    </row>
+    <row r="19" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="4">
+        <f>F$18*$F$15</f>
+        <v>0.15</v>
+      </c>
+      <c r="G19" s="4">
+        <f>G$18*$F$15</f>
+        <v>0.1</v>
+      </c>
+      <c r="AC19" s="19">
         <v>12</v>
       </c>
-      <c r="AA17" s="19">
-        <f>SUM(Z$6:Z17)</f>
-        <v>34.14</v>
-      </c>
-      <c r="AB17" s="19">
+      <c r="AD19" s="19">
+        <f>SUM(AC$6:AC19)</f>
+        <v>34.340000000000003</v>
+      </c>
+      <c r="AE19" s="19">
         <v>20</v>
       </c>
-      <c r="AD17" s="5"/>
-    </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="Z18" s="19">
+      <c r="AG19" s="5"/>
+    </row>
+    <row r="20" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="4">
+        <f>F18-F19</f>
+        <v>149.85</v>
+      </c>
+      <c r="G20" s="4">
+        <f>G18-G19</f>
+        <v>99.9</v>
+      </c>
+      <c r="AC20" s="19">
         <v>13.5</v>
       </c>
-      <c r="AA18" s="19">
-        <f>SUM(Z$6:Z18)</f>
-        <v>47.64</v>
-      </c>
-      <c r="AB18" s="19">
+      <c r="AD20" s="19">
+        <f>SUM(AC$6:AC20)</f>
+        <v>47.84</v>
+      </c>
+      <c r="AE20" s="19">
         <v>20</v>
       </c>
-      <c r="AD18" s="5"/>
-    </row>
-    <row r="19" spans="2:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="4">
-        <v>150</v>
-      </c>
-      <c r="D19" s="4">
-        <v>100</v>
-      </c>
-      <c r="Z19" s="19">
+      <c r="AG20" s="5"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AC21" s="19">
         <v>12</v>
       </c>
-      <c r="AA19" s="19">
-        <f>SUM(Z$6:Z19)</f>
-        <v>59.64</v>
-      </c>
-      <c r="AB19" s="19">
+      <c r="AD21" s="19">
+        <f>SUM(AC$6:AC21)</f>
+        <v>59.84</v>
+      </c>
+      <c r="AE21" s="19">
         <v>20</v>
       </c>
-      <c r="AD19" s="5">
+      <c r="AG21" s="5">
         <v>4400000</v>
       </c>
-      <c r="AE19">
+      <c r="AH21">
         <f t="shared" si="0"/>
         <v>1100000</v>
       </c>
     </row>
-    <row r="20" spans="2:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="4">
-        <f>C$19*$C$14</f>
-        <v>0.15</v>
-      </c>
-      <c r="D20" s="4">
-        <f>D$19*$C$14</f>
-        <v>0.1</v>
-      </c>
-      <c r="Z20" s="19">
+    <row r="22" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G22" s="4">
+        <v>50000</v>
+      </c>
+      <c r="I22" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J22" s="4">
+        <v>50000</v>
+      </c>
+      <c r="L22" s="4">
+        <v>6000</v>
+      </c>
+      <c r="M22" s="4">
+        <v>50000</v>
+      </c>
+      <c r="O22" s="4">
+        <v>6000</v>
+      </c>
+      <c r="P22" s="4">
+        <v>50000</v>
+      </c>
+      <c r="R22" s="4">
+        <v>6500</v>
+      </c>
+      <c r="S22" s="4">
+        <v>49000</v>
+      </c>
+      <c r="U22" s="4">
+        <v>7200</v>
+      </c>
+      <c r="V22" s="4">
+        <v>49500</v>
+      </c>
+      <c r="X22" s="4">
+        <v>7200</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>49500</v>
+      </c>
+      <c r="AC22" s="19">
         <v>10</v>
       </c>
-      <c r="AA20" s="19">
-        <f>SUM(Z$6:Z20)</f>
-        <v>69.64</v>
-      </c>
-      <c r="AB20" s="19">
+      <c r="AD22" s="19">
+        <f>SUM(AC$6:AC22)</f>
+        <v>69.84</v>
+      </c>
+      <c r="AE22" s="19">
         <v>20</v>
       </c>
-      <c r="AD20" s="5"/>
-    </row>
-    <row r="21" spans="2:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="4">
-        <f>C19-C20</f>
-        <v>149.85</v>
-      </c>
-      <c r="D21" s="4">
-        <f>D19-D20</f>
-        <v>99.9</v>
-      </c>
-      <c r="Z21" s="19">
+      <c r="AG22" s="5"/>
+    </row>
+    <row r="23" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="4">
+        <f>MAX(G$22-G$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <f>MAX(J$22-J$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <f>MAX(M$22-M$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <f>MAX(P$22-P$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <f>MAX(S$22-S$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <f>MAX(V$22-V$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <f>MAX(Y$22-Y$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="19">
         <v>6</v>
       </c>
-      <c r="AA21" s="19">
-        <f>SUM(Z$6:Z21)</f>
-        <v>75.64</v>
-      </c>
-      <c r="AB21" s="19">
+      <c r="AD23" s="19">
+        <f>SUM(AC$6:AC23)</f>
+        <v>75.84</v>
+      </c>
+      <c r="AE23" s="19">
         <v>20</v>
       </c>
-      <c r="AD21" s="5"/>
-    </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="Z22" s="19">
+      <c r="AG23" s="5"/>
+    </row>
+    <row r="24" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="4">
+        <f>MIN(F13,F22)</f>
+        <v>5000</v>
+      </c>
+      <c r="G24" s="4">
+        <f>MIN(G13,G22)-G23</f>
+        <v>50000</v>
+      </c>
+      <c r="I24" s="4">
+        <f>MIN(I13,I22)</f>
+        <v>5000</v>
+      </c>
+      <c r="J24" s="4">
+        <f>MIN(J13,J22)-J23</f>
+        <v>50000</v>
+      </c>
+      <c r="L24" s="4">
+        <f>MIN(L13,L22)</f>
+        <v>6000</v>
+      </c>
+      <c r="M24" s="4">
+        <f>MIN(M13,M22)-M23</f>
+        <v>50000</v>
+      </c>
+      <c r="O24" s="4">
+        <f>MIN(O13,O22)</f>
+        <v>6000</v>
+      </c>
+      <c r="P24" s="4">
+        <f>MIN(P13,P22)-P23</f>
+        <v>50000</v>
+      </c>
+      <c r="R24" s="4">
+        <f>MIN(R13,R22)</f>
+        <v>6500</v>
+      </c>
+      <c r="S24" s="4">
+        <f>MIN(S13,S22)-S23</f>
+        <v>49000</v>
+      </c>
+      <c r="U24" s="4">
+        <f>MIN(U13,U22)</f>
+        <v>7200</v>
+      </c>
+      <c r="V24" s="4">
+        <f>MIN(V13,V22)-V23</f>
+        <v>49500</v>
+      </c>
+      <c r="X24" s="4">
+        <f>MIN(X13,X22)</f>
+        <v>7200</v>
+      </c>
+      <c r="Y24" s="4">
+        <f>MIN(Y13,Y22)-Y23</f>
+        <v>49500</v>
+      </c>
+      <c r="AC24" s="19">
         <v>3</v>
       </c>
-      <c r="AA22" s="19">
-        <f>SUM(Z$6:Z22)</f>
-        <v>78.64</v>
-      </c>
-      <c r="AB22" s="19">
+      <c r="AD24" s="19">
+        <f>SUM(AC$6:AC24)</f>
+        <v>78.84</v>
+      </c>
+      <c r="AE24" s="19">
         <v>20</v>
       </c>
-      <c r="AD22" s="5"/>
-    </row>
-    <row r="23" spans="2:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D23" s="4">
-        <v>50000</v>
-      </c>
-      <c r="F23" s="4">
-        <v>5000</v>
-      </c>
-      <c r="G23" s="4">
-        <v>250000</v>
-      </c>
-      <c r="I23" s="4">
-        <v>6000</v>
-      </c>
-      <c r="J23" s="4">
-        <v>250000</v>
-      </c>
-      <c r="L23" s="4">
-        <v>6000</v>
-      </c>
-      <c r="M23" s="4">
-        <v>249800</v>
-      </c>
-      <c r="O23" s="4">
-        <v>6500</v>
-      </c>
-      <c r="P23" s="4">
-        <v>49000</v>
-      </c>
-      <c r="R23" s="4">
-        <v>7200</v>
-      </c>
-      <c r="S23" s="4">
-        <v>49500</v>
-      </c>
-      <c r="U23" s="4">
-        <v>7200</v>
-      </c>
-      <c r="V23" s="4">
-        <v>49500</v>
-      </c>
-      <c r="Z23" s="19">
+      <c r="AG24" s="5"/>
+    </row>
+    <row r="25" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="E25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="AC25" s="19">
         <v>1.8</v>
       </c>
-      <c r="AA23" s="19">
-        <f>SUM(Z$6:Z23)</f>
-        <v>80.44</v>
-      </c>
-      <c r="AB23" s="19">
+      <c r="AD25" s="19">
+        <f>SUM(AC$6:AC25)</f>
+        <v>80.64</v>
+      </c>
+      <c r="AE25" s="19">
         <v>20</v>
       </c>
-      <c r="AD23" s="5">
+      <c r="AG25" s="5">
         <v>4420000</v>
       </c>
-      <c r="AE23">
+      <c r="AH25">
         <f t="shared" si="0"/>
         <v>1105000</v>
       </c>
-      <c r="AI23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="2:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="AD24" s="5"/>
-      <c r="AK24" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="2:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="AL25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G26" s="4">
         <v>0.92</v>
       </c>
-      <c r="D25" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="AD25" s="5"/>
-      <c r="AI25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="AD26" s="5"/>
-      <c r="AI26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="AD27" s="5">
-        <v>4508400</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="0"/>
-        <v>1127100</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="2:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="15" t="s">
+      <c r="AG26" s="5"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AG27" s="5"/>
+    </row>
+    <row r="28" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="E28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="I28" s="8"/>
@@ -6892,2606 +7271,3531 @@
       <c r="S28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
-      <c r="AD28" s="5">
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="AG28" s="5"/>
+      <c r="AL28" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2050000</v>
+      </c>
+      <c r="L29" s="4">
+        <v>2110000</v>
+      </c>
+      <c r="O29" s="4">
+        <v>2210000</v>
+      </c>
+      <c r="R29" s="4">
+        <v>2110000</v>
+      </c>
+      <c r="U29" s="4">
+        <v>2210000</v>
+      </c>
+      <c r="X29" s="4">
+        <v>2350000</v>
+      </c>
+      <c r="AG29" s="5"/>
+      <c r="AL29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AG30" s="5">
+        <v>4508400</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="0"/>
+        <v>1127100</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="E31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="AG31" s="5">
         <v>4598570</v>
       </c>
-      <c r="AE28">
+      <c r="AH31">
         <f t="shared" si="0"/>
         <v>1149643</v>
       </c>
-      <c r="AI28" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="2:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="4">
-        <v>200000</v>
-      </c>
-      <c r="F29" s="4">
-        <v>205000</v>
-      </c>
-      <c r="I29" s="4">
-        <v>211000</v>
-      </c>
-      <c r="L29" s="4">
-        <v>221000</v>
-      </c>
-      <c r="O29" s="4">
-        <v>211000</v>
-      </c>
-      <c r="R29" s="4">
-        <v>221000</v>
-      </c>
-      <c r="U29" s="4">
-        <v>235000</v>
-      </c>
-      <c r="AD29" s="5">
+      <c r="AL31" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="E32" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG32" s="5">
         <v>4690540</v>
       </c>
-      <c r="AE29">
+      <c r="AH32">
         <f t="shared" si="0"/>
         <v>1172635</v>
       </c>
-      <c r="AI29" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK29" t="s">
+      <c r="AL32" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO32" t="s">
         <v>107</v>
       </c>
-      <c r="AL29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="2:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD30" s="5">
+    </row>
+    <row r="33" spans="5:41" x14ac:dyDescent="0.2">
+      <c r="E33" s="14"/>
+      <c r="AG33" s="5">
         <v>4784350</v>
       </c>
-      <c r="AE30">
+      <c r="AH33">
         <f t="shared" si="0"/>
         <v>1196088</v>
       </c>
-      <c r="AI30" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="AD31" s="5">
+      <c r="AL33" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="5:41" x14ac:dyDescent="0.2">
+      <c r="AG34" s="5">
         <v>4880040</v>
       </c>
-      <c r="AE31">
+      <c r="AH34">
         <f t="shared" si="0"/>
         <v>1220010</v>
       </c>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="AD32" s="5">
+    <row r="35" spans="5:41" x14ac:dyDescent="0.2">
+      <c r="E35" s="14"/>
+      <c r="AG35" s="5">
         <v>4977640</v>
       </c>
-      <c r="AE32">
+      <c r="AH35">
         <f t="shared" si="0"/>
         <v>1244410</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="AD33" s="5">
+    <row r="36" spans="5:41" x14ac:dyDescent="0.2">
+      <c r="AG36" s="5">
         <v>5077190</v>
       </c>
-      <c r="AE33">
+      <c r="AH36">
         <f t="shared" si="0"/>
         <v>1269298</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="AD34" s="5">
+    <row r="37" spans="5:41" x14ac:dyDescent="0.2">
+      <c r="E37" s="14"/>
+      <c r="AG37" s="5">
         <v>5178730</v>
       </c>
-      <c r="AE34">
+      <c r="AH37">
         <f t="shared" si="0"/>
         <v>1294683</v>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="AD35" s="5">
+    <row r="38" spans="5:41" x14ac:dyDescent="0.2">
+      <c r="E38" s="14"/>
+      <c r="AG38" s="5">
         <v>5282300</v>
       </c>
-      <c r="AE35">
+      <c r="AH38">
         <f t="shared" si="0"/>
         <v>1320575</v>
       </c>
     </row>
-    <row r="36" spans="2:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="AD36" s="5">
+    <row r="39" spans="5:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="E39" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="I39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG39" s="5">
         <v>5387950</v>
       </c>
-      <c r="AE36">
+      <c r="AH39">
         <f t="shared" si="0"/>
         <v>1346988</v>
       </c>
     </row>
-    <row r="37" spans="2:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B37" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="4">
-        <f>C25</f>
-        <v>0.92</v>
-      </c>
-      <c r="D37" s="4">
-        <f>D25</f>
-        <v>0.3</v>
-      </c>
-      <c r="AD37" s="5"/>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B38" s="14"/>
-      <c r="AD38" s="5"/>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="AD39" s="5"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B40" s="14"/>
-      <c r="AD40" s="5"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="AD41" s="5"/>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B42" s="14"/>
-      <c r="AD42" s="5"/>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B43" s="14"/>
-      <c r="W43" t="s">
+    <row r="40" spans="5:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="E40" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <f>SUM(J$40:J40)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <f>SUM(M$40:M40)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <f>SUM(P$40:P40)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="5">
+        <f>SUM(S$40:S40)</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="4">
+        <v>0</v>
+      </c>
+      <c r="T40" s="5">
+        <f>SUM(V$40:V40)</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="4">
+        <v>0</v>
+      </c>
+      <c r="W40" s="5">
+        <f>SUM(Y$40:Y40)</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="5"/>
+    </row>
+    <row r="41" spans="5:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="E41" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <f>G12</f>
+        <v>85</v>
+      </c>
+      <c r="H41" s="5">
+        <f>SUM(G$40:G41)</f>
+        <v>85</v>
+      </c>
+      <c r="I41" s="4">
+        <f>IF(H41&gt;=J$11, IF(H40&lt;J$11, J$11-H40, 0),G41)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <f>G41-I41</f>
+        <v>85</v>
+      </c>
+      <c r="K41" s="5">
+        <f>SUM(J$40:J41)</f>
+        <v>85</v>
+      </c>
+      <c r="L41" s="4">
+        <f>IF(K41&gt;=M$11, IF(K40&lt;M$11, M$11-K40, 0),J41)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <f>J41-L41</f>
+        <v>85</v>
+      </c>
+      <c r="N41" s="5">
+        <f>SUM(M$40:M41)</f>
+        <v>85</v>
+      </c>
+      <c r="O41" s="4">
+        <f>IF(N41&gt;=P$11, IF(N40&lt;P$11, P$11-N40, 0),M41)</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <f>M41-O41</f>
+        <v>85</v>
+      </c>
+      <c r="Q41" s="5">
+        <f>SUM(P$40:P41)</f>
+        <v>85</v>
+      </c>
+      <c r="R41" s="4">
+        <f>IF(Q41&gt;=S$11, IF(Q40&lt;S$11, S$11-Q40, 0),P41)</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="4">
+        <f>P41-R41</f>
+        <v>85</v>
+      </c>
+      <c r="T41" s="5">
+        <f>SUM(S$40:S41)</f>
+        <v>85</v>
+      </c>
+      <c r="U41" s="4">
+        <f>IF(T41&gt;=V$11, IF(T40&lt;V$11, V$11-T40, 0),S41)</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="4">
+        <f>S41-U41</f>
+        <v>85</v>
+      </c>
+      <c r="W41" s="5">
+        <f>SUM(V$40:V41)</f>
+        <v>85</v>
+      </c>
+      <c r="X41" s="4">
+        <f>IF(W41&gt;=Y$11, IF(W40&lt;Y$11, Y$11-W40, 0),V41)</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="4">
+        <f>V41-X41</f>
+        <v>85</v>
+      </c>
+      <c r="AG41" s="5"/>
+    </row>
+    <row r="42" spans="5:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="E42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <f>SUM(G$40:G42)</f>
+        <v>85</v>
+      </c>
+      <c r="I42" s="4">
+        <f>IF(H42&gt;=J$11, IF(H41&lt;J$11, J$11-H41, 0),G42)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <f>J12</f>
+        <v>80</v>
+      </c>
+      <c r="K42" s="5">
+        <f>SUM(J$40:J42)</f>
+        <v>165</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" ref="L42:L44" si="1">IF(K42&gt;=M$11, IF(K41&lt;M$11, M$11-K41, 0),J42)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <f>J42-L42</f>
+        <v>80</v>
+      </c>
+      <c r="N42" s="5">
+        <f>SUM(M$40:M42)</f>
+        <v>165</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" ref="O42:O44" si="2">IF(N42&gt;=P$11, IF(N41&lt;P$11, P$11-N41, 0),M42)</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <f>M42-O42</f>
+        <v>80</v>
+      </c>
+      <c r="Q42" s="5">
+        <f>SUM(P$40:P42)</f>
+        <v>165</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" ref="R42:R44" si="3">IF(Q42&gt;=S$11, IF(Q41&lt;S$11, S$11-Q41, 0),P42)</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <f>P42-R42</f>
+        <v>80</v>
+      </c>
+      <c r="T42" s="5">
+        <f>SUM(S$40:S42)</f>
+        <v>165</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" ref="U42:U44" si="4">IF(T42&gt;=V$11, IF(T41&lt;V$11, V$11-T41, 0),S42)</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="4">
+        <f>S42-U42</f>
+        <v>80</v>
+      </c>
+      <c r="W42" s="5">
+        <f>SUM(V$40:V42)</f>
+        <v>165</v>
+      </c>
+      <c r="X42" s="4">
+        <f t="shared" ref="X42:X44" si="5">IF(W42&gt;=Y$11, IF(W41&lt;Y$11, Y$11-W41, 0),V42)</f>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="4">
+        <f>V42-X42</f>
+        <v>80</v>
+      </c>
+      <c r="AG42" s="5"/>
+    </row>
+    <row r="43" spans="5:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="E43" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <f>SUM(G$40:G43)</f>
+        <v>85</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" ref="I43:I44" si="6">IF(H43&gt;=J$11, IF(H42&lt;J$11, J$11-H42, 0),G43)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <f>SUM(J$40:J43)</f>
+        <v>165</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <f>M12</f>
+        <v>92</v>
+      </c>
+      <c r="N43" s="5">
+        <f>SUM(M$40:M43)</f>
+        <v>257</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <f>M43-O43</f>
+        <v>92</v>
+      </c>
+      <c r="Q43" s="5">
+        <f>SUM(P$40:P43)</f>
+        <v>257</v>
+      </c>
+      <c r="R43" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="4">
+        <f>P43-R43</f>
+        <v>92</v>
+      </c>
+      <c r="T43" s="5">
+        <f>SUM(S$40:S43)</f>
+        <v>257</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="4">
+        <f>S43-U43</f>
+        <v>92</v>
+      </c>
+      <c r="W43" s="5">
+        <f>SUM(V$40:V43)</f>
+        <v>257</v>
+      </c>
+      <c r="X43" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="4">
+        <f>V43-X43</f>
+        <v>92</v>
+      </c>
+      <c r="AG43" s="5"/>
+    </row>
+    <row r="44" spans="5:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="E44" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <f>SUM(G$40:G44)</f>
+        <v>85</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
+        <f>SUM(J$40:J44)</f>
+        <v>165</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <f>SUM(M$40:M44)</f>
+        <v>257</v>
+      </c>
+      <c r="O44" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <f>P12</f>
+        <v>43</v>
+      </c>
+      <c r="Q44" s="5">
+        <f>SUM(P$40:P44)</f>
+        <v>300</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <f>P44-R44</f>
+        <v>43</v>
+      </c>
+      <c r="T44" s="5">
+        <f>SUM(S$40:S44)</f>
+        <v>300</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="4">
+        <f>S44-U44</f>
+        <v>43</v>
+      </c>
+      <c r="W44" s="5">
+        <f>SUM(V$40:V44)</f>
+        <v>300</v>
+      </c>
+      <c r="X44" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="4">
+        <f>V44-X44</f>
+        <v>43</v>
+      </c>
+      <c r="AG44" s="5"/>
+    </row>
+    <row r="45" spans="5:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="E45" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AD43" s="5"/>
-    </row>
-    <row r="44" spans="2:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B44" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="F44" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD44" s="5"/>
-    </row>
-    <row r="45" spans="2:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B45" s="14" t="s">
+      <c r="Z45" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG45" s="5"/>
+    </row>
+    <row r="46" spans="5:41" x14ac:dyDescent="0.2">
+      <c r="E46" s="14"/>
+      <c r="AG46" s="5"/>
+    </row>
+    <row r="47" spans="5:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="E47" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="4">
+        <f>AC6</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <f>AC7</f>
+        <v>0.01</v>
+      </c>
+      <c r="M47" s="4">
+        <f>AC8</f>
+        <v>0.05</v>
+      </c>
+      <c r="P47" s="4">
+        <f>AC9</f>
+        <v>0.12</v>
+      </c>
+      <c r="S47" s="4">
+        <f>AC11</f>
+        <v>0.2</v>
+      </c>
+      <c r="V47" s="4">
+        <f>AC12</f>
+        <v>0.36</v>
+      </c>
+      <c r="Y47" s="4">
+        <f>AC14</f>
+        <v>0.6</v>
+      </c>
+      <c r="AG47" s="5"/>
+    </row>
+    <row r="48" spans="5:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="E48" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <f>AC7</f>
+        <v>0.01</v>
+      </c>
+      <c r="P48" s="4">
+        <f>AC8</f>
+        <v>0.05</v>
+      </c>
+      <c r="S48" s="4">
+        <f>AC9</f>
+        <v>0.12</v>
+      </c>
+      <c r="V48" s="4">
+        <f>AC11</f>
+        <v>0.2</v>
+      </c>
+      <c r="Y48" s="4">
+        <f>AC12</f>
+        <v>0.36</v>
+      </c>
+      <c r="AG48" s="5"/>
+    </row>
+    <row r="49" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E49" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <f>AC7</f>
+        <v>0.01</v>
+      </c>
+      <c r="S49" s="4">
+        <f>AC8</f>
+        <v>0.05</v>
+      </c>
+      <c r="V49" s="4">
+        <f>AC9</f>
+        <v>0.12</v>
+      </c>
+      <c r="Y49" s="4">
+        <f>AC11</f>
+        <v>0.2</v>
+      </c>
+      <c r="AG49" s="5"/>
+    </row>
+    <row r="50" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E50" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="4">
-        <v>0</v>
-      </c>
-      <c r="E45" s="5">
-        <f>SUM(G$45:G45)</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="5">
-        <f>SUM(J$45:J45)</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-      <c r="K45" s="5">
-        <f>SUM(M$45:M45)</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="4">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5">
-        <f>SUM(P$45:P45)</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="5">
-        <f>SUM(S$45:S45)</f>
-        <v>0</v>
-      </c>
-      <c r="S45" s="4">
-        <v>0</v>
-      </c>
-      <c r="T45" s="5">
-        <f>SUM(V$45:V45)</f>
-        <v>0</v>
-      </c>
-      <c r="V45" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="5"/>
-    </row>
-    <row r="46" spans="2:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B46" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4">
-        <f>D11</f>
-        <v>85</v>
-      </c>
-      <c r="E46" s="5">
-        <f>SUM(D$45:D46)</f>
-        <v>85</v>
-      </c>
-      <c r="F46" s="4">
-        <f>IF(E46&gt;=G$10, IF(E45&lt;G$10, G$10-E45, 0),D46)</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="4">
-        <f>D46-F46</f>
-        <v>85</v>
-      </c>
-      <c r="H46" s="5">
-        <f>SUM(G$45:G46)</f>
-        <v>85</v>
-      </c>
-      <c r="I46" s="4">
-        <f>IF(H46&gt;=J$10, IF(H45&lt;J$10, J$10-H45, 0),G46)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
-        <f>D11</f>
-        <v>85</v>
-      </c>
-      <c r="K46" s="5">
-        <f>SUM(J$45:J46)</f>
-        <v>85</v>
-      </c>
-      <c r="L46" s="4">
-        <f>IF(K46&gt;=M$10, IF(K45&lt;M$10, M$10-K45, 0),J46)</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="4">
-        <f>J46-L46</f>
-        <v>85</v>
-      </c>
-      <c r="N46" s="5">
-        <f>SUM(M$45:M46)</f>
-        <v>85</v>
-      </c>
-      <c r="O46" s="4">
-        <f>IF(N46&gt;=P$10, IF(N45&lt;P$10, P$10-N45, 0),M46)</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="4">
-        <f>M46-O46</f>
-        <v>85</v>
-      </c>
-      <c r="Q46" s="5">
-        <f>SUM(P$45:P46)</f>
-        <v>85</v>
-      </c>
-      <c r="R46" s="4">
-        <f>IF(Q46&gt;=S$10, IF(Q45&lt;S$10, S$10-Q45, 0),P46)</f>
-        <v>0</v>
-      </c>
-      <c r="S46" s="4">
-        <f>P46-R46</f>
-        <v>85</v>
-      </c>
-      <c r="T46" s="5">
-        <f>SUM(S$45:S46)</f>
-        <v>85</v>
-      </c>
-      <c r="U46" s="4">
-        <f>IF(T46&gt;=V$10, IF(T45&lt;V$10, V$10-T45, 0),S46)</f>
-        <v>0</v>
-      </c>
-      <c r="V46" s="4">
-        <f>S46-U46</f>
-        <v>85</v>
-      </c>
-      <c r="AD46" s="5"/>
-    </row>
-    <row r="47" spans="2:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B47" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-      <c r="E47" s="5">
-        <f>SUM(D$45:D47)</f>
-        <v>85</v>
-      </c>
-      <c r="F47" s="4">
-        <f t="shared" ref="F47:F49" si="1">IF(E47&gt;=G$10, IF(E46&lt;G$10, G$10-E46, 0),D47)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
-        <f>G11</f>
-        <v>80</v>
-      </c>
-      <c r="H47" s="5">
-        <f>SUM(G$45:G47)</f>
-        <v>165</v>
-      </c>
-      <c r="I47" s="4">
-        <f t="shared" ref="I47:I49" si="2">IF(H47&gt;=J$10, IF(H46&lt;J$10, J$10-H46, 0),G47)</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
-        <f>G47-I47</f>
-        <v>80</v>
-      </c>
-      <c r="K47" s="5">
-        <f>SUM(J$45:J47)</f>
-        <v>165</v>
-      </c>
-      <c r="L47" s="4">
-        <f t="shared" ref="L47:L49" si="3">IF(K47&gt;=M$10, IF(K46&lt;M$10, M$10-K46, 0),J47)</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="4">
-        <f>J47-L47</f>
-        <v>80</v>
-      </c>
-      <c r="N47" s="5">
-        <f>SUM(M$45:M47)</f>
-        <v>165</v>
-      </c>
-      <c r="O47" s="4">
-        <f t="shared" ref="O47:O49" si="4">IF(N47&gt;=P$10, IF(N46&lt;P$10, P$10-N46, 0),M47)</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="4">
-        <f>M47-O47</f>
-        <v>80</v>
-      </c>
-      <c r="Q47" s="5">
-        <f>SUM(P$45:P47)</f>
-        <v>165</v>
-      </c>
-      <c r="R47" s="4">
-        <f t="shared" ref="R47:R49" si="5">IF(Q47&gt;=S$10, IF(Q46&lt;S$10, S$10-Q46, 0),P47)</f>
-        <v>0</v>
-      </c>
-      <c r="S47" s="4">
-        <f>P47-R47</f>
-        <v>80</v>
-      </c>
-      <c r="T47" s="5">
-        <f>SUM(S$45:S47)</f>
-        <v>165</v>
-      </c>
-      <c r="U47" s="4">
-        <f t="shared" ref="U47:U49" si="6">IF(T47&gt;=V$10, IF(T46&lt;V$10, V$10-T46, 0),S47)</f>
-        <v>0</v>
-      </c>
-      <c r="V47" s="4">
-        <f>S47-U47</f>
-        <v>80</v>
-      </c>
-      <c r="AD47" s="5"/>
-    </row>
-    <row r="48" spans="2:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B48" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5">
-        <f>SUM(D$45:D48)</f>
-        <v>85</v>
-      </c>
-      <c r="F48" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
-        <f>SUM(G$45:G48)</f>
-        <v>165</v>
-      </c>
-      <c r="I48" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <f>J11</f>
-        <v>92</v>
-      </c>
-      <c r="K48" s="5">
-        <f>SUM(J$45:J48)</f>
-        <v>257</v>
-      </c>
-      <c r="L48" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="4">
-        <f>J48-L48</f>
-        <v>92</v>
-      </c>
-      <c r="N48" s="5">
-        <f>SUM(M$45:M48)</f>
-        <v>257</v>
-      </c>
-      <c r="O48" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="4">
-        <f>M48-O48</f>
-        <v>92</v>
-      </c>
-      <c r="Q48" s="5">
-        <f>SUM(P$45:P48)</f>
-        <v>257</v>
-      </c>
-      <c r="R48" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="4">
-        <f>P48-R48</f>
-        <v>92</v>
-      </c>
-      <c r="T48" s="5">
-        <f>SUM(S$45:S48)</f>
-        <v>257</v>
-      </c>
-      <c r="U48" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="4">
-        <f>S48-U48</f>
-        <v>92</v>
-      </c>
-      <c r="AD48" s="5"/>
-    </row>
-    <row r="49" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B49" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-      <c r="E49" s="5">
-        <f>SUM(D$45:D49)</f>
-        <v>85</v>
-      </c>
-      <c r="F49" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <f>SUM(G$45:G49)</f>
-        <v>165</v>
-      </c>
-      <c r="I49" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0</v>
-      </c>
-      <c r="K49" s="5">
-        <f>SUM(J$45:J49)</f>
-        <v>257</v>
-      </c>
-      <c r="L49" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="4">
-        <f>M11</f>
-        <v>43</v>
-      </c>
-      <c r="N49" s="5">
-        <f>SUM(M$45:M49)</f>
-        <v>300</v>
-      </c>
-      <c r="O49" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="4">
-        <f>M49-O49</f>
-        <v>43</v>
-      </c>
-      <c r="Q49" s="5">
-        <f>SUM(P$45:P49)</f>
-        <v>300</v>
-      </c>
-      <c r="R49" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="4">
-        <f>P49-R49</f>
-        <v>43</v>
-      </c>
-      <c r="T49" s="5">
-        <f>SUM(S$45:S49)</f>
-        <v>300</v>
-      </c>
-      <c r="U49" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V49" s="4">
-        <f>S49-U49</f>
-        <v>43</v>
-      </c>
-      <c r="AD49" s="5"/>
-    </row>
-    <row r="50" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B50" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD50" s="5"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B51" s="14"/>
-      <c r="AD51" s="5"/>
-    </row>
-    <row r="52" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="4">
-        <f>Z6</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="4">
-        <f>Z7</f>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4">
+        <v>0</v>
+      </c>
+      <c r="S50" s="4">
+        <f>AC7</f>
         <v>0.01</v>
       </c>
-      <c r="J52" s="4">
-        <f>Z8</f>
+      <c r="V50" s="4">
+        <f>AC8</f>
         <v>0.05</v>
       </c>
-      <c r="M52" s="4">
-        <f>Z9</f>
+      <c r="Y50" s="4">
+        <f>AC9</f>
         <v>0.12</v>
       </c>
-      <c r="P52" s="4">
-        <f>Z10</f>
-        <v>0.2</v>
-      </c>
-      <c r="S52" s="4">
-        <f>Z11</f>
-        <v>0.36</v>
-      </c>
-      <c r="V52" s="4">
-        <f>Z12</f>
-        <v>0.6</v>
-      </c>
-      <c r="AD52" s="5"/>
-    </row>
-    <row r="53" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
-      <c r="B53" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="4">
-        <v>0</v>
+      <c r="AG50" s="5"/>
+    </row>
+    <row r="51" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E51" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG51" s="5"/>
+    </row>
+    <row r="52" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="E52" s="14"/>
+      <c r="AG52" s="5"/>
+    </row>
+    <row r="53" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E53" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G53" s="4">
+        <f>G41*G47</f>
         <v>0</v>
       </c>
       <c r="J53" s="4">
-        <f>Z7</f>
-        <v>0.01</v>
+        <f>J41*J47</f>
+        <v>0.85</v>
       </c>
       <c r="M53" s="4">
-        <f>Z8</f>
-        <v>0.05</v>
+        <f>J53+M41*M47</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P53" s="4">
-        <f>Z9</f>
-        <v>0.12</v>
+        <f>M53+P41*P47</f>
+        <v>15.299999999999999</v>
       </c>
       <c r="S53" s="4">
-        <f>Z10</f>
-        <v>0.2</v>
+        <f>P53+S41*S47</f>
+        <v>32.299999999999997</v>
       </c>
       <c r="V53" s="4">
-        <f>Z11</f>
-        <v>0.36</v>
-      </c>
-      <c r="AD53" s="5"/>
-    </row>
-    <row r="54" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-      <c r="B54" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="4">
-        <v>0</v>
-      </c>
-      <c r="G54" s="4">
-        <v>0</v>
+        <f>V41*V47</f>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="Y53" s="4">
+        <f>Y41*Y47</f>
+        <v>51</v>
+      </c>
+      <c r="AG53" s="5"/>
+    </row>
+    <row r="54" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="D54" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="J54" s="4">
+        <f>J42*J48</f>
         <v>0</v>
       </c>
       <c r="M54" s="4">
-        <f>Z7</f>
-        <v>0.01</v>
+        <f t="shared" ref="M54:M55" si="7">J54+M42*M48</f>
+        <v>0.8</v>
       </c>
       <c r="P54" s="4">
-        <f>Z8</f>
-        <v>0.05</v>
+        <f t="shared" ref="P54:P55" si="8">M54+P42*P48</f>
+        <v>4.8</v>
       </c>
       <c r="S54" s="4">
-        <f>Z9</f>
-        <v>0.12</v>
+        <f t="shared" ref="S54" si="9">P54+S42*S48</f>
+        <v>14.399999999999999</v>
       </c>
       <c r="V54" s="4">
-        <f>Z10</f>
-        <v>0.2</v>
-      </c>
-      <c r="AD54" s="5"/>
-    </row>
-    <row r="55" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
-      <c r="B55" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
-        <v>0</v>
+        <f>V42*V48</f>
+        <v>16</v>
+      </c>
+      <c r="Y54" s="4">
+        <f>Y42*Y48</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="AG54" s="5"/>
+    </row>
+    <row r="55" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="D55" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="M55" s="4">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P55" s="4">
-        <f>Z7</f>
-        <v>0.01</v>
-      </c>
-      <c r="S55" s="4">
-        <f>Z8</f>
-        <v>0.05</v>
-      </c>
-      <c r="V55" s="4">
-        <f>Z9</f>
-        <v>0.12</v>
-      </c>
-      <c r="AD55" s="5"/>
-    </row>
-    <row r="56" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B56" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD56" s="5"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B57" s="14"/>
-      <c r="AD57" s="5"/>
-    </row>
-    <row r="58" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="4">
-        <f>D46*D52</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="4">
-        <f>G46*G52</f>
-        <v>0.85</v>
-      </c>
-      <c r="J58" s="4">
-        <f>G58+J46*J52</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M58" s="4">
-        <f>J58+M46*M52</f>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="P58" s="4">
-        <f>M58+P46*P52</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="S58" s="4">
-        <f>S46*S52</f>
-        <v>30.599999999999998</v>
-      </c>
-      <c r="V58" s="4">
-        <f>V46*V52</f>
-        <v>51</v>
-      </c>
-      <c r="AD58" s="5"/>
-    </row>
-    <row r="59" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G59" s="4">
-        <f>G47*G53</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
-        <f t="shared" ref="J59:J60" si="7">G59+J47*J53</f>
-        <v>0.8</v>
-      </c>
-      <c r="M59" s="4">
-        <f t="shared" ref="M59:M60" si="8">J59+M47*M53</f>
-        <v>4.8</v>
-      </c>
-      <c r="P59" s="4">
-        <f t="shared" ref="P59" si="9">M59+P47*P53</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="S59" s="4">
-        <f>S47*S53</f>
-        <v>16</v>
-      </c>
-      <c r="V59" s="4">
-        <f>V47*V53</f>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="AD59" s="5"/>
-    </row>
-    <row r="60" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="J60" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="4">
         <f t="shared" si="8"/>
         <v>0.92</v>
       </c>
+      <c r="S55" s="4">
+        <f>P55+S43*S49</f>
+        <v>5.5200000000000005</v>
+      </c>
+      <c r="V55" s="4">
+        <f>V43*V49</f>
+        <v>11.04</v>
+      </c>
+      <c r="Y55" s="4">
+        <f>Y43*Y49</f>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AG55" s="5"/>
+    </row>
+    <row r="56" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="D56" s="28"/>
+      <c r="E56" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="M56" s="4">
+        <f>J56+M44*M50</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="4">
+        <f>M56+P44*P50</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="4">
+        <f>P56+S44*S50</f>
+        <v>0.43</v>
+      </c>
+      <c r="V56" s="4">
+        <f>V44*V50</f>
+        <v>2.15</v>
+      </c>
+      <c r="Y56" s="4">
+        <f>Y44*Y50</f>
+        <v>5.16</v>
+      </c>
+      <c r="AG56" s="5"/>
+    </row>
+    <row r="57" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="D57" s="28"/>
+      <c r="E57" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG57" s="5"/>
+    </row>
+    <row r="58" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D58" s="28"/>
+      <c r="E58" s="14"/>
+      <c r="AG58" s="5"/>
+    </row>
+    <row r="59" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E59" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D67)*MAX(G77-$G$19*G41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D67)*MAX(J77-$F$19*J41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P59" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D67)*MAX(M77-$F$19*M41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D67)*MAX(P77-$F$19*P41,0)</f>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="V59" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D67)*MAX(S77-$F$19*S41,0)</f>
+        <v>19.549999999999997</v>
+      </c>
+      <c r="Y59" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D67)*MAX(V77-$F$19*V41,0)</f>
+        <v>50.149999999999991</v>
+      </c>
+      <c r="AG59" s="5"/>
+    </row>
+    <row r="60" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E60" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D68)*MAX(G78-$F$19*G42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D68)*MAX(J78-$F$19*J42,0)</f>
+        <v>0</v>
+      </c>
       <c r="P60" s="4">
-        <f>M60+P48*P54</f>
+        <f>INT(O$4-$AE$6 &gt; $D68)*MAX(M78-$F$19*M42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S60" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D68)*MAX(P78-$F$19*P42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V60" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D68)*MAX(S78-$F$19*S42,0)</f>
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="Y60" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D68)*MAX(V78-$F$19*V42,0)</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AG60" s="5"/>
+    </row>
+    <row r="61" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="D61" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D69)*MAX(G79-$F$19*G43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D69)*MAX(J79-$F$19*J43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D69)*MAX(M79-$F$19*M43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S61" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D69)*MAX(P79-$F$19*P43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V61" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D69)*MAX(S79-$F$19*S43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D69)*MAX(V79-$F$19*V43,0)</f>
+        <v>2.76</v>
+      </c>
+      <c r="AG61" s="5"/>
+    </row>
+    <row r="62" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="D62" s="28"/>
+      <c r="E62" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D70)*MAX(G80-$F$19*G44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
+        <f>SUM(M58:M61)</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D70)*MAX(M80-$F$19*M44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S62" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D70)*MAX(P80-$F$19*P44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V62" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D70)*MAX(S80-$F$19*S44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D70)*MAX(V80-$F$19*V44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="5"/>
+    </row>
+    <row r="63" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="D63" s="28"/>
+      <c r="E63" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <f>SUM(J59:J62)</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <f>SUM(M59:M62)</f>
+        <v>0</v>
+      </c>
+      <c r="P63" s="4">
+        <f>SUM(P59:P62)</f>
+        <v>0</v>
+      </c>
+      <c r="S63" s="4">
+        <f>SUM(S59:S62)</f>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="V63" s="4">
+        <f>SUM(V59:V62)</f>
+        <v>21.949999999999996</v>
+      </c>
+      <c r="Y63" s="4">
+        <f>SUM(Y59:Y62)</f>
+        <v>71.309999999999988</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG63" s="5"/>
+    </row>
+    <row r="64" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D64" s="28"/>
+      <c r="E64" s="14"/>
+      <c r="AB64" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG64" s="5"/>
+    </row>
+    <row r="65" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E65" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+      <c r="L65" s="4">
+        <v>0</v>
+      </c>
+      <c r="O65" s="4">
+        <v>0</v>
+      </c>
+      <c r="R65" s="4">
+        <v>0</v>
+      </c>
+      <c r="U65" s="4">
+        <v>0</v>
+      </c>
+      <c r="X65" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG65" s="5"/>
+    </row>
+    <row r="66" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E66" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F66" s="4">
+        <f>SUM(G$59:G59)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <f>IF(F66&gt;=F$113, IF(F65&lt;F$113, F$113-F65, 0),G59)</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="4">
+        <f>SUM(J$59:J59)</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <f>IF(I66&gt;=I$113, IF(I65&lt;I$113, I$113-I65, 0),J59)</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="4">
+        <f>SUM(M$59:M59)</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="4">
+        <f>IF(L66&gt;=L$113, IF(L65&lt;L$113, L$113-L65, 0),M59)</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="4">
+        <f>SUM(P$59:P59)</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <f>IF(O66&gt;=O$113, IF(O65&lt;O$113, O$113-O65, 0),P59)</f>
+        <v>0</v>
+      </c>
+      <c r="R66" s="4">
+        <f>SUM(S$59:S59)</f>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="S66" s="4">
+        <f>IF(R66&gt;=R$113, IF(R65&lt;R$113, R$113-R65, 0),S59)</f>
+        <v>0</v>
+      </c>
+      <c r="U66" s="4">
+        <f>SUM(V$59:V59)</f>
+        <v>19.549999999999997</v>
+      </c>
+      <c r="V66" s="4">
+        <f>IF(U66&gt;=U$113, IF(U65&lt;U$113, U$113-U65, 0),V59)</f>
+        <v>0</v>
+      </c>
+      <c r="X66" s="4">
+        <f>SUM(Y$59:Y59)</f>
+        <v>50.149999999999991</v>
+      </c>
+      <c r="Y66" s="4">
+        <f>IF(X66&gt;=X$113, IF(X65&lt;X$113, X$113-X65, 0),Y59)</f>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="5"/>
+    </row>
+    <row r="67" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="D67" s="22">
+        <v>0</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" s="4">
+        <f>SUM(G$59:G60)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <f>IF(F67&gt;=F$113, IF(F66&lt;F$113, F$113-F66, 0),G60)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
+        <f>SUM(J$59:J60)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <f>IF(I67&gt;=I$113, IF(I66&lt;I$113, I$113-I66, 0),J60)</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="4">
+        <f>SUM(M$59:M60)</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="4">
+        <f>IF(L67&gt;=L$113, IF(L66&lt;L$113, L$113-L66, 0),M60)</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="4">
+        <f>SUM(P$59:P60)</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <f>IF(O67&gt;=O$113, IF(O66&lt;O$113, O$113-O66, 0),P60)</f>
+        <v>0</v>
+      </c>
+      <c r="R67" s="4">
+        <f>SUM(S$59:S60)</f>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="S67" s="4">
+        <f>IF(R67&gt;=R$113, IF(R66&lt;R$113, R$113-R66, 0),S60)</f>
+        <v>0</v>
+      </c>
+      <c r="U67" s="4">
+        <f>SUM(V$59:V60)</f>
+        <v>21.949999999999996</v>
+      </c>
+      <c r="V67" s="4">
+        <f>IF(U67&gt;=U$113, IF(U66&lt;U$113, U$113-U66, 0),V60)</f>
+        <v>0</v>
+      </c>
+      <c r="X67" s="4">
+        <f>SUM(Y$59:Y60)</f>
+        <v>68.549999999999983</v>
+      </c>
+      <c r="Y67" s="4">
+        <f>IF(X67&gt;=X$113, IF(X66&lt;X$113, X$113-X66, 0),Y60)</f>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="5"/>
+    </row>
+    <row r="68" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="D68" s="22">
+        <v>1</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F68" s="4">
+        <f>SUM(G$59:G61)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <f>IF(F68&gt;=F$113, IF(F67&lt;F$113, F$113-F67, 0),G61)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="4">
+        <f>SUM(J$59:J61)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
+        <f>IF(I68&gt;=I$113, IF(I67&lt;I$113, I$113-I67, 0),J61)</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="4">
+        <f>SUM(M$59:M61)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="4">
+        <f>IF(L68&gt;=L$113, IF(L67&lt;L$113, L$113-L67, 0),M61)</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="4">
+        <f>SUM(P$59:P61)</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="4">
+        <f>IF(O68&gt;=O$113, IF(O67&lt;O$113, O$113-O67, 0),P61)</f>
+        <v>0</v>
+      </c>
+      <c r="R68" s="4">
+        <f>SUM(S$59:S61)</f>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="S68" s="4">
+        <f>IF(R68&gt;=R$113, IF(R67&lt;R$113, R$113-R67, 0),S61)</f>
+        <v>0</v>
+      </c>
+      <c r="U68" s="4">
+        <f>SUM(V$59:V61)</f>
+        <v>21.949999999999996</v>
+      </c>
+      <c r="V68" s="4">
+        <f>IF(U68&gt;=U$113, IF(U67&lt;U$113, U$113-U67, 0),V61)</f>
+        <v>0</v>
+      </c>
+      <c r="X68" s="4">
+        <f>SUM(Y$59:Y61)</f>
+        <v>71.309999999999988</v>
+      </c>
+      <c r="Y68" s="4">
+        <f>IF(X68&gt;=X$113, IF(X67&lt;X$113, X$113-X67, 0),Y61)</f>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="5"/>
+    </row>
+    <row r="69" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="D69" s="22">
+        <v>2</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" s="4">
+        <f>SUM(G$59:G62)</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <f>IF(F69&gt;=F$113, IF(F68&lt;F$113, F$113-F68, 0),G62)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <f>SUM(J$59:J62)</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <f>IF(I69&gt;=I$113, IF(I68&lt;I$113, I$113-I68, 0),J62)</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="4">
+        <f>SUM(M$59:M62)</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="4">
+        <f>IF(L69&gt;=L$113, IF(L68&lt;L$113, L$113-L68, 0),M62)</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="4">
+        <f>SUM(P$59:P62)</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <f>IF(O69&gt;=O$113, IF(O68&lt;O$113, O$113-O68, 0),P62)</f>
+        <v>0</v>
+      </c>
+      <c r="R69" s="4">
+        <f>SUM(S$59:S62)</f>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="S69" s="4">
+        <f>IF(R69&gt;=R$113, IF(R68&lt;R$113, R$113-R68, 0),S62)</f>
+        <v>0</v>
+      </c>
+      <c r="U69" s="4">
+        <f>SUM(V$59:V62)</f>
+        <v>21.949999999999996</v>
+      </c>
+      <c r="V69" s="4">
+        <f>IF(U69&gt;=U$113, IF(U68&lt;U$113, U$113-U68, 0),V62)</f>
+        <v>0</v>
+      </c>
+      <c r="X69" s="4">
+        <f>SUM(Y$59:Y62)</f>
+        <v>71.309999999999988</v>
+      </c>
+      <c r="Y69" s="4">
+        <f>IF(X69&gt;=X$113, IF(X68&lt;X$113, X$113-X68, 0),Y62)</f>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="5"/>
+    </row>
+    <row r="70" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D70" s="22">
+        <v>3</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="AG70" s="5"/>
+    </row>
+    <row r="71" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="E71" s="14"/>
+      <c r="I71" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="U71" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="X71" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG71" s="5"/>
+    </row>
+    <row r="72" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E72" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G72" s="4">
+        <f>G47</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <f>IF(G77=0,1,MIN(MAX((G77/G53-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J72" s="4">
+        <f>J47*I72</f>
+        <v>0.01</v>
+      </c>
+      <c r="L72" s="4">
+        <f>IF(J77=0,1,MIN(MAX((J77/J53-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M72" s="4">
+        <f>M47*L72</f>
+        <v>0.05</v>
+      </c>
+      <c r="O72" s="4">
+        <f>IF(M77=0,1,MIN(MAX((M77/M53-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P72" s="4">
+        <f>P47*O72</f>
+        <v>0.12</v>
+      </c>
+      <c r="R72" s="4">
+        <f>IF(P77=0,1,MIN(MAX((P77/P53-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S72" s="4">
+        <f>S47*R72</f>
+        <v>0.2</v>
+      </c>
+      <c r="U72" s="4">
+        <f>IF(S77=0,1,MIN(MAX((S77/S53-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V72" s="4">
+        <f>V47*U72</f>
+        <v>0.36</v>
+      </c>
+      <c r="X72" s="4">
+        <f>IF(V77=0,1,MIN(MAX((V77/V53-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y72" s="4">
+        <f>Y47*X72</f>
+        <v>0.6</v>
+      </c>
+      <c r="AG72" s="5"/>
+    </row>
+    <row r="73" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E73" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G73" s="4">
+        <f>G48</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
+        <f>IF(G78=0,1,MIN(MAX((G78/G54-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J73" s="4">
+        <f>J48</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="4">
+        <f>IF(J78=0,1,MIN(MAX((J78/J54-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M73" s="4">
+        <f>M48</f>
+        <v>0.01</v>
+      </c>
+      <c r="O73" s="4">
+        <f>IF(M78=0,1,MIN(MAX((M78/M54-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P73" s="4">
+        <f>P48</f>
+        <v>0.05</v>
+      </c>
+      <c r="R73" s="4">
+        <f>IF(P78=0,1,MIN(MAX((P78/P54-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S73" s="4">
+        <f>S48</f>
+        <v>0.12</v>
+      </c>
+      <c r="U73" s="4">
+        <f>IF(S78=0,1,MIN(MAX((S78/S54-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V73" s="4">
+        <f>V48</f>
+        <v>0.2</v>
+      </c>
+      <c r="X73" s="4">
+        <f>IF(V78=0,1,MIN(MAX((V78/V54-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y73" s="4">
+        <f>Y48</f>
+        <v>0.36</v>
+      </c>
+      <c r="AG73" s="5"/>
+    </row>
+    <row r="74" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E74" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G74" s="4">
+        <f>G49</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
+        <f>IF(G79=0,1,MIN(MAX((G79/G55-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J74" s="4">
+        <f>J49</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="4">
+        <f>IF(J79=0,1,MIN(MAX((J79/J55-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M74" s="4">
+        <f>M49</f>
+        <v>0</v>
+      </c>
+      <c r="O74" s="4">
+        <f>IF(M79=0,1,MIN(MAX((M79/M55-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P74" s="4">
+        <f>P49</f>
+        <v>0.01</v>
+      </c>
+      <c r="R74" s="4">
+        <f>IF(P79=0,1,MIN(MAX((P79/P55-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S74" s="4">
+        <f>S49</f>
+        <v>0.05</v>
+      </c>
+      <c r="U74" s="4">
+        <f>IF(S79=0,1,MIN(MAX((S79/S55-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V74" s="4">
+        <f>V49</f>
+        <v>0.12</v>
+      </c>
+      <c r="X74" s="4">
+        <f>IF(V79=0,1,MIN(MAX((V79/V55-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y74" s="4">
+        <f>Y49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AG74" s="5"/>
+    </row>
+    <row r="75" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E75" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G75" s="4">
+        <f>G50</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
+        <f>IF(G80=0,1,MIN(MAX((G80/G56-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J75" s="4">
+        <f>J50</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="4">
+        <f>IF(J80=0,1,MIN(MAX((J80/J56-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M75" s="4">
+        <f>M50</f>
+        <v>0</v>
+      </c>
+      <c r="O75" s="4">
+        <f>IF(M80=0,1,MIN(MAX((M80/M56-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P75" s="4">
+        <f>P50</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="4">
+        <f>IF(P80=0,1,MIN(MAX((P80/P56-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S75" s="4">
+        <f>S50</f>
+        <v>0.01</v>
+      </c>
+      <c r="U75" s="4">
+        <f>IF(S80=0,1,MIN(MAX((S80/S56-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V75" s="4">
+        <f>V50</f>
+        <v>0.05</v>
+      </c>
+      <c r="X75" s="4">
+        <f>IF(V80=0,1,MIN(MAX((V80/V56-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y75" s="4">
+        <f>Y50</f>
+        <v>0.12</v>
+      </c>
+      <c r="AG75" s="5"/>
+    </row>
+    <row r="76" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="E76" s="14"/>
+      <c r="AG76" s="5"/>
+    </row>
+    <row r="77" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E77" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G77" s="4">
+        <f>G47*G41</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="4">
+        <f>G77+J41*J72</f>
+        <v>0.85</v>
+      </c>
+      <c r="M77" s="4">
+        <f>J77+M41*M72</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P77" s="4">
+        <f>M77+P41*P72</f>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="S77" s="4">
+        <f>P77+S41*S72</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="V77" s="4">
+        <f>S77+V41*V72</f>
+        <v>62.899999999999991</v>
+      </c>
+      <c r="Y77" s="4">
+        <f>V77+Y41*Y72</f>
+        <v>113.89999999999999</v>
+      </c>
+      <c r="AG77" s="5"/>
+    </row>
+    <row r="78" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E78" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G78" s="4">
+        <f>G48*G42</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="4">
+        <f>G78+J42*J73</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="4">
+        <f>J78+M42*M73</f>
+        <v>0.8</v>
+      </c>
+      <c r="P78" s="4">
+        <f>M78+P42*P73</f>
+        <v>4.8</v>
+      </c>
+      <c r="S78" s="4">
+        <f>P78+S42*S73</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="V78" s="4">
+        <f>S78+V42*V73</f>
+        <v>30.4</v>
+      </c>
+      <c r="Y78" s="4">
+        <f>V78+Y42*Y73</f>
+        <v>59.199999999999996</v>
+      </c>
+      <c r="AG78" s="5"/>
+    </row>
+    <row r="79" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E79" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G79" s="4">
+        <f>G49*G43</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="4">
+        <f>G79+J43*J74</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="4">
+        <f>J79+M43*M74</f>
+        <v>0</v>
+      </c>
+      <c r="P79" s="4">
+        <f>M79+P43*P74</f>
+        <v>0.92</v>
+      </c>
+      <c r="S79" s="4">
+        <f>P79+S43*S74</f>
         <v>5.5200000000000005</v>
       </c>
-      <c r="S60" s="4">
-        <f>S48*S54</f>
-        <v>11.04</v>
-      </c>
-      <c r="V60" s="4">
-        <f>V48*V54</f>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD60" s="5"/>
-    </row>
-    <row r="61" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="14" t="s">
+      <c r="V79" s="4">
+        <f>S79+V43*V74</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="Y79" s="4">
+        <f>V79+Y43*Y74</f>
+        <v>34.96</v>
+      </c>
+      <c r="AG79" s="5"/>
+    </row>
+    <row r="80" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="D80" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G80" s="4">
+        <f>G50*G44</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="4">
+        <f>G80+J44*J75</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="4">
+        <f>J80+M44*M75</f>
+        <v>0</v>
+      </c>
+      <c r="P80" s="4">
+        <f>M80+P44*P75</f>
+        <v>0</v>
+      </c>
+      <c r="S80" s="4">
+        <f>P80+S44*S75</f>
+        <v>0.43</v>
+      </c>
+      <c r="V80" s="4">
+        <f>S80+V44*V75</f>
+        <v>2.58</v>
+      </c>
+      <c r="Y80" s="4">
+        <f>V80+Y44*Y75</f>
+        <v>7.74</v>
+      </c>
+      <c r="AG80" s="5"/>
+    </row>
+    <row r="81" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D81" s="28"/>
+      <c r="E81" s="14"/>
+      <c r="AG81" s="5"/>
+    </row>
+    <row r="82" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="D82" s="28"/>
+      <c r="E82" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J61" s="4">
-        <f>G61+J49*J55</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="4">
-        <f>J61+M49*M55</f>
-        <v>0</v>
-      </c>
-      <c r="P61" s="4">
-        <f>M61+P49*P55</f>
-        <v>0.43</v>
-      </c>
-      <c r="S61" s="4">
-        <f>S49*S55</f>
-        <v>2.15</v>
-      </c>
-      <c r="V61" s="4">
-        <f>V49*V55</f>
-        <v>5.16</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD61" s="5"/>
-    </row>
-    <row r="62" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B62" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y62" t="s">
+      <c r="G82" s="8"/>
+      <c r="AG82" s="5"/>
+    </row>
+    <row r="83" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="D83" s="28"/>
+      <c r="E83" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="AD62" s="5"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B63" s="14"/>
-      <c r="Y63" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD63" s="5"/>
-    </row>
-    <row r="64" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="22">
-        <v>0</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D64" s="4">
-        <f>D31</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="4">
-        <f>INT(F$4-$AB$6 &gt; $A64)*MAX(D74-$C$20*D46,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="4">
-        <f>INT(I$4-$AB$6 &gt; $A64)*MAX(G74-$C$20*G46,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="4">
-        <f>INT(L$4-$AB$6 &gt; $A64)*MAX(J74-$C$20*J46,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P64" s="4">
-        <f>INT(O$4-$AB$6 &gt; $A64)*MAX(M74-$C$20*M46,0)</f>
-        <v>2.5499999999999989</v>
-      </c>
-      <c r="S64" s="4">
-        <f>INT(R$4-$AB$6 &gt; $A64)*MAX(P74-$C$20*P46,0)</f>
-        <v>19.549999999999997</v>
-      </c>
-      <c r="V64" s="4">
-        <f>INT(U$4-$AB$6 &gt; $A64)*MAX(S74-$C$20*S46,0)</f>
-        <v>50.149999999999991</v>
-      </c>
-      <c r="AD64" s="5"/>
-    </row>
-    <row r="65" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="22">
+      <c r="F83" s="4">
+        <f>$F$26</f>
+        <v>0.3</v>
+      </c>
+      <c r="G83" s="4">
+        <f>$G$26</f>
+        <v>0.92</v>
+      </c>
+      <c r="I83" s="4">
+        <f>$F$26</f>
+        <v>0.3</v>
+      </c>
+      <c r="J83" s="4">
+        <f>$G$26</f>
+        <v>0.92</v>
+      </c>
+      <c r="L83" s="4">
+        <f>$F$26</f>
+        <v>0.3</v>
+      </c>
+      <c r="M83" s="4">
+        <f>$G$26</f>
+        <v>0.92</v>
+      </c>
+      <c r="O83" s="4">
+        <f>$F$26</f>
+        <v>0.3</v>
+      </c>
+      <c r="P83" s="4">
+        <f>$G$26</f>
+        <v>0.92</v>
+      </c>
+      <c r="R83" s="4">
+        <f>$F$26</f>
+        <v>0.3</v>
+      </c>
+      <c r="S83" s="4">
+        <f>$G$26</f>
+        <v>0.92</v>
+      </c>
+      <c r="U83" s="4">
+        <f>$F$26</f>
+        <v>0.3</v>
+      </c>
+      <c r="V83" s="4">
+        <f>$G$26</f>
+        <v>0.92</v>
+      </c>
+      <c r="X83" s="4">
+        <f>$F$26</f>
+        <v>0.3</v>
+      </c>
+      <c r="Y83" s="4">
+        <f>$G$26</f>
+        <v>0.92</v>
+      </c>
+      <c r="AG83" s="5"/>
+    </row>
+    <row r="84" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="E84" s="14"/>
+      <c r="AG84" s="5"/>
+    </row>
+    <row r="85" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E85" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" s="4">
+        <f>F13*$F$18</f>
+        <v>1492500</v>
+      </c>
+      <c r="G85" s="4">
+        <f>G13*$G$18</f>
+        <v>24990000</v>
+      </c>
+      <c r="I85" s="4">
+        <f>(I8-I9)*$F$18</f>
+        <v>1483200</v>
+      </c>
+      <c r="J85" s="4">
+        <f>(J8-J9)*$G$18</f>
+        <v>24987500</v>
+      </c>
+      <c r="L85" s="4">
+        <f>(L8-L9)*$F$18</f>
+        <v>1474500</v>
+      </c>
+      <c r="M85" s="4">
+        <f>(M8-M9)*$G$18</f>
+        <v>24986100</v>
+      </c>
+      <c r="O85" s="4">
+        <f>(O8-O9)*$F$18</f>
+        <v>1464000</v>
+      </c>
+      <c r="P85" s="4">
+        <f>(P8-P9)*$G$18</f>
+        <v>24976100</v>
+      </c>
+      <c r="R85" s="4">
+        <f>(R8-R9)*$F$18</f>
+        <v>1449000</v>
+      </c>
+      <c r="S85" s="4">
+        <f>(S8-S9)*$G$18</f>
+        <v>24976500</v>
+      </c>
+      <c r="U85" s="4">
+        <f>(U8-U9)*$F$18</f>
+        <v>1434300</v>
+      </c>
+      <c r="V85" s="4">
+        <f>(V8-V9)*$G$18</f>
+        <v>24975200</v>
+      </c>
+      <c r="X85" s="4">
+        <f>(X8-X9)*$F$18</f>
+        <v>1419600</v>
+      </c>
+      <c r="Y85" s="4">
+        <f>(Y8-Y9)*$G$18</f>
+        <v>24969000</v>
+      </c>
+      <c r="AG85" s="5"/>
+    </row>
+    <row r="86" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E86" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG86" s="5"/>
+    </row>
+    <row r="87" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="E87" s="14"/>
+      <c r="AG87" s="5"/>
+    </row>
+    <row r="88" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E88" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F88" s="4">
         <v>1</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D65" s="4">
-        <f>D32</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="4">
-        <f>INT(F$4-$AB$6 &gt; $A65)*MAX(D75-$C$20*D47,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="4">
-        <f>INT(I$4-$AB$6 &gt; $A65)*MAX(G75-$C$20*G47,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="4">
-        <f>INT(L$4-$AB$6 &gt; $A65)*MAX(J75-$C$20*J47,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P65" s="4">
-        <f>INT(O$4-$AB$6 &gt; $A65)*MAX(M75-$C$20*M47,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S65" s="4">
-        <f>INT(R$4-$AB$6 &gt; $A65)*MAX(P75-$C$20*P47,0)</f>
-        <v>2.3999999999999986</v>
-      </c>
-      <c r="V65" s="4">
-        <f>INT(U$4-$AB$6 &gt; $A65)*MAX(S75-$C$20*S47,0)</f>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AD65" s="5"/>
-    </row>
-    <row r="66" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="22">
-        <v>2</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D66" s="4">
-        <f>D33</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="4">
-        <f>INT(F$4-$AB$6 &gt; $A66)*MAX(D76-$C$20*D48,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="4">
-        <f>INT(I$4-$AB$6 &gt; $A66)*MAX(G76-$C$20*G48,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M66" s="4">
-        <f>INT(L$4-$AB$6 &gt; $A66)*MAX(J76-$C$20*J48,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P66" s="4">
-        <f>INT(O$4-$AB$6 &gt; $A66)*MAX(M76-$C$20*M48,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S66" s="4">
-        <f>INT(R$4-$AB$6 &gt; $A66)*MAX(P76-$C$20*P48,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V66" s="4">
-        <f>INT(U$4-$AB$6 &gt; $A66)*MAX(S76-$C$20*S48,0)</f>
-        <v>2.76</v>
-      </c>
-      <c r="AD66" s="5"/>
-    </row>
-    <row r="67" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="22">
-        <v>3</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D67" s="4">
-        <f>D34</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="4">
-        <f>INT(F$4-$AB$6 &gt; $A67)*MAX(D77-$C$20*D49,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="4">
-        <f>INT(I$4-$AB$6 &gt; $A67)*MAX(G77-$C$20*G49,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M67" s="4">
-        <f>INT(L$4-$AB$6 &gt; $A67)*MAX(J77-$C$20*J49,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P67" s="4">
-        <f>INT(O$4-$AB$6 &gt; $A67)*MAX(M77-$C$20*M49,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S67" s="4">
-        <f>INT(R$4-$AB$6 &gt; $A67)*MAX(P77-$C$20*P49,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V67" s="4">
-        <f>INT(U$4-$AB$6 &gt; $A67)*MAX(S77-$C$20*S49,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD67" s="5"/>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B68" s="14"/>
-      <c r="F68" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD68" s="5"/>
-    </row>
-    <row r="69" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" s="4">
-        <f>D52</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
-        <f>IF(D74=0,1,MIN(MAX((D74/D58-$C$14)/($C$16-$C$14), 0), 1))</f>
+      <c r="G88" s="4">
         <v>1</v>
       </c>
-      <c r="G69" s="4">
-        <f>G52*F69</f>
-        <v>0.01</v>
-      </c>
-      <c r="I69" s="4">
-        <f>IF(G74=0,1,MIN(MAX((G74/G58-$C$14)/($C$16-$C$14), 0), 1))</f>
+      <c r="I88" s="4">
+        <f>IF(F91=0,0,MIN(MAX((F91/F85-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="J69" s="4">
-        <f>J52*I69</f>
-        <v>0.05</v>
-      </c>
-      <c r="L69" s="4">
-        <f>IF(J74=0,1,MIN(MAX((J74/J58-$C$14)/($C$16-$C$14), 0), 1))</f>
+      <c r="J88" s="4">
+        <f>IF(G91=0,0,MIN(MAX((G91/G85-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="M69" s="4">
-        <f>M52*L69</f>
-        <v>0.12</v>
-      </c>
-      <c r="O69" s="4">
-        <f>IF(M74=0,1,MIN(MAX((M74/M58-$C$14)/($C$16-$C$14), 0), 1))</f>
+      <c r="L88" s="4">
+        <f>IF(I91=0,0,MIN(MAX((I91/I85-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="P69" s="4">
-        <f>P52*O69</f>
-        <v>0.2</v>
-      </c>
-      <c r="R69" s="4">
-        <f>IF(P74=0,1,MIN(MAX((P74/P58-$C$14)/($C$16-$C$14), 0), 1))</f>
+      <c r="M88" s="4">
+        <f>IF(J91=0,0,MIN(MAX((J91/J85-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="S69" s="4">
-        <f>S52*R69</f>
-        <v>0.36</v>
-      </c>
-      <c r="U69" s="4">
-        <f>IF(S74=0,1,MIN(MAX((S74/S58-$C$14)/($C$16-$C$14), 0), 1))</f>
+      <c r="O88" s="4">
+        <f>IF(L91=0,0,MIN(MAX((L91/L85-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="V69" s="4">
-        <f>V52*U69</f>
-        <v>0.6</v>
-      </c>
-      <c r="AD69" s="5"/>
-    </row>
-    <row r="70" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="28"/>
-      <c r="B70" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D70" s="4">
-        <f t="shared" ref="D70:D72" si="10">D53</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="4">
-        <f t="shared" ref="F70:F72" si="11">IF(D75=0,1,MIN(MAX((D75/D59-$C$14)/($C$16-$C$14), 0), 1))</f>
+      <c r="P88" s="4">
+        <f>IF(M91=0,0,MIN(MAX((M91/M85-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="G70" s="4">
-        <f t="shared" ref="G70:G72" si="12">G53</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="4">
-        <f t="shared" ref="I70:I71" si="13">IF(G75=0,1,MIN(MAX((G75/G59-$C$14)/($C$16-$C$14), 0), 1))</f>
+      <c r="R88" s="4">
+        <f>IF(O91=0,0,MIN(MAX((O91/O85-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="J70" s="4">
-        <f t="shared" ref="J70:J72" si="14">J53</f>
-        <v>0.01</v>
-      </c>
-      <c r="L70" s="4">
-        <f t="shared" ref="L70:L71" si="15">IF(J75=0,1,MIN(MAX((J75/J59-$C$14)/($C$16-$C$14), 0), 1))</f>
+      <c r="S88" s="4">
+        <f>IF(P91=0,0,MIN(MAX((P91/P85-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="M70" s="4">
-        <f t="shared" ref="M70:M72" si="16">M53</f>
-        <v>0.05</v>
-      </c>
-      <c r="O70" s="4">
-        <f t="shared" ref="O70:O71" si="17">IF(M75=0,1,MIN(MAX((M75/M59-$C$14)/($C$16-$C$14), 0), 1))</f>
+      <c r="U88" s="4">
+        <f>IF(R91=0,0,MIN(MAX((R91/R85-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="P70" s="4">
-        <f t="shared" ref="P70:P72" si="18">P53</f>
-        <v>0.12</v>
-      </c>
-      <c r="R70" s="4">
-        <f t="shared" ref="R70:R71" si="19">IF(P75=0,1,MIN(MAX((P75/P59-$C$14)/($C$16-$C$14), 0), 1))</f>
+      <c r="V88" s="4">
+        <f>IF(S91=0,0,MIN(MAX((S91/S85-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="S70" s="4">
-        <f t="shared" ref="S70:S72" si="20">S53</f>
-        <v>0.2</v>
-      </c>
-      <c r="U70" s="4">
-        <f t="shared" ref="U70:U71" si="21">IF(S75=0,1,MIN(MAX((S75/S59-$C$14)/($C$16-$C$14), 0), 1))</f>
+      <c r="X88" s="4">
+        <f>IF(U91=0,0,MIN(MAX((U91/U85-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="V70" s="4">
-        <f t="shared" ref="V70:V72" si="22">V53</f>
-        <v>0.36</v>
-      </c>
-      <c r="AD70" s="5"/>
-    </row>
-    <row r="71" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="B71" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D71" s="4">
-        <f>D54</f>
-        <v>0</v>
-      </c>
-      <c r="F71" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="G71" s="4">
-        <f>G54</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="4">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="J71" s="4">
-        <f>J54</f>
-        <v>0</v>
-      </c>
-      <c r="L71" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="M71" s="4">
-        <f>M54</f>
-        <v>0.01</v>
-      </c>
-      <c r="O71" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="P71" s="4">
-        <f>P54</f>
-        <v>0.05</v>
-      </c>
-      <c r="R71" s="4">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="S71" s="4">
-        <f>S54</f>
-        <v>0.12</v>
-      </c>
-      <c r="U71" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="V71" s="4">
-        <f>V54</f>
-        <v>0.2</v>
-      </c>
-      <c r="AD71" s="5"/>
-    </row>
-    <row r="72" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="28"/>
-      <c r="B72" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D72" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="4">
-        <f>IF(D77=0,1,MIN(MAX((D77/D61-$C$14)/($C$16-$C$14), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="G72" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="4">
-        <f>IF(G77=0,1,MIN(MAX((G77/G61-$C$14)/($C$16-$C$14), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="J72" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="4">
-        <f>IF(J77=0,1,MIN(MAX((J77/J61-$C$14)/($C$16-$C$14), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="M72" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O72" s="4">
-        <f>IF(M77=0,1,MIN(MAX((M77/M61-$C$14)/($C$16-$C$14), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P72" s="4">
-        <f t="shared" si="18"/>
-        <v>0.01</v>
-      </c>
-      <c r="R72" s="4">
-        <f>IF(P77=0,1,MIN(MAX((P77/P61-$C$14)/($C$16-$C$14), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="S72" s="4">
-        <f t="shared" si="20"/>
-        <v>0.05</v>
-      </c>
-      <c r="U72" s="4">
-        <f>IF(S77=0,1,MIN(MAX((S77/S61-$C$14)/($C$16-$C$14), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="V72" s="4">
-        <f t="shared" si="22"/>
-        <v>0.12</v>
-      </c>
-      <c r="AD72" s="5"/>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B73" s="14"/>
-      <c r="AD73" s="5"/>
-    </row>
-    <row r="74" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B74" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D74" s="4">
-        <f>D52*D46</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="4">
-        <f>D74+G46*G69</f>
+      <c r="Y88" s="4">
+        <f>IF(V91=0,0,MIN(MAX((V91/V85-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>0.95265818035259087</v>
+      </c>
+      <c r="AG88" s="5"/>
+    </row>
+    <row r="89" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E89" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F89" s="4">
+        <f>F83</f>
+        <v>0.3</v>
+      </c>
+      <c r="G89" s="4">
+        <f>G83</f>
+        <v>0.92</v>
+      </c>
+      <c r="I89" s="4">
+        <f xml:space="preserve"> I83*I88</f>
+        <v>0.3</v>
+      </c>
+      <c r="J89" s="4">
+        <f>J83*J88</f>
+        <v>0.92</v>
+      </c>
+      <c r="L89" s="4">
+        <f xml:space="preserve"> L83*L88</f>
+        <v>0.3</v>
+      </c>
+      <c r="M89" s="4">
+        <f>M83*M88</f>
+        <v>0.92</v>
+      </c>
+      <c r="O89" s="4">
+        <f xml:space="preserve"> O83*O88</f>
+        <v>0.3</v>
+      </c>
+      <c r="P89" s="4">
+        <f>P83*P88</f>
+        <v>0.92</v>
+      </c>
+      <c r="R89" s="4">
+        <f xml:space="preserve"> R83*R88</f>
+        <v>0.3</v>
+      </c>
+      <c r="S89" s="4">
+        <f>S83*S88</f>
+        <v>0.92</v>
+      </c>
+      <c r="U89" s="4">
+        <f xml:space="preserve"> U83*U88</f>
+        <v>0.3</v>
+      </c>
+      <c r="V89" s="4">
+        <f>V83*V88</f>
+        <v>0.92</v>
+      </c>
+      <c r="X89" s="4">
+        <f xml:space="preserve"> X83*X88</f>
+        <v>0.3</v>
+      </c>
+      <c r="Y89" s="4">
+        <f>Y83*Y88</f>
+        <v>0.87644552592438363</v>
+      </c>
+      <c r="AG89" s="5"/>
+    </row>
+    <row r="90" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="E90" s="14"/>
+      <c r="AG90" s="5"/>
+    </row>
+    <row r="91" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E91" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F91" s="4">
+        <f>F13*F18</f>
+        <v>1492500</v>
+      </c>
+      <c r="G91" s="4">
+        <f>G13*G18</f>
+        <v>24990000</v>
+      </c>
+      <c r="I91" s="4">
+        <f>F91-F114-F102+I89*I13</f>
+        <v>1416339.7269022067</v>
+      </c>
+      <c r="J91" s="4">
+        <f>G91-G114-G102+J89*J13</f>
+        <v>23281433.473097794</v>
+      </c>
+      <c r="L91" s="4">
+        <f>I91-I114-I102+L89*L13</f>
+        <v>1336122.1432664045</v>
+      </c>
+      <c r="M91" s="4">
+        <f>J91-J114-J102+M89*M13</f>
+        <v>21525187.163012162</v>
+      </c>
+      <c r="O91" s="4">
+        <f>L91-L114-L102+O89*O13</f>
+        <v>1269232.4046145945</v>
+      </c>
+      <c r="P91" s="4">
+        <f>M91-M114-M102+P89*P13</f>
+        <v>19698561.729234692</v>
+      </c>
+      <c r="R91" s="4">
+        <f>O91-O114-O102+R89*R13</f>
+        <v>1196486.834842422</v>
+      </c>
+      <c r="S91" s="4">
+        <f>P91-P114-P102+S89*S13</f>
+        <v>17769451.427733306</v>
+      </c>
+      <c r="U91" s="4">
+        <f>R91-R114-R102+U89*U13</f>
+        <v>1130676.5672029681</v>
+      </c>
+      <c r="V91" s="4">
+        <f>S91-S114-S102+V89*V13</f>
+        <v>15942377.523995219</v>
+      </c>
+      <c r="X91" s="4">
+        <f>U91-U114-U102+X89*X13</f>
+        <v>1074653.945428398</v>
+      </c>
+      <c r="Y91" s="4">
+        <f>V91-V114-V102+Y89*Y13</f>
+        <v>13991396.598313769</v>
+      </c>
+      <c r="AG91" s="5"/>
+    </row>
+    <row r="92" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E92" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92" s="4">
+        <f>F91/F13</f>
+        <v>150</v>
+      </c>
+      <c r="G92" s="4">
+        <f>G91/G13</f>
+        <v>100</v>
+      </c>
+      <c r="I92" s="4">
+        <f>I91/I13</f>
+        <v>143.23824098930083</v>
+      </c>
+      <c r="J92" s="4">
+        <f>J91/J13</f>
+        <v>93.204025273621014</v>
+      </c>
+      <c r="L92" s="4">
+        <f>L91/L13</f>
+        <v>135.92290368935957</v>
+      </c>
+      <c r="M92" s="4">
+        <f>M91/M13</f>
+        <v>86.205574630799703</v>
+      </c>
+      <c r="O92" s="4">
+        <f>O91/O13</f>
+        <v>130.04430375149533</v>
+      </c>
+      <c r="P92" s="4">
+        <f>P91/P13</f>
+        <v>78.950885473718628</v>
+      </c>
+      <c r="R92" s="4">
+        <f>R91/R13</f>
+        <v>123.85992079114099</v>
+      </c>
+      <c r="S92" s="4">
+        <f>S91/S13</f>
+        <v>71.230238421154496</v>
+      </c>
+      <c r="U92" s="4">
+        <f>U91/U13</f>
+        <v>118.24686960917884</v>
+      </c>
+      <c r="V92" s="4">
+        <f>V91/V13</f>
+        <v>63.933179034308708</v>
+      </c>
+      <c r="X92" s="4">
+        <f>X91/X13</f>
+        <v>113.55176938169886</v>
+      </c>
+      <c r="Y92" s="4">
+        <f>Y91/Y13</f>
+        <v>56.132862322977552</v>
+      </c>
+      <c r="AG92" s="5"/>
+    </row>
+    <row r="93" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E93" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F93" s="4">
+        <f>MAX(F91-$F$19*F13,0)</f>
+        <v>1491007.5</v>
+      </c>
+      <c r="G93" s="4">
+        <f>MAX(G91-$G$19*G13,0)</f>
+        <v>24965010</v>
+      </c>
+      <c r="I93" s="4">
+        <f>MAX(I91-$F$19*I13,0)</f>
+        <v>1414856.5269022067</v>
+      </c>
+      <c r="J93" s="4">
+        <f>MAX(J91-$G$19*J13,0)</f>
+        <v>23256454.473097794</v>
+      </c>
+      <c r="L93" s="4">
+        <f>MAX(L91-$F$19*L13,0)</f>
+        <v>1334647.6432664045</v>
+      </c>
+      <c r="M93" s="4">
+        <f>MAX(M91-$G$19*M13,0)</f>
+        <v>21500217.56301216</v>
+      </c>
+      <c r="O93" s="4">
+        <f>MAX(O91-$F$19*O13,0)</f>
+        <v>1267768.4046145945</v>
+      </c>
+      <c r="P93" s="4">
+        <f>MAX(P91-$G$19*P13,0)</f>
+        <v>19673611.329234693</v>
+      </c>
+      <c r="R93" s="4">
+        <f>MAX(R91-$F$19*R13,0)</f>
+        <v>1195037.834842422</v>
+      </c>
+      <c r="S93" s="4">
+        <f>MAX(S91-$G$19*S13,0)</f>
+        <v>17744504.927733306</v>
+      </c>
+      <c r="U93" s="4">
+        <f>MAX(U91-$F$19*U13,0)</f>
+        <v>1129242.267202968</v>
+      </c>
+      <c r="V93" s="4">
+        <f>MAX(V91-$G$19*V13,0)</f>
+        <v>15917441.523995219</v>
+      </c>
+      <c r="X93" s="4">
+        <f>MAX(X91-$F$19*X13,0)</f>
+        <v>1073234.3454283979</v>
+      </c>
+      <c r="Y93" s="4">
+        <f>MAX(Y91-$G$19*Y13,0)</f>
+        <v>13966471.098313769</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG93" s="5"/>
+    </row>
+    <row r="94" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="AB94" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG94" s="5"/>
+    </row>
+    <row r="95" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="E95" s="14"/>
+      <c r="AG95" s="5"/>
+    </row>
+    <row r="96" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="E96" s="13"/>
+      <c r="AG96" s="5"/>
+    </row>
+    <row r="97" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="AG97" s="5"/>
+    </row>
+    <row r="98" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E98" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F98" s="4">
+        <f>F92*F7</f>
+        <v>1500000</v>
+      </c>
+      <c r="G98" s="4">
+        <f>G92*G7</f>
+        <v>25000000</v>
+      </c>
+      <c r="I98" s="4">
+        <f>I92*I7</f>
+        <v>1425220.4978435433</v>
+      </c>
+      <c r="J98" s="4">
+        <f>J92*J7</f>
+        <v>23291685.91587789</v>
+      </c>
+      <c r="L98" s="4">
+        <f>L92*L7</f>
+        <v>1344005.6716803873</v>
+      </c>
+      <c r="M98" s="4">
+        <f>M92*M7</f>
+        <v>21533290.487027459</v>
+      </c>
+      <c r="O98" s="4">
+        <f>O92*O7</f>
+        <v>1278335.5058771991</v>
+      </c>
+      <c r="P98" s="4">
+        <f>P92*P7</f>
+        <v>19713720.299245648</v>
+      </c>
+      <c r="R98" s="4">
+        <f>R92*R7</f>
+        <v>1208872.8269215361</v>
+      </c>
+      <c r="S98" s="4">
+        <f>S92*S7</f>
+        <v>17772229.40703173</v>
+      </c>
+      <c r="U98" s="4">
+        <f>U92*U7</f>
+        <v>1142264.7604246677</v>
+      </c>
+      <c r="V98" s="4">
+        <f>V92*V7</f>
+        <v>15949090.507793821</v>
+      </c>
+      <c r="X98" s="4">
+        <f>X92*X7</f>
+        <v>1085782.0188278046</v>
+      </c>
+      <c r="Y98" s="4">
+        <f>Y92*Y7</f>
+        <v>13997290.548857681</v>
+      </c>
+      <c r="AG98" s="5"/>
+    </row>
+    <row r="99" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E99" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G99" s="4">
+        <f>SUM(G77:G80)</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="4">
+        <f>SUM(J77:J80)</f>
         <v>0.85</v>
       </c>
-      <c r="J74" s="4">
-        <f>G74+J46*J69</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M74" s="4">
-        <f>J74+M46*M69</f>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="P74" s="4">
-        <f>M74+P46*P69</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="S74" s="4">
-        <f>P74+S46*S69</f>
-        <v>62.899999999999991</v>
-      </c>
-      <c r="V74" s="4">
-        <f>S74+V46*V69</f>
-        <v>113.89999999999999</v>
-      </c>
-      <c r="AD74" s="5"/>
-    </row>
-    <row r="75" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B75" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" s="4">
-        <f t="shared" ref="D75:D77" si="23">D53*D47</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="4">
-        <f t="shared" ref="G75:G77" si="24">D75+G47*G70</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="4">
-        <f t="shared" ref="J75:J77" si="25">G75+J47*J70</f>
-        <v>0.8</v>
-      </c>
-      <c r="M75" s="4">
-        <f t="shared" ref="M75:M77" si="26">J75+M47*M70</f>
-        <v>4.8</v>
-      </c>
-      <c r="P75" s="4">
-        <f t="shared" ref="P75:P77" si="27">M75+P47*P70</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="S75" s="4">
-        <f t="shared" ref="S75:S77" si="28">P75+S47*S70</f>
-        <v>30.4</v>
-      </c>
-      <c r="V75" s="4">
-        <f t="shared" ref="V75:V77" si="29">S75+V47*V70</f>
-        <v>59.199999999999996</v>
-      </c>
-      <c r="AD75" s="5"/>
-    </row>
-    <row r="76" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B76" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="4">
-        <f t="shared" si="26"/>
-        <v>0.92</v>
-      </c>
-      <c r="P76" s="4">
-        <f t="shared" si="27"/>
-        <v>5.5200000000000005</v>
-      </c>
-      <c r="S76" s="4">
-        <f t="shared" si="28"/>
-        <v>16.559999999999999</v>
-      </c>
-      <c r="V76" s="4">
-        <f t="shared" si="29"/>
-        <v>34.96</v>
-      </c>
-      <c r="AD76" s="5"/>
-    </row>
-    <row r="77" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B77" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="4">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="4">
-        <f t="shared" si="27"/>
-        <v>0.43</v>
-      </c>
-      <c r="S77" s="4">
-        <f t="shared" si="28"/>
-        <v>2.58</v>
-      </c>
-      <c r="V77" s="4">
-        <f t="shared" si="29"/>
-        <v>7.74</v>
-      </c>
-      <c r="AD77" s="5"/>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B78" s="14"/>
-      <c r="AD78" s="5"/>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B79" s="14"/>
-      <c r="AD79" s="5"/>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B80" s="14"/>
-      <c r="AD80" s="5"/>
-    </row>
-    <row r="81" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B81" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="AD81" s="5"/>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B82" s="14"/>
-      <c r="AD82" s="5"/>
-    </row>
-    <row r="83" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B83" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D83" s="4">
-        <f>MAX(D$23-(D$7-D$9), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="4">
-        <f>MAX(G$23-(G$7-G$9), 0)</f>
-        <v>210</v>
-      </c>
-      <c r="J83" s="4">
-        <f>MAX(J$23-(J$7-J$9), 0)</f>
-        <v>304</v>
-      </c>
-      <c r="M83" s="4">
-        <f>MAX(M$23-(M$7-M$9), 0)</f>
-        <v>296</v>
-      </c>
-      <c r="P83" s="4">
-        <f>MAX(P$23-(P$7-P$9), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="S83" s="4">
-        <f>MAX(S$23-(S$7-S$9), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="V83" s="4">
-        <f>MAX(V$23-(V$7-V$9), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD83" s="5"/>
-    </row>
-    <row r="84" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B84" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D84" s="4">
-        <v>0</v>
-      </c>
-      <c r="G84" s="4">
-        <v>0</v>
-      </c>
-      <c r="J84" s="4">
-        <v>0</v>
-      </c>
-      <c r="M84" s="4">
-        <v>0</v>
-      </c>
-      <c r="P84" s="4">
-        <v>0</v>
-      </c>
-      <c r="S84" s="4">
-        <v>0</v>
-      </c>
-      <c r="V84" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD84" s="5"/>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B85" s="14"/>
-      <c r="AD85" s="5"/>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B90" s="14"/>
-      <c r="AD90" s="5"/>
-    </row>
-    <row r="91" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="22">
-        <v>0</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91" s="4">
-        <f>D52</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="4">
-        <f>INT(F$4-$AB$6 &gt; $A91)*G58</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="4">
-        <f>INT(I$4-$AB$6 &gt; $A91)*J58</f>
-        <v>0</v>
-      </c>
-      <c r="M91" s="4">
-        <f>INT(L$4-$AB$6 &gt; $A91)*M58</f>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="P91" s="4">
-        <f>INT(O$4-$AB$6 &gt; $A91)*P58</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="S91" s="4">
-        <f>INT(R$4-$AB$6 &gt; $A91)*S58</f>
-        <v>30.599999999999998</v>
-      </c>
-      <c r="V91" s="4">
-        <f>INT(U$4-$AB$6 &gt; $A91)*V58</f>
-        <v>51</v>
-      </c>
-      <c r="AD91" s="5"/>
-    </row>
-    <row r="92" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="22">
-        <v>1</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D92" s="4">
-        <f>D53</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="4">
-        <f>INT(F$4-$AB$6 &gt; $A92)*G59</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="4">
-        <f>INT(I$4-$AB$6 &gt; $A92)*J59</f>
-        <v>0</v>
-      </c>
-      <c r="M92" s="4">
-        <f>INT(L$4-$AB$6 &gt; $A92)*M59</f>
-        <v>0</v>
-      </c>
-      <c r="P92" s="4">
-        <f>INT(O$4-$AB$6 &gt; $A92)*P59</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="S92" s="4">
-        <f>INT(R$4-$AB$6 &gt; $A92)*S59</f>
-        <v>16</v>
-      </c>
-      <c r="V92" s="4">
-        <f>INT(U$4-$AB$6 &gt; $A92)*V59</f>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="AD92" s="5"/>
-    </row>
-    <row r="93" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="22">
-        <v>2</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D93" s="4">
-        <f>D54</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="4">
-        <f>INT(F$4-$AB$6 &gt; $A93)*G60</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="4">
-        <f>INT(I$4-$AB$6 &gt; $A93)*J60</f>
-        <v>0</v>
-      </c>
-      <c r="M93" s="4">
-        <f>INT(L$4-$AB$6 &gt; $A93)*M60</f>
-        <v>0</v>
-      </c>
-      <c r="P93" s="4">
-        <f>INT(O$4-$AB$6 &gt; $A93)*P60</f>
-        <v>0</v>
-      </c>
-      <c r="S93" s="4">
-        <f>INT(R$4-$AB$6 &gt; $A93)*S60</f>
-        <v>11.04</v>
-      </c>
-      <c r="V93" s="4">
-        <f>INT(U$4-$AB$6 &gt; $A93)*V60</f>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="AD93" s="5"/>
-    </row>
-    <row r="94" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="22">
-        <v>3</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D94" s="4">
-        <f>D55</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="4">
-        <f>INT(F$4-$AB$6 &gt; $A94)*G61</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="4">
-        <f>INT(I$4-$AB$6 &gt; $A94)*J61</f>
-        <v>0</v>
-      </c>
-      <c r="M94" s="4">
-        <f>INT(L$4-$AB$6 &gt; $A94)*M61</f>
-        <v>0</v>
-      </c>
-      <c r="P94" s="4">
-        <f>INT(O$4-$AB$6 &gt; $A94)*P61</f>
-        <v>0</v>
-      </c>
-      <c r="S94" s="4">
-        <f>INT(R$4-$AB$6 &gt; $A94)*S61</f>
-        <v>0</v>
-      </c>
-      <c r="V94" s="4">
-        <f>INT(U$4-$AB$6 &gt; $A94)*V61</f>
-        <v>5.16</v>
-      </c>
-      <c r="AD94" s="5"/>
-    </row>
-    <row r="95" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B95" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD95" s="5"/>
-    </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B96" s="14"/>
-      <c r="AD96" s="5"/>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B97" s="13"/>
-      <c r="AD97" s="5"/>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B98" s="13"/>
-      <c r="AD98" s="5"/>
-    </row>
-    <row r="99" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="R99" s="12"/>
-      <c r="S99" s="12"/>
-      <c r="U99" s="12"/>
-      <c r="V99" s="12"/>
-      <c r="AD99" s="5"/>
-    </row>
-    <row r="100" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B100" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C100" s="4">
-        <f>C19*C7</f>
+      <c r="M99" s="4">
+        <f>SUM(M77:M80)</f>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="P99" s="4">
+        <f>SUM(P77:P80)</f>
+        <v>21.02</v>
+      </c>
+      <c r="S99" s="4">
+        <f>SUM(S77:S80)</f>
+        <v>52.65</v>
+      </c>
+      <c r="V99" s="4">
+        <f>SUM(V77:V80)</f>
+        <v>112.43999999999998</v>
+      </c>
+      <c r="Y99" s="4">
+        <f>SUM(Y77:Y80)</f>
+        <v>215.8</v>
+      </c>
+      <c r="AG99" s="5"/>
+    </row>
+    <row r="100" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E100" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F100" s="4">
+        <f>F98+F99</f>
         <v>1500000</v>
       </c>
-      <c r="D100" s="4">
-        <f>D19*D7</f>
+      <c r="G100" s="4">
+        <f>G98+G99</f>
         <v>25000000</v>
       </c>
-      <c r="W100">
+      <c r="I100" s="4">
+        <f>I98+I99</f>
+        <v>1425220.4978435433</v>
+      </c>
+      <c r="J100" s="4">
+        <f>J98+J99</f>
+        <v>23291686.765877891</v>
+      </c>
+      <c r="L100" s="4">
+        <f>L98+L99</f>
+        <v>1344005.6716803873</v>
+      </c>
+      <c r="M100" s="4">
+        <f>M98+M99</f>
+        <v>21533296.387027457</v>
+      </c>
+      <c r="O100" s="4">
+        <f>O98+O99</f>
+        <v>1278335.5058771991</v>
+      </c>
+      <c r="P100" s="4">
+        <f>P98+P99</f>
+        <v>19713741.319245648</v>
+      </c>
+      <c r="R100" s="4">
+        <f>R98+R99</f>
+        <v>1208872.8269215361</v>
+      </c>
+      <c r="S100" s="4">
+        <f>S98+S99</f>
+        <v>17772282.057031728</v>
+      </c>
+      <c r="U100" s="4">
+        <f>U98+U99</f>
+        <v>1142264.7604246677</v>
+      </c>
+      <c r="V100" s="4">
+        <f>V98+V99</f>
+        <v>15949202.947793821</v>
+      </c>
+      <c r="X100" s="4">
+        <f>X98+X99</f>
+        <v>1085782.0188278046</v>
+      </c>
+      <c r="Y100" s="4">
+        <f>Y98+Y99</f>
+        <v>13997506.348857682</v>
+      </c>
+      <c r="AG100" s="5"/>
+    </row>
+    <row r="101" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="AG101" s="5"/>
+    </row>
+    <row r="102" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E102" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" s="4">
+        <f>F9*F92</f>
+        <v>7500</v>
+      </c>
+      <c r="G102" s="4">
+        <f>G9*G92</f>
+        <v>10000</v>
+      </c>
+      <c r="I102" s="4">
+        <f>I9*I92</f>
+        <v>8880.770941336652</v>
+      </c>
+      <c r="J102" s="4">
+        <f>J9*J92</f>
+        <v>10252.442780098312</v>
+      </c>
+      <c r="L102" s="4">
+        <f>L9*L92</f>
+        <v>7883.5284139828555</v>
+      </c>
+      <c r="M102" s="4">
+        <f>M9*M92</f>
+        <v>8103.3240152951721</v>
+      </c>
+      <c r="O102" s="4">
+        <f>O9*O92</f>
+        <v>9103.101262604674</v>
+      </c>
+      <c r="P102" s="4">
+        <f>P9*P92</f>
+        <v>15158.570010953976</v>
+      </c>
+      <c r="R102" s="4">
+        <f>R9*R92</f>
+        <v>12385.992079114099</v>
+      </c>
+      <c r="S102" s="4">
+        <f>S9*S92</f>
+        <v>2777.9792984250253</v>
+      </c>
+      <c r="U102" s="4">
+        <f>U9*U92</f>
+        <v>11588.193221699526</v>
+      </c>
+      <c r="V102" s="4">
+        <f>V9*V92</f>
+        <v>6712.983798602414</v>
+      </c>
+      <c r="X102" s="4">
+        <f>X9*X92</f>
+        <v>11128.073399406489</v>
+      </c>
+      <c r="Y102" s="4">
+        <f>Y9*Y92</f>
+        <v>5893.9505439126433</v>
+      </c>
+      <c r="AG102" s="5"/>
+    </row>
+    <row r="103" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E103" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F103" s="4">
+        <f>F102*$F$14</f>
+        <v>5250</v>
+      </c>
+      <c r="G103" s="4">
+        <f>G102*$F$14</f>
+        <v>7000</v>
+      </c>
+      <c r="I103" s="4">
+        <f>I102*$F$14</f>
+        <v>6216.539658935656</v>
+      </c>
+      <c r="J103" s="4">
+        <f>J102*$F$14</f>
+        <v>7176.7099460688178</v>
+      </c>
+      <c r="L103" s="4">
+        <f>L102*$F$14</f>
+        <v>5518.4698897879989</v>
+      </c>
+      <c r="M103" s="4">
+        <f>M102*$F$14</f>
+        <v>5672.3268107066206</v>
+      </c>
+      <c r="O103" s="4">
+        <f>O102*$F$14</f>
+        <v>6372.1708838232717</v>
+      </c>
+      <c r="P103" s="4">
+        <f>P102*$F$14</f>
+        <v>10610.999007667782</v>
+      </c>
+      <c r="R103" s="4">
+        <f>R102*$F$14</f>
+        <v>8670.1944553798694</v>
+      </c>
+      <c r="S103" s="4">
+        <f>S102*$F$14</f>
+        <v>1944.5855088975175</v>
+      </c>
+      <c r="U103" s="4">
+        <f>U102*$F$14</f>
+        <v>8111.7352551896684</v>
+      </c>
+      <c r="V103" s="4">
+        <f>V102*$F$14</f>
+        <v>4699.0886590216896</v>
+      </c>
+      <c r="X103" s="4">
+        <f>X102*$F$14</f>
+        <v>7789.6513795845412</v>
+      </c>
+      <c r="Y103" s="4">
+        <f>Y102*$F$14</f>
+        <v>4125.7653807388497</v>
+      </c>
+      <c r="AG103" s="5"/>
+    </row>
+    <row r="104" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E104" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F104" s="4">
+        <f>F102*(1-$F$14)</f>
+        <v>2250.0000000000005</v>
+      </c>
+      <c r="G104" s="4">
+        <f>G102*(1-$F$14)</f>
+        <v>3000.0000000000005</v>
+      </c>
+      <c r="I104" s="4">
+        <f>I102*(1-$F$14)</f>
+        <v>2664.231282400996</v>
+      </c>
+      <c r="J104" s="4">
+        <f>J102*(1-$F$14)</f>
+        <v>3075.7328340294939</v>
+      </c>
+      <c r="L104" s="4">
+        <f>L102*(1-$F$14)</f>
+        <v>2365.058524194857</v>
+      </c>
+      <c r="M104" s="4">
+        <f>M102*(1-$F$14)</f>
+        <v>2430.997204588552</v>
+      </c>
+      <c r="O104" s="4">
+        <f>O102*(1-$F$14)</f>
+        <v>2730.9303787814024</v>
+      </c>
+      <c r="P104" s="4">
+        <f>P102*(1-$F$14)</f>
+        <v>4547.5710032861934</v>
+      </c>
+      <c r="R104" s="4">
+        <f>R102*(1-$F$14)</f>
+        <v>3715.7976237342305</v>
+      </c>
+      <c r="S104" s="4">
+        <f>S102*(1-$F$14)</f>
+        <v>833.39378952750769</v>
+      </c>
+      <c r="U104" s="4">
+        <f>U102*(1-$F$14)</f>
+        <v>3476.4579665098586</v>
+      </c>
+      <c r="V104" s="4">
+        <f>V102*(1-$F$14)</f>
+        <v>2013.8951395807246</v>
+      </c>
+      <c r="X104" s="4">
+        <f>X102*(1-$F$14)</f>
+        <v>3338.4220198219468</v>
+      </c>
+      <c r="Y104" s="4">
+        <f>Y102*(1-$F$14)</f>
+        <v>1768.1851631737932</v>
+      </c>
+      <c r="AG104" s="5"/>
+    </row>
+    <row r="105" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E105" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG105" s="5"/>
+    </row>
+    <row r="106" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="Z106">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X100">
-        <f>SUM(W$6:W100)</f>
+      <c r="AA106">
+        <f>SUM(Z$6:Z106)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y100">
+      <c r="AB106">
         <v>20</v>
       </c>
-      <c r="AD100" s="5">
+      <c r="AG106" s="5"/>
+    </row>
+    <row r="107" spans="5:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="E107" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F107" s="4">
+        <f>MAX(F13-F24, 0)*F116</f>
+        <v>741757.5</v>
+      </c>
+      <c r="G107" s="4">
+        <f>MAX(G13-G24, 0)*G116</f>
+        <v>19970010</v>
+      </c>
+      <c r="I107" s="4">
+        <f>MAX(I13-I24, 0)*I116</f>
+        <v>700148.52195570245</v>
+      </c>
+      <c r="J107" s="4">
+        <f>MAX(J13-J24, 0)*J116</f>
+        <v>18621232.209416743</v>
+      </c>
+      <c r="L107" s="4">
+        <f>MAX(L13-L24, 0)*L116</f>
+        <v>520584.72113024717</v>
+      </c>
+      <c r="M107" s="4">
+        <f>MAX(M13-M24, 0)*M116</f>
+        <v>17214908.431472179</v>
+      </c>
+      <c r="O107" s="4">
+        <f>MAX(O13-O24, 0)*O116</f>
+        <v>488966.58210562245</v>
+      </c>
+      <c r="P107" s="4">
+        <f>MAX(P13-P24, 0)*P116</f>
+        <v>15751017.455548761</v>
+      </c>
+      <c r="R107" s="4">
+        <f>MAX(R13-R24, 0)*R116</f>
+        <v>391397.34970000555</v>
+      </c>
+      <c r="S107" s="4">
+        <f>MAX(S13-S24, 0)*S116</f>
+        <v>14279169.745096736</v>
+      </c>
+      <c r="U107" s="4">
+        <f>MAX(U13-U24, 0)*U116</f>
+        <v>279299.10601688048</v>
+      </c>
+      <c r="V107" s="4">
+        <f>MAX(V13-V24, 0)*V116</f>
+        <v>12777685.161796939</v>
+      </c>
+      <c r="X107" s="4">
+        <f>MAX(X13-X24, 0)*X116</f>
+        <v>257081.20588016626</v>
+      </c>
+      <c r="Y107" s="4">
+        <f>MAX(Y13-Y24, 0)*Y116</f>
+        <v>11212819.913326381</v>
+      </c>
+      <c r="AG107" s="5">
         <v>5495710</v>
       </c>
-      <c r="AE100">
+      <c r="AH107">
         <f t="shared" si="0"/>
         <v>1373928</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B101" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D101" s="4">
-        <f>SUM(D120:D123)</f>
-        <v>0</v>
-      </c>
-      <c r="AD101" s="5"/>
-    </row>
-    <row r="102" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B102" s="10" t="s">
+    <row r="108" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="AG108" s="5"/>
+    </row>
+    <row r="109" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E109" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="8"/>
+      <c r="X109" s="8"/>
+      <c r="Y109" s="8"/>
+      <c r="AG109" s="5"/>
+    </row>
+    <row r="110" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E110" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F110" s="4">
+        <f>MIN(F121,F29)</f>
+        <v>2000000</v>
+      </c>
+      <c r="I110" s="4">
+        <f>MIN(I121,I29)</f>
+        <v>2050000</v>
+      </c>
+      <c r="L110" s="4">
+        <f>MIN(L121,L29)</f>
+        <v>2110000</v>
+      </c>
+      <c r="O110" s="4">
+        <f>MIN(O121,O29)</f>
+        <v>2210000</v>
+      </c>
+      <c r="R110" s="4">
+        <f>MIN(R121,R29)</f>
+        <v>2110000</v>
+      </c>
+      <c r="U110" s="4">
+        <f>MIN(U121,U29)</f>
+        <v>2210000</v>
+      </c>
+      <c r="X110" s="4">
+        <f>MIN(X121,X29)</f>
+        <v>2350000</v>
+      </c>
+      <c r="AG110" s="5"/>
+    </row>
+    <row r="111" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E111" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F111" s="4">
+        <f>F29-F110</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="4">
+        <f>I29-I110</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="4">
+        <f>L29-L110</f>
+        <v>0</v>
+      </c>
+      <c r="O111" s="4">
+        <f>O29-O110</f>
+        <v>0</v>
+      </c>
+      <c r="R111" s="4">
+        <f>R29-R110</f>
+        <v>0</v>
+      </c>
+      <c r="U111" s="4">
+        <f>U29-U110</f>
+        <v>0</v>
+      </c>
+      <c r="X111" s="4">
+        <f>X29-X110</f>
+        <v>0</v>
+      </c>
+      <c r="AG111" s="5"/>
+    </row>
+    <row r="112" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E112" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F112" s="4">
+        <f>MIN(F29,F110)</f>
+        <v>2000000</v>
+      </c>
+      <c r="I112" s="4">
+        <f>MIN(I29,I110)</f>
+        <v>2050000</v>
+      </c>
+      <c r="L112" s="4">
+        <f>MIN(L29,L110)</f>
+        <v>2110000</v>
+      </c>
+      <c r="O112" s="4">
+        <f>MIN(O29,O110)</f>
+        <v>2210000</v>
+      </c>
+      <c r="R112" s="4">
+        <f>MIN(R29,R110)</f>
+        <v>2110000</v>
+      </c>
+      <c r="U112" s="4">
+        <f>MIN(U29,U110)</f>
+        <v>2210000</v>
+      </c>
+      <c r="X112" s="4">
+        <f>MIN(X29,X110)</f>
+        <v>2350000</v>
+      </c>
+      <c r="AG112" s="5"/>
+    </row>
+    <row r="113" spans="4:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E113" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F113" s="4">
+        <f>MIN(F111,G63)</f>
+        <v>0</v>
+      </c>
+      <c r="I113" s="4">
+        <f>MIN(I111,J63)</f>
+        <v>0</v>
+      </c>
+      <c r="L113" s="4">
+        <f>MIN(L111,M63)</f>
+        <v>0</v>
+      </c>
+      <c r="O113" s="4">
+        <f>MIN(O111,P63)</f>
+        <v>0</v>
+      </c>
+      <c r="R113" s="4">
+        <f>MIN(R111,S63)</f>
+        <v>0</v>
+      </c>
+      <c r="U113" s="4">
+        <f>MIN(U111,V63)</f>
+        <v>0</v>
+      </c>
+      <c r="X113" s="4">
+        <f>MIN(X111,Y63)</f>
+        <v>0</v>
+      </c>
+      <c r="AG113" s="5"/>
+    </row>
+    <row r="114" spans="4:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E114" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F114" s="4">
+        <f>F122*F112</f>
+        <v>71626.673097793318</v>
+      </c>
+      <c r="G114" s="4">
+        <f>G122*F112</f>
+        <v>1928373.3269022068</v>
+      </c>
+      <c r="I114" s="4">
+        <f>I122*I112</f>
+        <v>74285.812694465581</v>
+      </c>
+      <c r="J114" s="4">
+        <f>J122*I112</f>
+        <v>1975714.1873055343</v>
+      </c>
+      <c r="L114" s="4">
+        <f>L122*L112</f>
+        <v>61934.210237827094</v>
+      </c>
+      <c r="M114" s="4">
+        <f>M122*L112</f>
+        <v>2048065.7897621728</v>
+      </c>
+      <c r="O114" s="4">
+        <f>O122*O112</f>
+        <v>66540.468509567829</v>
+      </c>
+      <c r="P114" s="4">
+        <f>P122*O112</f>
+        <v>2143459.5314904321</v>
+      </c>
+      <c r="R114" s="4">
+        <f>R122*R112</f>
+        <v>56292.875560339999</v>
+      </c>
+      <c r="S114" s="4">
+        <f>S122*R112</f>
+        <v>2053707.12443966</v>
+      </c>
+      <c r="U114" s="4">
+        <f>U122*U112</f>
+        <v>47273.628552870621</v>
+      </c>
+      <c r="V114" s="4">
+        <f>V122*U112</f>
+        <v>2162726.3714471292</v>
+      </c>
+      <c r="X114" s="4">
+        <f>X122*X112</f>
+        <v>52671.843247780613</v>
+      </c>
+      <c r="Y114" s="4">
+        <f>Y122*X112</f>
+        <v>2297328.1567522194</v>
+      </c>
+      <c r="AG114" s="5"/>
+    </row>
+    <row r="115" spans="4:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E115" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+      <c r="R115" s="8"/>
+      <c r="S115" s="8"/>
+      <c r="U115" s="8"/>
+      <c r="V115" s="8"/>
+      <c r="X115" s="8"/>
+      <c r="Y115" s="8"/>
+      <c r="AG115" s="5"/>
+    </row>
+    <row r="116" spans="4:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="E116" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F116" s="4">
+        <f>MAX(F98/F7-F19,0)</f>
+        <v>149.85</v>
+      </c>
+      <c r="G116" s="4">
+        <f>MAX(G98/G7-G19,0)</f>
+        <v>99.9</v>
+      </c>
+      <c r="I116" s="4">
+        <f>MAX(I98/I7-I19,0)</f>
+        <v>143.23824098930083</v>
+      </c>
+      <c r="J116" s="4">
+        <f>MAX(J98/J7-J19,0)</f>
+        <v>93.204025273621014</v>
+      </c>
+      <c r="L116" s="4">
+        <f>MAX(L98/L7-L19,0)</f>
+        <v>135.92290368935957</v>
+      </c>
+      <c r="M116" s="4">
+        <f>MAX(M98/M7-M19,0)</f>
+        <v>86.205574630799703</v>
+      </c>
+      <c r="O116" s="4">
+        <f>MAX(O98/O7-O19,0)</f>
+        <v>130.04430375149533</v>
+      </c>
+      <c r="P116" s="4">
+        <f>MAX(P98/P7-P19,0)</f>
+        <v>78.950885473718628</v>
+      </c>
+      <c r="R116" s="4">
+        <f>MAX(R98/R7-R19,0)</f>
+        <v>123.85992079114099</v>
+      </c>
+      <c r="S116" s="4">
+        <f>MAX(S98/S7-S19,0)</f>
+        <v>71.230238421154496</v>
+      </c>
+      <c r="U116" s="4">
+        <f>MAX(U98/U7-U19,0)</f>
+        <v>118.24686960917886</v>
+      </c>
+      <c r="V116" s="4">
+        <f>MAX(V98/V7-V19,0)</f>
+        <v>63.933179034308708</v>
+      </c>
+      <c r="X116" s="4">
+        <f>MAX(X98/X7-X19,0)</f>
+        <v>113.55176938169888</v>
+      </c>
+      <c r="Y116" s="4">
+        <f>MAX(Y98/Y7-Y19,0)</f>
+        <v>56.132862322977552</v>
+      </c>
+      <c r="AG116" s="5"/>
+    </row>
+    <row r="117" spans="4:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="E117" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C102" s="4">
-        <f>C100+C101</f>
-        <v>1500000</v>
-      </c>
-      <c r="D102" s="4">
-        <f>D100+D101</f>
-        <v>25000000</v>
-      </c>
-      <c r="AD102" s="5"/>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AD103" s="5"/>
-    </row>
-    <row r="104" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B104" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C104" s="4">
-        <f>C9*C19*$C$13</f>
-        <v>5250</v>
-      </c>
-      <c r="D104" s="4">
-        <f>D9*D19*$C$13</f>
-        <v>7000</v>
-      </c>
-      <c r="AD104" s="5"/>
-    </row>
-    <row r="105" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B105" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C105" s="4">
-        <f>C23*C19</f>
-        <v>750000</v>
-      </c>
-      <c r="D105" s="4">
-        <f>D23*D19</f>
-        <v>5000000</v>
-      </c>
-      <c r="AD105" s="5"/>
-    </row>
-    <row r="106" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B106" s="10" t="s">
+      <c r="F117" s="4">
+        <f>F116/$F$20</f>
+        <v>1</v>
+      </c>
+      <c r="G117" s="4">
+        <f>G116/$G$20</f>
+        <v>1</v>
+      </c>
+      <c r="I117" s="4">
+        <f>I116/$F$20</f>
+        <v>0.9558774840794183</v>
+      </c>
+      <c r="J117" s="4">
+        <f>J116/$G$20</f>
+        <v>0.93297322596217225</v>
+      </c>
+      <c r="L117" s="4">
+        <f>L116/$F$20</f>
+        <v>0.90705975101341063</v>
+      </c>
+      <c r="M117" s="4">
+        <f>M116/$G$20</f>
+        <v>0.86291866497296998</v>
+      </c>
+      <c r="O117" s="4">
+        <f>O116/$F$20</f>
+        <v>0.86782985486483377</v>
+      </c>
+      <c r="P117" s="4">
+        <f>P116/$G$20</f>
+        <v>0.7902991538910773</v>
+      </c>
+      <c r="R117" s="4">
+        <f>R116/$F$20</f>
+        <v>0.82655936463891222</v>
+      </c>
+      <c r="S117" s="4">
+        <f>S116/$G$20</f>
+        <v>0.71301539961115612</v>
+      </c>
+      <c r="U117" s="4">
+        <f>U116/$F$20</f>
+        <v>0.78910156562681921</v>
+      </c>
+      <c r="V117" s="4">
+        <f>V116/$G$20</f>
+        <v>0.63997176210519224</v>
+      </c>
+      <c r="X117" s="4">
+        <f>X116/$F$20</f>
+        <v>0.75776956544343599</v>
+      </c>
+      <c r="Y117" s="4">
+        <f>Y116/$G$20</f>
+        <v>0.56189051374351895</v>
+      </c>
+      <c r="Z117">
+        <v>0.5</v>
+      </c>
+      <c r="AA117">
+        <f>SUM(Z$6:Z117)</f>
+        <v>1.6</v>
+      </c>
+      <c r="AB117">
+        <v>20</v>
+      </c>
+      <c r="AG117" s="5"/>
+    </row>
+    <row r="118" spans="4:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E118" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C106" s="4">
-        <f>$C20*MAX(C7-C9-C23,0)</f>
-        <v>742.5</v>
-      </c>
-      <c r="D106" s="4">
-        <f>$D20*MAX(D7-D9-D23,0)</f>
-        <v>19990</v>
-      </c>
-      <c r="AD106" s="5"/>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AD107" s="5"/>
-    </row>
-    <row r="108" spans="1:31" ht="34" x14ac:dyDescent="0.2">
-      <c r="B108" s="10" t="s">
+      <c r="F118" s="4">
+        <f>MAX(MIN(F117/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G118" s="4">
+        <f>MAX(MIN((G117-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I118" s="4">
+        <f>MAX(MIN(I117/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="J118" s="4">
+        <f>MAX(MIN((J117-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L118" s="4">
+        <f>MAX(MIN(L117/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M118" s="4">
+        <f>MAX(MIN((M117-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="O118" s="4">
+        <f>MAX(MIN(O117/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="P118" s="4">
+        <f>MAX(MIN((P117-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="R118" s="4">
+        <f>MAX(MIN(R117/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="S118" s="4">
+        <f>MAX(MIN((S117-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="U118" s="4">
+        <f>MAX(MIN(U117/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="V118" s="4">
+        <f>MAX(MIN((V117-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="X118" s="4">
+        <f>MAX(MIN(X117/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y118" s="4">
+        <f>MAX(MIN((Y117-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z118">
+        <v>0.3</v>
+      </c>
+      <c r="AA118">
+        <f>SUM(Z$6:Z118)</f>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="AB118">
+        <v>20</v>
+      </c>
+      <c r="AG118" s="5">
+        <v>5605620</v>
+      </c>
+      <c r="AH118">
+        <f>ROUND(AG118/4,0)</f>
+        <v>1401405</v>
+      </c>
+    </row>
+    <row r="119" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="Z119">
+        <v>0.2</v>
+      </c>
+      <c r="AA119">
+        <f>SUM(Z$6:Z119)</f>
+        <v>2.1</v>
+      </c>
+      <c r="AB119">
+        <v>20</v>
+      </c>
+      <c r="AG119" s="5">
+        <v>5717730</v>
+      </c>
+      <c r="AH119">
+        <f>ROUND(AG119/4,0)</f>
+        <v>1429433</v>
+      </c>
+    </row>
+    <row r="120" spans="4:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E120" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F120" s="4">
+        <f>F107*F118</f>
+        <v>741757.5</v>
+      </c>
+      <c r="G120" s="4">
+        <f>G107*G118</f>
+        <v>19970010</v>
+      </c>
+      <c r="I120" s="4">
+        <f>I107*I118</f>
+        <v>700148.52195570245</v>
+      </c>
+      <c r="J120" s="4">
+        <f>J107*J118</f>
+        <v>18621232.209416743</v>
+      </c>
+      <c r="L120" s="4">
+        <f>L107*L118</f>
+        <v>520584.72113024717</v>
+      </c>
+      <c r="M120" s="4">
+        <f>M107*M118</f>
+        <v>17214908.431472179</v>
+      </c>
+      <c r="O120" s="4">
+        <f>O107*O118</f>
+        <v>488966.58210562245</v>
+      </c>
+      <c r="P120" s="4">
+        <f>P107*P118</f>
+        <v>15751017.455548761</v>
+      </c>
+      <c r="R120" s="4">
+        <f>R107*R118</f>
+        <v>391397.34970000555</v>
+      </c>
+      <c r="S120" s="4">
+        <f>S107*S118</f>
+        <v>14279169.745096736</v>
+      </c>
+      <c r="U120" s="4">
+        <f>U107*U118</f>
+        <v>279299.10601688048</v>
+      </c>
+      <c r="V120" s="4">
+        <f>V107*V118</f>
+        <v>12777685.161796939</v>
+      </c>
+      <c r="X120" s="4">
+        <f>X107*X118</f>
+        <v>257081.20588016626</v>
+      </c>
+      <c r="Y120" s="4">
+        <f>Y107*Y118</f>
+        <v>11212819.913326381</v>
+      </c>
+      <c r="Z120">
+        <v>0.125</v>
+      </c>
+      <c r="AA120">
+        <f>SUM(Z$6:Z136)</f>
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="AB120">
+        <v>20</v>
+      </c>
+      <c r="AG120" s="5">
+        <v>5832080</v>
+      </c>
+      <c r="AH120">
+        <f>ROUND(AG120/4,0)</f>
+        <v>1458020</v>
+      </c>
+    </row>
+    <row r="121" spans="4:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E121" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F121" s="4">
+        <f>F120+G120</f>
+        <v>20711767.5</v>
+      </c>
+      <c r="G121" s="4">
+        <f>F121</f>
+        <v>20711767.5</v>
+      </c>
+      <c r="I121" s="4">
+        <f>I120+J120</f>
+        <v>19321380.731372446</v>
+      </c>
+      <c r="J121" s="4">
+        <f>I121</f>
+        <v>19321380.731372446</v>
+      </c>
+      <c r="L121" s="4">
+        <f>L120+M120</f>
+        <v>17735493.152602427</v>
+      </c>
+      <c r="M121" s="4">
+        <f>L121</f>
+        <v>17735493.152602427</v>
+      </c>
+      <c r="O121" s="4">
+        <f>O120+P120</f>
+        <v>16239984.037654383</v>
+      </c>
+      <c r="P121" s="4">
+        <f>O121</f>
+        <v>16239984.037654383</v>
+      </c>
+      <c r="R121" s="4">
+        <f>R120+S120</f>
+        <v>14670567.094796741</v>
+      </c>
+      <c r="S121" s="4">
+        <f>R121</f>
+        <v>14670567.094796741</v>
+      </c>
+      <c r="U121" s="4">
+        <f>U120+V120</f>
+        <v>13056984.267813819</v>
+      </c>
+      <c r="V121" s="4">
+        <f>U121</f>
+        <v>13056984.267813819</v>
+      </c>
+      <c r="X121" s="4">
+        <f>X120+Y120</f>
+        <v>11469901.119206548</v>
+      </c>
+      <c r="Y121" s="4">
+        <f>X121</f>
+        <v>11469901.119206548</v>
+      </c>
+      <c r="AG121" s="5">
+        <v>6699220</v>
+      </c>
+      <c r="AH121">
+        <f>ROUND(AG121/4,0)</f>
+        <v>1674805</v>
+      </c>
+    </row>
+    <row r="122" spans="4:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E122" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F122" s="4">
+        <f>F120/F121</f>
+        <v>3.5813336548896658E-2</v>
+      </c>
+      <c r="G122" s="4">
+        <f>G120/G121</f>
+        <v>0.96418666345110338</v>
+      </c>
+      <c r="I122" s="4">
+        <f>I120/I121</f>
+        <v>3.6236981802178332E-2</v>
+      </c>
+      <c r="J122" s="4">
+        <f>J120/J121</f>
+        <v>0.96376301819782162</v>
+      </c>
+      <c r="L122" s="4">
+        <f>L120/L121</f>
+        <v>2.9352706273851704E-2</v>
+      </c>
+      <c r="M122" s="4">
+        <f>M120/M121</f>
+        <v>0.97064729372614822</v>
+      </c>
+      <c r="O122" s="4">
+        <f>O120/O121</f>
+        <v>3.0108809280347433E-2</v>
+      </c>
+      <c r="P122" s="4">
+        <f>P120/P121</f>
+        <v>0.96989119071965257</v>
+      </c>
+      <c r="R122" s="4">
+        <f>R120/R121</f>
+        <v>2.66790879432891E-2</v>
+      </c>
+      <c r="S122" s="4">
+        <f>S120/S121</f>
+        <v>0.9733209120567109</v>
+      </c>
+      <c r="U122" s="4">
+        <f>U120/U121</f>
+        <v>2.139078215062019E-2</v>
+      </c>
+      <c r="V122" s="4">
+        <f>V120/V121</f>
+        <v>0.97860921784937982</v>
+      </c>
+      <c r="X122" s="4">
+        <f>X120/X121</f>
+        <v>2.2413550318204516E-2</v>
+      </c>
+      <c r="Y122" s="4">
+        <f>Y120/Y121</f>
+        <v>0.97758644968179542</v>
+      </c>
+      <c r="AG122" s="5"/>
+    </row>
+    <row r="123" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="AG123" s="5"/>
+    </row>
+    <row r="124" spans="4:34" ht="68" x14ac:dyDescent="0.2">
+      <c r="D124" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="AG124" s="5"/>
+    </row>
+    <row r="125" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="AG125" s="5"/>
+    </row>
+    <row r="126" spans="4:34" ht="68" x14ac:dyDescent="0.2">
+      <c r="D126" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C108" s="4">
-        <f>MAX(C7-C9-C23, 0)*C111</f>
-        <v>741757.5</v>
-      </c>
-      <c r="D108" s="4">
-        <f>MAX(D7-D9-D23, 0)*D111</f>
-        <v>19970010</v>
-      </c>
-      <c r="AD108" s="5"/>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AD109" s="5"/>
-    </row>
-    <row r="110" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B110" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="AD110" s="5"/>
-    </row>
-    <row r="111" spans="1:31" ht="68" x14ac:dyDescent="0.2">
-      <c r="A111" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C111" s="4">
-        <f>MAX(C100/C7-C20,0)</f>
-        <v>149.85</v>
-      </c>
-      <c r="D111" s="4">
-        <f>MAX(D100/D7-D20,0)</f>
-        <v>99.9</v>
-      </c>
-      <c r="AD111" s="5"/>
-    </row>
-    <row r="112" spans="1:31" ht="51" x14ac:dyDescent="0.2">
-      <c r="B112" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C112" s="4">
-        <f>C111/$C$21</f>
-        <v>1</v>
-      </c>
-      <c r="D112" s="4">
-        <f>D111/$D$21</f>
-        <v>1</v>
-      </c>
-      <c r="AD112" s="5"/>
-    </row>
-    <row r="113" spans="1:30" ht="51" x14ac:dyDescent="0.2">
-      <c r="A113" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C113" s="4">
-        <f>MAX(MIN(C112/$C$15, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="D113" s="4">
-        <f>MAX(MIN((D112-$C$14)/$C$15, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="AD113" s="5"/>
-    </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD114" s="5"/>
-    </row>
-    <row r="115" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B115" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C115" s="4">
-        <f>C108*C113</f>
-        <v>741757.5</v>
-      </c>
-      <c r="D115" s="4">
-        <f>D108*D113</f>
-        <v>19970010</v>
-      </c>
-      <c r="AD115" s="5"/>
-    </row>
-    <row r="116" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B116" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C116" s="4">
-        <f>C115+D115</f>
-        <v>20711767.5</v>
-      </c>
-      <c r="AD116" s="5"/>
-    </row>
-    <row r="117" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B117" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C117" s="4">
-        <f>C115/$C116</f>
-        <v>3.5813336548896658E-2</v>
-      </c>
-      <c r="D117" s="4">
-        <f>D115/$C116</f>
-        <v>0.96418666345110338</v>
-      </c>
-      <c r="AD117" s="5"/>
-    </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD118" s="5"/>
-    </row>
-    <row r="119" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B119" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="AD119" s="5"/>
-    </row>
-    <row r="120" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B120" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D120" s="4">
-        <f>D46*D91</f>
-        <v>0</v>
-      </c>
-      <c r="G120" s="4">
-        <f>D120 - D132 + G52*G46</f>
-        <v>0.85</v>
-      </c>
-      <c r="J120" s="4">
-        <f>G120 - G132 + J52*J46</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M120" s="4">
-        <f>J120 - J132 + M52*M46</f>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="P120" s="4">
-        <f>M120 - M132 + P52*P46</f>
-        <v>31.299999999999997</v>
-      </c>
-      <c r="S120" s="4">
-        <f>P120 - P132 + S52*S46</f>
-        <v>61.899999999999991</v>
-      </c>
-      <c r="V120" s="4">
-        <f>S120 - S132 + V52*V46</f>
-        <v>112.89999999999999</v>
-      </c>
-      <c r="AD120" s="5"/>
-    </row>
-    <row r="121" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B121" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D121" s="4">
-        <v>0</v>
-      </c>
-      <c r="G121" s="4">
-        <f>D121 - D133 + G53*G47</f>
-        <v>0</v>
-      </c>
-      <c r="J121" s="4">
-        <f>G121 - G133 + J53*J47</f>
-        <v>0.8</v>
-      </c>
-      <c r="M121" s="4">
-        <f>J121 - J133 + M53*M47</f>
-        <v>4.8</v>
-      </c>
-      <c r="P121" s="4">
-        <f>M121 - M133 + P53*P47</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="S121" s="4">
-        <f>P121 - P133 + S53*S47</f>
-        <v>30.4</v>
-      </c>
-      <c r="V121" s="4">
-        <f>S121 - S133 + V53*V47</f>
-        <v>59.199999999999996</v>
-      </c>
-      <c r="AD121" s="5"/>
-    </row>
-    <row r="122" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B122" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D122" s="4">
-        <v>0</v>
-      </c>
-      <c r="G122" s="4">
-        <f>D122 - D134 + G54*G48</f>
-        <v>0</v>
-      </c>
-      <c r="J122" s="4">
-        <f>G122 - G134 + J54*J48</f>
-        <v>0</v>
-      </c>
-      <c r="M122" s="4">
-        <f>J122 - J134 + M54*M48</f>
-        <v>0.92</v>
-      </c>
-      <c r="P122" s="4">
-        <f>M122 - M134 + P54*P48</f>
-        <v>5.5200000000000005</v>
-      </c>
-      <c r="S122" s="4">
-        <f>P122 - P134 + S54*S48</f>
-        <v>16.559999999999999</v>
-      </c>
-      <c r="V122" s="4">
-        <f>S122 - S134 + V54*V48</f>
-        <v>34.96</v>
-      </c>
-      <c r="AA122" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD122" s="5"/>
-    </row>
-    <row r="123" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B123" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D123" s="4">
-        <v>0</v>
-      </c>
-      <c r="G123" s="4">
-        <f>D123 - D135 + G55*G49</f>
-        <v>0</v>
-      </c>
-      <c r="J123" s="4">
-        <f>G123 - G135 + J55*J49</f>
-        <v>0</v>
-      </c>
-      <c r="M123" s="4">
-        <f>J123 - J135 + M55*M49</f>
-        <v>0</v>
-      </c>
-      <c r="P123" s="4">
-        <f>M123 - M135 + P55*P49</f>
-        <v>0.43</v>
-      </c>
-      <c r="S123" s="4">
-        <f>P123 - P135 + S55*S49</f>
-        <v>2.58</v>
-      </c>
-      <c r="V123" s="4">
-        <f>S123 - S135 + V55*V49</f>
-        <v>7.74</v>
-      </c>
-      <c r="AA123" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD123" s="5"/>
-    </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B124" s="14"/>
-      <c r="AD124" s="5"/>
-    </row>
-    <row r="125" spans="1:30" ht="34" x14ac:dyDescent="0.2">
-      <c r="A125" s="22">
-        <v>0</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D125" s="4">
-        <f>INT(C$4-$AB$6&gt;$A125)*D120</f>
-        <v>0</v>
-      </c>
-      <c r="G125" s="4">
-        <f>INT(F$4-$AB$6&gt;$A125)*G120</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="4">
-        <f>INT(I$4-$AB$6&gt;$A125)*J120</f>
-        <v>0</v>
-      </c>
-      <c r="M125" s="4">
-        <f>INT(L$4-$AB$6&gt;$A125)*M120</f>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="P125" s="4">
-        <f>INT(O$4-$AB$6&gt;$A125)*P120</f>
-        <v>31.299999999999997</v>
-      </c>
-      <c r="S125" s="4">
-        <f>INT(R$4-$AB$6&gt;$A125)*S120</f>
-        <v>61.899999999999991</v>
-      </c>
-      <c r="V125" s="4">
-        <f>INT(U$4-$AB$6&gt;$A125)*V120</f>
-        <v>112.89999999999999</v>
-      </c>
-      <c r="AD125" s="5"/>
-    </row>
-    <row r="126" spans="1:30" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="22">
-        <v>1</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D126" s="4">
-        <f>INT(C$4-$AB$6&gt;$A126)*D121</f>
-        <v>0</v>
-      </c>
-      <c r="G126" s="4">
-        <f>INT(F$4-$AB$6&gt;$A126)*G121</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="4">
-        <f>INT(I$4-$AB$6&gt;$A126)*J121</f>
-        <v>0</v>
-      </c>
-      <c r="M126" s="4">
-        <f>INT(L$4-$AB$6&gt;$A126)*M121</f>
-        <v>0</v>
-      </c>
-      <c r="P126" s="4">
-        <f>INT(O$4-$AB$6&gt;$A126)*P121</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="S126" s="4">
-        <f>INT(R$4-$AB$6&gt;$A126)*S121</f>
-        <v>30.4</v>
-      </c>
-      <c r="V126" s="4">
-        <f>INT(U$4-$AB$6&gt;$A126)*V121</f>
-        <v>59.199999999999996</v>
-      </c>
-      <c r="AD126" s="5"/>
-    </row>
-    <row r="127" spans="1:30" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" s="22">
-        <v>2</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D127" s="4">
-        <f>INT(C$4-$AB$6&gt;$A127)*D122</f>
-        <v>0</v>
-      </c>
-      <c r="G127" s="4">
-        <f>INT(F$4-$AB$6&gt;$A127)*G122</f>
-        <v>0</v>
-      </c>
-      <c r="J127" s="4">
-        <f>INT(I$4-$AB$6&gt;$A127)*J122</f>
-        <v>0</v>
-      </c>
-      <c r="M127" s="4">
-        <f>INT(L$4-$AB$6&gt;$A127)*M122</f>
-        <v>0</v>
-      </c>
-      <c r="P127" s="4">
-        <f>INT(O$4-$AB$6&gt;$A127)*P122</f>
-        <v>0</v>
-      </c>
-      <c r="S127" s="4">
-        <f>INT(R$4-$AB$6&gt;$A127)*S122</f>
-        <v>16.559999999999999</v>
-      </c>
-      <c r="V127" s="4">
-        <f>INT(U$4-$AB$6&gt;$A127)*V122</f>
-        <v>34.96</v>
-      </c>
-      <c r="AD127" s="5"/>
-    </row>
-    <row r="128" spans="1:30" ht="34" x14ac:dyDescent="0.2">
-      <c r="A128" s="22">
-        <v>3</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D128" s="4">
-        <f>INT(C$4-$AB$6&gt;$A128)*D123</f>
-        <v>0</v>
-      </c>
-      <c r="G128" s="4">
-        <f>INT(F$4-$AB$6&gt;$A128)*G123</f>
-        <v>0</v>
-      </c>
-      <c r="J128" s="4">
-        <f>INT(I$4-$AB$6&gt;$A128)*J123</f>
-        <v>0</v>
-      </c>
-      <c r="M128" s="4">
-        <f>INT(L$4-$AB$6&gt;$A128)*M123</f>
-        <v>0</v>
-      </c>
-      <c r="P128" s="4">
-        <f>INT(O$4-$AB$6&gt;$A128)*P123</f>
-        <v>0</v>
-      </c>
-      <c r="S128" s="4">
-        <f>INT(R$4-$AB$6&gt;$A128)*S123</f>
-        <v>0</v>
-      </c>
-      <c r="V128" s="4">
-        <f>INT(U$4-$AB$6&gt;$A128)*V123</f>
-        <v>7.74</v>
-      </c>
-      <c r="AD128" s="5"/>
-    </row>
-    <row r="129" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B129" s="14"/>
-      <c r="AD129" s="5"/>
-    </row>
-    <row r="130" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z130" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD130" s="5"/>
-    </row>
-    <row r="131" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD131" s="5"/>
-    </row>
-    <row r="132" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D132" s="4">
-        <v>0</v>
-      </c>
-      <c r="G132" s="4">
-        <f>INT(F4-$AB$6 &gt; 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J132" s="4">
-        <f>INT(I4-$AB$6 &gt; 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M132" s="4">
-        <f>INT(L4-$AB$6 &gt; 0)</f>
-        <v>1</v>
-      </c>
-      <c r="AD132" s="5"/>
-    </row>
-    <row r="133" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D133" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD133" s="5"/>
-    </row>
-    <row r="134" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D134" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD134" s="5"/>
-    </row>
-    <row r="135" spans="2:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B135" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D135" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD135" s="5"/>
-    </row>
-    <row r="136" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="AD136" s="5"/>
-    </row>
-    <row r="137" spans="2:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B137" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="AD137" s="5"/>
-    </row>
-    <row r="138" spans="2:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B138" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C138" s="4">
-        <f>MIN(C116,C29)</f>
-        <v>200000</v>
-      </c>
-      <c r="W138">
-        <v>0.5</v>
-      </c>
-      <c r="X138">
-        <f>SUM(W$6:W138)</f>
-        <v>1.6</v>
-      </c>
-      <c r="Y138">
+      <c r="AG126" s="5"/>
+    </row>
+    <row r="127" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="AG127" s="5"/>
+    </row>
+    <row r="128" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="AG128" s="5"/>
+    </row>
+    <row r="129" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="AG129" s="5"/>
+    </row>
+    <row r="130" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="AG130" s="5"/>
+    </row>
+    <row r="131" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="AG131" s="5"/>
+    </row>
+    <row r="132" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="AG132" s="5"/>
+    </row>
+    <row r="133" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="AG133" s="5"/>
+    </row>
+    <row r="134" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="AG134" s="5"/>
+    </row>
+    <row r="135" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="AG135" s="5"/>
+    </row>
+    <row r="136" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="AG136" s="5"/>
+    </row>
+    <row r="137" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="Z137">
+        <v>0.1225</v>
+      </c>
+      <c r="AA137">
+        <f>SUM(Z$6:Z137)</f>
+        <v>2.3475000000000001</v>
+      </c>
+      <c r="AB137">
         <v>20</v>
       </c>
-      <c r="AD138" s="5">
-        <v>5605620</v>
-      </c>
-      <c r="AE138">
-        <f t="shared" si="0"/>
-        <v>1401405</v>
-      </c>
-    </row>
-    <row r="139" spans="2:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B139" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C139" s="4">
-        <f>C29-C138</f>
-        <v>0</v>
-      </c>
-      <c r="W139">
-        <v>0.3</v>
-      </c>
-      <c r="X139">
-        <f>SUM(W$6:W139)</f>
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="Y139">
+      <c r="AG137" s="5"/>
+    </row>
+    <row r="138" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="Z138">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="AA138">
+        <f>SUM(Z$6:Z138)</f>
+        <v>2.4699</v>
+      </c>
+      <c r="AB138">
         <v>20</v>
       </c>
-      <c r="AD139" s="5">
-        <v>5717730</v>
-      </c>
-      <c r="AE139">
-        <f t="shared" si="0"/>
-        <v>1429433</v>
-      </c>
-    </row>
-    <row r="140" spans="2:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B140" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C140" s="4">
-        <f>MIN(C29,C138)</f>
-        <v>200000</v>
-      </c>
-      <c r="W140">
-        <v>0.2</v>
-      </c>
-      <c r="X140">
-        <f>SUM(W$6:W140)</f>
-        <v>2.1</v>
-      </c>
-      <c r="Y140">
-        <v>20</v>
-      </c>
-      <c r="AD140" s="5">
-        <v>5832080</v>
-      </c>
-      <c r="AE140">
-        <f t="shared" si="0"/>
-        <v>1458020</v>
-      </c>
-    </row>
-    <row r="141" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W141">
-        <v>0.18</v>
-      </c>
-      <c r="X141">
-        <f>SUM(W$6:W141)</f>
-        <v>2.2800000000000002</v>
-      </c>
-      <c r="Y141">
-        <v>20</v>
-      </c>
-      <c r="AD141" s="5">
-        <v>5948720</v>
-      </c>
-      <c r="AE141">
-        <f t="shared" si="0"/>
-        <v>1487180</v>
-      </c>
-    </row>
-    <row r="142" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W142">
-        <v>0.17</v>
-      </c>
-      <c r="X142">
-        <f>SUM(W$6:W142)</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="Y142">
-        <v>20</v>
-      </c>
-      <c r="AD142" s="5">
-        <v>6067690</v>
-      </c>
-      <c r="AE142">
-        <f t="shared" si="0"/>
-        <v>1516923</v>
-      </c>
-    </row>
-    <row r="143" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W143">
-        <v>0.16</v>
-      </c>
-      <c r="X143">
-        <f>SUM(W$6:W143)</f>
-        <v>2.6100000000000003</v>
-      </c>
-      <c r="Y143">
-        <v>20</v>
-      </c>
-      <c r="AD143" s="5">
-        <v>6189040</v>
-      </c>
-      <c r="AE143">
-        <f t="shared" si="0"/>
-        <v>1547260</v>
-      </c>
-    </row>
-    <row r="144" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W144">
-        <v>0.15</v>
-      </c>
-      <c r="X144">
-        <f>SUM(W$6:W144)</f>
-        <v>2.7600000000000002</v>
-      </c>
-      <c r="Y144">
-        <v>20</v>
-      </c>
-      <c r="AD144" s="5">
-        <v>6312820</v>
-      </c>
-      <c r="AE144">
-        <f t="shared" si="0"/>
-        <v>1578205</v>
-      </c>
-    </row>
-    <row r="145" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W145">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="X145">
-        <f>SUM(W$6:W145)</f>
-        <v>2.9000000000000004</v>
-      </c>
-      <c r="Y145">
-        <v>20</v>
-      </c>
-      <c r="AD145" s="5">
-        <v>6439080</v>
-      </c>
-      <c r="AE145">
-        <f t="shared" si="0"/>
-        <v>1609770</v>
-      </c>
-    </row>
-    <row r="146" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W146">
-        <v>0.13</v>
-      </c>
-      <c r="X146">
-        <f>SUM(W$6:W146)</f>
-        <v>3.0300000000000002</v>
-      </c>
-      <c r="Y146">
-        <v>20</v>
-      </c>
-      <c r="AD146" s="5">
-        <v>6567860</v>
-      </c>
-      <c r="AE146">
-        <f t="shared" si="0"/>
-        <v>1641965</v>
-      </c>
-    </row>
-    <row r="147" spans="2:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="B147" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C147" s="4">
-        <f>C25*(C7-C9)</f>
-        <v>9154</v>
-      </c>
-      <c r="D147" s="4">
-        <f>D25*(D7-D9)</f>
-        <v>74970</v>
-      </c>
-      <c r="W147">
-        <v>0.125</v>
-      </c>
-      <c r="X147">
-        <f>SUM(W$6:W147)</f>
-        <v>3.1550000000000002</v>
-      </c>
-      <c r="Y147">
-        <v>20</v>
-      </c>
-      <c r="AD147" s="5">
-        <v>6699220</v>
-      </c>
-      <c r="AE147">
-        <f t="shared" si="0"/>
-        <v>1674805</v>
-      </c>
-    </row>
-    <row r="148" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W148">
-        <v>0.1225</v>
-      </c>
-      <c r="X148">
-        <f>SUM(W$6:W148)</f>
-        <v>3.2775000000000003</v>
-      </c>
-      <c r="Y148">
-        <v>20</v>
-      </c>
-      <c r="AD148" s="5">
+      <c r="AG138" s="5">
         <v>6833200</v>
       </c>
-      <c r="AE148">
+      <c r="AH138">
         <f t="shared" si="0"/>
         <v>1708300</v>
       </c>
     </row>
-    <row r="149" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W149">
-        <v>0.12239999999999999</v>
-      </c>
-      <c r="X149">
-        <f>SUM(W$6:W149)</f>
-        <v>3.3999000000000001</v>
-      </c>
-      <c r="Y149">
+    <row r="139" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="Z139">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="AA139">
+        <f>SUM(Z$6:Z139)</f>
+        <v>2.5922000000000001</v>
+      </c>
+      <c r="AB139">
         <v>20</v>
       </c>
-      <c r="AD149" s="5">
+      <c r="AG139" s="5">
         <v>6969860</v>
       </c>
-      <c r="AE149">
+      <c r="AH139">
         <f t="shared" si="0"/>
         <v>1742465</v>
       </c>
     </row>
-    <row r="150" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W150">
-        <v>0.12230000000000001</v>
-      </c>
-      <c r="X150">
-        <f>SUM(W$6:W150)</f>
-        <v>3.5222000000000002</v>
-      </c>
-      <c r="Y150">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="F5:G5"/>
+  <mergeCells count="14">
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="X5:Y5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="R5:S5"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532E185F-8291-3942-B9FE-FF580E75DE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245F5E87-D338-1E44-B84B-39727181C818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="33680" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="33680" windowHeight="19400" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="238">
   <si>
     <t>forest_primary_c_ha</t>
   </si>
@@ -217,9 +217,6 @@
     <t>C stock</t>
   </si>
   <si>
-    <t>Sequestration</t>
-  </si>
-  <si>
     <t>sequestration_curve</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
     <t>zeros</t>
   </si>
   <si>
-    <t>adjusted sequestration in original</t>
-  </si>
-  <si>
     <t>NPP Curve and Young Forest Assumptions</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
     <t>unavail</t>
   </si>
   <si>
-    <t>6 bins</t>
-  </si>
-  <si>
     <t>from original forests, c stock available</t>
   </si>
   <si>
@@ -376,12 +367,6 @@
     <t>young_forest_protected</t>
   </si>
   <si>
-    <t>D = P + I - E</t>
-  </si>
-  <si>
-    <t>FRAC_IMPORTS = I/(P + I - E)</t>
-  </si>
-  <si>
     <t>if_untouched_c_stock_t0</t>
   </si>
   <si>
@@ -412,9 +397,6 @@
     <t>some reservoir terms</t>
   </si>
   <si>
-    <t>healthy storage available</t>
-  </si>
-  <si>
     <t>removals allocation</t>
   </si>
   <si>
@@ -484,18 +466,9 @@
     <t>adjustment factor</t>
   </si>
   <si>
-    <t>calculate how much is available for removals when considering dead storage</t>
-  </si>
-  <si>
     <t>(percentage of forest stock available out of full stock not in dead storage ) carbon_stock_factor</t>
   </si>
   <si>
-    <t>frac_removables_satisficable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this is the fraciton of total wood removal deamands from forest that can be taken </t>
-  </si>
-  <si>
     <t xml:space="preserve">dead storage (minimum fraction of original stock that must remain on the land to allow it to remain that land use type). Note that sequestration factors dcline linearly below the </t>
   </si>
   <si>
@@ -517,22 +490,13 @@
     <t>removals</t>
   </si>
   <si>
-    <t>c_available_for_removals</t>
-  </si>
-  <si>
     <t>area from steady state after conversion away</t>
   </si>
   <si>
-    <t>c_stock_total</t>
-  </si>
-  <si>
     <t>original_forest_protected</t>
   </si>
   <si>
     <t>land use conversion away from new forest without protection</t>
-  </si>
-  <si>
-    <t>young forest</t>
   </si>
   <si>
     <t>removals from young</t>
@@ -655,13 +619,152 @@
   </si>
   <si>
     <t>vec_total_removals_demanded</t>
+  </si>
+  <si>
+    <t>Sequestration and Dead Wood/Litter</t>
+  </si>
+  <si>
+    <t>NOTE: assume that PRIMARY forests are in equilibrium, i.e., that the magnitude of carbon sequestered is equal to the magnitude emitted from decomposition. Use this rate as a fraction of the nominal stock, then apply this fraction to forests.</t>
+  </si>
+  <si>
+    <t>decomposition fraction of above ground C stock</t>
+  </si>
+  <si>
+    <t>starting c_stock_total</t>
+  </si>
+  <si>
+    <t>other loss</t>
+  </si>
+  <si>
+    <t>arr_biomass_bg_to_ag_ratio</t>
+  </si>
+  <si>
+    <t>ratio of below ground biomass to above ground</t>
+  </si>
+  <si>
+    <t>arr_c_available_from_conversion</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>healthy storage available per ha</t>
+  </si>
+  <si>
+    <t>arr_frac_biomass_ag_decomposition</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_ag_lost_conversion</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_bg_lost_conversion</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_removed</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_removed_from_young</t>
+  </si>
+  <si>
+    <t>arr_young_stock_if_untouched (T x T)</t>
+  </si>
+  <si>
+    <t>arr_young_sf_base_by_tp_planted (T x T)</t>
+  </si>
+  <si>
+    <t>T = number of time periods</t>
+  </si>
+  <si>
+    <t>arr_young_c_available_for_removals_mask (T x T)</t>
+  </si>
+  <si>
+    <t>arr_young_area_by_tp_planted (T x T)   [e.g., col J]
+arr_young_area_by_tp_planted_cumvals (T x T)   [e.g., col H]
+arr_young_area_by_tp_planted_drops (T x T)   [e.g., col I]</t>
+  </si>
+  <si>
+    <t>arr_young_c_stock_removal_allocation (T x T)   [e.g., col G]
+arr_young_c_stock_removal_allocation_aux (T x T)   [e.g., col F]</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_converted_away</t>
+  </si>
+  <si>
+    <t>arr_young_c_stock (T x T)</t>
+  </si>
+  <si>
+    <t>arr_young_sf_adjusted_by_tp_planted (T x T)   [e.g., col J]
+arr_young_sf_adjustment_factor (T x T)   [e.g., col I]</t>
+  </si>
+  <si>
+    <t>(ref to above)</t>
+  </si>
+  <si>
+    <t>arr_orig_sf_adjustment_factor</t>
+  </si>
+  <si>
+    <t>arr_orig_biomass_c_if_untouched</t>
+  </si>
+  <si>
+    <t>arr_orig_sf_nominal</t>
+  </si>
+  <si>
+    <t>arr_orig_sf_adjusted</t>
+  </si>
+  <si>
+    <t>arr_orig_biomass_ag_c_starting</t>
+  </si>
+  <si>
+    <t>arr_orig_biomass_average_per_area</t>
+  </si>
+  <si>
+    <t>arr_young_biomass_ag_c_starting</t>
+  </si>
+  <si>
+    <t>arr_total_biomass_ag_c_starting</t>
+  </si>
+  <si>
+    <t>arr_orig_biomass_c_allocation_excluding_conversion</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_removed_from_original_demanded</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_removed_from_original_unmet</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_removed_from_original_final</t>
+  </si>
+  <si>
+    <t>arr_orig_frac_stock available</t>
+  </si>
+  <si>
+    <t>arr_orig_frac_removables_satisfiable</t>
+  </si>
+  <si>
+    <t>frac_removables_satisfiable</t>
+  </si>
+  <si>
+    <t>arr_orig_biomass_c_allocation_adjusted</t>
+  </si>
+  <si>
+    <t>vec_orig_biomass_c_accessible_pool</t>
+  </si>
+  <si>
+    <t>arr_orig_allocation_removals</t>
+  </si>
+  <si>
+    <t>bg loss from degradation</t>
+  </si>
+  <si>
+    <t>vec_young_c_available_for_removals_total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -702,8 +805,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,6 +862,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF44B3E1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -765,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -858,14 +986,41 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6019,18 +6174,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
-  <dimension ref="A1:AO139"/>
+  <dimension ref="A1:AM129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="52.33203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="37" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="27" style="22" customWidth="1"/>
     <col min="5" max="5" width="44" style="10" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" style="4" customWidth="1"/>
@@ -6050,21 +6205,20 @@
     <col min="26" max="28" width="14.6640625" customWidth="1"/>
     <col min="29" max="31" width="14.1640625" customWidth="1"/>
     <col min="32" max="32" width="4.1640625" customWidth="1"/>
-    <col min="34" max="34" width="9.1640625" customWidth="1"/>
-    <col min="35" max="35" width="3.33203125" customWidth="1"/>
+    <col min="33" max="33" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="32"/>
       <c r="D1" s="22"/>
       <c r="E1" s="10"/>
       <c r="F1" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" s="5">
         <v>1</v>
@@ -6087,17 +6241,17 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="32"/>
       <c r="D2" s="22"/>
       <c r="E2" s="10"/>
       <c r="F2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="27">
         <v>150</v>
@@ -6122,15 +6276,15 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
     </row>
-    <row r="3" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="32"/>
       <c r="D3" s="22"/>
       <c r="E3" s="10"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="27">
         <v>30</v>
@@ -6153,7 +6307,7 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:34" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F4" s="8">
         <v>0</v>
       </c>
@@ -6189,26 +6343,35 @@
       </c>
       <c r="Y4" s="20"/>
       <c r="AC4" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD4" s="30"/>
       <c r="AE4" s="30"/>
-      <c r="AH4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>194</v>
+        <v>164</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>51</v>
@@ -6216,27 +6379,27 @@
       <c r="G5" s="29"/>
       <c r="H5" s="17"/>
       <c r="I5" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="29"/>
       <c r="L5" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="29"/>
       <c r="O5" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P5" s="29"/>
       <c r="R5" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S5" s="29"/>
       <c r="U5" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V5" s="29"/>
       <c r="X5" s="29" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Y5" s="29"/>
       <c r="AC5" s="21" t="s">
@@ -6248,11 +6411,20 @@
       <c r="AE5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AH5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AJ5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
@@ -6305,16 +6477,28 @@
       <c r="AE6" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>196</v>
+        <v>165</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>184</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="4">
         <v>10000</v>
@@ -6380,23 +6564,28 @@
       <c r="AE7" s="19">
         <v>2</v>
       </c>
-      <c r="AG7" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="AH7">
-        <f>ROUND(AG7/4,0)</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>195</v>
+        <v>166</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F8" s="4">
         <f>F7</f>
@@ -6464,14 +6653,25 @@
       <c r="AE8" s="19">
         <v>2</v>
       </c>
-      <c r="AG8" s="5"/>
-    </row>
-    <row r="9" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>195</v>
+        <v>167</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>55</v>
@@ -6528,23 +6728,28 @@
       <c r="AE9" s="19">
         <v>2</v>
       </c>
-      <c r="AG9" s="5">
-        <v>4100000</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" ref="AH9:AH139" si="0">ROUND(AG9/4,0)</f>
-        <v>1025000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AJ9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>197</v>
+        <v>168</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>201</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="G10" s="4">
         <f>-MIN(G7-G9,0)</f>
@@ -6584,44 +6789,43 @@
       <c r="AE10" s="19">
         <v>20</v>
       </c>
-      <c r="AG10" s="5"/>
-    </row>
-    <row r="11" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>197</v>
+        <v>169</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>201</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G11" s="4">
-        <f>MAX(G10-G23,0)</f>
+        <f>MAX(G10-G24,0)</f>
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <f>MAX(J10-J23,0)</f>
+        <f>MAX(J10-J24,0)</f>
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <f>MAX(M10-M23,0)</f>
+        <f>MAX(M10-M24,0)</f>
         <v>0</v>
       </c>
       <c r="P11" s="4">
-        <f>MAX(P10-P23,0)</f>
+        <f>MAX(P10-P24,0)</f>
         <v>0</v>
       </c>
       <c r="S11" s="4">
-        <f>MAX(S10-S23,0)</f>
+        <f>MAX(S10-S24,0)</f>
         <v>0</v>
       </c>
       <c r="V11" s="4">
-        <f>MAX(V10-V23,0)</f>
+        <f>MAX(V10-V24,0)</f>
         <v>0</v>
       </c>
       <c r="Y11" s="4">
-        <f>MAX(Y10-Y23,0)</f>
+        <f>MAX(Y10-Y24,0)</f>
         <v>0</v>
       </c>
       <c r="AC11" s="19">
@@ -6634,17 +6838,16 @@
       <c r="AE11" s="19">
         <v>20</v>
       </c>
-      <c r="AG11" s="5"/>
-    </row>
-    <row r="12" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>195</v>
+        <v>170</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="4">
         <v>85</v>
@@ -6677,17 +6880,16 @@
       <c r="AE12" s="19">
         <v>20</v>
       </c>
-      <c r="AG12" s="5"/>
-    </row>
-    <row r="13" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:39" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>197</v>
+        <v>171</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>201</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F13" s="4">
         <f>MAX(F7-F9,0)</f>
@@ -6748,14 +6950,13 @@
       <c r="AC13" s="19"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
-      <c r="AG13" s="5"/>
-    </row>
-    <row r="14" spans="1:34" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>195</v>
+        <v>172</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>54</v>
@@ -6791,17 +6992,16 @@
       <c r="AE14" s="19">
         <v>20</v>
       </c>
-      <c r="AG14" s="5"/>
-    </row>
-    <row r="15" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>195</v>
+        <v>173</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F15" s="4">
         <v>1E-3</v>
@@ -6834,26 +7034,19 @@
       <c r="AE15" s="19">
         <v>20</v>
       </c>
-      <c r="AG15" s="5">
-        <v>4250000</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="0"/>
-        <v>1062500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>195</v>
+        <v>174</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F16" s="4">
         <v>0.2</v>
@@ -6868,18 +7061,17 @@
       <c r="AE16" s="19">
         <v>20</v>
       </c>
-      <c r="AG16" s="5"/>
-    </row>
-    <row r="17" spans="1:41" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>195</v>
+        <v>175</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="10" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F17" s="4">
         <v>0.67</v>
@@ -6894,17 +7086,16 @@
       <c r="AE17" s="19">
         <v>20</v>
       </c>
-      <c r="AG17" s="5"/>
-    </row>
-    <row r="18" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>195</v>
+        <v>176</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F18" s="4">
         <v>150</v>
@@ -6922,3875 +7113,3737 @@
       <c r="AE18" s="19">
         <v>20</v>
       </c>
-      <c r="AG18" s="5"/>
-    </row>
-    <row r="19" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>195</v>
+        <v>198</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="F19" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+    </row>
+    <row r="20" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="4">
         <f>F$18*$F$15</f>
         <v>0.15</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <f>G$18*$F$15</f>
         <v>0.1</v>
       </c>
-      <c r="AC19" s="19">
+      <c r="AC20" s="19">
         <v>12</v>
-      </c>
-      <c r="AD19" s="19">
-        <f>SUM(AC$6:AC19)</f>
-        <v>34.340000000000003</v>
-      </c>
-      <c r="AE19" s="19">
-        <v>20</v>
-      </c>
-      <c r="AG19" s="5"/>
-    </row>
-    <row r="20" spans="1:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="4">
-        <f>F18-F19</f>
-        <v>149.85</v>
-      </c>
-      <c r="G20" s="4">
-        <f>G18-G19</f>
-        <v>99.9</v>
-      </c>
-      <c r="AC20" s="19">
-        <v>13.5</v>
       </c>
       <c r="AD20" s="19">
         <f>SUM(AC$6:AC20)</f>
-        <v>47.84</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="AE20" s="19">
         <v>20</v>
       </c>
-      <c r="AG20" s="5"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="4">
+        <f>F18-F20</f>
+        <v>149.85</v>
+      </c>
+      <c r="G21" s="4">
+        <f>G18-G20</f>
+        <v>99.9</v>
+      </c>
       <c r="AC21" s="19">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AD21" s="19">
         <f>SUM(AC$6:AC21)</f>
-        <v>59.84</v>
+        <v>47.84</v>
       </c>
       <c r="AE21" s="19">
         <v>20</v>
       </c>
-      <c r="AG21" s="5">
-        <v>4400000</v>
-      </c>
-      <c r="AH21">
-        <f t="shared" si="0"/>
-        <v>1100000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="4">
-        <v>5000</v>
-      </c>
-      <c r="G22" s="4">
-        <v>50000</v>
-      </c>
-      <c r="I22" s="4">
-        <v>5000</v>
-      </c>
-      <c r="J22" s="4">
-        <v>50000</v>
-      </c>
-      <c r="L22" s="4">
-        <v>6000</v>
-      </c>
-      <c r="M22" s="4">
-        <v>50000</v>
-      </c>
-      <c r="O22" s="4">
-        <v>6000</v>
-      </c>
-      <c r="P22" s="4">
-        <v>50000</v>
-      </c>
-      <c r="R22" s="4">
-        <v>6500</v>
-      </c>
-      <c r="S22" s="4">
-        <v>49000</v>
-      </c>
-      <c r="U22" s="4">
-        <v>7200</v>
-      </c>
-      <c r="V22" s="4">
-        <v>49500</v>
-      </c>
-      <c r="X22" s="4">
-        <v>7200</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>49500</v>
-      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AC22" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD22" s="19">
         <f>SUM(AC$6:AC22)</f>
-        <v>69.84</v>
+        <v>59.84</v>
       </c>
       <c r="AE22" s="19">
         <v>20</v>
       </c>
-      <c r="AG22" s="5"/>
-    </row>
-    <row r="23" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>111</v>
+        <v>179</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5000</v>
       </c>
       <c r="G23" s="4">
-        <f>MAX(G$22-G$13, 0)</f>
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="I23" s="4">
+        <v>5000</v>
       </c>
       <c r="J23" s="4">
-        <f>MAX(J$22-J$13, 0)</f>
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="L23" s="4">
+        <v>5500</v>
       </c>
       <c r="M23" s="4">
-        <f>MAX(M$22-M$13, 0)</f>
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="O23" s="4">
+        <v>6000</v>
       </c>
       <c r="P23" s="4">
-        <f>MAX(P$22-P$13, 0)</f>
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="R23" s="4">
+        <v>6500</v>
       </c>
       <c r="S23" s="4">
-        <f>MAX(S$22-S$13, 0)</f>
-        <v>0</v>
+        <v>49000</v>
+      </c>
+      <c r="U23" s="4">
+        <v>7200</v>
       </c>
       <c r="V23" s="4">
-        <f>MAX(V$22-V$13, 0)</f>
-        <v>0</v>
+        <v>49500</v>
+      </c>
+      <c r="X23" s="4">
+        <v>7200</v>
       </c>
       <c r="Y23" s="4">
-        <f>MAX(Y$22-Y$13, 0)</f>
-        <v>0</v>
+        <v>49500</v>
       </c>
       <c r="AC23" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AD23" s="19">
         <f>SUM(AC$6:AC23)</f>
-        <v>75.84</v>
+        <v>69.84</v>
       </c>
       <c r="AE23" s="19">
         <v>20</v>
       </c>
-      <c r="AG23" s="5"/>
-    </row>
-    <row r="24" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>197</v>
+        <v>180</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="4">
-        <f>MIN(F13,F22)</f>
-        <v>5000</v>
+        <v>108</v>
       </c>
       <c r="G24" s="4">
-        <f>MIN(G13,G22)-G23</f>
-        <v>50000</v>
-      </c>
-      <c r="I24" s="4">
-        <f>MIN(I13,I22)</f>
-        <v>5000</v>
+        <f>MAX(G$23-G$13, 0)</f>
+        <v>0</v>
       </c>
       <c r="J24" s="4">
-        <f>MIN(J13,J22)-J23</f>
-        <v>50000</v>
-      </c>
-      <c r="L24" s="4">
-        <f>MIN(L13,L22)</f>
-        <v>6000</v>
+        <f>MAX(J$23-J$13, 0)</f>
+        <v>0</v>
       </c>
       <c r="M24" s="4">
-        <f>MIN(M13,M22)-M23</f>
-        <v>50000</v>
-      </c>
-      <c r="O24" s="4">
-        <f>MIN(O13,O22)</f>
-        <v>6000</v>
+        <f>MAX(M$23-M$13, 0)</f>
+        <v>0</v>
       </c>
       <c r="P24" s="4">
-        <f>MIN(P13,P22)-P23</f>
-        <v>50000</v>
-      </c>
-      <c r="R24" s="4">
-        <f>MIN(R13,R22)</f>
-        <v>6500</v>
+        <f>MAX(P$23-P$13, 0)</f>
+        <v>0</v>
       </c>
       <c r="S24" s="4">
-        <f>MIN(S13,S22)-S23</f>
-        <v>49000</v>
-      </c>
-      <c r="U24" s="4">
-        <f>MIN(U13,U22)</f>
-        <v>7200</v>
+        <f>MAX(S$23-S$13, 0)</f>
+        <v>0</v>
       </c>
       <c r="V24" s="4">
-        <f>MIN(V13,V22)-V23</f>
-        <v>49500</v>
-      </c>
-      <c r="X24" s="4">
-        <f>MIN(X13,X22)</f>
-        <v>7200</v>
+        <f>MAX(V$23-V$13, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y24" s="4">
-        <f>MIN(Y13,Y22)-Y23</f>
-        <v>49500</v>
+        <f>MAX(Y$23-Y$13, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC24" s="19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD24" s="19">
         <f>SUM(AC$6:AC24)</f>
-        <v>78.84</v>
+        <v>75.84</v>
       </c>
       <c r="AE24" s="19">
         <v>20</v>
       </c>
-      <c r="AG24" s="5"/>
-    </row>
-    <row r="25" spans="1:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="E25" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
+    </row>
+    <row r="25" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="4">
+        <f>MIN(F13,F23)</f>
+        <v>5000</v>
+      </c>
+      <c r="G25" s="4">
+        <f>MIN(G13,G23)-G24</f>
+        <v>50000</v>
+      </c>
+      <c r="I25" s="4">
+        <f>MIN(I13,I23)</f>
+        <v>5000</v>
+      </c>
+      <c r="J25" s="4">
+        <f>MIN(J13,J23)-J24</f>
+        <v>50000</v>
+      </c>
+      <c r="L25" s="4">
+        <f>MIN(L13,L23)</f>
+        <v>5500</v>
+      </c>
+      <c r="M25" s="4">
+        <f>MIN(M13,M23)-M24</f>
+        <v>50000</v>
+      </c>
+      <c r="O25" s="4">
+        <f>MIN(O13,O23)</f>
+        <v>6000</v>
+      </c>
+      <c r="P25" s="4">
+        <f>MIN(P13,P23)-P24</f>
+        <v>50000</v>
+      </c>
+      <c r="R25" s="4">
+        <f>MIN(R13,R23)</f>
+        <v>6500</v>
+      </c>
+      <c r="S25" s="4">
+        <f>MIN(S13,S23)-S24</f>
+        <v>49000</v>
+      </c>
+      <c r="U25" s="4">
+        <f>MIN(U13,U23)</f>
+        <v>7200</v>
+      </c>
+      <c r="V25" s="4">
+        <f>MIN(V13,V23)-V24</f>
+        <v>49500</v>
+      </c>
+      <c r="X25" s="4">
+        <f>MIN(X13,X23)</f>
+        <v>7200</v>
+      </c>
+      <c r="Y25" s="4">
+        <f>MIN(Y13,Y23)-Y24</f>
+        <v>49500</v>
+      </c>
       <c r="AC25" s="19">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AD25" s="19">
         <f>SUM(AC$6:AC25)</f>
-        <v>80.64</v>
+        <v>78.84</v>
       </c>
       <c r="AE25" s="19">
         <v>20</v>
       </c>
-      <c r="AG25" s="5">
-        <v>4420000</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="0"/>
-        <v>1105000</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+    </row>
+    <row r="26" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="E26" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="AC26" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="AD26" s="19">
+        <f>SUM(AC$6:AC26)</f>
+        <v>80.64</v>
+      </c>
+      <c r="AE26" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B28" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.92</v>
-      </c>
-      <c r="AG26" s="5"/>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="AG27" s="5"/>
-    </row>
-    <row r="28" spans="1:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="E28" s="15" t="s">
+      <c r="F28" s="4">
+        <f>F27/F18</f>
+        <v>2E-3</v>
+      </c>
+      <c r="G28" s="4">
+        <f>F28</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="E30" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="AG28" s="5"/>
-      <c r="AL28" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+    </row>
+    <row r="31" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F31" s="4">
         <v>2000000</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I31" s="4">
         <v>2050000</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L31" s="4">
         <v>2110000</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O31" s="4">
         <v>2210000</v>
       </c>
-      <c r="R29" s="4">
-        <v>2110000</v>
-      </c>
-      <c r="U29" s="4">
-        <v>2210000</v>
-      </c>
-      <c r="X29" s="4">
-        <v>2350000</v>
-      </c>
-      <c r="AG29" s="5"/>
-      <c r="AL29" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="AG30" s="5">
-        <v>4508400</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" si="0"/>
-        <v>1127100</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="E31" s="11" t="s">
+      <c r="R31" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="U31" s="4">
+        <v>25000000</v>
+      </c>
+      <c r="X31" s="4">
+        <v>2520000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="E33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="AG31" s="5">
-        <v>4598570</v>
-      </c>
-      <c r="AH31">
-        <f t="shared" si="0"/>
-        <v>1149643</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="E32" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG32" s="5">
-        <v>4690540</v>
-      </c>
-      <c r="AH32">
-        <f t="shared" si="0"/>
-        <v>1172635</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="5:41" x14ac:dyDescent="0.2">
-      <c r="E33" s="14"/>
-      <c r="AG33" s="5">
-        <v>4784350</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" si="0"/>
-        <v>1196088</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="5:41" x14ac:dyDescent="0.2">
-      <c r="AG34" s="5">
-        <v>4880040</v>
-      </c>
-      <c r="AH34">
-        <f t="shared" si="0"/>
-        <v>1220010</v>
-      </c>
-    </row>
-    <row r="35" spans="5:41" x14ac:dyDescent="0.2">
-      <c r="E35" s="14"/>
-      <c r="AG35" s="5">
-        <v>4977640</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" si="0"/>
-        <v>1244410</v>
-      </c>
-    </row>
-    <row r="36" spans="5:41" x14ac:dyDescent="0.2">
-      <c r="AG36" s="5">
-        <v>5077190</v>
-      </c>
-      <c r="AH36">
-        <f t="shared" si="0"/>
-        <v>1269298</v>
-      </c>
-    </row>
-    <row r="37" spans="5:41" x14ac:dyDescent="0.2">
-      <c r="E37" s="14"/>
-      <c r="AG37" s="5">
-        <v>5178730</v>
-      </c>
-      <c r="AH37">
-        <f t="shared" si="0"/>
-        <v>1294683</v>
-      </c>
-    </row>
-    <row r="38" spans="5:41" x14ac:dyDescent="0.2">
-      <c r="E38" s="14"/>
-      <c r="AG38" s="5">
-        <v>5282300</v>
-      </c>
-      <c r="AH38">
-        <f t="shared" si="0"/>
-        <v>1320575</v>
-      </c>
-    </row>
-    <row r="39" spans="5:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="E39" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="I39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG39" s="5">
-        <v>5387950</v>
-      </c>
-      <c r="AH39">
-        <f t="shared" si="0"/>
-        <v>1346988</v>
-      </c>
-    </row>
-    <row r="40" spans="5:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="E40" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="5">
-        <f>SUM(J$40:J40)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5">
-        <f>SUM(M$40:M40)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5">
-        <f>SUM(P$40:P40)</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="5">
-        <f>SUM(S$40:S40)</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="4">
-        <v>0</v>
-      </c>
-      <c r="T40" s="5">
-        <f>SUM(V$40:V40)</f>
-        <v>0</v>
-      </c>
-      <c r="V40" s="4">
-        <v>0</v>
-      </c>
-      <c r="W40" s="5">
-        <f>SUM(Y$40:Y40)</f>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="5"/>
-    </row>
-    <row r="41" spans="5:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="E41" s="14" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+    </row>
+    <row r="34" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="E34" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="I34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <f>SUM(J$35:J35)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <f>SUM(M$35:M35)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <f>SUM(P$35:P35)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
+        <f>SUM(S$35:S35)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+      <c r="T35" s="5">
+        <f>SUM(V$35:V35)</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0</v>
+      </c>
+      <c r="W35" s="5">
+        <f>SUM(Y$35:Y35)</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
         <f>G12</f>
         <v>85</v>
       </c>
-      <c r="H41" s="5">
-        <f>SUM(G$40:G41)</f>
+      <c r="H36" s="5">
+        <f>SUM(G$35:G36)</f>
         <v>85</v>
       </c>
-      <c r="I41" s="4">
-        <f>IF(H41&gt;=J$11, IF(H40&lt;J$11, J$11-H40, 0),G41)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="4">
-        <f>G41-I41</f>
+      <c r="I36" s="4">
+        <f>IF(H36&gt;=J$11, IF(H35&lt;J$11, J$11-H35, 0),G36)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <f>G36-I36</f>
         <v>85</v>
       </c>
-      <c r="K41" s="5">
-        <f>SUM(J$40:J41)</f>
+      <c r="K36" s="5">
+        <f>SUM(J$35:J36)</f>
         <v>85</v>
       </c>
-      <c r="L41" s="4">
-        <f>IF(K41&gt;=M$11, IF(K40&lt;M$11, M$11-K40, 0),J41)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="4">
-        <f>J41-L41</f>
+      <c r="L36" s="4">
+        <f>IF(K36&gt;=M$11, IF(K35&lt;M$11, M$11-K35, 0),J36)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <f>J36-L36</f>
         <v>85</v>
       </c>
-      <c r="N41" s="5">
-        <f>SUM(M$40:M41)</f>
+      <c r="N36" s="5">
+        <f>SUM(M$35:M36)</f>
         <v>85</v>
       </c>
-      <c r="O41" s="4">
-        <f>IF(N41&gt;=P$11, IF(N40&lt;P$11, P$11-N40, 0),M41)</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="4">
-        <f>M41-O41</f>
+      <c r="O36" s="4">
+        <f>IF(N36&gt;=P$11, IF(N35&lt;P$11, P$11-N35, 0),M36)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <f>M36-O36</f>
         <v>85</v>
       </c>
-      <c r="Q41" s="5">
-        <f>SUM(P$40:P41)</f>
+      <c r="Q36" s="5">
+        <f>SUM(P$35:P36)</f>
         <v>85</v>
       </c>
-      <c r="R41" s="4">
-        <f>IF(Q41&gt;=S$11, IF(Q40&lt;S$11, S$11-Q40, 0),P41)</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="4">
-        <f>P41-R41</f>
+      <c r="R36" s="4">
+        <f>IF(Q36&gt;=S$11, IF(Q35&lt;S$11, S$11-Q35, 0),P36)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <f>P36-R36</f>
         <v>85</v>
       </c>
-      <c r="T41" s="5">
-        <f>SUM(S$40:S41)</f>
+      <c r="T36" s="5">
+        <f>SUM(S$35:S36)</f>
         <v>85</v>
       </c>
-      <c r="U41" s="4">
-        <f>IF(T41&gt;=V$11, IF(T40&lt;V$11, V$11-T40, 0),S41)</f>
-        <v>0</v>
-      </c>
-      <c r="V41" s="4">
-        <f>S41-U41</f>
+      <c r="U36" s="4">
+        <f>IF(T36&gt;=V$11, IF(T35&lt;V$11, V$11-T35, 0),S36)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="4">
+        <f>S36-U36</f>
         <v>85</v>
       </c>
-      <c r="W41" s="5">
-        <f>SUM(V$40:V41)</f>
+      <c r="W36" s="5">
+        <f>SUM(V$35:V36)</f>
         <v>85</v>
       </c>
-      <c r="X41" s="4">
-        <f>IF(W41&gt;=Y$11, IF(W40&lt;Y$11, Y$11-W40, 0),V41)</f>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="4">
-        <f>V41-X41</f>
+      <c r="X36" s="4">
+        <f>IF(W36&gt;=Y$11, IF(W35&lt;Y$11, Y$11-W35, 0),V36)</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="4">
+        <f>V36-X36</f>
         <v>85</v>
       </c>
-      <c r="AG41" s="5"/>
-    </row>
-    <row r="42" spans="5:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="E42" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
-        <f>SUM(G$40:G42)</f>
+    </row>
+    <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="40"/>
+      <c r="B37" s="38"/>
+      <c r="E37" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <f>SUM(G$35:G37)</f>
         <v>85</v>
       </c>
-      <c r="I42" s="4">
-        <f>IF(H42&gt;=J$11, IF(H41&lt;J$11, J$11-H41, 0),G42)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
+      <c r="I37" s="4">
+        <f>IF(H37&gt;=J$11, IF(H36&lt;J$11, J$11-H36, 0),G37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
         <f>J12</f>
         <v>80</v>
       </c>
-      <c r="K42" s="5">
-        <f>SUM(J$40:J42)</f>
+      <c r="K37" s="5">
+        <f>SUM(J$35:J37)</f>
         <v>165</v>
       </c>
-      <c r="L42" s="4">
-        <f t="shared" ref="L42:L44" si="1">IF(K42&gt;=M$11, IF(K41&lt;M$11, M$11-K41, 0),J42)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="4">
-        <f>J42-L42</f>
+      <c r="L37" s="4">
+        <f t="shared" ref="L37:L39" si="0">IF(K37&gt;=M$11, IF(K36&lt;M$11, M$11-K36, 0),J37)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <f>J37-L37</f>
         <v>80</v>
       </c>
-      <c r="N42" s="5">
-        <f>SUM(M$40:M42)</f>
+      <c r="N37" s="5">
+        <f>SUM(M$35:M37)</f>
         <v>165</v>
       </c>
-      <c r="O42" s="4">
-        <f t="shared" ref="O42:O44" si="2">IF(N42&gt;=P$11, IF(N41&lt;P$11, P$11-N41, 0),M42)</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="4">
-        <f>M42-O42</f>
+      <c r="O37" s="4">
+        <f t="shared" ref="O37:O39" si="1">IF(N37&gt;=P$11, IF(N36&lt;P$11, P$11-N36, 0),M37)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <f>M37-O37</f>
         <v>80</v>
       </c>
-      <c r="Q42" s="5">
-        <f>SUM(P$40:P42)</f>
+      <c r="Q37" s="5">
+        <f>SUM(P$35:P37)</f>
         <v>165</v>
       </c>
-      <c r="R42" s="4">
-        <f t="shared" ref="R42:R44" si="3">IF(Q42&gt;=S$11, IF(Q41&lt;S$11, S$11-Q41, 0),P42)</f>
-        <v>0</v>
-      </c>
-      <c r="S42" s="4">
-        <f>P42-R42</f>
+      <c r="R37" s="4">
+        <f t="shared" ref="R37:R39" si="2">IF(Q37&gt;=S$11, IF(Q36&lt;S$11, S$11-Q36, 0),P37)</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
+        <f>P37-R37</f>
         <v>80</v>
       </c>
-      <c r="T42" s="5">
-        <f>SUM(S$40:S42)</f>
+      <c r="T37" s="5">
+        <f>SUM(S$35:S37)</f>
         <v>165</v>
       </c>
-      <c r="U42" s="4">
-        <f t="shared" ref="U42:U44" si="4">IF(T42&gt;=V$11, IF(T41&lt;V$11, V$11-T41, 0),S42)</f>
-        <v>0</v>
-      </c>
-      <c r="V42" s="4">
-        <f>S42-U42</f>
+      <c r="U37" s="4">
+        <f t="shared" ref="U37:U39" si="3">IF(T37&gt;=V$11, IF(T36&lt;V$11, V$11-T36, 0),S37)</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="4">
+        <f>S37-U37</f>
         <v>80</v>
       </c>
-      <c r="W42" s="5">
-        <f>SUM(V$40:V42)</f>
+      <c r="W37" s="5">
+        <f>SUM(V$35:V37)</f>
         <v>165</v>
       </c>
-      <c r="X42" s="4">
-        <f t="shared" ref="X42:X44" si="5">IF(W42&gt;=Y$11, IF(W41&lt;Y$11, Y$11-W41, 0),V42)</f>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="4">
-        <f>V42-X42</f>
+      <c r="X37" s="4">
+        <f t="shared" ref="X37:X39" si="4">IF(W37&gt;=Y$11, IF(W36&lt;Y$11, Y$11-W36, 0),V37)</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="4">
+        <f>V37-X37</f>
         <v>80</v>
       </c>
-      <c r="AG42" s="5"/>
-    </row>
-    <row r="43" spans="5:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="E43" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5">
-        <f>SUM(G$40:G43)</f>
+    </row>
+    <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="40"/>
+      <c r="B38" s="38"/>
+      <c r="E38" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <f>SUM(G$35:G38)</f>
         <v>85</v>
       </c>
-      <c r="I43" s="4">
-        <f t="shared" ref="I43:I44" si="6">IF(H43&gt;=J$11, IF(H42&lt;J$11, J$11-H42, 0),G43)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5">
-        <f>SUM(J$40:J43)</f>
+      <c r="I38" s="4">
+        <f t="shared" ref="I38:I39" si="5">IF(H38&gt;=J$11, IF(H37&lt;J$11, J$11-H37, 0),G38)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <f>SUM(J$35:J38)</f>
         <v>165</v>
       </c>
-      <c r="L43" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="4">
+      <c r="L38" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
         <f>M12</f>
         <v>92</v>
       </c>
-      <c r="N43" s="5">
-        <f>SUM(M$40:M43)</f>
+      <c r="N38" s="5">
+        <f>SUM(M$35:M38)</f>
         <v>257</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <f>M38-O38</f>
+        <v>92</v>
+      </c>
+      <c r="Q38" s="5">
+        <f>SUM(P$35:P38)</f>
+        <v>257</v>
+      </c>
+      <c r="R38" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P43" s="4">
-        <f>M43-O43</f>
+      <c r="S38" s="4">
+        <f>P38-R38</f>
         <v>92</v>
       </c>
-      <c r="Q43" s="5">
-        <f>SUM(P$40:P43)</f>
+      <c r="T38" s="5">
+        <f>SUM(S$35:S38)</f>
         <v>257</v>
       </c>
-      <c r="R43" s="4">
+      <c r="U38" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S43" s="4">
-        <f>P43-R43</f>
+      <c r="V38" s="4">
+        <f>S38-U38</f>
         <v>92</v>
       </c>
-      <c r="T43" s="5">
-        <f>SUM(S$40:S43)</f>
+      <c r="W38" s="5">
+        <f>SUM(V$35:V38)</f>
         <v>257</v>
       </c>
-      <c r="U43" s="4">
+      <c r="X38" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V43" s="4">
-        <f>S43-U43</f>
+      <c r="Y38" s="4">
+        <f>V38-X38</f>
         <v>92</v>
       </c>
-      <c r="W43" s="5">
-        <f>SUM(V$40:V43)</f>
+    </row>
+    <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="40"/>
+      <c r="B39" s="38"/>
+      <c r="E39" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <f>SUM(G$35:G39)</f>
+        <v>85</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <f>SUM(J$35:J39)</f>
+        <v>165</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <f>SUM(M$35:M39)</f>
         <v>257</v>
       </c>
-      <c r="X43" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="4">
-        <f>V43-X43</f>
-        <v>92</v>
-      </c>
-      <c r="AG43" s="5"/>
-    </row>
-    <row r="44" spans="5:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="E44" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5">
-        <f>SUM(G$40:G44)</f>
-        <v>85</v>
-      </c>
-      <c r="I44" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5">
-        <f>SUM(J$40:J44)</f>
-        <v>165</v>
-      </c>
-      <c r="L44" s="4">
+      <c r="O39" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M44" s="4">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5">
-        <f>SUM(M$40:M44)</f>
-        <v>257</v>
-      </c>
-      <c r="O44" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="4">
+      <c r="P39" s="4">
         <f>P12</f>
         <v>43</v>
       </c>
-      <c r="Q44" s="5">
-        <f>SUM(P$40:P44)</f>
+      <c r="Q39" s="5">
+        <f>SUM(P$35:P39)</f>
         <v>300</v>
       </c>
-      <c r="R44" s="4">
+      <c r="R39" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="4">
+        <f>P39-R39</f>
+        <v>43</v>
+      </c>
+      <c r="T39" s="5">
+        <f>SUM(S$35:S39)</f>
+        <v>300</v>
+      </c>
+      <c r="U39" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S44" s="4">
-        <f>P44-R44</f>
+      <c r="V39" s="4">
+        <f>S39-U39</f>
         <v>43</v>
       </c>
-      <c r="T44" s="5">
-        <f>SUM(S$40:S44)</f>
+      <c r="W39" s="5">
+        <f>SUM(V$35:V39)</f>
         <v>300</v>
       </c>
-      <c r="U44" s="4">
+      <c r="X39" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V44" s="4">
-        <f>S44-U44</f>
+      <c r="Y39" s="4">
+        <f>V39-X39</f>
         <v>43</v>
       </c>
-      <c r="W44" s="5">
-        <f>SUM(V$40:V44)</f>
-        <v>300</v>
-      </c>
-      <c r="X44" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="4">
-        <f>V44-X44</f>
-        <v>43</v>
-      </c>
-      <c r="AG44" s="5"/>
-    </row>
-    <row r="45" spans="5:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="E45" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG45" s="5"/>
-    </row>
-    <row r="46" spans="5:41" x14ac:dyDescent="0.2">
-      <c r="E46" s="14"/>
-      <c r="AG46" s="5"/>
-    </row>
-    <row r="47" spans="5:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="E47" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G47" s="4">
+    </row>
+    <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="E40" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="4">
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J42" s="4">
         <f>AC7</f>
         <v>0.01</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M42" s="4">
         <f>AC8</f>
         <v>0.05</v>
       </c>
-      <c r="P47" s="4">
+      <c r="P42" s="4">
         <f>AC9</f>
         <v>0.12</v>
       </c>
-      <c r="S47" s="4">
+      <c r="S42" s="4">
         <f>AC11</f>
         <v>0.2</v>
       </c>
-      <c r="V47" s="4">
+      <c r="V42" s="4">
         <f>AC12</f>
         <v>0.36</v>
       </c>
-      <c r="Y47" s="4">
+      <c r="Y42" s="4">
         <f>AC14</f>
         <v>0.6</v>
       </c>
-      <c r="AG47" s="5"/>
-    </row>
-    <row r="48" spans="5:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="E48" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0</v>
-      </c>
-      <c r="M48" s="4">
+    </row>
+    <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="40"/>
+      <c r="B43" s="38"/>
+      <c r="E43" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
         <f>AC7</f>
         <v>0.01</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P43" s="4">
         <f>AC8</f>
         <v>0.05</v>
       </c>
-      <c r="S48" s="4">
+      <c r="S43" s="4">
         <f>AC9</f>
         <v>0.12</v>
       </c>
-      <c r="V48" s="4">
+      <c r="V43" s="4">
         <f>AC11</f>
         <v>0.2</v>
       </c>
-      <c r="Y48" s="4">
+      <c r="Y43" s="4">
         <f>AC12</f>
         <v>0.36</v>
       </c>
-      <c r="AG48" s="5"/>
-    </row>
-    <row r="49" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E49" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0</v>
-      </c>
-      <c r="M49" s="4">
-        <v>0</v>
-      </c>
-      <c r="P49" s="4">
+    </row>
+    <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="40"/>
+      <c r="B44" s="38"/>
+      <c r="E44" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
         <f>AC7</f>
         <v>0.01</v>
       </c>
-      <c r="S49" s="4">
+      <c r="S44" s="4">
         <f>AC8</f>
         <v>0.05</v>
       </c>
-      <c r="V49" s="4">
+      <c r="V44" s="4">
         <f>AC9</f>
         <v>0.12</v>
       </c>
-      <c r="Y49" s="4">
+      <c r="Y44" s="4">
         <f>AC11</f>
         <v>0.2</v>
       </c>
-      <c r="AG49" s="5"/>
-    </row>
-    <row r="50" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E50" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
-        <v>0</v>
-      </c>
-      <c r="M50" s="4">
-        <v>0</v>
-      </c>
-      <c r="P50" s="4">
-        <v>0</v>
-      </c>
-      <c r="S50" s="4">
+    </row>
+    <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="40"/>
+      <c r="B45" s="38"/>
+      <c r="E45" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="S45" s="4">
         <f>AC7</f>
         <v>0.01</v>
       </c>
-      <c r="V50" s="4">
+      <c r="V45" s="4">
         <f>AC8</f>
         <v>0.05</v>
       </c>
-      <c r="Y50" s="4">
+      <c r="Y45" s="4">
         <f>AC9</f>
         <v>0.12</v>
       </c>
-      <c r="AG50" s="5"/>
-    </row>
-    <row r="51" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="E46" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="4">
+        <f>G36*G42</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <f>J36*J42</f>
+        <v>0.85</v>
+      </c>
+      <c r="M48" s="4">
+        <f>J48+M36*M42</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P48" s="4">
+        <f>M48+P36*P42</f>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="S48" s="4">
+        <f>P48+S36*S42</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="V48" s="4">
+        <f>S48+V36*V42</f>
+        <v>62.899999999999991</v>
+      </c>
+      <c r="Y48" s="4">
+        <f>V48+Y36*Y42</f>
+        <v>113.89999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="40"/>
+      <c r="B49" s="38"/>
+      <c r="D49" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" s="4">
+        <f>J37*J43</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" ref="M49:M50" si="6">J49+M37*M43</f>
+        <v>0.8</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" ref="P49:P50" si="7">M49+P37*P43</f>
+        <v>4.8</v>
+      </c>
+      <c r="S49" s="4">
+        <f t="shared" ref="S49" si="8">P49+S37*S43</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="V49" s="4">
+        <f t="shared" ref="V49" si="9">S49+V37*V43</f>
+        <v>30.4</v>
+      </c>
+      <c r="Y49" s="4">
+        <f t="shared" ref="Y49" si="10">V49+Y37*Y43</f>
+        <v>59.199999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="40"/>
+      <c r="B50" s="38"/>
+      <c r="D50" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" si="7"/>
+        <v>0.92</v>
+      </c>
+      <c r="S50" s="4">
+        <f>P50+S38*S44</f>
+        <v>5.5200000000000005</v>
+      </c>
+      <c r="V50" s="4">
+        <f>S50+V38*V44</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="Y50" s="4">
+        <f>V50+Y38*Y44</f>
+        <v>34.96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="40"/>
+      <c r="B51" s="38"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG51" s="5"/>
-    </row>
-    <row r="52" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="E52" s="14"/>
-      <c r="AG52" s="5"/>
-    </row>
-    <row r="53" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E53" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53" s="4">
-        <f>G41*G47</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="4">
-        <f>J41*J47</f>
-        <v>0.85</v>
-      </c>
-      <c r="M53" s="4">
-        <f>J53+M41*M47</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P53" s="4">
-        <f>M53+P41*P47</f>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="S53" s="4">
-        <f>P53+S41*S47</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="V53" s="4">
-        <f>V41*V47</f>
-        <v>30.599999999999998</v>
-      </c>
-      <c r="Y53" s="4">
-        <f>Y41*Y47</f>
-        <v>51</v>
-      </c>
-      <c r="AG53" s="5"/>
-    </row>
-    <row r="54" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="D54" s="22" t="s">
-        <v>167</v>
+        <v>112</v>
+      </c>
+      <c r="M51" s="4">
+        <f>J51+M39*M45</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <f>M51+P39*P45</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="4">
+        <f>P51+S39*S45</f>
+        <v>0.43</v>
+      </c>
+      <c r="V51" s="4">
+        <f>S51+V39*V45</f>
+        <v>2.58</v>
+      </c>
+      <c r="Y51" s="4">
+        <f>V51+Y39*Y45</f>
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="D52" s="28"/>
+      <c r="E52" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="D53" s="28"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>201</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>115</v>
+        <v>131</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
       </c>
       <c r="J54" s="4">
-        <f>J42*J48</f>
+        <f>INT(I$4-$AE$6 &gt; $D62)*MAX(G72-$G$20*G36,0)</f>
         <v>0</v>
       </c>
       <c r="M54" s="4">
-        <f t="shared" ref="M54:M55" si="7">J54+M42*M48</f>
-        <v>0.8</v>
+        <f>INT(L$4-$AE$6 &gt; $D62)*MAX(J72-$F$20*J36,0)</f>
+        <v>0</v>
       </c>
       <c r="P54" s="4">
-        <f t="shared" ref="P54:P55" si="8">M54+P42*P48</f>
-        <v>4.8</v>
+        <f>INT(O$4-$AE$6 &gt; $D62)*MAX(M72-$F$20*M36,0)</f>
+        <v>0</v>
       </c>
       <c r="S54" s="4">
-        <f t="shared" ref="S54" si="9">P54+S42*S48</f>
-        <v>14.399999999999999</v>
+        <f>INT(R$4-$AE$6 &gt; $D62)*MAX(P72-$F$20*P36,0)</f>
+        <v>2.5499999999999989</v>
       </c>
       <c r="V54" s="4">
-        <f>V42*V48</f>
+        <f>INT(U$4-$AE$6 &gt; $D62)*MAX(S72-$F$20*S36,0)</f>
+        <v>19.549999999999997</v>
+      </c>
+      <c r="Y54" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D62)*MAX(V72-$F$20*V36,0)</f>
+        <v>30.599999999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="40"/>
+      <c r="B55" s="38"/>
+      <c r="E55" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D63)*MAX(G73-$F$20*G37,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D63)*MAX(J73-$F$20*J37,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D63)*MAX(M73-$F$20*M37,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D63)*MAX(P73-$F$20*P37,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V55" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D63)*MAX(S73-$F$20*S37,0)</f>
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="Y55" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D63)*MAX(V73-$F$20*V37,0)</f>
         <v>16</v>
       </c>
-      <c r="Y54" s="4">
-        <f>Y42*Y48</f>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="AG54" s="5"/>
-    </row>
-    <row r="55" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="D55" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="M55" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="4">
-        <f t="shared" si="8"/>
-        <v>0.92</v>
-      </c>
-      <c r="S55" s="4">
-        <f>P55+S43*S49</f>
-        <v>5.5200000000000005</v>
-      </c>
-      <c r="V55" s="4">
-        <f>V43*V49</f>
-        <v>11.04</v>
-      </c>
-      <c r="Y55" s="4">
-        <f>Y43*Y49</f>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="AG55" s="5"/>
-    </row>
-    <row r="56" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="D56" s="28"/>
+    </row>
+    <row r="56" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="40"/>
+      <c r="B56" s="38"/>
+      <c r="D56" s="28" t="s">
+        <v>161</v>
+      </c>
       <c r="E56" s="14" t="s">
-        <v>117</v>
+        <v>133</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D64)*MAX(G74-$F$20*G38,0)</f>
+        <v>0</v>
       </c>
       <c r="M56" s="4">
-        <f>J56+M44*M50</f>
+        <f>INT(L$4-$AE$6 &gt; $D64)*MAX(J74-$F$20*J38,0)</f>
         <v>0</v>
       </c>
       <c r="P56" s="4">
-        <f>M56+P44*P50</f>
+        <f>INT(O$4-$AE$6 &gt; $D64)*MAX(M74-$F$20*M38,0)</f>
         <v>0</v>
       </c>
       <c r="S56" s="4">
-        <f>P56+S44*S50</f>
-        <v>0.43</v>
+        <f>INT(R$4-$AE$6 &gt; $D64)*MAX(P74-$F$20*P38,0)</f>
+        <v>0</v>
       </c>
       <c r="V56" s="4">
-        <f>V44*V50</f>
-        <v>2.15</v>
+        <f>INT(U$4-$AE$6 &gt; $D64)*MAX(S74-$F$20*S38,0)</f>
+        <v>0</v>
       </c>
       <c r="Y56" s="4">
-        <f>Y44*Y50</f>
-        <v>5.16</v>
-      </c>
-      <c r="AG56" s="5"/>
-    </row>
-    <row r="57" spans="4:33" ht="17" x14ac:dyDescent="0.2">
+        <f>INT(X$4-$AE$6 &gt; $D64)*MAX(V74-$F$20*V38,0)</f>
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="40"/>
+      <c r="B57" s="38"/>
       <c r="D57" s="28"/>
       <c r="E57" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG57" s="5"/>
-    </row>
-    <row r="58" spans="4:33" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D65)*MAX(G75-$F$20*G39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <f>SUM(M53:M56)</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D65)*MAX(M75-$F$20*M39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D65)*MAX(P75-$F$20*P39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V57" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D65)*MAX(S75-$F$20*S39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D65)*MAX(V75-$F$20*V39,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>201</v>
+      </c>
       <c r="D58" s="28"/>
-      <c r="E58" s="14"/>
-      <c r="AG58" s="5"/>
-    </row>
-    <row r="59" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E59" s="14" t="s">
+      <c r="E58" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <f>SUM(J54:J57)</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <f>SUM(M54:M57)</f>
+        <v>0</v>
+      </c>
+      <c r="P58" s="4">
+        <f>SUM(P54:P57)</f>
+        <v>0</v>
+      </c>
+      <c r="S58" s="4">
+        <f>SUM(S54:S57)</f>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="V58" s="4">
+        <f>SUM(V54:V57)</f>
+        <v>21.949999999999996</v>
+      </c>
+      <c r="Y58" s="4">
+        <f>SUM(Y54:Y57)</f>
+        <v>49.359999999999992</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="D59" s="28"/>
+      <c r="E59" s="14"/>
+      <c r="AB59" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0</v>
+      </c>
+      <c r="O60" s="4">
+        <v>0</v>
+      </c>
+      <c r="R60" s="4">
+        <v>0</v>
+      </c>
+      <c r="U60" s="4">
+        <v>0</v>
+      </c>
+      <c r="X60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="39"/>
+      <c r="B61" s="38"/>
+      <c r="E61" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" s="4">
+        <f>SUM(G$54:G54)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <f>IF(F61&gt;=F$101, IF(F60&lt;F$101, F$101-F60, 0),G54)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
+        <f>SUM(J$54:J54)</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <f>IF(I61&gt;=I$101, IF(I60&lt;I$101, I$101-I60, 0),J54)</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="4">
+        <f>SUM(M$54:M54)</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
+        <f>IF(L61&gt;=L$101, IF(L60&lt;L$101, L$101-L60, 0),M54)</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="4">
+        <f>SUM(P$54:P54)</f>
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <f>IF(O61&gt;=O$101, IF(O60&lt;O$101, O$101-O60, 0),P54)</f>
+        <v>0</v>
+      </c>
+      <c r="R61" s="4">
+        <f>SUM(S$54:S54)</f>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="S61" s="4">
+        <f>IF(R61&gt;=R$101, IF(R60&lt;R$101, R$101-R60, 0),S54)</f>
+        <v>0</v>
+      </c>
+      <c r="U61" s="4">
+        <f>SUM(V$54:V54)</f>
+        <v>19.549999999999997</v>
+      </c>
+      <c r="V61" s="4">
+        <f>IF(U61&gt;=U$101, IF(U60&lt;U$101, U$101-U60, 0),V54)</f>
+        <v>19.549999999999997</v>
+      </c>
+      <c r="X61" s="4">
+        <f>SUM(Y$54:Y54)</f>
+        <v>30.599999999999994</v>
+      </c>
+      <c r="Y61" s="4">
+        <f>IF(X61&gt;=X$101, IF(X60&lt;X$101, X$101-X60, 0),Y54)</f>
+        <v>30.599999999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="39"/>
+      <c r="B62" s="38"/>
+      <c r="D62" s="22">
+        <v>0</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F62" s="4">
+        <f>SUM(G$54:G55)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <f>IF(F62&gt;=F$101, IF(F61&lt;F$101, F$101-F61, 0),G55)</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
+        <f>SUM(J$54:J55)</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <f>IF(I62&gt;=I$101, IF(I61&lt;I$101, I$101-I61, 0),J55)</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
+        <f>SUM(M$54:M55)</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
+        <f>IF(L62&gt;=L$101, IF(L61&lt;L$101, L$101-L61, 0),M55)</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="4">
+        <f>SUM(P$54:P55)</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="4">
+        <f>IF(O62&gt;=O$101, IF(O61&lt;O$101, O$101-O61, 0),P55)</f>
+        <v>0</v>
+      </c>
+      <c r="R62" s="4">
+        <f>SUM(S$54:S55)</f>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="S62" s="4">
+        <f>IF(R62&gt;=R$101, IF(R61&lt;R$101, R$101-R61, 0),S55)</f>
+        <v>0</v>
+      </c>
+      <c r="U62" s="4">
+        <f>SUM(V$54:V55)</f>
+        <v>21.949999999999996</v>
+      </c>
+      <c r="V62" s="4">
+        <f>IF(U62&gt;=U$101, IF(U61&lt;U$101, U$101-U61, 0),V55)</f>
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="X62" s="4">
+        <f>SUM(Y$54:Y55)</f>
+        <v>46.599999999999994</v>
+      </c>
+      <c r="Y62" s="4">
+        <f>IF(X62&gt;=X$101, IF(X61&lt;X$101, X$101-X61, 0),Y55)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="39"/>
+      <c r="B63" s="38"/>
+      <c r="D63" s="22">
+        <v>1</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F63" s="4">
+        <f>SUM(G$54:G56)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <f>IF(F63&gt;=F$101, IF(F62&lt;F$101, F$101-F62, 0),G56)</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <f>SUM(J$54:J56)</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <f>IF(I63&gt;=I$101, IF(I62&lt;I$101, I$101-I62, 0),J56)</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
+        <f>SUM(M$54:M56)</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <f>IF(L63&gt;=L$101, IF(L62&lt;L$101, L$101-L62, 0),M56)</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="4">
+        <f>SUM(P$54:P56)</f>
+        <v>0</v>
+      </c>
+      <c r="P63" s="4">
+        <f>IF(O63&gt;=O$101, IF(O62&lt;O$101, O$101-O62, 0),P56)</f>
+        <v>0</v>
+      </c>
+      <c r="R63" s="4">
+        <f>SUM(S$54:S56)</f>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="S63" s="4">
+        <f>IF(R63&gt;=R$101, IF(R62&lt;R$101, R$101-R62, 0),S56)</f>
+        <v>0</v>
+      </c>
+      <c r="U63" s="4">
+        <f>SUM(V$54:V56)</f>
+        <v>21.949999999999996</v>
+      </c>
+      <c r="V63" s="4">
+        <f>IF(U63&gt;=U$101, IF(U62&lt;U$101, U$101-U62, 0),V56)</f>
+        <v>0</v>
+      </c>
+      <c r="X63" s="4">
+        <f>SUM(Y$54:Y56)</f>
+        <v>49.359999999999992</v>
+      </c>
+      <c r="Y63" s="4">
+        <f>IF(X63&gt;=X$101, IF(X62&lt;X$101, X$101-X62, 0),Y56)</f>
+        <v>2.759999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="D64" s="22">
+        <v>2</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="4">
+        <f>SUM(G$54:G57)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <f>IF(F64&gt;=F$101, IF(F63&lt;F$101, F$101-F63, 0),G57)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="4">
+        <f>SUM(J$54:J57)</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
+        <f>IF(I64&gt;=I$101, IF(I63&lt;I$101, I$101-I63, 0),J57)</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="4">
+        <f>SUM(M$54:M57)</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="4">
+        <f>IF(L64&gt;=L$101, IF(L63&lt;L$101, L$101-L63, 0),M57)</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="4">
+        <f>SUM(P$54:P57)</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="4">
+        <f>IF(O64&gt;=O$101, IF(O63&lt;O$101, O$101-O63, 0),P57)</f>
+        <v>0</v>
+      </c>
+      <c r="R64" s="4">
+        <f>SUM(S$54:S57)</f>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="S64" s="4">
+        <f>IF(R64&gt;=R$101, IF(R63&lt;R$101, R$101-R63, 0),S57)</f>
+        <v>0</v>
+      </c>
+      <c r="U64" s="4">
+        <f>SUM(V$54:V57)</f>
+        <v>21.949999999999996</v>
+      </c>
+      <c r="V64" s="4">
+        <f>IF(U64&gt;=U$101, IF(U63&lt;U$101, U$101-U63, 0),V57)</f>
+        <v>0</v>
+      </c>
+      <c r="X64" s="4">
+        <f>SUM(Y$54:Y57)</f>
+        <v>49.359999999999992</v>
+      </c>
+      <c r="Y64" s="4">
+        <f>IF(X64&gt;=X$101, IF(X63&lt;X$101, X$101-X63, 0),Y57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D65" s="22">
+        <v>3</v>
+      </c>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E66" s="14"/>
+      <c r="I66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="X66" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" s="4">
+        <f>G42</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
+        <f>IF(G72=0,1,MIN(MAX((G72/G48-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J67" s="4">
+        <f>J42*I67</f>
+        <v>0.01</v>
+      </c>
+      <c r="L67" s="4">
+        <f>IF(J72=0,1,MIN(MAX((J72/J48-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M67" s="4">
+        <f>M42*L67</f>
+        <v>0.05</v>
+      </c>
+      <c r="O67" s="4">
+        <f>IF(M72=0,1,MIN(MAX((M72/M48-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P67" s="4">
+        <f>P42*O67</f>
+        <v>0.12</v>
+      </c>
+      <c r="R67" s="4">
+        <f>IF(P72=0,1,MIN(MAX((P72/P48-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S67" s="4">
+        <f>S42*R67</f>
+        <v>0.2</v>
+      </c>
+      <c r="U67" s="4">
+        <f>IF(S72=0,1,MIN(MAX((S72/S48-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V67" s="4">
+        <f>V42*U67</f>
+        <v>0.36</v>
+      </c>
+      <c r="X67" s="4">
+        <f>IF(V72=0,1,MIN(MAX((V72/V48-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y67" s="4">
+        <f>Y42*X67</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="39"/>
+      <c r="B68" s="38"/>
+      <c r="E68" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G59" s="4">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D67)*MAX(G77-$G$19*G41,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D67)*MAX(J77-$F$19*J41,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P59" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D67)*MAX(M77-$F$19*M41,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S59" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D67)*MAX(P77-$F$19*P41,0)</f>
-        <v>2.5499999999999989</v>
-      </c>
-      <c r="V59" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D67)*MAX(S77-$F$19*S41,0)</f>
-        <v>19.549999999999997</v>
-      </c>
-      <c r="Y59" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D67)*MAX(V77-$F$19*V41,0)</f>
-        <v>50.149999999999991</v>
-      </c>
-      <c r="AG59" s="5"/>
-    </row>
-    <row r="60" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E60" s="14" t="s">
+      <c r="G68" s="4">
+        <f>G43</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="4">
+        <f>IF(G73=0,1,MIN(MAX((G73/G49-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J68" s="4">
+        <f>J43</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="4">
+        <f>IF(J73=0,1,MIN(MAX((J73/J49-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M68" s="4">
+        <f>M43</f>
+        <v>0.01</v>
+      </c>
+      <c r="O68" s="4">
+        <f>IF(M73=0,1,MIN(MAX((M73/M49-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P68" s="4">
+        <f>P43</f>
+        <v>0.05</v>
+      </c>
+      <c r="R68" s="4">
+        <f>IF(P73=0,1,MIN(MAX((P73/P49-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S68" s="4">
+        <f>S43</f>
+        <v>0.12</v>
+      </c>
+      <c r="U68" s="4">
+        <f>IF(S73=0,1,MIN(MAX((S73/S49-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V68" s="4">
+        <f>V43</f>
+        <v>0.2</v>
+      </c>
+      <c r="X68" s="4">
+        <f>IF(V73=0,1,MIN(MAX((V73/V49-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y68" s="4">
+        <f>Y43</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="39"/>
+      <c r="B69" s="38"/>
+      <c r="E69" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G60" s="4">
-        <v>0</v>
-      </c>
-      <c r="J60" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D68)*MAX(G78-$F$19*G42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D68)*MAX(J78-$F$19*J42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P60" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D68)*MAX(M78-$F$19*M42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S60" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D68)*MAX(P78-$F$19*P42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V60" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D68)*MAX(S78-$F$19*S42,0)</f>
-        <v>2.3999999999999986</v>
-      </c>
-      <c r="Y60" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D68)*MAX(V78-$F$19*V42,0)</f>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AG60" s="5"/>
-    </row>
-    <row r="61" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="D61" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="E61" s="14" t="s">
+      <c r="G69" s="4">
+        <f>G44</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <f>IF(G74=0,1,MIN(MAX((G74/G50-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J69" s="4">
+        <f>J44</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="4">
+        <f>IF(J74=0,1,MIN(MAX((J74/J50-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M69" s="4">
+        <f>M44</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="4">
+        <f>IF(M74=0,1,MIN(MAX((M74/M50-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P69" s="4">
+        <f>P44</f>
+        <v>0.01</v>
+      </c>
+      <c r="R69" s="4">
+        <f>IF(P74=0,1,MIN(MAX((P74/P50-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S69" s="4">
+        <f>S44</f>
+        <v>0.05</v>
+      </c>
+      <c r="U69" s="4">
+        <f>IF(S74=0,1,MIN(MAX((S74/S50-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V69" s="4">
+        <f>V44</f>
+        <v>0.12</v>
+      </c>
+      <c r="X69" s="4">
+        <f>IF(V74=0,1,MIN(MAX((V74/V50-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y69" s="4">
+        <f>Y44</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="39"/>
+      <c r="B70" s="38"/>
+      <c r="E70" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G61" s="4">
-        <v>0</v>
-      </c>
-      <c r="J61" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D69)*MAX(G79-$F$19*G43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D69)*MAX(J79-$F$19*J43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P61" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D69)*MAX(M79-$F$19*M43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S61" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D69)*MAX(P79-$F$19*P43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V61" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D69)*MAX(S79-$F$19*S43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y61" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D69)*MAX(V79-$F$19*V43,0)</f>
-        <v>2.76</v>
-      </c>
-      <c r="AG61" s="5"/>
-    </row>
-    <row r="62" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="D62" s="28"/>
-      <c r="E62" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0</v>
-      </c>
-      <c r="J62" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D70)*MAX(G80-$F$19*G44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="4">
-        <f>SUM(M58:M61)</f>
-        <v>0</v>
-      </c>
-      <c r="P62" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D70)*MAX(M80-$F$19*M44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S62" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D70)*MAX(P80-$F$19*P44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V62" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D70)*MAX(S80-$F$19*S44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y62" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D70)*MAX(V80-$F$19*V44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG62" s="5"/>
-    </row>
-    <row r="63" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="D63" s="28"/>
-      <c r="E63" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4">
-        <f>SUM(J59:J62)</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="4">
-        <f>SUM(M59:M62)</f>
-        <v>0</v>
-      </c>
-      <c r="P63" s="4">
-        <f>SUM(P59:P62)</f>
-        <v>0</v>
-      </c>
-      <c r="S63" s="4">
-        <f>SUM(S59:S62)</f>
-        <v>2.5499999999999989</v>
-      </c>
-      <c r="V63" s="4">
-        <f>SUM(V59:V62)</f>
+      <c r="G70" s="4">
+        <f>G45</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
+        <f>IF(G75=0,1,MIN(MAX((G75/G51-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J70" s="4">
+        <f>J45</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="4">
+        <f>IF(J75=0,1,MIN(MAX((J75/J51-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M70" s="4">
+        <f>M45</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="4">
+        <f>IF(M75=0,1,MIN(MAX((M75/M51-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P70" s="4">
+        <f>P45</f>
+        <v>0</v>
+      </c>
+      <c r="R70" s="4">
+        <f>IF(P75=0,1,MIN(MAX((P75/P51-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S70" s="4">
+        <f>S45</f>
+        <v>0.01</v>
+      </c>
+      <c r="U70" s="4">
+        <f>IF(S75=0,1,MIN(MAX((S75/S51-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V70" s="4">
+        <f>V45</f>
+        <v>0.05</v>
+      </c>
+      <c r="X70" s="4">
+        <f>IF(V75=0,1,MIN(MAX((V75/V51-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y70" s="4">
+        <f>Y45</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E71" s="14"/>
+    </row>
+    <row r="72" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="4">
+        <f>G42*G36</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <f>G72+J36*J67-J61</f>
+        <v>0.85</v>
+      </c>
+      <c r="M72" s="4">
+        <f>J72+M36*M67-M61</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P72" s="4">
+        <f>M72+P36*P67-P61</f>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="S72" s="4">
+        <f>P72+S36*S67-S61</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="V72" s="4">
+        <f>S72+V36*V67-V61</f>
+        <v>43.349999999999994</v>
+      </c>
+      <c r="Y72" s="4">
+        <f>V72+Y36*Y67-Y61</f>
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="39"/>
+      <c r="B73" s="38"/>
+      <c r="E73" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" s="4">
+        <f>G43*G37</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <f>G73+J37*J68-J62</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="4">
+        <f>J73+M37*M68-M62</f>
+        <v>0.8</v>
+      </c>
+      <c r="P73" s="4">
+        <f>M73+P37*P68-P62</f>
+        <v>4.8</v>
+      </c>
+      <c r="S73" s="4">
+        <f>P73+S37*S68-S62</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="V73" s="4">
+        <f>S73+V37*V68-V62</f>
+        <v>28</v>
+      </c>
+      <c r="Y73" s="4">
+        <f>V73+Y37*Y68-Y62</f>
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="39"/>
+      <c r="B74" s="38"/>
+      <c r="E74" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G74" s="4">
+        <f>G44*G38</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <f t="shared" ref="J73:J75" si="11">G74+J38*J69-J63</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="4">
+        <f t="shared" ref="M74" si="12">J74+M38*M69-M63</f>
+        <v>0</v>
+      </c>
+      <c r="P74" s="4">
+        <f t="shared" ref="P74" si="13">M74+P38*P69-P63</f>
+        <v>0.92</v>
+      </c>
+      <c r="S74" s="4">
+        <f t="shared" ref="S74" si="14">P74+S38*S69-S63</f>
+        <v>5.5200000000000005</v>
+      </c>
+      <c r="V74" s="4">
+        <f t="shared" ref="V74" si="15">S74+V38*V69-V63</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="Y74" s="4">
+        <f t="shared" ref="Y74" si="16">V74+Y38*Y69-Y63</f>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="39"/>
+      <c r="B75" s="38"/>
+      <c r="D75" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="4">
+        <f>G45*G39</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <f>G75+J39*J70-J64</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="4">
+        <f>J75+M39*M70-M64</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="4">
+        <f>M75+P39*P70-P64</f>
+        <v>0</v>
+      </c>
+      <c r="S75" s="4">
+        <f>P75+S39*S70-S64</f>
+        <v>0.43</v>
+      </c>
+      <c r="V75" s="4">
+        <f>S75+V39*V70-V64</f>
+        <v>2.58</v>
+      </c>
+      <c r="Y75" s="4">
+        <f>V75+Y39*Y70-Y64</f>
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D76" s="28"/>
+      <c r="E76" s="14"/>
+    </row>
+    <row r="77" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="D77" s="28"/>
+      <c r="E77" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="28"/>
+      <c r="E78" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="4">
+        <f>$F$27</f>
+        <v>0.3</v>
+      </c>
+      <c r="G78" s="4">
+        <f>$G$27</f>
+        <v>0.92</v>
+      </c>
+      <c r="I78" s="4">
+        <f>$F$27</f>
+        <v>0.3</v>
+      </c>
+      <c r="J78" s="4">
+        <f>$G$27</f>
+        <v>0.92</v>
+      </c>
+      <c r="L78" s="4">
+        <f>$F$27</f>
+        <v>0.3</v>
+      </c>
+      <c r="M78" s="4">
+        <f>$G$27</f>
+        <v>0.92</v>
+      </c>
+      <c r="O78" s="4">
+        <f>$F$27</f>
+        <v>0.3</v>
+      </c>
+      <c r="P78" s="4">
+        <f>$G$27</f>
+        <v>0.92</v>
+      </c>
+      <c r="R78" s="4">
+        <f>$F$27</f>
+        <v>0.3</v>
+      </c>
+      <c r="S78" s="4">
+        <f>$G$27</f>
+        <v>0.92</v>
+      </c>
+      <c r="U78" s="4">
+        <f>$F$27</f>
+        <v>0.3</v>
+      </c>
+      <c r="V78" s="4">
+        <f>$G$27</f>
+        <v>0.92</v>
+      </c>
+      <c r="X78" s="4">
+        <f>$F$27</f>
+        <v>0.3</v>
+      </c>
+      <c r="Y78" s="4">
+        <f>$G$27</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F79" s="4">
+        <f>F7*$F$18</f>
+        <v>1500000</v>
+      </c>
+      <c r="G79" s="4">
+        <f>G7*$G$18</f>
+        <v>25000000</v>
+      </c>
+      <c r="I79" s="4">
+        <f>I7*$F$18</f>
+        <v>1492500</v>
+      </c>
+      <c r="J79" s="4">
+        <f>J7*$G$18</f>
+        <v>24990000</v>
+      </c>
+      <c r="L79" s="4">
+        <f>L7*$F$18</f>
+        <v>1483200</v>
+      </c>
+      <c r="M79" s="4">
+        <f>M7*$G$18</f>
+        <v>24979000</v>
+      </c>
+      <c r="O79" s="4">
+        <f>O7*$F$18</f>
+        <v>1474500</v>
+      </c>
+      <c r="P79" s="4">
+        <f>P7*$G$18</f>
+        <v>24969600</v>
+      </c>
+      <c r="R79" s="4">
+        <f>R7*$F$18</f>
+        <v>1464000</v>
+      </c>
+      <c r="S79" s="4">
+        <f>S7*$G$18</f>
+        <v>24950400</v>
+      </c>
+      <c r="U79" s="4">
+        <f>U7*$F$18</f>
+        <v>1449000</v>
+      </c>
+      <c r="V79" s="4">
+        <f>V7*$G$18</f>
+        <v>24946500</v>
+      </c>
+      <c r="X79" s="4">
+        <f>X7*$F$18</f>
+        <v>1434300</v>
+      </c>
+      <c r="Y79" s="4">
+        <f>Y7*$G$18</f>
+        <v>24936000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="I80" s="4">
+        <f>IF(F82=0,0,MIN(MAX((F82/F79-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J80" s="4">
+        <f>IF(G82=0,0,MIN(MAX((G82/G79-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="L80" s="4">
+        <f>IF(I82=0,0,MIN(MAX((I82/I79-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M80" s="4">
+        <f>IF(J82=0,0,MIN(MAX((J82/J79-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="O80" s="4">
+        <f>IF(L82=0,0,MIN(MAX((L82/L79-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P80" s="4">
+        <f>IF(M82=0,0,MIN(MAX((M82/M79-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="R80" s="4">
+        <f>IF(O82=0,0,MIN(MAX((O82/O79-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S80" s="4">
+        <f>IF(P82=0,0,MIN(MAX((P82/P79-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="U80" s="4">
+        <f>IF(R82=0,0,MIN(MAX((R82/R79-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V80" s="4">
+        <f>IF(S82=0,0,MIN(MAX((S82/S79-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="X80" s="4">
+        <f>IF(U82=0,0,MIN(MAX((U82/U79-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y80" s="4">
+        <f>IF(V82=0,0,MIN(MAX((V82/V79-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>0.89139235505764625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" s="4">
+        <f>F78</f>
+        <v>0.3</v>
+      </c>
+      <c r="G81" s="4">
+        <f>G78</f>
+        <v>0.92</v>
+      </c>
+      <c r="I81" s="4">
+        <f xml:space="preserve"> I78*I80</f>
+        <v>0.3</v>
+      </c>
+      <c r="J81" s="4">
+        <f>J78*J80</f>
+        <v>0.92</v>
+      </c>
+      <c r="L81" s="4">
+        <f xml:space="preserve"> L78*L80</f>
+        <v>0.3</v>
+      </c>
+      <c r="M81" s="4">
+        <f>M78*M80</f>
+        <v>0.92</v>
+      </c>
+      <c r="O81" s="4">
+        <f xml:space="preserve"> O78*O80</f>
+        <v>0.3</v>
+      </c>
+      <c r="P81" s="4">
+        <f>P78*P80</f>
+        <v>0.92</v>
+      </c>
+      <c r="R81" s="4">
+        <f xml:space="preserve"> R78*R80</f>
+        <v>0.3</v>
+      </c>
+      <c r="S81" s="4">
+        <f>S78*S80</f>
+        <v>0.92</v>
+      </c>
+      <c r="U81" s="4">
+        <f xml:space="preserve"> U78*U80</f>
+        <v>0.3</v>
+      </c>
+      <c r="V81" s="4">
+        <f>V78*V80</f>
+        <v>0.92</v>
+      </c>
+      <c r="X81" s="4">
+        <f xml:space="preserve"> X78*X80</f>
+        <v>0.3</v>
+      </c>
+      <c r="Y81" s="4">
+        <f>Y78*Y80</f>
+        <v>0.82008096665303454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="4">
+        <f>F7*F18</f>
+        <v>1500000</v>
+      </c>
+      <c r="G82" s="4">
+        <f>G7*G18</f>
+        <v>25000000</v>
+      </c>
+      <c r="I82" s="4">
+        <f>(F82 - F102 - F90)*(1 - $F$28) +I81*I7</f>
+        <v>1421016.5802484024</v>
+      </c>
+      <c r="J82" s="4">
+        <f>(G82 - G102 - G90)*(1 - $F$28) +J81*J7</f>
+        <v>23245411.419751596</v>
+      </c>
+      <c r="L82" s="4">
+        <f>(I82 - I102 - I90)*(1 - $F$28) +L81*L7</f>
+        <v>1338234.0119069477</v>
+      </c>
+      <c r="M82" s="4">
+        <f>(J82 - J102 - J90)*(1 - $F$28) +M81*M7</f>
+        <v>21446685.855861954</v>
+      </c>
+      <c r="O82" s="4">
+        <f>(L82 - L102 - L90)*(1 - $F$28) +O81*O7</f>
+        <v>1261074.3620328091</v>
+      </c>
+      <c r="P82" s="4">
+        <f>(M82 - M102 - M90)*(1 - $F$28) +P81*P7</f>
+        <v>19589276.419903073</v>
+      </c>
+      <c r="R82" s="4">
+        <f>(O82 - O102 - O90)*(1 - $F$28) +R81*R7</f>
+        <v>1186570.0048549743</v>
+      </c>
+      <c r="S82" s="4">
+        <f>(P82 - P102 - P90)*(1 - $F$28) +S81*S7</f>
+        <v>17624976.777235985</v>
+      </c>
+      <c r="U82" s="4">
+        <f>(R82 - R102 - R90)*(1 - $F$28) +U81*U7</f>
+        <v>1095867.5027670106</v>
+      </c>
+      <c r="V82" s="4">
+        <f>(S82 - S102 - S90)*(1 - $F$28) +V81*V7</f>
+        <v>14901579.368863089</v>
+      </c>
+      <c r="X82" s="4">
+        <f>(U82 - U102 - U90)*(1 - $F$28) +X81*X7</f>
+        <v>818384.25432780851</v>
+      </c>
+      <c r="Y82" s="4">
+        <f>(V82 - V102 - V90)*(1 - $F$28) +Y81*Y7</f>
+        <v>3175368.0905289678</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" s="4">
+        <f>F82/F7</f>
+        <v>150</v>
+      </c>
+      <c r="G83" s="4">
+        <f>G82/G7</f>
+        <v>100</v>
+      </c>
+      <c r="I83" s="4">
+        <f>I82/I7</f>
+        <v>142.81573670838216</v>
+      </c>
+      <c r="J83" s="4">
+        <f>J82/J7</f>
+        <v>93.018853220294503</v>
+      </c>
+      <c r="L83" s="4">
+        <f>L82/L7</f>
+        <v>135.33920023330782</v>
+      </c>
+      <c r="M83" s="4">
+        <f>M82/M7</f>
+        <v>85.858864869938571</v>
+      </c>
+      <c r="O83" s="4">
+        <f>O82/O7</f>
+        <v>128.28833794840378</v>
+      </c>
+      <c r="P83" s="4">
+        <f>P82/P7</f>
+        <v>78.452503924384345</v>
+      </c>
+      <c r="R83" s="4">
+        <f>R82/R7</f>
+        <v>121.5747955794031</v>
+      </c>
+      <c r="S83" s="4">
+        <f>S82/S7</f>
+        <v>70.640056981996224</v>
+      </c>
+      <c r="U83" s="4">
+        <f>U82/U7</f>
+        <v>113.44384086615017</v>
+      </c>
+      <c r="V83" s="4">
+        <f>V82/V7</f>
+        <v>59.73414855335654</v>
+      </c>
+      <c r="X83" s="4">
+        <f>X82/X7</f>
+        <v>85.587142263941487</v>
+      </c>
+      <c r="Y83" s="4">
+        <f>Y82/Y7</f>
+        <v>12.73407158537443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="E85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+    </row>
+    <row r="86" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F86" s="4">
+        <f>F83*F7</f>
+        <v>1500000</v>
+      </c>
+      <c r="G86" s="4">
+        <f>G83*G7</f>
+        <v>25000000</v>
+      </c>
+      <c r="I86" s="4">
+        <f>I83*I7</f>
+        <v>1421016.5802484024</v>
+      </c>
+      <c r="J86" s="4">
+        <f>J83*J7</f>
+        <v>23245411.419751596</v>
+      </c>
+      <c r="L86" s="4">
+        <f>L83*L7</f>
+        <v>1338234.0119069477</v>
+      </c>
+      <c r="M86" s="4">
+        <f>M83*M7</f>
+        <v>21446685.855861954</v>
+      </c>
+      <c r="O86" s="4">
+        <f>O83*O7</f>
+        <v>1261074.3620328091</v>
+      </c>
+      <c r="P86" s="4">
+        <f>P83*P7</f>
+        <v>19589276.419903073</v>
+      </c>
+      <c r="R86" s="4">
+        <f>R83*R7</f>
+        <v>1186570.0048549743</v>
+      </c>
+      <c r="S86" s="4">
+        <f>S83*S7</f>
+        <v>17624976.777235985</v>
+      </c>
+      <c r="U86" s="4">
+        <f>U83*U7</f>
+        <v>1095867.5027670106</v>
+      </c>
+      <c r="V86" s="4">
+        <f>V83*V7</f>
+        <v>14901579.368863089</v>
+      </c>
+      <c r="X86" s="4">
+        <f>X83*X7</f>
+        <v>818384.25432780851</v>
+      </c>
+      <c r="Y86" s="4">
+        <f>Y83*Y7</f>
+        <v>3175368.0905289678</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G87" s="4">
+        <f>SUM(G72:G75)</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
+        <f>SUM(J72:J75)</f>
+        <v>0.85</v>
+      </c>
+      <c r="M87" s="4">
+        <f>SUM(M72:M75)</f>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="P87" s="4">
+        <f>SUM(P72:P75)</f>
+        <v>21.02</v>
+      </c>
+      <c r="S87" s="4">
+        <f>SUM(S72:S75)</f>
+        <v>52.65</v>
+      </c>
+      <c r="V87" s="4">
+        <f>SUM(V72:V75)</f>
+        <v>90.49</v>
+      </c>
+      <c r="Y87" s="4">
+        <f>SUM(Y72:Y75)</f>
+        <v>144.49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F88" s="4">
+        <f>F86+F87</f>
+        <v>1500000</v>
+      </c>
+      <c r="G88" s="4">
+        <f>G86+G87</f>
+        <v>25000000</v>
+      </c>
+      <c r="I88" s="4">
+        <f>I86+I87</f>
+        <v>1421016.5802484024</v>
+      </c>
+      <c r="J88" s="4">
+        <f>J86+J87</f>
+        <v>23245412.269751597</v>
+      </c>
+      <c r="L88" s="4">
+        <f>L86+L87</f>
+        <v>1338234.0119069477</v>
+      </c>
+      <c r="M88" s="4">
+        <f>M86+M87</f>
+        <v>21446691.755861953</v>
+      </c>
+      <c r="O88" s="4">
+        <f>O86+O87</f>
+        <v>1261074.3620328091</v>
+      </c>
+      <c r="P88" s="4">
+        <f>P86+P87</f>
+        <v>19589297.439903073</v>
+      </c>
+      <c r="R88" s="4">
+        <f>R86+R87</f>
+        <v>1186570.0048549743</v>
+      </c>
+      <c r="S88" s="4">
+        <f>S86+S87</f>
+        <v>17625029.427235983</v>
+      </c>
+      <c r="U88" s="4">
+        <f>U86+U87</f>
+        <v>1095867.5027670106</v>
+      </c>
+      <c r="V88" s="4">
+        <f>V86+V87</f>
+        <v>14901669.858863089</v>
+      </c>
+      <c r="X88" s="4">
+        <f>X86+X87</f>
+        <v>818384.25432780851</v>
+      </c>
+      <c r="Y88" s="4">
+        <f>Y86+Y87</f>
+        <v>3175512.580528968</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B90" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F90" s="4">
+        <f>F9*F83</f>
+        <v>7500</v>
+      </c>
+      <c r="G90" s="4">
+        <f>G9*G83</f>
+        <v>10000</v>
+      </c>
+      <c r="I90" s="4">
+        <f>I9*I83</f>
+        <v>8854.5756759196938</v>
+      </c>
+      <c r="J90" s="4">
+        <f>J9*J83</f>
+        <v>10232.073854232396</v>
+      </c>
+      <c r="L90" s="4">
+        <f>L9*L83</f>
+        <v>7849.6736135318533</v>
+      </c>
+      <c r="M90" s="4">
+        <f>M9*M83</f>
+        <v>8070.7332977742253</v>
+      </c>
+      <c r="O90" s="4">
+        <f>O9*O83</f>
+        <v>8980.1836563882644</v>
+      </c>
+      <c r="P90" s="4">
+        <f>P9*P83</f>
+        <v>15062.880753481793</v>
+      </c>
+      <c r="R90" s="4">
+        <f>R9*R83</f>
+        <v>12157.479557940311</v>
+      </c>
+      <c r="S90" s="4">
+        <f>S9*S83</f>
+        <v>2754.9622222978528</v>
+      </c>
+      <c r="U90" s="4">
+        <f>U9*U83</f>
+        <v>11117.496404882717</v>
+      </c>
+      <c r="V90" s="4">
+        <f>V9*V83</f>
+        <v>6272.085598102437</v>
+      </c>
+      <c r="X90" s="4">
+        <f>X9*X83</f>
+        <v>8387.5399418662655</v>
+      </c>
+      <c r="Y90" s="4">
+        <f>Y9*Y83</f>
+        <v>1337.0775164643151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F91" s="4">
+        <f>F90*$F$14</f>
+        <v>5250</v>
+      </c>
+      <c r="G91" s="4">
+        <f>G90*$F$14</f>
+        <v>7000</v>
+      </c>
+      <c r="I91" s="4">
+        <f>I90*$F$14</f>
+        <v>6198.2029731437851</v>
+      </c>
+      <c r="J91" s="4">
+        <f>J90*$F$14</f>
+        <v>7162.4516979626769</v>
+      </c>
+      <c r="L91" s="4">
+        <f>L90*$F$14</f>
+        <v>5494.7715294722966</v>
+      </c>
+      <c r="M91" s="4">
+        <f>M90*$F$14</f>
+        <v>5649.5133084419576</v>
+      </c>
+      <c r="O91" s="4">
+        <f>O90*$F$14</f>
+        <v>6286.1285594717847</v>
+      </c>
+      <c r="P91" s="4">
+        <f>P90*$F$14</f>
+        <v>10544.016527437254</v>
+      </c>
+      <c r="R91" s="4">
+        <f>R90*$F$14</f>
+        <v>8510.2356905582164</v>
+      </c>
+      <c r="S91" s="4">
+        <f>S90*$F$14</f>
+        <v>1928.4735556084968</v>
+      </c>
+      <c r="U91" s="4">
+        <f>U90*$F$14</f>
+        <v>7782.2474834179011</v>
+      </c>
+      <c r="V91" s="4">
+        <f>V90*$F$14</f>
+        <v>4390.459918671706</v>
+      </c>
+      <c r="X91" s="4">
+        <f>X90*$F$14</f>
+        <v>5871.2779593063851</v>
+      </c>
+      <c r="Y91" s="4">
+        <f>Y90*$F$14</f>
+        <v>935.95426152502046</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F92" s="4">
+        <f>F90*(1-$F$14)</f>
+        <v>2250.0000000000005</v>
+      </c>
+      <c r="G92" s="4">
+        <f>G90*(1-$F$14)</f>
+        <v>3000.0000000000005</v>
+      </c>
+      <c r="I92" s="4">
+        <f>I90*(1-$F$14)</f>
+        <v>2656.3727027759087</v>
+      </c>
+      <c r="J92" s="4">
+        <f>J90*(1-$F$14)</f>
+        <v>3069.6221562697192</v>
+      </c>
+      <c r="L92" s="4">
+        <f>L90*(1-$F$14)</f>
+        <v>2354.9020840595563</v>
+      </c>
+      <c r="M92" s="4">
+        <f>M90*(1-$F$14)</f>
+        <v>2421.2199893322681</v>
+      </c>
+      <c r="O92" s="4">
+        <f>O90*(1-$F$14)</f>
+        <v>2694.0550969164797</v>
+      </c>
+      <c r="P92" s="4">
+        <f>P90*(1-$F$14)</f>
+        <v>4518.8642260445386</v>
+      </c>
+      <c r="R92" s="4">
+        <f>R90*(1-$F$14)</f>
+        <v>3647.2438673820939</v>
+      </c>
+      <c r="S92" s="4">
+        <f>S90*(1-$F$14)</f>
+        <v>826.48866668935591</v>
+      </c>
+      <c r="U92" s="4">
+        <f>U90*(1-$F$14)</f>
+        <v>3335.2489214648153</v>
+      </c>
+      <c r="V92" s="4">
+        <f>V90*(1-$F$14)</f>
+        <v>1881.6256794307315</v>
+      </c>
+      <c r="X92" s="4">
+        <f>X90*(1-$F$14)</f>
+        <v>2516.2619825598799</v>
+      </c>
+      <c r="Y92" s="4">
+        <f>Y90*(1-$F$14)</f>
+        <v>401.12325493929455</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F93" s="4">
+        <f>F90*$F19</f>
+        <v>2250</v>
+      </c>
+      <c r="G93" s="4">
+        <f>G90*$G19</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z94">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA94">
+        <f>SUM(Z$6:Z94)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F95" s="4">
+        <f>MAX(F13-F25, 0)*F104</f>
+        <v>741757.5</v>
+      </c>
+      <c r="G95" s="4">
+        <f>MAX(G13-G25, 0)*G104</f>
+        <v>19970010</v>
+      </c>
+      <c r="I95" s="4">
+        <f>MAX(I13-I25, 0)*I104</f>
+        <v>697350.12103057199</v>
+      </c>
+      <c r="J95" s="4">
+        <f>MAX(J13-J25, 0)*J104</f>
+        <v>18564257.684882641</v>
+      </c>
+      <c r="L95" s="4">
+        <f>MAX(L13-L25, 0)*L104</f>
+        <v>585369.23701022286</v>
+      </c>
+      <c r="M95" s="4">
+        <f>MAX(M13-M25, 0)*M104</f>
+        <v>17125702.279067256</v>
+      </c>
+      <c r="O95" s="4">
+        <f>MAX(O13-O25, 0)*O104</f>
+        <v>481800.1506859982</v>
+      </c>
+      <c r="P95" s="4">
+        <f>MAX(P13-P25, 0)*P104</f>
+        <v>15631637.942930376</v>
+      </c>
+      <c r="R95" s="4">
+        <f>MAX(R13-R25, 0)*R104</f>
+        <v>383702.35403091379</v>
+      </c>
+      <c r="S95" s="4">
+        <f>MAX(S13-S25, 0)*S104</f>
+        <v>14140812.522895874</v>
+      </c>
+      <c r="U95" s="4">
+        <f>MAX(U13-U25, 0)*U104</f>
+        <v>267600.05212584668</v>
+      </c>
+      <c r="V95" s="4">
+        <f>MAX(V13-V25, 0)*V104</f>
+        <v>11918480.929873837</v>
+      </c>
+      <c r="X95" s="4">
+        <f>MAX(X13-X25, 0)*X104</f>
+        <v>193429.69008556352</v>
+      </c>
+      <c r="Y95" s="4">
+        <f>MAX(Y13-Y25, 0)*Y104</f>
+        <v>2523718.9695364693</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="E97" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="8"/>
+    </row>
+    <row r="98" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B98" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F98" s="4">
+        <f>MIN(F109,F31)</f>
+        <v>2000000</v>
+      </c>
+      <c r="I98" s="4">
+        <f>MIN(I109,I31)</f>
+        <v>2050000</v>
+      </c>
+      <c r="L98" s="4">
+        <f>MIN(L109,L31)</f>
+        <v>2110000</v>
+      </c>
+      <c r="O98" s="4">
+        <f>MIN(O109,O31)</f>
+        <v>2210000</v>
+      </c>
+      <c r="R98" s="4">
+        <f>MIN(R109,R31)</f>
+        <v>3000000</v>
+      </c>
+      <c r="U98" s="4">
+        <f>MIN(U109,U31)</f>
+        <v>12186080.981999684</v>
+      </c>
+      <c r="X98" s="4">
+        <f>MIN(X109,X31)</f>
+        <v>1776649.2395067073</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B99" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F99" s="4">
+        <f>F31-F98</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="4">
+        <f>I31-I98</f>
+        <v>0</v>
+      </c>
+      <c r="L99" s="4">
+        <f>L31-L98</f>
+        <v>0</v>
+      </c>
+      <c r="O99" s="4">
+        <f>O31-O98</f>
+        <v>0</v>
+      </c>
+      <c r="R99" s="4">
+        <f>R31-R98</f>
+        <v>0</v>
+      </c>
+      <c r="U99" s="4">
+        <f>U31-U98</f>
+        <v>12813919.018000316</v>
+      </c>
+      <c r="X99" s="4">
+        <f>X31-X98</f>
+        <v>743350.76049329271</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F100" s="4">
+        <f>MIN(F31,F98)</f>
+        <v>2000000</v>
+      </c>
+      <c r="I100" s="4">
+        <f>MIN(I31,I98)</f>
+        <v>2050000</v>
+      </c>
+      <c r="L100" s="4">
+        <f>MIN(L31,L98)</f>
+        <v>2110000</v>
+      </c>
+      <c r="O100" s="4">
+        <f>MIN(O31,O98)</f>
+        <v>2210000</v>
+      </c>
+      <c r="R100" s="4">
+        <f>MIN(R31,R98)</f>
+        <v>3000000</v>
+      </c>
+      <c r="U100" s="4">
+        <f>MIN(U31,U98)</f>
+        <v>12186080.981999684</v>
+      </c>
+      <c r="X100" s="4">
+        <f>MIN(X31,X98)</f>
+        <v>1776649.2395067073</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F101" s="4">
+        <f>MIN(F99,G58)</f>
+        <v>0</v>
+      </c>
+      <c r="I101" s="4">
+        <f>MIN(I99,J58)</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="4">
+        <f>MIN(L99,M58)</f>
+        <v>0</v>
+      </c>
+      <c r="O101" s="4">
+        <f>MIN(O99,P58)</f>
+        <v>0</v>
+      </c>
+      <c r="R101" s="4">
+        <f>MIN(R99,S58)</f>
+        <v>0</v>
+      </c>
+      <c r="U101" s="4">
+        <f>MIN(U99,V58)</f>
         <v>21.949999999999996</v>
       </c>
-      <c r="Y63" s="4">
-        <f>SUM(Y59:Y62)</f>
-        <v>71.309999999999988</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG63" s="5"/>
-    </row>
-    <row r="64" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D64" s="28"/>
-      <c r="E64" s="14"/>
-      <c r="AB64" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG64" s="5"/>
-    </row>
-    <row r="65" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E65" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="I65" s="4">
-        <v>0</v>
-      </c>
-      <c r="L65" s="4">
-        <v>0</v>
-      </c>
-      <c r="O65" s="4">
-        <v>0</v>
-      </c>
-      <c r="R65" s="4">
-        <v>0</v>
-      </c>
-      <c r="U65" s="4">
-        <v>0</v>
-      </c>
-      <c r="X65" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG65" s="5"/>
-    </row>
-    <row r="66" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E66" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F66" s="4">
-        <f>SUM(G$59:G59)</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="4">
-        <f>IF(F66&gt;=F$113, IF(F65&lt;F$113, F$113-F65, 0),G59)</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="4">
-        <f>SUM(J$59:J59)</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="4">
-        <f>IF(I66&gt;=I$113, IF(I65&lt;I$113, I$113-I65, 0),J59)</f>
-        <v>0</v>
-      </c>
-      <c r="L66" s="4">
-        <f>SUM(M$59:M59)</f>
-        <v>0</v>
-      </c>
-      <c r="M66" s="4">
-        <f>IF(L66&gt;=L$113, IF(L65&lt;L$113, L$113-L65, 0),M59)</f>
-        <v>0</v>
-      </c>
-      <c r="O66" s="4">
-        <f>SUM(P$59:P59)</f>
-        <v>0</v>
-      </c>
-      <c r="P66" s="4">
-        <f>IF(O66&gt;=O$113, IF(O65&lt;O$113, O$113-O65, 0),P59)</f>
-        <v>0</v>
-      </c>
-      <c r="R66" s="4">
-        <f>SUM(S$59:S59)</f>
-        <v>2.5499999999999989</v>
-      </c>
-      <c r="S66" s="4">
-        <f>IF(R66&gt;=R$113, IF(R65&lt;R$113, R$113-R65, 0),S59)</f>
-        <v>0</v>
-      </c>
-      <c r="U66" s="4">
-        <f>SUM(V$59:V59)</f>
-        <v>19.549999999999997</v>
-      </c>
-      <c r="V66" s="4">
-        <f>IF(U66&gt;=U$113, IF(U65&lt;U$113, U$113-U65, 0),V59)</f>
-        <v>0</v>
-      </c>
-      <c r="X66" s="4">
-        <f>SUM(Y$59:Y59)</f>
-        <v>50.149999999999991</v>
-      </c>
-      <c r="Y66" s="4">
-        <f>IF(X66&gt;=X$113, IF(X65&lt;X$113, X$113-X65, 0),Y59)</f>
-        <v>0</v>
-      </c>
-      <c r="AG66" s="5"/>
-    </row>
-    <row r="67" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="D67" s="22">
-        <v>0</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F67" s="4">
-        <f>SUM(G$59:G60)</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="4">
-        <f>IF(F67&gt;=F$113, IF(F66&lt;F$113, F$113-F66, 0),G60)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="4">
-        <f>SUM(J$59:J60)</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="4">
-        <f>IF(I67&gt;=I$113, IF(I66&lt;I$113, I$113-I66, 0),J60)</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="4">
-        <f>SUM(M$59:M60)</f>
-        <v>0</v>
-      </c>
-      <c r="M67" s="4">
-        <f>IF(L67&gt;=L$113, IF(L66&lt;L$113, L$113-L66, 0),M60)</f>
-        <v>0</v>
-      </c>
-      <c r="O67" s="4">
-        <f>SUM(P$59:P60)</f>
-        <v>0</v>
-      </c>
-      <c r="P67" s="4">
-        <f>IF(O67&gt;=O$113, IF(O66&lt;O$113, O$113-O66, 0),P60)</f>
-        <v>0</v>
-      </c>
-      <c r="R67" s="4">
-        <f>SUM(S$59:S60)</f>
-        <v>2.5499999999999989</v>
-      </c>
-      <c r="S67" s="4">
-        <f>IF(R67&gt;=R$113, IF(R66&lt;R$113, R$113-R66, 0),S60)</f>
-        <v>0</v>
-      </c>
-      <c r="U67" s="4">
-        <f>SUM(V$59:V60)</f>
-        <v>21.949999999999996</v>
-      </c>
-      <c r="V67" s="4">
-        <f>IF(U67&gt;=U$113, IF(U66&lt;U$113, U$113-U66, 0),V60)</f>
-        <v>0</v>
-      </c>
-      <c r="X67" s="4">
-        <f>SUM(Y$59:Y60)</f>
-        <v>68.549999999999983</v>
-      </c>
-      <c r="Y67" s="4">
-        <f>IF(X67&gt;=X$113, IF(X66&lt;X$113, X$113-X66, 0),Y60)</f>
-        <v>0</v>
-      </c>
-      <c r="AG67" s="5"/>
-    </row>
-    <row r="68" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="D68" s="22">
+      <c r="X101" s="4">
+        <f>MIN(X99,Y58)</f>
+        <v>49.359999999999992</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F102" s="4">
+        <f>F110*F100</f>
+        <v>71626.673097793318</v>
+      </c>
+      <c r="G102" s="4">
+        <f>G110*F100</f>
+        <v>1928373.3269022068</v>
+      </c>
+      <c r="I102" s="4">
+        <f>I110*I100</f>
+        <v>74218.505667725345</v>
+      </c>
+      <c r="J102" s="4">
+        <f>J110*I100</f>
+        <v>1975781.4943322747</v>
+      </c>
+      <c r="L102" s="4">
+        <f>L110*L100</f>
+        <v>69737.68294992001</v>
+      </c>
+      <c r="M102" s="4">
+        <f>M110*L100</f>
+        <v>2040262.31705008</v>
+      </c>
+      <c r="O102" s="4">
+        <f>O110*O100</f>
+        <v>66080.145455604972</v>
+      </c>
+      <c r="P102" s="4">
+        <f>P110*O100</f>
+        <v>2143919.8545443951</v>
+      </c>
+      <c r="R102" s="4">
+        <f>R110*R100</f>
+        <v>79252.702885199687</v>
+      </c>
+      <c r="S102" s="4">
+        <f>S110*R100</f>
+        <v>2920747.2971148002</v>
+      </c>
+      <c r="U102" s="4">
+        <f>U110*U100</f>
+        <v>267600.05212584668</v>
+      </c>
+      <c r="V102" s="4">
+        <f>V110*U100</f>
+        <v>11918480.929873837</v>
+      </c>
+      <c r="X102" s="4">
+        <f>X110*X100</f>
+        <v>193429.69008556352</v>
+      </c>
+      <c r="Y102" s="4">
+        <f>Y110*X100</f>
+        <v>1583219.5494211437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="E103" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="8"/>
+      <c r="X103" s="8"/>
+      <c r="Y103" s="8"/>
+    </row>
+    <row r="104" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B104" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F104" s="4">
+        <f>MAX(F83-$F20,0)</f>
+        <v>149.85</v>
+      </c>
+      <c r="G104" s="4">
+        <f>MAX(G83-$G20,0)</f>
+        <v>99.9</v>
+      </c>
+      <c r="I104" s="4">
+        <f>MAX(I83-$F20,0)</f>
+        <v>142.66573670838216</v>
+      </c>
+      <c r="J104" s="4">
+        <f>MAX(J83-$G20,0)</f>
+        <v>92.918853220294508</v>
+      </c>
+      <c r="L104" s="4">
+        <f>MAX(L83-$F20,0)</f>
+        <v>135.18920023330782</v>
+      </c>
+      <c r="M104" s="4">
+        <f>MAX(M83-$G20,0)</f>
+        <v>85.758864869938577</v>
+      </c>
+      <c r="O104" s="4">
+        <f>MAX(O83-$F20,0)</f>
+        <v>128.13833794840377</v>
+      </c>
+      <c r="P104" s="4">
+        <f>MAX(P83-$G20,0)</f>
+        <v>78.352503924384351</v>
+      </c>
+      <c r="R104" s="4">
+        <f>MAX(R83-$F20,0)</f>
+        <v>121.4247955794031</v>
+      </c>
+      <c r="S104" s="4">
+        <f>MAX(S83-$G20,0)</f>
+        <v>70.54005698199623</v>
+      </c>
+      <c r="U104" s="4">
+        <f>MAX(U83-$F20,0)</f>
+        <v>113.29384086615016</v>
+      </c>
+      <c r="V104" s="4">
+        <f>MAX(V83-$G20,0)</f>
+        <v>59.634148553356539</v>
+      </c>
+      <c r="X104" s="4">
+        <f>MAX(X83-$F20,0)</f>
+        <v>85.437142263941482</v>
+      </c>
+      <c r="Y104" s="4">
+        <f>MAX(Y83-$G20,0)</f>
+        <v>12.63407158537443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B105" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F105" s="4">
+        <f>F104/$F$21</f>
         <v>1</v>
       </c>
-      <c r="E68" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F68" s="4">
-        <f>SUM(G$59:G61)</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="4">
-        <f>IF(F68&gt;=F$113, IF(F67&lt;F$113, F$113-F67, 0),G61)</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="4">
-        <f>SUM(J$59:J61)</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="4">
-        <f>IF(I68&gt;=I$113, IF(I67&lt;I$113, I$113-I67, 0),J61)</f>
-        <v>0</v>
-      </c>
-      <c r="L68" s="4">
-        <f>SUM(M$59:M61)</f>
-        <v>0</v>
-      </c>
-      <c r="M68" s="4">
-        <f>IF(L68&gt;=L$113, IF(L67&lt;L$113, L$113-L67, 0),M61)</f>
-        <v>0</v>
-      </c>
-      <c r="O68" s="4">
-        <f>SUM(P$59:P61)</f>
-        <v>0</v>
-      </c>
-      <c r="P68" s="4">
-        <f>IF(O68&gt;=O$113, IF(O67&lt;O$113, O$113-O67, 0),P61)</f>
-        <v>0</v>
-      </c>
-      <c r="R68" s="4">
-        <f>SUM(S$59:S61)</f>
-        <v>2.5499999999999989</v>
-      </c>
-      <c r="S68" s="4">
-        <f>IF(R68&gt;=R$113, IF(R67&lt;R$113, R$113-R67, 0),S61)</f>
-        <v>0</v>
-      </c>
-      <c r="U68" s="4">
-        <f>SUM(V$59:V61)</f>
-        <v>21.949999999999996</v>
-      </c>
-      <c r="V68" s="4">
-        <f>IF(U68&gt;=U$113, IF(U67&lt;U$113, U$113-U67, 0),V61)</f>
-        <v>0</v>
-      </c>
-      <c r="X68" s="4">
-        <f>SUM(Y$59:Y61)</f>
-        <v>71.309999999999988</v>
-      </c>
-      <c r="Y68" s="4">
-        <f>IF(X68&gt;=X$113, IF(X67&lt;X$113, X$113-X67, 0),Y61)</f>
-        <v>0</v>
-      </c>
-      <c r="AG68" s="5"/>
-    </row>
-    <row r="69" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="D69" s="22">
-        <v>2</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F69" s="4">
-        <f>SUM(G$59:G62)</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="4">
-        <f>IF(F69&gt;=F$113, IF(F68&lt;F$113, F$113-F68, 0),G62)</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="4">
-        <f>SUM(J$59:J62)</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="4">
-        <f>IF(I69&gt;=I$113, IF(I68&lt;I$113, I$113-I68, 0),J62)</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="4">
-        <f>SUM(M$59:M62)</f>
-        <v>0</v>
-      </c>
-      <c r="M69" s="4">
-        <f>IF(L69&gt;=L$113, IF(L68&lt;L$113, L$113-L68, 0),M62)</f>
-        <v>0</v>
-      </c>
-      <c r="O69" s="4">
-        <f>SUM(P$59:P62)</f>
-        <v>0</v>
-      </c>
-      <c r="P69" s="4">
-        <f>IF(O69&gt;=O$113, IF(O68&lt;O$113, O$113-O68, 0),P62)</f>
-        <v>0</v>
-      </c>
-      <c r="R69" s="4">
-        <f>SUM(S$59:S62)</f>
-        <v>2.5499999999999989</v>
-      </c>
-      <c r="S69" s="4">
-        <f>IF(R69&gt;=R$113, IF(R68&lt;R$113, R$113-R68, 0),S62)</f>
-        <v>0</v>
-      </c>
-      <c r="U69" s="4">
-        <f>SUM(V$59:V62)</f>
-        <v>21.949999999999996</v>
-      </c>
-      <c r="V69" s="4">
-        <f>IF(U69&gt;=U$113, IF(U68&lt;U$113, U$113-U68, 0),V62)</f>
-        <v>0</v>
-      </c>
-      <c r="X69" s="4">
-        <f>SUM(Y$59:Y62)</f>
-        <v>71.309999999999988</v>
-      </c>
-      <c r="Y69" s="4">
-        <f>IF(X69&gt;=X$113, IF(X68&lt;X$113, X$113-X68, 0),Y62)</f>
-        <v>0</v>
-      </c>
-      <c r="AG69" s="5"/>
-    </row>
-    <row r="70" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D70" s="22">
-        <v>3</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="AG70" s="5"/>
-    </row>
-    <row r="71" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="E71" s="14"/>
-      <c r="I71" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O71" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="R71" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="U71" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="X71" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG71" s="5"/>
-    </row>
-    <row r="72" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E72" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G72" s="4">
-        <f>G47</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="4">
-        <f>IF(G77=0,1,MIN(MAX((G77/G53-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="G105" s="4">
+        <f>G104/$G$21</f>
         <v>1</v>
       </c>
-      <c r="J72" s="4">
-        <f>J47*I72</f>
-        <v>0.01</v>
-      </c>
-      <c r="L72" s="4">
-        <f>IF(J77=0,1,MIN(MAX((J77/J53-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="I105" s="4">
+        <f>I104/$F$21</f>
+        <v>0.95205696835757203</v>
+      </c>
+      <c r="J105" s="4">
+        <f>J104/$G$21</f>
+        <v>0.93011865085379886</v>
+      </c>
+      <c r="L105" s="4">
+        <f>L104/$F$21</f>
+        <v>0.90216349838710586</v>
+      </c>
+      <c r="M105" s="4">
+        <f>M104/$G$21</f>
+        <v>0.85844709579518086</v>
+      </c>
+      <c r="O105" s="4">
+        <f>O104/$F$21</f>
+        <v>0.85511069701971154</v>
+      </c>
+      <c r="P105" s="4">
+        <f>P104/$G$21</f>
+        <v>0.78430934859243595</v>
+      </c>
+      <c r="R105" s="4">
+        <f>R104/$F$21</f>
+        <v>0.81030894614216287</v>
+      </c>
+      <c r="S105" s="4">
+        <f>S104/$G$21</f>
+        <v>0.70610667649645875</v>
+      </c>
+      <c r="U105" s="4">
+        <f>U104/$F$21</f>
+        <v>0.75604832076176287</v>
+      </c>
+      <c r="V105" s="4">
+        <f>V104/$G$21</f>
+        <v>0.59693842395752283</v>
+      </c>
+      <c r="X105" s="4">
+        <f>X104/$F$21</f>
+        <v>0.57015109952580234</v>
+      </c>
+      <c r="Y105" s="4">
+        <f>Y104/$G$21</f>
+        <v>0.12646718303678109</v>
+      </c>
+      <c r="Z105">
+        <v>0.5</v>
+      </c>
+      <c r="AA105">
+        <f>SUM(Z$6:Z105)</f>
+        <v>1.6</v>
+      </c>
+      <c r="AB105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F106" s="4">
+        <f>MAX(MIN(F105/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
-      <c r="M72" s="4">
-        <f>M47*L72</f>
-        <v>0.05</v>
-      </c>
-      <c r="O72" s="4">
-        <f>IF(M77=0,1,MIN(MAX((M77/M53-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="G106" s="4">
+        <f>MAX(MIN((G105-$F$15)/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
-      <c r="P72" s="4">
-        <f>P47*O72</f>
-        <v>0.12</v>
-      </c>
-      <c r="R72" s="4">
-        <f>IF(P77=0,1,MIN(MAX((P77/P53-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="I106" s="4">
+        <f>MAX(MIN(I105/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
-      <c r="S72" s="4">
-        <f>S47*R72</f>
-        <v>0.2</v>
-      </c>
-      <c r="U72" s="4">
-        <f>IF(S77=0,1,MIN(MAX((S77/S53-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="J106" s="4">
+        <f>MAX(MIN((J105-$F$15)/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
-      <c r="V72" s="4">
-        <f>V47*U72</f>
-        <v>0.36</v>
-      </c>
-      <c r="X72" s="4">
-        <f>IF(V77=0,1,MIN(MAX((V77/V53-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="L106" s="4">
+        <f>MAX(MIN(L105/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
-      <c r="Y72" s="4">
-        <f>Y47*X72</f>
-        <v>0.6</v>
-      </c>
-      <c r="AG72" s="5"/>
-    </row>
-    <row r="73" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E73" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G73" s="4">
-        <f>G48</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="4">
-        <f>IF(G78=0,1,MIN(MAX((G78/G54-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="M106" s="4">
+        <f>MAX(MIN((M105-$F$15)/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
-      <c r="J73" s="4">
-        <f>J48</f>
-        <v>0</v>
-      </c>
-      <c r="L73" s="4">
-        <f>IF(J78=0,1,MIN(MAX((J78/J54-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="O106" s="4">
+        <f>MAX(MIN(O105/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
-      <c r="M73" s="4">
-        <f>M48</f>
-        <v>0.01</v>
-      </c>
-      <c r="O73" s="4">
-        <f>IF(M78=0,1,MIN(MAX((M78/M54-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="P106" s="4">
+        <f>MAX(MIN((P105-$F$15)/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
-      <c r="P73" s="4">
-        <f>P48</f>
-        <v>0.05</v>
-      </c>
-      <c r="R73" s="4">
-        <f>IF(P78=0,1,MIN(MAX((P78/P54-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="R106" s="4">
+        <f>MAX(MIN(R105/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
-      <c r="S73" s="4">
-        <f>S48</f>
-        <v>0.12</v>
-      </c>
-      <c r="U73" s="4">
-        <f>IF(S78=0,1,MIN(MAX((S78/S54-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="S106" s="4">
+        <f>MAX(MIN((S105-$F$15)/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
-      <c r="V73" s="4">
-        <f>V48</f>
-        <v>0.2</v>
-      </c>
-      <c r="X73" s="4">
-        <f>IF(V78=0,1,MIN(MAX((V78/V54-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="U106" s="4">
+        <f>MAX(MIN(U105/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
-      <c r="Y73" s="4">
-        <f>Y48</f>
-        <v>0.36</v>
-      </c>
-      <c r="AG73" s="5"/>
-    </row>
-    <row r="74" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E74" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G74" s="4">
-        <f>G49</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="4">
-        <f>IF(G79=0,1,MIN(MAX((G79/G55-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="V106" s="4">
+        <f>MAX(MIN((V105-$F$15)/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
-      <c r="J74" s="4">
-        <f>J49</f>
-        <v>0</v>
-      </c>
-      <c r="L74" s="4">
-        <f>IF(J79=0,1,MIN(MAX((J79/J55-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="X106" s="4">
+        <f>MAX(MIN(X105/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
-      <c r="M74" s="4">
-        <f>M49</f>
-        <v>0</v>
-      </c>
-      <c r="O74" s="4">
-        <f>IF(M79=0,1,MIN(MAX((M79/M55-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P74" s="4">
-        <f>P49</f>
-        <v>0.01</v>
-      </c>
-      <c r="R74" s="4">
-        <f>IF(P79=0,1,MIN(MAX((P79/P55-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="S74" s="4">
-        <f>S49</f>
-        <v>0.05</v>
-      </c>
-      <c r="U74" s="4">
-        <f>IF(S79=0,1,MIN(MAX((S79/S55-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="V74" s="4">
-        <f>V49</f>
-        <v>0.12</v>
-      </c>
-      <c r="X74" s="4">
-        <f>IF(V79=0,1,MIN(MAX((V79/V55-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="Y74" s="4">
-        <f>Y49</f>
-        <v>0.2</v>
-      </c>
-      <c r="AG74" s="5"/>
-    </row>
-    <row r="75" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E75" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G75" s="4">
-        <f>G50</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="4">
-        <f>IF(G80=0,1,MIN(MAX((G80/G56-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="J75" s="4">
-        <f>J50</f>
-        <v>0</v>
-      </c>
-      <c r="L75" s="4">
-        <f>IF(J80=0,1,MIN(MAX((J80/J56-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="M75" s="4">
-        <f>M50</f>
-        <v>0</v>
-      </c>
-      <c r="O75" s="4">
-        <f>IF(M80=0,1,MIN(MAX((M80/M56-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P75" s="4">
-        <f>P50</f>
-        <v>0</v>
-      </c>
-      <c r="R75" s="4">
-        <f>IF(P80=0,1,MIN(MAX((P80/P56-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="S75" s="4">
-        <f>S50</f>
-        <v>0.01</v>
-      </c>
-      <c r="U75" s="4">
-        <f>IF(S80=0,1,MIN(MAX((S80/S56-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="V75" s="4">
-        <f>V50</f>
-        <v>0.05</v>
-      </c>
-      <c r="X75" s="4">
-        <f>IF(V80=0,1,MIN(MAX((V80/V56-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="Y75" s="4">
-        <f>Y50</f>
-        <v>0.12</v>
-      </c>
-      <c r="AG75" s="5"/>
-    </row>
-    <row r="76" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="E76" s="14"/>
-      <c r="AG76" s="5"/>
-    </row>
-    <row r="77" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E77" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G77" s="4">
-        <f>G47*G41</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="4">
-        <f>G77+J41*J72</f>
-        <v>0.85</v>
-      </c>
-      <c r="M77" s="4">
-        <f>J77+M41*M72</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P77" s="4">
-        <f>M77+P41*P72</f>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="S77" s="4">
-        <f>P77+S41*S72</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="V77" s="4">
-        <f>S77+V41*V72</f>
-        <v>62.899999999999991</v>
-      </c>
-      <c r="Y77" s="4">
-        <f>V77+Y41*Y72</f>
-        <v>113.89999999999999</v>
-      </c>
-      <c r="AG77" s="5"/>
-    </row>
-    <row r="78" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E78" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G78" s="4">
-        <f>G48*G42</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="4">
-        <f>G78+J42*J73</f>
-        <v>0</v>
-      </c>
-      <c r="M78" s="4">
-        <f>J78+M42*M73</f>
-        <v>0.8</v>
-      </c>
-      <c r="P78" s="4">
-        <f>M78+P42*P73</f>
-        <v>4.8</v>
-      </c>
-      <c r="S78" s="4">
-        <f>P78+S42*S73</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="V78" s="4">
-        <f>S78+V42*V73</f>
-        <v>30.4</v>
-      </c>
-      <c r="Y78" s="4">
-        <f>V78+Y42*Y73</f>
-        <v>59.199999999999996</v>
-      </c>
-      <c r="AG78" s="5"/>
-    </row>
-    <row r="79" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E79" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G79" s="4">
-        <f>G49*G43</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="4">
-        <f>G79+J43*J74</f>
-        <v>0</v>
-      </c>
-      <c r="M79" s="4">
-        <f>J79+M43*M74</f>
-        <v>0</v>
-      </c>
-      <c r="P79" s="4">
-        <f>M79+P43*P74</f>
-        <v>0.92</v>
-      </c>
-      <c r="S79" s="4">
-        <f>P79+S43*S74</f>
-        <v>5.5200000000000005</v>
-      </c>
-      <c r="V79" s="4">
-        <f>S79+V43*V74</f>
-        <v>16.559999999999999</v>
-      </c>
-      <c r="Y79" s="4">
-        <f>V79+Y43*Y74</f>
-        <v>34.96</v>
-      </c>
-      <c r="AG79" s="5"/>
-    </row>
-    <row r="80" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="D80" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G80" s="4">
-        <f>G50*G44</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="4">
-        <f>G80+J44*J75</f>
-        <v>0</v>
-      </c>
-      <c r="M80" s="4">
-        <f>J80+M44*M75</f>
-        <v>0</v>
-      </c>
-      <c r="P80" s="4">
-        <f>M80+P44*P75</f>
-        <v>0</v>
-      </c>
-      <c r="S80" s="4">
-        <f>P80+S44*S75</f>
-        <v>0.43</v>
-      </c>
-      <c r="V80" s="4">
-        <f>S80+V44*V75</f>
-        <v>2.58</v>
-      </c>
-      <c r="Y80" s="4">
-        <f>V80+Y44*Y75</f>
-        <v>7.74</v>
-      </c>
-      <c r="AG80" s="5"/>
-    </row>
-    <row r="81" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D81" s="28"/>
-      <c r="E81" s="14"/>
-      <c r="AG81" s="5"/>
-    </row>
-    <row r="82" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="D82" s="28"/>
-      <c r="E82" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G82" s="8"/>
-      <c r="AG82" s="5"/>
-    </row>
-    <row r="83" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="D83" s="28"/>
-      <c r="E83" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F83" s="4">
-        <f>$F$26</f>
+      <c r="Y106" s="4">
+        <f>MAX(MIN((Y105-$F$15)/$F$16, 1), 0)</f>
+        <v>0.62733591518390541</v>
+      </c>
+      <c r="Z106">
         <v>0.3</v>
-      </c>
-      <c r="G83" s="4">
-        <f>$G$26</f>
-        <v>0.92</v>
-      </c>
-      <c r="I83" s="4">
-        <f>$F$26</f>
-        <v>0.3</v>
-      </c>
-      <c r="J83" s="4">
-        <f>$G$26</f>
-        <v>0.92</v>
-      </c>
-      <c r="L83" s="4">
-        <f>$F$26</f>
-        <v>0.3</v>
-      </c>
-      <c r="M83" s="4">
-        <f>$G$26</f>
-        <v>0.92</v>
-      </c>
-      <c r="O83" s="4">
-        <f>$F$26</f>
-        <v>0.3</v>
-      </c>
-      <c r="P83" s="4">
-        <f>$G$26</f>
-        <v>0.92</v>
-      </c>
-      <c r="R83" s="4">
-        <f>$F$26</f>
-        <v>0.3</v>
-      </c>
-      <c r="S83" s="4">
-        <f>$G$26</f>
-        <v>0.92</v>
-      </c>
-      <c r="U83" s="4">
-        <f>$F$26</f>
-        <v>0.3</v>
-      </c>
-      <c r="V83" s="4">
-        <f>$G$26</f>
-        <v>0.92</v>
-      </c>
-      <c r="X83" s="4">
-        <f>$F$26</f>
-        <v>0.3</v>
-      </c>
-      <c r="Y83" s="4">
-        <f>$G$26</f>
-        <v>0.92</v>
-      </c>
-      <c r="AG83" s="5"/>
-    </row>
-    <row r="84" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="E84" s="14"/>
-      <c r="AG84" s="5"/>
-    </row>
-    <row r="85" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E85" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F85" s="4">
-        <f>F13*$F$18</f>
-        <v>1492500</v>
-      </c>
-      <c r="G85" s="4">
-        <f>G13*$G$18</f>
-        <v>24990000</v>
-      </c>
-      <c r="I85" s="4">
-        <f>(I8-I9)*$F$18</f>
-        <v>1483200</v>
-      </c>
-      <c r="J85" s="4">
-        <f>(J8-J9)*$G$18</f>
-        <v>24987500</v>
-      </c>
-      <c r="L85" s="4">
-        <f>(L8-L9)*$F$18</f>
-        <v>1474500</v>
-      </c>
-      <c r="M85" s="4">
-        <f>(M8-M9)*$G$18</f>
-        <v>24986100</v>
-      </c>
-      <c r="O85" s="4">
-        <f>(O8-O9)*$F$18</f>
-        <v>1464000</v>
-      </c>
-      <c r="P85" s="4">
-        <f>(P8-P9)*$G$18</f>
-        <v>24976100</v>
-      </c>
-      <c r="R85" s="4">
-        <f>(R8-R9)*$F$18</f>
-        <v>1449000</v>
-      </c>
-      <c r="S85" s="4">
-        <f>(S8-S9)*$G$18</f>
-        <v>24976500</v>
-      </c>
-      <c r="U85" s="4">
-        <f>(U8-U9)*$F$18</f>
-        <v>1434300</v>
-      </c>
-      <c r="V85" s="4">
-        <f>(V8-V9)*$G$18</f>
-        <v>24975200</v>
-      </c>
-      <c r="X85" s="4">
-        <f>(X8-X9)*$F$18</f>
-        <v>1419600</v>
-      </c>
-      <c r="Y85" s="4">
-        <f>(Y8-Y9)*$G$18</f>
-        <v>24969000</v>
-      </c>
-      <c r="AG85" s="5"/>
-    </row>
-    <row r="86" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E86" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG86" s="5"/>
-    </row>
-    <row r="87" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="E87" s="14"/>
-      <c r="AG87" s="5"/>
-    </row>
-    <row r="88" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E88" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="F88" s="4">
-        <v>1</v>
-      </c>
-      <c r="G88" s="4">
-        <v>1</v>
-      </c>
-      <c r="I88" s="4">
-        <f>IF(F91=0,0,MIN(MAX((F91/F85-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="J88" s="4">
-        <f>IF(G91=0,0,MIN(MAX((G91/G85-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="L88" s="4">
-        <f>IF(I91=0,0,MIN(MAX((I91/I85-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="M88" s="4">
-        <f>IF(J91=0,0,MIN(MAX((J91/J85-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="O88" s="4">
-        <f>IF(L91=0,0,MIN(MAX((L91/L85-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P88" s="4">
-        <f>IF(M91=0,0,MIN(MAX((M91/M85-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="R88" s="4">
-        <f>IF(O91=0,0,MIN(MAX((O91/O85-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="S88" s="4">
-        <f>IF(P91=0,0,MIN(MAX((P91/P85-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="U88" s="4">
-        <f>IF(R91=0,0,MIN(MAX((R91/R85-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="V88" s="4">
-        <f>IF(S91=0,0,MIN(MAX((S91/S85-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="X88" s="4">
-        <f>IF(U91=0,0,MIN(MAX((U91/U85-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="Y88" s="4">
-        <f>IF(V91=0,0,MIN(MAX((V91/V85-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>0.95265818035259087</v>
-      </c>
-      <c r="AG88" s="5"/>
-    </row>
-    <row r="89" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E89" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F89" s="4">
-        <f>F83</f>
-        <v>0.3</v>
-      </c>
-      <c r="G89" s="4">
-        <f>G83</f>
-        <v>0.92</v>
-      </c>
-      <c r="I89" s="4">
-        <f xml:space="preserve"> I83*I88</f>
-        <v>0.3</v>
-      </c>
-      <c r="J89" s="4">
-        <f>J83*J88</f>
-        <v>0.92</v>
-      </c>
-      <c r="L89" s="4">
-        <f xml:space="preserve"> L83*L88</f>
-        <v>0.3</v>
-      </c>
-      <c r="M89" s="4">
-        <f>M83*M88</f>
-        <v>0.92</v>
-      </c>
-      <c r="O89" s="4">
-        <f xml:space="preserve"> O83*O88</f>
-        <v>0.3</v>
-      </c>
-      <c r="P89" s="4">
-        <f>P83*P88</f>
-        <v>0.92</v>
-      </c>
-      <c r="R89" s="4">
-        <f xml:space="preserve"> R83*R88</f>
-        <v>0.3</v>
-      </c>
-      <c r="S89" s="4">
-        <f>S83*S88</f>
-        <v>0.92</v>
-      </c>
-      <c r="U89" s="4">
-        <f xml:space="preserve"> U83*U88</f>
-        <v>0.3</v>
-      </c>
-      <c r="V89" s="4">
-        <f>V83*V88</f>
-        <v>0.92</v>
-      </c>
-      <c r="X89" s="4">
-        <f xml:space="preserve"> X83*X88</f>
-        <v>0.3</v>
-      </c>
-      <c r="Y89" s="4">
-        <f>Y83*Y88</f>
-        <v>0.87644552592438363</v>
-      </c>
-      <c r="AG89" s="5"/>
-    </row>
-    <row r="90" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="E90" s="14"/>
-      <c r="AG90" s="5"/>
-    </row>
-    <row r="91" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E91" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F91" s="4">
-        <f>F13*F18</f>
-        <v>1492500</v>
-      </c>
-      <c r="G91" s="4">
-        <f>G13*G18</f>
-        <v>24990000</v>
-      </c>
-      <c r="I91" s="4">
-        <f>F91-F114-F102+I89*I13</f>
-        <v>1416339.7269022067</v>
-      </c>
-      <c r="J91" s="4">
-        <f>G91-G114-G102+J89*J13</f>
-        <v>23281433.473097794</v>
-      </c>
-      <c r="L91" s="4">
-        <f>I91-I114-I102+L89*L13</f>
-        <v>1336122.1432664045</v>
-      </c>
-      <c r="M91" s="4">
-        <f>J91-J114-J102+M89*M13</f>
-        <v>21525187.163012162</v>
-      </c>
-      <c r="O91" s="4">
-        <f>L91-L114-L102+O89*O13</f>
-        <v>1269232.4046145945</v>
-      </c>
-      <c r="P91" s="4">
-        <f>M91-M114-M102+P89*P13</f>
-        <v>19698561.729234692</v>
-      </c>
-      <c r="R91" s="4">
-        <f>O91-O114-O102+R89*R13</f>
-        <v>1196486.834842422</v>
-      </c>
-      <c r="S91" s="4">
-        <f>P91-P114-P102+S89*S13</f>
-        <v>17769451.427733306</v>
-      </c>
-      <c r="U91" s="4">
-        <f>R91-R114-R102+U89*U13</f>
-        <v>1130676.5672029681</v>
-      </c>
-      <c r="V91" s="4">
-        <f>S91-S114-S102+V89*V13</f>
-        <v>15942377.523995219</v>
-      </c>
-      <c r="X91" s="4">
-        <f>U91-U114-U102+X89*X13</f>
-        <v>1074653.945428398</v>
-      </c>
-      <c r="Y91" s="4">
-        <f>V91-V114-V102+Y89*Y13</f>
-        <v>13991396.598313769</v>
-      </c>
-      <c r="AG91" s="5"/>
-    </row>
-    <row r="92" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E92" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F92" s="4">
-        <f>F91/F13</f>
-        <v>150</v>
-      </c>
-      <c r="G92" s="4">
-        <f>G91/G13</f>
-        <v>100</v>
-      </c>
-      <c r="I92" s="4">
-        <f>I91/I13</f>
-        <v>143.23824098930083</v>
-      </c>
-      <c r="J92" s="4">
-        <f>J91/J13</f>
-        <v>93.204025273621014</v>
-      </c>
-      <c r="L92" s="4">
-        <f>L91/L13</f>
-        <v>135.92290368935957</v>
-      </c>
-      <c r="M92" s="4">
-        <f>M91/M13</f>
-        <v>86.205574630799703</v>
-      </c>
-      <c r="O92" s="4">
-        <f>O91/O13</f>
-        <v>130.04430375149533</v>
-      </c>
-      <c r="P92" s="4">
-        <f>P91/P13</f>
-        <v>78.950885473718628</v>
-      </c>
-      <c r="R92" s="4">
-        <f>R91/R13</f>
-        <v>123.85992079114099</v>
-      </c>
-      <c r="S92" s="4">
-        <f>S91/S13</f>
-        <v>71.230238421154496</v>
-      </c>
-      <c r="U92" s="4">
-        <f>U91/U13</f>
-        <v>118.24686960917884</v>
-      </c>
-      <c r="V92" s="4">
-        <f>V91/V13</f>
-        <v>63.933179034308708</v>
-      </c>
-      <c r="X92" s="4">
-        <f>X91/X13</f>
-        <v>113.55176938169886</v>
-      </c>
-      <c r="Y92" s="4">
-        <f>Y91/Y13</f>
-        <v>56.132862322977552</v>
-      </c>
-      <c r="AG92" s="5"/>
-    </row>
-    <row r="93" spans="4:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E93" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="F93" s="4">
-        <f>MAX(F91-$F$19*F13,0)</f>
-        <v>1491007.5</v>
-      </c>
-      <c r="G93" s="4">
-        <f>MAX(G91-$G$19*G13,0)</f>
-        <v>24965010</v>
-      </c>
-      <c r="I93" s="4">
-        <f>MAX(I91-$F$19*I13,0)</f>
-        <v>1414856.5269022067</v>
-      </c>
-      <c r="J93" s="4">
-        <f>MAX(J91-$G$19*J13,0)</f>
-        <v>23256454.473097794</v>
-      </c>
-      <c r="L93" s="4">
-        <f>MAX(L91-$F$19*L13,0)</f>
-        <v>1334647.6432664045</v>
-      </c>
-      <c r="M93" s="4">
-        <f>MAX(M91-$G$19*M13,0)</f>
-        <v>21500217.56301216</v>
-      </c>
-      <c r="O93" s="4">
-        <f>MAX(O91-$F$19*O13,0)</f>
-        <v>1267768.4046145945</v>
-      </c>
-      <c r="P93" s="4">
-        <f>MAX(P91-$G$19*P13,0)</f>
-        <v>19673611.329234693</v>
-      </c>
-      <c r="R93" s="4">
-        <f>MAX(R91-$F$19*R13,0)</f>
-        <v>1195037.834842422</v>
-      </c>
-      <c r="S93" s="4">
-        <f>MAX(S91-$G$19*S13,0)</f>
-        <v>17744504.927733306</v>
-      </c>
-      <c r="U93" s="4">
-        <f>MAX(U91-$F$19*U13,0)</f>
-        <v>1129242.267202968</v>
-      </c>
-      <c r="V93" s="4">
-        <f>MAX(V91-$G$19*V13,0)</f>
-        <v>15917441.523995219</v>
-      </c>
-      <c r="X93" s="4">
-        <f>MAX(X91-$F$19*X13,0)</f>
-        <v>1073234.3454283979</v>
-      </c>
-      <c r="Y93" s="4">
-        <f>MAX(Y91-$G$19*Y13,0)</f>
-        <v>13966471.098313769</v>
-      </c>
-      <c r="AB93" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG93" s="5"/>
-    </row>
-    <row r="94" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="AB94" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG94" s="5"/>
-    </row>
-    <row r="95" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="E95" s="14"/>
-      <c r="AG95" s="5"/>
-    </row>
-    <row r="96" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="E96" s="13"/>
-      <c r="AG96" s="5"/>
-    </row>
-    <row r="97" spans="5:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="R97" s="12"/>
-      <c r="S97" s="12"/>
-      <c r="U97" s="12"/>
-      <c r="V97" s="12"/>
-      <c r="X97" s="12"/>
-      <c r="Y97" s="12"/>
-      <c r="AG97" s="5"/>
-    </row>
-    <row r="98" spans="5:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E98" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F98" s="4">
-        <f>F92*F7</f>
-        <v>1500000</v>
-      </c>
-      <c r="G98" s="4">
-        <f>G92*G7</f>
-        <v>25000000</v>
-      </c>
-      <c r="I98" s="4">
-        <f>I92*I7</f>
-        <v>1425220.4978435433</v>
-      </c>
-      <c r="J98" s="4">
-        <f>J92*J7</f>
-        <v>23291685.91587789</v>
-      </c>
-      <c r="L98" s="4">
-        <f>L92*L7</f>
-        <v>1344005.6716803873</v>
-      </c>
-      <c r="M98" s="4">
-        <f>M92*M7</f>
-        <v>21533290.487027459</v>
-      </c>
-      <c r="O98" s="4">
-        <f>O92*O7</f>
-        <v>1278335.5058771991</v>
-      </c>
-      <c r="P98" s="4">
-        <f>P92*P7</f>
-        <v>19713720.299245648</v>
-      </c>
-      <c r="R98" s="4">
-        <f>R92*R7</f>
-        <v>1208872.8269215361</v>
-      </c>
-      <c r="S98" s="4">
-        <f>S92*S7</f>
-        <v>17772229.40703173</v>
-      </c>
-      <c r="U98" s="4">
-        <f>U92*U7</f>
-        <v>1142264.7604246677</v>
-      </c>
-      <c r="V98" s="4">
-        <f>V92*V7</f>
-        <v>15949090.507793821</v>
-      </c>
-      <c r="X98" s="4">
-        <f>X92*X7</f>
-        <v>1085782.0188278046</v>
-      </c>
-      <c r="Y98" s="4">
-        <f>Y92*Y7</f>
-        <v>13997290.548857681</v>
-      </c>
-      <c r="AG98" s="5"/>
-    </row>
-    <row r="99" spans="5:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E99" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G99" s="4">
-        <f>SUM(G77:G80)</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="4">
-        <f>SUM(J77:J80)</f>
-        <v>0.85</v>
-      </c>
-      <c r="M99" s="4">
-        <f>SUM(M77:M80)</f>
-        <v>5.8999999999999995</v>
-      </c>
-      <c r="P99" s="4">
-        <f>SUM(P77:P80)</f>
-        <v>21.02</v>
-      </c>
-      <c r="S99" s="4">
-        <f>SUM(S77:S80)</f>
-        <v>52.65</v>
-      </c>
-      <c r="V99" s="4">
-        <f>SUM(V77:V80)</f>
-        <v>112.43999999999998</v>
-      </c>
-      <c r="Y99" s="4">
-        <f>SUM(Y77:Y80)</f>
-        <v>215.8</v>
-      </c>
-      <c r="AG99" s="5"/>
-    </row>
-    <row r="100" spans="5:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E100" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F100" s="4">
-        <f>F98+F99</f>
-        <v>1500000</v>
-      </c>
-      <c r="G100" s="4">
-        <f>G98+G99</f>
-        <v>25000000</v>
-      </c>
-      <c r="I100" s="4">
-        <f>I98+I99</f>
-        <v>1425220.4978435433</v>
-      </c>
-      <c r="J100" s="4">
-        <f>J98+J99</f>
-        <v>23291686.765877891</v>
-      </c>
-      <c r="L100" s="4">
-        <f>L98+L99</f>
-        <v>1344005.6716803873</v>
-      </c>
-      <c r="M100" s="4">
-        <f>M98+M99</f>
-        <v>21533296.387027457</v>
-      </c>
-      <c r="O100" s="4">
-        <f>O98+O99</f>
-        <v>1278335.5058771991</v>
-      </c>
-      <c r="P100" s="4">
-        <f>P98+P99</f>
-        <v>19713741.319245648</v>
-      </c>
-      <c r="R100" s="4">
-        <f>R98+R99</f>
-        <v>1208872.8269215361</v>
-      </c>
-      <c r="S100" s="4">
-        <f>S98+S99</f>
-        <v>17772282.057031728</v>
-      </c>
-      <c r="U100" s="4">
-        <f>U98+U99</f>
-        <v>1142264.7604246677</v>
-      </c>
-      <c r="V100" s="4">
-        <f>V98+V99</f>
-        <v>15949202.947793821</v>
-      </c>
-      <c r="X100" s="4">
-        <f>X98+X99</f>
-        <v>1085782.0188278046</v>
-      </c>
-      <c r="Y100" s="4">
-        <f>Y98+Y99</f>
-        <v>13997506.348857682</v>
-      </c>
-      <c r="AG100" s="5"/>
-    </row>
-    <row r="101" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="AG101" s="5"/>
-    </row>
-    <row r="102" spans="5:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E102" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F102" s="4">
-        <f>F9*F92</f>
-        <v>7500</v>
-      </c>
-      <c r="G102" s="4">
-        <f>G9*G92</f>
-        <v>10000</v>
-      </c>
-      <c r="I102" s="4">
-        <f>I9*I92</f>
-        <v>8880.770941336652</v>
-      </c>
-      <c r="J102" s="4">
-        <f>J9*J92</f>
-        <v>10252.442780098312</v>
-      </c>
-      <c r="L102" s="4">
-        <f>L9*L92</f>
-        <v>7883.5284139828555</v>
-      </c>
-      <c r="M102" s="4">
-        <f>M9*M92</f>
-        <v>8103.3240152951721</v>
-      </c>
-      <c r="O102" s="4">
-        <f>O9*O92</f>
-        <v>9103.101262604674</v>
-      </c>
-      <c r="P102" s="4">
-        <f>P9*P92</f>
-        <v>15158.570010953976</v>
-      </c>
-      <c r="R102" s="4">
-        <f>R9*R92</f>
-        <v>12385.992079114099</v>
-      </c>
-      <c r="S102" s="4">
-        <f>S9*S92</f>
-        <v>2777.9792984250253</v>
-      </c>
-      <c r="U102" s="4">
-        <f>U9*U92</f>
-        <v>11588.193221699526</v>
-      </c>
-      <c r="V102" s="4">
-        <f>V9*V92</f>
-        <v>6712.983798602414</v>
-      </c>
-      <c r="X102" s="4">
-        <f>X9*X92</f>
-        <v>11128.073399406489</v>
-      </c>
-      <c r="Y102" s="4">
-        <f>Y9*Y92</f>
-        <v>5893.9505439126433</v>
-      </c>
-      <c r="AG102" s="5"/>
-    </row>
-    <row r="103" spans="5:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E103" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F103" s="4">
-        <f>F102*$F$14</f>
-        <v>5250</v>
-      </c>
-      <c r="G103" s="4">
-        <f>G102*$F$14</f>
-        <v>7000</v>
-      </c>
-      <c r="I103" s="4">
-        <f>I102*$F$14</f>
-        <v>6216.539658935656</v>
-      </c>
-      <c r="J103" s="4">
-        <f>J102*$F$14</f>
-        <v>7176.7099460688178</v>
-      </c>
-      <c r="L103" s="4">
-        <f>L102*$F$14</f>
-        <v>5518.4698897879989</v>
-      </c>
-      <c r="M103" s="4">
-        <f>M102*$F$14</f>
-        <v>5672.3268107066206</v>
-      </c>
-      <c r="O103" s="4">
-        <f>O102*$F$14</f>
-        <v>6372.1708838232717</v>
-      </c>
-      <c r="P103" s="4">
-        <f>P102*$F$14</f>
-        <v>10610.999007667782</v>
-      </c>
-      <c r="R103" s="4">
-        <f>R102*$F$14</f>
-        <v>8670.1944553798694</v>
-      </c>
-      <c r="S103" s="4">
-        <f>S102*$F$14</f>
-        <v>1944.5855088975175</v>
-      </c>
-      <c r="U103" s="4">
-        <f>U102*$F$14</f>
-        <v>8111.7352551896684</v>
-      </c>
-      <c r="V103" s="4">
-        <f>V102*$F$14</f>
-        <v>4699.0886590216896</v>
-      </c>
-      <c r="X103" s="4">
-        <f>X102*$F$14</f>
-        <v>7789.6513795845412</v>
-      </c>
-      <c r="Y103" s="4">
-        <f>Y102*$F$14</f>
-        <v>4125.7653807388497</v>
-      </c>
-      <c r="AG103" s="5"/>
-    </row>
-    <row r="104" spans="5:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E104" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F104" s="4">
-        <f>F102*(1-$F$14)</f>
-        <v>2250.0000000000005</v>
-      </c>
-      <c r="G104" s="4">
-        <f>G102*(1-$F$14)</f>
-        <v>3000.0000000000005</v>
-      </c>
-      <c r="I104" s="4">
-        <f>I102*(1-$F$14)</f>
-        <v>2664.231282400996</v>
-      </c>
-      <c r="J104" s="4">
-        <f>J102*(1-$F$14)</f>
-        <v>3075.7328340294939</v>
-      </c>
-      <c r="L104" s="4">
-        <f>L102*(1-$F$14)</f>
-        <v>2365.058524194857</v>
-      </c>
-      <c r="M104" s="4">
-        <f>M102*(1-$F$14)</f>
-        <v>2430.997204588552</v>
-      </c>
-      <c r="O104" s="4">
-        <f>O102*(1-$F$14)</f>
-        <v>2730.9303787814024</v>
-      </c>
-      <c r="P104" s="4">
-        <f>P102*(1-$F$14)</f>
-        <v>4547.5710032861934</v>
-      </c>
-      <c r="R104" s="4">
-        <f>R102*(1-$F$14)</f>
-        <v>3715.7976237342305</v>
-      </c>
-      <c r="S104" s="4">
-        <f>S102*(1-$F$14)</f>
-        <v>833.39378952750769</v>
-      </c>
-      <c r="U104" s="4">
-        <f>U102*(1-$F$14)</f>
-        <v>3476.4579665098586</v>
-      </c>
-      <c r="V104" s="4">
-        <f>V102*(1-$F$14)</f>
-        <v>2013.8951395807246</v>
-      </c>
-      <c r="X104" s="4">
-        <f>X102*(1-$F$14)</f>
-        <v>3338.4220198219468</v>
-      </c>
-      <c r="Y104" s="4">
-        <f>Y102*(1-$F$14)</f>
-        <v>1768.1851631737932</v>
-      </c>
-      <c r="AG104" s="5"/>
-    </row>
-    <row r="105" spans="5:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E105" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG105" s="5"/>
-    </row>
-    <row r="106" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="Z106">
-        <v>1.1000000000000001</v>
       </c>
       <c r="AA106">
         <f>SUM(Z$6:Z106)</f>
-        <v>1.1000000000000001</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="AB106">
         <v>20</v>
       </c>
-      <c r="AG106" s="5"/>
-    </row>
-    <row r="107" spans="5:34" ht="34" x14ac:dyDescent="0.2">
-      <c r="E107" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F107" s="4">
-        <f>MAX(F13-F24, 0)*F116</f>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z107">
+        <v>0.2</v>
+      </c>
+      <c r="AA107">
+        <f>SUM(Z$6:Z107)</f>
+        <v>2.1</v>
+      </c>
+      <c r="AB107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B108" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F108" s="4">
+        <f>F95*F106</f>
         <v>741757.5</v>
       </c>
-      <c r="G107" s="4">
-        <f>MAX(G13-G24, 0)*G116</f>
+      <c r="G108" s="4">
+        <f>G95*G106</f>
         <v>19970010</v>
       </c>
-      <c r="I107" s="4">
-        <f>MAX(I13-I24, 0)*I116</f>
-        <v>700148.52195570245</v>
-      </c>
-      <c r="J107" s="4">
-        <f>MAX(J13-J24, 0)*J116</f>
-        <v>18621232.209416743</v>
-      </c>
-      <c r="L107" s="4">
-        <f>MAX(L13-L24, 0)*L116</f>
-        <v>520584.72113024717</v>
-      </c>
-      <c r="M107" s="4">
-        <f>MAX(M13-M24, 0)*M116</f>
-        <v>17214908.431472179</v>
-      </c>
-      <c r="O107" s="4">
-        <f>MAX(O13-O24, 0)*O116</f>
-        <v>488966.58210562245</v>
-      </c>
-      <c r="P107" s="4">
-        <f>MAX(P13-P24, 0)*P116</f>
-        <v>15751017.455548761</v>
-      </c>
-      <c r="R107" s="4">
-        <f>MAX(R13-R24, 0)*R116</f>
-        <v>391397.34970000555</v>
-      </c>
-      <c r="S107" s="4">
-        <f>MAX(S13-S24, 0)*S116</f>
-        <v>14279169.745096736</v>
-      </c>
-      <c r="U107" s="4">
-        <f>MAX(U13-U24, 0)*U116</f>
-        <v>279299.10601688048</v>
-      </c>
-      <c r="V107" s="4">
-        <f>MAX(V13-V24, 0)*V116</f>
-        <v>12777685.161796939</v>
-      </c>
-      <c r="X107" s="4">
-        <f>MAX(X13-X24, 0)*X116</f>
-        <v>257081.20588016626</v>
-      </c>
-      <c r="Y107" s="4">
-        <f>MAX(Y13-Y24, 0)*Y116</f>
-        <v>11212819.913326381</v>
-      </c>
-      <c r="AG107" s="5">
-        <v>5495710</v>
-      </c>
-      <c r="AH107">
-        <f t="shared" si="0"/>
-        <v>1373928</v>
-      </c>
-    </row>
-    <row r="108" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="AG108" s="5"/>
-    </row>
-    <row r="109" spans="5:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E109" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="O109" s="8"/>
-      <c r="P109" s="8"/>
-      <c r="R109" s="8"/>
-      <c r="S109" s="8"/>
-      <c r="U109" s="8"/>
-      <c r="V109" s="8"/>
-      <c r="X109" s="8"/>
-      <c r="Y109" s="8"/>
-      <c r="AG109" s="5"/>
-    </row>
-    <row r="110" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="I108" s="4">
+        <f>I95*I106</f>
+        <v>697350.12103057199</v>
+      </c>
+      <c r="J108" s="4">
+        <f>J95*J106</f>
+        <v>18564257.684882641</v>
+      </c>
+      <c r="L108" s="4">
+        <f>L95*L106</f>
+        <v>585369.23701022286</v>
+      </c>
+      <c r="M108" s="4">
+        <f>M95*M106</f>
+        <v>17125702.279067256</v>
+      </c>
+      <c r="O108" s="4">
+        <f>O95*O106</f>
+        <v>481800.1506859982</v>
+      </c>
+      <c r="P108" s="4">
+        <f>P95*P106</f>
+        <v>15631637.942930376</v>
+      </c>
+      <c r="R108" s="4">
+        <f>R95*R106</f>
+        <v>383702.35403091379</v>
+      </c>
+      <c r="S108" s="4">
+        <f>S95*S106</f>
+        <v>14140812.522895874</v>
+      </c>
+      <c r="U108" s="4">
+        <f>U95*U106</f>
+        <v>267600.05212584668</v>
+      </c>
+      <c r="V108" s="4">
+        <f>V95*V106</f>
+        <v>11918480.929873837</v>
+      </c>
+      <c r="X108" s="4">
+        <f>X95*X106</f>
+        <v>193429.69008556352</v>
+      </c>
+      <c r="Y108" s="4">
+        <f>Y95*Y106</f>
+        <v>1583219.5494211437</v>
+      </c>
+      <c r="Z108">
+        <v>0.125</v>
+      </c>
+      <c r="AA108">
+        <f>SUM(Z$6:Z126)</f>
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="AB108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B109" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F109" s="4">
+        <f>F108+G108</f>
+        <v>20711767.5</v>
+      </c>
+      <c r="G109" s="4">
+        <f>F109</f>
+        <v>20711767.5</v>
+      </c>
+      <c r="I109" s="4">
+        <f>I108+J108</f>
+        <v>19261607.805913214</v>
+      </c>
+      <c r="J109" s="4">
+        <f>I109</f>
+        <v>19261607.805913214</v>
+      </c>
+      <c r="L109" s="4">
+        <f>L108+M108</f>
+        <v>17711071.516077477</v>
+      </c>
+      <c r="M109" s="4">
+        <f>L109</f>
+        <v>17711071.516077477</v>
+      </c>
+      <c r="O109" s="4">
+        <f>O108+P108</f>
+        <v>16113438.093616374</v>
+      </c>
+      <c r="P109" s="4">
+        <f>O109</f>
+        <v>16113438.093616374</v>
+      </c>
+      <c r="R109" s="4">
+        <f>R108+S108</f>
+        <v>14524514.876926789</v>
+      </c>
+      <c r="S109" s="4">
+        <f>R109</f>
+        <v>14524514.876926789</v>
+      </c>
+      <c r="U109" s="4">
+        <f>U108+V108</f>
+        <v>12186080.981999684</v>
+      </c>
+      <c r="V109" s="4">
+        <f>U109</f>
+        <v>12186080.981999684</v>
+      </c>
+      <c r="X109" s="4">
+        <f>X108+Y108</f>
+        <v>1776649.2395067073</v>
+      </c>
+      <c r="Y109" s="4">
+        <f>X109</f>
+        <v>1776649.2395067073</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B110" s="41" t="s">
+        <v>201</v>
+      </c>
       <c r="E110" s="10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F110" s="4">
-        <f>MIN(F121,F29)</f>
-        <v>2000000</v>
+        <f>F108/F109</f>
+        <v>3.5813336548896658E-2</v>
+      </c>
+      <c r="G110" s="4">
+        <f>G108/G109</f>
+        <v>0.96418666345110338</v>
       </c>
       <c r="I110" s="4">
-        <f>MIN(I121,I29)</f>
-        <v>2050000</v>
+        <f>I108/I109</f>
+        <v>3.6204149106207485E-2</v>
+      </c>
+      <c r="J110" s="4">
+        <f>J108/J109</f>
+        <v>0.96379585089379249</v>
       </c>
       <c r="L110" s="4">
-        <f>MIN(L121,L29)</f>
-        <v>2110000</v>
+        <f>L108/L109</f>
+        <v>3.3051034573421803E-2</v>
+      </c>
+      <c r="M110" s="4">
+        <f>M108/M109</f>
+        <v>0.96694896542657827</v>
       </c>
       <c r="O110" s="4">
-        <f>MIN(O121,O29)</f>
-        <v>2210000</v>
+        <f>O108/O109</f>
+        <v>2.9900518305703606E-2</v>
+      </c>
+      <c r="P110" s="4">
+        <f>P108/P109</f>
+        <v>0.97009948169429638</v>
       </c>
       <c r="R110" s="4">
-        <f>MIN(R121,R29)</f>
-        <v>2110000</v>
+        <f>R108/R109</f>
+        <v>2.6417567628399894E-2</v>
+      </c>
+      <c r="S110" s="4">
+        <f>S108/S109</f>
+        <v>0.97358243237160003</v>
       </c>
       <c r="U110" s="4">
-        <f>MIN(U121,U29)</f>
-        <v>2210000</v>
+        <f>U108/U109</f>
+        <v>2.1959484145979691E-2</v>
+      </c>
+      <c r="V110" s="4">
+        <f>V108/V109</f>
+        <v>0.9780405158540203</v>
       </c>
       <c r="X110" s="4">
-        <f>MIN(X121,X29)</f>
-        <v>2350000</v>
-      </c>
-      <c r="AG110" s="5"/>
-    </row>
-    <row r="111" spans="5:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E111" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F111" s="4">
-        <f>F29-F110</f>
-        <v>0</v>
-      </c>
-      <c r="I111" s="4">
-        <f>I29-I110</f>
-        <v>0</v>
-      </c>
-      <c r="L111" s="4">
-        <f>L29-L110</f>
-        <v>0</v>
-      </c>
-      <c r="O111" s="4">
-        <f>O29-O110</f>
-        <v>0</v>
-      </c>
-      <c r="R111" s="4">
-        <f>R29-R110</f>
-        <v>0</v>
-      </c>
-      <c r="U111" s="4">
-        <f>U29-U110</f>
-        <v>0</v>
-      </c>
-      <c r="X111" s="4">
-        <f>X29-X110</f>
-        <v>0</v>
-      </c>
-      <c r="AG111" s="5"/>
-    </row>
-    <row r="112" spans="5:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E112" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F112" s="4">
-        <f>MIN(F29,F110)</f>
-        <v>2000000</v>
-      </c>
-      <c r="I112" s="4">
-        <f>MIN(I29,I110)</f>
-        <v>2050000</v>
-      </c>
-      <c r="L112" s="4">
-        <f>MIN(L29,L110)</f>
-        <v>2110000</v>
-      </c>
-      <c r="O112" s="4">
-        <f>MIN(O29,O110)</f>
-        <v>2210000</v>
-      </c>
-      <c r="R112" s="4">
-        <f>MIN(R29,R110)</f>
-        <v>2110000</v>
-      </c>
-      <c r="U112" s="4">
-        <f>MIN(U29,U110)</f>
-        <v>2210000</v>
-      </c>
-      <c r="X112" s="4">
-        <f>MIN(X29,X110)</f>
-        <v>2350000</v>
-      </c>
-      <c r="AG112" s="5"/>
-    </row>
-    <row r="113" spans="4:34" ht="17" x14ac:dyDescent="0.2">
+        <f>X108/X109</f>
+        <v>0.10887331375509435</v>
+      </c>
+      <c r="Y110" s="4">
+        <f>Y108/Y109</f>
+        <v>0.89112668624490565</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="E112" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="5:28" ht="17" x14ac:dyDescent="0.2">
       <c r="E113" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F113" s="4">
-        <f>MIN(F111,G63)</f>
-        <v>0</v>
-      </c>
-      <c r="I113" s="4">
-        <f>MIN(I111,J63)</f>
-        <v>0</v>
-      </c>
-      <c r="L113" s="4">
-        <f>MIN(L111,M63)</f>
-        <v>0</v>
-      </c>
-      <c r="O113" s="4">
-        <f>MIN(O111,P63)</f>
-        <v>0</v>
-      </c>
-      <c r="R113" s="4">
-        <f>MIN(R111,S63)</f>
-        <v>0</v>
-      </c>
-      <c r="U113" s="4">
-        <f>MIN(U111,V63)</f>
-        <v>0</v>
-      </c>
-      <c r="X113" s="4">
-        <f>MIN(X111,Y63)</f>
-        <v>0</v>
-      </c>
-      <c r="AG113" s="5"/>
-    </row>
-    <row r="114" spans="4:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E114" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F114" s="4">
-        <f>F122*F112</f>
-        <v>71626.673097793318</v>
-      </c>
-      <c r="G114" s="4">
-        <f>G122*F112</f>
-        <v>1928373.3269022068</v>
-      </c>
-      <c r="I114" s="4">
-        <f>I122*I112</f>
-        <v>74285.812694465581</v>
-      </c>
-      <c r="J114" s="4">
-        <f>J122*I112</f>
-        <v>1975714.1873055343</v>
-      </c>
-      <c r="L114" s="4">
-        <f>L122*L112</f>
-        <v>61934.210237827094</v>
-      </c>
-      <c r="M114" s="4">
-        <f>M122*L112</f>
-        <v>2048065.7897621728</v>
-      </c>
-      <c r="O114" s="4">
-        <f>O122*O112</f>
-        <v>66540.468509567829</v>
-      </c>
-      <c r="P114" s="4">
-        <f>P122*O112</f>
-        <v>2143459.5314904321</v>
-      </c>
-      <c r="R114" s="4">
-        <f>R122*R112</f>
-        <v>56292.875560339999</v>
-      </c>
-      <c r="S114" s="4">
-        <f>S122*R112</f>
-        <v>2053707.12443966</v>
-      </c>
-      <c r="U114" s="4">
-        <f>U122*U112</f>
-        <v>47273.628552870621</v>
-      </c>
-      <c r="V114" s="4">
-        <f>V122*U112</f>
-        <v>2162726.3714471292</v>
-      </c>
-      <c r="X114" s="4">
-        <f>X122*X112</f>
-        <v>52671.843247780613</v>
-      </c>
-      <c r="Y114" s="4">
-        <f>Y122*X112</f>
-        <v>2297328.1567522194</v>
-      </c>
-      <c r="AG114" s="5"/>
-    </row>
-    <row r="115" spans="4:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E115" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-      <c r="R115" s="8"/>
-      <c r="S115" s="8"/>
-      <c r="U115" s="8"/>
-      <c r="V115" s="8"/>
-      <c r="X115" s="8"/>
-      <c r="Y115" s="8"/>
-      <c r="AG115" s="5"/>
-    </row>
-    <row r="116" spans="4:34" ht="34" x14ac:dyDescent="0.2">
-      <c r="E116" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F116" s="4">
-        <f>MAX(F98/F7-F19,0)</f>
-        <v>149.85</v>
-      </c>
-      <c r="G116" s="4">
-        <f>MAX(G98/G7-G19,0)</f>
-        <v>99.9</v>
-      </c>
-      <c r="I116" s="4">
-        <f>MAX(I98/I7-I19,0)</f>
-        <v>143.23824098930083</v>
-      </c>
-      <c r="J116" s="4">
-        <f>MAX(J98/J7-J19,0)</f>
-        <v>93.204025273621014</v>
-      </c>
-      <c r="L116" s="4">
-        <f>MAX(L98/L7-L19,0)</f>
-        <v>135.92290368935957</v>
-      </c>
-      <c r="M116" s="4">
-        <f>MAX(M98/M7-M19,0)</f>
-        <v>86.205574630799703</v>
-      </c>
-      <c r="O116" s="4">
-        <f>MAX(O98/O7-O19,0)</f>
-        <v>130.04430375149533</v>
-      </c>
-      <c r="P116" s="4">
-        <f>MAX(P98/P7-P19,0)</f>
-        <v>78.950885473718628</v>
-      </c>
-      <c r="R116" s="4">
-        <f>MAX(R98/R7-R19,0)</f>
-        <v>123.85992079114099</v>
-      </c>
-      <c r="S116" s="4">
-        <f>MAX(S98/S7-S19,0)</f>
-        <v>71.230238421154496</v>
-      </c>
-      <c r="U116" s="4">
-        <f>MAX(U98/U7-U19,0)</f>
-        <v>118.24686960917886</v>
-      </c>
-      <c r="V116" s="4">
-        <f>MAX(V98/V7-V19,0)</f>
-        <v>63.933179034308708</v>
-      </c>
-      <c r="X116" s="4">
-        <f>MAX(X98/X7-X19,0)</f>
-        <v>113.55176938169888</v>
-      </c>
-      <c r="Y116" s="4">
-        <f>MAX(Y98/Y7-Y19,0)</f>
-        <v>56.132862322977552</v>
-      </c>
-      <c r="AG116" s="5"/>
-    </row>
-    <row r="117" spans="4:34" ht="51" x14ac:dyDescent="0.2">
-      <c r="E117" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F117" s="4">
-        <f>F116/$F$20</f>
-        <v>1</v>
-      </c>
-      <c r="G117" s="4">
-        <f>G116/$G$20</f>
-        <v>1</v>
-      </c>
-      <c r="I117" s="4">
-        <f>I116/$F$20</f>
-        <v>0.9558774840794183</v>
-      </c>
-      <c r="J117" s="4">
-        <f>J116/$G$20</f>
-        <v>0.93297322596217225</v>
-      </c>
-      <c r="L117" s="4">
-        <f>L116/$F$20</f>
-        <v>0.90705975101341063</v>
-      </c>
-      <c r="M117" s="4">
-        <f>M116/$G$20</f>
-        <v>0.86291866497296998</v>
-      </c>
-      <c r="O117" s="4">
-        <f>O116/$F$20</f>
-        <v>0.86782985486483377</v>
-      </c>
-      <c r="P117" s="4">
-        <f>P116/$G$20</f>
-        <v>0.7902991538910773</v>
-      </c>
-      <c r="R117" s="4">
-        <f>R116/$F$20</f>
-        <v>0.82655936463891222</v>
-      </c>
-      <c r="S117" s="4">
-        <f>S116/$G$20</f>
-        <v>0.71301539961115612</v>
-      </c>
-      <c r="U117" s="4">
-        <f>U116/$F$20</f>
-        <v>0.78910156562681921</v>
-      </c>
-      <c r="V117" s="4">
-        <f>V116/$G$20</f>
-        <v>0.63997176210519224</v>
-      </c>
-      <c r="X117" s="4">
-        <f>X116/$F$20</f>
-        <v>0.75776956544343599</v>
-      </c>
-      <c r="Y117" s="4">
-        <f>Y116/$G$20</f>
-        <v>0.56189051374351895</v>
-      </c>
-      <c r="Z117">
-        <v>0.5</v>
-      </c>
-      <c r="AA117">
-        <f>SUM(Z$6:Z117)</f>
-        <v>1.6</v>
-      </c>
-      <c r="AB117">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="E114" s="36"/>
+    </row>
+    <row r="127" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="Z127">
+        <v>0.1225</v>
+      </c>
+      <c r="AA127">
+        <f>SUM(Z$6:Z127)</f>
+        <v>2.3475000000000001</v>
+      </c>
+      <c r="AB127">
         <v>20</v>
       </c>
-      <c r="AG117" s="5"/>
-    </row>
-    <row r="118" spans="4:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E118" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F118" s="4">
-        <f>MAX(MIN(F117/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G118" s="4">
-        <f>MAX(MIN((G117-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="I118" s="4">
-        <f>MAX(MIN(I117/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="J118" s="4">
-        <f>MAX(MIN((J117-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="L118" s="4">
-        <f>MAX(MIN(L117/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="M118" s="4">
-        <f>MAX(MIN((M117-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="O118" s="4">
-        <f>MAX(MIN(O117/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="P118" s="4">
-        <f>MAX(MIN((P117-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="R118" s="4">
-        <f>MAX(MIN(R117/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="S118" s="4">
-        <f>MAX(MIN((S117-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="U118" s="4">
-        <f>MAX(MIN(U117/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V118" s="4">
-        <f>MAX(MIN((V117-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="X118" s="4">
-        <f>MAX(MIN(X117/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y118" s="4">
-        <f>MAX(MIN((Y117-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Z118">
-        <v>0.3</v>
-      </c>
-      <c r="AA118">
-        <f>SUM(Z$6:Z118)</f>
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="AB118">
+    </row>
+    <row r="128" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="Z128">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="AA128">
+        <f>SUM(Z$6:Z128)</f>
+        <v>2.4699</v>
+      </c>
+      <c r="AB128">
         <v>20</v>
       </c>
-      <c r="AG118" s="5">
-        <v>5605620</v>
-      </c>
-      <c r="AH118">
-        <f>ROUND(AG118/4,0)</f>
-        <v>1401405</v>
-      </c>
-    </row>
-    <row r="119" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="Z119">
-        <v>0.2</v>
-      </c>
-      <c r="AA119">
-        <f>SUM(Z$6:Z119)</f>
-        <v>2.1</v>
-      </c>
-      <c r="AB119">
+    </row>
+    <row r="129" spans="26:28" x14ac:dyDescent="0.2">
+      <c r="Z129">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="AA129">
+        <f>SUM(Z$6:Z129)</f>
+        <v>2.5922000000000001</v>
+      </c>
+      <c r="AB129">
         <v>20</v>
       </c>
-      <c r="AG119" s="5">
-        <v>5717730</v>
-      </c>
-      <c r="AH119">
-        <f>ROUND(AG119/4,0)</f>
-        <v>1429433</v>
-      </c>
-    </row>
-    <row r="120" spans="4:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E120" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F120" s="4">
-        <f>F107*F118</f>
-        <v>741757.5</v>
-      </c>
-      <c r="G120" s="4">
-        <f>G107*G118</f>
-        <v>19970010</v>
-      </c>
-      <c r="I120" s="4">
-        <f>I107*I118</f>
-        <v>700148.52195570245</v>
-      </c>
-      <c r="J120" s="4">
-        <f>J107*J118</f>
-        <v>18621232.209416743</v>
-      </c>
-      <c r="L120" s="4">
-        <f>L107*L118</f>
-        <v>520584.72113024717</v>
-      </c>
-      <c r="M120" s="4">
-        <f>M107*M118</f>
-        <v>17214908.431472179</v>
-      </c>
-      <c r="O120" s="4">
-        <f>O107*O118</f>
-        <v>488966.58210562245</v>
-      </c>
-      <c r="P120" s="4">
-        <f>P107*P118</f>
-        <v>15751017.455548761</v>
-      </c>
-      <c r="R120" s="4">
-        <f>R107*R118</f>
-        <v>391397.34970000555</v>
-      </c>
-      <c r="S120" s="4">
-        <f>S107*S118</f>
-        <v>14279169.745096736</v>
-      </c>
-      <c r="U120" s="4">
-        <f>U107*U118</f>
-        <v>279299.10601688048</v>
-      </c>
-      <c r="V120" s="4">
-        <f>V107*V118</f>
-        <v>12777685.161796939</v>
-      </c>
-      <c r="X120" s="4">
-        <f>X107*X118</f>
-        <v>257081.20588016626</v>
-      </c>
-      <c r="Y120" s="4">
-        <f>Y107*Y118</f>
-        <v>11212819.913326381</v>
-      </c>
-      <c r="Z120">
-        <v>0.125</v>
-      </c>
-      <c r="AA120">
-        <f>SUM(Z$6:Z136)</f>
-        <v>2.2250000000000001</v>
-      </c>
-      <c r="AB120">
-        <v>20</v>
-      </c>
-      <c r="AG120" s="5">
-        <v>5832080</v>
-      </c>
-      <c r="AH120">
-        <f>ROUND(AG120/4,0)</f>
-        <v>1458020</v>
-      </c>
-    </row>
-    <row r="121" spans="4:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E121" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F121" s="4">
-        <f>F120+G120</f>
-        <v>20711767.5</v>
-      </c>
-      <c r="G121" s="4">
-        <f>F121</f>
-        <v>20711767.5</v>
-      </c>
-      <c r="I121" s="4">
-        <f>I120+J120</f>
-        <v>19321380.731372446</v>
-      </c>
-      <c r="J121" s="4">
-        <f>I121</f>
-        <v>19321380.731372446</v>
-      </c>
-      <c r="L121" s="4">
-        <f>L120+M120</f>
-        <v>17735493.152602427</v>
-      </c>
-      <c r="M121" s="4">
-        <f>L121</f>
-        <v>17735493.152602427</v>
-      </c>
-      <c r="O121" s="4">
-        <f>O120+P120</f>
-        <v>16239984.037654383</v>
-      </c>
-      <c r="P121" s="4">
-        <f>O121</f>
-        <v>16239984.037654383</v>
-      </c>
-      <c r="R121" s="4">
-        <f>R120+S120</f>
-        <v>14670567.094796741</v>
-      </c>
-      <c r="S121" s="4">
-        <f>R121</f>
-        <v>14670567.094796741</v>
-      </c>
-      <c r="U121" s="4">
-        <f>U120+V120</f>
-        <v>13056984.267813819</v>
-      </c>
-      <c r="V121" s="4">
-        <f>U121</f>
-        <v>13056984.267813819</v>
-      </c>
-      <c r="X121" s="4">
-        <f>X120+Y120</f>
-        <v>11469901.119206548</v>
-      </c>
-      <c r="Y121" s="4">
-        <f>X121</f>
-        <v>11469901.119206548</v>
-      </c>
-      <c r="AG121" s="5">
-        <v>6699220</v>
-      </c>
-      <c r="AH121">
-        <f>ROUND(AG121/4,0)</f>
-        <v>1674805</v>
-      </c>
-    </row>
-    <row r="122" spans="4:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="E122" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F122" s="4">
-        <f>F120/F121</f>
-        <v>3.5813336548896658E-2</v>
-      </c>
-      <c r="G122" s="4">
-        <f>G120/G121</f>
-        <v>0.96418666345110338</v>
-      </c>
-      <c r="I122" s="4">
-        <f>I120/I121</f>
-        <v>3.6236981802178332E-2</v>
-      </c>
-      <c r="J122" s="4">
-        <f>J120/J121</f>
-        <v>0.96376301819782162</v>
-      </c>
-      <c r="L122" s="4">
-        <f>L120/L121</f>
-        <v>2.9352706273851704E-2</v>
-      </c>
-      <c r="M122" s="4">
-        <f>M120/M121</f>
-        <v>0.97064729372614822</v>
-      </c>
-      <c r="O122" s="4">
-        <f>O120/O121</f>
-        <v>3.0108809280347433E-2</v>
-      </c>
-      <c r="P122" s="4">
-        <f>P120/P121</f>
-        <v>0.96989119071965257</v>
-      </c>
-      <c r="R122" s="4">
-        <f>R120/R121</f>
-        <v>2.66790879432891E-2</v>
-      </c>
-      <c r="S122" s="4">
-        <f>S120/S121</f>
-        <v>0.9733209120567109</v>
-      </c>
-      <c r="U122" s="4">
-        <f>U120/U121</f>
-        <v>2.139078215062019E-2</v>
-      </c>
-      <c r="V122" s="4">
-        <f>V120/V121</f>
-        <v>0.97860921784937982</v>
-      </c>
-      <c r="X122" s="4">
-        <f>X120/X121</f>
-        <v>2.2413550318204516E-2</v>
-      </c>
-      <c r="Y122" s="4">
-        <f>Y120/Y121</f>
-        <v>0.97758644968179542</v>
-      </c>
-      <c r="AG122" s="5"/>
-    </row>
-    <row r="123" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="AG123" s="5"/>
-    </row>
-    <row r="124" spans="4:34" ht="68" x14ac:dyDescent="0.2">
-      <c r="D124" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E124" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="AG124" s="5"/>
-    </row>
-    <row r="125" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="AG125" s="5"/>
-    </row>
-    <row r="126" spans="4:34" ht="68" x14ac:dyDescent="0.2">
-      <c r="D126" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG126" s="5"/>
-    </row>
-    <row r="127" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="AG127" s="5"/>
-    </row>
-    <row r="128" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="AG128" s="5"/>
-    </row>
-    <row r="129" spans="26:34" x14ac:dyDescent="0.2">
-      <c r="AG129" s="5"/>
-    </row>
-    <row r="130" spans="26:34" x14ac:dyDescent="0.2">
-      <c r="AG130" s="5"/>
-    </row>
-    <row r="131" spans="26:34" x14ac:dyDescent="0.2">
-      <c r="AG131" s="5"/>
-    </row>
-    <row r="132" spans="26:34" x14ac:dyDescent="0.2">
-      <c r="AG132" s="5"/>
-    </row>
-    <row r="133" spans="26:34" x14ac:dyDescent="0.2">
-      <c r="AG133" s="5"/>
-    </row>
-    <row r="134" spans="26:34" x14ac:dyDescent="0.2">
-      <c r="AG134" s="5"/>
-    </row>
-    <row r="135" spans="26:34" x14ac:dyDescent="0.2">
-      <c r="AG135" s="5"/>
-    </row>
-    <row r="136" spans="26:34" x14ac:dyDescent="0.2">
-      <c r="AG136" s="5"/>
-    </row>
-    <row r="137" spans="26:34" x14ac:dyDescent="0.2">
-      <c r="Z137">
-        <v>0.1225</v>
-      </c>
-      <c r="AA137">
-        <f>SUM(Z$6:Z137)</f>
-        <v>2.3475000000000001</v>
-      </c>
-      <c r="AB137">
-        <v>20</v>
-      </c>
-      <c r="AG137" s="5"/>
-    </row>
-    <row r="138" spans="26:34" x14ac:dyDescent="0.2">
-      <c r="Z138">
-        <v>0.12239999999999999</v>
-      </c>
-      <c r="AA138">
-        <f>SUM(Z$6:Z138)</f>
-        <v>2.4699</v>
-      </c>
-      <c r="AB138">
-        <v>20</v>
-      </c>
-      <c r="AG138" s="5">
-        <v>6833200</v>
-      </c>
-      <c r="AH138">
-        <f t="shared" si="0"/>
-        <v>1708300</v>
-      </c>
-    </row>
-    <row r="139" spans="26:34" x14ac:dyDescent="0.2">
-      <c r="Z139">
-        <v>0.12230000000000001</v>
-      </c>
-      <c r="AA139">
-        <f>SUM(Z$6:Z139)</f>
-        <v>2.5922000000000001</v>
-      </c>
-      <c r="AB139">
-        <v>20</v>
-      </c>
-      <c r="AG139" s="5">
-        <v>6969860</v>
-      </c>
-      <c r="AH139">
-        <f t="shared" si="0"/>
-        <v>1742465</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="29">
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A67:A70"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="D75:D78"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="R5:S5"/>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245F5E87-D338-1E44-B84B-39727181C818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2B1069-CC0F-1944-82BF-4379703100FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="33680" windowHeight="19400" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="140" yWindow="760" windowWidth="33680" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="262">
   <si>
     <t>forest_primary_c_ha</t>
   </si>
@@ -403,18 +403,9 @@
     <t>removals from original</t>
   </si>
   <si>
-    <t>total starting stock</t>
-  </si>
-  <si>
     <t>stock to allocate from original pool excluding conversion</t>
   </si>
   <si>
-    <t>total starting stock in original</t>
-  </si>
-  <si>
-    <t>total starting stock in new</t>
-  </si>
-  <si>
     <t>total accessible pool</t>
   </si>
   <si>
@@ -445,9 +436,6 @@
     <t>c_available_for_removals_mask_t3</t>
   </si>
   <si>
-    <t>adjusted new forest sequestration factor from NPP</t>
-  </si>
-  <si>
     <t>adjusted_sequestration_factor_t0</t>
   </si>
   <si>
@@ -487,9 +475,6 @@
     <t>average_stock_per_ha</t>
   </si>
   <si>
-    <t>removals</t>
-  </si>
-  <si>
     <t>area from steady state after conversion away</t>
   </si>
   <si>
@@ -505,9 +490,6 @@
     <t>total c available for removals</t>
   </si>
   <si>
-    <t>NxN arrays</t>
-  </si>
-  <si>
     <t>c_stock_removal_allocation_t0</t>
   </si>
   <si>
@@ -518,9 +500,6 @@
   </si>
   <si>
     <t>c_stock_removal_allocation_t3</t>
-  </si>
-  <si>
-    <t>arr_young_sf_base</t>
   </si>
   <si>
     <t xml:space="preserve">stock in new forest if no removals (includes changes to area of new forest)
@@ -660,12 +639,6 @@
     <t>arr_biomass_c_bg_lost_conversion</t>
   </si>
   <si>
-    <t>arr_biomass_c_removed</t>
-  </si>
-  <si>
-    <t>arr_biomass_c_removed_from_young</t>
-  </si>
-  <si>
     <t>arr_young_stock_if_untouched (T x T)</t>
   </si>
   <si>
@@ -690,9 +663,6 @@
     <t>arr_biomass_c_converted_away</t>
   </si>
   <si>
-    <t>arr_young_c_stock (T x T)</t>
-  </si>
-  <si>
     <t>arr_young_sf_adjusted_by_tp_planted (T x T)   [e.g., col J]
 arr_young_sf_adjustment_factor (T x T)   [e.g., col I]</t>
   </si>
@@ -754,10 +724,112 @@
     <t>arr_orig_allocation_removals</t>
   </si>
   <si>
-    <t>bg loss from degradation</t>
-  </si>
-  <si>
     <t>vec_young_c_available_for_removals_total</t>
+  </si>
+  <si>
+    <t>arr_young_biomass_c_ag_converted_by_tp_planted (T x T)</t>
+  </si>
+  <si>
+    <t>vec_young_biomass_c_ag_converted</t>
+  </si>
+  <si>
+    <t>arr_young_biomass_c_bg_converted_by_tp_planted (T x T)</t>
+  </si>
+  <si>
+    <t>vec_young_biomass_c_bg_converted</t>
+  </si>
+  <si>
+    <t>c_stock_ag_converted_t0</t>
+  </si>
+  <si>
+    <t>c_stock_ag_converted_t1</t>
+  </si>
+  <si>
+    <t>c_stock_ag_converted_t2</t>
+  </si>
+  <si>
+    <t>c_stock_ag_converted_t3</t>
+  </si>
+  <si>
+    <t>c_stock_bg_converted_t0</t>
+  </si>
+  <si>
+    <t>c_stock_bg_converted_t1</t>
+  </si>
+  <si>
+    <t>c_stock_bg_converted_t2</t>
+  </si>
+  <si>
+    <t>c_stock_bg_converted_t3</t>
+  </si>
+  <si>
+    <t>ag biomass loss from deomposition</t>
+  </si>
+  <si>
+    <t>arr_young_biomass_c_loss_from_decomposition (T x T)</t>
+  </si>
+  <si>
+    <t>ag biomass loss from decomposition t0</t>
+  </si>
+  <si>
+    <t>ag biomass loss from decomposition t1</t>
+  </si>
+  <si>
+    <t>ag biomass loss from decomposition t2</t>
+  </si>
+  <si>
+    <t>ag biomass loss from decomposition t3</t>
+  </si>
+  <si>
+    <t>arr_young_biomass_c_ag_stock (T x T)</t>
+  </si>
+  <si>
+    <t>arr_young_biomass_c_bg_stock (T x T)</t>
+  </si>
+  <si>
+    <t>c_stock_bg_t0</t>
+  </si>
+  <si>
+    <t>c_stock_bg_t1</t>
+  </si>
+  <si>
+    <t>c_stock_bg_t2</t>
+  </si>
+  <si>
+    <t>c_stock_bg_t3</t>
+  </si>
+  <si>
+    <t>bg biomass loss from stock removals</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_ag_loss_decomposition</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_bg_loss_removals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removals </t>
+  </si>
+  <si>
+    <t>arr_biomass_c_removed_from_original_forest</t>
+  </si>
+  <si>
+    <t>vec_biomass_c_removed_from_young</t>
+  </si>
+  <si>
+    <t>arr_total_biomass_bg_c_starting</t>
+  </si>
+  <si>
+    <t>total starting ag stock</t>
+  </si>
+  <si>
+    <t>total starting ag stock in new</t>
+  </si>
+  <si>
+    <t>total starting ag stock in original</t>
+  </si>
+  <si>
+    <t>total starting bg stock</t>
   </si>
 </sst>
 </file>
@@ -813,7 +885,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,6 +952,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -893,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -992,9 +1070,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1006,6 +1081,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,6 +1098,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6174,16 +6255,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
-  <dimension ref="A1:AM129"/>
+  <dimension ref="A1:AM151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.33203125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="36" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" style="32" customWidth="1"/>
     <col min="4" max="4" width="27" style="22" customWidth="1"/>
     <col min="5" max="5" width="44" style="10" customWidth="1"/>
@@ -6196,11 +6277,12 @@
     <col min="14" max="14" width="21.1640625" style="5" customWidth="1"/>
     <col min="15" max="15" width="21.1640625" style="4" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="22.83203125" style="5" customWidth="1"/>
     <col min="18" max="19" width="13.33203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="23.6640625" style="5" customWidth="1"/>
-    <col min="21" max="22" width="13.33203125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="23.6640625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="12.5" style="4" customWidth="1"/>
+    <col min="23" max="23" width="9.1640625" style="5" customWidth="1"/>
     <col min="24" max="25" width="13.33203125" style="4" customWidth="1"/>
     <col min="26" max="28" width="14.6640625" customWidth="1"/>
     <col min="29" max="31" width="14.1640625" customWidth="1"/>
@@ -6210,7 +6292,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33"/>
-      <c r="B1" s="37"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="32"/>
       <c r="D1" s="22"/>
       <c r="E1" s="10"/>
@@ -6243,7 +6325,7 @@
     </row>
     <row r="2" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="32"/>
       <c r="D2" s="22"/>
       <c r="E2" s="10"/>
@@ -6278,7 +6360,7 @@
     </row>
     <row r="3" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="32"/>
       <c r="D3" s="22"/>
       <c r="E3" s="10"/>
@@ -6362,16 +6444,16 @@
     </row>
     <row r="5" spans="1:39" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>182</v>
+        <v>157</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>51</v>
@@ -6399,7 +6481,7 @@
       </c>
       <c r="V5" s="29"/>
       <c r="X5" s="29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Y5" s="29"/>
       <c r="AC5" s="21" t="s">
@@ -6492,10 +6574,10 @@
     </row>
     <row r="7" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>184</v>
+        <v>158</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>67</v>
@@ -6579,10 +6661,10 @@
     </row>
     <row r="8" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>114</v>
@@ -6668,10 +6750,10 @@
     </row>
     <row r="9" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>55</v>
@@ -6743,13 +6825,13 @@
     </row>
     <row r="10" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G10" s="4">
         <f>-MIN(G7-G9,0)</f>
@@ -6792,10 +6874,10 @@
     </row>
     <row r="11" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>113</v>
@@ -6841,10 +6923,10 @@
     </row>
     <row r="12" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>66</v>
@@ -6883,13 +6965,13 @@
     </row>
     <row r="13" spans="1:39" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F13" s="4">
         <f>MAX(F7-F9,0)</f>
@@ -6953,10 +7035,10 @@
     </row>
     <row r="14" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>54</v>
@@ -6995,13 +7077,13 @@
     </row>
     <row r="15" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F15" s="4">
         <v>1E-3</v>
@@ -7037,10 +7119,10 @@
     </row>
     <row r="16" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>118</v>
@@ -7064,14 +7146,14 @@
     </row>
     <row r="17" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F17" s="4">
         <v>0.67</v>
@@ -7089,10 +7171,10 @@
     </row>
     <row r="18" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="42" t="s">
         <v>176</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>183</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>116</v>
@@ -7116,13 +7198,13 @@
     </row>
     <row r="19" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F19" s="4">
         <v>0.3</v>
@@ -7136,10 +7218,10 @@
     </row>
     <row r="20" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>115</v>
@@ -7165,13 +7247,13 @@
     </row>
     <row r="21" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F21" s="4">
         <f>F18-F20</f>
@@ -7206,10 +7288,10 @@
     </row>
     <row r="23" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>52</v>
@@ -7269,10 +7351,10 @@
     </row>
     <row r="24" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>108</v>
@@ -7318,13 +7400,13 @@
     </row>
     <row r="25" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F25" s="4">
         <f>MIN(F13,F23)</f>
@@ -7395,7 +7477,7 @@
     </row>
     <row r="26" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="E26" s="15" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -7424,13 +7506,13 @@
     </row>
     <row r="27" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E27" s="34" t="s">
         <v>68</v>
@@ -7444,14 +7526,14 @@
     </row>
     <row r="28" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="34" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F28" s="4">
         <f>F27/F18</f>
@@ -7486,10 +7568,10 @@
     </row>
     <row r="31" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>53</v>
@@ -7537,28 +7619,28 @@
     </row>
     <row r="34" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="E34" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G34" s="8"/>
       <c r="I34" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>88</v>
@@ -7610,11 +7692,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>201</v>
+      <c r="A36" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>194</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>87</v>
@@ -7700,8 +7782,8 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="37"/>
       <c r="E37" s="14" t="s">
         <v>69</v>
       </c>
@@ -7785,8 +7867,8 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="37"/>
       <c r="E38" s="14" t="s">
         <v>79</v>
       </c>
@@ -7869,8 +7951,8 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="40"/>
-      <c r="B39" s="38"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="37"/>
       <c r="E39" s="14" t="s">
         <v>80</v>
       </c>
@@ -7959,2891 +8041,3748 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E41" s="14"/>
+    <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <f>IF(G36=0, 0, G88*I36/G36)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <f>IF(J36=0, 0, J88*L36/J36)</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <f>IF(M36=0, 0, M88*O36/M36)</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="4">
+        <f>IF(P36=0, 0, P88*R36/P36)</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="4">
+        <f>IF(S36=0, 0, S88*U36/S36)</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="4">
+        <f>IF(V36=0, 0, V88*X36/V36)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>201</v>
-      </c>
+      <c r="A42" s="39"/>
+      <c r="B42" s="37"/>
       <c r="E42" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <f>IF(G37=0, 0, G89*I37/G37)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <f>IF(J37=0, 0, J89*L37/J37)</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <f>IF(M37=0, 0, M89*O37/M37)</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <f>IF(P37=0, 0, P89*R37/P37)</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="4">
+        <f>IF(S37=0, 0, S89*U37/S37)</f>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="4">
+        <f>IF(V37=0, 0, V89*X37/V37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="39"/>
+      <c r="B43" s="37"/>
+      <c r="E43" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <f>IF(G38=0, 0, G90*I38/G38)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <f>IF(J38=0, 0, J90*L38/J38)</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <f>IF(M38=0, 0, M90*O38/M38)</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="4">
+        <f>IF(P38=0, 0, P90*R38/P38)</f>
+        <v>0</v>
+      </c>
+      <c r="V43" s="4">
+        <f>IF(S38=0, 0, S90*U38/S38)</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="4">
+        <f>IF(V38=0, 0, V90*X38/V38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="39"/>
+      <c r="B44" s="37"/>
+      <c r="E44" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <f>IF(G39=0, 0, G91*I39/G39)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <f>IF(J39=0, 0, J91*L39/J39)</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <f>IF(M39=0, 0, M91*O39/M39)</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <f>IF(P39=0, 0, P91*R39/P39)</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="4">
+        <f>IF(S39=0, 0, S91*U39/S39)</f>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="4">
+        <f>IF(V39=0, 0, V91*X39/V39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="G45" s="4">
+        <f>SUM(G41:G44)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <f>SUM(J41:J44)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <f>SUM(M41:M44)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <f>SUM(P41:P44)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="4">
+        <f>SUM(S41:S44)</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="4">
+        <f>SUM(V41:V44)</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="4">
+        <f>SUM(Y41:Y44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G47" s="4">
+        <f>G41*$G$19</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <f>J41*$G$19</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <f>M41*$G$19</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <f>P41*$G$19</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="4">
+        <f>S41*$G$19</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="4">
+        <f>V41*$G$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="4">
+        <f>Y41*$G$19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="39"/>
+      <c r="B48" s="37"/>
+      <c r="E48" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" ref="G48:G50" si="6">G42*$G$19</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" ref="J48:J50" si="7">J42*$G$19</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" ref="M48:M50" si="8">M42*$G$19</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" ref="P48:P50" si="9">P42*$G$19</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="4">
+        <f t="shared" ref="S48:S50" si="10">S42*$G$19</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="4">
+        <f t="shared" ref="V48:V50" si="11">V42*$G$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="4">
+        <f t="shared" ref="Y48:Y50" si="12">Y42*$G$19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="39"/>
+      <c r="B49" s="37"/>
+      <c r="E49" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="39"/>
+      <c r="B50" s="37"/>
+      <c r="E50" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A51" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="G51" s="4">
+        <f>SUM(G47:G50)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <f>SUM(J47:J50)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <f>SUM(M47:M50)</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <f>SUM(P47:P50)</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="4">
+        <f>SUM(S47:S50)</f>
+        <v>0</v>
+      </c>
+      <c r="V51" s="4">
+        <f>SUM(V47:V50)</f>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="4">
+        <f>SUM(Y47:Y50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G53" s="4">
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J53" s="4">
         <f>AC7</f>
         <v>0.01</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M53" s="4">
         <f>AC8</f>
         <v>0.05</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P53" s="4">
         <f>AC9</f>
         <v>0.12</v>
       </c>
-      <c r="S42" s="4">
+      <c r="S53" s="4">
         <f>AC11</f>
         <v>0.2</v>
       </c>
-      <c r="V42" s="4">
+      <c r="V53" s="4">
         <f>AC12</f>
         <v>0.36</v>
       </c>
-      <c r="Y42" s="4">
+      <c r="Y53" s="4">
         <f>AC14</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
-      <c r="B43" s="38"/>
-      <c r="E43" s="14" t="s">
+    <row r="54" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="39"/>
+      <c r="B54" s="37"/>
+      <c r="E54" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0</v>
-      </c>
-      <c r="M43" s="4">
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
         <f>AC7</f>
         <v>0.01</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P54" s="4">
         <f>AC8</f>
         <v>0.05</v>
       </c>
-      <c r="S43" s="4">
+      <c r="S54" s="4">
         <f>AC9</f>
         <v>0.12</v>
       </c>
-      <c r="V43" s="4">
+      <c r="V54" s="4">
         <f>AC11</f>
         <v>0.2</v>
       </c>
-      <c r="Y43" s="4">
+      <c r="Y54" s="4">
         <f>AC12</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
-      <c r="B44" s="38"/>
-      <c r="E44" s="14" t="s">
+    <row r="55" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="39"/>
+      <c r="B55" s="37"/>
+      <c r="E55" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0</v>
-      </c>
-      <c r="M44" s="4">
-        <v>0</v>
-      </c>
-      <c r="P44" s="4">
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
         <f>AC7</f>
         <v>0.01</v>
       </c>
-      <c r="S44" s="4">
+      <c r="S55" s="4">
         <f>AC8</f>
         <v>0.05</v>
       </c>
-      <c r="V44" s="4">
+      <c r="V55" s="4">
         <f>AC9</f>
         <v>0.12</v>
       </c>
-      <c r="Y44" s="4">
+      <c r="Y55" s="4">
         <f>AC11</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="40"/>
-      <c r="B45" s="38"/>
-      <c r="E45" s="14" t="s">
+    <row r="56" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="39"/>
+      <c r="B56" s="37"/>
+      <c r="E56" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-      <c r="M45" s="4">
-        <v>0</v>
-      </c>
-      <c r="P45" s="4">
-        <v>0</v>
-      </c>
-      <c r="S45" s="4">
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="M56" s="4">
+        <v>0</v>
+      </c>
+      <c r="P56" s="4">
+        <v>0</v>
+      </c>
+      <c r="S56" s="4">
         <f>AC7</f>
         <v>0.01</v>
       </c>
-      <c r="V45" s="4">
+      <c r="V56" s="4">
         <f>AC8</f>
         <v>0.05</v>
       </c>
-      <c r="Y45" s="4">
+      <c r="Y56" s="4">
         <f>AC9</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="E46" s="14" t="s">
+    <row r="57" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="E57" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="E48" s="14" t="s">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G48" s="4">
-        <f>G36*G42</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <f>J36*J42</f>
+      <c r="G59" s="4">
+        <f>G36*G53</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <f>J36*J53</f>
         <v>0.85</v>
       </c>
-      <c r="M48" s="4">
-        <f>J48+M36*M42</f>
+      <c r="M59" s="4">
+        <f>J59+M36*M53</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="P48" s="4">
-        <f>M48+P36*P42</f>
+      <c r="P59" s="4">
+        <f>M59+P36*P53</f>
         <v>15.299999999999999</v>
       </c>
-      <c r="S48" s="4">
-        <f>P48+S36*S42</f>
+      <c r="S59" s="4">
+        <f>P59+S36*S53</f>
         <v>32.299999999999997</v>
       </c>
-      <c r="V48" s="4">
-        <f>S48+V36*V42</f>
+      <c r="V59" s="4">
+        <f>S59+V36*V53</f>
         <v>62.899999999999991</v>
       </c>
-      <c r="Y48" s="4">
-        <f>V48+Y36*Y42</f>
+      <c r="Y59" s="4">
+        <f>V59+Y36*Y53</f>
         <v>113.89999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="40"/>
-      <c r="B49" s="38"/>
-      <c r="D49" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49" s="14" t="s">
+    <row r="60" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="39"/>
+      <c r="B60" s="37"/>
+      <c r="E60" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="J49" s="4">
-        <f>J37*J43</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="4">
-        <f t="shared" ref="M49:M50" si="6">J49+M37*M43</f>
+      <c r="J60" s="4">
+        <f>J37*J54</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="4">
+        <f>J60+M37*M54</f>
         <v>0.8</v>
       </c>
-      <c r="P49" s="4">
-        <f t="shared" ref="P49:P50" si="7">M49+P37*P43</f>
+      <c r="P60" s="4">
+        <f>M60+P37*P54</f>
         <v>4.8</v>
       </c>
-      <c r="S49" s="4">
-        <f t="shared" ref="S49" si="8">P49+S37*S43</f>
+      <c r="S60" s="4">
+        <f>P60+S37*S54</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="V49" s="4">
-        <f t="shared" ref="V49" si="9">S49+V37*V43</f>
+      <c r="V60" s="4">
+        <f>S60+V37*V54</f>
         <v>30.4</v>
       </c>
-      <c r="Y49" s="4">
-        <f t="shared" ref="Y49" si="10">V49+Y37*Y43</f>
+      <c r="Y60" s="4">
+        <f>V60+Y37*Y54</f>
         <v>59.199999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="40"/>
-      <c r="B50" s="38"/>
-      <c r="D50" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="14" t="s">
+    <row r="61" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="39"/>
+      <c r="B61" s="37"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="M50" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="4">
-        <f t="shared" si="7"/>
+      <c r="M61" s="4">
+        <f>J61+M38*M55</f>
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <f>M61+P38*P55</f>
         <v>0.92</v>
       </c>
-      <c r="S50" s="4">
-        <f>P50+S38*S44</f>
+      <c r="S61" s="4">
+        <f>P61+S38*S55</f>
         <v>5.5200000000000005</v>
       </c>
-      <c r="V50" s="4">
-        <f>S50+V38*V44</f>
+      <c r="V61" s="4">
+        <f>S61+V38*V55</f>
         <v>16.559999999999999</v>
       </c>
-      <c r="Y50" s="4">
-        <f>V50+Y38*Y44</f>
+      <c r="Y61" s="4">
+        <f>V61+Y38*Y55</f>
         <v>34.96</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="40"/>
-      <c r="B51" s="38"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="14" t="s">
+    <row r="62" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="39"/>
+      <c r="B62" s="37"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="M51" s="4">
-        <f>J51+M39*M45</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="4">
-        <f>M51+P39*P45</f>
-        <v>0</v>
-      </c>
-      <c r="S51" s="4">
-        <f>P51+S39*S45</f>
+      <c r="M62" s="4">
+        <f>J62+M39*M56</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="4">
+        <f>M62+P39*P56</f>
+        <v>0</v>
+      </c>
+      <c r="S62" s="4">
+        <f>P62+S39*S56</f>
         <v>0.43</v>
       </c>
-      <c r="V51" s="4">
-        <f>S51+V39*V45</f>
+      <c r="V62" s="4">
+        <f>S62+V39*V56</f>
         <v>2.58</v>
       </c>
-      <c r="Y51" s="4">
-        <f>V51+Y39*Y45</f>
+      <c r="Y62" s="4">
+        <f>V62+Y39*Y56</f>
         <v>7.74</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="D52" s="28"/>
-      <c r="E52" s="14" t="s">
+    <row r="63" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="D63" s="28"/>
+      <c r="E63" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D53" s="28"/>
-      <c r="E53" s="14"/>
-    </row>
-    <row r="54" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="E54" s="14" t="s">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D64" s="28"/>
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D73)*MAX(G88-$G$20*G36-J41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D73)*MAX(J88-$G$20*J36-M41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D73)*MAX(M88-$G$20*M36-P41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S65" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D73)*MAX(P88-$G$20*P36-S41,0)</f>
+        <v>6.7881033999999989</v>
+      </c>
+      <c r="V65" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D73)*MAX(S88-$G$20*S36-V41,0)</f>
+        <v>23.757527193199998</v>
+      </c>
+      <c r="Y65" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D73)*MAX(V88-$G$20*V36-Y41,0)</f>
+        <v>30.582999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="39"/>
+      <c r="B66" s="37"/>
+      <c r="E66" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D74)*MAX(G89-$G$20*G37-J42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D74)*MAX(J89-$G$20*J37-M42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D74)*MAX(M89-$G$20*M37-P42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S66" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D74)*MAX(P89-$G$20*P37-S42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V66" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D74)*MAX(S89-$G$20*S37-V42,0)</f>
+        <v>6.3888031999999999</v>
+      </c>
+      <c r="Y66" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D74)*MAX(V89-$G$20*V37-Y42,0)</f>
+        <v>15.984000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="39"/>
+      <c r="B67" s="37"/>
+      <c r="D67" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D75)*MAX(G90-$G$20*G38-J43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D75)*MAX(J90-$G$20*J38-M43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D75)*MAX(M90-$G$20*M38-P43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S67" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D75)*MAX(P90-$G$20*P38-S43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V67" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D75)*MAX(S90-$G$20*S38-V43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D75)*MAX(V90-$G$20*V38-Y43,0)</f>
+        <v>7.3471236799999975</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="39"/>
+      <c r="B68" s="37"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G54" s="4">
-        <v>0</v>
-      </c>
-      <c r="J54" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D62)*MAX(G72-$G$20*G36,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D62)*MAX(J72-$F$20*J36,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P54" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D62)*MAX(M72-$F$20*M36,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S54" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D62)*MAX(P72-$F$20*P36,0)</f>
-        <v>2.5499999999999989</v>
-      </c>
-      <c r="V54" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D62)*MAX(S72-$F$20*S36,0)</f>
-        <v>19.549999999999997</v>
-      </c>
-      <c r="Y54" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D62)*MAX(V72-$F$20*V36,0)</f>
-        <v>30.599999999999994</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="40"/>
-      <c r="B55" s="38"/>
-      <c r="E55" s="14" t="s">
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D76)*MAX(G91-$G$20*G39-J44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D76)*MAX(J91-$G$20*J39-M44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D76)*MAX(M91-$G$20*M39-P44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S68" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D76)*MAX(P91-$G$20*P39-S44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V68" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D76)*MAX(S91-$G$20*S39-V44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D76)*MAX(V91-$G$20*V39-Y44,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" s="28"/>
+      <c r="E69" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <f>SUM(J65:J68)</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="4">
+        <f>SUM(M65:M68)</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <f>SUM(P65:P68)</f>
+        <v>0</v>
+      </c>
+      <c r="S69" s="4">
+        <f>SUM(S65:S68)</f>
+        <v>6.7881033999999989</v>
+      </c>
+      <c r="V69" s="4">
+        <f>SUM(V65:V68)</f>
+        <v>30.146330393199996</v>
+      </c>
+      <c r="Y69" s="4">
+        <f>SUM(Y65:Y68)</f>
+        <v>53.914123679999996</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="D70" s="28"/>
+      <c r="E70" s="14"/>
+      <c r="AB70" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="L71" s="4">
+        <v>0</v>
+      </c>
+      <c r="O71" s="4">
+        <v>0</v>
+      </c>
+      <c r="R71" s="4">
+        <v>0</v>
+      </c>
+      <c r="U71" s="4">
+        <v>0</v>
+      </c>
+      <c r="X71" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="38"/>
+      <c r="B72" s="37"/>
+      <c r="E72" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" s="4">
+        <f>SUM(G$65:G65)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <f>IF(F72&gt;=F$122, IF(F71&lt;F$122, F$122-F71, 0),G65)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <f>SUM(J$65:J65)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <f>IF(I72&gt;=I$122, IF(I71&lt;I$122, I$122-I71, 0),J65)</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="4">
+        <f>SUM(M$65:M65)</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
+        <f>IF(L72&gt;=L$122, IF(L71&lt;L$122, L$122-L71, 0),M65)</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="4">
+        <f>SUM(P$65:P65)</f>
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <f>IF(O72&gt;=O$122, IF(O71&lt;O$122, O$122-O71, 0),P65)</f>
+        <v>0</v>
+      </c>
+      <c r="R72" s="4">
+        <f>SUM(S$65:S65)</f>
+        <v>6.7881033999999989</v>
+      </c>
+      <c r="S72" s="4">
+        <f>IF(R72&gt;=R$122, IF(R71&lt;R$122, R$122-R71, 0),S65)</f>
+        <v>0</v>
+      </c>
+      <c r="U72" s="4">
+        <f>SUM(V$65:V65)</f>
+        <v>23.757527193199998</v>
+      </c>
+      <c r="V72" s="4">
+        <f>IF(U72&gt;=U$122, IF(U71&lt;U$122, U$122-U71, 0),V65)</f>
+        <v>23.757527193199998</v>
+      </c>
+      <c r="X72" s="4">
+        <f>SUM(Y$65:Y65)</f>
+        <v>30.582999999999998</v>
+      </c>
+      <c r="Y72" s="4">
+        <f>IF(X72&gt;=X$122, IF(X71&lt;X$122, X$122-X71, 0),Y65)</f>
+        <v>30.582999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="38"/>
+      <c r="B73" s="37"/>
+      <c r="D73" s="22">
+        <v>0</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" s="4">
+        <f>SUM(G$65:G66)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <f>IF(F73&gt;=F$122, IF(F72&lt;F$122, F$122-F72, 0),G66)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
+        <f>SUM(J$65:J66)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <f>IF(I73&gt;=I$122, IF(I72&lt;I$122, I$122-I72, 0),J66)</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="4">
+        <f>SUM(M$65:M66)</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="4">
+        <f>IF(L73&gt;=L$122, IF(L72&lt;L$122, L$122-L72, 0),M66)</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="4">
+        <f>SUM(P$65:P66)</f>
+        <v>0</v>
+      </c>
+      <c r="P73" s="4">
+        <f>IF(O73&gt;=O$122, IF(O72&lt;O$122, O$122-O72, 0),P66)</f>
+        <v>0</v>
+      </c>
+      <c r="R73" s="4">
+        <f>SUM(S$65:S66)</f>
+        <v>6.7881033999999989</v>
+      </c>
+      <c r="S73" s="4">
+        <f>IF(R73&gt;=R$122, IF(R72&lt;R$122, R$122-R72, 0),S66)</f>
+        <v>0</v>
+      </c>
+      <c r="U73" s="4">
+        <f>SUM(V$65:V66)</f>
+        <v>30.146330393199996</v>
+      </c>
+      <c r="V73" s="4">
+        <f>IF(U73&gt;=U$122, IF(U72&lt;U$122, U$122-U72, 0),V66)</f>
+        <v>6.3888031999999981</v>
+      </c>
+      <c r="X73" s="4">
+        <f>SUM(Y$65:Y66)</f>
+        <v>46.567</v>
+      </c>
+      <c r="Y73" s="4">
+        <f>IF(X73&gt;=X$122, IF(X72&lt;X$122, X$122-X72, 0),Y66)</f>
+        <v>15.984000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="38"/>
+      <c r="B74" s="37"/>
+      <c r="D74" s="22">
+        <v>1</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F74" s="4">
+        <f>SUM(G$65:G67)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <f>IF(F74&gt;=F$122, IF(F73&lt;F$122, F$122-F73, 0),G67)</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
+        <f>SUM(J$65:J67)</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <f>IF(I74&gt;=I$122, IF(I73&lt;I$122, I$122-I73, 0),J67)</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="4">
+        <f>SUM(M$65:M67)</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="4">
+        <f>IF(L74&gt;=L$122, IF(L73&lt;L$122, L$122-L73, 0),M67)</f>
+        <v>0</v>
+      </c>
+      <c r="O74" s="4">
+        <f>SUM(P$65:P67)</f>
+        <v>0</v>
+      </c>
+      <c r="P74" s="4">
+        <f>IF(O74&gt;=O$122, IF(O73&lt;O$122, O$122-O73, 0),P67)</f>
+        <v>0</v>
+      </c>
+      <c r="R74" s="4">
+        <f>SUM(S$65:S67)</f>
+        <v>6.7881033999999989</v>
+      </c>
+      <c r="S74" s="4">
+        <f>IF(R74&gt;=R$122, IF(R73&lt;R$122, R$122-R73, 0),S67)</f>
+        <v>0</v>
+      </c>
+      <c r="U74" s="4">
+        <f>SUM(V$65:V67)</f>
+        <v>30.146330393199996</v>
+      </c>
+      <c r="V74" s="4">
+        <f>IF(U74&gt;=U$122, IF(U73&lt;U$122, U$122-U73, 0),V67)</f>
+        <v>0</v>
+      </c>
+      <c r="X74" s="4">
+        <f>SUM(Y$65:Y67)</f>
+        <v>53.914123679999996</v>
+      </c>
+      <c r="Y74" s="4">
+        <f>IF(X74&gt;=X$122, IF(X73&lt;X$122, X$122-X73, 0),Y67)</f>
+        <v>7.3471236799999957</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="D75" s="22">
+        <v>2</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" s="4">
+        <f>SUM(G$65:G68)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <f>IF(F75&gt;=F$122, IF(F74&lt;F$122, F$122-F74, 0),G68)</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
+        <f>SUM(J$65:J68)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <f>IF(I75&gt;=I$122, IF(I74&lt;I$122, I$122-I74, 0),J68)</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="4">
+        <f>SUM(M$65:M68)</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="4">
+        <f>IF(L75&gt;=L$122, IF(L74&lt;L$122, L$122-L74, 0),M68)</f>
+        <v>0</v>
+      </c>
+      <c r="O75" s="4">
+        <f>SUM(P$65:P68)</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="4">
+        <f>IF(O75&gt;=O$122, IF(O74&lt;O$122, O$122-O74, 0),P68)</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="4">
+        <f>SUM(S$65:S68)</f>
+        <v>6.7881033999999989</v>
+      </c>
+      <c r="S75" s="4">
+        <f>IF(R75&gt;=R$122, IF(R74&lt;R$122, R$122-R74, 0),S68)</f>
+        <v>0</v>
+      </c>
+      <c r="U75" s="4">
+        <f>SUM(V$65:V68)</f>
+        <v>30.146330393199996</v>
+      </c>
+      <c r="V75" s="4">
+        <f>IF(U75&gt;=U$122, IF(U74&lt;U$122, U$122-U74, 0),V68)</f>
+        <v>0</v>
+      </c>
+      <c r="X75" s="4">
+        <f>SUM(Y$65:Y68)</f>
+        <v>53.914123679999996</v>
+      </c>
+      <c r="Y75" s="4">
+        <f>IF(X75&gt;=X$122, IF(X74&lt;X$122, X$122-X74, 0),Y68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="D76" s="22">
+        <v>3</v>
+      </c>
+      <c r="E76" s="14"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E77" s="14"/>
+      <c r="I77" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="U77" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="X77" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G55" s="4">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D63)*MAX(G73-$F$20*G37,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D63)*MAX(J73-$F$20*J37,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P55" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D63)*MAX(M73-$F$20*M37,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S55" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D63)*MAX(P73-$F$20*P37,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V55" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D63)*MAX(S73-$F$20*S37,0)</f>
-        <v>2.3999999999999986</v>
-      </c>
-      <c r="Y55" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D63)*MAX(V73-$F$20*V37,0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="40"/>
-      <c r="B56" s="38"/>
-      <c r="D56" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="E56" s="14" t="s">
+      <c r="G78" s="4">
+        <f>G53</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="4">
+        <f>IF(G88=0,1,MIN(MAX((G88/G59-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J78" s="4">
+        <f>J53*I78</f>
+        <v>0.01</v>
+      </c>
+      <c r="L78" s="4">
+        <f>IF(J88=0,1,MIN(MAX((J88/J59-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M78" s="4">
+        <f>M53*L78</f>
+        <v>0.05</v>
+      </c>
+      <c r="O78" s="4">
+        <f>IF(M88=0,1,MIN(MAX((M88/M59-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P78" s="4">
+        <f>P53*O78</f>
+        <v>0.12</v>
+      </c>
+      <c r="R78" s="4">
+        <f>IF(P88=0,1,MIN(MAX((P88/P59-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S78" s="4">
+        <f>S53*R78</f>
+        <v>0.2</v>
+      </c>
+      <c r="U78" s="4">
+        <f>IF(S88=0,1,MIN(MAX((S88/S59-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V78" s="4">
+        <f>V53*U78</f>
+        <v>0.36</v>
+      </c>
+      <c r="X78" s="4">
+        <f>IF(V88=0,1,MIN(MAX((V88/V59-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>0.92728154163131749</v>
+      </c>
+      <c r="Y78" s="4">
+        <f>Y53*X78</f>
+        <v>0.55636892497879042</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="38"/>
+      <c r="B79" s="37"/>
+      <c r="E79" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G56" s="4">
-        <v>0</v>
-      </c>
-      <c r="J56" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D64)*MAX(G74-$F$20*G38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D64)*MAX(J74-$F$20*J38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P56" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D64)*MAX(M74-$F$20*M38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S56" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D64)*MAX(P74-$F$20*P38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V56" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D64)*MAX(S74-$F$20*S38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y56" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D64)*MAX(V74-$F$20*V38,0)</f>
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="40"/>
-      <c r="B57" s="38"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="14" t="s">
+      <c r="G79" s="4">
+        <f>G54</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="4">
+        <f>IF(G89=0,1,MIN(MAX((G89/G60-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J79" s="4">
+        <f>J54</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="4">
+        <f>IF(J89=0,1,MIN(MAX((J89/J60-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M79" s="4">
+        <f>M54</f>
+        <v>0.01</v>
+      </c>
+      <c r="O79" s="4">
+        <f>IF(M89=0,1,MIN(MAX((M89/M60-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P79" s="4">
+        <f>P54</f>
+        <v>0.05</v>
+      </c>
+      <c r="R79" s="4">
+        <f>IF(P89=0,1,MIN(MAX((P89/P60-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S79" s="4">
+        <f>S54</f>
+        <v>0.12</v>
+      </c>
+      <c r="U79" s="4">
+        <f>IF(S89=0,1,MIN(MAX((S89/S60-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V79" s="4">
+        <f>V54</f>
+        <v>0.2</v>
+      </c>
+      <c r="X79" s="4">
+        <f>IF(V89=0,1,MIN(MAX((V89/V60-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y79" s="4">
+        <f>Y54</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="38"/>
+      <c r="B80" s="37"/>
+      <c r="E80" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G57" s="4">
-        <v>0</v>
-      </c>
-      <c r="J57" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D65)*MAX(G75-$F$20*G39,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="4">
-        <f>SUM(M53:M56)</f>
-        <v>0</v>
-      </c>
-      <c r="P57" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D65)*MAX(M75-$F$20*M39,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S57" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D65)*MAX(P75-$F$20*P39,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V57" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D65)*MAX(S75-$F$20*S39,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D65)*MAX(V75-$F$20*V39,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G58" s="4">
-        <v>0</v>
-      </c>
-      <c r="J58" s="4">
-        <f>SUM(J54:J57)</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="4">
-        <f>SUM(M54:M57)</f>
-        <v>0</v>
-      </c>
-      <c r="P58" s="4">
-        <f>SUM(P54:P57)</f>
-        <v>0</v>
-      </c>
-      <c r="S58" s="4">
-        <f>SUM(S54:S57)</f>
-        <v>2.5499999999999989</v>
-      </c>
-      <c r="V58" s="4">
-        <f>SUM(V54:V57)</f>
-        <v>21.949999999999996</v>
-      </c>
-      <c r="Y58" s="4">
-        <f>SUM(Y54:Y57)</f>
-        <v>49.359999999999992</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D59" s="28"/>
-      <c r="E59" s="14"/>
-      <c r="AB59" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="B60" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="I60" s="4">
-        <v>0</v>
-      </c>
-      <c r="L60" s="4">
-        <v>0</v>
-      </c>
-      <c r="O60" s="4">
-        <v>0</v>
-      </c>
-      <c r="R60" s="4">
-        <v>0</v>
-      </c>
-      <c r="U60" s="4">
-        <v>0</v>
-      </c>
-      <c r="X60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="38"/>
-      <c r="E61" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F61" s="4">
-        <f>SUM(G$54:G54)</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="4">
-        <f>IF(F61&gt;=F$101, IF(F60&lt;F$101, F$101-F60, 0),G54)</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="4">
-        <f>SUM(J$54:J54)</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="4">
-        <f>IF(I61&gt;=I$101, IF(I60&lt;I$101, I$101-I60, 0),J54)</f>
-        <v>0</v>
-      </c>
-      <c r="L61" s="4">
-        <f>SUM(M$54:M54)</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="4">
-        <f>IF(L61&gt;=L$101, IF(L60&lt;L$101, L$101-L60, 0),M54)</f>
-        <v>0</v>
-      </c>
-      <c r="O61" s="4">
-        <f>SUM(P$54:P54)</f>
-        <v>0</v>
-      </c>
-      <c r="P61" s="4">
-        <f>IF(O61&gt;=O$101, IF(O60&lt;O$101, O$101-O60, 0),P54)</f>
-        <v>0</v>
-      </c>
-      <c r="R61" s="4">
-        <f>SUM(S$54:S54)</f>
-        <v>2.5499999999999989</v>
-      </c>
-      <c r="S61" s="4">
-        <f>IF(R61&gt;=R$101, IF(R60&lt;R$101, R$101-R60, 0),S54)</f>
-        <v>0</v>
-      </c>
-      <c r="U61" s="4">
-        <f>SUM(V$54:V54)</f>
-        <v>19.549999999999997</v>
-      </c>
-      <c r="V61" s="4">
-        <f>IF(U61&gt;=U$101, IF(U60&lt;U$101, U$101-U60, 0),V54)</f>
-        <v>19.549999999999997</v>
-      </c>
-      <c r="X61" s="4">
-        <f>SUM(Y$54:Y54)</f>
-        <v>30.599999999999994</v>
-      </c>
-      <c r="Y61" s="4">
-        <f>IF(X61&gt;=X$101, IF(X60&lt;X$101, X$101-X60, 0),Y54)</f>
-        <v>30.599999999999994</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="38"/>
-      <c r="D62" s="22">
-        <v>0</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F62" s="4">
-        <f>SUM(G$54:G55)</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="4">
-        <f>IF(F62&gt;=F$101, IF(F61&lt;F$101, F$101-F61, 0),G55)</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="4">
-        <f>SUM(J$54:J55)</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="4">
-        <f>IF(I62&gt;=I$101, IF(I61&lt;I$101, I$101-I61, 0),J55)</f>
-        <v>0</v>
-      </c>
-      <c r="L62" s="4">
-        <f>SUM(M$54:M55)</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="4">
-        <f>IF(L62&gt;=L$101, IF(L61&lt;L$101, L$101-L61, 0),M55)</f>
-        <v>0</v>
-      </c>
-      <c r="O62" s="4">
-        <f>SUM(P$54:P55)</f>
-        <v>0</v>
-      </c>
-      <c r="P62" s="4">
-        <f>IF(O62&gt;=O$101, IF(O61&lt;O$101, O$101-O61, 0),P55)</f>
-        <v>0</v>
-      </c>
-      <c r="R62" s="4">
-        <f>SUM(S$54:S55)</f>
-        <v>2.5499999999999989</v>
-      </c>
-      <c r="S62" s="4">
-        <f>IF(R62&gt;=R$101, IF(R61&lt;R$101, R$101-R61, 0),S55)</f>
-        <v>0</v>
-      </c>
-      <c r="U62" s="4">
-        <f>SUM(V$54:V55)</f>
-        <v>21.949999999999996</v>
-      </c>
-      <c r="V62" s="4">
-        <f>IF(U62&gt;=U$101, IF(U61&lt;U$101, U$101-U61, 0),V55)</f>
-        <v>2.3999999999999986</v>
-      </c>
-      <c r="X62" s="4">
-        <f>SUM(Y$54:Y55)</f>
-        <v>46.599999999999994</v>
-      </c>
-      <c r="Y62" s="4">
-        <f>IF(X62&gt;=X$101, IF(X61&lt;X$101, X$101-X61, 0),Y55)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
-      <c r="B63" s="38"/>
-      <c r="D63" s="22">
+      <c r="G80" s="4">
+        <f>G55</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="4">
+        <f>IF(G90=0,1,MIN(MAX((G90/G61-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="E63" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F63" s="4">
-        <f>SUM(G$54:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="4">
-        <f>IF(F63&gt;=F$101, IF(F62&lt;F$101, F$101-F62, 0),G56)</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="4">
-        <f>SUM(J$54:J56)</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="4">
-        <f>IF(I63&gt;=I$101, IF(I62&lt;I$101, I$101-I62, 0),J56)</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="4">
-        <f>SUM(M$54:M56)</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="4">
-        <f>IF(L63&gt;=L$101, IF(L62&lt;L$101, L$101-L62, 0),M56)</f>
-        <v>0</v>
-      </c>
-      <c r="O63" s="4">
-        <f>SUM(P$54:P56)</f>
-        <v>0</v>
-      </c>
-      <c r="P63" s="4">
-        <f>IF(O63&gt;=O$101, IF(O62&lt;O$101, O$101-O62, 0),P56)</f>
-        <v>0</v>
-      </c>
-      <c r="R63" s="4">
-        <f>SUM(S$54:S56)</f>
-        <v>2.5499999999999989</v>
-      </c>
-      <c r="S63" s="4">
-        <f>IF(R63&gt;=R$101, IF(R62&lt;R$101, R$101-R62, 0),S56)</f>
-        <v>0</v>
-      </c>
-      <c r="U63" s="4">
-        <f>SUM(V$54:V56)</f>
-        <v>21.949999999999996</v>
-      </c>
-      <c r="V63" s="4">
-        <f>IF(U63&gt;=U$101, IF(U62&lt;U$101, U$101-U62, 0),V56)</f>
-        <v>0</v>
-      </c>
-      <c r="X63" s="4">
-        <f>SUM(Y$54:Y56)</f>
-        <v>49.359999999999992</v>
-      </c>
-      <c r="Y63" s="4">
-        <f>IF(X63&gt;=X$101, IF(X62&lt;X$101, X$101-X62, 0),Y56)</f>
-        <v>2.759999999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="D64" s="22">
-        <v>2</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="F64" s="4">
-        <f>SUM(G$54:G57)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="4">
-        <f>IF(F64&gt;=F$101, IF(F63&lt;F$101, F$101-F63, 0),G57)</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="4">
-        <f>SUM(J$54:J57)</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="4">
-        <f>IF(I64&gt;=I$101, IF(I63&lt;I$101, I$101-I63, 0),J57)</f>
-        <v>0</v>
-      </c>
-      <c r="L64" s="4">
-        <f>SUM(M$54:M57)</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="4">
-        <f>IF(L64&gt;=L$101, IF(L63&lt;L$101, L$101-L63, 0),M57)</f>
-        <v>0</v>
-      </c>
-      <c r="O64" s="4">
-        <f>SUM(P$54:P57)</f>
-        <v>0</v>
-      </c>
-      <c r="P64" s="4">
-        <f>IF(O64&gt;=O$101, IF(O63&lt;O$101, O$101-O63, 0),P57)</f>
-        <v>0</v>
-      </c>
-      <c r="R64" s="4">
-        <f>SUM(S$54:S57)</f>
-        <v>2.5499999999999989</v>
-      </c>
-      <c r="S64" s="4">
-        <f>IF(R64&gt;=R$101, IF(R63&lt;R$101, R$101-R63, 0),S57)</f>
-        <v>0</v>
-      </c>
-      <c r="U64" s="4">
-        <f>SUM(V$54:V57)</f>
-        <v>21.949999999999996</v>
-      </c>
-      <c r="V64" s="4">
-        <f>IF(U64&gt;=U$101, IF(U63&lt;U$101, U$101-U63, 0),V57)</f>
-        <v>0</v>
-      </c>
-      <c r="X64" s="4">
-        <f>SUM(Y$54:Y57)</f>
-        <v>49.359999999999992</v>
-      </c>
-      <c r="Y64" s="4">
-        <f>IF(X64&gt;=X$101, IF(X63&lt;X$101, X$101-X63, 0),Y57)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D65" s="22">
-        <v>3</v>
-      </c>
-      <c r="E65" s="14"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E66" s="14"/>
-      <c r="I66" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="R66" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="U66" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="X66" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B67" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G67" s="4">
-        <f>G42</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="4">
-        <f>IF(G72=0,1,MIN(MAX((G72/G48-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="J80" s="4">
+        <f>J55</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="4">
+        <f>IF(J90=0,1,MIN(MAX((J90/J61-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="J67" s="4">
-        <f>J42*I67</f>
+      <c r="M80" s="4">
+        <f>M55</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="4">
+        <f>IF(M90=0,1,MIN(MAX((M90/M61-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P80" s="4">
+        <f>P55</f>
         <v>0.01</v>
       </c>
-      <c r="L67" s="4">
-        <f>IF(J72=0,1,MIN(MAX((J72/J48-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="R80" s="4">
+        <f>IF(P90=0,1,MIN(MAX((P90/P61-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="M67" s="4">
-        <f>M42*L67</f>
+      <c r="S80" s="4">
+        <f>S55</f>
         <v>0.05</v>
       </c>
-      <c r="O67" s="4">
-        <f>IF(M72=0,1,MIN(MAX((M72/M48-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="U80" s="4">
+        <f>IF(S90=0,1,MIN(MAX((S90/S61-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="P67" s="4">
-        <f>P42*O67</f>
+      <c r="V80" s="4">
+        <f>V55</f>
         <v>0.12</v>
       </c>
-      <c r="R67" s="4">
-        <f>IF(P72=0,1,MIN(MAX((P72/P48-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="X80" s="4">
+        <f>IF(V90=0,1,MIN(MAX((V90/V61-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="S67" s="4">
-        <f>S42*R67</f>
+      <c r="Y80" s="4">
+        <f>Y55</f>
         <v>0.2</v>
       </c>
-      <c r="U67" s="4">
-        <f>IF(S72=0,1,MIN(MAX((S72/S48-$F$15)/($F$17-$F$15), 0), 1))</f>
+    </row>
+    <row r="81" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="38"/>
+      <c r="B81" s="37"/>
+      <c r="E81" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G81" s="4">
+        <f>G56</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="4">
+        <f>IF(G91=0,1,MIN(MAX((G91/G62-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="V67" s="4">
-        <f>V42*U67</f>
-        <v>0.36</v>
-      </c>
-      <c r="X67" s="4">
-        <f>IF(V72=0,1,MIN(MAX((V72/V48-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="J81" s="4">
+        <f>J56</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="4">
+        <f>IF(J91=0,1,MIN(MAX((J91/J62-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="Y67" s="4">
-        <f>Y42*X67</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="39"/>
-      <c r="B68" s="38"/>
-      <c r="E68" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G68" s="4">
-        <f>G43</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="4">
-        <f>IF(G73=0,1,MIN(MAX((G73/G49-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="M81" s="4">
+        <f>M56</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="4">
+        <f>IF(M91=0,1,MIN(MAX((M91/M62-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="J68" s="4">
-        <f>J43</f>
-        <v>0</v>
-      </c>
-      <c r="L68" s="4">
-        <f>IF(J73=0,1,MIN(MAX((J73/J49-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="P81" s="4">
+        <f>P56</f>
+        <v>0</v>
+      </c>
+      <c r="R81" s="4">
+        <f>IF(P91=0,1,MIN(MAX((P91/P62-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="M68" s="4">
-        <f>M43</f>
+      <c r="S81" s="4">
+        <f>S56</f>
         <v>0.01</v>
       </c>
-      <c r="O68" s="4">
-        <f>IF(M73=0,1,MIN(MAX((M73/M49-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="U81" s="4">
+        <f>IF(S91=0,1,MIN(MAX((S91/S62-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="P68" s="4">
-        <f>P43</f>
+      <c r="V81" s="4">
+        <f>V56</f>
         <v>0.05</v>
       </c>
-      <c r="R68" s="4">
-        <f>IF(P73=0,1,MIN(MAX((P73/P49-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="X81" s="4">
+        <f>IF(V91=0,1,MIN(MAX((V91/V62-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="S68" s="4">
-        <f>S43</f>
+      <c r="Y81" s="4">
+        <f>Y56</f>
         <v>0.12</v>
       </c>
-      <c r="U68" s="4">
-        <f>IF(S73=0,1,MIN(MAX((S73/S49-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="V68" s="4">
-        <f>V43</f>
-        <v>0.2</v>
-      </c>
-      <c r="X68" s="4">
-        <f>IF(V73=0,1,MIN(MAX((V73/V49-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="Y68" s="4">
-        <f>Y43</f>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="39"/>
-      <c r="B69" s="38"/>
-      <c r="E69" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G69" s="4">
-        <f>G44</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="4">
-        <f>IF(G74=0,1,MIN(MAX((G74/G50-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="J69" s="4">
-        <f>J44</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="4">
-        <f>IF(J74=0,1,MIN(MAX((J74/J50-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="M69" s="4">
-        <f>M44</f>
-        <v>0</v>
-      </c>
-      <c r="O69" s="4">
-        <f>IF(M74=0,1,MIN(MAX((M74/M50-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P69" s="4">
-        <f>P44</f>
-        <v>0.01</v>
-      </c>
-      <c r="R69" s="4">
-        <f>IF(P74=0,1,MIN(MAX((P74/P50-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="S69" s="4">
-        <f>S44</f>
-        <v>0.05</v>
-      </c>
-      <c r="U69" s="4">
-        <f>IF(S74=0,1,MIN(MAX((S74/S50-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="V69" s="4">
-        <f>V44</f>
-        <v>0.12</v>
-      </c>
-      <c r="X69" s="4">
-        <f>IF(V74=0,1,MIN(MAX((V74/V50-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="Y69" s="4">
-        <f>Y44</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="39"/>
-      <c r="B70" s="38"/>
-      <c r="E70" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G70" s="4">
-        <f>G45</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="4">
-        <f>IF(G75=0,1,MIN(MAX((G75/G51-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="J70" s="4">
-        <f>J45</f>
-        <v>0</v>
-      </c>
-      <c r="L70" s="4">
-        <f>IF(J75=0,1,MIN(MAX((J75/J51-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="M70" s="4">
-        <f>M45</f>
-        <v>0</v>
-      </c>
-      <c r="O70" s="4">
-        <f>IF(M75=0,1,MIN(MAX((M75/M51-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P70" s="4">
-        <f>P45</f>
-        <v>0</v>
-      </c>
-      <c r="R70" s="4">
-        <f>IF(P75=0,1,MIN(MAX((P75/P51-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="S70" s="4">
-        <f>S45</f>
-        <v>0.01</v>
-      </c>
-      <c r="U70" s="4">
-        <f>IF(S75=0,1,MIN(MAX((S75/S51-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="V70" s="4">
-        <f>V45</f>
-        <v>0.05</v>
-      </c>
-      <c r="X70" s="4">
-        <f>IF(V75=0,1,MIN(MAX((V75/V51-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="Y70" s="4">
-        <f>Y45</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E71" s="14"/>
-    </row>
-    <row r="72" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="B72" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="E72" s="14" t="s">
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G83" s="4">
+        <f>G48*G31</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="4">
+        <f>(G88-J72)*$F$28</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="4">
+        <f>(J88-M72)*$F$28</f>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="P83" s="4">
+        <f>(M88-P72)*$F$28</f>
+        <v>1.01966E-2</v>
+      </c>
+      <c r="S83" s="4">
+        <f>(P88-S72)*$F$28</f>
+        <v>3.0576206799999998E-2</v>
+      </c>
+      <c r="V83" s="4">
+        <f>(S88-V72)*$F$28</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Y83" s="4">
+        <f>(V88-Y72)*$F$28</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="38"/>
+      <c r="B84" s="37"/>
+      <c r="E84" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="G84" s="4">
+        <f>G49*G32</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="4">
+        <f t="shared" ref="J84:J86" si="13">(G89-J73)*$F$28</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="4">
+        <f t="shared" ref="M84:M86" si="14">(J89-M73)*$F$28</f>
+        <v>0</v>
+      </c>
+      <c r="P84" s="4">
+        <f t="shared" ref="P84:P86" si="15">(M89-P73)*$F$28</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="S84" s="4">
+        <f t="shared" ref="S84:S86" si="16">(P89-S73)*$F$28</f>
+        <v>9.5968000000000008E-3</v>
+      </c>
+      <c r="V84" s="4">
+        <f t="shared" ref="V84:V86" si="17">(S89-V73)*$F$28</f>
+        <v>1.6000000000000004E-2</v>
+      </c>
+      <c r="Y84" s="4">
+        <f t="shared" ref="Y84:Y86" si="18">(V89-Y73)*$F$28</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="38"/>
+      <c r="B85" s="37"/>
+      <c r="E85" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="G85" s="4">
+        <f>G50*G33</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S85" s="4">
+        <f t="shared" si="16"/>
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="V85" s="4">
+        <f t="shared" si="17"/>
+        <v>1.1036320000000002E-2</v>
+      </c>
+      <c r="Y85" s="4">
+        <f t="shared" si="18"/>
+        <v>1.8400000000000007E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="38"/>
+      <c r="B86" s="37"/>
+      <c r="E86" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G86" s="4">
+        <f>G51*G34</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S86" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="4">
+        <f t="shared" si="17"/>
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="Y86" s="4">
+        <f t="shared" si="18"/>
+        <v>5.1582799999999995E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E88" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G72" s="4">
-        <f>G42*G36</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="4">
-        <f>G72+J36*J67-J61</f>
+      <c r="G88" s="4">
+        <f>G53*G36</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="4">
+        <f>G88 - J72 - J83 + J36*J78</f>
         <v>0.85</v>
       </c>
-      <c r="M72" s="4">
-        <f>J72+M36*M67-M61</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P72" s="4">
-        <f>M72+P36*P67-P61</f>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="S72" s="4">
-        <f>P72+S36*S67-S61</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="V72" s="4">
-        <f>S72+V36*V67-V61</f>
-        <v>43.349999999999994</v>
-      </c>
-      <c r="Y72" s="4">
-        <f>V72+Y36*Y67-Y61</f>
-        <v>63.75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="39"/>
-      <c r="B73" s="38"/>
-      <c r="E73" s="14" t="s">
+      <c r="M88" s="4">
+        <f>J88 - M72 - M83 + M36*M78</f>
+        <v>5.0983000000000001</v>
+      </c>
+      <c r="P88" s="4">
+        <f>M88 - P72 - P83 + P36*P78</f>
+        <v>15.288103399999999</v>
+      </c>
+      <c r="S88" s="4">
+        <f>P88 - S72 - S83 + S36*S78</f>
+        <v>32.257527193199998</v>
+      </c>
+      <c r="V88" s="4">
+        <f>S88 - V72 - V83 + V36*V78</f>
+        <v>39.082999999999998</v>
+      </c>
+      <c r="Y88" s="4">
+        <f>V88 - Y72 - Y83 + Y36*Y78</f>
+        <v>55.774358623197188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="38"/>
+      <c r="B89" s="37"/>
+      <c r="E89" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G73" s="4">
-        <f>G43*G37</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="4">
-        <f>G73+J37*J68-J62</f>
-        <v>0</v>
-      </c>
-      <c r="M73" s="4">
-        <f>J73+M37*M68-M62</f>
+      <c r="G89" s="4">
+        <f>G54*G37</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="4">
+        <f>G89 - J73 - J84 + J37*J79</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="4">
+        <f t="shared" ref="M89:M91" si="19">J89 - M73 - M84 + M37*M79</f>
         <v>0.8</v>
       </c>
-      <c r="P73" s="4">
-        <f>M73+P37*P68-P62</f>
-        <v>4.8</v>
-      </c>
-      <c r="S73" s="4">
-        <f>P73+S37*S68-S62</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="V73" s="4">
-        <f>S73+V37*V68-V62</f>
-        <v>28</v>
-      </c>
-      <c r="Y73" s="4">
-        <f>V73+Y37*Y68-Y62</f>
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="39"/>
-      <c r="B74" s="38"/>
-      <c r="E74" s="14" t="s">
+      <c r="P89" s="4">
+        <f t="shared" ref="P89:P91" si="20">M89 - P73 - P84 + P37*P79</f>
+        <v>4.7984</v>
+      </c>
+      <c r="S89" s="4">
+        <f t="shared" ref="S89:S91" si="21">P89 - S73 - S84 + S37*S79</f>
+        <v>14.3888032</v>
+      </c>
+      <c r="V89" s="4">
+        <f t="shared" ref="V89:V91" si="22">S89 - V73 - V84 + V37*V79</f>
+        <v>23.984000000000002</v>
+      </c>
+      <c r="Y89" s="4">
+        <f t="shared" ref="Y89:Y91" si="23">V89 - Y73 - Y84 + Y37*Y79</f>
+        <v>36.783999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="38"/>
+      <c r="B90" s="37"/>
+      <c r="E90" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G74" s="4">
-        <f>G44*G38</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="4">
-        <f t="shared" ref="J73:J75" si="11">G74+J38*J69-J63</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="4">
-        <f t="shared" ref="M74" si="12">J74+M38*M69-M63</f>
-        <v>0</v>
-      </c>
-      <c r="P74" s="4">
-        <f t="shared" ref="P74" si="13">M74+P38*P69-P63</f>
+      <c r="G90" s="4">
+        <f>G55*G38</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="4">
+        <f t="shared" ref="J90:J91" si="24">G90 - J74 - J85 + J38*J80</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="4">
+        <f t="shared" si="20"/>
         <v>0.92</v>
       </c>
-      <c r="S74" s="4">
-        <f t="shared" ref="S74" si="14">P74+S38*S69-S63</f>
-        <v>5.5200000000000005</v>
-      </c>
-      <c r="V74" s="4">
-        <f t="shared" ref="V74" si="15">S74+V38*V69-V63</f>
-        <v>16.559999999999999</v>
-      </c>
-      <c r="Y74" s="4">
-        <f t="shared" ref="Y74" si="16">V74+Y38*Y69-Y63</f>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="39"/>
-      <c r="B75" s="38"/>
-      <c r="D75" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E75" s="14" t="s">
+      <c r="S90" s="4">
+        <f t="shared" si="21"/>
+        <v>5.5181600000000008</v>
+      </c>
+      <c r="V90" s="4">
+        <f t="shared" si="22"/>
+        <v>16.547123679999999</v>
+      </c>
+      <c r="Y90" s="4">
+        <f t="shared" si="23"/>
+        <v>27.581600000000005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="38"/>
+      <c r="B91" s="37"/>
+      <c r="E91" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G75" s="4">
-        <f>G45*G39</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="4">
-        <f>G75+J39*J70-J64</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="4">
-        <f>J75+M39*M70-M64</f>
-        <v>0</v>
-      </c>
-      <c r="P75" s="4">
-        <f>M75+P39*P70-P64</f>
-        <v>0</v>
-      </c>
-      <c r="S75" s="4">
-        <f>P75+S39*S70-S64</f>
+      <c r="G91" s="4">
+        <f>G56*G39</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="4">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S91" s="4">
+        <f t="shared" si="21"/>
         <v>0.43</v>
       </c>
-      <c r="V75" s="4">
-        <f>S75+V39*V70-V64</f>
-        <v>2.58</v>
-      </c>
-      <c r="Y75" s="4">
-        <f>V75+Y39*Y70-Y64</f>
-        <v>7.74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D76" s="28"/>
-      <c r="E76" s="14"/>
-    </row>
-    <row r="77" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="D77" s="28"/>
-      <c r="E77" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B78" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="14" t="s">
+      <c r="V91" s="4">
+        <f t="shared" si="22"/>
+        <v>2.5791399999999998</v>
+      </c>
+      <c r="Y91" s="4">
+        <f t="shared" si="23"/>
+        <v>7.7339817200000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D92" s="35"/>
+      <c r="E92" s="14"/>
+    </row>
+    <row r="93" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="35"/>
+      <c r="E93" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G93" s="4">
+        <f>G58*G41</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="4">
+        <f>G93 - J77 - J88 + J41*J83</f>
+        <v>-0.85</v>
+      </c>
+      <c r="M93" s="4">
+        <f>J93 - M77 - M88 + M41*M83</f>
+        <v>-5.9482999999999997</v>
+      </c>
+      <c r="P93" s="4">
+        <f>M93 - P77 - P88 + P41*P83</f>
+        <v>-21.2364034</v>
+      </c>
+      <c r="S93" s="4">
+        <f>P93 - S77 - S88 + S41*S83</f>
+        <v>-53.493930593199998</v>
+      </c>
+      <c r="V93" s="4">
+        <f>S93 - V77 - V88 + V41*V83</f>
+        <v>-92.57693059319999</v>
+      </c>
+      <c r="Y93" s="4">
+        <f>V93 - Y77 - Y88 + Y41*Y83</f>
+        <v>-148.35128921639716</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="38"/>
+      <c r="B94" s="37"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="G94" s="4">
+        <f>G59*G42</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="4">
+        <f t="shared" ref="J94:J96" si="25">G94 - J78 - J89 + J42*J84</f>
+        <v>-0.01</v>
+      </c>
+      <c r="M94" s="4">
+        <f t="shared" ref="M94:M96" si="26">J94 - M78 - M89 + M42*M84</f>
+        <v>-0.8600000000000001</v>
+      </c>
+      <c r="P94" s="4">
+        <f t="shared" ref="P94:P96" si="27">M94 - P78 - P89 + P42*P84</f>
+        <v>-5.7784000000000004</v>
+      </c>
+      <c r="S94" s="4">
+        <f t="shared" ref="S94:S96" si="28">P94 - S78 - S89 + S42*S84</f>
+        <v>-20.367203199999999</v>
+      </c>
+      <c r="V94" s="4">
+        <f t="shared" ref="V94:V96" si="29">S94 - V78 - V89 + V42*V84</f>
+        <v>-44.7112032</v>
+      </c>
+      <c r="Y94" s="4">
+        <f t="shared" ref="Y94:Y96" si="30">V94 - Y78 - Y89 + Y42*Y84</f>
+        <v>-82.05157212497879</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="38"/>
+      <c r="B95" s="37"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="G95" s="4">
+        <f>G60*G43</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="4">
+        <f t="shared" si="26"/>
+        <v>-0.01</v>
+      </c>
+      <c r="P95" s="4">
+        <f t="shared" si="27"/>
+        <v>-0.98000000000000009</v>
+      </c>
+      <c r="S95" s="4">
+        <f t="shared" si="28"/>
+        <v>-6.6181600000000014</v>
+      </c>
+      <c r="V95" s="4">
+        <f t="shared" si="29"/>
+        <v>-23.365283680000001</v>
+      </c>
+      <c r="Y95" s="4">
+        <f t="shared" si="30"/>
+        <v>-51.306883680000006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="38"/>
+      <c r="B96" s="37"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G96" s="4">
+        <f>G61*G44</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="4">
+        <f t="shared" si="27"/>
+        <v>-0.01</v>
+      </c>
+      <c r="S96" s="4">
+        <f t="shared" si="28"/>
+        <v>-0.49</v>
+      </c>
+      <c r="V96" s="4">
+        <f t="shared" si="29"/>
+        <v>-3.1891399999999996</v>
+      </c>
+      <c r="Y96" s="4">
+        <f t="shared" si="30"/>
+        <v>-11.12312172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A97" s="40"/>
+      <c r="B97" s="46"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="14"/>
+    </row>
+    <row r="98" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="D98" s="35"/>
+      <c r="E98" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" s="35"/>
+      <c r="E99" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F99" s="4">
         <f>$F$27</f>
         <v>0.3</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G99" s="4">
         <f>$G$27</f>
         <v>0.92</v>
       </c>
-      <c r="I78" s="4">
+      <c r="I99" s="4">
         <f>$F$27</f>
         <v>0.3</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J99" s="4">
         <f>$G$27</f>
         <v>0.92</v>
       </c>
-      <c r="L78" s="4">
+      <c r="L99" s="4">
         <f>$F$27</f>
         <v>0.3</v>
       </c>
-      <c r="M78" s="4">
+      <c r="M99" s="4">
         <f>$G$27</f>
         <v>0.92</v>
       </c>
-      <c r="O78" s="4">
+      <c r="O99" s="4">
         <f>$F$27</f>
         <v>0.3</v>
       </c>
-      <c r="P78" s="4">
+      <c r="P99" s="4">
         <f>$G$27</f>
         <v>0.92</v>
       </c>
-      <c r="R78" s="4">
+      <c r="R99" s="4">
         <f>$F$27</f>
         <v>0.3</v>
       </c>
-      <c r="S78" s="4">
+      <c r="S99" s="4">
         <f>$G$27</f>
         <v>0.92</v>
       </c>
-      <c r="U78" s="4">
+      <c r="U99" s="4">
         <f>$F$27</f>
         <v>0.3</v>
       </c>
-      <c r="V78" s="4">
+      <c r="V99" s="4">
         <f>$G$27</f>
         <v>0.92</v>
       </c>
-      <c r="X78" s="4">
+      <c r="X99" s="4">
         <f>$F$27</f>
         <v>0.3</v>
       </c>
-      <c r="Y78" s="4">
+      <c r="Y99" s="4">
         <f>$G$27</f>
         <v>0.92</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B79" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F79" s="4">
+    <row r="100" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F100" s="4">
         <f>F7*$F$18</f>
         <v>1500000</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G100" s="4">
         <f>G7*$G$18</f>
         <v>25000000</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I100" s="4">
         <f>I7*$F$18</f>
         <v>1492500</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J100" s="4">
         <f>J7*$G$18</f>
         <v>24990000</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L100" s="4">
         <f>L7*$F$18</f>
         <v>1483200</v>
       </c>
-      <c r="M79" s="4">
+      <c r="M100" s="4">
         <f>M7*$G$18</f>
         <v>24979000</v>
       </c>
-      <c r="O79" s="4">
+      <c r="O100" s="4">
         <f>O7*$F$18</f>
         <v>1474500</v>
       </c>
-      <c r="P79" s="4">
+      <c r="P100" s="4">
         <f>P7*$G$18</f>
         <v>24969600</v>
       </c>
-      <c r="R79" s="4">
+      <c r="R100" s="4">
         <f>R7*$F$18</f>
         <v>1464000</v>
       </c>
-      <c r="S79" s="4">
+      <c r="S100" s="4">
         <f>S7*$G$18</f>
         <v>24950400</v>
       </c>
-      <c r="U79" s="4">
+      <c r="U100" s="4">
         <f>U7*$F$18</f>
         <v>1449000</v>
       </c>
-      <c r="V79" s="4">
+      <c r="V100" s="4">
         <f>V7*$G$18</f>
         <v>24946500</v>
       </c>
-      <c r="X79" s="4">
+      <c r="X100" s="4">
         <f>X7*$F$18</f>
         <v>1434300</v>
       </c>
-      <c r="Y79" s="4">
+      <c r="Y100" s="4">
         <f>Y7*$G$18</f>
         <v>24936000</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B80" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="F80" s="4">
+    <row r="101" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F101" s="4">
         <v>1</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G101" s="4">
         <v>1</v>
       </c>
-      <c r="I80" s="4">
-        <f>IF(F82=0,0,MIN(MAX((F82/F79-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="I101" s="4">
+        <f>IF(F103=0,0,MIN(MAX((F103/F100-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="J80" s="4">
-        <f>IF(G82=0,0,MIN(MAX((G82/G79-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="J101" s="4">
+        <f>IF(G103=0,0,MIN(MAX((G103/G100-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="L80" s="4">
-        <f>IF(I82=0,0,MIN(MAX((I82/I79-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="L101" s="4">
+        <f>IF(I103=0,0,MIN(MAX((I103/I100-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="M80" s="4">
-        <f>IF(J82=0,0,MIN(MAX((J82/J79-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="M101" s="4">
+        <f>IF(J103=0,0,MIN(MAX((J103/J100-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="O80" s="4">
-        <f>IF(L82=0,0,MIN(MAX((L82/L79-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="O101" s="4">
+        <f>IF(L103=0,0,MIN(MAX((L103/L100-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="P80" s="4">
-        <f>IF(M82=0,0,MIN(MAX((M82/M79-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="P101" s="4">
+        <f>IF(M103=0,0,MIN(MAX((M103/M100-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="R80" s="4">
-        <f>IF(O82=0,0,MIN(MAX((O82/O79-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="R101" s="4">
+        <f>IF(O103=0,0,MIN(MAX((O103/O100-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="S80" s="4">
-        <f>IF(P82=0,0,MIN(MAX((P82/P79-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="S101" s="4">
+        <f>IF(P103=0,0,MIN(MAX((P103/P100-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="U80" s="4">
-        <f>IF(R82=0,0,MIN(MAX((R82/R79-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="U101" s="4">
+        <f>IF(R103=0,0,MIN(MAX((R103/R100-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="V80" s="4">
-        <f>IF(S82=0,0,MIN(MAX((S82/S79-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="V101" s="4">
+        <f>IF(S103=0,0,MIN(MAX((S103/S100-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="X80" s="4">
-        <f>IF(U82=0,0,MIN(MAX((U82/U79-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="X101" s="4">
+        <f>IF(U103=0,0,MIN(MAX((U103/U100-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="Y80" s="4">
-        <f>IF(V82=0,0,MIN(MAX((V82/V79-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="Y101" s="4">
+        <f>IF(V103=0,0,MIN(MAX((V103/V100-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>0.89139235505764625</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B81" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F81" s="4">
-        <f>F78</f>
+    <row r="102" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F102" s="4">
+        <f>F99</f>
         <v>0.3</v>
       </c>
-      <c r="G81" s="4">
-        <f>G78</f>
+      <c r="G102" s="4">
+        <f>G99</f>
         <v>0.92</v>
       </c>
-      <c r="I81" s="4">
-        <f xml:space="preserve"> I78*I80</f>
+      <c r="I102" s="4">
+        <f xml:space="preserve"> I99*I101</f>
         <v>0.3</v>
       </c>
-      <c r="J81" s="4">
-        <f>J78*J80</f>
+      <c r="J102" s="4">
+        <f>J99*J101</f>
         <v>0.92</v>
       </c>
-      <c r="L81" s="4">
-        <f xml:space="preserve"> L78*L80</f>
+      <c r="L102" s="4">
+        <f xml:space="preserve"> L99*L101</f>
         <v>0.3</v>
       </c>
-      <c r="M81" s="4">
-        <f>M78*M80</f>
+      <c r="M102" s="4">
+        <f>M99*M101</f>
         <v>0.92</v>
       </c>
-      <c r="O81" s="4">
-        <f xml:space="preserve"> O78*O80</f>
+      <c r="O102" s="4">
+        <f xml:space="preserve"> O99*O101</f>
         <v>0.3</v>
       </c>
-      <c r="P81" s="4">
-        <f>P78*P80</f>
+      <c r="P102" s="4">
+        <f>P99*P101</f>
         <v>0.92</v>
       </c>
-      <c r="R81" s="4">
-        <f xml:space="preserve"> R78*R80</f>
+      <c r="R102" s="4">
+        <f xml:space="preserve"> R99*R101</f>
         <v>0.3</v>
       </c>
-      <c r="S81" s="4">
-        <f>S78*S80</f>
+      <c r="S102" s="4">
+        <f>S99*S101</f>
         <v>0.92</v>
       </c>
-      <c r="U81" s="4">
-        <f xml:space="preserve"> U78*U80</f>
+      <c r="U102" s="4">
+        <f xml:space="preserve"> U99*U101</f>
         <v>0.3</v>
       </c>
-      <c r="V81" s="4">
-        <f>V78*V80</f>
+      <c r="V102" s="4">
+        <f>V99*V101</f>
         <v>0.92</v>
       </c>
-      <c r="X81" s="4">
-        <f xml:space="preserve"> X78*X80</f>
+      <c r="X102" s="4">
+        <f xml:space="preserve"> X99*X101</f>
         <v>0.3</v>
       </c>
-      <c r="Y81" s="4">
-        <f>Y78*Y80</f>
+      <c r="Y102" s="4">
+        <f>Y99*Y101</f>
         <v>0.82008096665303454</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="B82" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F82" s="4">
+    <row r="103" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F103" s="4">
         <f>F7*F18</f>
         <v>1500000</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G103" s="4">
         <f>G7*G18</f>
         <v>25000000</v>
       </c>
-      <c r="I82" s="4">
-        <f>(F82 - F102 - F90)*(1 - $F$28) +I81*I7</f>
+      <c r="I103" s="4">
+        <f>F103 - F123 - F111 - F135+I102*I7</f>
         <v>1421016.5802484024</v>
       </c>
-      <c r="J82" s="4">
-        <f>(G82 - G102 - G90)*(1 - $F$28) +J81*J7</f>
+      <c r="J103" s="4">
+        <f>G103 - G123 - G111 - G135 + J102*J7</f>
         <v>23245411.419751596</v>
       </c>
-      <c r="L82" s="4">
-        <f>(I82 - I102 - I90)*(1 - $F$28) +L81*L7</f>
-        <v>1338234.0119069477</v>
-      </c>
-      <c r="M82" s="4">
-        <f>(J82 - J102 - J90)*(1 - $F$28) +M81*M7</f>
+      <c r="L103" s="4">
+        <f>I103 - I123 - I111 - I135+L102*L7</f>
+        <v>1338234.0119069479</v>
+      </c>
+      <c r="M103" s="4">
+        <f>J103 - J123 - J111 - J135 + M102*M7</f>
         <v>21446685.855861954</v>
       </c>
-      <c r="O82" s="4">
-        <f>(L82 - L102 - L90)*(1 - $F$28) +O81*O7</f>
-        <v>1261074.3620328091</v>
-      </c>
-      <c r="P82" s="4">
-        <f>(M82 - M102 - M90)*(1 - $F$28) +P81*P7</f>
+      <c r="O103" s="4">
+        <f>L103 - L123 - L111 - L135+O102*O7</f>
+        <v>1261074.3620328093</v>
+      </c>
+      <c r="P103" s="4">
+        <f>M103 - M123 - M111 - M135 + P102*P7</f>
         <v>19589276.419903073</v>
       </c>
-      <c r="R82" s="4">
-        <f>(O82 - O102 - O90)*(1 - $F$28) +R81*R7</f>
-        <v>1186570.0048549743</v>
-      </c>
-      <c r="S82" s="4">
-        <f>(P82 - P102 - P90)*(1 - $F$28) +S81*S7</f>
+      <c r="R103" s="4">
+        <f>O103 - O123 - O111 - O135+R102*R7</f>
+        <v>1186570.0048549746</v>
+      </c>
+      <c r="S103" s="4">
+        <f>P103 - P123 - P111 - P135 + S102*S7</f>
         <v>17624976.777235985</v>
       </c>
-      <c r="U82" s="4">
-        <f>(R82 - R102 - R90)*(1 - $F$28) +U81*U7</f>
-        <v>1095867.5027670106</v>
-      </c>
-      <c r="V82" s="4">
-        <f>(S82 - S102 - S90)*(1 - $F$28) +V81*V7</f>
+      <c r="U103" s="4">
+        <f>R103 - R123 - R111 - R135+U102*U7</f>
+        <v>1095867.5027670111</v>
+      </c>
+      <c r="V103" s="4">
+        <f>S103 - S123 - S111 - S135 + V102*V7</f>
         <v>14901579.368863089</v>
       </c>
-      <c r="X82" s="4">
-        <f>(U82 - U102 - U90)*(1 - $F$28) +X81*X7</f>
-        <v>818384.25432780851</v>
-      </c>
-      <c r="Y82" s="4">
-        <f>(V82 - V102 - V90)*(1 - $F$28) +Y81*Y7</f>
+      <c r="X103" s="4">
+        <f>U103 - U123 - U111 - U135+X102*X7</f>
+        <v>818384.25432780897</v>
+      </c>
+      <c r="Y103" s="4">
+        <f>V103 - V123 - V111 - V135 + Y102*Y7</f>
         <v>3175368.0905289678</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B83" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E83" s="14" t="s">
+    <row r="104" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F104" s="4">
+        <f>F103/F7</f>
+        <v>150</v>
+      </c>
+      <c r="G104" s="4">
+        <f>G103/G7</f>
+        <v>100</v>
+      </c>
+      <c r="I104" s="4">
+        <f>I103/I7</f>
+        <v>142.81573670838216</v>
+      </c>
+      <c r="J104" s="4">
+        <f>J103/J7</f>
+        <v>93.018853220294503</v>
+      </c>
+      <c r="L104" s="4">
+        <f>L103/L7</f>
+        <v>135.33920023330785</v>
+      </c>
+      <c r="M104" s="4">
+        <f>M103/M7</f>
+        <v>85.858864869938571</v>
+      </c>
+      <c r="O104" s="4">
+        <f>O103/O7</f>
+        <v>128.28833794840381</v>
+      </c>
+      <c r="P104" s="4">
+        <f>P103/P7</f>
+        <v>78.452503924384345</v>
+      </c>
+      <c r="R104" s="4">
+        <f>R103/R7</f>
+        <v>121.57479557940313</v>
+      </c>
+      <c r="S104" s="4">
+        <f>S103/S7</f>
+        <v>70.640056981996224</v>
+      </c>
+      <c r="U104" s="4">
+        <f>U103/U7</f>
+        <v>113.44384086615021</v>
+      </c>
+      <c r="V104" s="4">
+        <f>V103/V7</f>
+        <v>59.73414855335654</v>
+      </c>
+      <c r="X104" s="4">
+        <f>X103/X7</f>
+        <v>85.58714226394153</v>
+      </c>
+      <c r="Y104" s="4">
+        <f>Y103/Y7</f>
+        <v>12.73407158537443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E105" s="13"/>
+    </row>
+    <row r="106" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="E106" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12"/>
+    </row>
+    <row r="107" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F107" s="4">
+        <f>F104*F7</f>
+        <v>1500000</v>
+      </c>
+      <c r="G107" s="4">
+        <f>G104*G7</f>
+        <v>25000000</v>
+      </c>
+      <c r="I107" s="4">
+        <f>I104*I7</f>
+        <v>1421016.5802484024</v>
+      </c>
+      <c r="J107" s="4">
+        <f>J104*J7</f>
+        <v>23245411.419751596</v>
+      </c>
+      <c r="L107" s="4">
+        <f>L104*L7</f>
+        <v>1338234.0119069479</v>
+      </c>
+      <c r="M107" s="4">
+        <f>M104*M7</f>
+        <v>21446685.855861954</v>
+      </c>
+      <c r="O107" s="4">
+        <f>O104*O7</f>
+        <v>1261074.3620328095</v>
+      </c>
+      <c r="P107" s="4">
+        <f>P104*P7</f>
+        <v>19589276.419903073</v>
+      </c>
+      <c r="R107" s="4">
+        <f>R104*R7</f>
+        <v>1186570.0048549746</v>
+      </c>
+      <c r="S107" s="4">
+        <f>S104*S7</f>
+        <v>17624976.777235985</v>
+      </c>
+      <c r="U107" s="4">
+        <f>U104*U7</f>
+        <v>1095867.5027670111</v>
+      </c>
+      <c r="V107" s="4">
+        <f>V104*V7</f>
+        <v>14901579.368863089</v>
+      </c>
+      <c r="X107" s="4">
+        <f>X104*X7</f>
+        <v>818384.25432780886</v>
+      </c>
+      <c r="Y107" s="4">
+        <f>Y104*Y7</f>
+        <v>3175368.0905289678</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G108" s="4">
+        <f>SUM(G88:G91)</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="4">
+        <f>SUM(J88:J91)</f>
+        <v>0.85</v>
+      </c>
+      <c r="M108" s="4">
+        <f>SUM(M88:M91)</f>
+        <v>5.8982999999999999</v>
+      </c>
+      <c r="P108" s="4">
+        <f>SUM(P88:P91)</f>
+        <v>21.0065034</v>
+      </c>
+      <c r="S108" s="4">
+        <f>SUM(S88:S91)</f>
+        <v>52.594490393199997</v>
+      </c>
+      <c r="V108" s="4">
+        <f>SUM(V88:V91)</f>
+        <v>82.193263680000001</v>
+      </c>
+      <c r="Y108" s="4">
+        <f>SUM(Y88:Y91)</f>
+        <v>127.87394034319721</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F109" s="4">
+        <f>F107+F108</f>
+        <v>1500000</v>
+      </c>
+      <c r="G109" s="4">
+        <f>G107+G108</f>
+        <v>25000000</v>
+      </c>
+      <c r="I109" s="4">
+        <f>I107+I108</f>
+        <v>1421016.5802484024</v>
+      </c>
+      <c r="J109" s="4">
+        <f>J107+J108</f>
+        <v>23245412.269751597</v>
+      </c>
+      <c r="L109" s="4">
+        <f>L107+L108</f>
+        <v>1338234.0119069479</v>
+      </c>
+      <c r="M109" s="4">
+        <f>M107+M108</f>
+        <v>21446691.754161954</v>
+      </c>
+      <c r="O109" s="4">
+        <f>O107+O108</f>
+        <v>1261074.3620328095</v>
+      </c>
+      <c r="P109" s="4">
+        <f>P107+P108</f>
+        <v>19589297.426406473</v>
+      </c>
+      <c r="R109" s="4">
+        <f>R107+R108</f>
+        <v>1186570.0048549746</v>
+      </c>
+      <c r="S109" s="4">
+        <f>S107+S108</f>
+        <v>17625029.371726379</v>
+      </c>
+      <c r="U109" s="4">
+        <f>U107+U108</f>
+        <v>1095867.5027670111</v>
+      </c>
+      <c r="V109" s="4">
+        <f>V107+V108</f>
+        <v>14901661.562126769</v>
+      </c>
+      <c r="X109" s="4">
+        <f>X107+X108</f>
+        <v>818384.25432780886</v>
+      </c>
+      <c r="Y109" s="4">
+        <f>Y107+Y108</f>
+        <v>3175495.9644693108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B110" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F110" s="4">
+        <f>F103*$F$19</f>
+        <v>450000</v>
+      </c>
+      <c r="G110" s="4">
+        <f>G103*$G$19</f>
+        <v>6250000</v>
+      </c>
+      <c r="I110" s="4">
+        <f>F110-F114-F136+I102*I7*$F$19</f>
+        <v>427157.49807066203</v>
+      </c>
+      <c r="J110" s="4">
+        <f>G110-G114-G136+J102*J7*$G$19</f>
+        <v>5822883.6682744483</v>
+      </c>
+      <c r="L110" s="4">
+        <f>I110-I114-I136+L102*L7*$F$19</f>
+        <v>405781.86637034442</v>
+      </c>
+      <c r="M110" s="4">
+        <f>J110-J114-J136+M102*M7*$G$19</f>
+        <v>5386389.9946913794</v>
+      </c>
+      <c r="O110" s="4">
+        <f>L110-L114-L136+O102*O7*$F$19</f>
+        <v>385745.26148536842</v>
+      </c>
+      <c r="P110" s="4">
+        <f>M110-M114-M136+P102*P7*$G$19</f>
+        <v>4933754.4954288593</v>
+      </c>
+      <c r="R110" s="4">
+        <f>O110-O114-O136+R102*R7*$F$19</f>
+        <v>366799.61784868693</v>
+      </c>
+      <c r="S110" s="4">
+        <f>P110-P114-P136+S102*S7*$G$19</f>
+        <v>4455160.4517927608</v>
+      </c>
+      <c r="U110" s="4">
+        <f>R110-R114-R136+U102*U7*$F$19</f>
+        <v>343893.20698312705</v>
+      </c>
+      <c r="V110" s="4">
+        <f>S110-S114-S136+V102*V7*$G$19</f>
+        <v>3782350.5775140608</v>
+      </c>
+      <c r="X110" s="4">
+        <f>U110-U114-U136+X102*X7*$F$19</f>
+        <v>264473.77134537301</v>
+      </c>
+      <c r="Y110" s="4">
+        <f>V110-V114-V136+Y102*Y7*$G$19</f>
+        <v>853846.65592415316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B111" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F111" s="4">
+        <f>F9*F104</f>
+        <v>7500</v>
+      </c>
+      <c r="G111" s="4">
+        <f>G9*G104</f>
+        <v>10000</v>
+      </c>
+      <c r="I111" s="4">
+        <f>I9*I104</f>
+        <v>8854.5756759196938</v>
+      </c>
+      <c r="J111" s="4">
+        <f>J9*J104</f>
+        <v>10232.073854232396</v>
+      </c>
+      <c r="L111" s="4">
+        <f>L9*L104</f>
+        <v>7849.6736135318552</v>
+      </c>
+      <c r="M111" s="4">
+        <f>M9*M104</f>
+        <v>8070.7332977742253</v>
+      </c>
+      <c r="O111" s="4">
+        <f>O9*O104</f>
+        <v>8980.1836563882662</v>
+      </c>
+      <c r="P111" s="4">
+        <f>P9*P104</f>
+        <v>15062.880753481793</v>
+      </c>
+      <c r="R111" s="4">
+        <f>R9*R104</f>
+        <v>12157.479557940313</v>
+      </c>
+      <c r="S111" s="4">
+        <f>S9*S104</f>
+        <v>2754.9622222978528</v>
+      </c>
+      <c r="U111" s="4">
+        <f>U9*U104</f>
+        <v>11117.496404882721</v>
+      </c>
+      <c r="V111" s="4">
+        <f>V9*V104</f>
+        <v>6272.085598102437</v>
+      </c>
+      <c r="X111" s="4">
+        <f>X9*X104</f>
+        <v>8387.5399418662691</v>
+      </c>
+      <c r="Y111" s="4">
+        <f>Y9*Y104</f>
+        <v>1337.0775164643151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B112" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="4">
+        <f>F111*$F$14</f>
+        <v>5250</v>
+      </c>
+      <c r="G112" s="4">
+        <f>G111*$F$14</f>
+        <v>7000</v>
+      </c>
+      <c r="I112" s="4">
+        <f>I111*$F$14</f>
+        <v>6198.2029731437851</v>
+      </c>
+      <c r="J112" s="4">
+        <f>J111*$F$14</f>
+        <v>7162.4516979626769</v>
+      </c>
+      <c r="L112" s="4">
+        <f>L111*$F$14</f>
+        <v>5494.7715294722984</v>
+      </c>
+      <c r="M112" s="4">
+        <f>M111*$F$14</f>
+        <v>5649.5133084419576</v>
+      </c>
+      <c r="O112" s="4">
+        <f>O111*$F$14</f>
+        <v>6286.1285594717856</v>
+      </c>
+      <c r="P112" s="4">
+        <f>P111*$F$14</f>
+        <v>10544.016527437254</v>
+      </c>
+      <c r="R112" s="4">
+        <f>R111*$F$14</f>
+        <v>8510.2356905582183</v>
+      </c>
+      <c r="S112" s="4">
+        <f>S111*$F$14</f>
+        <v>1928.4735556084968</v>
+      </c>
+      <c r="U112" s="4">
+        <f>U111*$F$14</f>
+        <v>7782.2474834179038</v>
+      </c>
+      <c r="V112" s="4">
+        <f>V111*$F$14</f>
+        <v>4390.459918671706</v>
+      </c>
+      <c r="X112" s="4">
+        <f>X111*$F$14</f>
+        <v>5871.2779593063879</v>
+      </c>
+      <c r="Y112" s="4">
+        <f>Y111*$F$14</f>
+        <v>935.95426152502046</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B113" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F113" s="4">
+        <f>F111*(1-$F$14)</f>
+        <v>2250.0000000000005</v>
+      </c>
+      <c r="G113" s="4">
+        <f>G111*(1-$F$14)</f>
+        <v>3000.0000000000005</v>
+      </c>
+      <c r="I113" s="4">
+        <f>I111*(1-$F$14)</f>
+        <v>2656.3727027759087</v>
+      </c>
+      <c r="J113" s="4">
+        <f>J111*(1-$F$14)</f>
+        <v>3069.6221562697192</v>
+      </c>
+      <c r="L113" s="4">
+        <f>L111*(1-$F$14)</f>
+        <v>2354.9020840595567</v>
+      </c>
+      <c r="M113" s="4">
+        <f>M111*(1-$F$14)</f>
+        <v>2421.2199893322681</v>
+      </c>
+      <c r="O113" s="4">
+        <f>O111*(1-$F$14)</f>
+        <v>2694.0550969164801</v>
+      </c>
+      <c r="P113" s="4">
+        <f>P111*(1-$F$14)</f>
+        <v>4518.8642260445386</v>
+      </c>
+      <c r="R113" s="4">
+        <f>R111*(1-$F$14)</f>
+        <v>3647.2438673820943</v>
+      </c>
+      <c r="S113" s="4">
+        <f>S111*(1-$F$14)</f>
+        <v>826.48866668935591</v>
+      </c>
+      <c r="U113" s="4">
+        <f>U111*(1-$F$14)</f>
+        <v>3335.2489214648167</v>
+      </c>
+      <c r="V113" s="4">
+        <f>V111*(1-$F$14)</f>
+        <v>1881.6256794307315</v>
+      </c>
+      <c r="X113" s="4">
+        <f>X111*(1-$F$14)</f>
+        <v>2516.2619825598813</v>
+      </c>
+      <c r="Y113" s="4">
+        <f>Y111*(1-$F$14)</f>
+        <v>401.12325493929455</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B114" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F114" s="4">
+        <f>F111*$F19</f>
+        <v>2250</v>
+      </c>
+      <c r="G114" s="4">
+        <f>G111*$G19</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z115">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA115">
+        <f>SUM(Z$6:Z115)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F116" s="4">
+        <f>MAX(F13-F25, 0)*F126</f>
+        <v>741757.5</v>
+      </c>
+      <c r="G116" s="4">
+        <f>MAX(G13-G25, 0)*G126</f>
+        <v>19970010</v>
+      </c>
+      <c r="I116" s="4">
+        <f>MAX(I13-I25, 0)*I126</f>
+        <v>697350.12103057199</v>
+      </c>
+      <c r="J116" s="4">
+        <f>MAX(J13-J25, 0)*J126</f>
+        <v>18564257.684882641</v>
+      </c>
+      <c r="L116" s="4">
+        <f>MAX(L13-L25, 0)*L126</f>
+        <v>585369.23701022298</v>
+      </c>
+      <c r="M116" s="4">
+        <f>MAX(M13-M25, 0)*M126</f>
+        <v>17125702.279067256</v>
+      </c>
+      <c r="O116" s="4">
+        <f>MAX(O13-O25, 0)*O126</f>
+        <v>481800.15068599832</v>
+      </c>
+      <c r="P116" s="4">
+        <f>MAX(P13-P25, 0)*P126</f>
+        <v>15631637.942930376</v>
+      </c>
+      <c r="R116" s="4">
+        <f>MAX(R13-R25, 0)*R126</f>
+        <v>383702.35403091385</v>
+      </c>
+      <c r="S116" s="4">
+        <f>MAX(S13-S25, 0)*S126</f>
+        <v>14140812.522895874</v>
+      </c>
+      <c r="U116" s="4">
+        <f>MAX(U13-U25, 0)*U126</f>
+        <v>267600.05212584679</v>
+      </c>
+      <c r="V116" s="4">
+        <f>MAX(V13-V25, 0)*V126</f>
+        <v>11918480.929873837</v>
+      </c>
+      <c r="X116" s="4">
+        <f>MAX(X13-X25, 0)*X126</f>
+        <v>193429.6900855636</v>
+      </c>
+      <c r="Y116" s="4">
+        <f>MAX(Y13-Y25, 0)*Y126</f>
+        <v>2523718.9695364693</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="E118" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="R118" s="8"/>
+      <c r="S118" s="8"/>
+      <c r="U118" s="8"/>
+      <c r="V118" s="8"/>
+      <c r="X118" s="8"/>
+      <c r="Y118" s="8"/>
+    </row>
+    <row r="119" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F119" s="4">
+        <f>MIN(F131,F31)</f>
+        <v>2000000</v>
+      </c>
+      <c r="I119" s="4">
+        <f>MIN(I131,I31)</f>
+        <v>2050000</v>
+      </c>
+      <c r="L119" s="4">
+        <f>MIN(L131,L31)</f>
+        <v>2110000</v>
+      </c>
+      <c r="O119" s="4">
+        <f>MIN(O131,O31)</f>
+        <v>2210000</v>
+      </c>
+      <c r="R119" s="4">
+        <f>MIN(R131,R31)</f>
+        <v>3000000</v>
+      </c>
+      <c r="U119" s="4">
+        <f>MIN(U131,U31)</f>
+        <v>12186080.981999684</v>
+      </c>
+      <c r="X119" s="4">
+        <f>MIN(X131,X31)</f>
+        <v>1776649.2395067073</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F120" s="4">
+        <f>F31-F119</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="4">
+        <f>I31-I119</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="4">
+        <f>L31-L119</f>
+        <v>0</v>
+      </c>
+      <c r="O120" s="4">
+        <f>O31-O119</f>
+        <v>0</v>
+      </c>
+      <c r="R120" s="4">
+        <f>R31-R119</f>
+        <v>0</v>
+      </c>
+      <c r="U120" s="4">
+        <f>U31-U119</f>
+        <v>12813919.018000316</v>
+      </c>
+      <c r="X120" s="4">
+        <f>X31-X119</f>
+        <v>743350.76049329271</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B121" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F121" s="4">
+        <f>MIN(F31,F119)</f>
+        <v>2000000</v>
+      </c>
+      <c r="I121" s="4">
+        <f>MIN(I31,I119)</f>
+        <v>2050000</v>
+      </c>
+      <c r="L121" s="4">
+        <f>MIN(L31,L119)</f>
+        <v>2110000</v>
+      </c>
+      <c r="O121" s="4">
+        <f>MIN(O31,O119)</f>
+        <v>2210000</v>
+      </c>
+      <c r="R121" s="4">
+        <f>MIN(R31,R119)</f>
+        <v>3000000</v>
+      </c>
+      <c r="U121" s="4">
+        <f>MIN(U31,U119)</f>
+        <v>12186080.981999684</v>
+      </c>
+      <c r="X121" s="4">
+        <f>MIN(X31,X119)</f>
+        <v>1776649.2395067073</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E122" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F83" s="4">
-        <f>F82/F7</f>
-        <v>150</v>
-      </c>
-      <c r="G83" s="4">
-        <f>G82/G7</f>
-        <v>100</v>
-      </c>
-      <c r="I83" s="4">
-        <f>I82/I7</f>
-        <v>142.81573670838216</v>
-      </c>
-      <c r="J83" s="4">
-        <f>J82/J7</f>
-        <v>93.018853220294503</v>
-      </c>
-      <c r="L83" s="4">
-        <f>L82/L7</f>
-        <v>135.33920023330782</v>
-      </c>
-      <c r="M83" s="4">
-        <f>M82/M7</f>
-        <v>85.858864869938571</v>
-      </c>
-      <c r="O83" s="4">
-        <f>O82/O7</f>
-        <v>128.28833794840378</v>
-      </c>
-      <c r="P83" s="4">
-        <f>P82/P7</f>
-        <v>78.452503924384345</v>
-      </c>
-      <c r="R83" s="4">
-        <f>R82/R7</f>
-        <v>121.5747955794031</v>
-      </c>
-      <c r="S83" s="4">
-        <f>S82/S7</f>
-        <v>70.640056981996224</v>
-      </c>
-      <c r="U83" s="4">
-        <f>U82/U7</f>
-        <v>113.44384086615017</v>
-      </c>
-      <c r="V83" s="4">
-        <f>V82/V7</f>
-        <v>59.73414855335654</v>
-      </c>
-      <c r="X83" s="4">
-        <f>X82/X7</f>
-        <v>85.587142263941487</v>
-      </c>
-      <c r="Y83" s="4">
-        <f>Y82/Y7</f>
-        <v>12.73407158537443</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="E84" s="13"/>
-    </row>
-    <row r="85" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="E85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
-      <c r="U85" s="12"/>
-      <c r="V85" s="12"/>
-      <c r="X85" s="12"/>
-      <c r="Y85" s="12"/>
-    </row>
-    <row r="86" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="B86" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F86" s="4">
-        <f>F83*F7</f>
-        <v>1500000</v>
-      </c>
-      <c r="G86" s="4">
-        <f>G83*G7</f>
-        <v>25000000</v>
-      </c>
-      <c r="I86" s="4">
-        <f>I83*I7</f>
-        <v>1421016.5802484024</v>
-      </c>
-      <c r="J86" s="4">
-        <f>J83*J7</f>
-        <v>23245411.419751596</v>
-      </c>
-      <c r="L86" s="4">
-        <f>L83*L7</f>
-        <v>1338234.0119069477</v>
-      </c>
-      <c r="M86" s="4">
-        <f>M83*M7</f>
-        <v>21446685.855861954</v>
-      </c>
-      <c r="O86" s="4">
-        <f>O83*O7</f>
-        <v>1261074.3620328091</v>
-      </c>
-      <c r="P86" s="4">
-        <f>P83*P7</f>
-        <v>19589276.419903073</v>
-      </c>
-      <c r="R86" s="4">
-        <f>R83*R7</f>
-        <v>1186570.0048549743</v>
-      </c>
-      <c r="S86" s="4">
-        <f>S83*S7</f>
-        <v>17624976.777235985</v>
-      </c>
-      <c r="U86" s="4">
-        <f>U83*U7</f>
-        <v>1095867.5027670106</v>
-      </c>
-      <c r="V86" s="4">
-        <f>V83*V7</f>
-        <v>14901579.368863089</v>
-      </c>
-      <c r="X86" s="4">
-        <f>X83*X7</f>
-        <v>818384.25432780851</v>
-      </c>
-      <c r="Y86" s="4">
-        <f>Y83*Y7</f>
-        <v>3175368.0905289678</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="B87" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G87" s="4">
-        <f>SUM(G72:G75)</f>
-        <v>0</v>
-      </c>
-      <c r="J87" s="4">
-        <f>SUM(J72:J75)</f>
-        <v>0.85</v>
-      </c>
-      <c r="M87" s="4">
-        <f>SUM(M72:M75)</f>
-        <v>5.8999999999999995</v>
-      </c>
-      <c r="P87" s="4">
-        <f>SUM(P72:P75)</f>
-        <v>21.02</v>
-      </c>
-      <c r="S87" s="4">
-        <f>SUM(S72:S75)</f>
-        <v>52.65</v>
-      </c>
-      <c r="V87" s="4">
-        <f>SUM(V72:V75)</f>
-        <v>90.49</v>
-      </c>
-      <c r="Y87" s="4">
-        <f>SUM(Y72:Y75)</f>
-        <v>144.49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B88" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F88" s="4">
-        <f>F86+F87</f>
-        <v>1500000</v>
-      </c>
-      <c r="G88" s="4">
-        <f>G86+G87</f>
-        <v>25000000</v>
-      </c>
-      <c r="I88" s="4">
-        <f>I86+I87</f>
-        <v>1421016.5802484024</v>
-      </c>
-      <c r="J88" s="4">
-        <f>J86+J87</f>
-        <v>23245412.269751597</v>
-      </c>
-      <c r="L88" s="4">
-        <f>L86+L87</f>
-        <v>1338234.0119069477</v>
-      </c>
-      <c r="M88" s="4">
-        <f>M86+M87</f>
-        <v>21446691.755861953</v>
-      </c>
-      <c r="O88" s="4">
-        <f>O86+O87</f>
-        <v>1261074.3620328091</v>
-      </c>
-      <c r="P88" s="4">
-        <f>P86+P87</f>
-        <v>19589297.439903073</v>
-      </c>
-      <c r="R88" s="4">
-        <f>R86+R87</f>
-        <v>1186570.0048549743</v>
-      </c>
-      <c r="S88" s="4">
-        <f>S86+S87</f>
-        <v>17625029.427235983</v>
-      </c>
-      <c r="U88" s="4">
-        <f>U86+U87</f>
-        <v>1095867.5027670106</v>
-      </c>
-      <c r="V88" s="4">
-        <f>V86+V87</f>
-        <v>14901669.858863089</v>
-      </c>
-      <c r="X88" s="4">
-        <f>X86+X87</f>
-        <v>818384.25432780851</v>
-      </c>
-      <c r="Y88" s="4">
-        <f>Y86+Y87</f>
-        <v>3175512.580528968</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="B90" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F90" s="4">
-        <f>F9*F83</f>
-        <v>7500</v>
-      </c>
-      <c r="G90" s="4">
-        <f>G9*G83</f>
-        <v>10000</v>
-      </c>
-      <c r="I90" s="4">
-        <f>I9*I83</f>
-        <v>8854.5756759196938</v>
-      </c>
-      <c r="J90" s="4">
-        <f>J9*J83</f>
-        <v>10232.073854232396</v>
-      </c>
-      <c r="L90" s="4">
-        <f>L9*L83</f>
-        <v>7849.6736135318533</v>
-      </c>
-      <c r="M90" s="4">
-        <f>M9*M83</f>
-        <v>8070.7332977742253</v>
-      </c>
-      <c r="O90" s="4">
-        <f>O9*O83</f>
-        <v>8980.1836563882644</v>
-      </c>
-      <c r="P90" s="4">
-        <f>P9*P83</f>
-        <v>15062.880753481793</v>
-      </c>
-      <c r="R90" s="4">
-        <f>R9*R83</f>
-        <v>12157.479557940311</v>
-      </c>
-      <c r="S90" s="4">
-        <f>S9*S83</f>
-        <v>2754.9622222978528</v>
-      </c>
-      <c r="U90" s="4">
-        <f>U9*U83</f>
-        <v>11117.496404882717</v>
-      </c>
-      <c r="V90" s="4">
-        <f>V9*V83</f>
-        <v>6272.085598102437</v>
-      </c>
-      <c r="X90" s="4">
-        <f>X9*X83</f>
-        <v>8387.5399418662655</v>
-      </c>
-      <c r="Y90" s="4">
-        <f>Y9*Y83</f>
-        <v>1337.0775164643151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="B91" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F91" s="4">
-        <f>F90*$F$14</f>
-        <v>5250</v>
-      </c>
-      <c r="G91" s="4">
-        <f>G90*$F$14</f>
-        <v>7000</v>
-      </c>
-      <c r="I91" s="4">
-        <f>I90*$F$14</f>
-        <v>6198.2029731437851</v>
-      </c>
-      <c r="J91" s="4">
-        <f>J90*$F$14</f>
-        <v>7162.4516979626769</v>
-      </c>
-      <c r="L91" s="4">
-        <f>L90*$F$14</f>
-        <v>5494.7715294722966</v>
-      </c>
-      <c r="M91" s="4">
-        <f>M90*$F$14</f>
-        <v>5649.5133084419576</v>
-      </c>
-      <c r="O91" s="4">
-        <f>O90*$F$14</f>
-        <v>6286.1285594717847</v>
-      </c>
-      <c r="P91" s="4">
-        <f>P90*$F$14</f>
-        <v>10544.016527437254</v>
-      </c>
-      <c r="R91" s="4">
-        <f>R90*$F$14</f>
-        <v>8510.2356905582164</v>
-      </c>
-      <c r="S91" s="4">
-        <f>S90*$F$14</f>
-        <v>1928.4735556084968</v>
-      </c>
-      <c r="U91" s="4">
-        <f>U90*$F$14</f>
-        <v>7782.2474834179011</v>
-      </c>
-      <c r="V91" s="4">
-        <f>V90*$F$14</f>
-        <v>4390.459918671706</v>
-      </c>
-      <c r="X91" s="4">
-        <f>X90*$F$14</f>
-        <v>5871.2779593063851</v>
-      </c>
-      <c r="Y91" s="4">
-        <f>Y90*$F$14</f>
-        <v>935.95426152502046</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="B92" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="F92" s="4">
-        <f>F90*(1-$F$14)</f>
-        <v>2250.0000000000005</v>
-      </c>
-      <c r="G92" s="4">
-        <f>G90*(1-$F$14)</f>
-        <v>3000.0000000000005</v>
-      </c>
-      <c r="I92" s="4">
-        <f>I90*(1-$F$14)</f>
-        <v>2656.3727027759087</v>
-      </c>
-      <c r="J92" s="4">
-        <f>J90*(1-$F$14)</f>
-        <v>3069.6221562697192</v>
-      </c>
-      <c r="L92" s="4">
-        <f>L90*(1-$F$14)</f>
-        <v>2354.9020840595563</v>
-      </c>
-      <c r="M92" s="4">
-        <f>M90*(1-$F$14)</f>
-        <v>2421.2199893322681</v>
-      </c>
-      <c r="O92" s="4">
-        <f>O90*(1-$F$14)</f>
-        <v>2694.0550969164797</v>
-      </c>
-      <c r="P92" s="4">
-        <f>P90*(1-$F$14)</f>
-        <v>4518.8642260445386</v>
-      </c>
-      <c r="R92" s="4">
-        <f>R90*(1-$F$14)</f>
-        <v>3647.2438673820939</v>
-      </c>
-      <c r="S92" s="4">
-        <f>S90*(1-$F$14)</f>
-        <v>826.48866668935591</v>
-      </c>
-      <c r="U92" s="4">
-        <f>U90*(1-$F$14)</f>
-        <v>3335.2489214648153</v>
-      </c>
-      <c r="V92" s="4">
-        <f>V90*(1-$F$14)</f>
-        <v>1881.6256794307315</v>
-      </c>
-      <c r="X92" s="4">
-        <f>X90*(1-$F$14)</f>
-        <v>2516.2619825598799</v>
-      </c>
-      <c r="Y92" s="4">
-        <f>Y90*(1-$F$14)</f>
-        <v>401.12325493929455</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B93" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F93" s="4">
-        <f>F90*$F19</f>
-        <v>2250</v>
-      </c>
-      <c r="G93" s="4">
-        <f>G90*$G19</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Z94">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AA94">
-        <f>SUM(Z$6:Z94)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AB94">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="B95" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F95" s="4">
-        <f>MAX(F13-F25, 0)*F104</f>
-        <v>741757.5</v>
-      </c>
-      <c r="G95" s="4">
-        <f>MAX(G13-G25, 0)*G104</f>
-        <v>19970010</v>
-      </c>
-      <c r="I95" s="4">
-        <f>MAX(I13-I25, 0)*I104</f>
-        <v>697350.12103057199</v>
-      </c>
-      <c r="J95" s="4">
-        <f>MAX(J13-J25, 0)*J104</f>
-        <v>18564257.684882641</v>
-      </c>
-      <c r="L95" s="4">
-        <f>MAX(L13-L25, 0)*L104</f>
-        <v>585369.23701022286</v>
-      </c>
-      <c r="M95" s="4">
-        <f>MAX(M13-M25, 0)*M104</f>
-        <v>17125702.279067256</v>
-      </c>
-      <c r="O95" s="4">
-        <f>MAX(O13-O25, 0)*O104</f>
-        <v>481800.1506859982</v>
-      </c>
-      <c r="P95" s="4">
-        <f>MAX(P13-P25, 0)*P104</f>
-        <v>15631637.942930376</v>
-      </c>
-      <c r="R95" s="4">
-        <f>MAX(R13-R25, 0)*R104</f>
-        <v>383702.35403091379</v>
-      </c>
-      <c r="S95" s="4">
-        <f>MAX(S13-S25, 0)*S104</f>
-        <v>14140812.522895874</v>
-      </c>
-      <c r="U95" s="4">
-        <f>MAX(U13-U25, 0)*U104</f>
-        <v>267600.05212584668</v>
-      </c>
-      <c r="V95" s="4">
-        <f>MAX(V13-V25, 0)*V104</f>
+      <c r="F122" s="4">
+        <f>MIN(F120,G69)</f>
+        <v>0</v>
+      </c>
+      <c r="I122" s="4">
+        <f>MIN(I120,J69)</f>
+        <v>0</v>
+      </c>
+      <c r="L122" s="4">
+        <f>MIN(L120,M69)</f>
+        <v>0</v>
+      </c>
+      <c r="O122" s="4">
+        <f>MIN(O120,P69)</f>
+        <v>0</v>
+      </c>
+      <c r="R122" s="4">
+        <f>MIN(R120,S69)</f>
+        <v>0</v>
+      </c>
+      <c r="U122" s="4">
+        <f>MIN(U120,V69)</f>
+        <v>30.146330393199996</v>
+      </c>
+      <c r="X122" s="4">
+        <f>MIN(X120,Y69)</f>
+        <v>53.914123679999996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B123" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F123" s="4">
+        <f>F132*F121</f>
+        <v>71626.673097793318</v>
+      </c>
+      <c r="G123" s="4">
+        <f>G132*F121</f>
+        <v>1928373.3269022068</v>
+      </c>
+      <c r="I123" s="4">
+        <f>I132*I121</f>
+        <v>74218.505667725345</v>
+      </c>
+      <c r="J123" s="4">
+        <f>J132*I121</f>
+        <v>1975781.4943322747</v>
+      </c>
+      <c r="L123" s="4">
+        <f>L132*L121</f>
+        <v>69737.682949920025</v>
+      </c>
+      <c r="M123" s="4">
+        <f>M132*L121</f>
+        <v>2040262.31705008</v>
+      </c>
+      <c r="O123" s="4">
+        <f>O132*O121</f>
+        <v>66080.145455604987</v>
+      </c>
+      <c r="P123" s="4">
+        <f>P132*O121</f>
+        <v>2143919.8545443951</v>
+      </c>
+      <c r="R123" s="4">
+        <f>R132*R121</f>
+        <v>79252.702885199687</v>
+      </c>
+      <c r="S123" s="4">
+        <f>S132*R121</f>
+        <v>2920747.2971148002</v>
+      </c>
+      <c r="U123" s="4">
+        <f>U132*U121</f>
+        <v>267600.05212584679</v>
+      </c>
+      <c r="V123" s="4">
+        <f>V132*U121</f>
         <v>11918480.929873837</v>
       </c>
-      <c r="X95" s="4">
-        <f>MAX(X13-X25, 0)*X104</f>
-        <v>193429.69008556352</v>
-      </c>
-      <c r="Y95" s="4">
-        <f>MAX(Y13-Y25, 0)*Y104</f>
-        <v>2523718.9695364693</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="E97" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="8"/>
-      <c r="X97" s="8"/>
-      <c r="Y97" s="8"/>
-    </row>
-    <row r="98" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="B98" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F98" s="4">
-        <f>MIN(F109,F31)</f>
-        <v>2000000</v>
-      </c>
-      <c r="I98" s="4">
-        <f>MIN(I109,I31)</f>
-        <v>2050000</v>
-      </c>
-      <c r="L98" s="4">
-        <f>MIN(L109,L31)</f>
-        <v>2110000</v>
-      </c>
-      <c r="O98" s="4">
-        <f>MIN(O109,O31)</f>
-        <v>2210000</v>
-      </c>
-      <c r="R98" s="4">
-        <f>MIN(R109,R31)</f>
-        <v>3000000</v>
-      </c>
-      <c r="U98" s="4">
-        <f>MIN(U109,U31)</f>
-        <v>12186080.981999684</v>
-      </c>
-      <c r="X98" s="4">
-        <f>MIN(X109,X31)</f>
-        <v>1776649.2395067073</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B99" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F99" s="4">
-        <f>F31-F98</f>
-        <v>0</v>
-      </c>
-      <c r="I99" s="4">
-        <f>I31-I98</f>
-        <v>0</v>
-      </c>
-      <c r="L99" s="4">
-        <f>L31-L98</f>
-        <v>0</v>
-      </c>
-      <c r="O99" s="4">
-        <f>O31-O98</f>
-        <v>0</v>
-      </c>
-      <c r="R99" s="4">
-        <f>R31-R98</f>
-        <v>0</v>
-      </c>
-      <c r="U99" s="4">
-        <f>U31-U98</f>
-        <v>12813919.018000316</v>
-      </c>
-      <c r="X99" s="4">
-        <f>X31-X98</f>
-        <v>743350.76049329271</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B100" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="F100" s="4">
-        <f>MIN(F31,F98)</f>
-        <v>2000000</v>
-      </c>
-      <c r="I100" s="4">
-        <f>MIN(I31,I98)</f>
-        <v>2050000</v>
-      </c>
-      <c r="L100" s="4">
-        <f>MIN(L31,L98)</f>
-        <v>2110000</v>
-      </c>
-      <c r="O100" s="4">
-        <f>MIN(O31,O98)</f>
-        <v>2210000</v>
-      </c>
-      <c r="R100" s="4">
-        <f>MIN(R31,R98)</f>
-        <v>3000000</v>
-      </c>
-      <c r="U100" s="4">
-        <f>MIN(U31,U98)</f>
-        <v>12186080.981999684</v>
-      </c>
-      <c r="X100" s="4">
-        <f>MIN(X31,X98)</f>
-        <v>1776649.2395067073</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B101" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F101" s="4">
-        <f>MIN(F99,G58)</f>
-        <v>0</v>
-      </c>
-      <c r="I101" s="4">
-        <f>MIN(I99,J58)</f>
-        <v>0</v>
-      </c>
-      <c r="L101" s="4">
-        <f>MIN(L99,M58)</f>
-        <v>0</v>
-      </c>
-      <c r="O101" s="4">
-        <f>MIN(O99,P58)</f>
-        <v>0</v>
-      </c>
-      <c r="R101" s="4">
-        <f>MIN(R99,S58)</f>
-        <v>0</v>
-      </c>
-      <c r="U101" s="4">
-        <f>MIN(U99,V58)</f>
-        <v>21.949999999999996</v>
-      </c>
-      <c r="X101" s="4">
-        <f>MIN(X99,Y58)</f>
-        <v>49.359999999999992</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B102" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F102" s="4">
-        <f>F110*F100</f>
-        <v>71626.673097793318</v>
-      </c>
-      <c r="G102" s="4">
-        <f>G110*F100</f>
-        <v>1928373.3269022068</v>
-      </c>
-      <c r="I102" s="4">
-        <f>I110*I100</f>
-        <v>74218.505667725345</v>
-      </c>
-      <c r="J102" s="4">
-        <f>J110*I100</f>
-        <v>1975781.4943322747</v>
-      </c>
-      <c r="L102" s="4">
-        <f>L110*L100</f>
-        <v>69737.68294992001</v>
-      </c>
-      <c r="M102" s="4">
-        <f>M110*L100</f>
-        <v>2040262.31705008</v>
-      </c>
-      <c r="O102" s="4">
-        <f>O110*O100</f>
-        <v>66080.145455604972</v>
-      </c>
-      <c r="P102" s="4">
-        <f>P110*O100</f>
-        <v>2143919.8545443951</v>
-      </c>
-      <c r="R102" s="4">
-        <f>R110*R100</f>
-        <v>79252.702885199687</v>
-      </c>
-      <c r="S102" s="4">
-        <f>S110*R100</f>
-        <v>2920747.2971148002</v>
-      </c>
-      <c r="U102" s="4">
-        <f>U110*U100</f>
-        <v>267600.05212584668</v>
-      </c>
-      <c r="V102" s="4">
-        <f>V110*U100</f>
-        <v>11918480.929873837</v>
-      </c>
-      <c r="X102" s="4">
-        <f>X110*X100</f>
-        <v>193429.69008556352</v>
-      </c>
-      <c r="Y102" s="4">
-        <f>Y110*X100</f>
+      <c r="X123" s="4">
+        <f>X132*X121</f>
+        <v>193429.6900855636</v>
+      </c>
+      <c r="Y123" s="4">
+        <f>Y132*X121</f>
         <v>1583219.5494211437</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="E103" s="15" t="s">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B124" s="46"/>
+    </row>
+    <row r="125" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="E125" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="8"/>
-      <c r="X103" s="8"/>
-      <c r="Y103" s="8"/>
-    </row>
-    <row r="104" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B104" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E104" s="10" t="s">
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+      <c r="R125" s="8"/>
+      <c r="S125" s="8"/>
+      <c r="U125" s="8"/>
+      <c r="V125" s="8"/>
+      <c r="X125" s="8"/>
+      <c r="Y125" s="8"/>
+    </row>
+    <row r="126" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A126" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B126" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E126" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F104" s="4">
-        <f>MAX(F83-$F20,0)</f>
+      <c r="F126" s="4">
+        <f>MAX(F104-$F20,0)</f>
         <v>149.85</v>
       </c>
-      <c r="G104" s="4">
-        <f>MAX(G83-$G20,0)</f>
+      <c r="G126" s="4">
+        <f>MAX(G104-$G20,0)</f>
         <v>99.9</v>
       </c>
-      <c r="I104" s="4">
-        <f>MAX(I83-$F20,0)</f>
+      <c r="I126" s="4">
+        <f>MAX(I104-$F20,0)</f>
         <v>142.66573670838216</v>
       </c>
-      <c r="J104" s="4">
-        <f>MAX(J83-$G20,0)</f>
+      <c r="J126" s="4">
+        <f>MAX(J104-$G20,0)</f>
         <v>92.918853220294508</v>
       </c>
-      <c r="L104" s="4">
-        <f>MAX(L83-$F20,0)</f>
-        <v>135.18920023330782</v>
-      </c>
-      <c r="M104" s="4">
-        <f>MAX(M83-$G20,0)</f>
+      <c r="L126" s="4">
+        <f>MAX(L104-$F20,0)</f>
+        <v>135.18920023330784</v>
+      </c>
+      <c r="M126" s="4">
+        <f>MAX(M104-$G20,0)</f>
         <v>85.758864869938577</v>
       </c>
-      <c r="O104" s="4">
-        <f>MAX(O83-$F20,0)</f>
-        <v>128.13833794840377</v>
-      </c>
-      <c r="P104" s="4">
-        <f>MAX(P83-$G20,0)</f>
+      <c r="O126" s="4">
+        <f>MAX(O104-$F20,0)</f>
+        <v>128.1383379484038</v>
+      </c>
+      <c r="P126" s="4">
+        <f>MAX(P104-$G20,0)</f>
         <v>78.352503924384351</v>
       </c>
-      <c r="R104" s="4">
-        <f>MAX(R83-$F20,0)</f>
-        <v>121.4247955794031</v>
-      </c>
-      <c r="S104" s="4">
-        <f>MAX(S83-$G20,0)</f>
+      <c r="R126" s="4">
+        <f>MAX(R104-$F20,0)</f>
+        <v>121.42479557940312</v>
+      </c>
+      <c r="S126" s="4">
+        <f>MAX(S104-$G20,0)</f>
         <v>70.54005698199623</v>
       </c>
-      <c r="U104" s="4">
-        <f>MAX(U83-$F20,0)</f>
-        <v>113.29384086615016</v>
-      </c>
-      <c r="V104" s="4">
-        <f>MAX(V83-$G20,0)</f>
+      <c r="U126" s="4">
+        <f>MAX(U104-$F20,0)</f>
+        <v>113.29384086615021</v>
+      </c>
+      <c r="V126" s="4">
+        <f>MAX(V104-$G20,0)</f>
         <v>59.634148553356539</v>
       </c>
-      <c r="X104" s="4">
-        <f>MAX(X83-$F20,0)</f>
-        <v>85.437142263941482</v>
-      </c>
-      <c r="Y104" s="4">
-        <f>MAX(Y83-$G20,0)</f>
+      <c r="X126" s="4">
+        <f>MAX(X104-$F20,0)</f>
+        <v>85.437142263941524</v>
+      </c>
+      <c r="Y126" s="4">
+        <f>MAX(Y104-$G20,0)</f>
         <v>12.63407158537443</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B105" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F105" s="4">
-        <f>F104/$F$21</f>
+    <row r="127" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F127" s="4">
+        <f>F126/$F$21</f>
         <v>1</v>
       </c>
-      <c r="G105" s="4">
-        <f>G104/$G$21</f>
+      <c r="G127" s="4">
+        <f>G126/$G$21</f>
         <v>1</v>
       </c>
-      <c r="I105" s="4">
-        <f>I104/$F$21</f>
+      <c r="I127" s="4">
+        <f>I126/$F$21</f>
         <v>0.95205696835757203</v>
       </c>
-      <c r="J105" s="4">
-        <f>J104/$G$21</f>
+      <c r="J127" s="4">
+        <f>J126/$G$21</f>
         <v>0.93011865085379886</v>
       </c>
-      <c r="L105" s="4">
-        <f>L104/$F$21</f>
-        <v>0.90216349838710586</v>
-      </c>
-      <c r="M105" s="4">
-        <f>M104/$G$21</f>
+      <c r="L127" s="4">
+        <f>L126/$F$21</f>
+        <v>0.90216349838710608</v>
+      </c>
+      <c r="M127" s="4">
+        <f>M126/$G$21</f>
         <v>0.85844709579518086</v>
       </c>
-      <c r="O105" s="4">
-        <f>O104/$F$21</f>
-        <v>0.85511069701971154</v>
-      </c>
-      <c r="P105" s="4">
-        <f>P104/$G$21</f>
+      <c r="O127" s="4">
+        <f>O126/$F$21</f>
+        <v>0.85511069701971176</v>
+      </c>
+      <c r="P127" s="4">
+        <f>P126/$G$21</f>
         <v>0.78430934859243595</v>
       </c>
-      <c r="R105" s="4">
-        <f>R104/$F$21</f>
-        <v>0.81030894614216287</v>
-      </c>
-      <c r="S105" s="4">
-        <f>S104/$G$21</f>
+      <c r="R127" s="4">
+        <f>R126/$F$21</f>
+        <v>0.81030894614216298</v>
+      </c>
+      <c r="S127" s="4">
+        <f>S126/$G$21</f>
         <v>0.70610667649645875</v>
       </c>
-      <c r="U105" s="4">
-        <f>U104/$F$21</f>
-        <v>0.75604832076176287</v>
-      </c>
-      <c r="V105" s="4">
-        <f>V104/$G$21</f>
+      <c r="U127" s="4">
+        <f>U126/$F$21</f>
+        <v>0.7560483207617632</v>
+      </c>
+      <c r="V127" s="4">
+        <f>V126/$G$21</f>
         <v>0.59693842395752283</v>
       </c>
-      <c r="X105" s="4">
-        <f>X104/$F$21</f>
-        <v>0.57015109952580234</v>
-      </c>
-      <c r="Y105" s="4">
-        <f>Y104/$G$21</f>
+      <c r="X127" s="4">
+        <f>X126/$F$21</f>
+        <v>0.57015109952580267</v>
+      </c>
+      <c r="Y127" s="4">
+        <f>Y126/$G$21</f>
         <v>0.12646718303678109</v>
       </c>
-      <c r="Z105">
+      <c r="Z127">
         <v>0.5</v>
-      </c>
-      <c r="AA105">
-        <f>SUM(Z$6:Z105)</f>
-        <v>1.6</v>
-      </c>
-      <c r="AB105">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="B106" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F106" s="4">
-        <f>MAX(MIN(F105/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G106" s="4">
-        <f>MAX(MIN((G105-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="I106" s="4">
-        <f>MAX(MIN(I105/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="J106" s="4">
-        <f>MAX(MIN((J105-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="L106" s="4">
-        <f>MAX(MIN(L105/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="M106" s="4">
-        <f>MAX(MIN((M105-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="O106" s="4">
-        <f>MAX(MIN(O105/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="P106" s="4">
-        <f>MAX(MIN((P105-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="R106" s="4">
-        <f>MAX(MIN(R105/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="S106" s="4">
-        <f>MAX(MIN((S105-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="U106" s="4">
-        <f>MAX(MIN(U105/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V106" s="4">
-        <f>MAX(MIN((V105-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="X106" s="4">
-        <f>MAX(MIN(X105/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y106" s="4">
-        <f>MAX(MIN((Y105-$F$15)/$F$16, 1), 0)</f>
-        <v>0.62733591518390541</v>
-      </c>
-      <c r="Z106">
-        <v>0.3</v>
-      </c>
-      <c r="AA106">
-        <f>SUM(Z$6:Z106)</f>
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="AB106">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Z107">
-        <v>0.2</v>
-      </c>
-      <c r="AA107">
-        <f>SUM(Z$6:Z107)</f>
-        <v>2.1</v>
-      </c>
-      <c r="AB107">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="B108" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F108" s="4">
-        <f>F95*F106</f>
-        <v>741757.5</v>
-      </c>
-      <c r="G108" s="4">
-        <f>G95*G106</f>
-        <v>19970010</v>
-      </c>
-      <c r="I108" s="4">
-        <f>I95*I106</f>
-        <v>697350.12103057199</v>
-      </c>
-      <c r="J108" s="4">
-        <f>J95*J106</f>
-        <v>18564257.684882641</v>
-      </c>
-      <c r="L108" s="4">
-        <f>L95*L106</f>
-        <v>585369.23701022286</v>
-      </c>
-      <c r="M108" s="4">
-        <f>M95*M106</f>
-        <v>17125702.279067256</v>
-      </c>
-      <c r="O108" s="4">
-        <f>O95*O106</f>
-        <v>481800.1506859982</v>
-      </c>
-      <c r="P108" s="4">
-        <f>P95*P106</f>
-        <v>15631637.942930376</v>
-      </c>
-      <c r="R108" s="4">
-        <f>R95*R106</f>
-        <v>383702.35403091379</v>
-      </c>
-      <c r="S108" s="4">
-        <f>S95*S106</f>
-        <v>14140812.522895874</v>
-      </c>
-      <c r="U108" s="4">
-        <f>U95*U106</f>
-        <v>267600.05212584668</v>
-      </c>
-      <c r="V108" s="4">
-        <f>V95*V106</f>
-        <v>11918480.929873837</v>
-      </c>
-      <c r="X108" s="4">
-        <f>X95*X106</f>
-        <v>193429.69008556352</v>
-      </c>
-      <c r="Y108" s="4">
-        <f>Y95*Y106</f>
-        <v>1583219.5494211437</v>
-      </c>
-      <c r="Z108">
-        <v>0.125</v>
-      </c>
-      <c r="AA108">
-        <f>SUM(Z$6:Z126)</f>
-        <v>2.2250000000000001</v>
-      </c>
-      <c r="AB108">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="B109" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F109" s="4">
-        <f>F108+G108</f>
-        <v>20711767.5</v>
-      </c>
-      <c r="G109" s="4">
-        <f>F109</f>
-        <v>20711767.5</v>
-      </c>
-      <c r="I109" s="4">
-        <f>I108+J108</f>
-        <v>19261607.805913214</v>
-      </c>
-      <c r="J109" s="4">
-        <f>I109</f>
-        <v>19261607.805913214</v>
-      </c>
-      <c r="L109" s="4">
-        <f>L108+M108</f>
-        <v>17711071.516077477</v>
-      </c>
-      <c r="M109" s="4">
-        <f>L109</f>
-        <v>17711071.516077477</v>
-      </c>
-      <c r="O109" s="4">
-        <f>O108+P108</f>
-        <v>16113438.093616374</v>
-      </c>
-      <c r="P109" s="4">
-        <f>O109</f>
-        <v>16113438.093616374</v>
-      </c>
-      <c r="R109" s="4">
-        <f>R108+S108</f>
-        <v>14524514.876926789</v>
-      </c>
-      <c r="S109" s="4">
-        <f>R109</f>
-        <v>14524514.876926789</v>
-      </c>
-      <c r="U109" s="4">
-        <f>U108+V108</f>
-        <v>12186080.981999684</v>
-      </c>
-      <c r="V109" s="4">
-        <f>U109</f>
-        <v>12186080.981999684</v>
-      </c>
-      <c r="X109" s="4">
-        <f>X108+Y108</f>
-        <v>1776649.2395067073</v>
-      </c>
-      <c r="Y109" s="4">
-        <f>X109</f>
-        <v>1776649.2395067073</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B110" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F110" s="4">
-        <f>F108/F109</f>
-        <v>3.5813336548896658E-2</v>
-      </c>
-      <c r="G110" s="4">
-        <f>G108/G109</f>
-        <v>0.96418666345110338</v>
-      </c>
-      <c r="I110" s="4">
-        <f>I108/I109</f>
-        <v>3.6204149106207485E-2</v>
-      </c>
-      <c r="J110" s="4">
-        <f>J108/J109</f>
-        <v>0.96379585089379249</v>
-      </c>
-      <c r="L110" s="4">
-        <f>L108/L109</f>
-        <v>3.3051034573421803E-2</v>
-      </c>
-      <c r="M110" s="4">
-        <f>M108/M109</f>
-        <v>0.96694896542657827</v>
-      </c>
-      <c r="O110" s="4">
-        <f>O108/O109</f>
-        <v>2.9900518305703606E-2</v>
-      </c>
-      <c r="P110" s="4">
-        <f>P108/P109</f>
-        <v>0.97009948169429638</v>
-      </c>
-      <c r="R110" s="4">
-        <f>R108/R109</f>
-        <v>2.6417567628399894E-2</v>
-      </c>
-      <c r="S110" s="4">
-        <f>S108/S109</f>
-        <v>0.97358243237160003</v>
-      </c>
-      <c r="U110" s="4">
-        <f>U108/U109</f>
-        <v>2.1959484145979691E-2</v>
-      </c>
-      <c r="V110" s="4">
-        <f>V108/V109</f>
-        <v>0.9780405158540203</v>
-      </c>
-      <c r="X110" s="4">
-        <f>X108/X109</f>
-        <v>0.10887331375509435</v>
-      </c>
-      <c r="Y110" s="4">
-        <f>Y108/Y109</f>
-        <v>0.89112668624490565</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="E112" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-    </row>
-    <row r="113" spans="5:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="E113" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="114" spans="5:28" x14ac:dyDescent="0.2">
-      <c r="E114" s="36"/>
-    </row>
-    <row r="127" spans="5:28" x14ac:dyDescent="0.2">
-      <c r="Z127">
-        <v>0.1225</v>
       </c>
       <c r="AA127">
         <f>SUM(Z$6:Z127)</f>
-        <v>2.3475000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AB127">
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B128" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F128" s="4">
+        <f>MAX(MIN(F127/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G128" s="4">
+        <f>MAX(MIN((G127-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I128" s="4">
+        <f>MAX(MIN(I127/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="J128" s="4">
+        <f>MAX(MIN((J127-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L128" s="4">
+        <f>MAX(MIN(L127/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M128" s="4">
+        <f>MAX(MIN((M127-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="O128" s="4">
+        <f>MAX(MIN(O127/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="P128" s="4">
+        <f>MAX(MIN((P127-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="R128" s="4">
+        <f>MAX(MIN(R127/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="S128" s="4">
+        <f>MAX(MIN((S127-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="U128" s="4">
+        <f>MAX(MIN(U127/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="V128" s="4">
+        <f>MAX(MIN((V127-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="X128" s="4">
+        <f>MAX(MIN(X127/$F$16, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y128" s="4">
+        <f>MAX(MIN((Y127-$F$15)/$F$16, 1), 0)</f>
+        <v>0.62733591518390541</v>
+      </c>
       <c r="Z128">
-        <v>0.12239999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AA128">
         <f>SUM(Z$6:Z128)</f>
-        <v>2.4699</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="AB128">
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="26:28" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z129">
-        <v>0.12230000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AA129">
         <f>SUM(Z$6:Z129)</f>
-        <v>2.5922000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AB129">
         <v>20</v>
       </c>
     </row>
+    <row r="130" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B130" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F130" s="4">
+        <f>F116*F128</f>
+        <v>741757.5</v>
+      </c>
+      <c r="G130" s="4">
+        <f>G116*G128</f>
+        <v>19970010</v>
+      </c>
+      <c r="I130" s="4">
+        <f>I116*I128</f>
+        <v>697350.12103057199</v>
+      </c>
+      <c r="J130" s="4">
+        <f>J116*J128</f>
+        <v>18564257.684882641</v>
+      </c>
+      <c r="L130" s="4">
+        <f>L116*L128</f>
+        <v>585369.23701022298</v>
+      </c>
+      <c r="M130" s="4">
+        <f>M116*M128</f>
+        <v>17125702.279067256</v>
+      </c>
+      <c r="O130" s="4">
+        <f>O116*O128</f>
+        <v>481800.15068599832</v>
+      </c>
+      <c r="P130" s="4">
+        <f>P116*P128</f>
+        <v>15631637.942930376</v>
+      </c>
+      <c r="R130" s="4">
+        <f>R116*R128</f>
+        <v>383702.35403091385</v>
+      </c>
+      <c r="S130" s="4">
+        <f>S116*S128</f>
+        <v>14140812.522895874</v>
+      </c>
+      <c r="U130" s="4">
+        <f>U116*U128</f>
+        <v>267600.05212584679</v>
+      </c>
+      <c r="V130" s="4">
+        <f>V116*V128</f>
+        <v>11918480.929873837</v>
+      </c>
+      <c r="X130" s="4">
+        <f>X116*X128</f>
+        <v>193429.6900855636</v>
+      </c>
+      <c r="Y130" s="4">
+        <f>Y116*Y128</f>
+        <v>1583219.5494211437</v>
+      </c>
+      <c r="Z130">
+        <v>0.125</v>
+      </c>
+      <c r="AA130">
+        <f>SUM(Z$6:Z148)</f>
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="AB130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B131" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F131" s="4">
+        <f>F130+G130</f>
+        <v>20711767.5</v>
+      </c>
+      <c r="G131" s="4">
+        <f>F131</f>
+        <v>20711767.5</v>
+      </c>
+      <c r="I131" s="4">
+        <f>I130+J130</f>
+        <v>19261607.805913214</v>
+      </c>
+      <c r="J131" s="4">
+        <f>I131</f>
+        <v>19261607.805913214</v>
+      </c>
+      <c r="L131" s="4">
+        <f>L130+M130</f>
+        <v>17711071.516077477</v>
+      </c>
+      <c r="M131" s="4">
+        <f>L131</f>
+        <v>17711071.516077477</v>
+      </c>
+      <c r="O131" s="4">
+        <f>O130+P130</f>
+        <v>16113438.093616374</v>
+      </c>
+      <c r="P131" s="4">
+        <f>O131</f>
+        <v>16113438.093616374</v>
+      </c>
+      <c r="R131" s="4">
+        <f>R130+S130</f>
+        <v>14524514.876926789</v>
+      </c>
+      <c r="S131" s="4">
+        <f>R131</f>
+        <v>14524514.876926789</v>
+      </c>
+      <c r="U131" s="4">
+        <f>U130+V130</f>
+        <v>12186080.981999684</v>
+      </c>
+      <c r="V131" s="4">
+        <f>U131</f>
+        <v>12186080.981999684</v>
+      </c>
+      <c r="X131" s="4">
+        <f>X130+Y130</f>
+        <v>1776649.2395067073</v>
+      </c>
+      <c r="Y131" s="4">
+        <f>X131</f>
+        <v>1776649.2395067073</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B132" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F132" s="4">
+        <f>F130/F131</f>
+        <v>3.5813336548896658E-2</v>
+      </c>
+      <c r="G132" s="4">
+        <f>G130/G131</f>
+        <v>0.96418666345110338</v>
+      </c>
+      <c r="I132" s="4">
+        <f>I130/I131</f>
+        <v>3.6204149106207485E-2</v>
+      </c>
+      <c r="J132" s="4">
+        <f>J130/J131</f>
+        <v>0.96379585089379249</v>
+      </c>
+      <c r="L132" s="4">
+        <f>L130/L131</f>
+        <v>3.305103457342181E-2</v>
+      </c>
+      <c r="M132" s="4">
+        <f>M130/M131</f>
+        <v>0.96694896542657827</v>
+      </c>
+      <c r="O132" s="4">
+        <f>O130/O131</f>
+        <v>2.9900518305703613E-2</v>
+      </c>
+      <c r="P132" s="4">
+        <f>P130/P131</f>
+        <v>0.97009948169429638</v>
+      </c>
+      <c r="R132" s="4">
+        <f>R130/R131</f>
+        <v>2.6417567628399898E-2</v>
+      </c>
+      <c r="S132" s="4">
+        <f>S130/S131</f>
+        <v>0.97358243237160003</v>
+      </c>
+      <c r="U132" s="4">
+        <f>U130/U131</f>
+        <v>2.1959484145979698E-2</v>
+      </c>
+      <c r="V132" s="4">
+        <f>V130/V131</f>
+        <v>0.9780405158540203</v>
+      </c>
+      <c r="X132" s="4">
+        <f>X130/X131</f>
+        <v>0.1088733137550944</v>
+      </c>
+      <c r="Y132" s="4">
+        <f>Y130/Y131</f>
+        <v>0.89112668624490565</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="E134" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B135" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F135" s="4">
+        <f>(F103 - F123 - F111)*$F$28</f>
+        <v>2841.7466538044137</v>
+      </c>
+      <c r="G135" s="4">
+        <f>(G103 - G123 - G111)*$G$28</f>
+        <v>46123.25334619559</v>
+      </c>
+      <c r="I135" s="4">
+        <f>(I103 - I123 - I111)*$F$28</f>
+        <v>2675.8869978095149</v>
+      </c>
+      <c r="J135" s="4">
+        <f>(J103 - J123 - J111)*$G$28</f>
+        <v>42518.79570313017</v>
+      </c>
+      <c r="L135" s="4">
+        <f>(L103 - L123 - L111)*$F$28</f>
+        <v>2521.2933106869928</v>
+      </c>
+      <c r="M135" s="4">
+        <f>(M103 - M123 - M111)*$G$28</f>
+        <v>38796.705611028199</v>
+      </c>
+      <c r="O135" s="4">
+        <f>(O103 - O123 - O111)*$F$28</f>
+        <v>2372.0280658416323</v>
+      </c>
+      <c r="P135" s="4">
+        <f>(P103 - P123 - P111)*$G$28</f>
+        <v>34860.587369210392</v>
+      </c>
+      <c r="R135" s="4">
+        <f>(R103 - R123 - R111)*$F$28</f>
+        <v>2190.3196448236695</v>
+      </c>
+      <c r="S135" s="4">
+        <f>(S103 - S123 - S111)*$G$28</f>
+        <v>29402.94903579777</v>
+      </c>
+      <c r="U135" s="4">
+        <f>(U103 - U123 - U111)*$F$28</f>
+        <v>1634.2999084725632</v>
+      </c>
+      <c r="V135" s="4">
+        <f>(V103 - V123 - V111)*$G$28</f>
+        <v>5953.652706782299</v>
+      </c>
+      <c r="X135" s="4">
+        <f>(X103 - X123 - X111)*$F$28</f>
+        <v>1233.1340486007582</v>
+      </c>
+      <c r="Y135" s="4">
+        <f>(Y103 - Y123 - Y111)*$G$28</f>
+        <v>3181.6229271827196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="B136" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F136" s="4">
+        <f>F123*$F19</f>
+        <v>21488.001929337996</v>
+      </c>
+      <c r="G136" s="4">
+        <f>(G123+F122)*$G19</f>
+        <v>482093.33172555169</v>
+      </c>
+      <c r="I136" s="4">
+        <f>I123*$F19</f>
+        <v>22265.551700317603</v>
+      </c>
+      <c r="J136" s="4">
+        <f>(J123+I122)*$G19</f>
+        <v>493945.37358306866</v>
+      </c>
+      <c r="L136" s="4">
+        <f>L123*$F19</f>
+        <v>20921.304884976005</v>
+      </c>
+      <c r="M136" s="4">
+        <f>(M123+L122)*$G19</f>
+        <v>510065.57926252001</v>
+      </c>
+      <c r="O136" s="4">
+        <f>O123*$F19</f>
+        <v>19824.043636681494</v>
+      </c>
+      <c r="P136" s="4">
+        <f>(P123+O122)*$G19</f>
+        <v>535979.96363609878</v>
+      </c>
+      <c r="R136" s="4">
+        <f>R123*$F19</f>
+        <v>23775.810865559906</v>
+      </c>
+      <c r="S136" s="4">
+        <f>(S123+R122)*$G19</f>
+        <v>730186.82427870005</v>
+      </c>
+      <c r="U136" s="4">
+        <f>U123*$F19</f>
+        <v>80280.015637754041</v>
+      </c>
+      <c r="V136" s="4">
+        <f>(V123+U122)*$G19</f>
+        <v>2979627.7690510578</v>
+      </c>
+      <c r="X136" s="4">
+        <f>X123*$F19</f>
+        <v>58028.907025669083</v>
+      </c>
+      <c r="Y136" s="4">
+        <f>(Y123+X122)*$G19</f>
+        <v>395818.36588620592</v>
+      </c>
+    </row>
+    <row r="149" spans="26:28" x14ac:dyDescent="0.2">
+      <c r="Z149">
+        <v>0.1225</v>
+      </c>
+      <c r="AA149">
+        <f>SUM(Z$6:Z149)</f>
+        <v>2.3475000000000001</v>
+      </c>
+      <c r="AB149">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="26:28" x14ac:dyDescent="0.2">
+      <c r="Z150">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="AA150">
+        <f>SUM(Z$6:Z150)</f>
+        <v>2.4699</v>
+      </c>
+      <c r="AB150">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="26:28" x14ac:dyDescent="0.2">
+      <c r="Z151">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="AA151">
+        <f>SUM(Z$6:Z151)</f>
+        <v>2.5922000000000001</v>
+      </c>
+      <c r="AB151">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
+  <mergeCells count="36">
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="B83:B86"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A78:A81"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="D67:D70"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="R5:S5"/>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2B1069-CC0F-1944-82BF-4379703100FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F102C4-5E23-194D-A289-C3FA26E1E7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="760" windowWidth="33680" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="280" yWindow="760" windowWidth="33680" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,9 +457,6 @@
     <t>(percentage of forest stock available out of full stock not in dead storage ) carbon_stock_factor</t>
   </si>
   <si>
-    <t xml:space="preserve">dead storage (minimum fraction of original stock that must remain on the land to allow it to remain that land use type). Note that sequestration factors dcline linearly below the </t>
-  </si>
-  <si>
     <t>sequestration adjustment threshold--below this carbon stock depletion level, sequestration factors will start to decline</t>
   </si>
   <si>
@@ -522,36 +519,9 @@
     <t>arr_area</t>
   </si>
   <si>
-    <t>arr_conversion_away_total</t>
-  </si>
-  <si>
-    <t>arr_conversion_away_new_forest_no_protection</t>
-  </si>
-  <si>
-    <t>arr_conversion_away_new_forest</t>
-  </si>
-  <si>
-    <t>arr_conversion_into</t>
-  </si>
-  <si>
     <t>arr_area_remaining_from_orig_after_conversion_away</t>
   </si>
   <si>
-    <t>frac_biomass_from_conversion_available_for_use</t>
-  </si>
-  <si>
-    <t>frac_biomass_dead_storage</t>
-  </si>
-  <si>
-    <t>frac_biomass_buffer</t>
-  </si>
-  <si>
-    <t>frac_biomass_adjustment_threshold</t>
-  </si>
-  <si>
-    <t>arr_biomass_factor_stst_storage</t>
-  </si>
-  <si>
     <t>arr_biomass_factor_min_reqd</t>
   </si>
   <si>
@@ -613,9 +583,6 @@
   </si>
   <si>
     <t>other loss</t>
-  </si>
-  <si>
-    <t>arr_biomass_bg_to_ag_ratio</t>
   </si>
   <si>
     <t>ratio of below ground biomass to above ground</t>
@@ -830,6 +797,39 @@
   </si>
   <si>
     <t>total starting bg stock</t>
+  </si>
+  <si>
+    <t>vec_area_conversion_away_young_forest</t>
+  </si>
+  <si>
+    <t>arr_area_conversion_into</t>
+  </si>
+  <si>
+    <t>vec_area_conversion_away_young_forest_no_protection</t>
+  </si>
+  <si>
+    <t>arr_area_conversion_away_total</t>
+  </si>
+  <si>
+    <t>vec_frac_biomass_from_conversion_available_for_use</t>
+  </si>
+  <si>
+    <t>vec_frac_biomass_dead_storage</t>
+  </si>
+  <si>
+    <t>vec_frac_biomass_buffer</t>
+  </si>
+  <si>
+    <t>vec_frac_biomass_adjustment_threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dead storage (minimum fraction of original stock that must remain on the land to allow it to remain that land use type). </t>
+  </si>
+  <si>
+    <t>arr_biomass_c_ag_factor_stst_storage</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_bg_to_ag_ratio</t>
   </si>
 </sst>
 </file>
@@ -885,7 +885,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -958,6 +958,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -971,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1102,6 +1108,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6255,10 +6264,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
-  <dimension ref="A1:AM151"/>
+  <dimension ref="A1:AM150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView tabSelected="1" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6444,16 +6453,16 @@
     </row>
     <row r="5" spans="1:39" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>155</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>156</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>51</v>
@@ -6507,6 +6516,9 @@
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B6" s="36" t="s">
+        <v>167</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
@@ -6573,11 +6585,11 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>177</v>
+      <c r="A7" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>183</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>67</v>
@@ -6660,11 +6672,11 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>159</v>
+      <c r="A8" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>114</v>
@@ -6749,11 +6761,11 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>160</v>
+      <c r="A9" s="47" t="s">
+        <v>254</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>55</v>
@@ -6824,14 +6836,14 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
-        <v>161</v>
+      <c r="A10" s="47" t="s">
+        <v>253</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" s="4">
         <f>-MIN(G7-G9,0)</f>
@@ -6873,11 +6885,11 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>162</v>
+      <c r="A11" s="47" t="s">
+        <v>251</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>113</v>
@@ -6922,11 +6934,11 @@
       </c>
     </row>
     <row r="12" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
-        <v>163</v>
+      <c r="A12" s="47" t="s">
+        <v>252</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>66</v>
@@ -6964,14 +6976,14 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
-        <v>164</v>
+      <c r="A13" s="47" t="s">
+        <v>159</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="4">
         <f>MAX(F7-F9,0)</f>
@@ -7034,11 +7046,11 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>165</v>
+      <c r="A14" s="47" t="s">
+        <v>255</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>54</v>
@@ -7075,15 +7087,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>176</v>
-      </c>
       <c r="E15" s="10" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="F15" s="4">
         <v>1E-3</v>
@@ -7118,11 +7130,11 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>167</v>
+      <c r="A16" s="47" t="s">
+        <v>257</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>118</v>
@@ -7145,15 +7157,15 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>168</v>
+      <c r="A17" s="47" t="s">
+        <v>258</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="4">
         <v>0.67</v>
@@ -7171,10 +7183,10 @@
     </row>
     <row r="18" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>116</v>
@@ -7198,13 +7210,13 @@
     </row>
     <row r="19" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F19" s="4">
         <v>0.3</v>
@@ -7218,10 +7230,10 @@
     </row>
     <row r="20" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>176</v>
+        <v>160</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>183</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>115</v>
@@ -7247,13 +7259,13 @@
     </row>
     <row r="21" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F21" s="4">
         <f>F18-F20</f>
@@ -7288,10 +7300,10 @@
     </row>
     <row r="23" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>52</v>
@@ -7351,10 +7363,10 @@
     </row>
     <row r="24" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>108</v>
@@ -7400,13 +7412,13 @@
     </row>
     <row r="25" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F25" s="4">
         <f>MIN(F13,F23)</f>
@@ -7477,7 +7489,7 @@
     </row>
     <row r="26" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="E26" s="15" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -7506,13 +7518,13 @@
     </row>
     <row r="27" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E27" s="34" t="s">
         <v>68</v>
@@ -7526,14 +7538,14 @@
     </row>
     <row r="28" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="34" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F28" s="4">
         <f>F27/F18</f>
@@ -7568,10 +7580,10 @@
     </row>
     <row r="31" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>53</v>
@@ -7619,7 +7631,7 @@
     </row>
     <row r="34" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="E34" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>124</v>
@@ -7640,7 +7652,7 @@
     </row>
     <row r="35" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>88</v>
@@ -7693,10 +7705,10 @@
     </row>
     <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>87</v>
@@ -8043,39 +8055,39 @@
     </row>
     <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
       </c>
       <c r="J41" s="4">
-        <f>IF(G36=0, 0, G88*I36/G36)</f>
+        <f>IF(G36=0, 0, G87*I36/G36)</f>
         <v>0</v>
       </c>
       <c r="M41" s="4">
-        <f>IF(J36=0, 0, J88*L36/J36)</f>
+        <f>IF(J36=0, 0, J87*L36/J36)</f>
         <v>0</v>
       </c>
       <c r="P41" s="4">
-        <f>IF(M36=0, 0, M88*O36/M36)</f>
+        <f>IF(M36=0, 0, M87*O36/M36)</f>
         <v>0</v>
       </c>
       <c r="S41" s="4">
-        <f>IF(P36=0, 0, P88*R36/P36)</f>
+        <f>IF(P36=0, 0, P87*R36/P36)</f>
         <v>0</v>
       </c>
       <c r="V41" s="4">
-        <f>IF(S36=0, 0, S88*U36/S36)</f>
+        <f>IF(S36=0, 0, S87*U36/S36)</f>
         <v>0</v>
       </c>
       <c r="Y41" s="4">
-        <f>IF(V36=0, 0, V88*X36/V36)</f>
+        <f>IF(V36=0, 0, V87*X36/V36)</f>
         <v>0</v>
       </c>
     </row>
@@ -8083,33 +8095,33 @@
       <c r="A42" s="39"/>
       <c r="B42" s="37"/>
       <c r="E42" s="14" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
       </c>
       <c r="J42" s="4">
-        <f>IF(G37=0, 0, G89*I37/G37)</f>
+        <f>IF(G37=0, 0, G88*I37/G37)</f>
         <v>0</v>
       </c>
       <c r="M42" s="4">
-        <f>IF(J37=0, 0, J89*L37/J37)</f>
+        <f>IF(J37=0, 0, J88*L37/J37)</f>
         <v>0</v>
       </c>
       <c r="P42" s="4">
-        <f>IF(M37=0, 0, M89*O37/M37)</f>
+        <f>IF(M37=0, 0, M88*O37/M37)</f>
         <v>0</v>
       </c>
       <c r="S42" s="4">
-        <f>IF(P37=0, 0, P89*R37/P37)</f>
+        <f>IF(P37=0, 0, P88*R37/P37)</f>
         <v>0</v>
       </c>
       <c r="V42" s="4">
-        <f>IF(S37=0, 0, S89*U37/S37)</f>
+        <f>IF(S37=0, 0, S88*U37/S37)</f>
         <v>0</v>
       </c>
       <c r="Y42" s="4">
-        <f>IF(V37=0, 0, V89*X37/V37)</f>
+        <f>IF(V37=0, 0, V88*X37/V37)</f>
         <v>0</v>
       </c>
     </row>
@@ -8117,33 +8129,33 @@
       <c r="A43" s="39"/>
       <c r="B43" s="37"/>
       <c r="E43" s="14" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <f>IF(G38=0, 0, G90*I38/G38)</f>
+        <f>IF(G38=0, 0, G89*I38/G38)</f>
         <v>0</v>
       </c>
       <c r="M43" s="4">
-        <f>IF(J38=0, 0, J90*L38/J38)</f>
+        <f>IF(J38=0, 0, J89*L38/J38)</f>
         <v>0</v>
       </c>
       <c r="P43" s="4">
-        <f>IF(M38=0, 0, M90*O38/M38)</f>
+        <f>IF(M38=0, 0, M89*O38/M38)</f>
         <v>0</v>
       </c>
       <c r="S43" s="4">
-        <f>IF(P38=0, 0, P90*R38/P38)</f>
+        <f>IF(P38=0, 0, P89*R38/P38)</f>
         <v>0</v>
       </c>
       <c r="V43" s="4">
-        <f>IF(S38=0, 0, S90*U38/S38)</f>
+        <f>IF(S38=0, 0, S89*U38/S38)</f>
         <v>0</v>
       </c>
       <c r="Y43" s="4">
-        <f>IF(V38=0, 0, V90*X38/V38)</f>
+        <f>IF(V38=0, 0, V89*X38/V38)</f>
         <v>0</v>
       </c>
     </row>
@@ -8151,42 +8163,42 @@
       <c r="A44" s="39"/>
       <c r="B44" s="37"/>
       <c r="E44" s="14" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G44" s="4">
         <v>0</v>
       </c>
       <c r="J44" s="4">
-        <f>IF(G39=0, 0, G91*I39/G39)</f>
+        <f>IF(G39=0, 0, G90*I39/G39)</f>
         <v>0</v>
       </c>
       <c r="M44" s="4">
-        <f>IF(J39=0, 0, J91*L39/J39)</f>
+        <f>IF(J39=0, 0, J90*L39/J39)</f>
         <v>0</v>
       </c>
       <c r="P44" s="4">
-        <f>IF(M39=0, 0, M91*O39/M39)</f>
+        <f>IF(M39=0, 0, M90*O39/M39)</f>
         <v>0</v>
       </c>
       <c r="S44" s="4">
-        <f>IF(P39=0, 0, P91*R39/P39)</f>
+        <f>IF(P39=0, 0, P90*R39/P39)</f>
         <v>0</v>
       </c>
       <c r="V44" s="4">
-        <f>IF(S39=0, 0, S91*U39/S39)</f>
+        <f>IF(S39=0, 0, S90*U39/S39)</f>
         <v>0</v>
       </c>
       <c r="Y44" s="4">
-        <f>IF(V39=0, 0, V91*X39/V39)</f>
+        <f>IF(V39=0, 0, V90*X39/V39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="4">
@@ -8223,13 +8235,13 @@
     </row>
     <row r="47" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G47" s="4">
         <f>G41*$G$19</f>
@@ -8264,7 +8276,7 @@
       <c r="A48" s="39"/>
       <c r="B48" s="37"/>
       <c r="E48" s="14" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" ref="G48:G50" si="6">G42*$G$19</f>
@@ -8299,7 +8311,7 @@
       <c r="A49" s="39"/>
       <c r="B49" s="37"/>
       <c r="E49" s="14" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="6"/>
@@ -8334,7 +8346,7 @@
       <c r="A50" s="39"/>
       <c r="B50" s="37"/>
       <c r="E50" s="14" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" si="6"/>
@@ -8367,10 +8379,10 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E51" s="14"/>
       <c r="G51" s="4">
@@ -8407,10 +8419,10 @@
     </row>
     <row r="53" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>90</v>
@@ -8550,10 +8562,10 @@
     </row>
     <row r="59" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>109</v>
@@ -8674,858 +8686,887 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D63" s="28"/>
-      <c r="E63" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D64" s="28"/>
-      <c r="E64" s="14"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D72)*MAX(G87-$G$20*G36-J41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D72)*MAX(J87-$G$20*J36-M41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D72)*MAX(M87-$G$20*M36-P41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S64" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D72)*MAX(P87-$G$20*P36-S41,0)</f>
+        <v>6.7881033999999989</v>
+      </c>
+      <c r="V64" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D72)*MAX(S87-$G$20*S36-V41,0)</f>
+        <v>23.757527193199998</v>
+      </c>
+      <c r="Y64" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D72)*MAX(V87-$G$20*V36-Y41,0)</f>
+        <v>30.582999999999998</v>
+      </c>
     </row>
     <row r="65" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>194</v>
-      </c>
+      <c r="A65" s="39"/>
+      <c r="B65" s="37"/>
       <c r="E65" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
       </c>
       <c r="J65" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D73)*MAX(G88-$G$20*G36-J41,0)</f>
+        <f>INT(I$4-$AE$6 &gt; $D73)*MAX(G88-$G$20*G37-J42,0)</f>
         <v>0</v>
       </c>
       <c r="M65" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D73)*MAX(J88-$G$20*J36-M41,0)</f>
+        <f>INT(L$4-$AE$6 &gt; $D73)*MAX(J88-$G$20*J37-M42,0)</f>
         <v>0</v>
       </c>
       <c r="P65" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D73)*MAX(M88-$G$20*M36-P41,0)</f>
+        <f>INT(O$4-$AE$6 &gt; $D73)*MAX(M88-$G$20*M37-P42,0)</f>
         <v>0</v>
       </c>
       <c r="S65" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D73)*MAX(P88-$G$20*P36-S41,0)</f>
-        <v>6.7881033999999989</v>
+        <f>INT(R$4-$AE$6 &gt; $D73)*MAX(P88-$G$20*P37-S42,0)</f>
+        <v>0</v>
       </c>
       <c r="V65" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D73)*MAX(S88-$G$20*S36-V41,0)</f>
-        <v>23.757527193199998</v>
+        <f>INT(U$4-$AE$6 &gt; $D73)*MAX(S88-$G$20*S37-V42,0)</f>
+        <v>6.3888031999999999</v>
       </c>
       <c r="Y65" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D73)*MAX(V88-$G$20*V36-Y41,0)</f>
-        <v>30.582999999999998</v>
+        <f>INT(X$4-$AE$6 &gt; $D73)*MAX(V88-$G$20*V37-Y42,0)</f>
+        <v>15.984000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="39"/>
       <c r="B66" s="37"/>
+      <c r="D66" s="28" t="s">
+        <v>153</v>
+      </c>
       <c r="E66" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G66" s="4">
         <v>0</v>
       </c>
       <c r="J66" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D74)*MAX(G89-$G$20*G37-J42,0)</f>
+        <f>INT(I$4-$AE$6 &gt; $D74)*MAX(G89-$G$20*G38-J43,0)</f>
         <v>0</v>
       </c>
       <c r="M66" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D74)*MAX(J89-$G$20*J37-M42,0)</f>
+        <f>INT(L$4-$AE$6 &gt; $D74)*MAX(J89-$G$20*J38-M43,0)</f>
         <v>0</v>
       </c>
       <c r="P66" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D74)*MAX(M89-$G$20*M37-P42,0)</f>
+        <f>INT(O$4-$AE$6 &gt; $D74)*MAX(M89-$G$20*M38-P43,0)</f>
         <v>0</v>
       </c>
       <c r="S66" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D74)*MAX(P89-$G$20*P37-S42,0)</f>
+        <f>INT(R$4-$AE$6 &gt; $D74)*MAX(P89-$G$20*P38-S43,0)</f>
         <v>0</v>
       </c>
       <c r="V66" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D74)*MAX(S89-$G$20*S37-V42,0)</f>
-        <v>6.3888031999999999</v>
+        <f>INT(U$4-$AE$6 &gt; $D74)*MAX(S89-$G$20*S38-V43,0)</f>
+        <v>0</v>
       </c>
       <c r="Y66" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D74)*MAX(V89-$G$20*V37-Y42,0)</f>
-        <v>15.984000000000002</v>
+        <f>INT(X$4-$AE$6 &gt; $D74)*MAX(V89-$G$20*V38-Y43,0)</f>
+        <v>7.3471236799999975</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="39"/>
       <c r="B67" s="37"/>
-      <c r="D67" s="28" t="s">
-        <v>154</v>
-      </c>
+      <c r="D67" s="28"/>
       <c r="E67" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
       </c>
       <c r="J67" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D75)*MAX(G90-$G$20*G38-J43,0)</f>
+        <f>INT(I$4-$AE$6 &gt; $D75)*MAX(G90-$G$20*G39-J44,0)</f>
         <v>0</v>
       </c>
       <c r="M67" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D75)*MAX(J90-$G$20*J38-M43,0)</f>
+        <f>INT(L$4-$AE$6 &gt; $D75)*MAX(J90-$G$20*J39-M44,0)</f>
         <v>0</v>
       </c>
       <c r="P67" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D75)*MAX(M90-$G$20*M38-P43,0)</f>
+        <f>INT(O$4-$AE$6 &gt; $D75)*MAX(M90-$G$20*M39-P44,0)</f>
         <v>0</v>
       </c>
       <c r="S67" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D75)*MAX(P90-$G$20*P38-S43,0)</f>
+        <f>INT(R$4-$AE$6 &gt; $D75)*MAX(P90-$G$20*P39-S44,0)</f>
         <v>0</v>
       </c>
       <c r="V67" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D75)*MAX(S90-$G$20*S38-V43,0)</f>
+        <f>INT(U$4-$AE$6 &gt; $D75)*MAX(S90-$G$20*S39-V44,0)</f>
         <v>0</v>
       </c>
       <c r="Y67" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D75)*MAX(V90-$G$20*V38-Y43,0)</f>
-        <v>7.3471236799999975</v>
+        <f>INT(X$4-$AE$6 &gt; $D75)*MAX(V90-$G$20*V39-Y44,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="39"/>
-      <c r="B68" s="37"/>
+      <c r="A68" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>183</v>
+      </c>
       <c r="D68" s="28"/>
       <c r="E68" s="14" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G68" s="4">
         <v>0</v>
       </c>
       <c r="J68" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D76)*MAX(G91-$G$20*G39-J44,0)</f>
+        <f>SUM(J64:J67)</f>
         <v>0</v>
       </c>
       <c r="M68" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D76)*MAX(J91-$G$20*J39-M44,0)</f>
+        <f>SUM(M64:M67)</f>
         <v>0</v>
       </c>
       <c r="P68" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D76)*MAX(M91-$G$20*M39-P44,0)</f>
+        <f>SUM(P64:P67)</f>
         <v>0</v>
       </c>
       <c r="S68" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D76)*MAX(P91-$G$20*P39-S44,0)</f>
-        <v>0</v>
+        <f>SUM(S64:S67)</f>
+        <v>6.7881033999999989</v>
       </c>
       <c r="V68" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D76)*MAX(S91-$G$20*S39-V44,0)</f>
-        <v>0</v>
+        <f>SUM(V64:V67)</f>
+        <v>30.146330393199996</v>
       </c>
       <c r="Y68" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D76)*MAX(V91-$G$20*V39-Y44,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="B69" s="41" t="s">
-        <v>194</v>
-      </c>
+        <f>SUM(Y64:Y67)</f>
+        <v>53.914123679999996</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D69" s="28"/>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="14"/>
+      <c r="AB69" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="L70" s="4">
+        <v>0</v>
+      </c>
+      <c r="O70" s="4">
+        <v>0</v>
+      </c>
+      <c r="R70" s="4">
+        <v>0</v>
+      </c>
+      <c r="U70" s="4">
+        <v>0</v>
+      </c>
+      <c r="X70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="38"/>
+      <c r="B71" s="37"/>
+      <c r="E71" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G69" s="4">
-        <v>0</v>
-      </c>
-      <c r="J69" s="4">
-        <f>SUM(J65:J68)</f>
-        <v>0</v>
-      </c>
-      <c r="M69" s="4">
-        <f>SUM(M65:M68)</f>
-        <v>0</v>
-      </c>
-      <c r="P69" s="4">
-        <f>SUM(P65:P68)</f>
-        <v>0</v>
-      </c>
-      <c r="S69" s="4">
-        <f>SUM(S65:S68)</f>
+      <c r="F71" s="4">
+        <f>SUM(G$64:G64)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <f>IF(F71&gt;=F$121, IF(F70&lt;F$121, F$121-F70, 0),G64)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <f>SUM(J$64:J64)</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <f>IF(I71&gt;=I$121, IF(I70&lt;I$121, I$121-I70, 0),J64)</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="4">
+        <f>SUM(M$64:M64)</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="4">
+        <f>IF(L71&gt;=L$121, IF(L70&lt;L$121, L$121-L70, 0),M64)</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="4">
+        <f>SUM(P$64:P64)</f>
+        <v>0</v>
+      </c>
+      <c r="P71" s="4">
+        <f>IF(O71&gt;=O$121, IF(O70&lt;O$121, O$121-O70, 0),P64)</f>
+        <v>0</v>
+      </c>
+      <c r="R71" s="4">
+        <f>SUM(S$64:S64)</f>
         <v>6.7881033999999989</v>
       </c>
-      <c r="V69" s="4">
-        <f>SUM(V65:V68)</f>
-        <v>30.146330393199996</v>
-      </c>
-      <c r="Y69" s="4">
-        <f>SUM(Y65:Y68)</f>
-        <v>53.914123679999996</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D70" s="28"/>
-      <c r="E70" s="14"/>
-      <c r="AB70" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="I71" s="4">
-        <v>0</v>
-      </c>
-      <c r="L71" s="4">
-        <v>0</v>
-      </c>
-      <c r="O71" s="4">
-        <v>0</v>
-      </c>
-      <c r="R71" s="4">
+      <c r="S71" s="4">
+        <f>IF(R71&gt;=R$121, IF(R70&lt;R$121, R$121-R70, 0),S64)</f>
         <v>0</v>
       </c>
       <c r="U71" s="4">
-        <v>0</v>
+        <f>SUM(V$64:V64)</f>
+        <v>23.757527193199998</v>
+      </c>
+      <c r="V71" s="4">
+        <f>IF(U71&gt;=U$121, IF(U70&lt;U$121, U$121-U70, 0),V64)</f>
+        <v>23.757527193199998</v>
       </c>
       <c r="X71" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>86</v>
+        <f>SUM(Y$64:Y64)</f>
+        <v>30.582999999999998</v>
+      </c>
+      <c r="Y71" s="4">
+        <f>IF(X71&gt;=X$121, IF(X70&lt;X$121, X$121-X70, 0),Y64)</f>
+        <v>30.582999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="38"/>
       <c r="B72" s="37"/>
+      <c r="D72" s="22">
+        <v>0</v>
+      </c>
       <c r="E72" s="14" t="s">
         <v>150</v>
       </c>
       <c r="F72" s="4">
-        <f>SUM(G$65:G65)</f>
+        <f>SUM(G$64:G65)</f>
         <v>0</v>
       </c>
       <c r="G72" s="4">
-        <f>IF(F72&gt;=F$122, IF(F71&lt;F$122, F$122-F71, 0),G65)</f>
+        <f>IF(F72&gt;=F$121, IF(F71&lt;F$121, F$121-F71, 0),G65)</f>
         <v>0</v>
       </c>
       <c r="I72" s="4">
-        <f>SUM(J$65:J65)</f>
+        <f>SUM(J$64:J65)</f>
         <v>0</v>
       </c>
       <c r="J72" s="4">
-        <f>IF(I72&gt;=I$122, IF(I71&lt;I$122, I$122-I71, 0),J65)</f>
+        <f>IF(I72&gt;=I$121, IF(I71&lt;I$121, I$121-I71, 0),J65)</f>
         <v>0</v>
       </c>
       <c r="L72" s="4">
-        <f>SUM(M$65:M65)</f>
+        <f>SUM(M$64:M65)</f>
         <v>0</v>
       </c>
       <c r="M72" s="4">
-        <f>IF(L72&gt;=L$122, IF(L71&lt;L$122, L$122-L71, 0),M65)</f>
+        <f>IF(L72&gt;=L$121, IF(L71&lt;L$121, L$121-L71, 0),M65)</f>
         <v>0</v>
       </c>
       <c r="O72" s="4">
-        <f>SUM(P$65:P65)</f>
+        <f>SUM(P$64:P65)</f>
         <v>0</v>
       </c>
       <c r="P72" s="4">
-        <f>IF(O72&gt;=O$122, IF(O71&lt;O$122, O$122-O71, 0),P65)</f>
+        <f>IF(O72&gt;=O$121, IF(O71&lt;O$121, O$121-O71, 0),P65)</f>
         <v>0</v>
       </c>
       <c r="R72" s="4">
-        <f>SUM(S$65:S65)</f>
+        <f>SUM(S$64:S65)</f>
         <v>6.7881033999999989</v>
       </c>
       <c r="S72" s="4">
-        <f>IF(R72&gt;=R$122, IF(R71&lt;R$122, R$122-R71, 0),S65)</f>
+        <f>IF(R72&gt;=R$121, IF(R71&lt;R$121, R$121-R71, 0),S65)</f>
         <v>0</v>
       </c>
       <c r="U72" s="4">
-        <f>SUM(V$65:V65)</f>
-        <v>23.757527193199998</v>
+        <f>SUM(V$64:V65)</f>
+        <v>30.146330393199996</v>
       </c>
       <c r="V72" s="4">
-        <f>IF(U72&gt;=U$122, IF(U71&lt;U$122, U$122-U71, 0),V65)</f>
-        <v>23.757527193199998</v>
+        <f>IF(U72&gt;=U$121, IF(U71&lt;U$121, U$121-U71, 0),V65)</f>
+        <v>6.3888031999999981</v>
       </c>
       <c r="X72" s="4">
-        <f>SUM(Y$65:Y65)</f>
-        <v>30.582999999999998</v>
+        <f>SUM(Y$64:Y65)</f>
+        <v>46.567</v>
       </c>
       <c r="Y72" s="4">
-        <f>IF(X72&gt;=X$122, IF(X71&lt;X$122, X$122-X71, 0),Y65)</f>
-        <v>30.582999999999998</v>
+        <f>IF(X72&gt;=X$121, IF(X71&lt;X$121, X$121-X71, 0),Y65)</f>
+        <v>15.984000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="38"/>
       <c r="B73" s="37"/>
       <c r="D73" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>151</v>
       </c>
       <c r="F73" s="4">
-        <f>SUM(G$65:G66)</f>
+        <f>SUM(G$64:G66)</f>
         <v>0</v>
       </c>
       <c r="G73" s="4">
-        <f>IF(F73&gt;=F$122, IF(F72&lt;F$122, F$122-F72, 0),G66)</f>
+        <f>IF(F73&gt;=F$121, IF(F72&lt;F$121, F$121-F72, 0),G66)</f>
         <v>0</v>
       </c>
       <c r="I73" s="4">
-        <f>SUM(J$65:J66)</f>
+        <f>SUM(J$64:J66)</f>
         <v>0</v>
       </c>
       <c r="J73" s="4">
-        <f>IF(I73&gt;=I$122, IF(I72&lt;I$122, I$122-I72, 0),J66)</f>
+        <f>IF(I73&gt;=I$121, IF(I72&lt;I$121, I$121-I72, 0),J66)</f>
         <v>0</v>
       </c>
       <c r="L73" s="4">
-        <f>SUM(M$65:M66)</f>
+        <f>SUM(M$64:M66)</f>
         <v>0</v>
       </c>
       <c r="M73" s="4">
-        <f>IF(L73&gt;=L$122, IF(L72&lt;L$122, L$122-L72, 0),M66)</f>
+        <f>IF(L73&gt;=L$121, IF(L72&lt;L$121, L$121-L72, 0),M66)</f>
         <v>0</v>
       </c>
       <c r="O73" s="4">
-        <f>SUM(P$65:P66)</f>
+        <f>SUM(P$64:P66)</f>
         <v>0</v>
       </c>
       <c r="P73" s="4">
-        <f>IF(O73&gt;=O$122, IF(O72&lt;O$122, O$122-O72, 0),P66)</f>
+        <f>IF(O73&gt;=O$121, IF(O72&lt;O$121, O$121-O72, 0),P66)</f>
         <v>0</v>
       </c>
       <c r="R73" s="4">
-        <f>SUM(S$65:S66)</f>
+        <f>SUM(S$64:S66)</f>
         <v>6.7881033999999989</v>
       </c>
       <c r="S73" s="4">
-        <f>IF(R73&gt;=R$122, IF(R72&lt;R$122, R$122-R72, 0),S66)</f>
+        <f>IF(R73&gt;=R$121, IF(R72&lt;R$121, R$121-R72, 0),S66)</f>
         <v>0</v>
       </c>
       <c r="U73" s="4">
-        <f>SUM(V$65:V66)</f>
+        <f>SUM(V$64:V66)</f>
         <v>30.146330393199996</v>
       </c>
       <c r="V73" s="4">
-        <f>IF(U73&gt;=U$122, IF(U72&lt;U$122, U$122-U72, 0),V66)</f>
-        <v>6.3888031999999981</v>
+        <f>IF(U73&gt;=U$121, IF(U72&lt;U$121, U$121-U72, 0),V66)</f>
+        <v>0</v>
       </c>
       <c r="X73" s="4">
-        <f>SUM(Y$65:Y66)</f>
-        <v>46.567</v>
+        <f>SUM(Y$64:Y66)</f>
+        <v>53.914123679999996</v>
       </c>
       <c r="Y73" s="4">
-        <f>IF(X73&gt;=X$122, IF(X72&lt;X$122, X$122-X72, 0),Y66)</f>
-        <v>15.984000000000002</v>
+        <f>IF(X73&gt;=X$121, IF(X72&lt;X$121, X$121-X72, 0),Y66)</f>
+        <v>7.3471236799999957</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="38"/>
-      <c r="B74" s="37"/>
       <c r="D74" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="14" t="s">
         <v>152</v>
       </c>
       <c r="F74" s="4">
-        <f>SUM(G$65:G67)</f>
+        <f>SUM(G$64:G67)</f>
         <v>0</v>
       </c>
       <c r="G74" s="4">
-        <f>IF(F74&gt;=F$122, IF(F73&lt;F$122, F$122-F73, 0),G67)</f>
+        <f>IF(F74&gt;=F$121, IF(F73&lt;F$121, F$121-F73, 0),G67)</f>
         <v>0</v>
       </c>
       <c r="I74" s="4">
-        <f>SUM(J$65:J67)</f>
+        <f>SUM(J$64:J67)</f>
         <v>0</v>
       </c>
       <c r="J74" s="4">
-        <f>IF(I74&gt;=I$122, IF(I73&lt;I$122, I$122-I73, 0),J67)</f>
+        <f>IF(I74&gt;=I$121, IF(I73&lt;I$121, I$121-I73, 0),J67)</f>
         <v>0</v>
       </c>
       <c r="L74" s="4">
-        <f>SUM(M$65:M67)</f>
+        <f>SUM(M$64:M67)</f>
         <v>0</v>
       </c>
       <c r="M74" s="4">
-        <f>IF(L74&gt;=L$122, IF(L73&lt;L$122, L$122-L73, 0),M67)</f>
+        <f>IF(L74&gt;=L$121, IF(L73&lt;L$121, L$121-L73, 0),M67)</f>
         <v>0</v>
       </c>
       <c r="O74" s="4">
-        <f>SUM(P$65:P67)</f>
+        <f>SUM(P$64:P67)</f>
         <v>0</v>
       </c>
       <c r="P74" s="4">
-        <f>IF(O74&gt;=O$122, IF(O73&lt;O$122, O$122-O73, 0),P67)</f>
+        <f>IF(O74&gt;=O$121, IF(O73&lt;O$121, O$121-O73, 0),P67)</f>
         <v>0</v>
       </c>
       <c r="R74" s="4">
-        <f>SUM(S$65:S67)</f>
+        <f>SUM(S$64:S67)</f>
         <v>6.7881033999999989</v>
       </c>
       <c r="S74" s="4">
-        <f>IF(R74&gt;=R$122, IF(R73&lt;R$122, R$122-R73, 0),S67)</f>
+        <f>IF(R74&gt;=R$121, IF(R73&lt;R$121, R$121-R73, 0),S67)</f>
         <v>0</v>
       </c>
       <c r="U74" s="4">
-        <f>SUM(V$65:V67)</f>
+        <f>SUM(V$64:V67)</f>
         <v>30.146330393199996</v>
       </c>
       <c r="V74" s="4">
-        <f>IF(U74&gt;=U$122, IF(U73&lt;U$122, U$122-U73, 0),V67)</f>
+        <f>IF(U74&gt;=U$121, IF(U73&lt;U$121, U$121-U73, 0),V67)</f>
         <v>0</v>
       </c>
       <c r="X74" s="4">
-        <f>SUM(Y$65:Y67)</f>
+        <f>SUM(Y$64:Y67)</f>
         <v>53.914123679999996</v>
       </c>
       <c r="Y74" s="4">
-        <f>IF(X74&gt;=X$122, IF(X73&lt;X$122, X$122-X73, 0),Y67)</f>
-        <v>7.3471236799999957</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+        <f>IF(X74&gt;=X$121, IF(X73&lt;X$121, X$121-X73, 0),Y67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D75" s="22">
-        <v>2</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F75" s="4">
-        <f>SUM(G$65:G68)</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="4">
-        <f>IF(F75&gt;=F$122, IF(F74&lt;F$122, F$122-F74, 0),G68)</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="4">
-        <f>SUM(J$65:J68)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="4">
-        <f>IF(I75&gt;=I$122, IF(I74&lt;I$122, I$122-I74, 0),J68)</f>
-        <v>0</v>
-      </c>
-      <c r="L75" s="4">
-        <f>SUM(M$65:M68)</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="4">
-        <f>IF(L75&gt;=L$122, IF(L74&lt;L$122, L$122-L74, 0),M68)</f>
-        <v>0</v>
-      </c>
-      <c r="O75" s="4">
-        <f>SUM(P$65:P68)</f>
-        <v>0</v>
-      </c>
-      <c r="P75" s="4">
-        <f>IF(O75&gt;=O$122, IF(O74&lt;O$122, O$122-O74, 0),P68)</f>
-        <v>0</v>
-      </c>
-      <c r="R75" s="4">
-        <f>SUM(S$65:S68)</f>
-        <v>6.7881033999999989</v>
-      </c>
-      <c r="S75" s="4">
-        <f>IF(R75&gt;=R$122, IF(R74&lt;R$122, R$122-R74, 0),S68)</f>
-        <v>0</v>
-      </c>
-      <c r="U75" s="4">
-        <f>SUM(V$65:V68)</f>
-        <v>30.146330393199996</v>
-      </c>
-      <c r="V75" s="4">
-        <f>IF(U75&gt;=U$122, IF(U74&lt;U$122, U$122-U74, 0),V68)</f>
-        <v>0</v>
-      </c>
-      <c r="X75" s="4">
-        <f>SUM(Y$65:Y68)</f>
-        <v>53.914123679999996</v>
-      </c>
-      <c r="Y75" s="4">
-        <f>IF(X75&gt;=X$122, IF(X74&lt;X$122, X$122-X74, 0),Y68)</f>
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D76" s="22">
-        <v>3</v>
-      </c>
       <c r="E76" s="14"/>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E77" s="14"/>
-      <c r="I77" s="4" t="s">
+      <c r="I76" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L77" s="4" t="s">
+      <c r="L76" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="O77" s="4" t="s">
+      <c r="O76" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="R77" s="4" t="s">
+      <c r="R76" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="U77" s="4" t="s">
+      <c r="U76" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="X77" s="4" t="s">
+      <c r="X76" s="4" t="s">
         <v>137</v>
       </c>
     </row>
+    <row r="77" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G77" s="4">
+        <f>G53</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
+        <f>IF(G87=0,1,MIN(MAX((G87/G59-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J77" s="4">
+        <f>J53*I77</f>
+        <v>0.01</v>
+      </c>
+      <c r="L77" s="4">
+        <f>IF(J87=0,1,MIN(MAX((J87/J59-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M77" s="4">
+        <f>M53*L77</f>
+        <v>0.05</v>
+      </c>
+      <c r="O77" s="4">
+        <f>IF(M87=0,1,MIN(MAX((M87/M59-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P77" s="4">
+        <f>P53*O77</f>
+        <v>0.12</v>
+      </c>
+      <c r="R77" s="4">
+        <f>IF(P87=0,1,MIN(MAX((P87/P59-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S77" s="4">
+        <f>S53*R77</f>
+        <v>0.2</v>
+      </c>
+      <c r="U77" s="4">
+        <f>IF(S87=0,1,MIN(MAX((S87/S59-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V77" s="4">
+        <f>V53*U77</f>
+        <v>0.36</v>
+      </c>
+      <c r="X77" s="4">
+        <f>IF(V87=0,1,MIN(MAX((V87/V59-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>0.92728154163131749</v>
+      </c>
+      <c r="Y77" s="4">
+        <f>Y53*X77</f>
+        <v>0.55636892497879042</v>
+      </c>
+    </row>
     <row r="78" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="B78" s="37" t="s">
-        <v>194</v>
-      </c>
+      <c r="A78" s="38"/>
+      <c r="B78" s="37"/>
       <c r="E78" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G78" s="4">
-        <f>G53</f>
+        <f>G54</f>
         <v>0</v>
       </c>
       <c r="I78" s="4">
-        <f>IF(G88=0,1,MIN(MAX((G88/G59-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <f>IF(G88=0,1,MIN(MAX((G88/G60-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
       <c r="J78" s="4">
-        <f>J53*I78</f>
+        <f>J54</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="4">
+        <f>IF(J88=0,1,MIN(MAX((J88/J60-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M78" s="4">
+        <f>M54</f>
         <v>0.01</v>
       </c>
-      <c r="L78" s="4">
-        <f>IF(J88=0,1,MIN(MAX((J88/J59-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="O78" s="4">
+        <f>IF(M88=0,1,MIN(MAX((M88/M60-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="M78" s="4">
-        <f>M53*L78</f>
+      <c r="P78" s="4">
+        <f>P54</f>
         <v>0.05</v>
       </c>
-      <c r="O78" s="4">
-        <f>IF(M88=0,1,MIN(MAX((M88/M59-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="R78" s="4">
+        <f>IF(P88=0,1,MIN(MAX((P88/P60-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="P78" s="4">
-        <f>P53*O78</f>
+      <c r="S78" s="4">
+        <f>S54</f>
         <v>0.12</v>
       </c>
-      <c r="R78" s="4">
-        <f>IF(P88=0,1,MIN(MAX((P88/P59-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="U78" s="4">
+        <f>IF(S88=0,1,MIN(MAX((S88/S60-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="S78" s="4">
-        <f>S53*R78</f>
+      <c r="V78" s="4">
+        <f>V54</f>
         <v>0.2</v>
       </c>
-      <c r="U78" s="4">
-        <f>IF(S88=0,1,MIN(MAX((S88/S59-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="X78" s="4">
+        <f>IF(V88=0,1,MIN(MAX((V88/V60-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="V78" s="4">
-        <f>V53*U78</f>
+      <c r="Y78" s="4">
+        <f>Y54</f>
         <v>0.36</v>
-      </c>
-      <c r="X78" s="4">
-        <f>IF(V88=0,1,MIN(MAX((V88/V59-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>0.92728154163131749</v>
-      </c>
-      <c r="Y78" s="4">
-        <f>Y53*X78</f>
-        <v>0.55636892497879042</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="38"/>
       <c r="B79" s="37"/>
       <c r="E79" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G79" s="4">
-        <f>G54</f>
+        <f>G55</f>
         <v>0</v>
       </c>
       <c r="I79" s="4">
-        <f>IF(G89=0,1,MIN(MAX((G89/G60-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <f>IF(G89=0,1,MIN(MAX((G89/G61-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
       <c r="J79" s="4">
-        <f>J54</f>
+        <f>J55</f>
         <v>0</v>
       </c>
       <c r="L79" s="4">
-        <f>IF(J89=0,1,MIN(MAX((J89/J60-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <f>IF(J89=0,1,MIN(MAX((J89/J61-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
       <c r="M79" s="4">
-        <f>M54</f>
+        <f>M55</f>
+        <v>0</v>
+      </c>
+      <c r="O79" s="4">
+        <f>IF(M89=0,1,MIN(MAX((M89/M61-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P79" s="4">
+        <f>P55</f>
         <v>0.01</v>
       </c>
-      <c r="O79" s="4">
-        <f>IF(M89=0,1,MIN(MAX((M89/M60-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="R79" s="4">
+        <f>IF(P89=0,1,MIN(MAX((P89/P61-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="P79" s="4">
-        <f>P54</f>
+      <c r="S79" s="4">
+        <f>S55</f>
         <v>0.05</v>
       </c>
-      <c r="R79" s="4">
-        <f>IF(P89=0,1,MIN(MAX((P89/P60-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="U79" s="4">
+        <f>IF(S89=0,1,MIN(MAX((S89/S61-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="S79" s="4">
-        <f>S54</f>
+      <c r="V79" s="4">
+        <f>V55</f>
         <v>0.12</v>
       </c>
-      <c r="U79" s="4">
-        <f>IF(S89=0,1,MIN(MAX((S89/S60-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="X79" s="4">
+        <f>IF(V89=0,1,MIN(MAX((V89/V61-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="V79" s="4">
-        <f>V54</f>
+      <c r="Y79" s="4">
+        <f>Y55</f>
         <v>0.2</v>
-      </c>
-      <c r="X79" s="4">
-        <f>IF(V89=0,1,MIN(MAX((V89/V60-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="Y79" s="4">
-        <f>Y54</f>
-        <v>0.36</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="38"/>
       <c r="B80" s="37"/>
       <c r="E80" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G80" s="4">
-        <f>G55</f>
+        <f>G56</f>
         <v>0</v>
       </c>
       <c r="I80" s="4">
-        <f>IF(G90=0,1,MIN(MAX((G90/G61-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <f>IF(G90=0,1,MIN(MAX((G90/G62-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
       <c r="J80" s="4">
-        <f>J55</f>
+        <f>J56</f>
         <v>0</v>
       </c>
       <c r="L80" s="4">
-        <f>IF(J90=0,1,MIN(MAX((J90/J61-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <f>IF(J90=0,1,MIN(MAX((J90/J62-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
       <c r="M80" s="4">
-        <f>M55</f>
+        <f>M56</f>
         <v>0</v>
       </c>
       <c r="O80" s="4">
-        <f>IF(M90=0,1,MIN(MAX((M90/M61-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <f>IF(M90=0,1,MIN(MAX((M90/M62-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
       <c r="P80" s="4">
-        <f>P55</f>
-        <v>0.01</v>
+        <f>P56</f>
+        <v>0</v>
       </c>
       <c r="R80" s="4">
-        <f>IF(P90=0,1,MIN(MAX((P90/P61-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <f>IF(P90=0,1,MIN(MAX((P90/P62-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
       <c r="S80" s="4">
-        <f>S55</f>
-        <v>0.05</v>
-      </c>
-      <c r="U80" s="4">
-        <f>IF(S90=0,1,MIN(MAX((S90/S61-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="V80" s="4">
-        <f>V55</f>
-        <v>0.12</v>
-      </c>
-      <c r="X80" s="4">
-        <f>IF(V90=0,1,MIN(MAX((V90/V61-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="Y80" s="4">
-        <f>Y55</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="38"/>
-      <c r="B81" s="37"/>
-      <c r="E81" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G81" s="4">
-        <f>G56</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="4">
-        <f>IF(G91=0,1,MIN(MAX((G91/G62-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="J81" s="4">
-        <f>J56</f>
-        <v>0</v>
-      </c>
-      <c r="L81" s="4">
-        <f>IF(J91=0,1,MIN(MAX((J91/J62-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="M81" s="4">
-        <f>M56</f>
-        <v>0</v>
-      </c>
-      <c r="O81" s="4">
-        <f>IF(M91=0,1,MIN(MAX((M91/M62-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P81" s="4">
-        <f>P56</f>
-        <v>0</v>
-      </c>
-      <c r="R81" s="4">
-        <f>IF(P91=0,1,MIN(MAX((P91/P62-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="S81" s="4">
         <f>S56</f>
         <v>0.01</v>
       </c>
-      <c r="U81" s="4">
-        <f>IF(S91=0,1,MIN(MAX((S91/S62-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="U80" s="4">
+        <f>IF(S90=0,1,MIN(MAX((S90/S62-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="V81" s="4">
+      <c r="V80" s="4">
         <f>V56</f>
         <v>0.05</v>
       </c>
-      <c r="X81" s="4">
-        <f>IF(V91=0,1,MIN(MAX((V91/V62-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="X80" s="4">
+        <f>IF(V90=0,1,MIN(MAX((V90/V62-$F$15)/($F$17-$F$15), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="Y81" s="4">
+      <c r="Y80" s="4">
         <f>Y56</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E82" s="14"/>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E81" s="14"/>
+    </row>
+    <row r="82" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="G82" s="4">
+        <f>G48*G31</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="4">
+        <f>(G87-J71)*$F$28</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="4">
+        <f>(J87-M71)*$F$28</f>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="P82" s="4">
+        <f>(M87-P71)*$F$28</f>
+        <v>1.01966E-2</v>
+      </c>
+      <c r="S82" s="4">
+        <f>(P87-S71)*$F$28</f>
+        <v>3.0576206799999998E-2</v>
+      </c>
+      <c r="V82" s="4">
+        <f>(S87-V71)*$F$28</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Y82" s="4">
+        <f>(V87-Y71)*$F$28</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
     </row>
     <row r="83" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="B83" s="37" t="s">
-        <v>194</v>
-      </c>
+      <c r="A83" s="38"/>
+      <c r="B83" s="37"/>
       <c r="E83" s="14" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G83" s="4">
-        <f>G48*G31</f>
+        <f>G49*G32</f>
         <v>0</v>
       </c>
       <c r="J83" s="4">
-        <f>(G88-J72)*$F$28</f>
+        <f t="shared" ref="J83:J85" si="13">(G88-J72)*$F$28</f>
         <v>0</v>
       </c>
       <c r="M83" s="4">
-        <f>(J88-M72)*$F$28</f>
-        <v>1.6999999999999999E-3</v>
+        <f t="shared" ref="M83:M85" si="14">(J88-M72)*$F$28</f>
+        <v>0</v>
       </c>
       <c r="P83" s="4">
-        <f>(M88-P72)*$F$28</f>
-        <v>1.01966E-2</v>
+        <f t="shared" ref="P83:P85" si="15">(M88-P72)*$F$28</f>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="S83" s="4">
-        <f>(P88-S72)*$F$28</f>
-        <v>3.0576206799999998E-2</v>
+        <f t="shared" ref="S83:S85" si="16">(P88-S72)*$F$28</f>
+        <v>9.5968000000000008E-3</v>
       </c>
       <c r="V83" s="4">
-        <f>(S88-V72)*$F$28</f>
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" ref="V83:V85" si="17">(S88-V72)*$F$28</f>
+        <v>1.6000000000000004E-2</v>
       </c>
       <c r="Y83" s="4">
-        <f>(V88-Y72)*$F$28</f>
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" ref="Y83:Y85" si="18">(V88-Y72)*$F$28</f>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="38"/>
       <c r="B84" s="37"/>
       <c r="E84" s="14" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G84" s="4">
-        <f>G49*G32</f>
+        <f>G50*G33</f>
         <v>0</v>
       </c>
       <c r="J84" s="4">
-        <f t="shared" ref="J84:J86" si="13">(G89-J73)*$F$28</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M84" s="4">
-        <f t="shared" ref="M84:M86" si="14">(J89-M73)*$F$28</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P84" s="4">
-        <f t="shared" ref="P84:P86" si="15">(M89-P73)*$F$28</f>
-        <v>1.6000000000000001E-3</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="S84" s="4">
-        <f t="shared" ref="S84:S86" si="16">(P89-S73)*$F$28</f>
-        <v>9.5968000000000008E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="V84" s="4">
-        <f t="shared" ref="V84:V86" si="17">(S89-V73)*$F$28</f>
-        <v>1.6000000000000004E-2</v>
+        <f t="shared" si="17"/>
+        <v>1.1036320000000002E-2</v>
       </c>
       <c r="Y84" s="4">
-        <f t="shared" ref="Y84:Y86" si="18">(V89-Y73)*$F$28</f>
-        <v>1.6E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.8400000000000007E-2</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="38"/>
       <c r="B85" s="37"/>
       <c r="E85" s="14" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G85" s="4">
-        <f>G50*G33</f>
+        <f>G51*G34</f>
         <v>0</v>
       </c>
       <c r="J85" s="4">
@@ -9542,241 +9583,242 @@
       </c>
       <c r="S85" s="4">
         <f t="shared" si="16"/>
-        <v>1.8400000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="V85" s="4">
         <f t="shared" si="17"/>
-        <v>1.1036320000000002E-2</v>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="Y85" s="4">
         <f t="shared" si="18"/>
-        <v>1.8400000000000007E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="38"/>
-      <c r="B86" s="37"/>
-      <c r="E86" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="G86" s="4">
-        <f>G51*G34</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M86" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P86" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S86" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V86" s="4">
-        <f t="shared" si="17"/>
-        <v>8.5999999999999998E-4</v>
-      </c>
-      <c r="Y86" s="4">
-        <f t="shared" si="18"/>
         <v>5.1582799999999995E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E87" s="14"/>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G87" s="4">
+        <f>G53*G36</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
+        <f>G87 - J71 - J82 + J36*J77</f>
+        <v>0.85</v>
+      </c>
+      <c r="M87" s="4">
+        <f>J87 - M71 - M82 + M36*M77</f>
+        <v>5.0983000000000001</v>
+      </c>
+      <c r="P87" s="4">
+        <f>M87 - P71 - P82 + P36*P77</f>
+        <v>15.288103399999999</v>
+      </c>
+      <c r="S87" s="4">
+        <f>P87 - S71 - S82 + S36*S77</f>
+        <v>32.257527193199998</v>
+      </c>
+      <c r="V87" s="4">
+        <f>S87 - V71 - V82 + V36*V77</f>
+        <v>39.082999999999998</v>
+      </c>
+      <c r="Y87" s="4">
+        <f>V87 - Y71 - Y82 + Y36*Y77</f>
+        <v>55.774358623197188</v>
+      </c>
     </row>
     <row r="88" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="B88" s="37" t="s">
-        <v>194</v>
-      </c>
+      <c r="A88" s="38"/>
+      <c r="B88" s="37"/>
       <c r="E88" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G88" s="4">
-        <f>G53*G36</f>
+        <f>G54*G37</f>
         <v>0</v>
       </c>
       <c r="J88" s="4">
-        <f>G88 - J72 - J83 + J36*J78</f>
-        <v>0.85</v>
+        <f>G88 - J72 - J83 + J37*J78</f>
+        <v>0</v>
       </c>
       <c r="M88" s="4">
-        <f>J88 - M72 - M83 + M36*M78</f>
-        <v>5.0983000000000001</v>
+        <f>J88 - M72 - M83 + M37*M78</f>
+        <v>0.8</v>
       </c>
       <c r="P88" s="4">
-        <f>M88 - P72 - P83 + P36*P78</f>
-        <v>15.288103399999999</v>
+        <f>M88 - P72 - P83 + P37*P78</f>
+        <v>4.7984</v>
       </c>
       <c r="S88" s="4">
-        <f>P88 - S72 - S83 + S36*S78</f>
-        <v>32.257527193199998</v>
+        <f>P88 - S72 - S83 + S37*S78</f>
+        <v>14.3888032</v>
       </c>
       <c r="V88" s="4">
-        <f>S88 - V72 - V83 + V36*V78</f>
-        <v>39.082999999999998</v>
+        <f>S88 - V72 - V83 + V37*V78</f>
+        <v>23.984000000000002</v>
       </c>
       <c r="Y88" s="4">
-        <f>V88 - Y72 - Y83 + Y36*Y78</f>
-        <v>55.774358623197188</v>
+        <f>V88 - Y72 - Y83 + Y37*Y78</f>
+        <v>36.783999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="38"/>
       <c r="B89" s="37"/>
       <c r="E89" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G89" s="4">
-        <f>G54*G37</f>
+        <f>G55*G38</f>
         <v>0</v>
       </c>
       <c r="J89" s="4">
-        <f>G89 - J73 - J84 + J37*J79</f>
+        <f>G89 - J73 - J84 + J38*J79</f>
         <v>0</v>
       </c>
       <c r="M89" s="4">
-        <f t="shared" ref="M89:M91" si="19">J89 - M73 - M84 + M37*M79</f>
-        <v>0.8</v>
+        <f>J89 - M73 - M84 + M38*M79</f>
+        <v>0</v>
       </c>
       <c r="P89" s="4">
-        <f t="shared" ref="P89:P91" si="20">M89 - P73 - P84 + P37*P79</f>
-        <v>4.7984</v>
+        <f>M89 - P73 - P84 + P38*P79</f>
+        <v>0.92</v>
       </c>
       <c r="S89" s="4">
-        <f t="shared" ref="S89:S91" si="21">P89 - S73 - S84 + S37*S79</f>
-        <v>14.3888032</v>
+        <f>P89 - S73 - S84 + S38*S79</f>
+        <v>5.5181600000000008</v>
       </c>
       <c r="V89" s="4">
-        <f t="shared" ref="V89:V91" si="22">S89 - V73 - V84 + V37*V79</f>
-        <v>23.984000000000002</v>
+        <f>S89 - V73 - V84 + V38*V79</f>
+        <v>16.547123679999999</v>
       </c>
       <c r="Y89" s="4">
-        <f t="shared" ref="Y89:Y91" si="23">V89 - Y73 - Y84 + Y37*Y79</f>
-        <v>36.783999999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+        <f>V89 - Y73 - Y84 + Y38*Y79</f>
+        <v>27.581600000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="38"/>
       <c r="B90" s="37"/>
       <c r="E90" s="14" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G90" s="4">
-        <f>G55*G38</f>
+        <f>G56*G39</f>
         <v>0</v>
       </c>
       <c r="J90" s="4">
-        <f t="shared" ref="J90:J91" si="24">G90 - J74 - J85 + J38*J80</f>
+        <f>G90 - J74 - J85 + J39*J80</f>
         <v>0</v>
       </c>
       <c r="M90" s="4">
-        <f t="shared" si="19"/>
+        <f>J90 - M74 - M85 + M39*M80</f>
         <v>0</v>
       </c>
       <c r="P90" s="4">
-        <f t="shared" si="20"/>
-        <v>0.92</v>
+        <f>M90 - P74 - P85 + P39*P80</f>
+        <v>0</v>
       </c>
       <c r="S90" s="4">
-        <f t="shared" si="21"/>
-        <v>5.5181600000000008</v>
+        <f>P90 - S74 - S85 + S39*S80</f>
+        <v>0.43</v>
       </c>
       <c r="V90" s="4">
-        <f t="shared" si="22"/>
-        <v>16.547123679999999</v>
+        <f>S90 - V74 - V85 + V39*V80</f>
+        <v>2.5791399999999998</v>
       </c>
       <c r="Y90" s="4">
-        <f t="shared" si="23"/>
-        <v>27.581600000000005</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="38"/>
-      <c r="B91" s="37"/>
-      <c r="E91" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G91" s="4">
-        <f>G56*G39</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M91" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P91" s="4">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S91" s="4">
-        <f t="shared" si="21"/>
-        <v>0.43</v>
-      </c>
-      <c r="V91" s="4">
-        <f t="shared" si="22"/>
-        <v>2.5791399999999998</v>
-      </c>
-      <c r="Y91" s="4">
-        <f t="shared" si="23"/>
+        <f>V90 - Y74 - Y85 + Y39*Y80</f>
         <v>7.7339817200000001</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D91" s="35"/>
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>183</v>
+      </c>
       <c r="D92" s="35"/>
-      <c r="E92" s="14"/>
+      <c r="E92" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G92" s="4">
+        <f>G58*G41</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="4">
+        <f>G92 - J76 - J87 + J41*J82</f>
+        <v>-0.85</v>
+      </c>
+      <c r="M92" s="4">
+        <f>J92 - M76 - M87 + M41*M82</f>
+        <v>-5.9482999999999997</v>
+      </c>
+      <c r="P92" s="4">
+        <f>M92 - P76 - P87 + P41*P82</f>
+        <v>-21.2364034</v>
+      </c>
+      <c r="S92" s="4">
+        <f>P92 - S76 - S87 + S41*S82</f>
+        <v>-53.493930593199998</v>
+      </c>
+      <c r="V92" s="4">
+        <f>S92 - V76 - V87 + V41*V82</f>
+        <v>-92.57693059319999</v>
+      </c>
+      <c r="Y92" s="4">
+        <f>V92 - Y76 - Y87 + Y41*Y82</f>
+        <v>-148.35128921639716</v>
+      </c>
     </row>
     <row r="93" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="B93" s="37" t="s">
-        <v>194</v>
-      </c>
+      <c r="A93" s="38"/>
+      <c r="B93" s="37"/>
       <c r="D93" s="35"/>
       <c r="E93" s="14" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G93" s="4">
-        <f>G58*G41</f>
+        <f>G59*G42</f>
         <v>0</v>
       </c>
       <c r="J93" s="4">
-        <f>G93 - J77 - J88 + J41*J83</f>
-        <v>-0.85</v>
+        <f>G93 - J77 - J88 + J42*J83</f>
+        <v>-0.01</v>
       </c>
       <c r="M93" s="4">
-        <f>J93 - M77 - M88 + M41*M83</f>
-        <v>-5.9482999999999997</v>
+        <f>J93 - M77 - M88 + M42*M83</f>
+        <v>-0.8600000000000001</v>
       </c>
       <c r="P93" s="4">
-        <f>M93 - P77 - P88 + P41*P83</f>
-        <v>-21.2364034</v>
+        <f>M93 - P77 - P88 + P42*P83</f>
+        <v>-5.7784000000000004</v>
       </c>
       <c r="S93" s="4">
-        <f>P93 - S77 - S88 + S41*S83</f>
-        <v>-53.493930593199998</v>
+        <f>P93 - S77 - S88 + S42*S83</f>
+        <v>-20.367203199999999</v>
       </c>
       <c r="V93" s="4">
-        <f>S93 - V77 - V88 + V41*V83</f>
-        <v>-92.57693059319999</v>
+        <f>S93 - V77 - V88 + V42*V83</f>
+        <v>-44.7112032</v>
       </c>
       <c r="Y93" s="4">
-        <f>V93 - Y77 - Y88 + Y41*Y83</f>
-        <v>-148.35128921639716</v>
+        <f>V93 - Y77 - Y88 + Y42*Y83</f>
+        <v>-82.05157212497879</v>
       </c>
     </row>
     <row r="94" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -9784,35 +9826,35 @@
       <c r="B94" s="37"/>
       <c r="D94" s="35"/>
       <c r="E94" s="14" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G94" s="4">
-        <f>G59*G42</f>
+        <f>G60*G43</f>
         <v>0</v>
       </c>
       <c r="J94" s="4">
-        <f t="shared" ref="J94:J96" si="25">G94 - J78 - J89 + J42*J84</f>
+        <f>G94 - J78 - J89 + J43*J84</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="4">
+        <f>J94 - M78 - M89 + M43*M84</f>
         <v>-0.01</v>
       </c>
-      <c r="M94" s="4">
-        <f t="shared" ref="M94:M96" si="26">J94 - M78 - M89 + M42*M84</f>
-        <v>-0.8600000000000001</v>
-      </c>
       <c r="P94" s="4">
-        <f t="shared" ref="P94:P96" si="27">M94 - P78 - P89 + P42*P84</f>
-        <v>-5.7784000000000004</v>
+        <f>M94 - P78 - P89 + P43*P84</f>
+        <v>-0.98000000000000009</v>
       </c>
       <c r="S94" s="4">
-        <f t="shared" ref="S94:S96" si="28">P94 - S78 - S89 + S42*S84</f>
-        <v>-20.367203199999999</v>
+        <f>P94 - S78 - S89 + S43*S84</f>
+        <v>-6.6181600000000014</v>
       </c>
       <c r="V94" s="4">
-        <f t="shared" ref="V94:V96" si="29">S94 - V78 - V89 + V42*V84</f>
-        <v>-44.7112032</v>
+        <f>S94 - V78 - V89 + V43*V84</f>
+        <v>-23.365283680000001</v>
       </c>
       <c r="Y94" s="4">
-        <f t="shared" ref="Y94:Y96" si="30">V94 - Y78 - Y89 + Y42*Y84</f>
-        <v>-82.05157212497879</v>
+        <f>V94 - Y78 - Y89 + Y43*Y84</f>
+        <v>-51.306883680000006</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -9820,1543 +9862,1584 @@
       <c r="B95" s="37"/>
       <c r="D95" s="35"/>
       <c r="E95" s="14" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G95" s="4">
-        <f>G60*G43</f>
+        <f>G61*G44</f>
         <v>0</v>
       </c>
       <c r="J95" s="4">
-        <f t="shared" si="25"/>
+        <f>G95 - J79 - J90 + J44*J85</f>
         <v>0</v>
       </c>
       <c r="M95" s="4">
-        <f t="shared" si="26"/>
+        <f>J95 - M79 - M90 + M44*M85</f>
+        <v>0</v>
+      </c>
+      <c r="P95" s="4">
+        <f>M95 - P79 - P90 + P44*P85</f>
         <v>-0.01</v>
       </c>
-      <c r="P95" s="4">
-        <f t="shared" si="27"/>
-        <v>-0.98000000000000009</v>
-      </c>
       <c r="S95" s="4">
-        <f t="shared" si="28"/>
-        <v>-6.6181600000000014</v>
+        <f>P95 - S79 - S90 + S44*S85</f>
+        <v>-0.49</v>
       </c>
       <c r="V95" s="4">
-        <f t="shared" si="29"/>
-        <v>-23.365283680000001</v>
+        <f>S95 - V79 - V90 + V44*V85</f>
+        <v>-3.1891399999999996</v>
       </c>
       <c r="Y95" s="4">
-        <f t="shared" si="30"/>
-        <v>-51.306883680000006</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="38"/>
-      <c r="B96" s="37"/>
+        <f>V95 - Y79 - Y90 + Y44*Y85</f>
+        <v>-11.12312172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A96" s="40"/>
+      <c r="B96" s="46"/>
       <c r="D96" s="35"/>
-      <c r="E96" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G96" s="4">
-        <f>G61*G44</f>
-        <v>0</v>
-      </c>
-      <c r="J96" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M96" s="4">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="P96" s="4">
-        <f t="shared" si="27"/>
-        <v>-0.01</v>
-      </c>
-      <c r="S96" s="4">
-        <f t="shared" si="28"/>
-        <v>-0.49</v>
-      </c>
-      <c r="V96" s="4">
-        <f t="shared" si="29"/>
-        <v>-3.1891399999999996</v>
-      </c>
-      <c r="Y96" s="4">
-        <f t="shared" si="30"/>
-        <v>-11.12312172</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A97" s="40"/>
-      <c r="B97" s="46"/>
+      <c r="E96" s="14"/>
+    </row>
+    <row r="97" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="D97" s="35"/>
-      <c r="E97" s="14"/>
+      <c r="E97" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G97" s="8"/>
     </row>
     <row r="98" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="45" t="s">
+        <v>196</v>
+      </c>
       <c r="D98" s="35"/>
-      <c r="E98" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G98" s="8"/>
+      <c r="E98" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F98" s="4">
+        <f>$F$27</f>
+        <v>0.3</v>
+      </c>
+      <c r="G98" s="4">
+        <f>$G$27</f>
+        <v>0.92</v>
+      </c>
+      <c r="I98" s="4">
+        <f>$F$27</f>
+        <v>0.3</v>
+      </c>
+      <c r="J98" s="4">
+        <f>$G$27</f>
+        <v>0.92</v>
+      </c>
+      <c r="L98" s="4">
+        <f>$F$27</f>
+        <v>0.3</v>
+      </c>
+      <c r="M98" s="4">
+        <f>$G$27</f>
+        <v>0.92</v>
+      </c>
+      <c r="O98" s="4">
+        <f>$F$27</f>
+        <v>0.3</v>
+      </c>
+      <c r="P98" s="4">
+        <f>$G$27</f>
+        <v>0.92</v>
+      </c>
+      <c r="R98" s="4">
+        <f>$F$27</f>
+        <v>0.3</v>
+      </c>
+      <c r="S98" s="4">
+        <f>$G$27</f>
+        <v>0.92</v>
+      </c>
+      <c r="U98" s="4">
+        <f>$F$27</f>
+        <v>0.3</v>
+      </c>
+      <c r="V98" s="4">
+        <f>$G$27</f>
+        <v>0.92</v>
+      </c>
+      <c r="X98" s="4">
+        <f>$F$27</f>
+        <v>0.3</v>
+      </c>
+      <c r="Y98" s="4">
+        <f>$G$27</f>
+        <v>0.92</v>
+      </c>
     </row>
     <row r="99" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B99" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="D99" s="35"/>
+        <v>198</v>
+      </c>
+      <c r="B99" s="41" t="s">
+        <v>183</v>
+      </c>
       <c r="E99" s="14" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="F99" s="4">
-        <f>$F$27</f>
-        <v>0.3</v>
+        <f>F7*$F$18</f>
+        <v>1500000</v>
       </c>
       <c r="G99" s="4">
-        <f>$G$27</f>
-        <v>0.92</v>
+        <f>G7*$G$18</f>
+        <v>25000000</v>
       </c>
       <c r="I99" s="4">
-        <f>$F$27</f>
-        <v>0.3</v>
+        <f>I7*$F$18</f>
+        <v>1492500</v>
       </c>
       <c r="J99" s="4">
-        <f>$G$27</f>
-        <v>0.92</v>
+        <f>J7*$G$18</f>
+        <v>24990000</v>
       </c>
       <c r="L99" s="4">
-        <f>$F$27</f>
-        <v>0.3</v>
+        <f>L7*$F$18</f>
+        <v>1483200</v>
       </c>
       <c r="M99" s="4">
-        <f>$G$27</f>
-        <v>0.92</v>
+        <f>M7*$G$18</f>
+        <v>24979000</v>
       </c>
       <c r="O99" s="4">
-        <f>$F$27</f>
-        <v>0.3</v>
+        <f>O7*$F$18</f>
+        <v>1474500</v>
       </c>
       <c r="P99" s="4">
-        <f>$G$27</f>
-        <v>0.92</v>
+        <f>P7*$G$18</f>
+        <v>24969600</v>
       </c>
       <c r="R99" s="4">
-        <f>$F$27</f>
-        <v>0.3</v>
+        <f>R7*$F$18</f>
+        <v>1464000</v>
       </c>
       <c r="S99" s="4">
-        <f>$G$27</f>
-        <v>0.92</v>
+        <f>S7*$G$18</f>
+        <v>24950400</v>
       </c>
       <c r="U99" s="4">
-        <f>$F$27</f>
-        <v>0.3</v>
+        <f>U7*$F$18</f>
+        <v>1449000</v>
       </c>
       <c r="V99" s="4">
-        <f>$G$27</f>
-        <v>0.92</v>
+        <f>V7*$G$18</f>
+        <v>24946500</v>
       </c>
       <c r="X99" s="4">
-        <f>$F$27</f>
-        <v>0.3</v>
+        <f>X7*$F$18</f>
+        <v>1434300</v>
       </c>
       <c r="Y99" s="4">
-        <f>$G$27</f>
-        <v>0.92</v>
+        <f>Y7*$G$18</f>
+        <v>24936000</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="33" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B100" s="41" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F100" s="4">
-        <f>F7*$F$18</f>
-        <v>1500000</v>
+        <v>1</v>
       </c>
       <c r="G100" s="4">
-        <f>G7*$G$18</f>
-        <v>25000000</v>
+        <v>1</v>
       </c>
       <c r="I100" s="4">
-        <f>I7*$F$18</f>
-        <v>1492500</v>
+        <f>IF(F102=0,0,MIN(MAX((F102/F99-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="J100" s="4">
-        <f>J7*$G$18</f>
-        <v>24990000</v>
+        <f>IF(G102=0,0,MIN(MAX((G102/G99-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="L100" s="4">
-        <f>L7*$F$18</f>
-        <v>1483200</v>
+        <f>IF(I102=0,0,MIN(MAX((I102/I99-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="M100" s="4">
-        <f>M7*$G$18</f>
-        <v>24979000</v>
+        <f>IF(J102=0,0,MIN(MAX((J102/J99-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="O100" s="4">
-        <f>O7*$F$18</f>
-        <v>1474500</v>
+        <f>IF(L102=0,0,MIN(MAX((L102/L99-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="P100" s="4">
-        <f>P7*$G$18</f>
-        <v>24969600</v>
+        <f>IF(M102=0,0,MIN(MAX((M102/M99-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="R100" s="4">
-        <f>R7*$F$18</f>
-        <v>1464000</v>
+        <f>IF(O102=0,0,MIN(MAX((O102/O99-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="S100" s="4">
-        <f>S7*$G$18</f>
-        <v>24950400</v>
+        <f>IF(P102=0,0,MIN(MAX((P102/P99-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="U100" s="4">
-        <f>U7*$F$18</f>
-        <v>1449000</v>
+        <f>IF(R102=0,0,MIN(MAX((R102/R99-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="V100" s="4">
-        <f>V7*$G$18</f>
-        <v>24946500</v>
+        <f>IF(S102=0,0,MIN(MAX((S102/S99-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="X100" s="4">
-        <f>X7*$F$18</f>
-        <v>1434300</v>
+        <f>IF(U102=0,0,MIN(MAX((U102/U99-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="Y100" s="4">
-        <f>Y7*$G$18</f>
-        <v>24936000</v>
+        <f>IF(V102=0,0,MIN(MAX((V102/V99-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <v>0.89139235505764625</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B101" s="41" t="s">
-        <v>194</v>
+        <v>200</v>
+      </c>
+      <c r="B101" s="44" t="s">
+        <v>168</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="F101" s="4">
-        <v>1</v>
+        <f>F98</f>
+        <v>0.3</v>
       </c>
       <c r="G101" s="4">
-        <v>1</v>
+        <f>G98</f>
+        <v>0.92</v>
       </c>
       <c r="I101" s="4">
-        <f>IF(F103=0,0,MIN(MAX((F103/F100-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
+        <f xml:space="preserve"> I98*I100</f>
+        <v>0.3</v>
       </c>
       <c r="J101" s="4">
-        <f>IF(G103=0,0,MIN(MAX((G103/G100-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
+        <f>J98*J100</f>
+        <v>0.92</v>
       </c>
       <c r="L101" s="4">
-        <f>IF(I103=0,0,MIN(MAX((I103/I100-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
+        <f xml:space="preserve"> L98*L100</f>
+        <v>0.3</v>
       </c>
       <c r="M101" s="4">
-        <f>IF(J103=0,0,MIN(MAX((J103/J100-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
+        <f>M98*M100</f>
+        <v>0.92</v>
       </c>
       <c r="O101" s="4">
-        <f>IF(L103=0,0,MIN(MAX((L103/L100-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
+        <f xml:space="preserve"> O98*O100</f>
+        <v>0.3</v>
       </c>
       <c r="P101" s="4">
-        <f>IF(M103=0,0,MIN(MAX((M103/M100-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
+        <f>P98*P100</f>
+        <v>0.92</v>
       </c>
       <c r="R101" s="4">
-        <f>IF(O103=0,0,MIN(MAX((O103/O100-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
+        <f xml:space="preserve"> R98*R100</f>
+        <v>0.3</v>
       </c>
       <c r="S101" s="4">
-        <f>IF(P103=0,0,MIN(MAX((P103/P100-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
+        <f>S98*S100</f>
+        <v>0.92</v>
       </c>
       <c r="U101" s="4">
-        <f>IF(R103=0,0,MIN(MAX((R103/R100-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
+        <f xml:space="preserve"> U98*U100</f>
+        <v>0.3</v>
       </c>
       <c r="V101" s="4">
-        <f>IF(S103=0,0,MIN(MAX((S103/S100-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
+        <f>V98*V100</f>
+        <v>0.92</v>
       </c>
       <c r="X101" s="4">
-        <f>IF(U103=0,0,MIN(MAX((U103/U100-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
+        <f xml:space="preserve"> X98*X100</f>
+        <v>0.3</v>
       </c>
       <c r="Y101" s="4">
-        <f>IF(V103=0,0,MIN(MAX((V103/V100-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>0.89139235505764625</v>
+        <f>Y98*Y100</f>
+        <v>0.82008096665303454</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="33" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B102" s="44" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="F102" s="4">
-        <f>F99</f>
-        <v>0.3</v>
+        <f>F7*F18</f>
+        <v>1500000</v>
       </c>
       <c r="G102" s="4">
-        <f>G99</f>
-        <v>0.92</v>
+        <f>G7*G18</f>
+        <v>25000000</v>
       </c>
       <c r="I102" s="4">
-        <f xml:space="preserve"> I99*I101</f>
-        <v>0.3</v>
+        <f>F102 - F122 - F110 - F134+I101*I7</f>
+        <v>1421016.5802484024</v>
       </c>
       <c r="J102" s="4">
-        <f>J99*J101</f>
-        <v>0.92</v>
+        <f>G102 - G122 - G110 - G134 + J101*J7</f>
+        <v>23245411.419751596</v>
       </c>
       <c r="L102" s="4">
-        <f xml:space="preserve"> L99*L101</f>
-        <v>0.3</v>
+        <f>I102 - I122 - I110 - I134+L101*L7</f>
+        <v>1338234.0119069479</v>
       </c>
       <c r="M102" s="4">
-        <f>M99*M101</f>
-        <v>0.92</v>
+        <f>J102 - J122 - J110 - J134 + M101*M7</f>
+        <v>21446685.855861954</v>
       </c>
       <c r="O102" s="4">
-        <f xml:space="preserve"> O99*O101</f>
-        <v>0.3</v>
+        <f>L102 - L122 - L110 - L134+O101*O7</f>
+        <v>1261074.3620328093</v>
       </c>
       <c r="P102" s="4">
-        <f>P99*P101</f>
-        <v>0.92</v>
+        <f>M102 - M122 - M110 - M134 + P101*P7</f>
+        <v>19589276.419903073</v>
       </c>
       <c r="R102" s="4">
-        <f xml:space="preserve"> R99*R101</f>
-        <v>0.3</v>
+        <f>O102 - O122 - O110 - O134+R101*R7</f>
+        <v>1186570.0048549746</v>
       </c>
       <c r="S102" s="4">
-        <f>S99*S101</f>
-        <v>0.92</v>
+        <f>P102 - P122 - P110 - P134 + S101*S7</f>
+        <v>17624976.777235985</v>
       </c>
       <c r="U102" s="4">
-        <f xml:space="preserve"> U99*U101</f>
-        <v>0.3</v>
+        <f>R102 - R122 - R110 - R134+U101*U7</f>
+        <v>1095867.5027670111</v>
       </c>
       <c r="V102" s="4">
-        <f>V99*V101</f>
-        <v>0.92</v>
+        <f>S102 - S122 - S110 - S134 + V101*V7</f>
+        <v>14901579.368863089</v>
       </c>
       <c r="X102" s="4">
-        <f xml:space="preserve"> X99*X101</f>
-        <v>0.3</v>
+        <f>U102 - U122 - U110 - U134+X101*X7</f>
+        <v>818384.25432780897</v>
       </c>
       <c r="Y102" s="4">
-        <f>Y99*Y101</f>
-        <v>0.82008096665303454</v>
+        <f>V102 - V122 - V110 - V134 + Y101*Y7</f>
+        <v>3175368.0905289678</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="33" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="F103" s="4">
-        <f>F7*F18</f>
+        <f>F102/F7</f>
+        <v>150</v>
+      </c>
+      <c r="G103" s="4">
+        <f>G102/G7</f>
+        <v>100</v>
+      </c>
+      <c r="I103" s="4">
+        <f>I102/I7</f>
+        <v>142.81573670838216</v>
+      </c>
+      <c r="J103" s="4">
+        <f>J102/J7</f>
+        <v>93.018853220294503</v>
+      </c>
+      <c r="L103" s="4">
+        <f>L102/L7</f>
+        <v>135.33920023330785</v>
+      </c>
+      <c r="M103" s="4">
+        <f>M102/M7</f>
+        <v>85.858864869938571</v>
+      </c>
+      <c r="O103" s="4">
+        <f>O102/O7</f>
+        <v>128.28833794840381</v>
+      </c>
+      <c r="P103" s="4">
+        <f>P102/P7</f>
+        <v>78.452503924384345</v>
+      </c>
+      <c r="R103" s="4">
+        <f>R102/R7</f>
+        <v>121.57479557940313</v>
+      </c>
+      <c r="S103" s="4">
+        <f>S102/S7</f>
+        <v>70.640056981996224</v>
+      </c>
+      <c r="U103" s="4">
+        <f>U102/U7</f>
+        <v>113.44384086615021</v>
+      </c>
+      <c r="V103" s="4">
+        <f>V102/V7</f>
+        <v>59.73414855335654</v>
+      </c>
+      <c r="X103" s="4">
+        <f>X102/X7</f>
+        <v>85.58714226394153</v>
+      </c>
+      <c r="Y103" s="4">
+        <f>Y102/Y7</f>
+        <v>12.73407158537443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E104" s="13"/>
+    </row>
+    <row r="105" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="E105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+    </row>
+    <row r="106" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F106" s="4">
+        <f>F103*F7</f>
         <v>1500000</v>
       </c>
-      <c r="G103" s="4">
-        <f>G7*G18</f>
+      <c r="G106" s="4">
+        <f>G103*G7</f>
         <v>25000000</v>
       </c>
-      <c r="I103" s="4">
-        <f>F103 - F123 - F111 - F135+I102*I7</f>
+      <c r="I106" s="4">
+        <f>I103*I7</f>
         <v>1421016.5802484024</v>
       </c>
-      <c r="J103" s="4">
-        <f>G103 - G123 - G111 - G135 + J102*J7</f>
+      <c r="J106" s="4">
+        <f>J103*J7</f>
         <v>23245411.419751596</v>
       </c>
-      <c r="L103" s="4">
-        <f>I103 - I123 - I111 - I135+L102*L7</f>
+      <c r="L106" s="4">
+        <f>L103*L7</f>
         <v>1338234.0119069479</v>
       </c>
-      <c r="M103" s="4">
-        <f>J103 - J123 - J111 - J135 + M102*M7</f>
+      <c r="M106" s="4">
+        <f>M103*M7</f>
         <v>21446685.855861954</v>
       </c>
-      <c r="O103" s="4">
-        <f>L103 - L123 - L111 - L135+O102*O7</f>
-        <v>1261074.3620328093</v>
-      </c>
-      <c r="P103" s="4">
-        <f>M103 - M123 - M111 - M135 + P102*P7</f>
+      <c r="O106" s="4">
+        <f>O103*O7</f>
+        <v>1261074.3620328095</v>
+      </c>
+      <c r="P106" s="4">
+        <f>P103*P7</f>
         <v>19589276.419903073</v>
       </c>
-      <c r="R103" s="4">
-        <f>O103 - O123 - O111 - O135+R102*R7</f>
+      <c r="R106" s="4">
+        <f>R103*R7</f>
         <v>1186570.0048549746</v>
       </c>
-      <c r="S103" s="4">
-        <f>P103 - P123 - P111 - P135 + S102*S7</f>
+      <c r="S106" s="4">
+        <f>S103*S7</f>
         <v>17624976.777235985</v>
       </c>
-      <c r="U103" s="4">
-        <f>R103 - R123 - R111 - R135+U102*U7</f>
+      <c r="U106" s="4">
+        <f>U103*U7</f>
         <v>1095867.5027670111</v>
       </c>
-      <c r="V103" s="4">
-        <f>S103 - S123 - S111 - S135 + V102*V7</f>
+      <c r="V106" s="4">
+        <f>V103*V7</f>
         <v>14901579.368863089</v>
       </c>
-      <c r="X103" s="4">
-        <f>U103 - U123 - U111 - U135+X102*X7</f>
-        <v>818384.25432780897</v>
-      </c>
-      <c r="Y103" s="4">
-        <f>V103 - V123 - V111 - V135 + Y102*Y7</f>
+      <c r="X106" s="4">
+        <f>X103*X7</f>
+        <v>818384.25432780886</v>
+      </c>
+      <c r="Y106" s="4">
+        <f>Y103*Y7</f>
         <v>3175368.0905289678</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B104" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="E104" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F104" s="4">
-        <f>F103/F7</f>
-        <v>150</v>
-      </c>
-      <c r="G104" s="4">
-        <f>G103/G7</f>
-        <v>100</v>
-      </c>
-      <c r="I104" s="4">
-        <f>I103/I7</f>
-        <v>142.81573670838216</v>
-      </c>
-      <c r="J104" s="4">
-        <f>J103/J7</f>
-        <v>93.018853220294503</v>
-      </c>
-      <c r="L104" s="4">
-        <f>L103/L7</f>
-        <v>135.33920023330785</v>
-      </c>
-      <c r="M104" s="4">
-        <f>M103/M7</f>
-        <v>85.858864869938571</v>
-      </c>
-      <c r="O104" s="4">
-        <f>O103/O7</f>
-        <v>128.28833794840381</v>
-      </c>
-      <c r="P104" s="4">
-        <f>P103/P7</f>
-        <v>78.452503924384345</v>
-      </c>
-      <c r="R104" s="4">
-        <f>R103/R7</f>
-        <v>121.57479557940313</v>
-      </c>
-      <c r="S104" s="4">
-        <f>S103/S7</f>
-        <v>70.640056981996224</v>
-      </c>
-      <c r="U104" s="4">
-        <f>U103/U7</f>
-        <v>113.44384086615021</v>
-      </c>
-      <c r="V104" s="4">
-        <f>V103/V7</f>
-        <v>59.73414855335654</v>
-      </c>
-      <c r="X104" s="4">
-        <f>X103/X7</f>
-        <v>85.58714226394153</v>
-      </c>
-      <c r="Y104" s="4">
-        <f>Y103/Y7</f>
-        <v>12.73407158537443</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E105" s="13"/>
-    </row>
-    <row r="106" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="E106" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="R106" s="12"/>
-      <c r="S106" s="12"/>
-      <c r="U106" s="12"/>
-      <c r="V106" s="12"/>
-      <c r="X106" s="12"/>
-      <c r="Y106" s="12"/>
     </row>
     <row r="107" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B107" s="45" t="s">
-        <v>207</v>
+        <v>203</v>
+      </c>
+      <c r="B107" s="44" t="s">
+        <v>168</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="F107" s="4">
-        <f>F104*F7</f>
-        <v>1500000</v>
+        <v>248</v>
       </c>
       <c r="G107" s="4">
-        <f>G104*G7</f>
-        <v>25000000</v>
-      </c>
-      <c r="I107" s="4">
-        <f>I104*I7</f>
-        <v>1421016.5802484024</v>
+        <f>SUM(G87:G90)</f>
+        <v>0</v>
       </c>
       <c r="J107" s="4">
-        <f>J104*J7</f>
-        <v>23245411.419751596</v>
-      </c>
-      <c r="L107" s="4">
-        <f>L104*L7</f>
-        <v>1338234.0119069479</v>
+        <f>SUM(J87:J90)</f>
+        <v>0.85</v>
       </c>
       <c r="M107" s="4">
-        <f>M104*M7</f>
-        <v>21446685.855861954</v>
-      </c>
-      <c r="O107" s="4">
-        <f>O104*O7</f>
-        <v>1261074.3620328095</v>
+        <f>SUM(M87:M90)</f>
+        <v>5.8982999999999999</v>
       </c>
       <c r="P107" s="4">
-        <f>P104*P7</f>
-        <v>19589276.419903073</v>
-      </c>
-      <c r="R107" s="4">
-        <f>R104*R7</f>
-        <v>1186570.0048549746</v>
+        <f>SUM(P87:P90)</f>
+        <v>21.0065034</v>
       </c>
       <c r="S107" s="4">
-        <f>S104*S7</f>
-        <v>17624976.777235985</v>
-      </c>
-      <c r="U107" s="4">
-        <f>U104*U7</f>
-        <v>1095867.5027670111</v>
+        <f>SUM(S87:S90)</f>
+        <v>52.594490393199997</v>
       </c>
       <c r="V107" s="4">
-        <f>V104*V7</f>
-        <v>14901579.368863089</v>
-      </c>
-      <c r="X107" s="4">
-        <f>X104*X7</f>
-        <v>818384.25432780886</v>
+        <f>SUM(V87:V90)</f>
+        <v>82.193263680000001</v>
       </c>
       <c r="Y107" s="4">
-        <f>Y104*Y7</f>
-        <v>3175368.0905289678</v>
+        <f>SUM(Y87:Y90)</f>
+        <v>127.87394034319721</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="33" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B108" s="44" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>259</v>
+        <v>247</v>
+      </c>
+      <c r="F108" s="4">
+        <f>F106+F107</f>
+        <v>1500000</v>
       </c>
       <c r="G108" s="4">
-        <f>SUM(G88:G91)</f>
-        <v>0</v>
+        <f>G106+G107</f>
+        <v>25000000</v>
+      </c>
+      <c r="I108" s="4">
+        <f>I106+I107</f>
+        <v>1421016.5802484024</v>
       </c>
       <c r="J108" s="4">
-        <f>SUM(J88:J91)</f>
-        <v>0.85</v>
+        <f>J106+J107</f>
+        <v>23245412.269751597</v>
+      </c>
+      <c r="L108" s="4">
+        <f>L106+L107</f>
+        <v>1338234.0119069479</v>
       </c>
       <c r="M108" s="4">
-        <f>SUM(M88:M91)</f>
-        <v>5.8982999999999999</v>
+        <f>M106+M107</f>
+        <v>21446691.754161954</v>
+      </c>
+      <c r="O108" s="4">
+        <f>O106+O107</f>
+        <v>1261074.3620328095</v>
       </c>
       <c r="P108" s="4">
-        <f>SUM(P88:P91)</f>
-        <v>21.0065034</v>
+        <f>P106+P107</f>
+        <v>19589297.426406473</v>
+      </c>
+      <c r="R108" s="4">
+        <f>R106+R107</f>
+        <v>1186570.0048549746</v>
       </c>
       <c r="S108" s="4">
-        <f>SUM(S88:S91)</f>
-        <v>52.594490393199997</v>
+        <f>S106+S107</f>
+        <v>17625029.371726379</v>
+      </c>
+      <c r="U108" s="4">
+        <f>U106+U107</f>
+        <v>1095867.5027670111</v>
       </c>
       <c r="V108" s="4">
-        <f>SUM(V88:V91)</f>
-        <v>82.193263680000001</v>
+        <f>V106+V107</f>
+        <v>14901661.562126769</v>
+      </c>
+      <c r="X108" s="4">
+        <f>X106+X107</f>
+        <v>818384.25432780886</v>
       </c>
       <c r="Y108" s="4">
-        <f>SUM(Y88:Y91)</f>
-        <v>127.87394034319721</v>
+        <f>Y106+Y107</f>
+        <v>3175495.9644693108</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="33" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B109" s="44" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F109" s="4">
-        <f>F107+F108</f>
-        <v>1500000</v>
+        <f>F102*$F$19</f>
+        <v>450000</v>
       </c>
       <c r="G109" s="4">
-        <f>G107+G108</f>
-        <v>25000000</v>
+        <f>G102*$G$19</f>
+        <v>6250000</v>
       </c>
       <c r="I109" s="4">
-        <f>I107+I108</f>
-        <v>1421016.5802484024</v>
+        <f>F109-F113-F135+I101*I7*$F$19</f>
+        <v>427157.49807066203</v>
       </c>
       <c r="J109" s="4">
-        <f>J107+J108</f>
-        <v>23245412.269751597</v>
+        <f>G109-G113-G135+J101*J7*$G$19</f>
+        <v>5822883.6682744483</v>
       </c>
       <c r="L109" s="4">
-        <f>L107+L108</f>
-        <v>1338234.0119069479</v>
+        <f>I109-I113-I135+L101*L7*$F$19</f>
+        <v>405781.86637034442</v>
       </c>
       <c r="M109" s="4">
-        <f>M107+M108</f>
-        <v>21446691.754161954</v>
+        <f>J109-J113-J135+M101*M7*$G$19</f>
+        <v>5386389.9946913794</v>
       </c>
       <c r="O109" s="4">
-        <f>O107+O108</f>
-        <v>1261074.3620328095</v>
+        <f>L109-L113-L135+O101*O7*$F$19</f>
+        <v>385745.26148536842</v>
       </c>
       <c r="P109" s="4">
-        <f>P107+P108</f>
-        <v>19589297.426406473</v>
+        <f>M109-M113-M135+P101*P7*$G$19</f>
+        <v>4933754.4954288593</v>
       </c>
       <c r="R109" s="4">
-        <f>R107+R108</f>
-        <v>1186570.0048549746</v>
+        <f>O109-O113-O135+R101*R7*$F$19</f>
+        <v>366799.61784868693</v>
       </c>
       <c r="S109" s="4">
-        <f>S107+S108</f>
-        <v>17625029.371726379</v>
+        <f>P109-P113-P135+S101*S7*$G$19</f>
+        <v>4455160.4517927608</v>
       </c>
       <c r="U109" s="4">
-        <f>U107+U108</f>
-        <v>1095867.5027670111</v>
+        <f>R109-R113-R135+U101*U7*$F$19</f>
+        <v>343893.20698312705</v>
       </c>
       <c r="V109" s="4">
-        <f>V107+V108</f>
-        <v>14901661.562126769</v>
+        <f>S109-S113-S135+V101*V7*$G$19</f>
+        <v>3782350.5775140608</v>
       </c>
       <c r="X109" s="4">
-        <f>X107+X108</f>
-        <v>818384.25432780886</v>
+        <f>U109-U113-U135+X101*X7*$F$19</f>
+        <v>264473.77134537301</v>
       </c>
       <c r="Y109" s="4">
-        <f>Y107+Y108</f>
-        <v>3175495.9644693108</v>
+        <f>V109-V113-V135+Y101*Y7*$G$19</f>
+        <v>853846.65592415316</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="B110" s="44" t="s">
-        <v>178</v>
+        <v>194</v>
+      </c>
+      <c r="B110" s="41" t="s">
+        <v>183</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="F110" s="4">
-        <f>F103*$F$19</f>
-        <v>450000</v>
+        <f>F9*F103</f>
+        <v>7500</v>
       </c>
       <c r="G110" s="4">
-        <f>G103*$G$19</f>
-        <v>6250000</v>
+        <f>G9*G103</f>
+        <v>10000</v>
       </c>
       <c r="I110" s="4">
-        <f>F110-F114-F136+I102*I7*$F$19</f>
-        <v>427157.49807066203</v>
+        <f>I9*I103</f>
+        <v>8854.5756759196938</v>
       </c>
       <c r="J110" s="4">
-        <f>G110-G114-G136+J102*J7*$G$19</f>
-        <v>5822883.6682744483</v>
+        <f>J9*J103</f>
+        <v>10232.073854232396</v>
       </c>
       <c r="L110" s="4">
-        <f>I110-I114-I136+L102*L7*$F$19</f>
-        <v>405781.86637034442</v>
+        <f>L9*L103</f>
+        <v>7849.6736135318552</v>
       </c>
       <c r="M110" s="4">
-        <f>J110-J114-J136+M102*M7*$G$19</f>
-        <v>5386389.9946913794</v>
+        <f>M9*M103</f>
+        <v>8070.7332977742253</v>
       </c>
       <c r="O110" s="4">
-        <f>L110-L114-L136+O102*O7*$F$19</f>
-        <v>385745.26148536842</v>
+        <f>O9*O103</f>
+        <v>8980.1836563882662</v>
       </c>
       <c r="P110" s="4">
-        <f>M110-M114-M136+P102*P7*$G$19</f>
-        <v>4933754.4954288593</v>
+        <f>P9*P103</f>
+        <v>15062.880753481793</v>
       </c>
       <c r="R110" s="4">
-        <f>O110-O114-O136+R102*R7*$F$19</f>
-        <v>366799.61784868693</v>
+        <f>R9*R103</f>
+        <v>12157.479557940313</v>
       </c>
       <c r="S110" s="4">
-        <f>P110-P114-P136+S102*S7*$G$19</f>
-        <v>4455160.4517927608</v>
+        <f>S9*S103</f>
+        <v>2754.9622222978528</v>
       </c>
       <c r="U110" s="4">
-        <f>R110-R114-R136+U102*U7*$F$19</f>
-        <v>343893.20698312705</v>
+        <f>U9*U103</f>
+        <v>11117.496404882721</v>
       </c>
       <c r="V110" s="4">
-        <f>S110-S114-S136+V102*V7*$G$19</f>
-        <v>3782350.5775140608</v>
+        <f>V9*V103</f>
+        <v>6272.085598102437</v>
       </c>
       <c r="X110" s="4">
-        <f>U110-U114-U136+X102*X7*$F$19</f>
-        <v>264473.77134537301</v>
+        <f>X9*X103</f>
+        <v>8387.5399418662691</v>
       </c>
       <c r="Y110" s="4">
-        <f>V110-V114-V136+Y102*Y7*$G$19</f>
-        <v>853846.65592415316</v>
+        <f>Y9*Y103</f>
+        <v>1337.0775164643151</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B111" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
+      </c>
+      <c r="B111" s="44" t="s">
+        <v>168</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="F111" s="4">
-        <f>F9*F104</f>
-        <v>7500</v>
+        <f>F110*$F$14</f>
+        <v>5250</v>
       </c>
       <c r="G111" s="4">
-        <f>G9*G104</f>
-        <v>10000</v>
+        <f>G110*$F$14</f>
+        <v>7000</v>
       </c>
       <c r="I111" s="4">
-        <f>I9*I104</f>
-        <v>8854.5756759196938</v>
+        <f>I110*$F$14</f>
+        <v>6198.2029731437851</v>
       </c>
       <c r="J111" s="4">
-        <f>J9*J104</f>
-        <v>10232.073854232396</v>
+        <f>J110*$F$14</f>
+        <v>7162.4516979626769</v>
       </c>
       <c r="L111" s="4">
-        <f>L9*L104</f>
-        <v>7849.6736135318552</v>
+        <f>L110*$F$14</f>
+        <v>5494.7715294722984</v>
       </c>
       <c r="M111" s="4">
-        <f>M9*M104</f>
-        <v>8070.7332977742253</v>
+        <f>M110*$F$14</f>
+        <v>5649.5133084419576</v>
       </c>
       <c r="O111" s="4">
-        <f>O9*O104</f>
-        <v>8980.1836563882662</v>
+        <f>O110*$F$14</f>
+        <v>6286.1285594717856</v>
       </c>
       <c r="P111" s="4">
-        <f>P9*P104</f>
-        <v>15062.880753481793</v>
+        <f>P110*$F$14</f>
+        <v>10544.016527437254</v>
       </c>
       <c r="R111" s="4">
-        <f>R9*R104</f>
-        <v>12157.479557940313</v>
+        <f>R110*$F$14</f>
+        <v>8510.2356905582183</v>
       </c>
       <c r="S111" s="4">
-        <f>S9*S104</f>
-        <v>2754.9622222978528</v>
+        <f>S110*$F$14</f>
+        <v>1928.4735556084968</v>
       </c>
       <c r="U111" s="4">
-        <f>U9*U104</f>
-        <v>11117.496404882721</v>
+        <f>U110*$F$14</f>
+        <v>7782.2474834179038</v>
       </c>
       <c r="V111" s="4">
-        <f>V9*V104</f>
-        <v>6272.085598102437</v>
+        <f>V110*$F$14</f>
+        <v>4390.459918671706</v>
       </c>
       <c r="X111" s="4">
-        <f>X9*X104</f>
-        <v>8387.5399418662691</v>
+        <f>X110*$F$14</f>
+        <v>5871.2779593063879</v>
       </c>
       <c r="Y111" s="4">
-        <f>Y9*Y104</f>
-        <v>1337.0775164643151</v>
+        <f>Y110*$F$14</f>
+        <v>935.95426152502046</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="33" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B112" s="44" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="F112" s="4">
-        <f>F111*$F$14</f>
-        <v>5250</v>
+        <f>F110*(1-$F$14)</f>
+        <v>2250.0000000000005</v>
       </c>
       <c r="G112" s="4">
-        <f>G111*$F$14</f>
-        <v>7000</v>
+        <f>G110*(1-$F$14)</f>
+        <v>3000.0000000000005</v>
       </c>
       <c r="I112" s="4">
-        <f>I111*$F$14</f>
-        <v>6198.2029731437851</v>
+        <f>I110*(1-$F$14)</f>
+        <v>2656.3727027759087</v>
       </c>
       <c r="J112" s="4">
-        <f>J111*$F$14</f>
-        <v>7162.4516979626769</v>
+        <f>J110*(1-$F$14)</f>
+        <v>3069.6221562697192</v>
       </c>
       <c r="L112" s="4">
-        <f>L111*$F$14</f>
-        <v>5494.7715294722984</v>
+        <f>L110*(1-$F$14)</f>
+        <v>2354.9020840595567</v>
       </c>
       <c r="M112" s="4">
-        <f>M111*$F$14</f>
-        <v>5649.5133084419576</v>
+        <f>M110*(1-$F$14)</f>
+        <v>2421.2199893322681</v>
       </c>
       <c r="O112" s="4">
-        <f>O111*$F$14</f>
-        <v>6286.1285594717856</v>
+        <f>O110*(1-$F$14)</f>
+        <v>2694.0550969164801</v>
       </c>
       <c r="P112" s="4">
-        <f>P111*$F$14</f>
-        <v>10544.016527437254</v>
+        <f>P110*(1-$F$14)</f>
+        <v>4518.8642260445386</v>
       </c>
       <c r="R112" s="4">
-        <f>R111*$F$14</f>
-        <v>8510.2356905582183</v>
+        <f>R110*(1-$F$14)</f>
+        <v>3647.2438673820943</v>
       </c>
       <c r="S112" s="4">
-        <f>S111*$F$14</f>
-        <v>1928.4735556084968</v>
+        <f>S110*(1-$F$14)</f>
+        <v>826.48866668935591</v>
       </c>
       <c r="U112" s="4">
-        <f>U111*$F$14</f>
-        <v>7782.2474834179038</v>
+        <f>U110*(1-$F$14)</f>
+        <v>3335.2489214648167</v>
       </c>
       <c r="V112" s="4">
-        <f>V111*$F$14</f>
-        <v>4390.459918671706</v>
+        <f>V110*(1-$F$14)</f>
+        <v>1881.6256794307315</v>
       </c>
       <c r="X112" s="4">
-        <f>X111*$F$14</f>
-        <v>5871.2779593063879</v>
+        <f>X110*(1-$F$14)</f>
+        <v>2516.2619825598813</v>
       </c>
       <c r="Y112" s="4">
-        <f>Y111*$F$14</f>
-        <v>935.95426152502046</v>
+        <f>Y110*(1-$F$14)</f>
+        <v>401.12325493929455</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="33" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B113" s="44" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F113" s="4">
-        <f>F111*(1-$F$14)</f>
-        <v>2250.0000000000005</v>
+        <f>F110*$F19</f>
+        <v>2250</v>
       </c>
       <c r="G113" s="4">
-        <f>G111*(1-$F$14)</f>
-        <v>3000.0000000000005</v>
-      </c>
-      <c r="I113" s="4">
-        <f>I111*(1-$F$14)</f>
-        <v>2656.3727027759087</v>
-      </c>
-      <c r="J113" s="4">
-        <f>J111*(1-$F$14)</f>
-        <v>3069.6221562697192</v>
-      </c>
-      <c r="L113" s="4">
-        <f>L111*(1-$F$14)</f>
-        <v>2354.9020840595567</v>
-      </c>
-      <c r="M113" s="4">
-        <f>M111*(1-$F$14)</f>
-        <v>2421.2199893322681</v>
-      </c>
-      <c r="O113" s="4">
-        <f>O111*(1-$F$14)</f>
-        <v>2694.0550969164801</v>
-      </c>
-      <c r="P113" s="4">
-        <f>P111*(1-$F$14)</f>
-        <v>4518.8642260445386</v>
-      </c>
-      <c r="R113" s="4">
-        <f>R111*(1-$F$14)</f>
-        <v>3647.2438673820943</v>
-      </c>
-      <c r="S113" s="4">
-        <f>S111*(1-$F$14)</f>
-        <v>826.48866668935591</v>
-      </c>
-      <c r="U113" s="4">
-        <f>U111*(1-$F$14)</f>
-        <v>3335.2489214648167</v>
-      </c>
-      <c r="V113" s="4">
-        <f>V111*(1-$F$14)</f>
-        <v>1881.6256794307315</v>
-      </c>
-      <c r="X113" s="4">
-        <f>X111*(1-$F$14)</f>
-        <v>2516.2619825598813</v>
-      </c>
-      <c r="Y113" s="4">
-        <f>Y111*(1-$F$14)</f>
-        <v>401.12325493929455</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="B114" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="E114" s="10" t="s">
+        <f>G110*$G19</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z114">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA114">
+        <f>SUM(Z$6:Z114)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB114">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="F114" s="4">
-        <f>F111*$F19</f>
-        <v>2250</v>
-      </c>
-      <c r="G114" s="4">
-        <f>G111*$G19</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Z115">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AA115">
-        <f>SUM(Z$6:Z115)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AB115">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A116" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B116" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E116" s="10" t="s">
+      <c r="E115" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F116" s="4">
-        <f>MAX(F13-F25, 0)*F126</f>
+      <c r="F115" s="4">
+        <f>MAX(F13-F25, 0)*F125</f>
         <v>741757.5</v>
       </c>
-      <c r="G116" s="4">
-        <f>MAX(G13-G25, 0)*G126</f>
+      <c r="G115" s="4">
+        <f>MAX(G13-G25, 0)*G125</f>
         <v>19970010</v>
       </c>
-      <c r="I116" s="4">
-        <f>MAX(I13-I25, 0)*I126</f>
+      <c r="I115" s="4">
+        <f>MAX(I13-I25, 0)*I125</f>
         <v>697350.12103057199</v>
       </c>
-      <c r="J116" s="4">
-        <f>MAX(J13-J25, 0)*J126</f>
+      <c r="J115" s="4">
+        <f>MAX(J13-J25, 0)*J125</f>
         <v>18564257.684882641</v>
       </c>
-      <c r="L116" s="4">
-        <f>MAX(L13-L25, 0)*L126</f>
+      <c r="L115" s="4">
+        <f>MAX(L13-L25, 0)*L125</f>
         <v>585369.23701022298</v>
       </c>
-      <c r="M116" s="4">
-        <f>MAX(M13-M25, 0)*M126</f>
+      <c r="M115" s="4">
+        <f>MAX(M13-M25, 0)*M125</f>
         <v>17125702.279067256</v>
       </c>
-      <c r="O116" s="4">
-        <f>MAX(O13-O25, 0)*O126</f>
+      <c r="O115" s="4">
+        <f>MAX(O13-O25, 0)*O125</f>
         <v>481800.15068599832</v>
       </c>
-      <c r="P116" s="4">
-        <f>MAX(P13-P25, 0)*P126</f>
+      <c r="P115" s="4">
+        <f>MAX(P13-P25, 0)*P125</f>
         <v>15631637.942930376</v>
       </c>
-      <c r="R116" s="4">
-        <f>MAX(R13-R25, 0)*R126</f>
+      <c r="R115" s="4">
+        <f>MAX(R13-R25, 0)*R125</f>
         <v>383702.35403091385</v>
       </c>
-      <c r="S116" s="4">
-        <f>MAX(S13-S25, 0)*S126</f>
+      <c r="S115" s="4">
+        <f>MAX(S13-S25, 0)*S125</f>
         <v>14140812.522895874</v>
       </c>
-      <c r="U116" s="4">
-        <f>MAX(U13-U25, 0)*U126</f>
+      <c r="U115" s="4">
+        <f>MAX(U13-U25, 0)*U125</f>
         <v>267600.05212584679</v>
       </c>
-      <c r="V116" s="4">
-        <f>MAX(V13-V25, 0)*V126</f>
+      <c r="V115" s="4">
+        <f>MAX(V13-V25, 0)*V125</f>
         <v>11918480.929873837</v>
       </c>
-      <c r="X116" s="4">
-        <f>MAX(X13-X25, 0)*X126</f>
+      <c r="X115" s="4">
+        <f>MAX(X13-X25, 0)*X125</f>
         <v>193429.6900855636</v>
       </c>
-      <c r="Y116" s="4">
-        <f>MAX(Y13-Y25, 0)*Y126</f>
+      <c r="Y115" s="4">
+        <f>MAX(Y13-Y25, 0)*Y125</f>
         <v>2523718.9695364693</v>
       </c>
     </row>
+    <row r="117" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="E117" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="8"/>
+      <c r="U117" s="8"/>
+      <c r="V117" s="8"/>
+      <c r="X117" s="8"/>
+      <c r="Y117" s="8"/>
+    </row>
     <row r="118" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="E118" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
-      <c r="O118" s="8"/>
-      <c r="P118" s="8"/>
-      <c r="R118" s="8"/>
-      <c r="S118" s="8"/>
-      <c r="U118" s="8"/>
-      <c r="V118" s="8"/>
-      <c r="X118" s="8"/>
-      <c r="Y118" s="8"/>
+      <c r="A118" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F118" s="4">
+        <f>MIN(F130,F31)</f>
+        <v>2000000</v>
+      </c>
+      <c r="I118" s="4">
+        <f>MIN(I130,I31)</f>
+        <v>2050000</v>
+      </c>
+      <c r="L118" s="4">
+        <f>MIN(L130,L31)</f>
+        <v>2110000</v>
+      </c>
+      <c r="O118" s="4">
+        <f>MIN(O130,O31)</f>
+        <v>2210000</v>
+      </c>
+      <c r="R118" s="4">
+        <f>MIN(R130,R31)</f>
+        <v>3000000</v>
+      </c>
+      <c r="U118" s="4">
+        <f>MIN(U130,U31)</f>
+        <v>12186080.981999684</v>
+      </c>
+      <c r="X118" s="4">
+        <f>MIN(X130,X31)</f>
+        <v>1776649.2395067073</v>
+      </c>
     </row>
     <row r="119" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="33" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B119" s="41" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F119" s="4">
-        <f>MIN(F131,F31)</f>
-        <v>2000000</v>
+        <f>F31-F118</f>
+        <v>0</v>
       </c>
       <c r="I119" s="4">
-        <f>MIN(I131,I31)</f>
-        <v>2050000</v>
+        <f>I31-I118</f>
+        <v>0</v>
       </c>
       <c r="L119" s="4">
-        <f>MIN(L131,L31)</f>
-        <v>2110000</v>
+        <f>L31-L118</f>
+        <v>0</v>
       </c>
       <c r="O119" s="4">
-        <f>MIN(O131,O31)</f>
-        <v>2210000</v>
+        <f>O31-O118</f>
+        <v>0</v>
       </c>
       <c r="R119" s="4">
-        <f>MIN(R131,R31)</f>
-        <v>3000000</v>
+        <f>R31-R118</f>
+        <v>0</v>
       </c>
       <c r="U119" s="4">
-        <f>MIN(U131,U31)</f>
-        <v>12186080.981999684</v>
+        <f>U31-U118</f>
+        <v>12813919.018000316</v>
       </c>
       <c r="X119" s="4">
-        <f>MIN(X131,X31)</f>
-        <v>1776649.2395067073</v>
+        <f>X31-X118</f>
+        <v>743350.76049329271</v>
       </c>
     </row>
     <row r="120" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B120" s="41" t="s">
-        <v>194</v>
+        <v>208</v>
+      </c>
+      <c r="B120" s="44" t="s">
+        <v>168</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="F120" s="4">
-        <f>F31-F119</f>
-        <v>0</v>
+        <f>MIN(F31,F118)</f>
+        <v>2000000</v>
       </c>
       <c r="I120" s="4">
-        <f>I31-I119</f>
-        <v>0</v>
+        <f>MIN(I31,I118)</f>
+        <v>2050000</v>
       </c>
       <c r="L120" s="4">
-        <f>L31-L119</f>
-        <v>0</v>
+        <f>MIN(L31,L118)</f>
+        <v>2110000</v>
       </c>
       <c r="O120" s="4">
-        <f>O31-O119</f>
-        <v>0</v>
+        <f>MIN(O31,O118)</f>
+        <v>2210000</v>
       </c>
       <c r="R120" s="4">
-        <f>R31-R119</f>
-        <v>0</v>
+        <f>MIN(R31,R118)</f>
+        <v>3000000</v>
       </c>
       <c r="U120" s="4">
-        <f>U31-U119</f>
-        <v>12813919.018000316</v>
+        <f>MIN(U31,U118)</f>
+        <v>12186080.981999684</v>
       </c>
       <c r="X120" s="4">
-        <f>X31-X119</f>
-        <v>743350.76049329271</v>
+        <f>MIN(X31,X118)</f>
+        <v>1776649.2395067073</v>
       </c>
     </row>
     <row r="121" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="33" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="B121" s="44" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="F121" s="4">
-        <f>MIN(F31,F119)</f>
-        <v>2000000</v>
+        <f>MIN(F119,G68)</f>
+        <v>0</v>
       </c>
       <c r="I121" s="4">
-        <f>MIN(I31,I119)</f>
-        <v>2050000</v>
+        <f>MIN(I119,J68)</f>
+        <v>0</v>
       </c>
       <c r="L121" s="4">
-        <f>MIN(L31,L119)</f>
-        <v>2110000</v>
+        <f>MIN(L119,M68)</f>
+        <v>0</v>
       </c>
       <c r="O121" s="4">
-        <f>MIN(O31,O119)</f>
-        <v>2210000</v>
+        <f>MIN(O119,P68)</f>
+        <v>0</v>
       </c>
       <c r="R121" s="4">
-        <f>MIN(R31,R119)</f>
-        <v>3000000</v>
+        <f>MIN(R119,S68)</f>
+        <v>0</v>
       </c>
       <c r="U121" s="4">
-        <f>MIN(U31,U119)</f>
-        <v>12186080.981999684</v>
+        <f>MIN(U119,V68)</f>
+        <v>30.146330393199996</v>
       </c>
       <c r="X121" s="4">
-        <f>MIN(X31,X119)</f>
-        <v>1776649.2395067073</v>
+        <f>MIN(X119,Y68)</f>
+        <v>53.914123679999996</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="33" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B122" s="44" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="F122" s="4">
-        <f>MIN(F120,G69)</f>
-        <v>0</v>
+        <f>F131*F120</f>
+        <v>71626.673097793318</v>
+      </c>
+      <c r="G122" s="4">
+        <f>G131*F120</f>
+        <v>1928373.3269022068</v>
       </c>
       <c r="I122" s="4">
-        <f>MIN(I120,J69)</f>
-        <v>0</v>
+        <f>I131*I120</f>
+        <v>74218.505667725345</v>
+      </c>
+      <c r="J122" s="4">
+        <f>J131*I120</f>
+        <v>1975781.4943322747</v>
       </c>
       <c r="L122" s="4">
-        <f>MIN(L120,M69)</f>
-        <v>0</v>
+        <f>L131*L120</f>
+        <v>69737.682949920025</v>
+      </c>
+      <c r="M122" s="4">
+        <f>M131*L120</f>
+        <v>2040262.31705008</v>
       </c>
       <c r="O122" s="4">
-        <f>MIN(O120,P69)</f>
-        <v>0</v>
+        <f>O131*O120</f>
+        <v>66080.145455604987</v>
+      </c>
+      <c r="P122" s="4">
+        <f>P131*O120</f>
+        <v>2143919.8545443951</v>
       </c>
       <c r="R122" s="4">
-        <f>MIN(R120,S69)</f>
-        <v>0</v>
+        <f>R131*R120</f>
+        <v>79252.702885199687</v>
+      </c>
+      <c r="S122" s="4">
+        <f>S131*R120</f>
+        <v>2920747.2971148002</v>
       </c>
       <c r="U122" s="4">
-        <f>MIN(U120,V69)</f>
-        <v>30.146330393199996</v>
+        <f>U131*U120</f>
+        <v>267600.05212584679</v>
+      </c>
+      <c r="V122" s="4">
+        <f>V131*U120</f>
+        <v>11918480.929873837</v>
       </c>
       <c r="X122" s="4">
-        <f>MIN(X120,Y69)</f>
-        <v>53.914123679999996</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="B123" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="F123" s="4">
-        <f>F132*F121</f>
-        <v>71626.673097793318</v>
-      </c>
-      <c r="G123" s="4">
-        <f>G132*F121</f>
-        <v>1928373.3269022068</v>
-      </c>
-      <c r="I123" s="4">
-        <f>I132*I121</f>
-        <v>74218.505667725345</v>
-      </c>
-      <c r="J123" s="4">
-        <f>J132*I121</f>
-        <v>1975781.4943322747</v>
-      </c>
-      <c r="L123" s="4">
-        <f>L132*L121</f>
-        <v>69737.682949920025</v>
-      </c>
-      <c r="M123" s="4">
-        <f>M132*L121</f>
-        <v>2040262.31705008</v>
-      </c>
-      <c r="O123" s="4">
-        <f>O132*O121</f>
-        <v>66080.145455604987</v>
-      </c>
-      <c r="P123" s="4">
-        <f>P132*O121</f>
-        <v>2143919.8545443951</v>
-      </c>
-      <c r="R123" s="4">
-        <f>R132*R121</f>
-        <v>79252.702885199687</v>
-      </c>
-      <c r="S123" s="4">
-        <f>S132*R121</f>
-        <v>2920747.2971148002</v>
-      </c>
-      <c r="U123" s="4">
-        <f>U132*U121</f>
-        <v>267600.05212584679</v>
-      </c>
-      <c r="V123" s="4">
-        <f>V132*U121</f>
-        <v>11918480.929873837</v>
-      </c>
-      <c r="X123" s="4">
-        <f>X132*X121</f>
+        <f>X131*X120</f>
         <v>193429.6900855636</v>
       </c>
-      <c r="Y123" s="4">
-        <f>Y132*X121</f>
+      <c r="Y122" s="4">
+        <f>Y131*X120</f>
         <v>1583219.5494211437</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B124" s="46"/>
-    </row>
-    <row r="125" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="E125" s="15" t="s">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B123" s="46"/>
+    </row>
+    <row r="124" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="E124" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="O125" s="8"/>
-      <c r="P125" s="8"/>
-      <c r="R125" s="8"/>
-      <c r="S125" s="8"/>
-      <c r="U125" s="8"/>
-      <c r="V125" s="8"/>
-      <c r="X125" s="8"/>
-      <c r="Y125" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+      <c r="R124" s="8"/>
+      <c r="S124" s="8"/>
+      <c r="U124" s="8"/>
+      <c r="V124" s="8"/>
+      <c r="X124" s="8"/>
+      <c r="Y124" s="8"/>
+    </row>
+    <row r="125" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F125" s="4">
+        <f>MAX(F103-$F20,0)</f>
+        <v>149.85</v>
+      </c>
+      <c r="G125" s="4">
+        <f>MAX(G103-$G20,0)</f>
+        <v>99.9</v>
+      </c>
+      <c r="I125" s="4">
+        <f>MAX(I103-$F20,0)</f>
+        <v>142.66573670838216</v>
+      </c>
+      <c r="J125" s="4">
+        <f>MAX(J103-$G20,0)</f>
+        <v>92.918853220294508</v>
+      </c>
+      <c r="L125" s="4">
+        <f>MAX(L103-$F20,0)</f>
+        <v>135.18920023330784</v>
+      </c>
+      <c r="M125" s="4">
+        <f>MAX(M103-$G20,0)</f>
+        <v>85.758864869938577</v>
+      </c>
+      <c r="O125" s="4">
+        <f>MAX(O103-$F20,0)</f>
+        <v>128.1383379484038</v>
+      </c>
+      <c r="P125" s="4">
+        <f>MAX(P103-$G20,0)</f>
+        <v>78.352503924384351</v>
+      </c>
+      <c r="R125" s="4">
+        <f>MAX(R103-$F20,0)</f>
+        <v>121.42479557940312</v>
+      </c>
+      <c r="S125" s="4">
+        <f>MAX(S103-$G20,0)</f>
+        <v>70.54005698199623</v>
+      </c>
+      <c r="U125" s="4">
+        <f>MAX(U103-$F20,0)</f>
+        <v>113.29384086615021</v>
+      </c>
+      <c r="V125" s="4">
+        <f>MAX(V103-$G20,0)</f>
+        <v>59.634148553356539</v>
+      </c>
+      <c r="X125" s="4">
+        <f>MAX(X103-$F20,0)</f>
+        <v>85.437142263941524</v>
+      </c>
+      <c r="Y125" s="4">
+        <f>MAX(Y103-$G20,0)</f>
+        <v>12.63407158537443</v>
+      </c>
     </row>
     <row r="126" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="33" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B126" s="41" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="F126" s="4">
-        <f>MAX(F104-$F20,0)</f>
-        <v>149.85</v>
+        <f>F125/$F$21</f>
+        <v>1</v>
       </c>
       <c r="G126" s="4">
-        <f>MAX(G104-$G20,0)</f>
-        <v>99.9</v>
+        <f>G125/$G$21</f>
+        <v>1</v>
       </c>
       <c r="I126" s="4">
-        <f>MAX(I104-$F20,0)</f>
-        <v>142.66573670838216</v>
+        <f>I125/$F$21</f>
+        <v>0.95205696835757203</v>
       </c>
       <c r="J126" s="4">
-        <f>MAX(J104-$G20,0)</f>
-        <v>92.918853220294508</v>
+        <f>J125/$G$21</f>
+        <v>0.93011865085379886</v>
       </c>
       <c r="L126" s="4">
-        <f>MAX(L104-$F20,0)</f>
-        <v>135.18920023330784</v>
+        <f>L125/$F$21</f>
+        <v>0.90216349838710608</v>
       </c>
       <c r="M126" s="4">
-        <f>MAX(M104-$G20,0)</f>
-        <v>85.758864869938577</v>
+        <f>M125/$G$21</f>
+        <v>0.85844709579518086</v>
       </c>
       <c r="O126" s="4">
-        <f>MAX(O104-$F20,0)</f>
-        <v>128.1383379484038</v>
+        <f>O125/$F$21</f>
+        <v>0.85511069701971176</v>
       </c>
       <c r="P126" s="4">
-        <f>MAX(P104-$G20,0)</f>
-        <v>78.352503924384351</v>
+        <f>P125/$G$21</f>
+        <v>0.78430934859243595</v>
       </c>
       <c r="R126" s="4">
-        <f>MAX(R104-$F20,0)</f>
-        <v>121.42479557940312</v>
+        <f>R125/$F$21</f>
+        <v>0.81030894614216298</v>
       </c>
       <c r="S126" s="4">
-        <f>MAX(S104-$G20,0)</f>
-        <v>70.54005698199623</v>
+        <f>S125/$G$21</f>
+        <v>0.70610667649645875</v>
       </c>
       <c r="U126" s="4">
-        <f>MAX(U104-$F20,0)</f>
-        <v>113.29384086615021</v>
+        <f>U125/$F$21</f>
+        <v>0.7560483207617632</v>
       </c>
       <c r="V126" s="4">
-        <f>MAX(V104-$G20,0)</f>
-        <v>59.634148553356539</v>
+        <f>V125/$G$21</f>
+        <v>0.59693842395752283</v>
       </c>
       <c r="X126" s="4">
-        <f>MAX(X104-$F20,0)</f>
-        <v>85.437142263941524</v>
+        <f>X125/$F$21</f>
+        <v>0.57015109952580267</v>
       </c>
       <c r="Y126" s="4">
-        <f>MAX(Y104-$G20,0)</f>
-        <v>12.63407158537443</v>
-      </c>
-    </row>
-    <row r="127" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+        <f>Y125/$G$21</f>
+        <v>0.12646718303678109</v>
+      </c>
+      <c r="Z126">
+        <v>0.5</v>
+      </c>
+      <c r="AA126">
+        <f>SUM(Z$6:Z126)</f>
+        <v>1.6</v>
+      </c>
+      <c r="AB126">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="33" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B127" s="41" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="F127" s="4">
-        <f>F126/$F$21</f>
+        <f>MAX(MIN(F126/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
       <c r="G127" s="4">
-        <f>G126/$G$21</f>
+        <f>MAX(MIN((G126-$F$15)/$F$16, 1), 0)</f>
         <v>1</v>
       </c>
       <c r="I127" s="4">
-        <f>I126/$F$21</f>
-        <v>0.95205696835757203</v>
+        <f>MAX(MIN(I126/$F$16, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="J127" s="4">
-        <f>J126/$G$21</f>
-        <v>0.93011865085379886</v>
+        <f>MAX(MIN((J126-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="L127" s="4">
-        <f>L126/$F$21</f>
-        <v>0.90216349838710608</v>
+        <f>MAX(MIN(L126/$F$16, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="M127" s="4">
-        <f>M126/$G$21</f>
-        <v>0.85844709579518086</v>
+        <f>MAX(MIN((M126-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="O127" s="4">
-        <f>O126/$F$21</f>
-        <v>0.85511069701971176</v>
+        <f>MAX(MIN(O126/$F$16, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="P127" s="4">
-        <f>P126/$G$21</f>
-        <v>0.78430934859243595</v>
+        <f>MAX(MIN((P126-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="R127" s="4">
-        <f>R126/$F$21</f>
-        <v>0.81030894614216298</v>
+        <f>MAX(MIN(R126/$F$16, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="S127" s="4">
-        <f>S126/$G$21</f>
-        <v>0.70610667649645875</v>
+        <f>MAX(MIN((S126-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="U127" s="4">
-        <f>U126/$F$21</f>
-        <v>0.7560483207617632</v>
+        <f>MAX(MIN(U126/$F$16, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="V127" s="4">
-        <f>V126/$G$21</f>
-        <v>0.59693842395752283</v>
+        <f>MAX(MIN((V126-$F$15)/$F$16, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="X127" s="4">
-        <f>X126/$F$21</f>
-        <v>0.57015109952580267</v>
+        <f>MAX(MIN(X126/$F$16, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="Y127" s="4">
-        <f>Y126/$G$21</f>
-        <v>0.12646718303678109</v>
+        <f>MAX(MIN((Y126-$F$15)/$F$16, 1), 0)</f>
+        <v>0.62733591518390541</v>
       </c>
       <c r="Z127">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AA127">
         <f>SUM(Z$6:Z127)</f>
-        <v>1.6</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="AB127">
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B128" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F128" s="4">
-        <f>MAX(MIN(F127/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G128" s="4">
-        <f>MAX(MIN((G127-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="I128" s="4">
-        <f>MAX(MIN(I127/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="J128" s="4">
-        <f>MAX(MIN((J127-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="L128" s="4">
-        <f>MAX(MIN(L127/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="M128" s="4">
-        <f>MAX(MIN((M127-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="O128" s="4">
-        <f>MAX(MIN(O127/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="P128" s="4">
-        <f>MAX(MIN((P127-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="R128" s="4">
-        <f>MAX(MIN(R127/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="S128" s="4">
-        <f>MAX(MIN((S127-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="U128" s="4">
-        <f>MAX(MIN(U127/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V128" s="4">
-        <f>MAX(MIN((V127-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="X128" s="4">
-        <f>MAX(MIN(X127/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y128" s="4">
-        <f>MAX(MIN((Y127-$F$15)/$F$16, 1), 0)</f>
-        <v>0.62733591518390541</v>
-      </c>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z128">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AA128">
         <f>SUM(Z$6:Z128)</f>
-        <v>1.9000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AB128">
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B129" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F129" s="4">
+        <f>F115*F127</f>
+        <v>741757.5</v>
+      </c>
+      <c r="G129" s="4">
+        <f>G115*G127</f>
+        <v>19970010</v>
+      </c>
+      <c r="I129" s="4">
+        <f>I115*I127</f>
+        <v>697350.12103057199</v>
+      </c>
+      <c r="J129" s="4">
+        <f>J115*J127</f>
+        <v>18564257.684882641</v>
+      </c>
+      <c r="L129" s="4">
+        <f>L115*L127</f>
+        <v>585369.23701022298</v>
+      </c>
+      <c r="M129" s="4">
+        <f>M115*M127</f>
+        <v>17125702.279067256</v>
+      </c>
+      <c r="O129" s="4">
+        <f>O115*O127</f>
+        <v>481800.15068599832</v>
+      </c>
+      <c r="P129" s="4">
+        <f>P115*P127</f>
+        <v>15631637.942930376</v>
+      </c>
+      <c r="R129" s="4">
+        <f>R115*R127</f>
+        <v>383702.35403091385</v>
+      </c>
+      <c r="S129" s="4">
+        <f>S115*S127</f>
+        <v>14140812.522895874</v>
+      </c>
+      <c r="U129" s="4">
+        <f>U115*U127</f>
+        <v>267600.05212584679</v>
+      </c>
+      <c r="V129" s="4">
+        <f>V115*V127</f>
+        <v>11918480.929873837</v>
+      </c>
+      <c r="X129" s="4">
+        <f>X115*X127</f>
+        <v>193429.6900855636</v>
+      </c>
+      <c r="Y129" s="4">
+        <f>Y115*Y127</f>
+        <v>1583219.5494211437</v>
+      </c>
       <c r="Z129">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="AA129">
-        <f>SUM(Z$6:Z129)</f>
-        <v>2.1</v>
+        <f>SUM(Z$6:Z147)</f>
+        <v>2.2250000000000001</v>
       </c>
       <c r="AB129">
         <v>20</v>
@@ -11364,363 +11447,298 @@
     </row>
     <row r="130" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="33" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B130" s="41" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="F130" s="4">
-        <f>F116*F128</f>
-        <v>741757.5</v>
+        <f>F129+G129</f>
+        <v>20711767.5</v>
       </c>
       <c r="G130" s="4">
-        <f>G116*G128</f>
-        <v>19970010</v>
+        <f>F130</f>
+        <v>20711767.5</v>
       </c>
       <c r="I130" s="4">
-        <f>I116*I128</f>
-        <v>697350.12103057199</v>
+        <f>I129+J129</f>
+        <v>19261607.805913214</v>
       </c>
       <c r="J130" s="4">
-        <f>J116*J128</f>
-        <v>18564257.684882641</v>
+        <f>I130</f>
+        <v>19261607.805913214</v>
       </c>
       <c r="L130" s="4">
-        <f>L116*L128</f>
-        <v>585369.23701022298</v>
+        <f>L129+M129</f>
+        <v>17711071.516077477</v>
       </c>
       <c r="M130" s="4">
-        <f>M116*M128</f>
-        <v>17125702.279067256</v>
+        <f>L130</f>
+        <v>17711071.516077477</v>
       </c>
       <c r="O130" s="4">
-        <f>O116*O128</f>
-        <v>481800.15068599832</v>
+        <f>O129+P129</f>
+        <v>16113438.093616374</v>
       </c>
       <c r="P130" s="4">
-        <f>P116*P128</f>
-        <v>15631637.942930376</v>
+        <f>O130</f>
+        <v>16113438.093616374</v>
       </c>
       <c r="R130" s="4">
-        <f>R116*R128</f>
-        <v>383702.35403091385</v>
+        <f>R129+S129</f>
+        <v>14524514.876926789</v>
       </c>
       <c r="S130" s="4">
-        <f>S116*S128</f>
-        <v>14140812.522895874</v>
+        <f>R130</f>
+        <v>14524514.876926789</v>
       </c>
       <c r="U130" s="4">
-        <f>U116*U128</f>
-        <v>267600.05212584679</v>
+        <f>U129+V129</f>
+        <v>12186080.981999684</v>
       </c>
       <c r="V130" s="4">
-        <f>V116*V128</f>
-        <v>11918480.929873837</v>
+        <f>U130</f>
+        <v>12186080.981999684</v>
       </c>
       <c r="X130" s="4">
-        <f>X116*X128</f>
-        <v>193429.6900855636</v>
+        <f>X129+Y129</f>
+        <v>1776649.2395067073</v>
       </c>
       <c r="Y130" s="4">
-        <f>Y116*Y128</f>
-        <v>1583219.5494211437</v>
-      </c>
-      <c r="Z130">
-        <v>0.125</v>
-      </c>
-      <c r="AA130">
-        <f>SUM(Z$6:Z148)</f>
-        <v>2.2250000000000001</v>
-      </c>
-      <c r="AB130">
-        <v>20</v>
+        <f>X130</f>
+        <v>1776649.2395067073</v>
       </c>
     </row>
     <row r="131" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="33" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B131" s="41" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F131" s="4">
-        <f>F130+G130</f>
-        <v>20711767.5</v>
+        <f>F129/F130</f>
+        <v>3.5813336548896658E-2</v>
       </c>
       <c r="G131" s="4">
-        <f>F131</f>
-        <v>20711767.5</v>
+        <f>G129/G130</f>
+        <v>0.96418666345110338</v>
       </c>
       <c r="I131" s="4">
-        <f>I130+J130</f>
-        <v>19261607.805913214</v>
+        <f>I129/I130</f>
+        <v>3.6204149106207485E-2</v>
       </c>
       <c r="J131" s="4">
-        <f>I131</f>
-        <v>19261607.805913214</v>
+        <f>J129/J130</f>
+        <v>0.96379585089379249</v>
       </c>
       <c r="L131" s="4">
-        <f>L130+M130</f>
-        <v>17711071.516077477</v>
+        <f>L129/L130</f>
+        <v>3.305103457342181E-2</v>
       </c>
       <c r="M131" s="4">
-        <f>L131</f>
-        <v>17711071.516077477</v>
+        <f>M129/M130</f>
+        <v>0.96694896542657827</v>
       </c>
       <c r="O131" s="4">
-        <f>O130+P130</f>
-        <v>16113438.093616374</v>
+        <f>O129/O130</f>
+        <v>2.9900518305703613E-2</v>
       </c>
       <c r="P131" s="4">
-        <f>O131</f>
-        <v>16113438.093616374</v>
+        <f>P129/P130</f>
+        <v>0.97009948169429638</v>
       </c>
       <c r="R131" s="4">
-        <f>R130+S130</f>
-        <v>14524514.876926789</v>
+        <f>R129/R130</f>
+        <v>2.6417567628399898E-2</v>
       </c>
       <c r="S131" s="4">
-        <f>R131</f>
-        <v>14524514.876926789</v>
+        <f>S129/S130</f>
+        <v>0.97358243237160003</v>
       </c>
       <c r="U131" s="4">
-        <f>U130+V130</f>
-        <v>12186080.981999684</v>
+        <f>U129/U130</f>
+        <v>2.1959484145979698E-2</v>
       </c>
       <c r="V131" s="4">
-        <f>U131</f>
-        <v>12186080.981999684</v>
+        <f>V129/V130</f>
+        <v>0.9780405158540203</v>
       </c>
       <c r="X131" s="4">
-        <f>X130+Y130</f>
-        <v>1776649.2395067073</v>
+        <f>X129/X130</f>
+        <v>0.1088733137550944</v>
       </c>
       <c r="Y131" s="4">
-        <f>X131</f>
-        <v>1776649.2395067073</v>
-      </c>
-    </row>
-    <row r="132" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B132" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F132" s="4">
-        <f>F130/F131</f>
-        <v>3.5813336548896658E-2</v>
-      </c>
-      <c r="G132" s="4">
-        <f>G130/G131</f>
-        <v>0.96418666345110338</v>
-      </c>
-      <c r="I132" s="4">
-        <f>I130/I131</f>
-        <v>3.6204149106207485E-2</v>
-      </c>
-      <c r="J132" s="4">
-        <f>J130/J131</f>
-        <v>0.96379585089379249</v>
-      </c>
-      <c r="L132" s="4">
-        <f>L130/L131</f>
-        <v>3.305103457342181E-2</v>
-      </c>
-      <c r="M132" s="4">
-        <f>M130/M131</f>
-        <v>0.96694896542657827</v>
-      </c>
-      <c r="O132" s="4">
-        <f>O130/O131</f>
-        <v>2.9900518305703613E-2</v>
-      </c>
-      <c r="P132" s="4">
-        <f>P130/P131</f>
-        <v>0.97009948169429638</v>
-      </c>
-      <c r="R132" s="4">
-        <f>R130/R131</f>
-        <v>2.6417567628399898E-2</v>
-      </c>
-      <c r="S132" s="4">
-        <f>S130/S131</f>
-        <v>0.97358243237160003</v>
-      </c>
-      <c r="U132" s="4">
-        <f>U130/U131</f>
-        <v>2.1959484145979698E-2</v>
-      </c>
-      <c r="V132" s="4">
-        <f>V130/V131</f>
-        <v>0.9780405158540203</v>
-      </c>
-      <c r="X132" s="4">
-        <f>X130/X131</f>
-        <v>0.1088733137550944</v>
-      </c>
-      <c r="Y132" s="4">
-        <f>Y130/Y131</f>
+        <f>Y129/Y130</f>
         <v>0.89112668624490565</v>
       </c>
     </row>
+    <row r="133" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="E133" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+    </row>
     <row r="134" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="E134" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
+      <c r="A134" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B134" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F134" s="4">
+        <f>(F102 - F122 - F110)*$F$28</f>
+        <v>2841.7466538044137</v>
+      </c>
+      <c r="G134" s="4">
+        <f>(G102 - G122 - G110)*$G$28</f>
+        <v>46123.25334619559</v>
+      </c>
+      <c r="I134" s="4">
+        <f>(I102 - I122 - I110)*$F$28</f>
+        <v>2675.8869978095149</v>
+      </c>
+      <c r="J134" s="4">
+        <f>(J102 - J122 - J110)*$G$28</f>
+        <v>42518.79570313017</v>
+      </c>
+      <c r="L134" s="4">
+        <f>(L102 - L122 - L110)*$F$28</f>
+        <v>2521.2933106869928</v>
+      </c>
+      <c r="M134" s="4">
+        <f>(M102 - M122 - M110)*$G$28</f>
+        <v>38796.705611028199</v>
+      </c>
+      <c r="O134" s="4">
+        <f>(O102 - O122 - O110)*$F$28</f>
+        <v>2372.0280658416323</v>
+      </c>
+      <c r="P134" s="4">
+        <f>(P102 - P122 - P110)*$G$28</f>
+        <v>34860.587369210392</v>
+      </c>
+      <c r="R134" s="4">
+        <f>(R102 - R122 - R110)*$F$28</f>
+        <v>2190.3196448236695</v>
+      </c>
+      <c r="S134" s="4">
+        <f>(S102 - S122 - S110)*$G$28</f>
+        <v>29402.94903579777</v>
+      </c>
+      <c r="U134" s="4">
+        <f>(U102 - U122 - U110)*$F$28</f>
+        <v>1634.2999084725632</v>
+      </c>
+      <c r="V134" s="4">
+        <f>(V102 - V122 - V110)*$G$28</f>
+        <v>5953.652706782299</v>
+      </c>
+      <c r="X134" s="4">
+        <f>(X102 - X122 - X110)*$F$28</f>
+        <v>1233.1340486007582</v>
+      </c>
+      <c r="Y134" s="4">
+        <f>(Y102 - Y122 - Y110)*$G$28</f>
+        <v>3181.6229271827196</v>
+      </c>
     </row>
     <row r="135" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="33" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B135" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>239</v>
+        <v>168</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="F135" s="4">
-        <f>(F103 - F123 - F111)*$F$28</f>
-        <v>2841.7466538044137</v>
+        <f>F122*$F19</f>
+        <v>21488.001929337996</v>
       </c>
       <c r="G135" s="4">
-        <f>(G103 - G123 - G111)*$G$28</f>
-        <v>46123.25334619559</v>
+        <f>(G122+F121)*$G19</f>
+        <v>482093.33172555169</v>
       </c>
       <c r="I135" s="4">
-        <f>(I103 - I123 - I111)*$F$28</f>
-        <v>2675.8869978095149</v>
+        <f>I122*$F19</f>
+        <v>22265.551700317603</v>
       </c>
       <c r="J135" s="4">
-        <f>(J103 - J123 - J111)*$G$28</f>
-        <v>42518.79570313017</v>
+        <f>(J122+I121)*$G19</f>
+        <v>493945.37358306866</v>
       </c>
       <c r="L135" s="4">
-        <f>(L103 - L123 - L111)*$F$28</f>
-        <v>2521.2933106869928</v>
+        <f>L122*$F19</f>
+        <v>20921.304884976005</v>
       </c>
       <c r="M135" s="4">
-        <f>(M103 - M123 - M111)*$G$28</f>
-        <v>38796.705611028199</v>
+        <f>(M122+L121)*$G19</f>
+        <v>510065.57926252001</v>
       </c>
       <c r="O135" s="4">
-        <f>(O103 - O123 - O111)*$F$28</f>
-        <v>2372.0280658416323</v>
+        <f>O122*$F19</f>
+        <v>19824.043636681494</v>
       </c>
       <c r="P135" s="4">
-        <f>(P103 - P123 - P111)*$G$28</f>
-        <v>34860.587369210392</v>
+        <f>(P122+O121)*$G19</f>
+        <v>535979.96363609878</v>
       </c>
       <c r="R135" s="4">
-        <f>(R103 - R123 - R111)*$F$28</f>
-        <v>2190.3196448236695</v>
+        <f>R122*$F19</f>
+        <v>23775.810865559906</v>
       </c>
       <c r="S135" s="4">
-        <f>(S103 - S123 - S111)*$G$28</f>
-        <v>29402.94903579777</v>
+        <f>(S122+R121)*$G19</f>
+        <v>730186.82427870005</v>
       </c>
       <c r="U135" s="4">
-        <f>(U103 - U123 - U111)*$F$28</f>
-        <v>1634.2999084725632</v>
+        <f>U122*$F19</f>
+        <v>80280.015637754041</v>
       </c>
       <c r="V135" s="4">
-        <f>(V103 - V123 - V111)*$G$28</f>
-        <v>5953.652706782299</v>
+        <f>(V122+U121)*$G19</f>
+        <v>2979627.7690510578</v>
       </c>
       <c r="X135" s="4">
-        <f>(X103 - X123 - X111)*$F$28</f>
-        <v>1233.1340486007582</v>
+        <f>X122*$F19</f>
+        <v>58028.907025669083</v>
       </c>
       <c r="Y135" s="4">
-        <f>(Y103 - Y123 - Y111)*$G$28</f>
-        <v>3181.6229271827196</v>
-      </c>
-    </row>
-    <row r="136" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="B136" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="F136" s="4">
-        <f>F123*$F19</f>
-        <v>21488.001929337996</v>
-      </c>
-      <c r="G136" s="4">
-        <f>(G123+F122)*$G19</f>
-        <v>482093.33172555169</v>
-      </c>
-      <c r="I136" s="4">
-        <f>I123*$F19</f>
-        <v>22265.551700317603</v>
-      </c>
-      <c r="J136" s="4">
-        <f>(J123+I122)*$G19</f>
-        <v>493945.37358306866</v>
-      </c>
-      <c r="L136" s="4">
-        <f>L123*$F19</f>
-        <v>20921.304884976005</v>
-      </c>
-      <c r="M136" s="4">
-        <f>(M123+L122)*$G19</f>
-        <v>510065.57926252001</v>
-      </c>
-      <c r="O136" s="4">
-        <f>O123*$F19</f>
-        <v>19824.043636681494</v>
-      </c>
-      <c r="P136" s="4">
-        <f>(P123+O122)*$G19</f>
-        <v>535979.96363609878</v>
-      </c>
-      <c r="R136" s="4">
-        <f>R123*$F19</f>
-        <v>23775.810865559906</v>
-      </c>
-      <c r="S136" s="4">
-        <f>(S123+R122)*$G19</f>
-        <v>730186.82427870005</v>
-      </c>
-      <c r="U136" s="4">
-        <f>U123*$F19</f>
-        <v>80280.015637754041</v>
-      </c>
-      <c r="V136" s="4">
-        <f>(V123+U122)*$G19</f>
-        <v>2979627.7690510578</v>
-      </c>
-      <c r="X136" s="4">
-        <f>X123*$F19</f>
-        <v>58028.907025669083</v>
-      </c>
-      <c r="Y136" s="4">
-        <f>(Y123+X122)*$G19</f>
+        <f>(Y122+X121)*$G19</f>
         <v>395818.36588620592</v>
+      </c>
+    </row>
+    <row r="148" spans="26:28" x14ac:dyDescent="0.2">
+      <c r="Z148">
+        <v>0.1225</v>
+      </c>
+      <c r="AA148">
+        <f>SUM(Z$6:Z148)</f>
+        <v>2.3475000000000001</v>
+      </c>
+      <c r="AB148">
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="26:28" x14ac:dyDescent="0.2">
       <c r="Z149">
-        <v>0.1225</v>
+        <v>0.12239999999999999</v>
       </c>
       <c r="AA149">
         <f>SUM(Z$6:Z149)</f>
-        <v>2.3475000000000001</v>
+        <v>2.4699</v>
       </c>
       <c r="AB149">
         <v>20</v>
@@ -11728,61 +11746,49 @@
     </row>
     <row r="150" spans="26:28" x14ac:dyDescent="0.2">
       <c r="Z150">
-        <v>0.12239999999999999</v>
+        <v>0.12230000000000001</v>
       </c>
       <c r="AA150">
         <f>SUM(Z$6:Z150)</f>
-        <v>2.4699</v>
+        <v>2.5922000000000001</v>
       </c>
       <c r="AB150">
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="26:28" x14ac:dyDescent="0.2">
-      <c r="Z151">
-        <v>0.12230000000000001</v>
-      </c>
-      <c r="AA151">
-        <f>SUM(Z$6:Z151)</f>
-        <v>2.5922000000000001</v>
-      </c>
-      <c r="AB151">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="B59:B62"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A77:A80"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D66:D69"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="R5:S5"/>
@@ -11791,5 +11797,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F102C4-5E23-194D-A289-C3FA26E1E7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBE7CB3-3C87-4D48-8A0E-87CF406EF9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="760" windowWidth="33680" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="8100" yWindow="500" windowWidth="33680" windowHeight="19400" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="264">
   <si>
     <t>forest_primary_c_ha</t>
   </si>
@@ -522,12 +522,6 @@
     <t>arr_area_remaining_from_orig_after_conversion_away</t>
   </si>
   <si>
-    <t>arr_biomass_factor_min_reqd</t>
-  </si>
-  <si>
-    <t>arr_biomass_factor_healthy_available</t>
-  </si>
-  <si>
     <t>arr_area_protected_total</t>
   </si>
   <si>
@@ -564,9 +558,6 @@
     <t>bg c lost from conversion</t>
   </si>
   <si>
-    <t>arr_annual_sf_nominal</t>
-  </si>
-  <si>
     <t>vec_total_removals_demanded</t>
   </si>
   <si>
@@ -597,25 +588,16 @@
     <t>healthy storage available per ha</t>
   </si>
   <si>
-    <t>arr_frac_biomass_ag_decomposition</t>
-  </si>
-  <si>
     <t>arr_biomass_c_ag_lost_conversion</t>
   </si>
   <si>
     <t>arr_biomass_c_bg_lost_conversion</t>
   </si>
   <si>
-    <t>arr_young_stock_if_untouched (T x T)</t>
-  </si>
-  <si>
     <t>arr_young_sf_base_by_tp_planted (T x T)</t>
   </si>
   <si>
     <t>T = number of time periods</t>
-  </si>
-  <si>
-    <t>arr_young_c_available_for_removals_mask (T x T)</t>
   </si>
   <si>
     <t>arr_young_area_by_tp_planted (T x T)   [e.g., col J]
@@ -623,10 +605,6 @@
 arr_young_area_by_tp_planted_drops (T x T)   [e.g., col I]</t>
   </si>
   <si>
-    <t>arr_young_c_stock_removal_allocation (T x T)   [e.g., col G]
-arr_young_c_stock_removal_allocation_aux (T x T)   [e.g., col F]</t>
-  </si>
-  <si>
     <t>arr_biomass_c_converted_away</t>
   </si>
   <si>
@@ -691,9 +669,6 @@
     <t>arr_orig_allocation_removals</t>
   </si>
   <si>
-    <t>vec_young_c_available_for_removals_total</t>
-  </si>
-  <si>
     <t>arr_young_biomass_c_ag_converted_by_tp_planted (T x T)</t>
   </si>
   <si>
@@ -826,10 +801,41 @@
     <t xml:space="preserve">dead storage (minimum fraction of original stock that must remain on the land to allow it to remain that land use type). </t>
   </si>
   <si>
-    <t>arr_biomass_c_ag_factor_stst_storage</t>
-  </si>
-  <si>
-    <t>arr_biomass_c_bg_to_ag_ratio</t>
+    <t>arr_biomass_c_min_reqd_per_area</t>
+  </si>
+  <si>
+    <t>vec_biomass_c_ag_init_stst_storage</t>
+  </si>
+  <si>
+    <t>vec_biomass_c_ag_init_healthy_available</t>
+  </si>
+  <si>
+    <t>vec_biomass_c_bg_to_ag_ratio</t>
+  </si>
+  <si>
+    <t>vec_annual_sf_nominal</t>
+  </si>
+  <si>
+    <t>vec_frac_biomass_ag_decomposition</t>
+  </si>
+  <si>
+    <t>vec_young_sf_curve</t>
+  </si>
+  <si>
+    <t>arr_young_biomass_c_available_for_removals_mask (T x T)</t>
+  </si>
+  <si>
+    <t>vec_young_biomass_c_available_for_removals_total</t>
+  </si>
+  <si>
+    <t>arr_young_biomass_c_stock_removal_allocation (T x T)   [e.g., col G]
+arr_young_biomass_c_stock_removal_allocation_aux (T x T)   [e.g., col F]</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>arr_young_biomass_c_ag_stock_if_untouched (T x T)</t>
   </si>
 </sst>
 </file>
@@ -977,7 +983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1086,10 +1092,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1112,6 +1115,13 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6266,14 +6276,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
   <dimension ref="A1:AM150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="62.1640625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="14" style="36" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" style="32" customWidth="1"/>
     <col min="4" max="4" width="27" style="22" customWidth="1"/>
     <col min="5" max="5" width="44" style="10" customWidth="1"/>
@@ -6456,7 +6466,7 @@
         <v>156</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>154</v>
@@ -6493,6 +6503,9 @@
         <v>136</v>
       </c>
       <c r="Y5" s="29"/>
+      <c r="AB5" s="49" t="s">
+        <v>258</v>
+      </c>
       <c r="AC5" s="21" t="s">
         <v>33</v>
       </c>
@@ -6515,9 +6528,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B6" s="36" t="s">
-        <v>167</v>
+    <row r="6" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+      <c r="B6" s="39" t="s">
+        <v>165</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>24</v>
@@ -6585,11 +6598,11 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>183</v>
+      <c r="B7" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>67</v>
@@ -6672,11 +6685,11 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>166</v>
+      <c r="B8" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>114</v>
@@ -6761,11 +6774,11 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>166</v>
+      <c r="A9" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>55</v>
@@ -6836,11 +6849,11 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>183</v>
+      <c r="A10" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>146</v>
@@ -6885,11 +6898,11 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>183</v>
+      <c r="A11" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>113</v>
@@ -6934,11 +6947,11 @@
       </c>
     </row>
     <row r="12" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>166</v>
+      <c r="A12" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>66</v>
@@ -6976,11 +6989,11 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>183</v>
+      <c r="B13" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>144</v>
@@ -7046,11 +7059,11 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>166</v>
+      <c r="A14" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>54</v>
@@ -7088,14 +7101,14 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>166</v>
+      <c r="A15" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F15" s="4">
         <v>1E-3</v>
@@ -7130,11 +7143,11 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>166</v>
+      <c r="A16" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>118</v>
@@ -7157,11 +7170,11 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>166</v>
+      <c r="A17" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="10" t="s">
@@ -7182,11 +7195,11 @@
       </c>
     </row>
     <row r="18" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>166</v>
+      <c r="A18" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>116</v>
@@ -7209,14 +7222,14 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>166</v>
+      <c r="A19" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F19" s="4">
         <v>0.3</v>
@@ -7229,11 +7242,11 @@
       <c r="AE19" s="19"/>
     </row>
     <row r="20" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>183</v>
+      <c r="A20" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>180</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>115</v>
@@ -7258,14 +7271,14 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>183</v>
+      <c r="A21" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>180</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F21" s="4">
         <f>F18-F20</f>
@@ -7299,11 +7312,11 @@
       </c>
     </row>
     <row r="23" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>166</v>
+      <c r="A23" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>52</v>
@@ -7362,11 +7375,11 @@
       </c>
     </row>
     <row r="24" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>168</v>
+      <c r="A24" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>108</v>
@@ -7411,11 +7424,11 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>168</v>
+      <c r="A25" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>145</v>
@@ -7489,7 +7502,7 @@
     </row>
     <row r="26" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="E26" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -7517,14 +7530,14 @@
       </c>
     </row>
     <row r="27" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>177</v>
       </c>
       <c r="E27" s="34" t="s">
         <v>68</v>
@@ -7537,15 +7550,15 @@
       </c>
     </row>
     <row r="28" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>183</v>
+      <c r="A28" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>180</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F28" s="4">
         <f>F27/F18</f>
@@ -7579,11 +7592,11 @@
       <c r="Y30" s="8"/>
     </row>
     <row r="31" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>166</v>
+      <c r="A31" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>53</v>
@@ -7652,7 +7665,7 @@
     </row>
     <row r="35" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>88</v>
@@ -7704,11 +7717,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
-        <v>192</v>
+      <c r="A36" s="47" t="s">
+        <v>186</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>87</v>
@@ -7794,7 +7807,7 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="37"/>
       <c r="E37" s="14" t="s">
         <v>69</v>
@@ -7879,7 +7892,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="37"/>
       <c r="E38" s="14" t="s">
         <v>79</v>
@@ -7895,7 +7908,7 @@
         <v>85</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" ref="I38:I39" si="5">IF(H38&gt;=J$11, IF(H37&lt;J$11, J$11-H37, 0),G38)</f>
+        <f>IF(H38&gt;=J$11, IF(H37&lt;J$11, J$11-H37, 0),G38)</f>
         <v>0</v>
       </c>
       <c r="J38" s="4">
@@ -7963,7 +7976,7 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="37"/>
       <c r="E39" s="14" t="s">
         <v>80</v>
@@ -7979,7 +7992,7 @@
         <v>85</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I38:I39" si="5">IF(H39&gt;=J$11, IF(H38&lt;J$11, J$11-H38, 0),G39)</f>
         <v>0</v>
       </c>
       <c r="J39" s="4">
@@ -8054,14 +8067,14 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="39" t="s">
-        <v>216</v>
+      <c r="A41" s="48" t="s">
+        <v>208</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
@@ -8092,10 +8105,10 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="37"/>
       <c r="E42" s="14" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
@@ -8126,10 +8139,10 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="37"/>
       <c r="E43" s="14" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
@@ -8160,10 +8173,10 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="37"/>
       <c r="E44" s="14" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G44" s="4">
         <v>0</v>
@@ -8194,11 +8207,11 @@
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>183</v>
+      <c r="A45" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="4">
@@ -8234,14 +8247,14 @@
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="39" t="s">
-        <v>218</v>
+      <c r="A47" s="48" t="s">
+        <v>210</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G47" s="4">
         <f>G41*$G$19</f>
@@ -8273,10 +8286,10 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="37"/>
       <c r="E48" s="14" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" ref="G48:G50" si="6">G42*$G$19</f>
@@ -8308,10 +8321,10 @@
       </c>
     </row>
     <row r="49" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="37"/>
       <c r="E49" s="14" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="6"/>
@@ -8343,10 +8356,10 @@
       </c>
     </row>
     <row r="50" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="37"/>
       <c r="E50" s="14" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" si="6"/>
@@ -8378,11 +8391,11 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>183</v>
+      <c r="A51" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E51" s="14"/>
       <c r="G51" s="4">
@@ -8418,11 +8431,11 @@
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="39" t="s">
-        <v>189</v>
+      <c r="A53" s="48" t="s">
+        <v>184</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>90</v>
@@ -8457,7 +8470,7 @@
       </c>
     </row>
     <row r="54" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="37"/>
       <c r="E54" s="14" t="s">
         <v>91</v>
@@ -8490,7 +8503,7 @@
       </c>
     </row>
     <row r="55" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="37"/>
       <c r="E55" s="14" t="s">
         <v>92</v>
@@ -8522,7 +8535,7 @@
       </c>
     </row>
     <row r="56" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="37"/>
       <c r="E56" s="14" t="s">
         <v>93</v>
@@ -8561,11 +8574,11 @@
       <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="39" t="s">
-        <v>188</v>
+      <c r="A59" s="48" t="s">
+        <v>263</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>109</v>
@@ -8600,7 +8613,7 @@
       </c>
     </row>
     <row r="60" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="37"/>
       <c r="E60" s="14" t="s">
         <v>110</v>
@@ -8631,7 +8644,7 @@
       </c>
     </row>
     <row r="61" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="37"/>
       <c r="D61" s="28"/>
       <c r="E61" s="14" t="s">
@@ -8659,7 +8672,7 @@
       </c>
     </row>
     <row r="62" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="37"/>
       <c r="D62" s="28"/>
       <c r="E62" s="14" t="s">
@@ -8691,11 +8704,11 @@
       <c r="E63" s="14"/>
     </row>
     <row r="64" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="39" t="s">
-        <v>191</v>
+      <c r="A64" s="48" t="s">
+        <v>259</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>128</v>
@@ -8729,7 +8742,7 @@
       </c>
     </row>
     <row r="65" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="37"/>
       <c r="E65" s="14" t="s">
         <v>129</v>
@@ -8763,7 +8776,7 @@
       </c>
     </row>
     <row r="66" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="37"/>
       <c r="D66" s="28" t="s">
         <v>153</v>
@@ -8800,7 +8813,7 @@
       </c>
     </row>
     <row r="67" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="39"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="37"/>
       <c r="D67" s="28"/>
       <c r="E67" s="14" t="s">
@@ -8835,11 +8848,11 @@
       </c>
     </row>
     <row r="68" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B68" s="41" t="s">
-        <v>183</v>
+      <c r="A68" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="14" t="s">
@@ -8887,11 +8900,11 @@
       </c>
     </row>
     <row r="70" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="38" t="s">
-        <v>193</v>
+      <c r="A70" s="47" t="s">
+        <v>261</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>88</v>
@@ -8922,7 +8935,7 @@
       </c>
     </row>
     <row r="71" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="38"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="37"/>
       <c r="E71" s="14" t="s">
         <v>149</v>
@@ -8985,7 +8998,7 @@
       </c>
     </row>
     <row r="72" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="38"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="37"/>
       <c r="D72" s="22">
         <v>0</v>
@@ -9051,7 +9064,7 @@
       </c>
     </row>
     <row r="73" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="38"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="37"/>
       <c r="D73" s="22">
         <v>1</v>
@@ -9180,9 +9193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D75" s="22">
-        <v>3</v>
+    <row r="75" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="D75" s="22" t="s">
+        <v>262</v>
       </c>
       <c r="E75" s="14"/>
     </row>
@@ -9208,11 +9221,11 @@
       </c>
     </row>
     <row r="77" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="38" t="s">
-        <v>195</v>
+      <c r="A77" s="47" t="s">
+        <v>188</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>132</v>
@@ -9271,7 +9284,7 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="38"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="37"/>
       <c r="E78" s="14" t="s">
         <v>133</v>
@@ -9330,7 +9343,7 @@
       </c>
     </row>
     <row r="79" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="38"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="37"/>
       <c r="E79" s="14" t="s">
         <v>134</v>
@@ -9389,7 +9402,7 @@
       </c>
     </row>
     <row r="80" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="38"/>
+      <c r="A80" s="47"/>
       <c r="B80" s="37"/>
       <c r="E80" s="14" t="s">
         <v>135</v>
@@ -9451,14 +9464,14 @@
       <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="38" t="s">
-        <v>229</v>
+      <c r="A82" s="47" t="s">
+        <v>221</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G82" s="4">
         <f>G48*G31</f>
@@ -9490,10 +9503,10 @@
       </c>
     </row>
     <row r="83" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="38"/>
+      <c r="A83" s="47"/>
       <c r="B83" s="37"/>
       <c r="E83" s="14" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G83" s="4">
         <f>G49*G32</f>
@@ -9525,10 +9538,10 @@
       </c>
     </row>
     <row r="84" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="38"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="37"/>
       <c r="E84" s="14" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G84" s="4">
         <f>G50*G33</f>
@@ -9560,10 +9573,10 @@
       </c>
     </row>
     <row r="85" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="38"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="37"/>
       <c r="E85" s="14" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G85" s="4">
         <f>G51*G34</f>
@@ -9598,11 +9611,11 @@
       <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="38" t="s">
-        <v>234</v>
+      <c r="A87" s="47" t="s">
+        <v>226</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E87" s="14" t="s">
         <v>70</v>
@@ -9637,7 +9650,7 @@
       </c>
     </row>
     <row r="88" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="38"/>
+      <c r="A88" s="47"/>
       <c r="B88" s="37"/>
       <c r="E88" s="14" t="s">
         <v>71</v>
@@ -9672,7 +9685,7 @@
       </c>
     </row>
     <row r="89" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="38"/>
+      <c r="A89" s="47"/>
       <c r="B89" s="37"/>
       <c r="E89" s="14" t="s">
         <v>72</v>
@@ -9707,7 +9720,7 @@
       </c>
     </row>
     <row r="90" spans="1:25" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="38"/>
+      <c r="A90" s="47"/>
       <c r="B90" s="37"/>
       <c r="E90" s="14" t="s">
         <v>81</v>
@@ -9746,15 +9759,15 @@
       <c r="E91" s="14"/>
     </row>
     <row r="92" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="38" t="s">
-        <v>235</v>
+      <c r="A92" s="47" t="s">
+        <v>227</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="14" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G92" s="4">
         <f>G58*G41</f>
@@ -9786,11 +9799,11 @@
       </c>
     </row>
     <row r="93" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="38"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="37"/>
       <c r="D93" s="35"/>
       <c r="E93" s="14" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G93" s="4">
         <f>G59*G42</f>
@@ -9822,11 +9835,11 @@
       </c>
     </row>
     <row r="94" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="38"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="37"/>
       <c r="D94" s="35"/>
       <c r="E94" s="14" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G94" s="4">
         <f>G60*G43</f>
@@ -9858,11 +9871,11 @@
       </c>
     </row>
     <row r="95" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="38"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="37"/>
       <c r="D95" s="35"/>
       <c r="E95" s="14" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G95" s="4">
         <f>G61*G44</f>
@@ -9894,8 +9907,8 @@
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A96" s="40"/>
-      <c r="B96" s="46"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="45"/>
       <c r="D96" s="35"/>
       <c r="E96" s="14"/>
     </row>
@@ -9911,10 +9924,10 @@
     </row>
     <row r="98" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B98" s="45" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="B98" s="44" t="s">
+        <v>189</v>
       </c>
       <c r="D98" s="35"/>
       <c r="E98" s="14" t="s">
@@ -9979,10 +9992,10 @@
     </row>
     <row r="99" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="B99" s="41" t="s">
-        <v>183</v>
+        <v>191</v>
+      </c>
+      <c r="B99" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>142</v>
@@ -10046,13 +10059,13 @@
     </row>
     <row r="100" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="B100" s="41" t="s">
-        <v>183</v>
+        <v>190</v>
+      </c>
+      <c r="B100" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F100" s="4">
         <v>1</v>
@@ -10111,10 +10124,10 @@
     </row>
     <row r="101" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="B101" s="44" t="s">
-        <v>168</v>
+        <v>193</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E101" s="14" t="s">
         <v>132</v>
@@ -10178,13 +10191,13 @@
     </row>
     <row r="102" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B102" s="44" t="s">
-        <v>168</v>
+        <v>194</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F102" s="4">
         <f>F7*F18</f>
@@ -10245,10 +10258,10 @@
     </row>
     <row r="103" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B103" s="44" t="s">
-        <v>168</v>
+        <v>195</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E103" s="14" t="s">
         <v>143</v>
@@ -10334,13 +10347,13 @@
     </row>
     <row r="106" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B106" s="45" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="B106" s="44" t="s">
+        <v>189</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F106" s="4">
         <f>F103*F7</f>
@@ -10401,13 +10414,13 @@
     </row>
     <row r="107" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B107" s="44" t="s">
-        <v>168</v>
+        <v>196</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G107" s="4">
         <f>SUM(G87:G90)</f>
@@ -10440,13 +10453,13 @@
     </row>
     <row r="108" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="B108" s="44" t="s">
-        <v>168</v>
+        <v>197</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F108" s="4">
         <f>F106+F107</f>
@@ -10507,13 +10520,13 @@
     </row>
     <row r="109" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="B109" s="44" t="s">
-        <v>168</v>
+        <v>238</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F109" s="4">
         <f>F102*$F$19</f>
@@ -10574,13 +10587,13 @@
     </row>
     <row r="110" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B110" s="41" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="B110" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F110" s="4">
         <f>F9*F103</f>
@@ -10641,10 +10654,10 @@
     </row>
     <row r="111" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B111" s="44" t="s">
-        <v>168</v>
+        <v>179</v>
+      </c>
+      <c r="B111" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>126</v>
@@ -10708,13 +10721,13 @@
     </row>
     <row r="112" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B112" s="44" t="s">
-        <v>168</v>
+        <v>182</v>
+      </c>
+      <c r="B112" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F112" s="4">
         <f>F110*(1-$F$14)</f>
@@ -10775,13 +10788,13 @@
     </row>
     <row r="113" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B113" s="44" t="s">
-        <v>168</v>
+        <v>183</v>
+      </c>
+      <c r="B113" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F113" s="4">
         <f>F110*$F19</f>
@@ -10806,10 +10819,10 @@
     </row>
     <row r="115" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B115" s="41" t="s">
-        <v>183</v>
+        <v>198</v>
+      </c>
+      <c r="B115" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E115" s="10" t="s">
         <v>121</v>
@@ -10892,10 +10905,10 @@
     </row>
     <row r="118" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B118" s="41" t="s">
-        <v>183</v>
+        <v>199</v>
+      </c>
+      <c r="B118" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>120</v>
@@ -10931,10 +10944,10 @@
     </row>
     <row r="119" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B119" s="41" t="s">
-        <v>183</v>
+        <v>200</v>
+      </c>
+      <c r="B119" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>123</v>
@@ -10970,13 +10983,13 @@
     </row>
     <row r="120" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B120" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B120" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="E120" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="F120" s="4">
         <f>MIN(F31,F118)</f>
@@ -11009,10 +11022,10 @@
     </row>
     <row r="121" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="B121" s="44" t="s">
-        <v>168</v>
+        <v>237</v>
+      </c>
+      <c r="B121" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>147</v>
@@ -11048,13 +11061,13 @@
     </row>
     <row r="122" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="B122" s="44" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="B122" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F122" s="4">
         <f>F131*F120</f>
@@ -11114,7 +11127,7 @@
       </c>
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B123" s="46"/>
+      <c r="B123" s="45"/>
     </row>
     <row r="124" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="E124" s="15" t="s">
@@ -11137,10 +11150,10 @@
     </row>
     <row r="125" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B125" s="41" t="s">
-        <v>183</v>
+        <v>195</v>
+      </c>
+      <c r="B125" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>75</v>
@@ -11204,10 +11217,10 @@
     </row>
     <row r="126" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B126" s="41" t="s">
-        <v>183</v>
+        <v>202</v>
+      </c>
+      <c r="B126" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>138</v>
@@ -11281,13 +11294,13 @@
     </row>
     <row r="127" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B127" s="41" t="s">
-        <v>183</v>
+        <v>203</v>
+      </c>
+      <c r="B127" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F127" s="4">
         <f>MAX(MIN(F126/$F$16, 1), 0)</f>
@@ -11370,10 +11383,10 @@
     </row>
     <row r="129" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B129" s="41" t="s">
-        <v>183</v>
+        <v>205</v>
+      </c>
+      <c r="B129" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E129" s="10" t="s">
         <v>76</v>
@@ -11447,10 +11460,10 @@
     </row>
     <row r="130" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B130" s="41" t="s">
-        <v>183</v>
+        <v>206</v>
+      </c>
+      <c r="B130" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>122</v>
@@ -11514,10 +11527,10 @@
     </row>
     <row r="131" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="B131" s="41" t="s">
-        <v>183</v>
+        <v>207</v>
+      </c>
+      <c r="B131" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>119</v>
@@ -11581,20 +11594,20 @@
     </row>
     <row r="133" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="E133" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
     </row>
     <row r="134" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B134" s="44" t="s">
-        <v>168</v>
+        <v>233</v>
+      </c>
+      <c r="B134" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F134" s="4">
         <f>(F102 - F122 - F110)*$F$28</f>
@@ -11655,13 +11668,13 @@
     </row>
     <row r="135" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="B135" s="44" t="s">
-        <v>168</v>
+        <v>234</v>
+      </c>
+      <c r="B135" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F135" s="4">
         <f>F122*$F19</f>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBE7CB3-3C87-4D48-8A0E-87CF406EF9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0D3A5A-4BFA-A141-BA66-D7C1EA47B56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="500" windowWidth="33680" windowHeight="19400" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="6820" yWindow="760" windowWidth="26440" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="284">
   <si>
     <t>forest_primary_c_ha</t>
   </si>
@@ -400,9 +400,6 @@
     <t>removals allocation</t>
   </si>
   <si>
-    <t>removals from original</t>
-  </si>
-  <si>
     <t>stock to allocate from original pool excluding conversion</t>
   </si>
   <si>
@@ -416,9 +413,6 @@
   </si>
   <si>
     <t>cumulative_vals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c available from original conversion </t>
   </si>
   <si>
     <t>conversion away from new forest</t>
@@ -549,9 +543,6 @@
     <t>total removals from original</t>
   </si>
   <si>
-    <t>c converted</t>
-  </si>
-  <si>
     <t>ag c lost from conversion</t>
   </si>
   <si>
@@ -573,13 +564,7 @@
     <t>starting c_stock_total</t>
   </si>
   <si>
-    <t>other loss</t>
-  </si>
-  <si>
     <t>ratio of below ground biomass to above ground</t>
-  </si>
-  <si>
-    <t>arr_c_available_from_conversion</t>
   </si>
   <si>
     <t>internal</t>
@@ -605,9 +590,6 @@
 arr_young_area_by_tp_planted_drops (T x T)   [e.g., col I]</t>
   </si>
   <si>
-    <t>arr_biomass_c_converted_away</t>
-  </si>
-  <si>
     <t>arr_young_sf_adjusted_by_tp_planted (T x T)   [e.g., col J]
 arr_young_sf_adjustment_factor (T x T)   [e.g., col I]</t>
   </si>
@@ -618,39 +600,18 @@
     <t>arr_orig_sf_adjustment_factor</t>
   </si>
   <si>
-    <t>arr_orig_biomass_c_if_untouched</t>
-  </si>
-  <si>
-    <t>arr_orig_sf_nominal</t>
-  </si>
-  <si>
     <t>arr_orig_sf_adjusted</t>
   </si>
   <si>
-    <t>arr_orig_biomass_ag_c_starting</t>
-  </si>
-  <si>
     <t>arr_orig_biomass_average_per_area</t>
   </si>
   <si>
-    <t>arr_young_biomass_ag_c_starting</t>
-  </si>
-  <si>
-    <t>arr_total_biomass_ag_c_starting</t>
-  </si>
-  <si>
     <t>arr_orig_biomass_c_allocation_excluding_conversion</t>
   </si>
   <si>
-    <t>arr_biomass_c_removed_from_original_demanded</t>
-  </si>
-  <si>
     <t>arr_biomass_c_removed_from_original_unmet</t>
   </si>
   <si>
-    <t>arr_biomass_c_removed_from_original_final</t>
-  </si>
-  <si>
     <t>arr_orig_frac_stock available</t>
   </si>
   <si>
@@ -753,15 +714,9 @@
     <t xml:space="preserve">removals </t>
   </si>
   <si>
-    <t>arr_biomass_c_removed_from_original_forest</t>
-  </si>
-  <si>
     <t>vec_biomass_c_removed_from_young</t>
   </si>
   <si>
-    <t>arr_total_biomass_bg_c_starting</t>
-  </si>
-  <si>
     <t>total starting ag stock</t>
   </si>
   <si>
@@ -799,9 +754,6 @@
   </si>
   <si>
     <t xml:space="preserve">dead storage (minimum fraction of original stock that must remain on the land to allow it to remain that land use type). </t>
-  </si>
-  <si>
-    <t>arr_biomass_c_min_reqd_per_area</t>
   </si>
   <si>
     <t>vec_biomass_c_ag_init_stst_storage</t>
@@ -832,10 +784,118 @@
 arr_young_biomass_c_stock_removal_allocation_aux (T x T)   [e.g., col F]</t>
   </si>
   <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>arr_young_biomass_c_ag_stock_if_untouched (T x T)</t>
+  </si>
+  <si>
+    <t>n/a -- refers to vec_annual_sf_nominal</t>
+  </si>
+  <si>
+    <t>arr_orig_biomass_c_ag_if_untouched</t>
+  </si>
+  <si>
+    <t>arr_orig_biomass_c_ag_starting</t>
+  </si>
+  <si>
+    <t>arr_total_biomass_c_ag_starting</t>
+  </si>
+  <si>
+    <t>arr_total_biomass_c_bg_starting</t>
+  </si>
+  <si>
+    <t>arr_orig_biomass_c_ag_average_per_area</t>
+  </si>
+  <si>
+    <t>vec_young_biomass_c_ag_starting</t>
+  </si>
+  <si>
+    <t>n/af ref to arr_orig_biomass_c_ag_starting</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_ag_converted_away</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_ag_min_reqd_per_area</t>
+  </si>
+  <si>
+    <t>average stock in target land use classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average per area stock of target land use classes, used to restrict removals </t>
+  </si>
+  <si>
+    <t>arr_biomass_c_average_ag_stock_in_conversion_targets</t>
+  </si>
+  <si>
+    <t>c_stock_converted_that_remains_t0</t>
+  </si>
+  <si>
+    <t>stock that is preserved in target land classes that are converted to (based on average)</t>
+  </si>
+  <si>
+    <t>c_stock_converted_that_remains_t1</t>
+  </si>
+  <si>
+    <t>c_stock_converted_that_remains_t2</t>
+  </si>
+  <si>
+    <t>c_stock_converted_that_remains_t3</t>
+  </si>
+  <si>
+    <t>removals from converted land</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c available from  conversion </t>
+  </si>
+  <si>
+    <t>vec_biomass_c_removals_from_converted</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_removals_from_converted_land_allocation</t>
+  </si>
+  <si>
+    <t>vec_biomass_c_removals_from_forest_demanded</t>
+  </si>
+  <si>
+    <t>vec_biomass_c_removed_from_original_demanded</t>
+  </si>
+  <si>
+    <t>demanded removals from forest left forest</t>
+  </si>
+  <si>
+    <t>arr_young_biomass_c_ag_preserved_in_conversion_by_tp_planted (T x T)</t>
+  </si>
+  <si>
+    <t>vec_young_biomass_c_ag_preserved_in_conversion</t>
+  </si>
+  <si>
+    <t>arr_orig_biomass_c_ag_preserved_in_conversion</t>
+  </si>
+  <si>
+    <t>arr_orig_biomass_c_ag_available_from_conversion</t>
+  </si>
+  <si>
+    <t>TOTAL C CONVERTED FOR COMPARISON TO LAND USE STOCK MATRIX (must use for comparing loss)</t>
+  </si>
+  <si>
+    <t>arr_orig_biomass_c_removed_from_forests</t>
+  </si>
+  <si>
+    <t>vec_total_removals_fulfilled</t>
+  </si>
+  <si>
+    <t>total removals met</t>
+  </si>
+  <si>
+    <t>orig c converted</t>
+  </si>
+  <si>
+    <t>orig biomass converted that is preserved</t>
+  </si>
+  <si>
+    <t>allocation of removals</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1122,6 +1182,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6274,10 +6337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
-  <dimension ref="A1:AM150"/>
+  <dimension ref="A1:AM158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:A80"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6463,16 +6526,16 @@
     </row>
     <row r="5" spans="1:39" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>51</v>
@@ -6500,11 +6563,11 @@
       </c>
       <c r="V5" s="29"/>
       <c r="X5" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Y5" s="29"/>
       <c r="AB5" s="49" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AC5" s="21" t="s">
         <v>33</v>
@@ -6530,7 +6593,7 @@
     </row>
     <row r="6" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="B6" s="39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>24</v>
@@ -6599,10 +6662,10 @@
     </row>
     <row r="7" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>67</v>
@@ -6686,10 +6749,10 @@
     </row>
     <row r="8" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>114</v>
@@ -6775,10 +6838,10 @@
     </row>
     <row r="9" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>55</v>
@@ -6850,13 +6913,13 @@
     </row>
     <row r="10" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G10" s="4">
         <f>-MIN(G7-G9,0)</f>
@@ -6899,40 +6962,40 @@
     </row>
     <row r="11" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>113</v>
       </c>
       <c r="G11" s="4">
-        <f>MAX(G10-G24,0)</f>
+        <f>MAX(G10-G25,0)</f>
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <f>MAX(J10-J24,0)</f>
+        <f>MAX(J10-J25,0)</f>
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <f>MAX(M10-M24,0)</f>
+        <f>MAX(M10-M25,0)</f>
         <v>0</v>
       </c>
       <c r="P11" s="4">
-        <f>MAX(P10-P24,0)</f>
+        <f>MAX(P10-P25,0)</f>
         <v>0</v>
       </c>
       <c r="S11" s="4">
-        <f>MAX(S10-S24,0)</f>
+        <f>MAX(S10-S25,0)</f>
         <v>0</v>
       </c>
       <c r="V11" s="4">
-        <f>MAX(V10-V24,0)</f>
+        <f>MAX(V10-V25,0)</f>
         <v>0</v>
       </c>
       <c r="Y11" s="4">
-        <f>MAX(Y10-Y24,0)</f>
+        <f>MAX(Y10-Y25,0)</f>
         <v>0</v>
       </c>
       <c r="AC11" s="19">
@@ -6948,10 +7011,10 @@
     </row>
     <row r="12" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>66</v>
@@ -6990,13 +7053,13 @@
     </row>
     <row r="13" spans="1:39" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F13" s="4">
         <f>MAX(F7-F9,0)</f>
@@ -7060,10 +7123,10 @@
     </row>
     <row r="14" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>54</v>
@@ -7100,122 +7163,154 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J15" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L15" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="M15" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O15" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="P15" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="R15" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="S15" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="U15" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V15" s="4">
+        <v>11</v>
+      </c>
+      <c r="X15" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+    </row>
+    <row r="16" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="4">
         <v>1E-3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>0.3</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L16" s="4">
         <v>0.3</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O16" s="4">
         <v>0.3</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R16" s="4">
         <v>0.3</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U16" s="4">
         <v>0.3</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X16" s="4">
         <v>0.3</v>
       </c>
-      <c r="AC15" s="19">
+      <c r="AC16" s="19">
         <v>1.8</v>
-      </c>
-      <c r="AD15" s="19">
-        <f>SUM(AC$6:AC15)</f>
-        <v>3.34</v>
-      </c>
-      <c r="AE15" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="AC16" s="19">
-        <v>3</v>
       </c>
       <c r="AD16" s="19">
         <f>SUM(AC$6:AC16)</f>
-        <v>6.34</v>
+        <v>3.34</v>
       </c>
       <c r="AE16" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="28"/>
+        <v>162</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="E17" s="10" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="F17" s="4">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="AC17" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD17" s="19">
         <f>SUM(AC$6:AC17)</f>
-        <v>12.34</v>
+        <v>6.34</v>
       </c>
       <c r="AE17" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>164</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D18" s="28"/>
       <c r="E18" s="10" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="F18" s="4">
-        <v>150</v>
-      </c>
-      <c r="G18" s="4">
-        <v>100</v>
+        <v>0.67</v>
       </c>
       <c r="AC18" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AD18" s="19">
         <f>SUM(AC$6:AC18)</f>
-        <v>22.34</v>
+        <v>12.34</v>
       </c>
       <c r="AE18" s="19">
         <v>20</v>
@@ -7223,152 +7318,116 @@
     </row>
     <row r="19" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="F19" s="4">
-        <v>0.3</v>
+        <v>150</v>
       </c>
       <c r="G19" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="AC19" s="19">
+        <v>10</v>
+      </c>
+      <c r="AD19" s="19">
+        <f>SUM(AC$6:AC19)</f>
+        <v>22.34</v>
+      </c>
+      <c r="AE19" s="19">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>180</v>
+        <v>239</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>162</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="F20" s="4">
-        <f>F$18*$F$15</f>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G20" s="4">
-        <f>G$18*$F$15</f>
-        <v>0.1</v>
-      </c>
-      <c r="AC20" s="19">
-        <v>12</v>
-      </c>
-      <c r="AD20" s="19">
-        <f>SUM(AC$6:AC20)</f>
-        <v>34.340000000000003</v>
-      </c>
-      <c r="AE20" s="19">
-        <v>20</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
     </row>
     <row r="21" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="F21" s="4">
-        <f>F18-F20</f>
-        <v>149.85</v>
+        <f>F$19*$F$16</f>
+        <v>0.15</v>
       </c>
       <c r="G21" s="4">
-        <f>G18-G20</f>
-        <v>99.9</v>
+        <f>G$19*$F$16</f>
+        <v>0.1</v>
       </c>
       <c r="AC21" s="19">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AD21" s="19">
         <f>SUM(AC$6:AC21)</f>
-        <v>47.84</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="AE21" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="4">
+        <f>F19-F21</f>
+        <v>149.85</v>
+      </c>
+      <c r="G22" s="4">
+        <f>G19-G21</f>
+        <v>99.9</v>
+      </c>
       <c r="AC22" s="19">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AD22" s="19">
         <f>SUM(AC$6:AC22)</f>
-        <v>59.84</v>
+        <v>47.84</v>
       </c>
       <c r="AE22" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="4">
-        <v>5000</v>
-      </c>
-      <c r="G23" s="4">
-        <v>50000</v>
-      </c>
-      <c r="I23" s="4">
-        <v>5000</v>
-      </c>
-      <c r="J23" s="4">
-        <v>50000</v>
-      </c>
-      <c r="L23" s="4">
-        <v>5500</v>
-      </c>
-      <c r="M23" s="4">
-        <v>50000</v>
-      </c>
-      <c r="O23" s="4">
-        <v>6000</v>
-      </c>
-      <c r="P23" s="4">
-        <v>50000</v>
-      </c>
-      <c r="R23" s="4">
-        <v>6500</v>
-      </c>
-      <c r="S23" s="4">
-        <v>49000</v>
-      </c>
-      <c r="U23" s="4">
-        <v>7200</v>
-      </c>
-      <c r="V23" s="4">
-        <v>49500</v>
-      </c>
-      <c r="X23" s="4">
-        <v>7200</v>
-      </c>
-      <c r="Y23" s="4">
-        <v>49500</v>
-      </c>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AC23" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD23" s="19">
         <f>SUM(AC$6:AC23)</f>
-        <v>69.84</v>
+        <v>59.84</v>
       </c>
       <c r="AE23" s="19">
         <v>20</v>
@@ -7376,48 +7435,62 @@
     </row>
     <row r="24" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>108</v>
+        <v>158</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5000</v>
       </c>
       <c r="G24" s="4">
-        <f>MAX(G$23-G$13, 0)</f>
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5000</v>
       </c>
       <c r="J24" s="4">
-        <f>MAX(J$23-J$13, 0)</f>
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="L24" s="4">
+        <v>5500</v>
       </c>
       <c r="M24" s="4">
-        <f>MAX(M$23-M$13, 0)</f>
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="O24" s="4">
+        <v>6000</v>
       </c>
       <c r="P24" s="4">
-        <f>MAX(P$23-P$13, 0)</f>
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="R24" s="4">
+        <v>6500</v>
       </c>
       <c r="S24" s="4">
-        <f>MAX(S$23-S$13, 0)</f>
-        <v>0</v>
+        <v>49000</v>
+      </c>
+      <c r="U24" s="4">
+        <v>7200</v>
       </c>
       <c r="V24" s="4">
-        <f>MAX(V$23-V$13, 0)</f>
-        <v>0</v>
+        <v>49500</v>
+      </c>
+      <c r="X24" s="4">
+        <v>7200</v>
       </c>
       <c r="Y24" s="4">
-        <f>MAX(Y$23-Y$13, 0)</f>
-        <v>0</v>
+        <v>49500</v>
       </c>
       <c r="AC24" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AD24" s="19">
         <f>SUM(AC$6:AC24)</f>
-        <v>75.84</v>
+        <v>69.84</v>
       </c>
       <c r="AE24" s="19">
         <v>20</v>
@@ -7425,401 +7498,365 @@
     </row>
     <row r="25" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="4">
-        <f>MIN(F13,F23)</f>
-        <v>5000</v>
+        <v>108</v>
       </c>
       <c r="G25" s="4">
-        <f>MIN(G13,G23)-G24</f>
-        <v>50000</v>
-      </c>
-      <c r="I25" s="4">
-        <f>MIN(I13,I23)</f>
-        <v>5000</v>
+        <f>MAX(G$24-G$13, 0)</f>
+        <v>0</v>
       </c>
       <c r="J25" s="4">
-        <f>MIN(J13,J23)-J24</f>
-        <v>50000</v>
-      </c>
-      <c r="L25" s="4">
-        <f>MIN(L13,L23)</f>
-        <v>5500</v>
+        <f>MAX(J$24-J$13, 0)</f>
+        <v>0</v>
       </c>
       <c r="M25" s="4">
-        <f>MIN(M13,M23)-M24</f>
-        <v>50000</v>
-      </c>
-      <c r="O25" s="4">
-        <f>MIN(O13,O23)</f>
-        <v>6000</v>
+        <f>MAX(M$24-M$13, 0)</f>
+        <v>0</v>
       </c>
       <c r="P25" s="4">
-        <f>MIN(P13,P23)-P24</f>
-        <v>50000</v>
-      </c>
-      <c r="R25" s="4">
-        <f>MIN(R13,R23)</f>
-        <v>6500</v>
+        <f>MAX(P$24-P$13, 0)</f>
+        <v>0</v>
       </c>
       <c r="S25" s="4">
-        <f>MIN(S13,S23)-S24</f>
-        <v>49000</v>
-      </c>
-      <c r="U25" s="4">
-        <f>MIN(U13,U23)</f>
-        <v>7200</v>
+        <f>MAX(S$24-S$13, 0)</f>
+        <v>0</v>
       </c>
       <c r="V25" s="4">
-        <f>MIN(V13,V23)-V24</f>
-        <v>49500</v>
-      </c>
-      <c r="X25" s="4">
-        <f>MIN(X13,X23)</f>
-        <v>7200</v>
+        <f>MAX(V$24-V$13, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y25" s="4">
-        <f>MIN(Y13,Y23)-Y24</f>
-        <v>49500</v>
+        <f>MAX(Y$24-Y$13, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC25" s="19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD25" s="19">
         <f>SUM(AC$6:AC25)</f>
-        <v>78.84</v>
+        <v>75.84</v>
       </c>
       <c r="AE25" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="E26" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
+      <c r="A26" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="4">
+        <f>MIN(F13,F24)</f>
+        <v>5000</v>
+      </c>
+      <c r="G26" s="4">
+        <f>MIN(G13,G24)-G25</f>
+        <v>50000</v>
+      </c>
+      <c r="I26" s="4">
+        <f>MIN(I13,I24)</f>
+        <v>5000</v>
+      </c>
+      <c r="J26" s="4">
+        <f>MIN(J13,J24)-J25</f>
+        <v>50000</v>
+      </c>
+      <c r="L26" s="4">
+        <f>MIN(L13,L24)</f>
+        <v>5500</v>
+      </c>
+      <c r="M26" s="4">
+        <f>MIN(M13,M24)-M25</f>
+        <v>50000</v>
+      </c>
+      <c r="O26" s="4">
+        <f>MIN(O13,O24)</f>
+        <v>6000</v>
+      </c>
+      <c r="P26" s="4">
+        <f>MIN(P13,P24)-P25</f>
+        <v>50000</v>
+      </c>
+      <c r="R26" s="4">
+        <f>MIN(R13,R24)</f>
+        <v>6500</v>
+      </c>
+      <c r="S26" s="4">
+        <f>MIN(S13,S24)-S25</f>
+        <v>49000</v>
+      </c>
+      <c r="U26" s="4">
+        <f>MIN(U13,U24)</f>
+        <v>7200</v>
+      </c>
+      <c r="V26" s="4">
+        <f>MIN(V13,V24)-V25</f>
+        <v>49500</v>
+      </c>
+      <c r="X26" s="4">
+        <f>MIN(X13,X24)</f>
+        <v>7200</v>
+      </c>
+      <c r="Y26" s="4">
+        <f>MIN(Y13,Y24)-Y25</f>
+        <v>49500</v>
+      </c>
       <c r="AC26" s="19">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AD26" s="19">
         <f>SUM(AC$6:AC26)</f>
-        <v>80.64</v>
+        <v>78.84</v>
       </c>
       <c r="AE26" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.92</v>
+    <row r="27" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="E27" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="AC27" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="AD27" s="19">
+        <f>SUM(AC$6:AC27)</f>
+        <v>80.64</v>
+      </c>
+      <c r="AE27" s="19">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="B28" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="4">
+        <f>F28/F19</f>
+        <v>2E-3</v>
+      </c>
+      <c r="G29" s="4">
+        <f>F29</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="E31" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+    </row>
+    <row r="32" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2050000</v>
+      </c>
+      <c r="L32" s="4">
+        <v>2110000</v>
+      </c>
+      <c r="O32" s="4">
+        <v>2210000</v>
+      </c>
+      <c r="R32" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="U32" s="4">
+        <v>25000000</v>
+      </c>
+      <c r="X32" s="4">
+        <v>2520000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="E34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+    </row>
+    <row r="35" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="E35" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="I35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="34" t="s">
+      <c r="E36" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <f>SUM(J$36:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <f>SUM(M$36:M36)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <f>SUM(P$36:P36)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
+        <f>SUM(S$36:S36)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <v>0</v>
+      </c>
+      <c r="T36" s="5">
+        <f>SUM(V$36:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="4">
+        <v>0</v>
+      </c>
+      <c r="W36" s="5">
+        <f>SUM(Y$36:Y36)</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="F28" s="4">
-        <f>F27/F18</f>
-        <v>2E-3</v>
-      </c>
-      <c r="G28" s="4">
-        <f>F28</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="E30" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-    </row>
-    <row r="31" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2000000</v>
-      </c>
-      <c r="I31" s="4">
-        <v>2050000</v>
-      </c>
-      <c r="L31" s="4">
-        <v>2110000</v>
-      </c>
-      <c r="O31" s="4">
-        <v>2210000</v>
-      </c>
-      <c r="R31" s="4">
-        <v>3000000</v>
-      </c>
-      <c r="U31" s="4">
-        <v>25000000</v>
-      </c>
-      <c r="X31" s="4">
-        <v>2520000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="E33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-    </row>
-    <row r="34" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="E34" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="I34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5">
-        <f>SUM(J$35:J35)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0</v>
-      </c>
-      <c r="K35" s="5">
-        <f>SUM(M$35:M35)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5">
-        <f>SUM(P$35:P35)</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="5">
-        <f>SUM(S$35:S35)</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="4">
-        <v>0</v>
-      </c>
-      <c r="T35" s="5">
-        <f>SUM(V$35:V35)</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="4">
-        <v>0</v>
-      </c>
-      <c r="W35" s="5">
-        <f>SUM(Y$35:Y35)</f>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E36" s="14" t="s">
+      <c r="E37" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
         <f>G12</f>
         <v>85</v>
       </c>
-      <c r="H36" s="5">
-        <f>SUM(G$35:G36)</f>
-        <v>85</v>
-      </c>
-      <c r="I36" s="4">
-        <f>IF(H36&gt;=J$11, IF(H35&lt;J$11, J$11-H35, 0),G36)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="4">
-        <f>G36-I36</f>
-        <v>85</v>
-      </c>
-      <c r="K36" s="5">
-        <f>SUM(J$35:J36)</f>
-        <v>85</v>
-      </c>
-      <c r="L36" s="4">
-        <f>IF(K36&gt;=M$11, IF(K35&lt;M$11, M$11-K35, 0),J36)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="4">
-        <f>J36-L36</f>
-        <v>85</v>
-      </c>
-      <c r="N36" s="5">
-        <f>SUM(M$35:M36)</f>
-        <v>85</v>
-      </c>
-      <c r="O36" s="4">
-        <f>IF(N36&gt;=P$11, IF(N35&lt;P$11, P$11-N35, 0),M36)</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="4">
-        <f>M36-O36</f>
-        <v>85</v>
-      </c>
-      <c r="Q36" s="5">
-        <f>SUM(P$35:P36)</f>
-        <v>85</v>
-      </c>
-      <c r="R36" s="4">
-        <f>IF(Q36&gt;=S$11, IF(Q35&lt;S$11, S$11-Q35, 0),P36)</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="4">
-        <f>P36-R36</f>
-        <v>85</v>
-      </c>
-      <c r="T36" s="5">
-        <f>SUM(S$35:S36)</f>
-        <v>85</v>
-      </c>
-      <c r="U36" s="4">
-        <f>IF(T36&gt;=V$11, IF(T35&lt;V$11, V$11-T35, 0),S36)</f>
-        <v>0</v>
-      </c>
-      <c r="V36" s="4">
-        <f>S36-U36</f>
-        <v>85</v>
-      </c>
-      <c r="W36" s="5">
-        <f>SUM(V$35:V36)</f>
-        <v>85</v>
-      </c>
-      <c r="X36" s="4">
-        <f>IF(W36&gt;=Y$11, IF(W35&lt;Y$11, Y$11-W35, 0),V36)</f>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="4">
-        <f>V36-X36</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
-      <c r="B37" s="37"/>
-      <c r="E37" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
       <c r="H37" s="5">
-        <f>SUM(G$35:G37)</f>
+        <f>SUM(G$36:G37)</f>
         <v>85</v>
       </c>
       <c r="I37" s="4">
@@ -7827,75 +7864,75 @@
         <v>0</v>
       </c>
       <c r="J37" s="4">
-        <f>J12</f>
-        <v>80</v>
+        <f>G37-I37</f>
+        <v>85</v>
       </c>
       <c r="K37" s="5">
-        <f>SUM(J$35:J37)</f>
-        <v>165</v>
+        <f>SUM(J$36:J37)</f>
+        <v>85</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" ref="L37:L39" si="0">IF(K37&gt;=M$11, IF(K36&lt;M$11, M$11-K36, 0),J37)</f>
+        <f>IF(K37&gt;=M$11, IF(K36&lt;M$11, M$11-K36, 0),J37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="4">
         <f>J37-L37</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N37" s="5">
-        <f>SUM(M$35:M37)</f>
-        <v>165</v>
+        <f>SUM(M$36:M37)</f>
+        <v>85</v>
       </c>
       <c r="O37" s="4">
-        <f t="shared" ref="O37:O39" si="1">IF(N37&gt;=P$11, IF(N36&lt;P$11, P$11-N36, 0),M37)</f>
+        <f>IF(N37&gt;=P$11, IF(N36&lt;P$11, P$11-N36, 0),M37)</f>
         <v>0</v>
       </c>
       <c r="P37" s="4">
         <f>M37-O37</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q37" s="5">
-        <f>SUM(P$35:P37)</f>
-        <v>165</v>
+        <f>SUM(P$36:P37)</f>
+        <v>85</v>
       </c>
       <c r="R37" s="4">
-        <f t="shared" ref="R37:R39" si="2">IF(Q37&gt;=S$11, IF(Q36&lt;S$11, S$11-Q36, 0),P37)</f>
+        <f>IF(Q37&gt;=S$11, IF(Q36&lt;S$11, S$11-Q36, 0),P37)</f>
         <v>0</v>
       </c>
       <c r="S37" s="4">
         <f>P37-R37</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T37" s="5">
-        <f>SUM(S$35:S37)</f>
-        <v>165</v>
+        <f>SUM(S$36:S37)</f>
+        <v>85</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" ref="U37:U39" si="3">IF(T37&gt;=V$11, IF(T36&lt;V$11, V$11-T36, 0),S37)</f>
+        <f>IF(T37&gt;=V$11, IF(T36&lt;V$11, V$11-T36, 0),S37)</f>
         <v>0</v>
       </c>
       <c r="V37" s="4">
         <f>S37-U37</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W37" s="5">
-        <f>SUM(V$35:V37)</f>
-        <v>165</v>
+        <f>SUM(V$36:V37)</f>
+        <v>85</v>
       </c>
       <c r="X37" s="4">
-        <f t="shared" ref="X37:X39" si="4">IF(W37&gt;=Y$11, IF(W36&lt;Y$11, Y$11-W36, 0),V37)</f>
+        <f>IF(W37&gt;=Y$11, IF(W36&lt;Y$11, Y$11-W36, 0),V37)</f>
         <v>0</v>
       </c>
       <c r="Y37" s="4">
         <f>V37-X37</f>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="37"/>
       <c r="E38" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -7904,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="5">
-        <f>SUM(G$35:G38)</f>
+        <f>SUM(G$36:G38)</f>
         <v>85</v>
       </c>
       <c r="I38" s="4">
@@ -7912,74 +7949,75 @@
         <v>0</v>
       </c>
       <c r="J38" s="4">
-        <v>0</v>
+        <f>J12</f>
+        <v>80</v>
       </c>
       <c r="K38" s="5">
-        <f>SUM(J$35:J38)</f>
+        <f>SUM(J$36:J38)</f>
         <v>165</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L38:L40" si="0">IF(K38&gt;=M$11, IF(K37&lt;M$11, M$11-K37, 0),J38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="4">
-        <f>M12</f>
-        <v>92</v>
+        <f>J38-L38</f>
+        <v>80</v>
       </c>
       <c r="N38" s="5">
-        <f>SUM(M$35:M38)</f>
-        <v>257</v>
+        <f>SUM(M$36:M38)</f>
+        <v>165</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O38:O40" si="1">IF(N38&gt;=P$11, IF(N37&lt;P$11, P$11-N37, 0),M38)</f>
         <v>0</v>
       </c>
       <c r="P38" s="4">
         <f>M38-O38</f>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="Q38" s="5">
-        <f>SUM(P$35:P38)</f>
-        <v>257</v>
+        <f>SUM(P$36:P38)</f>
+        <v>165</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R38:R40" si="2">IF(Q38&gt;=S$11, IF(Q37&lt;S$11, S$11-Q37, 0),P38)</f>
         <v>0</v>
       </c>
       <c r="S38" s="4">
         <f>P38-R38</f>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="T38" s="5">
-        <f>SUM(S$35:S38)</f>
-        <v>257</v>
+        <f>SUM(S$36:S38)</f>
+        <v>165</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U38:U40" si="3">IF(T38&gt;=V$11, IF(T37&lt;V$11, V$11-T37, 0),S38)</f>
         <v>0</v>
       </c>
       <c r="V38" s="4">
         <f>S38-U38</f>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="W38" s="5">
-        <f>SUM(V$35:V38)</f>
-        <v>257</v>
+        <f>SUM(V$36:V38)</f>
+        <v>165</v>
       </c>
       <c r="X38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="X38:X40" si="4">IF(W38&gt;=Y$11, IF(W37&lt;Y$11, Y$11-W37, 0),V38)</f>
         <v>0</v>
       </c>
       <c r="Y38" s="4">
         <f>V38-X38</f>
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="48"/>
       <c r="B39" s="37"/>
       <c r="E39" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -7988,18 +8026,18 @@
         <v>0</v>
       </c>
       <c r="H39" s="5">
-        <f>SUM(G$35:G39)</f>
+        <f>SUM(G$36:G39)</f>
         <v>85</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" ref="I38:I39" si="5">IF(H39&gt;=J$11, IF(H38&lt;J$11, J$11-H38, 0),G39)</f>
+        <f>IF(H39&gt;=J$11, IF(H38&lt;J$11, J$11-H38, 0),G39)</f>
         <v>0</v>
       </c>
       <c r="J39" s="4">
         <v>0</v>
       </c>
       <c r="K39" s="5">
-        <f>SUM(J$35:J39)</f>
+        <f>SUM(J$36:J39)</f>
         <v>165</v>
       </c>
       <c r="L39" s="4">
@@ -8007,10 +8045,11 @@
         <v>0</v>
       </c>
       <c r="M39" s="4">
-        <v>0</v>
+        <f>M12</f>
+        <v>92</v>
       </c>
       <c r="N39" s="5">
-        <f>SUM(M$35:M39)</f>
+        <f>SUM(M$36:M39)</f>
         <v>257</v>
       </c>
       <c r="O39" s="4">
@@ -8018,123 +8057,172 @@
         <v>0</v>
       </c>
       <c r="P39" s="4">
+        <f>M39-O39</f>
+        <v>92</v>
+      </c>
+      <c r="Q39" s="5">
+        <f>SUM(P$36:P39)</f>
+        <v>257</v>
+      </c>
+      <c r="R39" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="4">
+        <f>P39-R39</f>
+        <v>92</v>
+      </c>
+      <c r="T39" s="5">
+        <f>SUM(S$36:S39)</f>
+        <v>257</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="4">
+        <f>S39-U39</f>
+        <v>92</v>
+      </c>
+      <c r="W39" s="5">
+        <f>SUM(V$36:V39)</f>
+        <v>257</v>
+      </c>
+      <c r="X39" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="4">
+        <f>V39-X39</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="48"/>
+      <c r="B40" s="37"/>
+      <c r="E40" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <f>SUM(G$36:G40)</f>
+        <v>85</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" ref="I40" si="5">IF(H40&gt;=J$11, IF(H39&lt;J$11, J$11-H39, 0),G40)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <f>SUM(J$36:J40)</f>
+        <v>165</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <f>SUM(M$36:M40)</f>
+        <v>257</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
         <f>P12</f>
         <v>43</v>
       </c>
-      <c r="Q39" s="5">
-        <f>SUM(P$35:P39)</f>
+      <c r="Q40" s="5">
+        <f>SUM(P$36:P40)</f>
         <v>300</v>
       </c>
-      <c r="R39" s="4">
+      <c r="R40" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S39" s="4">
-        <f>P39-R39</f>
+      <c r="S40" s="4">
+        <f>P40-R40</f>
         <v>43</v>
       </c>
-      <c r="T39" s="5">
-        <f>SUM(S$35:S39)</f>
+      <c r="T40" s="5">
+        <f>SUM(S$36:S40)</f>
         <v>300</v>
       </c>
-      <c r="U39" s="4">
+      <c r="U40" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V39" s="4">
-        <f>S39-U39</f>
+      <c r="V40" s="4">
+        <f>S40-U40</f>
         <v>43</v>
       </c>
-      <c r="W39" s="5">
-        <f>SUM(V$35:V39)</f>
+      <c r="W40" s="5">
+        <f>SUM(V$36:V40)</f>
         <v>300</v>
       </c>
-      <c r="X39" s="4">
+      <c r="X40" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="4">
-        <f>V39-X39</f>
+      <c r="Y40" s="4">
+        <f>V40-X40</f>
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="E40" s="14" t="s">
+    <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="E41" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Z41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4">
-        <f>IF(G36=0, 0, G87*I36/G36)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="4">
-        <f>IF(J36=0, 0, J87*L36/J36)</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="4">
-        <f>IF(M36=0, 0, M87*O36/M36)</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="4">
-        <f>IF(P36=0, 0, P87*R36/P36)</f>
-        <v>0</v>
-      </c>
-      <c r="V41" s="4">
-        <f>IF(S36=0, 0, S87*U36/S36)</f>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="4">
-        <f>IF(V36=0, 0, V87*X36/V36)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="48"/>
-      <c r="B42" s="37"/>
+      <c r="A42" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>175</v>
+      </c>
       <c r="E42" s="14" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
       </c>
       <c r="J42" s="4">
-        <f>IF(G37=0, 0, G88*I37/G37)</f>
+        <f>IF(G37=0, 0, G94*I37/G37)</f>
         <v>0</v>
       </c>
       <c r="M42" s="4">
-        <f>IF(J37=0, 0, J88*L37/J37)</f>
+        <f>IF(J37=0, 0, J94*L37/J37)</f>
         <v>0</v>
       </c>
       <c r="P42" s="4">
-        <f>IF(M37=0, 0, M88*O37/M37)</f>
+        <f>IF(M37=0, 0, M94*O37/M37)</f>
         <v>0</v>
       </c>
       <c r="S42" s="4">
-        <f>IF(P37=0, 0, P88*R37/P37)</f>
+        <f>IF(P37=0, 0, P94*R37/P37)</f>
         <v>0</v>
       </c>
       <c r="V42" s="4">
-        <f>IF(S37=0, 0, S88*U37/S37)</f>
+        <f>IF(S37=0, 0, S94*U37/S37)</f>
         <v>0</v>
       </c>
       <c r="Y42" s="4">
-        <f>IF(V37=0, 0, V88*X37/V37)</f>
+        <f>IF(V37=0, 0, V94*X37/V37)</f>
         <v>0</v>
       </c>
     </row>
@@ -8142,33 +8230,33 @@
       <c r="A43" s="48"/>
       <c r="B43" s="37"/>
       <c r="E43" s="14" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <f>IF(G38=0, 0, G89*I38/G38)</f>
+        <f>IF(G38=0, 0, G95*I38/G38)</f>
         <v>0</v>
       </c>
       <c r="M43" s="4">
-        <f>IF(J38=0, 0, J89*L38/J38)</f>
+        <f>IF(J38=0, 0, J95*L38/J38)</f>
         <v>0</v>
       </c>
       <c r="P43" s="4">
-        <f>IF(M38=0, 0, M89*O38/M38)</f>
+        <f>IF(M38=0, 0, M95*O38/M38)</f>
         <v>0</v>
       </c>
       <c r="S43" s="4">
-        <f>IF(P38=0, 0, P89*R38/P38)</f>
+        <f>IF(P38=0, 0, P95*R38/P38)</f>
         <v>0</v>
       </c>
       <c r="V43" s="4">
-        <f>IF(S38=0, 0, S89*U38/S38)</f>
+        <f>IF(S38=0, 0, S95*U38/S38)</f>
         <v>0</v>
       </c>
       <c r="Y43" s="4">
-        <f>IF(V38=0, 0, V89*X38/V38)</f>
+        <f>IF(V38=0, 0, V95*X38/V38)</f>
         <v>0</v>
       </c>
     </row>
@@ -8176,3632 +8264,4222 @@
       <c r="A44" s="48"/>
       <c r="B44" s="37"/>
       <c r="E44" s="14" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="G44" s="4">
         <v>0</v>
       </c>
       <c r="J44" s="4">
-        <f>IF(G39=0, 0, G90*I39/G39)</f>
+        <f>IF(G39=0, 0, G96*I39/G39)</f>
         <v>0</v>
       </c>
       <c r="M44" s="4">
-        <f>IF(J39=0, 0, J90*L39/J39)</f>
+        <f>IF(J39=0, 0, J96*L39/J39)</f>
         <v>0</v>
       </c>
       <c r="P44" s="4">
-        <f>IF(M39=0, 0, M90*O39/M39)</f>
+        <f>IF(M39=0, 0, M96*O39/M39)</f>
         <v>0</v>
       </c>
       <c r="S44" s="4">
-        <f>IF(P39=0, 0, P90*R39/P39)</f>
+        <f>IF(P39=0, 0, P96*R39/P39)</f>
         <v>0</v>
       </c>
       <c r="V44" s="4">
-        <f>IF(S39=0, 0, S90*U39/S39)</f>
+        <f>IF(S39=0, 0, S96*U39/S39)</f>
         <v>0</v>
       </c>
       <c r="Y44" s="4">
-        <f>IF(V39=0, 0, V90*X39/V39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E45" s="14"/>
+        <f>IF(V39=0, 0, V96*X39/V39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="48"/>
+      <c r="B45" s="37"/>
+      <c r="E45" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="G45" s="4">
-        <f>SUM(G41:G44)</f>
         <v>0</v>
       </c>
       <c r="J45" s="4">
-        <f>SUM(J41:J44)</f>
+        <f>IF(G40=0, 0, G97*I40/G40)</f>
         <v>0</v>
       </c>
       <c r="M45" s="4">
-        <f>SUM(M41:M44)</f>
+        <f>IF(J40=0, 0, J97*L40/J40)</f>
         <v>0</v>
       </c>
       <c r="P45" s="4">
-        <f>SUM(P41:P44)</f>
+        <f>IF(M40=0, 0, M97*O40/M40)</f>
         <v>0</v>
       </c>
       <c r="S45" s="4">
-        <f>SUM(S41:S44)</f>
+        <f>IF(P40=0, 0, P97*R40/P40)</f>
         <v>0</v>
       </c>
       <c r="V45" s="4">
-        <f>SUM(V41:V44)</f>
+        <f>IF(S40=0, 0, S97*U40/S40)</f>
         <v>0</v>
       </c>
       <c r="Y45" s="4">
-        <f>SUM(Y41:Y44)</f>
+        <f>IF(V40=0, 0, V97*X40/V40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>175</v>
+      </c>
       <c r="E46" s="14"/>
+      <c r="G46" s="4">
+        <f>SUM(G42:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <f>SUM(J42:J45)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <f>SUM(M42:M45)</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <f>SUM(P42:P45)</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="4">
+        <f>SUM(S42:S45)</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="4">
+        <f>SUM(V42:V45)</f>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="4">
+        <f>SUM(Y42:Y45)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>180</v>
-      </c>
       <c r="E47" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="G47" s="4">
-        <f>G41*$G$19</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
-        <f>J41*$G$19</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="4">
-        <f>M41*$G$19</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="4">
-        <f>P41*$G$19</f>
-        <v>0</v>
-      </c>
-      <c r="S47" s="4">
-        <f>S41*$G$19</f>
-        <v>0</v>
-      </c>
-      <c r="V47" s="4">
-        <f>V41*$G$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="4">
-        <f>Y41*$G$19</f>
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
-      <c r="B48" s="37"/>
+      <c r="A48" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>261</v>
+      </c>
       <c r="E48" s="14" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" ref="G48:G50" si="6">G42*$G$19</f>
+        <f>MIN(G42,G$15*F37)</f>
         <v>0</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" ref="J48:J50" si="7">J42*$G$19</f>
+        <f>MIN(J42,J$15*I37)</f>
         <v>0</v>
       </c>
       <c r="M48" s="4">
-        <f t="shared" ref="M48:M50" si="8">M42*$G$19</f>
+        <f>MIN(M42,M$15*L37)</f>
         <v>0</v>
       </c>
       <c r="P48" s="4">
-        <f t="shared" ref="P48:P50" si="9">P42*$G$19</f>
+        <f>MIN(P42,P$15*O37)</f>
         <v>0</v>
       </c>
       <c r="S48" s="4">
-        <f t="shared" ref="S48:S50" si="10">S42*$G$19</f>
+        <f>MIN(S42,S$15*R37)</f>
         <v>0</v>
       </c>
       <c r="V48" s="4">
-        <f t="shared" ref="V48:V50" si="11">V42*$G$19</f>
+        <f>MIN(V42,V$15*U37)</f>
         <v>0</v>
       </c>
       <c r="Y48" s="4">
-        <f t="shared" ref="Y48:Y50" si="12">Y42*$G$19</f>
+        <f>MIN(Y42,Y$15*X37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="48"/>
       <c r="B49" s="37"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="14" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G49" si="6">MIN(G43,G$15*F38)</f>
         <v>0</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J49" si="7">MIN(J43,J$15*I38)</f>
         <v>0</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="M49" si="8">MIN(M43,M$15*L38)</f>
         <v>0</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P49" si="9">MIN(P43,P$15*O38)</f>
         <v>0</v>
       </c>
       <c r="S49" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="S49" si="10">MIN(S43,S$15*R38)</f>
         <v>0</v>
       </c>
       <c r="V49" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="V49" si="11">MIN(V43,V$15*U38)</f>
         <v>0</v>
       </c>
       <c r="Y49" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="Y49" si="12">MIN(Y43,Y$15*X38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="48"/>
       <c r="B50" s="37"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="14" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="G50" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(G44,G$15*F39)</f>
         <v>0</v>
       </c>
       <c r="J50" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(J44,J$15*I39)</f>
         <v>0</v>
       </c>
       <c r="M50" s="4">
-        <f t="shared" si="8"/>
+        <f>MIN(M44,M$15*L39)</f>
         <v>0</v>
       </c>
       <c r="P50" s="4">
-        <f t="shared" si="9"/>
+        <f>MIN(P44,P$15*O39)</f>
         <v>0</v>
       </c>
       <c r="S50" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(S44,S$15*R39)</f>
         <v>0</v>
       </c>
       <c r="V50" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(V44,V$15*U39)</f>
         <v>0</v>
       </c>
       <c r="Y50" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E51" s="14"/>
+        <f>MIN(Y44,Y$15*X39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="48"/>
+      <c r="B51" s="37"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="14" t="s">
+        <v>264</v>
+      </c>
       <c r="G51" s="4">
-        <f>SUM(G47:G50)</f>
+        <f>MIN(G45,G$15*F40)</f>
         <v>0</v>
       </c>
       <c r="J51" s="4">
-        <f>SUM(J47:J50)</f>
+        <f>MIN(J45,J$15*I40)</f>
         <v>0</v>
       </c>
       <c r="M51" s="4">
-        <f>SUM(M47:M50)</f>
+        <f>MIN(M45,M$15*L40)</f>
         <v>0</v>
       </c>
       <c r="P51" s="4">
-        <f>SUM(P47:P50)</f>
+        <f>MIN(P45,P$15*O40)</f>
         <v>0</v>
       </c>
       <c r="S51" s="4">
-        <f>SUM(S47:S50)</f>
+        <f>MIN(S45,S$15*R40)</f>
         <v>0</v>
       </c>
       <c r="V51" s="4">
-        <f>SUM(V47:V50)</f>
+        <f>MIN(V45,V$15*U40)</f>
         <v>0</v>
       </c>
       <c r="Y51" s="4">
-        <f>SUM(Y47:Y50)</f>
+        <f>MIN(Y45,Y$15*X40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A52" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>175</v>
+      </c>
       <c r="E52" s="14"/>
-    </row>
-    <row r="53" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G53" s="4">
-        <f>AC6</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="4">
-        <f>AC7</f>
-        <v>0.01</v>
-      </c>
-      <c r="M53" s="4">
-        <f>AC8</f>
-        <v>0.05</v>
-      </c>
-      <c r="P53" s="4">
-        <f>AC9</f>
-        <v>0.12</v>
-      </c>
-      <c r="S53" s="4">
-        <f>AC11</f>
-        <v>0.2</v>
-      </c>
-      <c r="V53" s="4">
-        <f>AC12</f>
-        <v>0.36</v>
-      </c>
-      <c r="Y53" s="4">
-        <f>AC14</f>
-        <v>0.6</v>
-      </c>
+      <c r="G52" s="4">
+        <f>SUM(G48:G51)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <f>SUM(J48:J51)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <f>SUM(M48:M51)</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <f>SUM(P48:P51)</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="4">
+        <f>SUM(S48:S51)</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="4">
+        <f>SUM(V48:V51)</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="4">
+        <f>SUM(Y48:Y51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="48"/>
-      <c r="B54" s="37"/>
+      <c r="A54" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>175</v>
+      </c>
       <c r="E54" s="14" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="G54" s="4">
+        <f>G42*$G$20</f>
         <v>0</v>
       </c>
       <c r="J54" s="4">
+        <f>J42*$G$20</f>
         <v>0</v>
       </c>
       <c r="M54" s="4">
-        <f>AC7</f>
-        <v>0.01</v>
+        <f>M42*$G$20</f>
+        <v>0</v>
       </c>
       <c r="P54" s="4">
-        <f>AC8</f>
-        <v>0.05</v>
+        <f>P42*$G$20</f>
+        <v>0</v>
       </c>
       <c r="S54" s="4">
-        <f>AC9</f>
-        <v>0.12</v>
+        <f>S42*$G$20</f>
+        <v>0</v>
       </c>
       <c r="V54" s="4">
-        <f>AC11</f>
-        <v>0.2</v>
+        <f>V42*$G$20</f>
+        <v>0</v>
       </c>
       <c r="Y54" s="4">
-        <f>AC12</f>
-        <v>0.36</v>
+        <f>Y42*$G$20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="48"/>
       <c r="B55" s="37"/>
       <c r="E55" s="14" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="G55" s="4">
+        <f t="shared" ref="G55:G57" si="13">G43*$G$20</f>
         <v>0</v>
       </c>
       <c r="J55" s="4">
+        <f t="shared" ref="J55:J57" si="14">J43*$G$20</f>
         <v>0</v>
       </c>
       <c r="M55" s="4">
+        <f t="shared" ref="M55:M57" si="15">M43*$G$20</f>
         <v>0</v>
       </c>
       <c r="P55" s="4">
-        <f>AC7</f>
-        <v>0.01</v>
+        <f t="shared" ref="P55:P57" si="16">P43*$G$20</f>
+        <v>0</v>
       </c>
       <c r="S55" s="4">
-        <f>AC8</f>
-        <v>0.05</v>
+        <f t="shared" ref="S55:S57" si="17">S43*$G$20</f>
+        <v>0</v>
       </c>
       <c r="V55" s="4">
-        <f>AC9</f>
-        <v>0.12</v>
+        <f t="shared" ref="V55:V57" si="18">V43*$G$20</f>
+        <v>0</v>
       </c>
       <c r="Y55" s="4">
-        <f>AC11</f>
-        <v>0.2</v>
+        <f t="shared" ref="Y55:Y57" si="19">Y43*$G$20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="48"/>
       <c r="B56" s="37"/>
       <c r="E56" s="14" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="G56" s="4">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J56" s="4">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M56" s="4">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P56" s="4">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S56" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="48"/>
+      <c r="B57" s="37"/>
+      <c r="E57" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A58" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="G58" s="4">
+        <f>SUM(G54:G57)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <f>SUM(J54:J57)</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <f>SUM(M54:M57)</f>
+        <v>0</v>
+      </c>
+      <c r="P58" s="4">
+        <f>SUM(P54:P57)</f>
+        <v>0</v>
+      </c>
+      <c r="S58" s="4">
+        <f>SUM(S54:S57)</f>
+        <v>0</v>
+      </c>
+      <c r="V58" s="4">
+        <f>SUM(V54:V57)</f>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="4">
+        <f>SUM(Y54:Y57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="4">
+        <f>AC6</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
         <f>AC7</f>
         <v>0.01</v>
       </c>
-      <c r="V56" s="4">
+      <c r="M60" s="4">
         <f>AC8</f>
         <v>0.05</v>
       </c>
-      <c r="Y56" s="4">
+      <c r="P60" s="4">
         <f>AC9</f>
         <v>0.12</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="E57" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="B59" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G59" s="4">
-        <f>G36*G53</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
-        <f>J36*J53</f>
-        <v>0.85</v>
-      </c>
-      <c r="M59" s="4">
-        <f>J59+M36*M53</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P59" s="4">
-        <f>M59+P36*P53</f>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="S59" s="4">
-        <f>P59+S36*S53</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="V59" s="4">
-        <f>S59+V36*V53</f>
-        <v>62.899999999999991</v>
-      </c>
-      <c r="Y59" s="4">
-        <f>V59+Y36*Y53</f>
-        <v>113.89999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="48"/>
-      <c r="B60" s="37"/>
-      <c r="E60" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J60" s="4">
-        <f>J37*J54</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="4">
-        <f>J60+M37*M54</f>
-        <v>0.8</v>
-      </c>
-      <c r="P60" s="4">
-        <f>M60+P37*P54</f>
-        <v>4.8</v>
-      </c>
       <c r="S60" s="4">
-        <f>P60+S37*S54</f>
-        <v>14.399999999999999</v>
+        <f>AC11</f>
+        <v>0.2</v>
       </c>
       <c r="V60" s="4">
-        <f>S60+V37*V54</f>
-        <v>30.4</v>
+        <f>AC12</f>
+        <v>0.36</v>
       </c>
       <c r="Y60" s="4">
-        <f>V60+Y37*Y54</f>
-        <v>59.199999999999996</v>
+        <f>AC14</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="48"/>
       <c r="B61" s="37"/>
-      <c r="D61" s="28"/>
       <c r="E61" s="14" t="s">
-        <v>111</v>
+        <v>91</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
       </c>
       <c r="M61" s="4">
-        <f>J61+M38*M55</f>
-        <v>0</v>
+        <f>AC7</f>
+        <v>0.01</v>
       </c>
       <c r="P61" s="4">
-        <f>M61+P38*P55</f>
-        <v>0.92</v>
+        <f>AC8</f>
+        <v>0.05</v>
       </c>
       <c r="S61" s="4">
-        <f>P61+S38*S55</f>
-        <v>5.5200000000000005</v>
+        <f>AC9</f>
+        <v>0.12</v>
       </c>
       <c r="V61" s="4">
-        <f>S61+V38*V55</f>
-        <v>16.559999999999999</v>
+        <f>AC11</f>
+        <v>0.2</v>
       </c>
       <c r="Y61" s="4">
-        <f>V61+Y38*Y55</f>
-        <v>34.96</v>
+        <f>AC12</f>
+        <v>0.36</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="48"/>
       <c r="B62" s="37"/>
-      <c r="D62" s="28"/>
       <c r="E62" s="14" t="s">
-        <v>112</v>
+        <v>92</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
       </c>
       <c r="M62" s="4">
-        <f>J62+M39*M56</f>
         <v>0</v>
       </c>
       <c r="P62" s="4">
-        <f>M62+P39*P56</f>
-        <v>0</v>
+        <f>AC7</f>
+        <v>0.01</v>
       </c>
       <c r="S62" s="4">
-        <f>P62+S39*S56</f>
-        <v>0.43</v>
+        <f>AC8</f>
+        <v>0.05</v>
       </c>
       <c r="V62" s="4">
-        <f>S62+V39*V56</f>
-        <v>2.58</v>
+        <f>AC9</f>
+        <v>0.12</v>
       </c>
       <c r="Y62" s="4">
-        <f>V62+Y39*Y56</f>
-        <v>7.74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D63" s="28"/>
-      <c r="E63" s="14"/>
+        <f>AC11</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="48"/>
+      <c r="B63" s="37"/>
+      <c r="E63" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0</v>
+      </c>
+      <c r="P63" s="4">
+        <v>0</v>
+      </c>
+      <c r="S63" s="4">
+        <f>AC7</f>
+        <v>0.01</v>
+      </c>
+      <c r="V63" s="4">
+        <f>AC8</f>
+        <v>0.05</v>
+      </c>
+      <c r="Y63" s="4">
+        <f>AC9</f>
+        <v>0.12</v>
+      </c>
     </row>
     <row r="64" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>180</v>
-      </c>
       <c r="E64" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G64" s="4">
-        <v>0</v>
-      </c>
-      <c r="J64" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D72)*MAX(G87-$G$20*G36-J41,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D72)*MAX(J87-$G$20*J36-M41,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P64" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D72)*MAX(M87-$G$20*M36-P41,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S64" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D72)*MAX(P87-$G$20*P36-S41,0)</f>
-        <v>6.7881033999999989</v>
-      </c>
-      <c r="V64" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D72)*MAX(S87-$G$20*S36-V41,0)</f>
-        <v>23.757527193199998</v>
-      </c>
-      <c r="Y64" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D72)*MAX(V87-$G$20*V36-Y41,0)</f>
-        <v>30.582999999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
-      <c r="B65" s="37"/>
-      <c r="E65" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0</v>
-      </c>
-      <c r="J65" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D73)*MAX(G88-$G$20*G37-J42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D73)*MAX(J88-$G$20*J37-M42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P65" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D73)*MAX(M88-$G$20*M37-P42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S65" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D73)*MAX(P88-$G$20*P37-S42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V65" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D73)*MAX(S88-$G$20*S37-V42,0)</f>
-        <v>6.3888031999999999</v>
-      </c>
-      <c r="Y65" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D73)*MAX(V88-$G$20*V37-Y42,0)</f>
-        <v>15.984000000000002</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="48"/>
-      <c r="B66" s="37"/>
-      <c r="D66" s="28" t="s">
-        <v>153</v>
+      <c r="A66" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>175</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="G66" s="4">
+        <f>G37*G60</f>
         <v>0</v>
       </c>
       <c r="J66" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D74)*MAX(G89-$G$20*G38-J43,0)</f>
-        <v>0</v>
+        <f>J37*J60</f>
+        <v>0.85</v>
       </c>
       <c r="M66" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D74)*MAX(J89-$G$20*J38-M43,0)</f>
-        <v>0</v>
+        <f>J66+M37*M60</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P66" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D74)*MAX(M89-$G$20*M38-P43,0)</f>
-        <v>0</v>
+        <f>M66+P37*P60</f>
+        <v>15.299999999999999</v>
       </c>
       <c r="S66" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D74)*MAX(P89-$G$20*P38-S43,0)</f>
-        <v>0</v>
+        <f>P66+S37*S60</f>
+        <v>32.299999999999997</v>
       </c>
       <c r="V66" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D74)*MAX(S89-$G$20*S38-V43,0)</f>
-        <v>0</v>
+        <f>S66+V37*V60</f>
+        <v>62.899999999999991</v>
       </c>
       <c r="Y66" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D74)*MAX(V89-$G$20*V38-Y43,0)</f>
-        <v>7.3471236799999975</v>
+        <f>V66+Y37*Y60</f>
+        <v>113.89999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="48"/>
       <c r="B67" s="37"/>
-      <c r="D67" s="28"/>
       <c r="E67" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G67" s="4">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J67" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D75)*MAX(G90-$G$20*G39-J44,0)</f>
+        <f>J38*J61</f>
         <v>0</v>
       </c>
       <c r="M67" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D75)*MAX(J90-$G$20*J39-M44,0)</f>
-        <v>0</v>
+        <f>J67+M38*M61</f>
+        <v>0.8</v>
       </c>
       <c r="P67" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D75)*MAX(M90-$G$20*M39-P44,0)</f>
-        <v>0</v>
+        <f>M67+P38*P61</f>
+        <v>4.8</v>
       </c>
       <c r="S67" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D75)*MAX(P90-$G$20*P39-S44,0)</f>
-        <v>0</v>
+        <f>P67+S38*S61</f>
+        <v>14.399999999999999</v>
       </c>
       <c r="V67" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D75)*MAX(S90-$G$20*S39-V44,0)</f>
-        <v>0</v>
+        <f>S67+V38*V61</f>
+        <v>30.4</v>
       </c>
       <c r="Y67" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D75)*MAX(V90-$G$20*V39-Y44,0)</f>
-        <v>0</v>
+        <f>V67+Y38*Y61</f>
+        <v>59.199999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="B68" s="40" t="s">
-        <v>180</v>
-      </c>
+      <c r="A68" s="48"/>
+      <c r="B68" s="37"/>
       <c r="D68" s="28"/>
       <c r="E68" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G68" s="4">
-        <v>0</v>
-      </c>
-      <c r="J68" s="4">
-        <f>SUM(J64:J67)</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="M68" s="4">
-        <f>SUM(M64:M67)</f>
+        <f>J68+M39*M62</f>
         <v>0</v>
       </c>
       <c r="P68" s="4">
-        <f>SUM(P64:P67)</f>
-        <v>0</v>
+        <f>M68+P39*P62</f>
+        <v>0.92</v>
       </c>
       <c r="S68" s="4">
-        <f>SUM(S64:S67)</f>
+        <f>P68+S39*S62</f>
+        <v>5.5200000000000005</v>
+      </c>
+      <c r="V68" s="4">
+        <f>S68+V39*V62</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="Y68" s="4">
+        <f>V68+Y39*Y62</f>
+        <v>34.96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="48"/>
+      <c r="B69" s="37"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M69" s="4">
+        <f>J69+M40*M63</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <f>M69+P40*P63</f>
+        <v>0</v>
+      </c>
+      <c r="S69" s="4">
+        <f>P69+S40*S63</f>
+        <v>0.43</v>
+      </c>
+      <c r="V69" s="4">
+        <f>S69+V40*V63</f>
+        <v>2.58</v>
+      </c>
+      <c r="Y69" s="4">
+        <f>V69+Y40*Y63</f>
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="D70" s="28"/>
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D79)*MAX(G94-$G$21*G37-J42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D79)*MAX(J94-$G$21*J37-M42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P71" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D79)*MAX(M94-$G$21*M37-P42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S71" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D79)*MAX(P94-$G$21*P37-S42,0)</f>
         <v>6.7881033999999989</v>
       </c>
-      <c r="V68" s="4">
-        <f>SUM(V64:V67)</f>
+      <c r="V71" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D79)*MAX(S94-$G$21*S37-V42,0)</f>
+        <v>23.757527193199998</v>
+      </c>
+      <c r="Y71" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D79)*MAX(V94-$G$21*V37-Y42,0)</f>
+        <v>30.582999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="48"/>
+      <c r="B72" s="37"/>
+      <c r="E72" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D80)*MAX(G95-$G$21*G38-J43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D80)*MAX(J95-$G$21*J38-M43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D80)*MAX(M95-$G$21*M38-P43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S72" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D80)*MAX(P95-$G$21*P38-S43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V72" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D80)*MAX(S95-$G$21*S38-V43,0)</f>
+        <v>6.3888031999999999</v>
+      </c>
+      <c r="Y72" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D80)*MAX(V95-$G$21*V38-Y43,0)</f>
+        <v>15.984000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="48"/>
+      <c r="B73" s="37"/>
+      <c r="D73" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D81)*MAX(G96-$G$21*G39-J44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D81)*MAX(J96-$G$21*J39-M44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P73" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D81)*MAX(M96-$G$21*M39-P44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S73" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D81)*MAX(P96-$G$21*P39-S44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V73" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D81)*MAX(S96-$G$21*S39-V44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D81)*MAX(V96-$G$21*V39-Y44,0)</f>
+        <v>7.3471236799999975</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="48"/>
+      <c r="B74" s="37"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D82)*MAX(G97-$G$21*G40-J45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D82)*MAX(J97-$G$21*J40-M45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P74" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D82)*MAX(M97-$G$21*M40-P45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S74" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D82)*MAX(P97-$G$21*P40-S45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V74" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D82)*MAX(S97-$G$21*S40-V45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D82)*MAX(V97-$G$21*V40-Y45,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="28"/>
+      <c r="E75" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <f>SUM(J71:J74)</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="4">
+        <f>SUM(M71:M74)</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="4">
+        <f>SUM(P71:P74)</f>
+        <v>0</v>
+      </c>
+      <c r="S75" s="4">
+        <f>SUM(S71:S74)</f>
+        <v>6.7881033999999989</v>
+      </c>
+      <c r="V75" s="4">
+        <f>SUM(V71:V74)</f>
         <v>30.146330393199996</v>
       </c>
-      <c r="Y68" s="4">
-        <f>SUM(Y64:Y67)</f>
+      <c r="Y75" s="4">
+        <f>SUM(Y71:Y74)</f>
         <v>53.914123679999996</v>
       </c>
-      <c r="AD68" t="s">
+      <c r="AD75" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D69" s="28"/>
-      <c r="E69" s="14"/>
-      <c r="AB69" t="s">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="D76" s="28"/>
+      <c r="E76" s="14"/>
+      <c r="AB76" t="s">
         <v>85</v>
       </c>
-      <c r="AD69" t="s">
+      <c r="AD76" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E70" s="14" t="s">
+    <row r="77" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F70" s="4">
-        <v>0</v>
-      </c>
-      <c r="I70" s="4">
-        <v>0</v>
-      </c>
-      <c r="L70" s="4">
-        <v>0</v>
-      </c>
-      <c r="O70" s="4">
-        <v>0</v>
-      </c>
-      <c r="R70" s="4">
-        <v>0</v>
-      </c>
-      <c r="U70" s="4">
-        <v>0</v>
-      </c>
-      <c r="X70" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="s">
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0</v>
+      </c>
+      <c r="O77" s="4">
+        <v>0</v>
+      </c>
+      <c r="R77" s="4">
+        <v>0</v>
+      </c>
+      <c r="U77" s="4">
+        <v>0</v>
+      </c>
+      <c r="X77" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB77" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="47"/>
-      <c r="B71" s="37"/>
-      <c r="E71" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F71" s="4">
-        <f>SUM(G$64:G64)</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="4">
-        <f>IF(F71&gt;=F$121, IF(F70&lt;F$121, F$121-F70, 0),G64)</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="4">
-        <f>SUM(J$64:J64)</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="4">
-        <f>IF(I71&gt;=I$121, IF(I70&lt;I$121, I$121-I70, 0),J64)</f>
-        <v>0</v>
-      </c>
-      <c r="L71" s="4">
-        <f>SUM(M$64:M64)</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="4">
-        <f>IF(L71&gt;=L$121, IF(L70&lt;L$121, L$121-L70, 0),M64)</f>
-        <v>0</v>
-      </c>
-      <c r="O71" s="4">
-        <f>SUM(P$64:P64)</f>
-        <v>0</v>
-      </c>
-      <c r="P71" s="4">
-        <f>IF(O71&gt;=O$121, IF(O70&lt;O$121, O$121-O70, 0),P64)</f>
-        <v>0</v>
-      </c>
-      <c r="R71" s="4">
-        <f>SUM(S$64:S64)</f>
-        <v>6.7881033999999989</v>
-      </c>
-      <c r="S71" s="4">
-        <f>IF(R71&gt;=R$121, IF(R70&lt;R$121, R$121-R70, 0),S64)</f>
-        <v>0</v>
-      </c>
-      <c r="U71" s="4">
-        <f>SUM(V$64:V64)</f>
-        <v>23.757527193199998</v>
-      </c>
-      <c r="V71" s="4">
-        <f>IF(U71&gt;=U$121, IF(U70&lt;U$121, U$121-U70, 0),V64)</f>
-        <v>23.757527193199998</v>
-      </c>
-      <c r="X71" s="4">
-        <f>SUM(Y$64:Y64)</f>
-        <v>30.582999999999998</v>
-      </c>
-      <c r="Y71" s="4">
-        <f>IF(X71&gt;=X$121, IF(X70&lt;X$121, X$121-X70, 0),Y64)</f>
-        <v>30.582999999999998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
-      <c r="B72" s="37"/>
-      <c r="D72" s="22">
-        <v>0</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F72" s="4">
-        <f>SUM(G$64:G65)</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="4">
-        <f>IF(F72&gt;=F$121, IF(F71&lt;F$121, F$121-F71, 0),G65)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="4">
-        <f>SUM(J$64:J65)</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="4">
-        <f>IF(I72&gt;=I$121, IF(I71&lt;I$121, I$121-I71, 0),J65)</f>
-        <v>0</v>
-      </c>
-      <c r="L72" s="4">
-        <f>SUM(M$64:M65)</f>
-        <v>0</v>
-      </c>
-      <c r="M72" s="4">
-        <f>IF(L72&gt;=L$121, IF(L71&lt;L$121, L$121-L71, 0),M65)</f>
-        <v>0</v>
-      </c>
-      <c r="O72" s="4">
-        <f>SUM(P$64:P65)</f>
-        <v>0</v>
-      </c>
-      <c r="P72" s="4">
-        <f>IF(O72&gt;=O$121, IF(O71&lt;O$121, O$121-O71, 0),P65)</f>
-        <v>0</v>
-      </c>
-      <c r="R72" s="4">
-        <f>SUM(S$64:S65)</f>
-        <v>6.7881033999999989</v>
-      </c>
-      <c r="S72" s="4">
-        <f>IF(R72&gt;=R$121, IF(R71&lt;R$121, R$121-R71, 0),S65)</f>
-        <v>0</v>
-      </c>
-      <c r="U72" s="4">
-        <f>SUM(V$64:V65)</f>
-        <v>30.146330393199996</v>
-      </c>
-      <c r="V72" s="4">
-        <f>IF(U72&gt;=U$121, IF(U71&lt;U$121, U$121-U71, 0),V65)</f>
-        <v>6.3888031999999981</v>
-      </c>
-      <c r="X72" s="4">
-        <f>SUM(Y$64:Y65)</f>
-        <v>46.567</v>
-      </c>
-      <c r="Y72" s="4">
-        <f>IF(X72&gt;=X$121, IF(X71&lt;X$121, X$121-X71, 0),Y65)</f>
-        <v>15.984000000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="47"/>
-      <c r="B73" s="37"/>
-      <c r="D73" s="22">
-        <v>1</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F73" s="4">
-        <f>SUM(G$64:G66)</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="4">
-        <f>IF(F73&gt;=F$121, IF(F72&lt;F$121, F$121-F72, 0),G66)</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="4">
-        <f>SUM(J$64:J66)</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="4">
-        <f>IF(I73&gt;=I$121, IF(I72&lt;I$121, I$121-I72, 0),J66)</f>
-        <v>0</v>
-      </c>
-      <c r="L73" s="4">
-        <f>SUM(M$64:M66)</f>
-        <v>0</v>
-      </c>
-      <c r="M73" s="4">
-        <f>IF(L73&gt;=L$121, IF(L72&lt;L$121, L$121-L72, 0),M66)</f>
-        <v>0</v>
-      </c>
-      <c r="O73" s="4">
-        <f>SUM(P$64:P66)</f>
-        <v>0</v>
-      </c>
-      <c r="P73" s="4">
-        <f>IF(O73&gt;=O$121, IF(O72&lt;O$121, O$121-O72, 0),P66)</f>
-        <v>0</v>
-      </c>
-      <c r="R73" s="4">
-        <f>SUM(S$64:S66)</f>
-        <v>6.7881033999999989</v>
-      </c>
-      <c r="S73" s="4">
-        <f>IF(R73&gt;=R$121, IF(R72&lt;R$121, R$121-R72, 0),S66)</f>
-        <v>0</v>
-      </c>
-      <c r="U73" s="4">
-        <f>SUM(V$64:V66)</f>
-        <v>30.146330393199996</v>
-      </c>
-      <c r="V73" s="4">
-        <f>IF(U73&gt;=U$121, IF(U72&lt;U$121, U$121-U72, 0),V66)</f>
-        <v>0</v>
-      </c>
-      <c r="X73" s="4">
-        <f>SUM(Y$64:Y66)</f>
-        <v>53.914123679999996</v>
-      </c>
-      <c r="Y73" s="4">
-        <f>IF(X73&gt;=X$121, IF(X72&lt;X$121, X$121-X72, 0),Y66)</f>
-        <v>7.3471236799999957</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="D74" s="22">
-        <v>2</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F74" s="4">
-        <f>SUM(G$64:G67)</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="4">
-        <f>IF(F74&gt;=F$121, IF(F73&lt;F$121, F$121-F73, 0),G67)</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="4">
-        <f>SUM(J$64:J67)</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="4">
-        <f>IF(I74&gt;=I$121, IF(I73&lt;I$121, I$121-I73, 0),J67)</f>
-        <v>0</v>
-      </c>
-      <c r="L74" s="4">
-        <f>SUM(M$64:M67)</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="4">
-        <f>IF(L74&gt;=L$121, IF(L73&lt;L$121, L$121-L73, 0),M67)</f>
-        <v>0</v>
-      </c>
-      <c r="O74" s="4">
-        <f>SUM(P$64:P67)</f>
-        <v>0</v>
-      </c>
-      <c r="P74" s="4">
-        <f>IF(O74&gt;=O$121, IF(O73&lt;O$121, O$121-O73, 0),P67)</f>
-        <v>0</v>
-      </c>
-      <c r="R74" s="4">
-        <f>SUM(S$64:S67)</f>
-        <v>6.7881033999999989</v>
-      </c>
-      <c r="S74" s="4">
-        <f>IF(R74&gt;=R$121, IF(R73&lt;R$121, R$121-R73, 0),S67)</f>
-        <v>0</v>
-      </c>
-      <c r="U74" s="4">
-        <f>SUM(V$64:V67)</f>
-        <v>30.146330393199996</v>
-      </c>
-      <c r="V74" s="4">
-        <f>IF(U74&gt;=U$121, IF(U73&lt;U$121, U$121-U73, 0),V67)</f>
-        <v>0</v>
-      </c>
-      <c r="X74" s="4">
-        <f>SUM(Y$64:Y67)</f>
-        <v>53.914123679999996</v>
-      </c>
-      <c r="Y74" s="4">
-        <f>IF(X74&gt;=X$121, IF(X73&lt;X$121, X$121-X73, 0),Y67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="D75" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="E75" s="14"/>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E76" s="14"/>
-      <c r="I76" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L76" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O76" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="R76" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="U76" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="X76" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G77" s="4">
-        <f>G53</f>
-        <v>0</v>
-      </c>
-      <c r="I77" s="4">
-        <f>IF(G87=0,1,MIN(MAX((G87/G59-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="J77" s="4">
-        <f>J53*I77</f>
-        <v>0.01</v>
-      </c>
-      <c r="L77" s="4">
-        <f>IF(J87=0,1,MIN(MAX((J87/J59-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="M77" s="4">
-        <f>M53*L77</f>
-        <v>0.05</v>
-      </c>
-      <c r="O77" s="4">
-        <f>IF(M87=0,1,MIN(MAX((M87/M59-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P77" s="4">
-        <f>P53*O77</f>
-        <v>0.12</v>
-      </c>
-      <c r="R77" s="4">
-        <f>IF(P87=0,1,MIN(MAX((P87/P59-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="S77" s="4">
-        <f>S53*R77</f>
-        <v>0.2</v>
-      </c>
-      <c r="U77" s="4">
-        <f>IF(S87=0,1,MIN(MAX((S87/S59-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="V77" s="4">
-        <f>V53*U77</f>
-        <v>0.36</v>
-      </c>
-      <c r="X77" s="4">
-        <f>IF(V87=0,1,MIN(MAX((V87/V59-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>0.92728154163131749</v>
-      </c>
-      <c r="Y77" s="4">
-        <f>Y53*X77</f>
-        <v>0.55636892497879042</v>
-      </c>
-    </row>
     <row r="78" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
+      <c r="A78" s="50"/>
       <c r="B78" s="37"/>
       <c r="E78" s="14" t="s">
-        <v>133</v>
+        <v>147</v>
+      </c>
+      <c r="F78" s="4">
+        <f>SUM(G$71:G71)</f>
+        <v>0</v>
       </c>
       <c r="G78" s="4">
-        <f>G54</f>
+        <f>IF(F78&gt;=F$129, IF(F77&lt;F$129, F$129-F77, 0),G71)</f>
         <v>0</v>
       </c>
       <c r="I78" s="4">
-        <f>IF(G88=0,1,MIN(MAX((G88/G60-$F$15)/($F$17-$F$15), 0), 1))</f>
+        <f>SUM(J$71:J71)</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="4">
+        <f>IF(I78&gt;=I$129, IF(I77&lt;I$129, I$129-I77, 0),J71)</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="4">
+        <f>SUM(M$71:M71)</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="4">
+        <f>IF(L78&gt;=L$129, IF(L77&lt;L$129, L$129-L77, 0),M71)</f>
+        <v>0</v>
+      </c>
+      <c r="O78" s="4">
+        <f>SUM(P$71:P71)</f>
+        <v>0</v>
+      </c>
+      <c r="P78" s="4">
+        <f>IF(O78&gt;=O$129, IF(O77&lt;O$129, O$129-O77, 0),P71)</f>
+        <v>0</v>
+      </c>
+      <c r="R78" s="4">
+        <f>SUM(S$71:S71)</f>
+        <v>6.7881033999999989</v>
+      </c>
+      <c r="S78" s="4">
+        <f>IF(R78&gt;=R$129, IF(R77&lt;R$129, R$129-R77, 0),S71)</f>
+        <v>0</v>
+      </c>
+      <c r="U78" s="4">
+        <f>SUM(V$71:V71)</f>
+        <v>23.757527193199998</v>
+      </c>
+      <c r="V78" s="4">
+        <f>IF(U78&gt;=U$129, IF(U77&lt;U$129, U$129-U77, 0),V71)</f>
+        <v>23.757527193199998</v>
+      </c>
+      <c r="X78" s="4">
+        <f>SUM(Y$71:Y71)</f>
+        <v>30.582999999999998</v>
+      </c>
+      <c r="Y78" s="4">
+        <f>IF(X78&gt;=X$129, IF(X77&lt;X$129, X$129-X77, 0),Y71)</f>
+        <v>30.582999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="50"/>
+      <c r="B79" s="37"/>
+      <c r="D79" s="22">
+        <v>0</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" s="4">
+        <f>SUM(G$71:G72)</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <f>IF(F79&gt;=F$129, IF(F78&lt;F$129, F$129-F78, 0),G72)</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="4">
+        <f>SUM(J$71:J72)</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="4">
+        <f>IF(I79&gt;=I$129, IF(I78&lt;I$129, I$129-I78, 0),J72)</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="4">
+        <f>SUM(M$71:M72)</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="4">
+        <f>IF(L79&gt;=L$129, IF(L78&lt;L$129, L$129-L78, 0),M72)</f>
+        <v>0</v>
+      </c>
+      <c r="O79" s="4">
+        <f>SUM(P$71:P72)</f>
+        <v>0</v>
+      </c>
+      <c r="P79" s="4">
+        <f>IF(O79&gt;=O$129, IF(O78&lt;O$129, O$129-O78, 0),P72)</f>
+        <v>0</v>
+      </c>
+      <c r="R79" s="4">
+        <f>SUM(S$71:S72)</f>
+        <v>6.7881033999999989</v>
+      </c>
+      <c r="S79" s="4">
+        <f>IF(R79&gt;=R$129, IF(R78&lt;R$129, R$129-R78, 0),S72)</f>
+        <v>0</v>
+      </c>
+      <c r="U79" s="4">
+        <f>SUM(V$71:V72)</f>
+        <v>30.146330393199996</v>
+      </c>
+      <c r="V79" s="4">
+        <f>IF(U79&gt;=U$129, IF(U78&lt;U$129, U$129-U78, 0),V72)</f>
+        <v>6.3888031999999981</v>
+      </c>
+      <c r="X79" s="4">
+        <f>SUM(Y$71:Y72)</f>
+        <v>46.567</v>
+      </c>
+      <c r="Y79" s="4">
+        <f>IF(X79&gt;=X$129, IF(X78&lt;X$129, X$129-X78, 0),Y72)</f>
+        <v>15.984000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="50"/>
+      <c r="B80" s="37"/>
+      <c r="D80" s="22">
         <v>1</v>
       </c>
-      <c r="J78" s="4">
-        <f>J54</f>
-        <v>0</v>
-      </c>
-      <c r="L78" s="4">
-        <f>IF(J88=0,1,MIN(MAX((J88/J60-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="E80" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F80" s="4">
+        <f>SUM(G$71:G73)</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="4">
+        <f>IF(F80&gt;=F$129, IF(F79&lt;F$129, F$129-F79, 0),G73)</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="4">
+        <f>SUM(J$71:J73)</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="4">
+        <f>IF(I80&gt;=I$129, IF(I79&lt;I$129, I$129-I79, 0),J73)</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="4">
+        <f>SUM(M$71:M73)</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="4">
+        <f>IF(L80&gt;=L$129, IF(L79&lt;L$129, L$129-L79, 0),M73)</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="4">
+        <f>SUM(P$71:P73)</f>
+        <v>0</v>
+      </c>
+      <c r="P80" s="4">
+        <f>IF(O80&gt;=O$129, IF(O79&lt;O$129, O$129-O79, 0),P73)</f>
+        <v>0</v>
+      </c>
+      <c r="R80" s="4">
+        <f>SUM(S$71:S73)</f>
+        <v>6.7881033999999989</v>
+      </c>
+      <c r="S80" s="4">
+        <f>IF(R80&gt;=R$129, IF(R79&lt;R$129, R$129-R79, 0),S73)</f>
+        <v>0</v>
+      </c>
+      <c r="U80" s="4">
+        <f>SUM(V$71:V73)</f>
+        <v>30.146330393199996</v>
+      </c>
+      <c r="V80" s="4">
+        <f>IF(U80&gt;=U$129, IF(U79&lt;U$129, U$129-U79, 0),V73)</f>
+        <v>0</v>
+      </c>
+      <c r="X80" s="4">
+        <f>SUM(Y$71:Y73)</f>
+        <v>53.914123679999996</v>
+      </c>
+      <c r="Y80" s="4">
+        <f>IF(X80&gt;=X$129, IF(X79&lt;X$129, X$129-X79, 0),Y73)</f>
+        <v>7.3471236799999957</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="50"/>
+      <c r="B81" s="37"/>
+      <c r="D81" s="22">
+        <v>2</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" s="4">
+        <f>SUM(G$71:G74)</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <f>IF(F81&gt;=F$129, IF(F80&lt;F$129, F$129-F80, 0),G74)</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="4">
+        <f>SUM(J$71:J74)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="4">
+        <f>IF(I81&gt;=I$129, IF(I80&lt;I$129, I$129-I80, 0),J74)</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="4">
+        <f>SUM(M$71:M74)</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="4">
+        <f>IF(L81&gt;=L$129, IF(L80&lt;L$129, L$129-L80, 0),M74)</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="4">
+        <f>SUM(P$71:P74)</f>
+        <v>0</v>
+      </c>
+      <c r="P81" s="4">
+        <f>IF(O81&gt;=O$129, IF(O80&lt;O$129, O$129-O80, 0),P74)</f>
+        <v>0</v>
+      </c>
+      <c r="R81" s="4">
+        <f>SUM(S$71:S74)</f>
+        <v>6.7881033999999989</v>
+      </c>
+      <c r="S81" s="4">
+        <f>IF(R81&gt;=R$129, IF(R80&lt;R$129, R$129-R80, 0),S74)</f>
+        <v>0</v>
+      </c>
+      <c r="U81" s="4">
+        <f>SUM(V$71:V74)</f>
+        <v>30.146330393199996</v>
+      </c>
+      <c r="V81" s="4">
+        <f>IF(U81&gt;=U$129, IF(U80&lt;U$129, U$129-U80, 0),V74)</f>
+        <v>0</v>
+      </c>
+      <c r="X81" s="4">
+        <f>SUM(Y$71:Y74)</f>
+        <v>53.914123679999996</v>
+      </c>
+      <c r="Y81" s="4">
+        <f>IF(X81&gt;=X$129, IF(X80&lt;X$129, X$129-X80, 0),Y74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D82" s="22">
+        <v>3</v>
+      </c>
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E83" s="14"/>
+      <c r="I83" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="U83" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="X83" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G84" s="4">
+        <f>G60</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="4">
+        <f>IF(G94=0,1,MIN(MAX((G94/G66-$F$16)/($F$18-$F$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="M78" s="4">
-        <f>M54</f>
+      <c r="J84" s="4">
+        <f>J60*I84</f>
         <v>0.01</v>
       </c>
-      <c r="O78" s="4">
-        <f>IF(M88=0,1,MIN(MAX((M88/M60-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="L84" s="4">
+        <f>IF(J94=0,1,MIN(MAX((J94/J66-$F$16)/($F$18-$F$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="P78" s="4">
-        <f>P54</f>
+      <c r="M84" s="4">
+        <f>M60*L84</f>
         <v>0.05</v>
       </c>
-      <c r="R78" s="4">
-        <f>IF(P88=0,1,MIN(MAX((P88/P60-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="O84" s="4">
+        <f>IF(M94=0,1,MIN(MAX((M94/M66-$F$16)/($F$18-$F$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="S78" s="4">
-        <f>S54</f>
+      <c r="P84" s="4">
+        <f>P60*O84</f>
         <v>0.12</v>
       </c>
-      <c r="U78" s="4">
-        <f>IF(S88=0,1,MIN(MAX((S88/S60-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="R84" s="4">
+        <f>IF(P94=0,1,MIN(MAX((P94/P66-$F$16)/($F$18-$F$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="V78" s="4">
-        <f>V54</f>
+      <c r="S84" s="4">
+        <f>S60*R84</f>
         <v>0.2</v>
       </c>
-      <c r="X78" s="4">
-        <f>IF(V88=0,1,MIN(MAX((V88/V60-$F$15)/($F$17-$F$15), 0), 1))</f>
+      <c r="U84" s="4">
+        <f>IF(S94=0,1,MIN(MAX((S94/S66-$F$16)/($F$18-$F$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="Y78" s="4">
-        <f>Y54</f>
+      <c r="V84" s="4">
+        <f>V60*U84</f>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="79" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
-      <c r="B79" s="37"/>
-      <c r="E79" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G79" s="4">
-        <f>G55</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="4">
-        <f>IF(G89=0,1,MIN(MAX((G89/G61-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="J79" s="4">
-        <f>J55</f>
-        <v>0</v>
-      </c>
-      <c r="L79" s="4">
-        <f>IF(J89=0,1,MIN(MAX((J89/J61-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="M79" s="4">
-        <f>M55</f>
-        <v>0</v>
-      </c>
-      <c r="O79" s="4">
-        <f>IF(M89=0,1,MIN(MAX((M89/M61-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P79" s="4">
-        <f>P55</f>
-        <v>0.01</v>
-      </c>
-      <c r="R79" s="4">
-        <f>IF(P89=0,1,MIN(MAX((P89/P61-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="S79" s="4">
-        <f>S55</f>
-        <v>0.05</v>
-      </c>
-      <c r="U79" s="4">
-        <f>IF(S89=0,1,MIN(MAX((S89/S61-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="V79" s="4">
-        <f>V55</f>
-        <v>0.12</v>
-      </c>
-      <c r="X79" s="4">
-        <f>IF(V89=0,1,MIN(MAX((V89/V61-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="Y79" s="4">
-        <f>Y55</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
-      <c r="B80" s="37"/>
-      <c r="E80" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G80" s="4">
-        <f>G56</f>
-        <v>0</v>
-      </c>
-      <c r="I80" s="4">
-        <f>IF(G90=0,1,MIN(MAX((G90/G62-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="J80" s="4">
-        <f>J56</f>
-        <v>0</v>
-      </c>
-      <c r="L80" s="4">
-        <f>IF(J90=0,1,MIN(MAX((J90/J62-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="M80" s="4">
-        <f>M56</f>
-        <v>0</v>
-      </c>
-      <c r="O80" s="4">
-        <f>IF(M90=0,1,MIN(MAX((M90/M62-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P80" s="4">
-        <f>P56</f>
-        <v>0</v>
-      </c>
-      <c r="R80" s="4">
-        <f>IF(P90=0,1,MIN(MAX((P90/P62-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="S80" s="4">
-        <f>S56</f>
-        <v>0.01</v>
-      </c>
-      <c r="U80" s="4">
-        <f>IF(S90=0,1,MIN(MAX((S90/S62-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="V80" s="4">
-        <f>V56</f>
-        <v>0.05</v>
-      </c>
-      <c r="X80" s="4">
-        <f>IF(V90=0,1,MIN(MAX((V90/V62-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="Y80" s="4">
-        <f>Y56</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E81" s="14"/>
-    </row>
-    <row r="82" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="B82" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="G82" s="4">
-        <f>G48*G31</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="4">
-        <f>(G87-J71)*$F$28</f>
-        <v>0</v>
-      </c>
-      <c r="M82" s="4">
-        <f>(J87-M71)*$F$28</f>
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="P82" s="4">
-        <f>(M87-P71)*$F$28</f>
-        <v>1.01966E-2</v>
-      </c>
-      <c r="S82" s="4">
-        <f>(P87-S71)*$F$28</f>
-        <v>3.0576206799999998E-2</v>
-      </c>
-      <c r="V82" s="4">
-        <f>(S87-V71)*$F$28</f>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="Y82" s="4">
-        <f>(V87-Y71)*$F$28</f>
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
-      <c r="B83" s="37"/>
-      <c r="E83" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="G83" s="4">
-        <f>G49*G32</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="4">
-        <f t="shared" ref="J83:J85" si="13">(G88-J72)*$F$28</f>
-        <v>0</v>
-      </c>
-      <c r="M83" s="4">
-        <f t="shared" ref="M83:M85" si="14">(J88-M72)*$F$28</f>
-        <v>0</v>
-      </c>
-      <c r="P83" s="4">
-        <f t="shared" ref="P83:P85" si="15">(M88-P72)*$F$28</f>
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="S83" s="4">
-        <f t="shared" ref="S83:S85" si="16">(P88-S72)*$F$28</f>
-        <v>9.5968000000000008E-3</v>
-      </c>
-      <c r="V83" s="4">
-        <f t="shared" ref="V83:V85" si="17">(S88-V72)*$F$28</f>
-        <v>1.6000000000000004E-2</v>
-      </c>
-      <c r="Y83" s="4">
-        <f t="shared" ref="Y83:Y85" si="18">(V88-Y72)*$F$28</f>
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="47"/>
-      <c r="B84" s="37"/>
-      <c r="E84" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="G84" s="4">
-        <f>G50*G33</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M84" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P84" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S84" s="4">
-        <f t="shared" si="16"/>
-        <v>1.8400000000000001E-3</v>
-      </c>
-      <c r="V84" s="4">
-        <f t="shared" si="17"/>
-        <v>1.1036320000000002E-2</v>
+      <c r="X84" s="4">
+        <f>IF(V94=0,1,MIN(MAX((V94/V66-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>0.92728154163131749</v>
       </c>
       <c r="Y84" s="4">
-        <f t="shared" si="18"/>
-        <v>1.8400000000000007E-2</v>
+        <f>Y60*X84</f>
+        <v>0.55636892497879042</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="47"/>
       <c r="B85" s="37"/>
       <c r="E85" s="14" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="G85" s="4">
-        <f>G51*G34</f>
-        <v>0</v>
+        <f>G61</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="4">
+        <f>IF(G95=0,1,MIN(MAX((G95/G67-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="J85" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>J61</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <f>IF(J95=0,1,MIN(MAX((J95/J67-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="M85" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>M61</f>
+        <v>0.01</v>
+      </c>
+      <c r="O85" s="4">
+        <f>IF(M95=0,1,MIN(MAX((M95/M67-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="P85" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>P61</f>
+        <v>0.05</v>
+      </c>
+      <c r="R85" s="4">
+        <f>IF(P95=0,1,MIN(MAX((P95/P67-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="S85" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>S61</f>
+        <v>0.12</v>
+      </c>
+      <c r="U85" s="4">
+        <f>IF(S95=0,1,MIN(MAX((S95/S67-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="V85" s="4">
-        <f t="shared" si="17"/>
-        <v>8.5999999999999998E-4</v>
+        <f>V61</f>
+        <v>0.2</v>
+      </c>
+      <c r="X85" s="4">
+        <f>IF(V95=0,1,MIN(MAX((V95/V67-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="Y85" s="4">
-        <f t="shared" si="18"/>
-        <v>5.1582799999999995E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E86" s="14"/>
+        <f>Y61</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="47"/>
+      <c r="B86" s="37"/>
+      <c r="E86" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G86" s="4">
+        <f>G62</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="4">
+        <f>IF(G96=0,1,MIN(MAX((G96/G68-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J86" s="4">
+        <f>J62</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="4">
+        <f>IF(J96=0,1,MIN(MAX((J96/J68-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M86" s="4">
+        <f>M62</f>
+        <v>0</v>
+      </c>
+      <c r="O86" s="4">
+        <f>IF(M96=0,1,MIN(MAX((M96/M68-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P86" s="4">
+        <f>P62</f>
+        <v>0.01</v>
+      </c>
+      <c r="R86" s="4">
+        <f>IF(P96=0,1,MIN(MAX((P96/P68-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S86" s="4">
+        <f>S62</f>
+        <v>0.05</v>
+      </c>
+      <c r="U86" s="4">
+        <f>IF(S96=0,1,MIN(MAX((S96/S68-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V86" s="4">
+        <f>V62</f>
+        <v>0.12</v>
+      </c>
+      <c r="X86" s="4">
+        <f>IF(V96=0,1,MIN(MAX((V96/V68-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y86" s="4">
+        <f>Y62</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="87" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B87" s="37" t="s">
-        <v>180</v>
-      </c>
+      <c r="A87" s="47"/>
+      <c r="B87" s="37"/>
       <c r="E87" s="14" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="G87" s="4">
-        <f>G53*G36</f>
-        <v>0</v>
+        <f>G63</f>
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
+        <f>IF(G97=0,1,MIN(MAX((G97/G69-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="J87" s="4">
-        <f>G87 - J71 - J82 + J36*J77</f>
-        <v>0.85</v>
+        <f>J63</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="4">
+        <f>IF(J97=0,1,MIN(MAX((J97/J69-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="M87" s="4">
-        <f>J87 - M71 - M82 + M36*M77</f>
-        <v>5.0983000000000001</v>
+        <f>M63</f>
+        <v>0</v>
+      </c>
+      <c r="O87" s="4">
+        <f>IF(M97=0,1,MIN(MAX((M97/M69-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="P87" s="4">
-        <f>M87 - P71 - P82 + P36*P77</f>
-        <v>15.288103399999999</v>
+        <f>P63</f>
+        <v>0</v>
+      </c>
+      <c r="R87" s="4">
+        <f>IF(P97=0,1,MIN(MAX((P97/P69-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="S87" s="4">
-        <f>P87 - S71 - S82 + S36*S77</f>
-        <v>32.257527193199998</v>
+        <f>S63</f>
+        <v>0.01</v>
+      </c>
+      <c r="U87" s="4">
+        <f>IF(S97=0,1,MIN(MAX((S97/S69-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="V87" s="4">
-        <f>S87 - V71 - V82 + V36*V77</f>
-        <v>39.082999999999998</v>
+        <f>V63</f>
+        <v>0.05</v>
+      </c>
+      <c r="X87" s="4">
+        <f>IF(V97=0,1,MIN(MAX((V97/V69-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
       </c>
       <c r="Y87" s="4">
-        <f>V87 - Y71 - Y82 + Y36*Y77</f>
-        <v>55.774358623197188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="47"/>
-      <c r="B88" s="37"/>
-      <c r="E88" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G88" s="4">
-        <f>G54*G37</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="4">
-        <f>G88 - J72 - J83 + J37*J78</f>
-        <v>0</v>
-      </c>
-      <c r="M88" s="4">
-        <f>J88 - M72 - M83 + M37*M78</f>
-        <v>0.8</v>
-      </c>
-      <c r="P88" s="4">
-        <f>M88 - P72 - P83 + P37*P78</f>
-        <v>4.7984</v>
-      </c>
-      <c r="S88" s="4">
-        <f>P88 - S72 - S83 + S37*S78</f>
-        <v>14.3888032</v>
-      </c>
-      <c r="V88" s="4">
-        <f>S88 - V72 - V83 + V37*V78</f>
-        <v>23.984000000000002</v>
-      </c>
-      <c r="Y88" s="4">
-        <f>V88 - Y72 - Y83 + Y37*Y78</f>
-        <v>36.783999999999999</v>
-      </c>
+        <f>Y63</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E88" s="14"/>
     </row>
     <row r="89" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="47"/>
-      <c r="B89" s="37"/>
+      <c r="A89" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>175</v>
+      </c>
       <c r="E89" s="14" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="G89" s="4">
-        <f>G55*G38</f>
+        <f>G55*G32</f>
         <v>0</v>
       </c>
       <c r="J89" s="4">
-        <f>G89 - J73 - J84 + J38*J79</f>
+        <f>(G94-J78)*$F$29</f>
         <v>0</v>
       </c>
       <c r="M89" s="4">
-        <f>J89 - M73 - M84 + M38*M79</f>
-        <v>0</v>
+        <f>(J94-M78)*$F$29</f>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="P89" s="4">
-        <f>M89 - P73 - P84 + P38*P79</f>
-        <v>0.92</v>
+        <f>(M94-P78)*$F$29</f>
+        <v>1.01966E-2</v>
       </c>
       <c r="S89" s="4">
-        <f>P89 - S73 - S84 + S38*S79</f>
-        <v>5.5181600000000008</v>
+        <f>(P94-S78)*$F$29</f>
+        <v>3.0576206799999998E-2</v>
       </c>
       <c r="V89" s="4">
-        <f>S89 - V73 - V84 + V38*V79</f>
-        <v>16.547123679999999</v>
+        <f>(S94-V78)*$F$29</f>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="Y89" s="4">
-        <f>V89 - Y73 - Y84 + Y38*Y79</f>
-        <v>27.581600000000005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <f>(V94-Y78)*$F$29</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="47"/>
       <c r="B90" s="37"/>
       <c r="E90" s="14" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="G90" s="4">
-        <f>G56*G39</f>
+        <f>G56*G33</f>
         <v>0</v>
       </c>
       <c r="J90" s="4">
-        <f>G90 - J74 - J85 + J39*J80</f>
+        <f t="shared" ref="J90:J92" si="20">(G95-J79)*$F$29</f>
         <v>0</v>
       </c>
       <c r="M90" s="4">
-        <f>J90 - M74 - M85 + M39*M80</f>
+        <f t="shared" ref="M90:M92" si="21">(J95-M79)*$F$29</f>
         <v>0</v>
       </c>
       <c r="P90" s="4">
-        <f>M90 - P74 - P85 + P39*P80</f>
-        <v>0</v>
+        <f t="shared" ref="P90:P92" si="22">(M95-P79)*$F$29</f>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="S90" s="4">
-        <f>P90 - S74 - S85 + S39*S80</f>
-        <v>0.43</v>
+        <f t="shared" ref="S90:S92" si="23">(P95-S79)*$F$29</f>
+        <v>9.5968000000000008E-3</v>
       </c>
       <c r="V90" s="4">
-        <f>S90 - V74 - V85 + V39*V80</f>
-        <v>2.5791399999999998</v>
+        <f t="shared" ref="V90:V92" si="24">(S95-V79)*$F$29</f>
+        <v>1.6000000000000004E-2</v>
       </c>
       <c r="Y90" s="4">
-        <f>V90 - Y74 - Y85 + Y39*Y80</f>
-        <v>7.7339817200000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D91" s="35"/>
-      <c r="E91" s="14"/>
+        <f t="shared" ref="Y90:Y92" si="25">(V95-Y79)*$F$29</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="47"/>
+      <c r="B91" s="37"/>
+      <c r="E91" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G91" s="4">
+        <f>G57*G34</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="4">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="4">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S91" s="4">
+        <f t="shared" si="23"/>
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="V91" s="4">
+        <f t="shared" si="24"/>
+        <v>1.1036320000000002E-2</v>
+      </c>
+      <c r="Y91" s="4">
+        <f t="shared" si="25"/>
+        <v>1.8400000000000007E-2</v>
+      </c>
     </row>
     <row r="92" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="B92" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="D92" s="35"/>
+      <c r="A92" s="47"/>
+      <c r="B92" s="37"/>
       <c r="E92" s="14" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="G92" s="4">
-        <f>G58*G41</f>
+        <f>G58*G35</f>
         <v>0</v>
       </c>
       <c r="J92" s="4">
-        <f>G92 - J76 - J87 + J41*J82</f>
-        <v>-0.85</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="M92" s="4">
-        <f>J92 - M76 - M87 + M41*M82</f>
-        <v>-5.9482999999999997</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="P92" s="4">
-        <f>M92 - P76 - P87 + P41*P82</f>
-        <v>-21.2364034</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="S92" s="4">
-        <f>P92 - S76 - S87 + S41*S82</f>
-        <v>-53.493930593199998</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="V92" s="4">
-        <f>S92 - V76 - V87 + V41*V82</f>
-        <v>-92.57693059319999</v>
+        <f t="shared" si="24"/>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="Y92" s="4">
-        <f>V92 - Y76 - Y87 + Y41*Y82</f>
-        <v>-148.35128921639716</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="47"/>
-      <c r="B93" s="37"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G93" s="4">
-        <f>G59*G42</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="4">
-        <f>G93 - J77 - J88 + J42*J83</f>
-        <v>-0.01</v>
-      </c>
-      <c r="M93" s="4">
-        <f>J93 - M77 - M88 + M42*M83</f>
-        <v>-0.8600000000000001</v>
-      </c>
-      <c r="P93" s="4">
-        <f>M93 - P77 - P88 + P42*P83</f>
-        <v>-5.7784000000000004</v>
-      </c>
-      <c r="S93" s="4">
-        <f>P93 - S77 - S88 + S42*S83</f>
-        <v>-20.367203199999999</v>
-      </c>
-      <c r="V93" s="4">
-        <f>S93 - V77 - V88 + V42*V83</f>
-        <v>-44.7112032</v>
-      </c>
-      <c r="Y93" s="4">
-        <f>V93 - Y77 - Y88 + Y42*Y83</f>
-        <v>-82.05157212497879</v>
-      </c>
+        <f t="shared" si="25"/>
+        <v>5.1582799999999995E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E93" s="14"/>
     </row>
     <row r="94" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="47"/>
-      <c r="B94" s="37"/>
-      <c r="D94" s="35"/>
+      <c r="A94" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>175</v>
+      </c>
       <c r="E94" s="14" t="s">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="G94" s="4">
-        <f>G60*G43</f>
+        <f>G60*G37</f>
         <v>0</v>
       </c>
       <c r="J94" s="4">
-        <f>G94 - J78 - J89 + J43*J84</f>
-        <v>0</v>
+        <f>G94 - J78 - J89 + J37*J84</f>
+        <v>0.85</v>
       </c>
       <c r="M94" s="4">
-        <f>J94 - M78 - M89 + M43*M84</f>
-        <v>-0.01</v>
+        <f>J94 - M78 - M89 + M37*M84</f>
+        <v>5.0983000000000001</v>
       </c>
       <c r="P94" s="4">
-        <f>M94 - P78 - P89 + P43*P84</f>
-        <v>-0.98000000000000009</v>
+        <f>M94 - P78 - P89 + P37*P84</f>
+        <v>15.288103399999999</v>
       </c>
       <c r="S94" s="4">
-        <f>P94 - S78 - S89 + S43*S84</f>
-        <v>-6.6181600000000014</v>
+        <f>P94 - S78 - S89 + S37*S84</f>
+        <v>32.257527193199998</v>
       </c>
       <c r="V94" s="4">
-        <f>S94 - V78 - V89 + V43*V84</f>
-        <v>-23.365283680000001</v>
+        <f>S94 - V78 - V89 + V37*V84</f>
+        <v>39.082999999999998</v>
       </c>
       <c r="Y94" s="4">
-        <f>V94 - Y78 - Y89 + Y43*Y84</f>
-        <v>-51.306883680000006</v>
+        <f>V94 - Y78 - Y89 + Y37*Y84</f>
+        <v>55.774358623197188</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="47"/>
       <c r="B95" s="37"/>
-      <c r="D95" s="35"/>
       <c r="E95" s="14" t="s">
-        <v>231</v>
+        <v>71</v>
       </c>
       <c r="G95" s="4">
-        <f>G61*G44</f>
+        <f>G61*G38</f>
         <v>0</v>
       </c>
       <c r="J95" s="4">
-        <f>G95 - J79 - J90 + J44*J85</f>
+        <f>G95 - J79 - J90 + J38*J85</f>
         <v>0</v>
       </c>
       <c r="M95" s="4">
-        <f>J95 - M79 - M90 + M44*M85</f>
-        <v>0</v>
+        <f>J95 - M79 - M90 + M38*M85</f>
+        <v>0.8</v>
       </c>
       <c r="P95" s="4">
-        <f>M95 - P79 - P90 + P44*P85</f>
-        <v>-0.01</v>
+        <f>M95 - P79 - P90 + P38*P85</f>
+        <v>4.7984</v>
       </c>
       <c r="S95" s="4">
-        <f>P95 - S79 - S90 + S44*S85</f>
-        <v>-0.49</v>
+        <f>P95 - S79 - S90 + S38*S85</f>
+        <v>14.3888032</v>
       </c>
       <c r="V95" s="4">
-        <f>S95 - V79 - V90 + V44*V85</f>
-        <v>-3.1891399999999996</v>
+        <f>S95 - V79 - V90 + V38*V85</f>
+        <v>23.984000000000002</v>
       </c>
       <c r="Y95" s="4">
-        <f>V95 - Y79 - Y90 + Y44*Y85</f>
-        <v>-11.12312172</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A96" s="38"/>
-      <c r="B96" s="45"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="14"/>
-    </row>
-    <row r="97" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="D97" s="35"/>
-      <c r="E97" s="15" t="s">
+        <f>V95 - Y79 - Y90 + Y38*Y85</f>
+        <v>36.783999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="47"/>
+      <c r="B96" s="37"/>
+      <c r="E96" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G96" s="4">
+        <f>G62*G39</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="4">
+        <f>G96 - J80 - J91 + J39*J86</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="4">
+        <f>J96 - M80 - M91 + M39*M86</f>
+        <v>0</v>
+      </c>
+      <c r="P96" s="4">
+        <f>M96 - P80 - P91 + P39*P86</f>
+        <v>0.92</v>
+      </c>
+      <c r="S96" s="4">
+        <f>P96 - S80 - S91 + S39*S86</f>
+        <v>5.5181600000000008</v>
+      </c>
+      <c r="V96" s="4">
+        <f>S96 - V80 - V91 + V39*V86</f>
+        <v>16.547123679999999</v>
+      </c>
+      <c r="Y96" s="4">
+        <f>V96 - Y80 - Y91 + Y39*Y86</f>
+        <v>27.581600000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="47"/>
+      <c r="B97" s="37"/>
+      <c r="E97" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G97" s="4">
+        <f>G63*G40</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="4">
+        <f>G97 - J81 - J92 + J40*J87</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="4">
+        <f>J97 - M81 - M92 + M40*M87</f>
+        <v>0</v>
+      </c>
+      <c r="P97" s="4">
+        <f>M97 - P81 - P92 + P40*P87</f>
+        <v>0</v>
+      </c>
+      <c r="S97" s="4">
+        <f>P97 - S81 - S92 + S40*S87</f>
+        <v>0.43</v>
+      </c>
+      <c r="V97" s="4">
+        <f>S97 - V81 - V92 + V40*V87</f>
+        <v>2.5791399999999998</v>
+      </c>
+      <c r="Y97" s="4">
+        <f>V97 - Y81 - Y92 + Y40*Y87</f>
+        <v>7.7339817200000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D98" s="35"/>
+      <c r="E98" s="14"/>
+    </row>
+    <row r="99" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D99" s="35"/>
+      <c r="E99" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G99" s="4">
+        <f>G94*$G$20</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="4">
+        <f>J94*$G$20</f>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="M99" s="4">
+        <f>M94*$G$20</f>
+        <v>1.274575</v>
+      </c>
+      <c r="P99" s="4">
+        <f>P94*$G$20</f>
+        <v>3.8220258499999997</v>
+      </c>
+      <c r="S99" s="4">
+        <f>S94*$G$20</f>
+        <v>8.0643817982999995</v>
+      </c>
+      <c r="V99" s="4">
+        <f>V94*$G$20</f>
+        <v>9.7707499999999996</v>
+      </c>
+      <c r="Y99" s="4">
+        <f>Y94*$G$20</f>
+        <v>13.943589655799297</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="47"/>
+      <c r="B100" s="37"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G100" s="4">
+        <f t="shared" ref="G100:G102" si="26">G95*$G$20</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="4">
+        <f t="shared" ref="J100:J102" si="27">J95*$G$20</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="4">
+        <f t="shared" ref="M100:M102" si="28">M95*$G$20</f>
+        <v>0.2</v>
+      </c>
+      <c r="P100" s="4">
+        <f t="shared" ref="P100:P102" si="29">P95*$G$20</f>
+        <v>1.1996</v>
+      </c>
+      <c r="S100" s="4">
+        <f t="shared" ref="S100:S102" si="30">S95*$G$20</f>
+        <v>3.5972008</v>
+      </c>
+      <c r="V100" s="4">
+        <f t="shared" ref="V100:V102" si="31">V95*$G$20</f>
+        <v>5.9960000000000004</v>
+      </c>
+      <c r="Y100" s="4">
+        <f t="shared" ref="Y100:Y102" si="32">Y95*$G$20</f>
+        <v>9.1959999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="47"/>
+      <c r="B101" s="37"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="G101" s="4">
+        <f>G96*$G$20</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="4">
+        <f>J96*$G$20</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="4">
+        <f>M96*$G$20</f>
+        <v>0</v>
+      </c>
+      <c r="P101" s="4">
+        <f>P96*$G$20</f>
+        <v>0.23</v>
+      </c>
+      <c r="S101" s="4">
+        <f>S96*$G$20</f>
+        <v>1.3795400000000002</v>
+      </c>
+      <c r="V101" s="4">
+        <f>V96*$G$20</f>
+        <v>4.1367809199999996</v>
+      </c>
+      <c r="Y101" s="4">
+        <f>Y96*$G$20</f>
+        <v>6.8954000000000013</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="47"/>
+      <c r="B102" s="37"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="G102" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S102" s="4">
+        <f t="shared" si="30"/>
+        <v>0.1075</v>
+      </c>
+      <c r="V102" s="4">
+        <f t="shared" si="31"/>
+        <v>0.64478499999999994</v>
+      </c>
+      <c r="Y102" s="4">
+        <f t="shared" si="32"/>
+        <v>1.93349543</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A103" s="38"/>
+      <c r="B103" s="45"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="14"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A104" s="38"/>
+      <c r="B104" s="45"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="14"/>
+    </row>
+    <row r="105" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="D105" s="35"/>
+      <c r="E105" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="B106" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D106" s="35"/>
+      <c r="E106" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F106" s="4">
+        <f>$F$28</f>
+        <v>0.3</v>
+      </c>
+      <c r="G106" s="4">
+        <f>$G$28</f>
+        <v>0.92</v>
+      </c>
+      <c r="I106" s="4">
+        <f>$F$28</f>
+        <v>0.3</v>
+      </c>
+      <c r="J106" s="4">
+        <f>$G$28</f>
+        <v>0.92</v>
+      </c>
+      <c r="L106" s="4">
+        <f>$F$28</f>
+        <v>0.3</v>
+      </c>
+      <c r="M106" s="4">
+        <f>$G$28</f>
+        <v>0.92</v>
+      </c>
+      <c r="O106" s="4">
+        <f>$F$28</f>
+        <v>0.3</v>
+      </c>
+      <c r="P106" s="4">
+        <f>$G$28</f>
+        <v>0.92</v>
+      </c>
+      <c r="R106" s="4">
+        <f>$F$28</f>
+        <v>0.3</v>
+      </c>
+      <c r="S106" s="4">
+        <f>$G$28</f>
+        <v>0.92</v>
+      </c>
+      <c r="U106" s="4">
+        <f>$F$28</f>
+        <v>0.3</v>
+      </c>
+      <c r="V106" s="4">
+        <f>$G$28</f>
+        <v>0.92</v>
+      </c>
+      <c r="X106" s="4">
+        <f>$F$28</f>
+        <v>0.3</v>
+      </c>
+      <c r="Y106" s="4">
+        <f>$G$28</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F107" s="4">
+        <f>F7*$F$19</f>
+        <v>1500000</v>
+      </c>
+      <c r="G107" s="4">
+        <f>G7*$G$19</f>
+        <v>25000000</v>
+      </c>
+      <c r="I107" s="4">
+        <f>I7*$F$19</f>
+        <v>1492500</v>
+      </c>
+      <c r="J107" s="4">
+        <f>J7*$G$19</f>
+        <v>24990000</v>
+      </c>
+      <c r="L107" s="4">
+        <f>L7*$F$19</f>
+        <v>1483200</v>
+      </c>
+      <c r="M107" s="4">
+        <f>M7*$G$19</f>
+        <v>24979000</v>
+      </c>
+      <c r="O107" s="4">
+        <f>O7*$F$19</f>
+        <v>1474500</v>
+      </c>
+      <c r="P107" s="4">
+        <f>P7*$G$19</f>
+        <v>24969600</v>
+      </c>
+      <c r="R107" s="4">
+        <f>R7*$F$19</f>
+        <v>1464000</v>
+      </c>
+      <c r="S107" s="4">
+        <f>S7*$G$19</f>
+        <v>24950400</v>
+      </c>
+      <c r="U107" s="4">
+        <f>U7*$F$19</f>
+        <v>1449000</v>
+      </c>
+      <c r="V107" s="4">
+        <f>V7*$G$19</f>
+        <v>24946500</v>
+      </c>
+      <c r="X107" s="4">
+        <f>X7*$F$19</f>
+        <v>1434300</v>
+      </c>
+      <c r="Y107" s="4">
+        <f>Y7*$G$19</f>
+        <v>24936000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="B108" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+      <c r="G108" s="4">
+        <v>1</v>
+      </c>
+      <c r="I108" s="4">
+        <f>IF(F110=0,0,MIN(MAX((F110/F107-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J108" s="4">
+        <f>IF(G110=0,0,MIN(MAX((G110/G107-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="L108" s="4">
+        <f>IF(I110=0,0,MIN(MAX((I110/I107-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M108" s="4">
+        <f>IF(J110=0,0,MIN(MAX((J110/J107-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="O108" s="4">
+        <f>IF(L110=0,0,MIN(MAX((L110/L107-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P108" s="4">
+        <f>IF(M110=0,0,MIN(MAX((M110/M107-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="R108" s="4">
+        <f>IF(O110=0,0,MIN(MAX((O110/O107-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S108" s="4">
+        <f>IF(P110=0,0,MIN(MAX((P110/P107-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="U108" s="4">
+        <f>IF(R110=0,0,MIN(MAX((R110/R107-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V108" s="4">
+        <f>IF(S110=0,0,MIN(MAX((S110/S107-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="X108" s="4">
+        <f>IF(U110=0,0,MIN(MAX((U110/U107-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y108" s="4">
+        <f>IF(V110=0,0,MIN(MAX((V110/V107-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>0.89478920325752509</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F109" s="4">
+        <f>F106</f>
+        <v>0.3</v>
+      </c>
+      <c r="G109" s="4">
+        <f>G106</f>
+        <v>0.92</v>
+      </c>
+      <c r="I109" s="4">
+        <f xml:space="preserve"> I106*I108</f>
+        <v>0.3</v>
+      </c>
+      <c r="J109" s="4">
+        <f>J106*J108</f>
+        <v>0.92</v>
+      </c>
+      <c r="L109" s="4">
+        <f xml:space="preserve"> L106*L108</f>
+        <v>0.3</v>
+      </c>
+      <c r="M109" s="4">
+        <f>M106*M108</f>
+        <v>0.92</v>
+      </c>
+      <c r="O109" s="4">
+        <f xml:space="preserve"> O106*O108</f>
+        <v>0.3</v>
+      </c>
+      <c r="P109" s="4">
+        <f>P106*P108</f>
+        <v>0.92</v>
+      </c>
+      <c r="R109" s="4">
+        <f xml:space="preserve"> R106*R108</f>
+        <v>0.3</v>
+      </c>
+      <c r="S109" s="4">
+        <f>S106*S108</f>
+        <v>0.92</v>
+      </c>
+      <c r="U109" s="4">
+        <f xml:space="preserve"> U106*U108</f>
+        <v>0.3</v>
+      </c>
+      <c r="V109" s="4">
+        <f>V106*V108</f>
+        <v>0.92</v>
+      </c>
+      <c r="X109" s="4">
+        <f xml:space="preserve"> X106*X108</f>
+        <v>0.3</v>
+      </c>
+      <c r="Y109" s="4">
+        <f>Y106*Y108</f>
+        <v>0.82320606699692311</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F110" s="4">
+        <f>F7*F19</f>
+        <v>1500000</v>
+      </c>
+      <c r="G110" s="4">
+        <f>G7*G19</f>
+        <v>25000000</v>
+      </c>
+      <c r="I110" s="4">
+        <f>F110 - F130 - F118 - F142+I109*I7</f>
+        <v>1421423.1421982395</v>
+      </c>
+      <c r="J110" s="4">
+        <f>G110 - G130 - G118 - G142 + J109*J7</f>
+        <v>23256357.107801761</v>
+      </c>
+      <c r="L110" s="4">
+        <f>I110 - I130 - I118 - I142+L109*L7</f>
+        <v>1339098.0188325029</v>
+      </c>
+      <c r="M110" s="4">
+        <f>J110 - J130 - J118 - J142 + M109*M7</f>
+        <v>21469509.138674762</v>
+      </c>
+      <c r="O110" s="4">
+        <f>L110 - L130 - L118 - L142+O109*O7</f>
+        <v>1262299.2941418488</v>
+      </c>
+      <c r="P110" s="4">
+        <f>M110 - M130 - M118 - M142 + P109*P7</f>
+        <v>19621955.062304016</v>
+      </c>
+      <c r="R110" s="4">
+        <f>O110 - O130 - O118 - O142+R109*R7</f>
+        <v>1188284.3985212983</v>
+      </c>
+      <c r="S110" s="4">
+        <f>P110 - P130 - P118 - P142 + S109*S7</f>
+        <v>17672326.76258811</v>
+      </c>
+      <c r="U110" s="4">
+        <f>R110 - R130 - R118 - R142+U109*U7</f>
+        <v>1097914.9514073269</v>
+      </c>
+      <c r="V110" s="4">
+        <f>S110 - S130 - S118 - S142 + V109*V7</f>
+        <v>14958270.076713715</v>
+      </c>
+      <c r="X110" s="4">
+        <f>U110 - U130 - U118 - U142+X109*X7</f>
+        <v>819907.25090646883</v>
+      </c>
+      <c r="Y110" s="4">
+        <f>V110 - V130 - V118 - V142 + Y109*Y7</f>
+        <v>3187373.7005417161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B111" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E111" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F97" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G97" s="8"/>
-    </row>
-    <row r="98" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B98" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="D98" s="35"/>
-      <c r="E98" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F98" s="4">
-        <f>$F$27</f>
-        <v>0.3</v>
-      </c>
-      <c r="G98" s="4">
-        <f>$G$27</f>
-        <v>0.92</v>
-      </c>
-      <c r="I98" s="4">
-        <f>$F$27</f>
-        <v>0.3</v>
-      </c>
-      <c r="J98" s="4">
-        <f>$G$27</f>
-        <v>0.92</v>
-      </c>
-      <c r="L98" s="4">
-        <f>$F$27</f>
-        <v>0.3</v>
-      </c>
-      <c r="M98" s="4">
-        <f>$G$27</f>
-        <v>0.92</v>
-      </c>
-      <c r="O98" s="4">
-        <f>$F$27</f>
-        <v>0.3</v>
-      </c>
-      <c r="P98" s="4">
-        <f>$G$27</f>
-        <v>0.92</v>
-      </c>
-      <c r="R98" s="4">
-        <f>$F$27</f>
-        <v>0.3</v>
-      </c>
-      <c r="S98" s="4">
-        <f>$G$27</f>
-        <v>0.92</v>
-      </c>
-      <c r="U98" s="4">
-        <f>$F$27</f>
-        <v>0.3</v>
-      </c>
-      <c r="V98" s="4">
-        <f>$G$27</f>
-        <v>0.92</v>
-      </c>
-      <c r="X98" s="4">
-        <f>$F$27</f>
-        <v>0.3</v>
-      </c>
-      <c r="Y98" s="4">
-        <f>$G$27</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B99" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F99" s="4">
-        <f>F7*$F$18</f>
+      <c r="F111" s="4">
+        <f>F110/F7</f>
+        <v>150</v>
+      </c>
+      <c r="G111" s="4">
+        <f>G110/G7</f>
+        <v>100</v>
+      </c>
+      <c r="I111" s="4">
+        <f>I110/I7</f>
+        <v>142.85659720585321</v>
+      </c>
+      <c r="J111" s="4">
+        <f>J110/J7</f>
+        <v>93.062653492604085</v>
+      </c>
+      <c r="L111" s="4">
+        <f>L110/L7</f>
+        <v>135.42657957448452</v>
+      </c>
+      <c r="M111" s="4">
+        <f>M110/M7</f>
+        <v>85.950234751890633</v>
+      </c>
+      <c r="O111" s="4">
+        <f>O110/O7</f>
+        <v>128.4129495566479</v>
+      </c>
+      <c r="P111" s="4">
+        <f>P110/P7</f>
+        <v>78.583377636421957</v>
+      </c>
+      <c r="R111" s="4">
+        <f>R110/R7</f>
+        <v>121.75045066816581</v>
+      </c>
+      <c r="S111" s="4">
+        <f>S110/S7</f>
+        <v>70.8298334398972</v>
+      </c>
+      <c r="U111" s="4">
+        <f>U110/U7</f>
+        <v>113.65579207115185</v>
+      </c>
+      <c r="V111" s="4">
+        <f>V110/V7</f>
+        <v>59.961397697928426</v>
+      </c>
+      <c r="X111" s="4">
+        <f>X110/X7</f>
+        <v>85.746418208164485</v>
+      </c>
+      <c r="Y111" s="4">
+        <f>Y110/Y7</f>
+        <v>12.782217278399568</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E112" s="13"/>
+    </row>
+    <row r="113" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="E113" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="X113" s="12"/>
+      <c r="Y113" s="12"/>
+    </row>
+    <row r="114" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="B114" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" s="4">
+        <f>F111*F7</f>
         <v>1500000</v>
       </c>
-      <c r="G99" s="4">
-        <f>G7*$G$18</f>
+      <c r="G114" s="4">
+        <f>G111*G7</f>
         <v>25000000</v>
       </c>
-      <c r="I99" s="4">
-        <f>I7*$F$18</f>
-        <v>1492500</v>
-      </c>
-      <c r="J99" s="4">
-        <f>J7*$G$18</f>
-        <v>24990000</v>
-      </c>
-      <c r="L99" s="4">
-        <f>L7*$F$18</f>
-        <v>1483200</v>
-      </c>
-      <c r="M99" s="4">
-        <f>M7*$G$18</f>
-        <v>24979000</v>
-      </c>
-      <c r="O99" s="4">
-        <f>O7*$F$18</f>
-        <v>1474500</v>
-      </c>
-      <c r="P99" s="4">
-        <f>P7*$G$18</f>
-        <v>24969600</v>
-      </c>
-      <c r="R99" s="4">
-        <f>R7*$F$18</f>
-        <v>1464000</v>
-      </c>
-      <c r="S99" s="4">
-        <f>S7*$G$18</f>
-        <v>24950400</v>
-      </c>
-      <c r="U99" s="4">
-        <f>U7*$F$18</f>
-        <v>1449000</v>
-      </c>
-      <c r="V99" s="4">
-        <f>V7*$G$18</f>
-        <v>24946500</v>
-      </c>
-      <c r="X99" s="4">
-        <f>X7*$F$18</f>
-        <v>1434300</v>
-      </c>
-      <c r="Y99" s="4">
-        <f>Y7*$G$18</f>
-        <v>24936000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B100" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F100" s="4">
-        <v>1</v>
-      </c>
-      <c r="G100" s="4">
-        <v>1</v>
-      </c>
-      <c r="I100" s="4">
-        <f>IF(F102=0,0,MIN(MAX((F102/F99-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="J100" s="4">
-        <f>IF(G102=0,0,MIN(MAX((G102/G99-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="L100" s="4">
-        <f>IF(I102=0,0,MIN(MAX((I102/I99-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="M100" s="4">
-        <f>IF(J102=0,0,MIN(MAX((J102/J99-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="O100" s="4">
-        <f>IF(L102=0,0,MIN(MAX((L102/L99-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P100" s="4">
-        <f>IF(M102=0,0,MIN(MAX((M102/M99-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="R100" s="4">
-        <f>IF(O102=0,0,MIN(MAX((O102/O99-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="S100" s="4">
-        <f>IF(P102=0,0,MIN(MAX((P102/P99-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="U100" s="4">
-        <f>IF(R102=0,0,MIN(MAX((R102/R99-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="V100" s="4">
-        <f>IF(S102=0,0,MIN(MAX((S102/S99-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="X100" s="4">
-        <f>IF(U102=0,0,MIN(MAX((U102/U99-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="Y100" s="4">
-        <f>IF(V102=0,0,MIN(MAX((V102/V99-$F$15)/($F$17-$F$15), 0), 1))</f>
-        <v>0.89139235505764625</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B101" s="43" t="s">
+      <c r="I114" s="4">
+        <f>I111*I7</f>
+        <v>1421423.1421982395</v>
+      </c>
+      <c r="J114" s="4">
+        <f>J111*J7</f>
+        <v>23256357.107801761</v>
+      </c>
+      <c r="L114" s="4">
+        <f>L111*L7</f>
+        <v>1339098.0188325029</v>
+      </c>
+      <c r="M114" s="4">
+        <f>M111*M7</f>
+        <v>21469509.138674762</v>
+      </c>
+      <c r="O114" s="4">
+        <f>O111*O7</f>
+        <v>1262299.2941418488</v>
+      </c>
+      <c r="P114" s="4">
+        <f>P111*P7</f>
+        <v>19621955.062304016</v>
+      </c>
+      <c r="R114" s="4">
+        <f>R111*R7</f>
+        <v>1188284.3985212983</v>
+      </c>
+      <c r="S114" s="4">
+        <f>S111*S7</f>
+        <v>17672326.76258811</v>
+      </c>
+      <c r="U114" s="4">
+        <f>U111*U7</f>
+        <v>1097914.9514073269</v>
+      </c>
+      <c r="V114" s="4">
+        <f>V111*V7</f>
+        <v>14958270.076713715</v>
+      </c>
+      <c r="X114" s="4">
+        <f>X111*X7</f>
+        <v>819907.25090646883</v>
+      </c>
+      <c r="Y114" s="4">
+        <f>Y111*Y7</f>
+        <v>3187373.7005417161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="B115" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G115" s="4">
+        <f>SUM(G94:G97)</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="4">
+        <f>SUM(J94:J97)</f>
+        <v>0.85</v>
+      </c>
+      <c r="M115" s="4">
+        <f>SUM(M94:M97)</f>
+        <v>5.8982999999999999</v>
+      </c>
+      <c r="P115" s="4">
+        <f>SUM(P94:P97)</f>
+        <v>21.0065034</v>
+      </c>
+      <c r="S115" s="4">
+        <f>SUM(S94:S97)</f>
+        <v>52.594490393199997</v>
+      </c>
+      <c r="V115" s="4">
+        <f>SUM(V94:V97)</f>
+        <v>82.193263680000001</v>
+      </c>
+      <c r="Y115" s="4">
+        <f>SUM(Y94:Y97)</f>
+        <v>127.87394034319721</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" s="4">
+        <f>F114+F115</f>
+        <v>1500000</v>
+      </c>
+      <c r="G116" s="4">
+        <f>G114+G115</f>
+        <v>25000000</v>
+      </c>
+      <c r="I116" s="4">
+        <f>I114+I115</f>
+        <v>1421423.1421982395</v>
+      </c>
+      <c r="J116" s="4">
+        <f>J114+J115</f>
+        <v>23256357.957801763</v>
+      </c>
+      <c r="L116" s="4">
+        <f>L114+L115</f>
+        <v>1339098.0188325029</v>
+      </c>
+      <c r="M116" s="4">
+        <f>M114+M115</f>
+        <v>21469515.036974762</v>
+      </c>
+      <c r="O116" s="4">
+        <f>O114+O115</f>
+        <v>1262299.2941418488</v>
+      </c>
+      <c r="P116" s="4">
+        <f>P114+P115</f>
+        <v>19621976.068807416</v>
+      </c>
+      <c r="R116" s="4">
+        <f>R114+R115</f>
+        <v>1188284.3985212983</v>
+      </c>
+      <c r="S116" s="4">
+        <f>S114+S115</f>
+        <v>17672379.357078504</v>
+      </c>
+      <c r="U116" s="4">
+        <f>U114+U115</f>
+        <v>1097914.9514073269</v>
+      </c>
+      <c r="V116" s="4">
+        <f>V114+V115</f>
+        <v>14958352.269977394</v>
+      </c>
+      <c r="X116" s="4">
+        <f>X114+X115</f>
+        <v>819907.25090646883</v>
+      </c>
+      <c r="Y116" s="4">
+        <f>Y114+Y115</f>
+        <v>3187501.5744820591</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F117" s="4">
+        <f>F110*$F$20</f>
+        <v>450000</v>
+      </c>
+      <c r="G117" s="4">
+        <f>G110*$G$20</f>
+        <v>6250000</v>
+      </c>
+      <c r="I117" s="4">
+        <f>I110*$F$20</f>
+        <v>426426.94265947182</v>
+      </c>
+      <c r="J117" s="4">
+        <f>J110*$G$20</f>
+        <v>5814089.2769504404</v>
+      </c>
+      <c r="L117" s="4">
+        <f>L110*$F$20</f>
+        <v>401729.40564975084</v>
+      </c>
+      <c r="M117" s="4">
+        <f>M110*$G$20</f>
+        <v>5367377.2846686905</v>
+      </c>
+      <c r="O117" s="4">
+        <f>O110*$F$20</f>
+        <v>378689.78824255464</v>
+      </c>
+      <c r="P117" s="4">
+        <f>P110*$G$20</f>
+        <v>4905488.7655760041</v>
+      </c>
+      <c r="R117" s="4">
+        <f>R110*$F$20</f>
+        <v>356485.31955638947</v>
+      </c>
+      <c r="S117" s="4">
+        <f>S110*$G$20</f>
+        <v>4418081.6906470275</v>
+      </c>
+      <c r="U117" s="4">
+        <f>U110*$F$20</f>
+        <v>329374.48542219802</v>
+      </c>
+      <c r="V117" s="4">
+        <f>V110*$G$20</f>
+        <v>3739567.5191784287</v>
+      </c>
+      <c r="X117" s="4">
+        <f>X110*$F$20</f>
+        <v>245972.17527194065</v>
+      </c>
+      <c r="Y117" s="4">
+        <f>Y110*$G$20</f>
+        <v>796843.42513542902</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B118" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F118" s="4">
+        <f>F9*F111</f>
+        <v>7500</v>
+      </c>
+      <c r="G118" s="4">
+        <f>G9*G111</f>
+        <v>10000</v>
+      </c>
+      <c r="I118" s="4">
+        <f>I9*I111</f>
+        <v>8857.1090267628988</v>
+      </c>
+      <c r="J118" s="4">
+        <f>J9*J111</f>
+        <v>10236.891884186449</v>
+      </c>
+      <c r="L118" s="4">
+        <f>L9*L111</f>
+        <v>7854.741615320102</v>
+      </c>
+      <c r="M118" s="4">
+        <f>M9*M111</f>
+        <v>8079.3220666777197</v>
+      </c>
+      <c r="O118" s="4">
+        <f>O9*O111</f>
+        <v>8988.9064689653533</v>
+      </c>
+      <c r="P118" s="4">
+        <f>P9*P111</f>
+        <v>15088.008506193015</v>
+      </c>
+      <c r="R118" s="4">
+        <f>R9*R111</f>
+        <v>12175.045066816581</v>
+      </c>
+      <c r="S118" s="4">
+        <f>S9*S111</f>
+        <v>2762.363504155991</v>
+      </c>
+      <c r="U118" s="4">
+        <f>U9*U111</f>
+        <v>11138.267622972882</v>
+      </c>
+      <c r="V118" s="4">
+        <f>V9*V111</f>
+        <v>6295.9467582824846</v>
+      </c>
+      <c r="X118" s="4">
+        <f>X9*X111</f>
+        <v>8403.1489844001189</v>
+      </c>
+      <c r="Y118" s="4">
+        <f>Y9*Y111</f>
+        <v>1342.1328142319546</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="B119" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F119" s="4">
+        <f>MIN(F118,F9*F15)</f>
+        <v>250</v>
+      </c>
+      <c r="G119" s="4">
+        <f>MIN(G118,G9*G15)</f>
+        <v>1000</v>
+      </c>
+      <c r="I119" s="4">
+        <f>MIN(I118,I9*I15)</f>
+        <v>316.2</v>
+      </c>
+      <c r="J119" s="4">
+        <f>MIN(J118,J9*J15)</f>
+        <v>1078</v>
+      </c>
+      <c r="L119" s="4">
+        <f>MIN(L118,L9*L15)</f>
+        <v>301.60000000000002</v>
+      </c>
+      <c r="M119" s="4">
+        <f>MIN(M118,M9*M15)</f>
+        <v>921.2</v>
+      </c>
+      <c r="O119" s="4">
+        <f>MIN(O118,O9*O15)</f>
+        <v>329</v>
+      </c>
+      <c r="P119" s="4">
+        <f>MIN(P118,P9*P15)</f>
+        <v>1900.8000000000002</v>
+      </c>
+      <c r="R119" s="4">
+        <f>MIN(R118,R9*R15)</f>
+        <v>520</v>
+      </c>
+      <c r="S119" s="4">
+        <f>MIN(S118,S9*S15)</f>
+        <v>393.9</v>
+      </c>
+      <c r="U119" s="4">
+        <f>MIN(U118,U9*U15)</f>
+        <v>401.79999999999995</v>
+      </c>
+      <c r="V119" s="4">
+        <f>MIN(V118,V9*V15)</f>
+        <v>1155</v>
+      </c>
+      <c r="X119" s="4">
+        <f>MIN(X118,X9*X15)</f>
+        <v>499.79999999999995</v>
+      </c>
+      <c r="Y119" s="4">
+        <f>MIN(Y118,Y9*Y15)</f>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="B120" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F120" s="4">
+        <f>(F118-F119)*$F$14</f>
+        <v>5075</v>
+      </c>
+      <c r="G120" s="4">
+        <f>(G118-G119+G46-G52)*$F$14</f>
+        <v>6300</v>
+      </c>
+      <c r="I120" s="4">
+        <f>(I118-I119)*$F$14</f>
+        <v>5978.6363187340285</v>
+      </c>
+      <c r="J120" s="4">
+        <f>(J118-J119+J46-J52)*$F$14</f>
+        <v>6411.2243189305136</v>
+      </c>
+      <c r="L120" s="4">
+        <f>(L118-L119)*$F$14</f>
+        <v>5287.1991307240705</v>
+      </c>
+      <c r="M120" s="4">
+        <f>(M118-M119+M46-M52)*$F$14</f>
+        <v>5010.6854466744035</v>
+      </c>
+      <c r="O120" s="4">
+        <f>(O118-O119)*$F$14</f>
+        <v>6061.9345282757467</v>
+      </c>
+      <c r="P120" s="4">
+        <f>(P118-P119+P46-P52)*$F$14</f>
+        <v>9231.0459543351099</v>
+      </c>
+      <c r="R120" s="4">
+        <f>(R118-R119)*$F$14</f>
+        <v>8158.5315467716064</v>
+      </c>
+      <c r="S120" s="4">
+        <f>(S118-S119+S46-S52)*$F$14</f>
+        <v>1657.9244529091936</v>
+      </c>
+      <c r="U120" s="4">
+        <f>(U118-U119)*$F$14</f>
+        <v>7515.5273360810179</v>
+      </c>
+      <c r="V120" s="4">
+        <f>(V118-V119+V46-V52)*$F$14</f>
+        <v>3598.6627307977387</v>
+      </c>
+      <c r="X120" s="4">
+        <f>(X118-X119)*$F$14</f>
+        <v>5532.3442890800825</v>
+      </c>
+      <c r="Y120" s="4">
+        <f>(Y118-Y119+Y46-Y52)*$F$14</f>
+        <v>277.99296996236819</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="B121" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="F121" s="4">
+        <f>MIN(F120+G120, F32)</f>
+        <v>11375</v>
+      </c>
+      <c r="I121" s="4">
+        <f>MIN(I120+J120, I32)</f>
+        <v>12389.860637664542</v>
+      </c>
+      <c r="L121" s="4">
+        <f>MIN(L120+M120, L32)</f>
+        <v>10297.884577398474</v>
+      </c>
+      <c r="O121" s="4">
+        <f>MIN(O120+P120, O32)</f>
+        <v>15292.980482610856</v>
+      </c>
+      <c r="R121" s="4">
+        <f>MIN(R120+S120, R32)</f>
+        <v>9816.4559996808002</v>
+      </c>
+      <c r="U121" s="4">
+        <f>MIN(U120+V120, U32)</f>
+        <v>11114.190066878757</v>
+      </c>
+      <c r="X121" s="4">
+        <f>MIN(X120+Y120, X32)</f>
+        <v>5810.3372590424506</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="B122" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F122" s="4">
+        <f>F120/(F120+G120)</f>
+        <v>0.44615384615384618</v>
+      </c>
+      <c r="G122" s="4">
+        <f>G120/(F120+G120)</f>
+        <v>0.55384615384615388</v>
+      </c>
+      <c r="I122" s="4">
+        <f>I120/(I120+J120)</f>
+        <v>0.48254266077531816</v>
+      </c>
+      <c r="J122" s="4">
+        <f>J120/(I120+J120)</f>
+        <v>0.51745733922468184</v>
+      </c>
+      <c r="L122" s="4">
+        <f>L120/(L120+M120)</f>
+        <v>0.51342575176345207</v>
+      </c>
+      <c r="M122" s="4">
+        <f>M120/(L120+M120)</f>
+        <v>0.48657424823654793</v>
+      </c>
+      <c r="O122" s="4">
+        <f>O120/(O120+P120)</f>
+        <v>0.39638673018438575</v>
+      </c>
+      <c r="P122" s="4">
+        <f>P120/(O120+P120)</f>
+        <v>0.60361326981561425</v>
+      </c>
+      <c r="R122" s="4">
+        <f>R120/(R120+S120)</f>
+        <v>0.83110763671093679</v>
+      </c>
+      <c r="S122" s="4">
+        <f>S120/(R120+S120)</f>
+        <v>0.16889236328906318</v>
+      </c>
+      <c r="U122" s="4">
+        <f>U120/(U120+V120)</f>
+        <v>0.67621007836440883</v>
+      </c>
+      <c r="V122" s="4">
+        <f>V120/(U120+V120)</f>
+        <v>0.32378992163559123</v>
+      </c>
+      <c r="X122" s="4">
+        <f>X120/(X120+Y120)</f>
+        <v>0.95215545026586257</v>
+      </c>
+      <c r="Y122" s="4">
+        <f>Y120/(X120+Y120)</f>
+        <v>4.7844549734137418E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B123" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F123" s="4">
+        <f>MAX(F13-F26, 0)*F133</f>
+        <v>741757.5</v>
+      </c>
+      <c r="G123" s="4">
+        <f>MAX(G13-G26, 0)*G133</f>
+        <v>19970010</v>
+      </c>
+      <c r="I123" s="4">
+        <f>MAX(I13-I26, 0)*I133</f>
+        <v>697549.84714221046</v>
+      </c>
+      <c r="J123" s="4">
+        <f>MAX(J13-J26, 0)*J133</f>
+        <v>18573008.54128737</v>
+      </c>
+      <c r="L123" s="4">
+        <f>MAX(L13-L26, 0)*L133</f>
+        <v>585747.5895575179</v>
+      </c>
+      <c r="M123" s="4">
+        <f>MAX(M13-M26, 0)*M133</f>
+        <v>17143948.479013555</v>
+      </c>
+      <c r="O123" s="4">
+        <f>MAX(O13-O26, 0)*O133</f>
+        <v>482268.69033299608</v>
+      </c>
+      <c r="P123" s="4">
+        <f>MAX(P13-P26, 0)*P133</f>
+        <v>15657747.771976728</v>
+      </c>
+      <c r="R123" s="4">
+        <f>MAX(R13-R26, 0)*R133</f>
+        <v>384257.42411140393</v>
+      </c>
+      <c r="S123" s="4">
+        <f>MAX(S13-S26, 0)*S133</f>
+        <v>14178856.060528994</v>
+      </c>
+      <c r="U123" s="4">
+        <f>MAX(U13-U26, 0)*U133</f>
+        <v>268100.68087206065</v>
+      </c>
+      <c r="V123" s="4">
+        <f>MAX(V13-V26, 0)*V133</f>
+        <v>11963898.943907974</v>
+      </c>
+      <c r="X123" s="4">
+        <f>MAX(X13-X26, 0)*X133</f>
+        <v>193790.29082328439</v>
+      </c>
+      <c r="Y123" s="4">
+        <f>MAX(Y13-Y26, 0)*Y133</f>
+        <v>2533336.3124467055</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="E125" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+      <c r="R125" s="8"/>
+      <c r="S125" s="8"/>
+      <c r="U125" s="8"/>
+      <c r="V125" s="8"/>
+      <c r="X125" s="8"/>
+      <c r="Y125" s="8"/>
+    </row>
+    <row r="126" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B126" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F126" s="4">
+        <f>MAX(F32-F121,0)</f>
+        <v>1988625</v>
+      </c>
+      <c r="I126" s="4">
+        <f>MAX(I32-I121,0)</f>
+        <v>2037610.1393623354</v>
+      </c>
+      <c r="L126" s="4">
+        <f>MAX(L32-L121,0)</f>
+        <v>2099702.1154226013</v>
+      </c>
+      <c r="O126" s="4">
+        <f>MAX(O32-O121,0)</f>
+        <v>2194707.0195173891</v>
+      </c>
+      <c r="R126" s="4">
+        <f>MAX(R32-R121,0)</f>
+        <v>2990183.5440003192</v>
+      </c>
+      <c r="U126" s="4">
+        <f>MAX(U32-U121,0)</f>
+        <v>24988885.809933122</v>
+      </c>
+      <c r="X126" s="4">
+        <f>MAX(X32-X121,0)</f>
+        <v>2514189.6627409575</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="B127" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E127" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E101" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F101" s="4">
-        <f>F98</f>
-        <v>0.3</v>
-      </c>
-      <c r="G101" s="4">
-        <f>G98</f>
-        <v>0.92</v>
-      </c>
-      <c r="I101" s="4">
-        <f xml:space="preserve"> I98*I100</f>
-        <v>0.3</v>
-      </c>
-      <c r="J101" s="4">
-        <f>J98*J100</f>
-        <v>0.92</v>
-      </c>
-      <c r="L101" s="4">
-        <f xml:space="preserve"> L98*L100</f>
-        <v>0.3</v>
-      </c>
-      <c r="M101" s="4">
-        <f>M98*M100</f>
-        <v>0.92</v>
-      </c>
-      <c r="O101" s="4">
-        <f xml:space="preserve"> O98*O100</f>
-        <v>0.3</v>
-      </c>
-      <c r="P101" s="4">
-        <f>P98*P100</f>
-        <v>0.92</v>
-      </c>
-      <c r="R101" s="4">
-        <f xml:space="preserve"> R98*R100</f>
-        <v>0.3</v>
-      </c>
-      <c r="S101" s="4">
-        <f>S98*S100</f>
-        <v>0.92</v>
-      </c>
-      <c r="U101" s="4">
-        <f xml:space="preserve"> U98*U100</f>
-        <v>0.3</v>
-      </c>
-      <c r="V101" s="4">
-        <f>V98*V100</f>
-        <v>0.92</v>
-      </c>
-      <c r="X101" s="4">
-        <f xml:space="preserve"> X98*X100</f>
-        <v>0.3</v>
-      </c>
-      <c r="Y101" s="4">
-        <f>Y98*Y100</f>
-        <v>0.82008096665303454</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B102" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E102" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F102" s="4">
-        <f>F7*F18</f>
-        <v>1500000</v>
-      </c>
-      <c r="G102" s="4">
-        <f>G7*G18</f>
-        <v>25000000</v>
-      </c>
-      <c r="I102" s="4">
-        <f>F102 - F122 - F110 - F134+I101*I7</f>
-        <v>1421016.5802484024</v>
-      </c>
-      <c r="J102" s="4">
-        <f>G102 - G122 - G110 - G134 + J101*J7</f>
-        <v>23245411.419751596</v>
-      </c>
-      <c r="L102" s="4">
-        <f>I102 - I122 - I110 - I134+L101*L7</f>
-        <v>1338234.0119069479</v>
-      </c>
-      <c r="M102" s="4">
-        <f>J102 - J122 - J110 - J134 + M101*M7</f>
-        <v>21446685.855861954</v>
-      </c>
-      <c r="O102" s="4">
-        <f>L102 - L122 - L110 - L134+O101*O7</f>
-        <v>1261074.3620328093</v>
-      </c>
-      <c r="P102" s="4">
-        <f>M102 - M122 - M110 - M134 + P101*P7</f>
-        <v>19589276.419903073</v>
-      </c>
-      <c r="R102" s="4">
-        <f>O102 - O122 - O110 - O134+R101*R7</f>
-        <v>1186570.0048549746</v>
-      </c>
-      <c r="S102" s="4">
-        <f>P102 - P122 - P110 - P134 + S101*S7</f>
-        <v>17624976.777235985</v>
-      </c>
-      <c r="U102" s="4">
-        <f>R102 - R122 - R110 - R134+U101*U7</f>
-        <v>1095867.5027670111</v>
-      </c>
-      <c r="V102" s="4">
-        <f>S102 - S122 - S110 - S134 + V101*V7</f>
-        <v>14901579.368863089</v>
-      </c>
-      <c r="X102" s="4">
-        <f>U102 - U122 - U110 - U134+X101*X7</f>
-        <v>818384.25432780897</v>
-      </c>
-      <c r="Y102" s="4">
-        <f>V102 - V122 - V110 - V134 + Y101*Y7</f>
-        <v>3175368.0905289678</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B103" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F103" s="4">
-        <f>F102/F7</f>
-        <v>150</v>
-      </c>
-      <c r="G103" s="4">
-        <f>G102/G7</f>
-        <v>100</v>
-      </c>
-      <c r="I103" s="4">
-        <f>I102/I7</f>
-        <v>142.81573670838216</v>
-      </c>
-      <c r="J103" s="4">
-        <f>J102/J7</f>
-        <v>93.018853220294503</v>
-      </c>
-      <c r="L103" s="4">
-        <f>L102/L7</f>
-        <v>135.33920023330785</v>
-      </c>
-      <c r="M103" s="4">
-        <f>M102/M7</f>
-        <v>85.858864869938571</v>
-      </c>
-      <c r="O103" s="4">
-        <f>O102/O7</f>
-        <v>128.28833794840381</v>
-      </c>
-      <c r="P103" s="4">
-        <f>P102/P7</f>
-        <v>78.452503924384345</v>
-      </c>
-      <c r="R103" s="4">
-        <f>R102/R7</f>
-        <v>121.57479557940313</v>
-      </c>
-      <c r="S103" s="4">
-        <f>S102/S7</f>
-        <v>70.640056981996224</v>
-      </c>
-      <c r="U103" s="4">
-        <f>U102/U7</f>
-        <v>113.44384086615021</v>
-      </c>
-      <c r="V103" s="4">
-        <f>V102/V7</f>
-        <v>59.73414855335654</v>
-      </c>
-      <c r="X103" s="4">
-        <f>X102/X7</f>
-        <v>85.58714226394153</v>
-      </c>
-      <c r="Y103" s="4">
-        <f>Y102/Y7</f>
-        <v>12.73407158537443</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E104" s="13"/>
-    </row>
-    <row r="105" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="E105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="R105" s="12"/>
-      <c r="S105" s="12"/>
-      <c r="U105" s="12"/>
-      <c r="V105" s="12"/>
-      <c r="X105" s="12"/>
-      <c r="Y105" s="12"/>
-    </row>
-    <row r="106" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B106" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="F106" s="4">
-        <f>F103*F7</f>
-        <v>1500000</v>
-      </c>
-      <c r="G106" s="4">
-        <f>G103*G7</f>
-        <v>25000000</v>
-      </c>
-      <c r="I106" s="4">
-        <f>I103*I7</f>
-        <v>1421016.5802484024</v>
-      </c>
-      <c r="J106" s="4">
-        <f>J103*J7</f>
-        <v>23245411.419751596</v>
-      </c>
-      <c r="L106" s="4">
-        <f>L103*L7</f>
-        <v>1338234.0119069479</v>
-      </c>
-      <c r="M106" s="4">
-        <f>M103*M7</f>
-        <v>21446685.855861954</v>
-      </c>
-      <c r="O106" s="4">
-        <f>O103*O7</f>
-        <v>1261074.3620328095</v>
-      </c>
-      <c r="P106" s="4">
-        <f>P103*P7</f>
-        <v>19589276.419903073</v>
-      </c>
-      <c r="R106" s="4">
-        <f>R103*R7</f>
-        <v>1186570.0048549746</v>
-      </c>
-      <c r="S106" s="4">
-        <f>S103*S7</f>
-        <v>17624976.777235985</v>
-      </c>
-      <c r="U106" s="4">
-        <f>U103*U7</f>
-        <v>1095867.5027670111</v>
-      </c>
-      <c r="V106" s="4">
-        <f>V103*V7</f>
-        <v>14901579.368863089</v>
-      </c>
-      <c r="X106" s="4">
-        <f>X103*X7</f>
-        <v>818384.25432780886</v>
-      </c>
-      <c r="Y106" s="4">
-        <f>Y103*Y7</f>
-        <v>3175368.0905289678</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="B107" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G107" s="4">
-        <f>SUM(G87:G90)</f>
-        <v>0</v>
-      </c>
-      <c r="J107" s="4">
-        <f>SUM(J87:J90)</f>
-        <v>0.85</v>
-      </c>
-      <c r="M107" s="4">
-        <f>SUM(M87:M90)</f>
-        <v>5.8982999999999999</v>
-      </c>
-      <c r="P107" s="4">
-        <f>SUM(P87:P90)</f>
-        <v>21.0065034</v>
-      </c>
-      <c r="S107" s="4">
-        <f>SUM(S87:S90)</f>
-        <v>52.594490393199997</v>
-      </c>
-      <c r="V107" s="4">
-        <f>SUM(V87:V90)</f>
-        <v>82.193263680000001</v>
-      </c>
-      <c r="Y107" s="4">
-        <f>SUM(Y87:Y90)</f>
-        <v>127.87394034319721</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="B108" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="F108" s="4">
-        <f>F106+F107</f>
-        <v>1500000</v>
-      </c>
-      <c r="G108" s="4">
-        <f>G106+G107</f>
-        <v>25000000</v>
-      </c>
-      <c r="I108" s="4">
-        <f>I106+I107</f>
-        <v>1421016.5802484024</v>
-      </c>
-      <c r="J108" s="4">
-        <f>J106+J107</f>
-        <v>23245412.269751597</v>
-      </c>
-      <c r="L108" s="4">
-        <f>L106+L107</f>
-        <v>1338234.0119069479</v>
-      </c>
-      <c r="M108" s="4">
-        <f>M106+M107</f>
-        <v>21446691.754161954</v>
-      </c>
-      <c r="O108" s="4">
-        <f>O106+O107</f>
-        <v>1261074.3620328095</v>
-      </c>
-      <c r="P108" s="4">
-        <f>P106+P107</f>
-        <v>19589297.426406473</v>
-      </c>
-      <c r="R108" s="4">
-        <f>R106+R107</f>
-        <v>1186570.0048549746</v>
-      </c>
-      <c r="S108" s="4">
-        <f>S106+S107</f>
-        <v>17625029.371726379</v>
-      </c>
-      <c r="U108" s="4">
-        <f>U106+U107</f>
-        <v>1095867.5027670111</v>
-      </c>
-      <c r="V108" s="4">
-        <f>V106+V107</f>
-        <v>14901661.562126769</v>
-      </c>
-      <c r="X108" s="4">
-        <f>X106+X107</f>
-        <v>818384.25432780886</v>
-      </c>
-      <c r="Y108" s="4">
-        <f>Y106+Y107</f>
-        <v>3175495.9644693108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="B109" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F109" s="4">
-        <f>F102*$F$19</f>
-        <v>450000</v>
-      </c>
-      <c r="G109" s="4">
-        <f>G102*$G$19</f>
-        <v>6250000</v>
-      </c>
-      <c r="I109" s="4">
-        <f>F109-F113-F135+I101*I7*$F$19</f>
-        <v>427157.49807066203</v>
-      </c>
-      <c r="J109" s="4">
-        <f>G109-G113-G135+J101*J7*$G$19</f>
-        <v>5822883.6682744483</v>
-      </c>
-      <c r="L109" s="4">
-        <f>I109-I113-I135+L101*L7*$F$19</f>
-        <v>405781.86637034442</v>
-      </c>
-      <c r="M109" s="4">
-        <f>J109-J113-J135+M101*M7*$G$19</f>
-        <v>5386389.9946913794</v>
-      </c>
-      <c r="O109" s="4">
-        <f>L109-L113-L135+O101*O7*$F$19</f>
-        <v>385745.26148536842</v>
-      </c>
-      <c r="P109" s="4">
-        <f>M109-M113-M135+P101*P7*$G$19</f>
-        <v>4933754.4954288593</v>
-      </c>
-      <c r="R109" s="4">
-        <f>O109-O113-O135+R101*R7*$F$19</f>
-        <v>366799.61784868693</v>
-      </c>
-      <c r="S109" s="4">
-        <f>P109-P113-P135+S101*S7*$G$19</f>
-        <v>4455160.4517927608</v>
-      </c>
-      <c r="U109" s="4">
-        <f>R109-R113-R135+U101*U7*$F$19</f>
-        <v>343893.20698312705</v>
-      </c>
-      <c r="V109" s="4">
-        <f>S109-S113-S135+V101*V7*$G$19</f>
-        <v>3782350.5775140608</v>
-      </c>
-      <c r="X109" s="4">
-        <f>U109-U113-U135+X101*X7*$F$19</f>
-        <v>264473.77134537301</v>
-      </c>
-      <c r="Y109" s="4">
-        <f>V109-V113-V135+Y101*Y7*$G$19</f>
-        <v>853846.65592415316</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B110" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F110" s="4">
-        <f>F9*F103</f>
-        <v>7500</v>
-      </c>
-      <c r="G110" s="4">
-        <f>G9*G103</f>
-        <v>10000</v>
-      </c>
-      <c r="I110" s="4">
-        <f>I9*I103</f>
-        <v>8854.5756759196938</v>
-      </c>
-      <c r="J110" s="4">
-        <f>J9*J103</f>
-        <v>10232.073854232396</v>
-      </c>
-      <c r="L110" s="4">
-        <f>L9*L103</f>
-        <v>7849.6736135318552</v>
-      </c>
-      <c r="M110" s="4">
-        <f>M9*M103</f>
-        <v>8070.7332977742253</v>
-      </c>
-      <c r="O110" s="4">
-        <f>O9*O103</f>
-        <v>8980.1836563882662</v>
-      </c>
-      <c r="P110" s="4">
-        <f>P9*P103</f>
-        <v>15062.880753481793</v>
-      </c>
-      <c r="R110" s="4">
-        <f>R9*R103</f>
-        <v>12157.479557940313</v>
-      </c>
-      <c r="S110" s="4">
-        <f>S9*S103</f>
-        <v>2754.9622222978528</v>
-      </c>
-      <c r="U110" s="4">
-        <f>U9*U103</f>
-        <v>11117.496404882721</v>
-      </c>
-      <c r="V110" s="4">
-        <f>V9*V103</f>
-        <v>6272.085598102437</v>
-      </c>
-      <c r="X110" s="4">
-        <f>X9*X103</f>
-        <v>8387.5399418662691</v>
-      </c>
-      <c r="Y110" s="4">
-        <f>Y9*Y103</f>
-        <v>1337.0775164643151</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B111" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F111" s="4">
-        <f>F110*$F$14</f>
-        <v>5250</v>
-      </c>
-      <c r="G111" s="4">
-        <f>G110*$F$14</f>
-        <v>7000</v>
-      </c>
-      <c r="I111" s="4">
-        <f>I110*$F$14</f>
-        <v>6198.2029731437851</v>
-      </c>
-      <c r="J111" s="4">
-        <f>J110*$F$14</f>
-        <v>7162.4516979626769</v>
-      </c>
-      <c r="L111" s="4">
-        <f>L110*$F$14</f>
-        <v>5494.7715294722984</v>
-      </c>
-      <c r="M111" s="4">
-        <f>M110*$F$14</f>
-        <v>5649.5133084419576</v>
-      </c>
-      <c r="O111" s="4">
-        <f>O110*$F$14</f>
-        <v>6286.1285594717856</v>
-      </c>
-      <c r="P111" s="4">
-        <f>P110*$F$14</f>
-        <v>10544.016527437254</v>
-      </c>
-      <c r="R111" s="4">
-        <f>R110*$F$14</f>
-        <v>8510.2356905582183</v>
-      </c>
-      <c r="S111" s="4">
-        <f>S110*$F$14</f>
-        <v>1928.4735556084968</v>
-      </c>
-      <c r="U111" s="4">
-        <f>U110*$F$14</f>
-        <v>7782.2474834179038</v>
-      </c>
-      <c r="V111" s="4">
-        <f>V110*$F$14</f>
-        <v>4390.459918671706</v>
-      </c>
-      <c r="X111" s="4">
-        <f>X110*$F$14</f>
-        <v>5871.2779593063879</v>
-      </c>
-      <c r="Y111" s="4">
-        <f>Y110*$F$14</f>
-        <v>935.95426152502046</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B112" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="F112" s="4">
-        <f>F110*(1-$F$14)</f>
-        <v>2250.0000000000005</v>
-      </c>
-      <c r="G112" s="4">
-        <f>G110*(1-$F$14)</f>
-        <v>3000.0000000000005</v>
-      </c>
-      <c r="I112" s="4">
-        <f>I110*(1-$F$14)</f>
-        <v>2656.3727027759087</v>
-      </c>
-      <c r="J112" s="4">
-        <f>J110*(1-$F$14)</f>
-        <v>3069.6221562697192</v>
-      </c>
-      <c r="L112" s="4">
-        <f>L110*(1-$F$14)</f>
-        <v>2354.9020840595567</v>
-      </c>
-      <c r="M112" s="4">
-        <f>M110*(1-$F$14)</f>
-        <v>2421.2199893322681</v>
-      </c>
-      <c r="O112" s="4">
-        <f>O110*(1-$F$14)</f>
-        <v>2694.0550969164801</v>
-      </c>
-      <c r="P112" s="4">
-        <f>P110*(1-$F$14)</f>
-        <v>4518.8642260445386</v>
-      </c>
-      <c r="R112" s="4">
-        <f>R110*(1-$F$14)</f>
-        <v>3647.2438673820943</v>
-      </c>
-      <c r="S112" s="4">
-        <f>S110*(1-$F$14)</f>
-        <v>826.48866668935591</v>
-      </c>
-      <c r="U112" s="4">
-        <f>U110*(1-$F$14)</f>
-        <v>3335.2489214648167</v>
-      </c>
-      <c r="V112" s="4">
-        <f>V110*(1-$F$14)</f>
-        <v>1881.6256794307315</v>
-      </c>
-      <c r="X112" s="4">
-        <f>X110*(1-$F$14)</f>
-        <v>2516.2619825598813</v>
-      </c>
-      <c r="Y112" s="4">
-        <f>Y110*(1-$F$14)</f>
-        <v>401.12325493929455</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B113" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F113" s="4">
-        <f>F110*$F19</f>
-        <v>2250</v>
-      </c>
-      <c r="G113" s="4">
-        <f>G110*$G19</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Z114">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AA114">
-        <f>SUM(Z$6:Z114)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AB114">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="B115" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F115" s="4">
-        <f>MAX(F13-F25, 0)*F125</f>
-        <v>741757.5</v>
-      </c>
-      <c r="G115" s="4">
-        <f>MAX(G13-G25, 0)*G125</f>
-        <v>19970010</v>
-      </c>
-      <c r="I115" s="4">
-        <f>MAX(I13-I25, 0)*I125</f>
-        <v>697350.12103057199</v>
-      </c>
-      <c r="J115" s="4">
-        <f>MAX(J13-J25, 0)*J125</f>
-        <v>18564257.684882641</v>
-      </c>
-      <c r="L115" s="4">
-        <f>MAX(L13-L25, 0)*L125</f>
-        <v>585369.23701022298</v>
-      </c>
-      <c r="M115" s="4">
-        <f>MAX(M13-M25, 0)*M125</f>
-        <v>17125702.279067256</v>
-      </c>
-      <c r="O115" s="4">
-        <f>MAX(O13-O25, 0)*O125</f>
-        <v>481800.15068599832</v>
-      </c>
-      <c r="P115" s="4">
-        <f>MAX(P13-P25, 0)*P125</f>
-        <v>15631637.942930376</v>
-      </c>
-      <c r="R115" s="4">
-        <f>MAX(R13-R25, 0)*R125</f>
-        <v>383702.35403091385</v>
-      </c>
-      <c r="S115" s="4">
-        <f>MAX(S13-S25, 0)*S125</f>
-        <v>14140812.522895874</v>
-      </c>
-      <c r="U115" s="4">
-        <f>MAX(U13-U25, 0)*U125</f>
-        <v>267600.05212584679</v>
-      </c>
-      <c r="V115" s="4">
-        <f>MAX(V13-V25, 0)*V125</f>
-        <v>11918480.929873837</v>
-      </c>
-      <c r="X115" s="4">
-        <f>MAX(X13-X25, 0)*X125</f>
-        <v>193429.6900855636</v>
-      </c>
-      <c r="Y115" s="4">
-        <f>MAX(Y13-Y25, 0)*Y125</f>
-        <v>2523718.9695364693</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="E117" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
-      <c r="O117" s="8"/>
-      <c r="P117" s="8"/>
-      <c r="R117" s="8"/>
-      <c r="S117" s="8"/>
-      <c r="U117" s="8"/>
-      <c r="V117" s="8"/>
-      <c r="X117" s="8"/>
-      <c r="Y117" s="8"/>
-    </row>
-    <row r="118" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B118" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F118" s="4">
-        <f>MIN(F130,F31)</f>
-        <v>2000000</v>
-      </c>
-      <c r="I118" s="4">
-        <f>MIN(I130,I31)</f>
-        <v>2050000</v>
-      </c>
-      <c r="L118" s="4">
-        <f>MIN(L130,L31)</f>
-        <v>2110000</v>
-      </c>
-      <c r="O118" s="4">
-        <f>MIN(O130,O31)</f>
-        <v>2210000</v>
-      </c>
-      <c r="R118" s="4">
-        <f>MIN(R130,R31)</f>
-        <v>3000000</v>
-      </c>
-      <c r="U118" s="4">
-        <f>MIN(U130,U31)</f>
-        <v>12186080.981999684</v>
-      </c>
-      <c r="X118" s="4">
-        <f>MIN(X130,X31)</f>
-        <v>1776649.2395067073</v>
-      </c>
-    </row>
-    <row r="119" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="B119" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F119" s="4">
-        <f>F31-F118</f>
-        <v>0</v>
-      </c>
-      <c r="I119" s="4">
-        <f>I31-I118</f>
-        <v>0</v>
-      </c>
-      <c r="L119" s="4">
-        <f>L31-L118</f>
-        <v>0</v>
-      </c>
-      <c r="O119" s="4">
-        <f>O31-O118</f>
-        <v>0</v>
-      </c>
-      <c r="R119" s="4">
-        <f>R31-R118</f>
-        <v>0</v>
-      </c>
-      <c r="U119" s="4">
-        <f>U31-U118</f>
-        <v>12813919.018000316</v>
-      </c>
-      <c r="X119" s="4">
-        <f>X31-X118</f>
-        <v>743350.76049329271</v>
-      </c>
-    </row>
-    <row r="120" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B120" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F120" s="4">
-        <f>MIN(F31,F118)</f>
-        <v>2000000</v>
-      </c>
-      <c r="I120" s="4">
-        <f>MIN(I31,I118)</f>
-        <v>2050000</v>
-      </c>
-      <c r="L120" s="4">
-        <f>MIN(L31,L118)</f>
-        <v>2110000</v>
-      </c>
-      <c r="O120" s="4">
-        <f>MIN(O31,O118)</f>
-        <v>2210000</v>
-      </c>
-      <c r="R120" s="4">
-        <f>MIN(R31,R118)</f>
-        <v>3000000</v>
-      </c>
-      <c r="U120" s="4">
-        <f>MIN(U31,U118)</f>
-        <v>12186080.981999684</v>
-      </c>
-      <c r="X120" s="4">
-        <f>MIN(X31,X118)</f>
-        <v>1776649.2395067073</v>
-      </c>
-    </row>
-    <row r="121" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B121" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F121" s="4">
-        <f>MIN(F119,G68)</f>
-        <v>0</v>
-      </c>
-      <c r="I121" s="4">
-        <f>MIN(I119,J68)</f>
-        <v>0</v>
-      </c>
-      <c r="L121" s="4">
-        <f>MIN(L119,M68)</f>
-        <v>0</v>
-      </c>
-      <c r="O121" s="4">
-        <f>MIN(O119,P68)</f>
-        <v>0</v>
-      </c>
-      <c r="R121" s="4">
-        <f>MIN(R119,S68)</f>
-        <v>0</v>
-      </c>
-      <c r="U121" s="4">
-        <f>MIN(U119,V68)</f>
-        <v>30.146330393199996</v>
-      </c>
-      <c r="X121" s="4">
-        <f>MIN(X119,Y68)</f>
-        <v>53.914123679999996</v>
-      </c>
-    </row>
-    <row r="122" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="B122" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F122" s="4">
-        <f>F131*F120</f>
-        <v>71626.673097793318</v>
-      </c>
-      <c r="G122" s="4">
-        <f>G131*F120</f>
-        <v>1928373.3269022068</v>
-      </c>
-      <c r="I122" s="4">
-        <f>I131*I120</f>
-        <v>74218.505667725345</v>
-      </c>
-      <c r="J122" s="4">
-        <f>J131*I120</f>
-        <v>1975781.4943322747</v>
-      </c>
-      <c r="L122" s="4">
-        <f>L131*L120</f>
-        <v>69737.682949920025</v>
-      </c>
-      <c r="M122" s="4">
-        <f>M131*L120</f>
-        <v>2040262.31705008</v>
-      </c>
-      <c r="O122" s="4">
-        <f>O131*O120</f>
-        <v>66080.145455604987</v>
-      </c>
-      <c r="P122" s="4">
-        <f>P131*O120</f>
-        <v>2143919.8545443951</v>
-      </c>
-      <c r="R122" s="4">
-        <f>R131*R120</f>
-        <v>79252.702885199687</v>
-      </c>
-      <c r="S122" s="4">
-        <f>S131*R120</f>
-        <v>2920747.2971148002</v>
-      </c>
-      <c r="U122" s="4">
-        <f>U131*U120</f>
-        <v>267600.05212584679</v>
-      </c>
-      <c r="V122" s="4">
-        <f>V131*U120</f>
-        <v>11918480.929873837</v>
-      </c>
-      <c r="X122" s="4">
-        <f>X131*X120</f>
-        <v>193429.6900855636</v>
-      </c>
-      <c r="Y122" s="4">
-        <f>Y131*X120</f>
-        <v>1583219.5494211437</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B123" s="45"/>
-    </row>
-    <row r="124" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="E124" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-      <c r="R124" s="8"/>
-      <c r="S124" s="8"/>
-      <c r="U124" s="8"/>
-      <c r="V124" s="8"/>
-      <c r="X124" s="8"/>
-      <c r="Y124" s="8"/>
-    </row>
-    <row r="125" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A125" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B125" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F125" s="4">
-        <f>MAX(F103-$F20,0)</f>
-        <v>149.85</v>
-      </c>
-      <c r="G125" s="4">
-        <f>MAX(G103-$G20,0)</f>
-        <v>99.9</v>
-      </c>
-      <c r="I125" s="4">
-        <f>MAX(I103-$F20,0)</f>
-        <v>142.66573670838216</v>
-      </c>
-      <c r="J125" s="4">
-        <f>MAX(J103-$G20,0)</f>
-        <v>92.918853220294508</v>
-      </c>
-      <c r="L125" s="4">
-        <f>MAX(L103-$F20,0)</f>
-        <v>135.18920023330784</v>
-      </c>
-      <c r="M125" s="4">
-        <f>MAX(M103-$G20,0)</f>
-        <v>85.758864869938577</v>
-      </c>
-      <c r="O125" s="4">
-        <f>MAX(O103-$F20,0)</f>
-        <v>128.1383379484038</v>
-      </c>
-      <c r="P125" s="4">
-        <f>MAX(P103-$G20,0)</f>
-        <v>78.352503924384351</v>
-      </c>
-      <c r="R125" s="4">
-        <f>MAX(R103-$F20,0)</f>
-        <v>121.42479557940312</v>
-      </c>
-      <c r="S125" s="4">
-        <f>MAX(S103-$G20,0)</f>
-        <v>70.54005698199623</v>
-      </c>
-      <c r="U125" s="4">
-        <f>MAX(U103-$F20,0)</f>
-        <v>113.29384086615021</v>
-      </c>
-      <c r="V125" s="4">
-        <f>MAX(V103-$G20,0)</f>
-        <v>59.634148553356539</v>
-      </c>
-      <c r="X125" s="4">
-        <f>MAX(X103-$F20,0)</f>
-        <v>85.437142263941524</v>
-      </c>
-      <c r="Y125" s="4">
-        <f>MAX(Y103-$G20,0)</f>
-        <v>12.63407158537443</v>
-      </c>
-    </row>
-    <row r="126" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B126" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F126" s="4">
-        <f>F125/$F$21</f>
-        <v>1</v>
-      </c>
-      <c r="G126" s="4">
-        <f>G125/$G$21</f>
-        <v>1</v>
-      </c>
-      <c r="I126" s="4">
-        <f>I125/$F$21</f>
-        <v>0.95205696835757203</v>
-      </c>
-      <c r="J126" s="4">
-        <f>J125/$G$21</f>
-        <v>0.93011865085379886</v>
-      </c>
-      <c r="L126" s="4">
-        <f>L125/$F$21</f>
-        <v>0.90216349838710608</v>
-      </c>
-      <c r="M126" s="4">
-        <f>M125/$G$21</f>
-        <v>0.85844709579518086</v>
-      </c>
-      <c r="O126" s="4">
-        <f>O125/$F$21</f>
-        <v>0.85511069701971176</v>
-      </c>
-      <c r="P126" s="4">
-        <f>P125/$G$21</f>
-        <v>0.78430934859243595</v>
-      </c>
-      <c r="R126" s="4">
-        <f>R125/$F$21</f>
-        <v>0.81030894614216298</v>
-      </c>
-      <c r="S126" s="4">
-        <f>S125/$G$21</f>
-        <v>0.70610667649645875</v>
-      </c>
-      <c r="U126" s="4">
-        <f>U125/$F$21</f>
-        <v>0.7560483207617632</v>
-      </c>
-      <c r="V126" s="4">
-        <f>V125/$G$21</f>
-        <v>0.59693842395752283</v>
-      </c>
-      <c r="X126" s="4">
-        <f>X125/$F$21</f>
-        <v>0.57015109952580267</v>
-      </c>
-      <c r="Y126" s="4">
-        <f>Y125/$G$21</f>
-        <v>0.12646718303678109</v>
-      </c>
-      <c r="Z126">
-        <v>0.5</v>
-      </c>
-      <c r="AA126">
-        <f>SUM(Z$6:Z126)</f>
-        <v>1.6</v>
-      </c>
-      <c r="AB126">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B127" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="F127" s="4">
-        <f>MAX(MIN(F126/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G127" s="4">
-        <f>MAX(MIN((G126-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
+        <f>MIN(F138,F126)</f>
+        <v>1988625</v>
       </c>
       <c r="I127" s="4">
-        <f>MAX(MIN(I126/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="J127" s="4">
-        <f>MAX(MIN((J126-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
+        <f>MIN(I138,I126)</f>
+        <v>2037610.1393623354</v>
       </c>
       <c r="L127" s="4">
-        <f>MAX(MIN(L126/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="M127" s="4">
-        <f>MAX(MIN((M126-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
+        <f>MIN(L138,L126)</f>
+        <v>2099702.1154226013</v>
       </c>
       <c r="O127" s="4">
-        <f>MAX(MIN(O126/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="P127" s="4">
-        <f>MAX(MIN((P126-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
+        <f>MIN(O138,O126)</f>
+        <v>2194707.0195173891</v>
       </c>
       <c r="R127" s="4">
-        <f>MAX(MIN(R126/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="S127" s="4">
-        <f>MAX(MIN((S126-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
+        <f>MIN(R138,R126)</f>
+        <v>2990183.5440003192</v>
       </c>
       <c r="U127" s="4">
-        <f>MAX(MIN(U126/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V127" s="4">
-        <f>MAX(MIN((V126-$F$15)/$F$16, 1), 0)</f>
-        <v>1</v>
+        <f>MIN(U138,U126)</f>
+        <v>12231999.624780035</v>
       </c>
       <c r="X127" s="4">
-        <f>MAX(MIN(X126/$F$16, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y127" s="4">
-        <f>MAX(MIN((Y126-$F$15)/$F$16, 1), 0)</f>
-        <v>0.62733591518390541</v>
-      </c>
-      <c r="Z127">
-        <v>0.3</v>
-      </c>
-      <c r="AA127">
-        <f>SUM(Z$6:Z127)</f>
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="AB127">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Z128">
-        <v>0.2</v>
-      </c>
-      <c r="AA128">
-        <f>SUM(Z$6:Z128)</f>
-        <v>2.1</v>
-      </c>
-      <c r="AB128">
-        <v>20</v>
+        <f>MIN(X138,X126)</f>
+        <v>1789147.7110482706</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B128" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F128" s="4">
+        <f>F126-F127</f>
+        <v>0</v>
+      </c>
+      <c r="I128" s="4">
+        <f>I126-I127</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="4">
+        <f>L126-L127</f>
+        <v>0</v>
+      </c>
+      <c r="O128" s="4">
+        <f>O126-O127</f>
+        <v>0</v>
+      </c>
+      <c r="R128" s="4">
+        <f>R126-R127</f>
+        <v>0</v>
+      </c>
+      <c r="U128" s="4">
+        <f>U126-U127</f>
+        <v>12756886.185153088</v>
+      </c>
+      <c r="X128" s="4">
+        <f>X126-X127</f>
+        <v>725041.95169268688</v>
       </c>
     </row>
     <row r="129" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B129" s="40" t="s">
-        <v>180</v>
+        <v>223</v>
+      </c>
+      <c r="B129" s="43" t="s">
+        <v>164</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="F129" s="4">
-        <f>F115*F127</f>
-        <v>741757.5</v>
-      </c>
-      <c r="G129" s="4">
-        <f>G115*G127</f>
-        <v>19970010</v>
+        <f>MIN(F128,G75)</f>
+        <v>0</v>
       </c>
       <c r="I129" s="4">
-        <f>I115*I127</f>
-        <v>697350.12103057199</v>
-      </c>
-      <c r="J129" s="4">
-        <f>J115*J127</f>
-        <v>18564257.684882641</v>
+        <f>MIN(I128,J75)</f>
+        <v>0</v>
       </c>
       <c r="L129" s="4">
-        <f>L115*L127</f>
-        <v>585369.23701022298</v>
-      </c>
-      <c r="M129" s="4">
-        <f>M115*M127</f>
-        <v>17125702.279067256</v>
+        <f>MIN(L128,M75)</f>
+        <v>0</v>
       </c>
       <c r="O129" s="4">
-        <f>O115*O127</f>
-        <v>481800.15068599832</v>
-      </c>
-      <c r="P129" s="4">
-        <f>P115*P127</f>
-        <v>15631637.942930376</v>
+        <f>MIN(O128,P75)</f>
+        <v>0</v>
       </c>
       <c r="R129" s="4">
-        <f>R115*R127</f>
-        <v>383702.35403091385</v>
-      </c>
-      <c r="S129" s="4">
-        <f>S115*S127</f>
-        <v>14140812.522895874</v>
+        <f>MIN(R128,S75)</f>
+        <v>0</v>
       </c>
       <c r="U129" s="4">
-        <f>U115*U127</f>
-        <v>267600.05212584679</v>
-      </c>
-      <c r="V129" s="4">
-        <f>V115*V127</f>
-        <v>11918480.929873837</v>
+        <f>MIN(U128,V75)</f>
+        <v>30.146330393199996</v>
       </c>
       <c r="X129" s="4">
-        <f>X115*X127</f>
-        <v>193429.6900855636</v>
-      </c>
-      <c r="Y129" s="4">
-        <f>Y115*Y127</f>
-        <v>1583219.5494211437</v>
-      </c>
-      <c r="Z129">
-        <v>0.125</v>
-      </c>
-      <c r="AA129">
-        <f>SUM(Z$6:Z147)</f>
-        <v>2.2250000000000001</v>
-      </c>
-      <c r="AB129">
-        <v>20</v>
+        <f>MIN(X128,Y75)</f>
+        <v>53.914123679999996</v>
       </c>
     </row>
     <row r="130" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B130" s="40" t="s">
-        <v>180</v>
+        <v>278</v>
+      </c>
+      <c r="B130" s="43" t="s">
+        <v>164</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="F130" s="4">
-        <f>F129+G129</f>
-        <v>20711767.5</v>
+        <f>F139*F127</f>
+        <v>71219.296394549616</v>
       </c>
       <c r="G130" s="4">
-        <f>F130</f>
-        <v>20711767.5</v>
+        <f>G139*F127</f>
+        <v>1917405.7036054505</v>
       </c>
       <c r="I130" s="4">
-        <f>I129+J129</f>
-        <v>19261607.805913214</v>
+        <f>I139*I127</f>
+        <v>73756.795864359185</v>
       </c>
       <c r="J130" s="4">
-        <f>I130</f>
-        <v>19261607.805913214</v>
+        <f>J139*I127</f>
+        <v>1963853.343497976</v>
       </c>
       <c r="L130" s="4">
-        <f>L129+M129</f>
-        <v>17711071.516077477</v>
+        <f>L139*L127</f>
+        <v>69369.234990881247</v>
       </c>
       <c r="M130" s="4">
-        <f>L130</f>
-        <v>17711071.516077477</v>
+        <f>M139*L127</f>
+        <v>2030332.8804317201</v>
       </c>
       <c r="O130" s="4">
-        <f>O129+P129</f>
-        <v>16113438.093616374</v>
+        <f>O139*O127</f>
+        <v>65578.525427093409</v>
       </c>
       <c r="P130" s="4">
-        <f>O130</f>
-        <v>16113438.093616374</v>
+        <f>P139*O127</f>
+        <v>2129128.4940902959</v>
       </c>
       <c r="R130" s="4">
-        <f>R129+S129</f>
-        <v>14524514.876926789</v>
+        <f>R139*R127</f>
+        <v>78897.979298843828</v>
       </c>
       <c r="S130" s="4">
-        <f>R130</f>
-        <v>14524514.876926789</v>
+        <f>S139*R127</f>
+        <v>2911285.5647014757</v>
       </c>
       <c r="U130" s="4">
-        <f>U129+V129</f>
-        <v>12186080.981999684</v>
+        <f>U139*U127</f>
+        <v>268100.68087206065</v>
       </c>
       <c r="V130" s="4">
-        <f>U130</f>
-        <v>12186080.981999684</v>
+        <f>V139*U127</f>
+        <v>11963898.943907974</v>
       </c>
       <c r="X130" s="4">
-        <f>X129+Y129</f>
-        <v>1776649.2395067073</v>
+        <f>X139*X127</f>
+        <v>193790.29082328439</v>
       </c>
       <c r="Y130" s="4">
-        <f>X130</f>
-        <v>1776649.2395067073</v>
-      </c>
-    </row>
-    <row r="131" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+        <f>Y139*X127</f>
+        <v>1595357.4202249863</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B131" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F131" s="4">
-        <f>F129/F130</f>
-        <v>3.5813336548896658E-2</v>
-      </c>
-      <c r="G131" s="4">
-        <f>G129/G130</f>
-        <v>0.96418666345110338</v>
-      </c>
-      <c r="I131" s="4">
-        <f>I129/I130</f>
-        <v>3.6204149106207485E-2</v>
-      </c>
-      <c r="J131" s="4">
-        <f>J129/J130</f>
-        <v>0.96379585089379249</v>
-      </c>
-      <c r="L131" s="4">
-        <f>L129/L130</f>
-        <v>3.305103457342181E-2</v>
-      </c>
-      <c r="M131" s="4">
-        <f>M129/M130</f>
-        <v>0.96694896542657827</v>
-      </c>
-      <c r="O131" s="4">
-        <f>O129/O130</f>
-        <v>2.9900518305703613E-2</v>
-      </c>
-      <c r="P131" s="4">
-        <f>P129/P130</f>
-        <v>0.97009948169429638</v>
-      </c>
-      <c r="R131" s="4">
-        <f>R129/R130</f>
-        <v>2.6417567628399898E-2</v>
-      </c>
-      <c r="S131" s="4">
-        <f>S129/S130</f>
-        <v>0.97358243237160003</v>
-      </c>
-      <c r="U131" s="4">
-        <f>U129/U130</f>
-        <v>2.1959484145979698E-2</v>
-      </c>
-      <c r="V131" s="4">
-        <f>V129/V130</f>
-        <v>0.9780405158540203</v>
-      </c>
-      <c r="X131" s="4">
-        <f>X129/X130</f>
-        <v>0.1088733137550944</v>
-      </c>
-      <c r="Y131" s="4">
-        <f>Y129/Y130</f>
-        <v>0.89112668624490565</v>
-      </c>
-    </row>
-    <row r="133" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="E133" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-    </row>
-    <row r="134" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="B131" s="43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="E132" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+      <c r="R132" s="8"/>
+      <c r="S132" s="8"/>
+      <c r="U132" s="8"/>
+      <c r="V132" s="8"/>
+      <c r="X132" s="8"/>
+      <c r="Y132" s="8"/>
+    </row>
+    <row r="133" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A133" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B133" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F133" s="4">
+        <f>MAX(F111-$F21,0)</f>
+        <v>149.85</v>
+      </c>
+      <c r="G133" s="4">
+        <f>MAX(G111-$G21,0)</f>
+        <v>99.9</v>
+      </c>
+      <c r="I133" s="4">
+        <f>MAX(I111-$F21,0)</f>
+        <v>142.7065972058532</v>
+      </c>
+      <c r="J133" s="4">
+        <f>MAX(J111-$G21,0)</f>
+        <v>92.96265349260409</v>
+      </c>
+      <c r="L133" s="4">
+        <f>MAX(L111-$F21,0)</f>
+        <v>135.27657957448451</v>
+      </c>
+      <c r="M133" s="4">
+        <f>MAX(M111-$G21,0)</f>
+        <v>85.850234751890639</v>
+      </c>
+      <c r="O133" s="4">
+        <f>MAX(O111-$F21,0)</f>
+        <v>128.2629495566479</v>
+      </c>
+      <c r="P133" s="4">
+        <f>MAX(P111-$G21,0)</f>
+        <v>78.483377636421963</v>
+      </c>
+      <c r="R133" s="4">
+        <f>MAX(R111-$F21,0)</f>
+        <v>121.60045066816581</v>
+      </c>
+      <c r="S133" s="4">
+        <f>MAX(S111-$G21,0)</f>
+        <v>70.729833439897206</v>
+      </c>
+      <c r="U133" s="4">
+        <f>MAX(U111-$F21,0)</f>
+        <v>113.50579207115184</v>
+      </c>
+      <c r="V133" s="4">
+        <f>MAX(V111-$G21,0)</f>
+        <v>59.861397697928425</v>
+      </c>
+      <c r="X133" s="4">
+        <f>MAX(X111-$F21,0)</f>
+        <v>85.596418208164479</v>
+      </c>
+      <c r="Y133" s="4">
+        <f>MAX(Y111-$G21,0)</f>
+        <v>12.682217278399568</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="B134" s="43" t="s">
-        <v>166</v>
+        <v>189</v>
+      </c>
+      <c r="B134" s="40" t="s">
+        <v>175</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="F134" s="4">
-        <f>(F102 - F122 - F110)*$F$28</f>
-        <v>2841.7466538044137</v>
+        <f>F133/$F$22</f>
+        <v>1</v>
       </c>
       <c r="G134" s="4">
-        <f>(G102 - G122 - G110)*$G$28</f>
-        <v>46123.25334619559</v>
+        <f>G133/$G$22</f>
+        <v>1</v>
       </c>
       <c r="I134" s="4">
-        <f>(I102 - I122 - I110)*$F$28</f>
-        <v>2675.8869978095149</v>
+        <f>I133/$F$22</f>
+        <v>0.95232964435003808</v>
       </c>
       <c r="J134" s="4">
-        <f>(J102 - J122 - J110)*$G$28</f>
-        <v>42518.79570313017</v>
+        <f>J133/$G$22</f>
+        <v>0.93055709201805892</v>
       </c>
       <c r="L134" s="4">
-        <f>(L102 - L122 - L110)*$F$28</f>
-        <v>2521.2933106869928</v>
+        <f>L133/$F$22</f>
+        <v>0.9027466104403371</v>
       </c>
       <c r="M134" s="4">
-        <f>(M102 - M122 - M110)*$G$28</f>
-        <v>38796.705611028199</v>
+        <f>M133/$G$22</f>
+        <v>0.85936170922813448</v>
       </c>
       <c r="O134" s="4">
-        <f>(O102 - O122 - O110)*$F$28</f>
-        <v>2372.0280658416323</v>
+        <f>O133/$F$22</f>
+        <v>0.85594227265030298</v>
       </c>
       <c r="P134" s="4">
-        <f>(P102 - P122 - P110)*$G$28</f>
-        <v>34860.587369210392</v>
+        <f>P133/$G$22</f>
+        <v>0.78561939575997952</v>
       </c>
       <c r="R134" s="4">
-        <f>(R102 - R122 - R110)*$F$28</f>
-        <v>2190.3196448236695</v>
+        <f>R133/$F$22</f>
+        <v>0.8114811522733788</v>
       </c>
       <c r="S134" s="4">
-        <f>(S102 - S122 - S110)*$G$28</f>
-        <v>29402.94903579777</v>
+        <f>S133/$G$22</f>
+        <v>0.70800634073971169</v>
       </c>
       <c r="U134" s="4">
-        <f>(U102 - U122 - U110)*$F$28</f>
-        <v>1634.2999084725632</v>
+        <f>U133/$F$22</f>
+        <v>0.75746274321756324</v>
       </c>
       <c r="V134" s="4">
-        <f>(V102 - V122 - V110)*$G$28</f>
-        <v>5953.652706782299</v>
+        <f>V133/$G$22</f>
+        <v>0.59921319016945362</v>
       </c>
       <c r="X134" s="4">
-        <f>(X102 - X122 - X110)*$F$28</f>
-        <v>1233.1340486007582</v>
+        <f>X133/$F$22</f>
+        <v>0.57121400205648643</v>
       </c>
       <c r="Y134" s="4">
-        <f>(Y102 - Y122 - Y110)*$G$28</f>
-        <v>3181.6229271827196</v>
+        <f>Y133/$G$22</f>
+        <v>0.12694912190590157</v>
+      </c>
+      <c r="Z134">
+        <v>0.5</v>
+      </c>
+      <c r="AA134">
+        <f>SUM(Z$6:Z134)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AB134">
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="B135" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>232</v>
+        <v>190</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="F135" s="4">
-        <f>F122*$F19</f>
-        <v>21488.001929337996</v>
+        <f>MAX(MIN(F134/$F$17, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="G135" s="4">
-        <f>(G122+F121)*$G19</f>
-        <v>482093.33172555169</v>
+        <f>MAX(MIN((G134-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="I135" s="4">
-        <f>I122*$F19</f>
-        <v>22265.551700317603</v>
+        <f>MAX(MIN(I134/$F$17, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="J135" s="4">
-        <f>(J122+I121)*$G19</f>
-        <v>493945.37358306866</v>
+        <f>MAX(MIN((J134-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="L135" s="4">
-        <f>L122*$F19</f>
-        <v>20921.304884976005</v>
+        <f>MAX(MIN(L134/$F$17, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="M135" s="4">
-        <f>(M122+L121)*$G19</f>
-        <v>510065.57926252001</v>
+        <f>MAX(MIN((M134-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="O135" s="4">
-        <f>O122*$F19</f>
-        <v>19824.043636681494</v>
+        <f>MAX(MIN(O134/$F$17, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="P135" s="4">
-        <f>(P122+O121)*$G19</f>
-        <v>535979.96363609878</v>
+        <f>MAX(MIN((P134-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="R135" s="4">
-        <f>R122*$F19</f>
-        <v>23775.810865559906</v>
+        <f>MAX(MIN(R134/$F$17, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="S135" s="4">
-        <f>(S122+R121)*$G19</f>
-        <v>730186.82427870005</v>
+        <f>MAX(MIN((S134-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="U135" s="4">
-        <f>U122*$F19</f>
-        <v>80280.015637754041</v>
+        <f>MAX(MIN(U134/$F$17, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="V135" s="4">
-        <f>(V122+U121)*$G19</f>
-        <v>2979627.7690510578</v>
+        <f>MAX(MIN((V134-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="X135" s="4">
-        <f>X122*$F19</f>
-        <v>58028.907025669083</v>
+        <f>MAX(MIN(X134/$F$17, 1), 0)</f>
+        <v>1</v>
       </c>
       <c r="Y135" s="4">
-        <f>(Y122+X121)*$G19</f>
-        <v>395818.36588620592</v>
-      </c>
-    </row>
-    <row r="148" spans="26:28" x14ac:dyDescent="0.2">
-      <c r="Z148">
+        <f>MAX(MIN((Y134-$F$16)/$F$17, 1), 0)</f>
+        <v>0.62974560952950787</v>
+      </c>
+      <c r="Z135">
+        <v>0.3</v>
+      </c>
+      <c r="AA135">
+        <f>SUM(Z$6:Z135)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AB135">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z136">
+        <v>0.2</v>
+      </c>
+      <c r="AA136">
+        <f>SUM(Z$6:Z136)</f>
+        <v>1</v>
+      </c>
+      <c r="AB136">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B137" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F137" s="4">
+        <f>F123*F135</f>
+        <v>741757.5</v>
+      </c>
+      <c r="G137" s="4">
+        <f>G123*G135</f>
+        <v>19970010</v>
+      </c>
+      <c r="I137" s="4">
+        <f>I123*I135</f>
+        <v>697549.84714221046</v>
+      </c>
+      <c r="J137" s="4">
+        <f>J123*J135</f>
+        <v>18573008.54128737</v>
+      </c>
+      <c r="L137" s="4">
+        <f>L123*L135</f>
+        <v>585747.5895575179</v>
+      </c>
+      <c r="M137" s="4">
+        <f>M123*M135</f>
+        <v>17143948.479013555</v>
+      </c>
+      <c r="O137" s="4">
+        <f>O123*O135</f>
+        <v>482268.69033299608</v>
+      </c>
+      <c r="P137" s="4">
+        <f>P123*P135</f>
+        <v>15657747.771976728</v>
+      </c>
+      <c r="R137" s="4">
+        <f>R123*R135</f>
+        <v>384257.42411140393</v>
+      </c>
+      <c r="S137" s="4">
+        <f>S123*S135</f>
+        <v>14178856.060528994</v>
+      </c>
+      <c r="U137" s="4">
+        <f>U123*U135</f>
+        <v>268100.68087206065</v>
+      </c>
+      <c r="V137" s="4">
+        <f>V123*V135</f>
+        <v>11963898.943907974</v>
+      </c>
+      <c r="X137" s="4">
+        <f>X123*X135</f>
+        <v>193790.29082328439</v>
+      </c>
+      <c r="Y137" s="4">
+        <f>Y123*Y135</f>
+        <v>1595357.4202249863</v>
+      </c>
+      <c r="Z137">
+        <v>0.125</v>
+      </c>
+      <c r="AA137">
+        <f>SUM(Z$6:Z155)</f>
+        <v>1.125</v>
+      </c>
+      <c r="AB137">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B138" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F138" s="4">
+        <f>F137+G137</f>
+        <v>20711767.5</v>
+      </c>
+      <c r="G138" s="4">
+        <f>F138</f>
+        <v>20711767.5</v>
+      </c>
+      <c r="I138" s="4">
+        <f>I137+J137</f>
+        <v>19270558.388429582</v>
+      </c>
+      <c r="J138" s="4">
+        <f>I138</f>
+        <v>19270558.388429582</v>
+      </c>
+      <c r="L138" s="4">
+        <f>L137+M137</f>
+        <v>17729696.068571072</v>
+      </c>
+      <c r="M138" s="4">
+        <f>L138</f>
+        <v>17729696.068571072</v>
+      </c>
+      <c r="O138" s="4">
+        <f>O137+P137</f>
+        <v>16140016.462309724</v>
+      </c>
+      <c r="P138" s="4">
+        <f>O138</f>
+        <v>16140016.462309724</v>
+      </c>
+      <c r="R138" s="4">
+        <f>R137+S137</f>
+        <v>14563113.484640397</v>
+      </c>
+      <c r="S138" s="4">
+        <f>R138</f>
+        <v>14563113.484640397</v>
+      </c>
+      <c r="U138" s="4">
+        <f>U137+V137</f>
+        <v>12231999.624780035</v>
+      </c>
+      <c r="V138" s="4">
+        <f>U138</f>
+        <v>12231999.624780035</v>
+      </c>
+      <c r="X138" s="4">
+        <f>X137+Y137</f>
+        <v>1789147.7110482706</v>
+      </c>
+      <c r="Y138" s="4">
+        <f>X138</f>
+        <v>1789147.7110482706</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B139" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F139" s="4">
+        <f>F137/F138</f>
+        <v>3.5813336548896658E-2</v>
+      </c>
+      <c r="G139" s="4">
+        <f>G137/G138</f>
+        <v>0.96418666345110338</v>
+      </c>
+      <c r="I139" s="4">
+        <f>I137/I138</f>
+        <v>3.6197697704547727E-2</v>
+      </c>
+      <c r="J139" s="4">
+        <f>J137/J138</f>
+        <v>0.96380230229545216</v>
+      </c>
+      <c r="L139" s="4">
+        <f>L137/L138</f>
+        <v>3.3037655428050795E-2</v>
+      </c>
+      <c r="M139" s="4">
+        <f>M137/M138</f>
+        <v>0.96696234457194918</v>
+      </c>
+      <c r="O139" s="4">
+        <f>O137/O138</f>
+        <v>2.9880309692322384E-2</v>
+      </c>
+      <c r="P139" s="4">
+        <f>P137/P138</f>
+        <v>0.97011969030767764</v>
+      </c>
+      <c r="R139" s="4">
+        <f>R137/R138</f>
+        <v>2.6385664337277688E-2</v>
+      </c>
+      <c r="S139" s="4">
+        <f>S137/S138</f>
+        <v>0.97361433566272237</v>
+      </c>
+      <c r="U139" s="4">
+        <f>U137/U138</f>
+        <v>2.1917976544810584E-2</v>
+      </c>
+      <c r="V139" s="4">
+        <f>V137/V138</f>
+        <v>0.97808202345518946</v>
+      </c>
+      <c r="X139" s="4">
+        <f>X137/X138</f>
+        <v>0.10831430497694441</v>
+      </c>
+      <c r="Y139" s="4">
+        <f>Y137/Y138</f>
+        <v>0.89168569502305561</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="E141" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="R141" s="8"/>
+      <c r="S141" s="8"/>
+      <c r="U141" s="8"/>
+      <c r="V141" s="8"/>
+      <c r="X141" s="8"/>
+      <c r="Y141" s="8"/>
+    </row>
+    <row r="142" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B142" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F142" s="4">
+        <f>(F110 - F130 - F118)*$F$29</f>
+        <v>2842.5614072109011</v>
+      </c>
+      <c r="G142" s="4">
+        <f>(G110 - G130 - G118)*$G$29</f>
+        <v>46145.188592789098</v>
+      </c>
+      <c r="I142" s="4">
+        <f>(I110 - I130 - I118)*$F$29</f>
+        <v>2677.6184746142349</v>
+      </c>
+      <c r="J142" s="4">
+        <f>(J110 - J130 - J118)*$G$29</f>
+        <v>42564.533744839202</v>
+      </c>
+      <c r="L142" s="4">
+        <f>(L110 - L130 - L118)*$F$29</f>
+        <v>2523.7480844526031</v>
+      </c>
+      <c r="M142" s="4">
+        <f>(M110 - M130 - M118)*$G$29</f>
+        <v>38862.193872352735</v>
+      </c>
+      <c r="O142" s="4">
+        <f>(O110 - O130 - O118)*$F$29</f>
+        <v>2375.4637244915798</v>
+      </c>
+      <c r="P142" s="4">
+        <f>(P110 - P130 - P118)*$G$29</f>
+        <v>34955.477119415053</v>
+      </c>
+      <c r="R142" s="4">
+        <f>(R110 - R130 - R118)*$F$29</f>
+        <v>2194.4227483112763</v>
+      </c>
+      <c r="S142" s="4">
+        <f>(S110 - S130 - S118)*$G$29</f>
+        <v>29516.557668764955</v>
+      </c>
+      <c r="U142" s="4">
+        <f>(U110 - U130 - U118)*$F$29</f>
+        <v>1637.352005824587</v>
+      </c>
+      <c r="V142" s="4">
+        <f>(V110 - V130 - V118)*$G$29</f>
+        <v>5976.1503720949167</v>
+      </c>
+      <c r="X142" s="4">
+        <f>(X110 - X130 - X118)*$F$29</f>
+        <v>1235.4276221975688</v>
+      </c>
+      <c r="Y142" s="4">
+        <f>(Y110 - Y130 - Y118)*$G$29</f>
+        <v>3181.3482950049956</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B143" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F143" s="4">
+        <f>F130*$F20</f>
+        <v>21365.788918364884</v>
+      </c>
+      <c r="G143" s="4">
+        <f>(G130+F129)*$G20</f>
+        <v>479351.42590136261</v>
+      </c>
+      <c r="I143" s="4">
+        <f>I130*$F20</f>
+        <v>22127.038759307754</v>
+      </c>
+      <c r="J143" s="4">
+        <f>(J130+I129)*$G20</f>
+        <v>490963.33587449399</v>
+      </c>
+      <c r="L143" s="4">
+        <f>L130*$F20</f>
+        <v>20810.770497264373</v>
+      </c>
+      <c r="M143" s="4">
+        <f>(M130+L129)*$G20</f>
+        <v>507583.22010793001</v>
+      </c>
+      <c r="O143" s="4">
+        <f>O130*$F20</f>
+        <v>19673.557628128023</v>
+      </c>
+      <c r="P143" s="4">
+        <f>(P130+O129)*$G20</f>
+        <v>532282.12352257397</v>
+      </c>
+      <c r="R143" s="4">
+        <f>R130*$F20</f>
+        <v>23669.393789653146</v>
+      </c>
+      <c r="S143" s="4">
+        <f>(S130+R129)*$G20</f>
+        <v>727821.39117536892</v>
+      </c>
+      <c r="U143" s="4">
+        <f>U130*$F20</f>
+        <v>80430.204261618186</v>
+      </c>
+      <c r="V143" s="4">
+        <f>(V130+U129)*$G20</f>
+        <v>2990982.272559592</v>
+      </c>
+      <c r="X143" s="4">
+        <f>X130*$F20</f>
+        <v>58137.087246985313</v>
+      </c>
+      <c r="Y143" s="4">
+        <f>(Y130+X129)*$G20</f>
+        <v>398852.83358716656</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B144" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F144" s="4">
+        <f>F118-F121*F122-F119</f>
+        <v>2175</v>
+      </c>
+      <c r="G144" s="4">
+        <f>G118-F121*G122-G119</f>
+        <v>2700</v>
+      </c>
+      <c r="I144" s="4">
+        <f>I118-I121*I122-I119</f>
+        <v>2562.2727080288705</v>
+      </c>
+      <c r="J144" s="4">
+        <f>J118-I121*J122-J119</f>
+        <v>2747.6675652559352</v>
+      </c>
+      <c r="L144" s="4">
+        <f>L118-L121*L122-L119</f>
+        <v>2265.9424845960316</v>
+      </c>
+      <c r="M144" s="4">
+        <f>M118-L121*M122-M119</f>
+        <v>2147.4366200033164</v>
+      </c>
+      <c r="O144" s="4">
+        <f>O118-O121*O122-O119</f>
+        <v>2597.9719406896065</v>
+      </c>
+      <c r="P144" s="4">
+        <f>P118-O121*P122-P119</f>
+        <v>3956.1625518579049</v>
+      </c>
+      <c r="R144" s="4">
+        <f>R118-R121*R122-R119</f>
+        <v>3496.5135200449749</v>
+      </c>
+      <c r="S144" s="4">
+        <f>S118-R121*S122-S119</f>
+        <v>710.53905124679738</v>
+      </c>
+      <c r="U144" s="4">
+        <f>U118-U121*U122-U119</f>
+        <v>3220.9402868918642</v>
+      </c>
+      <c r="V144" s="4">
+        <f>V118-U121*V122-V119</f>
+        <v>1542.2840274847454</v>
+      </c>
+      <c r="X144" s="4">
+        <f>X118-X121*X122-X119</f>
+        <v>2371.0046953200363</v>
+      </c>
+      <c r="Y144" s="4">
+        <f>Y118-X121*Y122-Y119</f>
+        <v>119.13984426958632</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B145" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F145" s="4">
+        <f>F118*$F20</f>
+        <v>2250</v>
+      </c>
+      <c r="G145" s="4">
+        <f>(G118+G46-G52)*$G20</f>
+        <v>2500</v>
+      </c>
+      <c r="I145" s="4">
+        <f>I118*$F20</f>
+        <v>2657.1327080288697</v>
+      </c>
+      <c r="J145" s="4">
+        <f>(J118+J46-J52)*$G20</f>
+        <v>2559.2229710466122</v>
+      </c>
+      <c r="L145" s="4">
+        <f>L118*$F20</f>
+        <v>2356.4224845960307</v>
+      </c>
+      <c r="M145" s="4">
+        <f>(M118+M46-M52)*$G20</f>
+        <v>2019.8305166694299</v>
+      </c>
+      <c r="O145" s="4">
+        <f>O118*$F20</f>
+        <v>2696.6719406896059</v>
+      </c>
+      <c r="P145" s="4">
+        <f>(P118+P46-P52)*$G20</f>
+        <v>3772.0021265482537</v>
+      </c>
+      <c r="R145" s="4">
+        <f>R118*$F20</f>
+        <v>3652.5135200449745</v>
+      </c>
+      <c r="S145" s="4">
+        <f>(S118+S46-S52)*$G20</f>
+        <v>690.59087603899775</v>
+      </c>
+      <c r="U145" s="4">
+        <f>U118*$F20</f>
+        <v>3341.4802868918646</v>
+      </c>
+      <c r="V145" s="4">
+        <f>(V118+V46-V52)*$G20</f>
+        <v>1573.9866895706211</v>
+      </c>
+      <c r="X145" s="4">
+        <f>X118*$F20</f>
+        <v>2520.9446953200354</v>
+      </c>
+      <c r="Y145" s="4">
+        <f>(Y118+Y46-Y52)*$G20</f>
+        <v>335.53320355798866</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A148" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F148" s="4">
+        <f>F144+F119</f>
+        <v>2425</v>
+      </c>
+      <c r="G148" s="4">
+        <f>G144+G119</f>
+        <v>3700</v>
+      </c>
+      <c r="I148" s="4">
+        <f>I144+I119</f>
+        <v>2878.4727080288703</v>
+      </c>
+      <c r="J148" s="4">
+        <f>J144+J119</f>
+        <v>3825.6675652559352</v>
+      </c>
+      <c r="L148" s="4">
+        <f>L144+L119</f>
+        <v>2567.5424845960315</v>
+      </c>
+      <c r="M148" s="4">
+        <f>M144+M119</f>
+        <v>3068.6366200033162</v>
+      </c>
+      <c r="O148" s="4">
+        <f>O144+O119</f>
+        <v>2926.9719406896065</v>
+      </c>
+      <c r="P148" s="4">
+        <f>P144+P119</f>
+        <v>5856.9625518579051</v>
+      </c>
+      <c r="R148" s="4">
+        <f>R144+R119</f>
+        <v>4016.5135200449749</v>
+      </c>
+      <c r="S148" s="4">
+        <f>S144+S119</f>
+        <v>1104.4390512467974</v>
+      </c>
+      <c r="U148" s="4">
+        <f>U144+U119</f>
+        <v>3622.7402868918643</v>
+      </c>
+      <c r="V148" s="4">
+        <f>V144+V119</f>
+        <v>2697.2840274847454</v>
+      </c>
+      <c r="X148" s="4">
+        <f>X144+X119</f>
+        <v>2870.8046953200364</v>
+      </c>
+      <c r="Y148" s="4">
+        <f>Y144+Y119</f>
+        <v>1064.1398442695863</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A150" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="F150" s="4">
+        <f>F121+F130+G130</f>
+        <v>2000000</v>
+      </c>
+      <c r="I150" s="4">
+        <f>I121+I130+J130</f>
+        <v>2049999.9999999998</v>
+      </c>
+      <c r="L150" s="4">
+        <f>L121+L130+M130</f>
+        <v>2110000</v>
+      </c>
+      <c r="O150" s="4">
+        <f>O121+O130+P130</f>
+        <v>2210000</v>
+      </c>
+      <c r="R150" s="4">
+        <f>R121+R130+S130</f>
+        <v>3000000.0000000005</v>
+      </c>
+      <c r="U150" s="4">
+        <f>U121+U130+V130</f>
+        <v>12243113.814846914</v>
+      </c>
+      <c r="X150" s="4">
+        <f>X121+X130+Y130</f>
+        <v>1794958.0483073131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="F151" s="4">
+        <f>F150/F32</f>
+        <v>1</v>
+      </c>
+      <c r="I151" s="4">
+        <f>I150/I32</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="L151" s="4">
+        <f>L150/L32</f>
+        <v>1</v>
+      </c>
+      <c r="O151" s="4">
+        <f>O150/O32</f>
+        <v>1</v>
+      </c>
+      <c r="R151" s="4">
+        <f>R150/R32</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="U151" s="4">
+        <f>U150/U32</f>
+        <v>0.48972455259387659</v>
+      </c>
+      <c r="X151" s="4">
+        <f>X150/X32</f>
+        <v>0.71228493980448937</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z156">
         <v>0.1225</v>
       </c>
-      <c r="AA148">
-        <f>SUM(Z$6:Z148)</f>
-        <v>2.3475000000000001</v>
-      </c>
-      <c r="AB148">
+      <c r="AA156">
+        <f>SUM(Z$6:Z156)</f>
+        <v>1.2475000000000001</v>
+      </c>
+      <c r="AB156">
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="26:28" x14ac:dyDescent="0.2">
-      <c r="Z149">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z157">
         <v>0.12239999999999999</v>
       </c>
-      <c r="AA149">
-        <f>SUM(Z$6:Z149)</f>
-        <v>2.4699</v>
-      </c>
-      <c r="AB149">
+      <c r="AA157">
+        <f>SUM(Z$6:Z157)</f>
+        <v>1.3699000000000001</v>
+      </c>
+      <c r="AB157">
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="26:28" x14ac:dyDescent="0.2">
-      <c r="Z150">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z158">
         <v>0.12230000000000001</v>
       </c>
-      <c r="AA150">
-        <f>SUM(Z$6:Z150)</f>
-        <v>2.5922000000000001</v>
-      </c>
-      <c r="AB150">
+      <c r="AA158">
+        <f>SUM(Z$6:Z158)</f>
+        <v>1.4922000000000002</v>
+      </c>
+      <c r="AB158">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A77:A80"/>
+  <mergeCells count="39">
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A84:A87"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D73:D76"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="R5:S5"/>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0D3A5A-4BFA-A141-BA66-D7C1EA47B56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD0B891-E9E5-5146-80A9-5D06FF780813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="760" windowWidth="26440" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="284">
   <si>
     <t>forest_primary_c_ha</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>removals allocation</t>
+  </si>
+  <si>
+    <t>removals from original</t>
   </si>
   <si>
     <t>stock to allocate from original pool excluding conversion</t>
@@ -609,9 +612,6 @@
     <t>arr_orig_biomass_c_allocation_excluding_conversion</t>
   </si>
   <si>
-    <t>arr_biomass_c_removed_from_original_unmet</t>
-  </si>
-  <si>
     <t>arr_orig_frac_stock available</t>
   </si>
   <si>
@@ -709,9 +709,6 @@
   </si>
   <si>
     <t>arr_biomass_c_bg_loss_removals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removals </t>
   </si>
   <si>
     <t>vec_biomass_c_removed_from_young</t>
@@ -883,9 +880,6 @@
     <t>arr_orig_biomass_c_removed_from_forests</t>
   </si>
   <si>
-    <t>vec_total_removals_fulfilled</t>
-  </si>
-  <si>
     <t>total removals met</t>
   </si>
   <si>
@@ -896,6 +890,12 @@
   </si>
   <si>
     <t>allocation of removals</t>
+  </si>
+  <si>
+    <t>vec_biomass_c_removed_from_original_unmet</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_removed_from_forests_excluding_conversion</t>
   </si>
 </sst>
 </file>
@@ -6339,8 +6339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
   <dimension ref="A1:AM158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6526,16 +6526,16 @@
     </row>
     <row r="5" spans="1:39" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>154</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>153</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>51</v>
@@ -6563,11 +6563,11 @@
       </c>
       <c r="V5" s="29"/>
       <c r="X5" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y5" s="29"/>
       <c r="AB5" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AC5" s="21" t="s">
         <v>33</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="6" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="B6" s="39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>24</v>
@@ -6662,10 +6662,10 @@
     </row>
     <row r="7" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>67</v>
@@ -6749,10 +6749,10 @@
     </row>
     <row r="8" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>114</v>
@@ -6838,10 +6838,10 @@
     </row>
     <row r="9" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>55</v>
@@ -6913,13 +6913,13 @@
     </row>
     <row r="10" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G10" s="4">
         <f>-MIN(G7-G9,0)</f>
@@ -6962,10 +6962,10 @@
     </row>
     <row r="11" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>113</v>
@@ -7011,10 +7011,10 @@
     </row>
     <row r="12" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>66</v>
@@ -7053,13 +7053,13 @@
     </row>
     <row r="13" spans="1:39" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F13" s="4">
         <f>MAX(F7-F9,0)</f>
@@ -7123,10 +7123,10 @@
     </row>
     <row r="14" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>54</v>
@@ -7165,16 +7165,16 @@
     </row>
     <row r="15" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F15" s="4">
         <v>5</v>
@@ -7224,13 +7224,13 @@
     </row>
     <row r="16" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F16" s="4">
         <v>1E-3</v>
@@ -7266,10 +7266,10 @@
     </row>
     <row r="17" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>118</v>
@@ -7293,14 +7293,14 @@
     </row>
     <row r="18" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F18" s="4">
         <v>0.67</v>
@@ -7318,10 +7318,10 @@
     </row>
     <row r="19" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>116</v>
@@ -7345,13 +7345,13 @@
     </row>
     <row r="20" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F20" s="4">
         <v>0.3</v>
@@ -7365,10 +7365,10 @@
     </row>
     <row r="21" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>115</v>
@@ -7394,13 +7394,13 @@
     </row>
     <row r="22" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F22" s="4">
         <f>F19-F21</f>
@@ -7435,10 +7435,10 @@
     </row>
     <row r="24" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>52</v>
@@ -7498,10 +7498,10 @@
     </row>
     <row r="25" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>108</v>
@@ -7547,13 +7547,13 @@
     </row>
     <row r="26" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F26" s="4">
         <f>MIN(F13,F24)</f>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="27" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="E27" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -7653,13 +7653,13 @@
     </row>
     <row r="28" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>68</v>
@@ -7673,14 +7673,14 @@
     </row>
     <row r="29" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F29" s="4">
         <f>F28/F19</f>
@@ -7715,10 +7715,10 @@
     </row>
     <row r="32" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>53</v>
@@ -7766,28 +7766,28 @@
     </row>
     <row r="35" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="E35" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G35" s="8"/>
       <c r="I35" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N35" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="O35" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>88</v>
@@ -7840,10 +7840,10 @@
     </row>
     <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>87</v>
@@ -8193,7 +8193,7 @@
         <v>195</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>199</v>
@@ -8333,7 +8333,7 @@
         <v>196</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="4">
@@ -8375,16 +8375,16 @@
     </row>
     <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G48" s="4">
         <f>MIN(G42,G$15*F37)</f>
@@ -8420,7 +8420,7 @@
       <c r="B49" s="37"/>
       <c r="D49" s="28"/>
       <c r="E49" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" ref="G49" si="6">MIN(G43,G$15*F38)</f>
@@ -8456,7 +8456,7 @@
       <c r="B50" s="37"/>
       <c r="D50" s="28"/>
       <c r="E50" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G50" s="4">
         <f>MIN(G44,G$15*F39)</f>
@@ -8492,7 +8492,7 @@
       <c r="B51" s="37"/>
       <c r="D51" s="28"/>
       <c r="E51" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G51" s="4">
         <f>MIN(G45,G$15*F40)</f>
@@ -8525,10 +8525,10 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E52" s="14"/>
       <c r="G52" s="4">
@@ -8568,7 +8568,7 @@
         <v>197</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>203</v>
@@ -8712,7 +8712,7 @@
         <v>198</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E58" s="14"/>
       <c r="G58" s="4">
@@ -8749,10 +8749,10 @@
     </row>
     <row r="60" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>90</v>
@@ -8892,10 +8892,10 @@
     </row>
     <row r="66" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>109</v>
@@ -9022,13 +9022,13 @@
     </row>
     <row r="71" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
@@ -9062,7 +9062,7 @@
       <c r="A72" s="48"/>
       <c r="B72" s="37"/>
       <c r="E72" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G72" s="4">
         <v>0</v>
@@ -9096,10 +9096,10 @@
       <c r="A73" s="48"/>
       <c r="B73" s="37"/>
       <c r="D73" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G73" s="4">
         <v>0</v>
@@ -9134,7 +9134,7 @@
       <c r="B74" s="37"/>
       <c r="D74" s="28"/>
       <c r="E74" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G74" s="4">
         <v>0</v>
@@ -9166,14 +9166,14 @@
     </row>
     <row r="75" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
@@ -9218,10 +9218,10 @@
     </row>
     <row r="77" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>88</v>
@@ -9255,7 +9255,7 @@
       <c r="A78" s="50"/>
       <c r="B78" s="37"/>
       <c r="E78" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F78" s="4">
         <f>SUM(G$71:G71)</f>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F79" s="4">
         <f>SUM(G$71:G72)</f>
@@ -9387,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F80" s="4">
         <f>SUM(G$71:G73)</f>
@@ -9453,7 +9453,7 @@
         <v>2</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F81" s="4">
         <f>SUM(G$71:G74)</f>
@@ -9521,33 +9521,33 @@
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="E83" s="14"/>
       <c r="I83" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R83" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U83" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X83" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G84" s="4">
         <f>G60</f>
@@ -9606,7 +9606,7 @@
       <c r="A85" s="47"/>
       <c r="B85" s="37"/>
       <c r="E85" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G85" s="4">
         <f>G61</f>
@@ -9665,7 +9665,7 @@
       <c r="A86" s="47"/>
       <c r="B86" s="37"/>
       <c r="E86" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G86" s="4">
         <f>G62</f>
@@ -9724,7 +9724,7 @@
       <c r="A87" s="47"/>
       <c r="B87" s="37"/>
       <c r="E87" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G87" s="4">
         <f>G63</f>
@@ -9787,7 +9787,7 @@
         <v>208</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E89" s="14" t="s">
         <v>209</v>
@@ -9934,7 +9934,7 @@
         <v>213</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>70</v>
@@ -10082,7 +10082,7 @@
         <v>214</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D99" s="35"/>
       <c r="E99" s="14" t="s">
@@ -10240,19 +10240,19 @@
     <row r="105" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="D105" s="35"/>
       <c r="E105" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G105" s="8"/>
     </row>
     <row r="106" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="14" t="s">
@@ -10317,13 +10317,13 @@
     </row>
     <row r="107" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F107" s="4">
         <f>F7*$F$19</f>
@@ -10384,13 +10384,13 @@
     </row>
     <row r="108" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F108" s="4">
         <v>1</v>
@@ -10449,13 +10449,13 @@
     </row>
     <row r="109" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F109" s="4">
         <f>F106</f>
@@ -10516,13 +10516,13 @@
     </row>
     <row r="110" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B110" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F110" s="4">
         <f>F7*F19</f>
@@ -10583,13 +10583,13 @@
     </row>
     <row r="111" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B111" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F111" s="4">
         <f>F110/F7</f>
@@ -10672,13 +10672,13 @@
     </row>
     <row r="114" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B114" s="44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F114" s="4">
         <f>F111*F7</f>
@@ -10739,13 +10739,13 @@
     </row>
     <row r="115" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B115" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G115" s="4">
         <f>SUM(G94:G97)</f>
@@ -10778,13 +10778,13 @@
     </row>
     <row r="116" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B116" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F116" s="4">
         <f>F114+F115</f>
@@ -10845,13 +10845,13 @@
     </row>
     <row r="117" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B117" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F117" s="4">
         <f>F110*$F$20</f>
@@ -10912,13 +10912,13 @@
     </row>
     <row r="118" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F118" s="4">
         <f>F9*F111</f>
@@ -10979,13 +10979,13 @@
     </row>
     <row r="119" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F119" s="4">
         <f>MIN(F118,F9*F15)</f>
@@ -11046,13 +11046,13 @@
     </row>
     <row r="120" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F120" s="4">
         <f>(F118-F119)*$F$14</f>
@@ -11113,13 +11113,13 @@
     </row>
     <row r="121" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F121" s="4">
         <f>MIN(F120+G120, F32)</f>
@@ -11152,13 +11152,13 @@
     </row>
     <row r="122" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F122" s="4">
         <f>F120/(F120+G120)</f>
@@ -11219,13 +11219,13 @@
     </row>
     <row r="123" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F123" s="4">
         <f>MAX(F13-F26, 0)*F133</f>
@@ -11304,14 +11304,14 @@
       <c r="Y125" s="8"/>
     </row>
     <row r="126" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="33" t="s">
-        <v>270</v>
+      <c r="A126" s="46" t="s">
+        <v>269</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F126" s="4">
         <f>MAX(F32-F121,0)</f>
@@ -11343,14 +11343,14 @@
       </c>
     </row>
     <row r="127" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="33" t="s">
-        <v>271</v>
+      <c r="A127" s="46" t="s">
+        <v>270</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F127" s="4">
         <f>MIN(F138,F126)</f>
@@ -11382,14 +11382,14 @@
       </c>
     </row>
     <row r="128" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="33" t="s">
-        <v>188</v>
+      <c r="A128" s="46" t="s">
+        <v>282</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F128" s="4">
         <f>F126-F127</f>
@@ -11421,14 +11421,14 @@
       </c>
     </row>
     <row r="129" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B129" s="43" t="s">
-        <v>164</v>
+      <c r="A129" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B129" s="40" t="s">
+        <v>176</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F129" s="4">
         <f>MIN(F128,G75)</f>
@@ -11460,14 +11460,14 @@
       </c>
     </row>
     <row r="130" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="B130" s="43" t="s">
-        <v>164</v>
+      <c r="A130" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B130" s="40" t="s">
+        <v>176</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="F130" s="4">
         <f>F139*F127</f>
@@ -11526,12 +11526,71 @@
         <v>1595357.4202249863</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A131" s="33" t="s">
-        <v>279</v>
+    <row r="131" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="46" t="s">
+        <v>283</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F131" s="4">
+        <f>F130</f>
+        <v>71219.296394549616</v>
+      </c>
+      <c r="G131" s="4">
+        <f>G130+F129</f>
+        <v>1917405.7036054505</v>
+      </c>
+      <c r="I131" s="4">
+        <f>I130</f>
+        <v>73756.795864359185</v>
+      </c>
+      <c r="J131" s="4">
+        <f>J130+I129</f>
+        <v>1963853.343497976</v>
+      </c>
+      <c r="L131" s="4">
+        <f>L130</f>
+        <v>69369.234990881247</v>
+      </c>
+      <c r="M131" s="4">
+        <f>M130+L129</f>
+        <v>2030332.8804317201</v>
+      </c>
+      <c r="O131" s="4">
+        <f>O130</f>
+        <v>65578.525427093409</v>
+      </c>
+      <c r="P131" s="4">
+        <f>P130+O129</f>
+        <v>2129128.4940902959</v>
+      </c>
+      <c r="R131" s="4">
+        <f>R130</f>
+        <v>78897.979298843828</v>
+      </c>
+      <c r="S131" s="4">
+        <f>S130+R129</f>
+        <v>2911285.5647014757</v>
+      </c>
+      <c r="U131" s="4">
+        <f>U130</f>
+        <v>268100.68087206065</v>
+      </c>
+      <c r="V131" s="4">
+        <f>V130+U129</f>
+        <v>11963929.090238368</v>
+      </c>
+      <c r="X131" s="4">
+        <f>X130</f>
+        <v>193790.29082328439</v>
+      </c>
+      <c r="Y131" s="4">
+        <f>Y130+X129</f>
+        <v>1595411.3343486662</v>
       </c>
     </row>
     <row r="132" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -11555,10 +11614,10 @@
     </row>
     <row r="133" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>75</v>
@@ -11625,10 +11684,10 @@
         <v>189</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F134" s="4">
         <f>F133/$F$22</f>
@@ -11702,7 +11761,7 @@
         <v>190</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E135" s="10" t="s">
         <v>191</v>
@@ -11791,7 +11850,7 @@
         <v>192</v>
       </c>
       <c r="B137" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E137" s="10" t="s">
         <v>76</v>
@@ -11868,10 +11927,10 @@
         <v>193</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F138" s="4">
         <f>F137+G137</f>
@@ -11935,7 +11994,7 @@
         <v>194</v>
       </c>
       <c r="B139" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E139" s="10" t="s">
         <v>119</v>
@@ -11999,7 +12058,7 @@
     </row>
     <row r="141" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="E141" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
@@ -12021,7 +12080,7 @@
         <v>220</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E142" s="10" t="s">
         <v>207</v>
@@ -12088,7 +12147,7 @@
         <v>221</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E143" s="14" t="s">
         <v>219</v>
@@ -12152,13 +12211,13 @@
     </row>
     <row r="144" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B144" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F144" s="4">
         <f>F118-F121*F122-F119</f>
@@ -12219,13 +12278,13 @@
     </row>
     <row r="145" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B145" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F145" s="4">
         <f>F118*$F20</f>
@@ -12286,7 +12345,7 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F148" s="4">
         <f>F144+F119</f>
@@ -12347,10 +12406,10 @@
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150" s="33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F150" s="4">
-        <f>F121+F130+G130</f>
+        <f>F121+F130+G130+F129</f>
         <v>2000000</v>
       </c>
       <c r="I150" s="4">

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD0B891-E9E5-5146-80A9-5D06FF780813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871C3B71-9414-D04A-8BCB-63E748650B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="760" windowWidth="26440" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="10020" yWindow="500" windowWidth="33680" windowHeight="19400" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="284">
   <si>
     <t>forest_primary_c_ha</t>
   </si>
@@ -606,15 +606,9 @@
     <t>arr_orig_sf_adjusted</t>
   </si>
   <si>
-    <t>arr_orig_biomass_average_per_area</t>
-  </si>
-  <si>
     <t>arr_orig_biomass_c_allocation_excluding_conversion</t>
   </si>
   <si>
-    <t>arr_orig_frac_stock available</t>
-  </si>
-  <si>
     <t>arr_orig_frac_removables_satisfiable</t>
   </si>
   <si>
@@ -705,12 +699,6 @@
     <t>bg biomass loss from stock removals</t>
   </si>
   <si>
-    <t>arr_biomass_c_ag_loss_decomposition</t>
-  </si>
-  <si>
-    <t>arr_biomass_c_bg_loss_removals</t>
-  </si>
-  <si>
     <t>vec_biomass_c_removed_from_young</t>
   </si>
   <si>
@@ -760,9 +748,6 @@
   </si>
   <si>
     <t>vec_biomass_c_bg_to_ag_ratio</t>
-  </si>
-  <si>
-    <t>vec_annual_sf_nominal</t>
   </si>
   <si>
     <t>vec_frac_biomass_ag_decomposition</t>
@@ -880,9 +865,6 @@
     <t>arr_orig_biomass_c_removed_from_forests</t>
   </si>
   <si>
-    <t>total removals met</t>
-  </si>
-  <si>
     <t>orig c converted</t>
   </si>
   <si>
@@ -896,6 +878,24 @@
   </si>
   <si>
     <t>arr_biomass_c_removed_from_forests_excluding_conversion</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_ag_lost_decomposition</t>
+  </si>
+  <si>
+    <t>arr_biomass_c_bg_lost_removals</t>
+  </si>
+  <si>
+    <t>arr_orig_frac_stock_available</t>
+  </si>
+  <si>
+    <t>arr_orig_biomass_c_average_per_area_no_ds</t>
+  </si>
+  <si>
+    <t>vec_total_removals_met</t>
+  </si>
+  <si>
+    <t>vec_sf_nominal_initial</t>
   </si>
 </sst>
 </file>
@@ -6339,8 +6339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
   <dimension ref="A1:AM158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="Y5" s="29"/>
       <c r="AB5" s="49" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AC5" s="21" t="s">
         <v>33</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="9" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B9" s="41" t="s">
         <v>163</v>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="10" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>176</v>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="11" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>176</v>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="12" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>163</v>
@@ -7123,7 +7123,7 @@
     </row>
     <row r="14" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>163</v>
@@ -7165,16 +7165,16 @@
     </row>
     <row r="15" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>163</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F15" s="4">
         <v>5</v>
@@ -7224,13 +7224,13 @@
     </row>
     <row r="16" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>163</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F16" s="4">
         <v>1E-3</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="17" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>163</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="18" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B18" s="41" t="s">
         <v>163</v>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="19" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B19" s="41" t="s">
         <v>163</v>
@@ -7345,7 +7345,7 @@
     </row>
     <row r="20" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>163</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="21" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B21" s="42" t="s">
         <v>176</v>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="22" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>176</v>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="28" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="B28" s="41" t="s">
         <v>163</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="29" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>176</v>
@@ -8190,13 +8190,13 @@
     </row>
     <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B42" s="37" t="s">
         <v>176</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
@@ -8230,7 +8230,7 @@
       <c r="A43" s="48"/>
       <c r="B43" s="37"/>
       <c r="E43" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
@@ -8264,7 +8264,7 @@
       <c r="A44" s="48"/>
       <c r="B44" s="37"/>
       <c r="E44" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G44" s="4">
         <v>0</v>
@@ -8298,7 +8298,7 @@
       <c r="A45" s="48"/>
       <c r="B45" s="37"/>
       <c r="E45" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B46" s="40" t="s">
         <v>176</v>
@@ -8375,16 +8375,16 @@
     </row>
     <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B48" s="37" t="s">
         <v>176</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G48" s="4">
         <f>MIN(G42,G$15*F37)</f>
@@ -8420,7 +8420,7 @@
       <c r="B49" s="37"/>
       <c r="D49" s="28"/>
       <c r="E49" s="14" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" ref="G49" si="6">MIN(G43,G$15*F38)</f>
@@ -8456,7 +8456,7 @@
       <c r="B50" s="37"/>
       <c r="D50" s="28"/>
       <c r="E50" s="14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G50" s="4">
         <f>MIN(G44,G$15*F39)</f>
@@ -8492,7 +8492,7 @@
       <c r="B51" s="37"/>
       <c r="D51" s="28"/>
       <c r="E51" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G51" s="4">
         <f>MIN(G45,G$15*F40)</f>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="46" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B52" s="40" t="s">
         <v>176</v>
@@ -8565,13 +8565,13 @@
     </row>
     <row r="54" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="48" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B54" s="37" t="s">
         <v>176</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G54" s="4">
         <f>G42*$G$20</f>
@@ -8606,7 +8606,7 @@
       <c r="A55" s="48"/>
       <c r="B55" s="37"/>
       <c r="E55" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G55" s="4">
         <f t="shared" ref="G55:G57" si="13">G43*$G$20</f>
@@ -8641,7 +8641,7 @@
       <c r="A56" s="48"/>
       <c r="B56" s="37"/>
       <c r="E56" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G56" s="4">
         <f t="shared" si="13"/>
@@ -8676,7 +8676,7 @@
       <c r="A57" s="48"/>
       <c r="B57" s="37"/>
       <c r="E57" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G57" s="4">
         <f t="shared" si="13"/>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B58" s="40" t="s">
         <v>176</v>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="66" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="48" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B66" s="37" t="s">
         <v>176</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="71" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="48" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B71" s="37" t="s">
         <v>176</v>
@@ -9166,7 +9166,7 @@
     </row>
     <row r="75" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="46" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B75" s="40" t="s">
         <v>176</v>
@@ -9218,7 +9218,7 @@
     </row>
     <row r="77" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="50" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B77" s="37" t="s">
         <v>176</v>
@@ -9784,13 +9784,13 @@
     </row>
     <row r="89" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B89" s="37" t="s">
         <v>176</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G89" s="4">
         <f>G55*G32</f>
@@ -9825,7 +9825,7 @@
       <c r="A90" s="47"/>
       <c r="B90" s="37"/>
       <c r="E90" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G90" s="4">
         <f>G56*G33</f>
@@ -9860,7 +9860,7 @@
       <c r="A91" s="47"/>
       <c r="B91" s="37"/>
       <c r="E91" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G91" s="4">
         <f>G57*G34</f>
@@ -9895,7 +9895,7 @@
       <c r="A92" s="47"/>
       <c r="B92" s="37"/>
       <c r="E92" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G92" s="4">
         <f>G58*G35</f>
@@ -9931,7 +9931,7 @@
     </row>
     <row r="94" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B94" s="37" t="s">
         <v>176</v>
@@ -10079,14 +10079,14 @@
     </row>
     <row r="99" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="47" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B99" s="37" t="s">
         <v>176</v>
       </c>
       <c r="D99" s="35"/>
       <c r="E99" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G99" s="4">
         <f>G94*$G$20</f>
@@ -10122,7 +10122,7 @@
       <c r="B100" s="37"/>
       <c r="D100" s="35"/>
       <c r="E100" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G100" s="4">
         <f t="shared" ref="G100:G102" si="26">G95*$G$20</f>
@@ -10158,7 +10158,7 @@
       <c r="B101" s="37"/>
       <c r="D101" s="35"/>
       <c r="E101" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G101" s="4">
         <f>G96*$G$20</f>
@@ -10194,7 +10194,7 @@
       <c r="B102" s="37"/>
       <c r="D102" s="35"/>
       <c r="E102" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G102" s="4">
         <f t="shared" si="26"/>
@@ -10249,7 +10249,7 @@
     </row>
     <row r="106" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="46" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B106" s="44" t="s">
         <v>184</v>
@@ -10317,7 +10317,7 @@
     </row>
     <row r="107" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="46" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B107" s="40" t="s">
         <v>176</v>
@@ -10516,7 +10516,7 @@
     </row>
     <row r="110" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="46" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B110" s="43" t="s">
         <v>165</v>
@@ -10583,7 +10583,7 @@
     </row>
     <row r="111" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="46" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B111" s="43" t="s">
         <v>165</v>
@@ -10672,13 +10672,13 @@
     </row>
     <row r="114" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="46" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B114" s="44" t="s">
         <v>184</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F114" s="4">
         <f>F111*F7</f>
@@ -10739,13 +10739,13 @@
     </row>
     <row r="115" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="46" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B115" s="43" t="s">
         <v>165</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G115" s="4">
         <f>SUM(G94:G97)</f>
@@ -10778,13 +10778,13 @@
     </row>
     <row r="116" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="46" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B116" s="43" t="s">
         <v>165</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F116" s="4">
         <f>F114+F115</f>
@@ -10845,13 +10845,13 @@
     </row>
     <row r="117" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="46" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B117" s="43" t="s">
         <v>165</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F117" s="4">
         <f>F110*$F$20</f>
@@ -10912,13 +10912,13 @@
     </row>
     <row r="118" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="46" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B118" s="40" t="s">
         <v>176</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F118" s="4">
         <f>F9*F111</f>
@@ -10979,13 +10979,13 @@
     </row>
     <row r="119" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="46" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B119" s="40" t="s">
         <v>176</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F119" s="4">
         <f>MIN(F118,F9*F15)</f>
@@ -11046,13 +11046,13 @@
     </row>
     <row r="120" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B120" s="40" t="s">
         <v>176</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F120" s="4">
         <f>(F118-F119)*$F$14</f>
@@ -11113,13 +11113,13 @@
     </row>
     <row r="121" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="46" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B121" s="43" t="s">
         <v>165</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F121" s="4">
         <f>MIN(F120+G120, F32)</f>
@@ -11152,13 +11152,13 @@
     </row>
     <row r="122" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="46" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B122" s="40" t="s">
         <v>176</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F122" s="4">
         <f>F120/(F120+G120)</f>
@@ -11219,7 +11219,7 @@
     </row>
     <row r="123" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B123" s="40" t="s">
         <v>176</v>
@@ -11305,13 +11305,13 @@
     </row>
     <row r="126" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="46" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B126" s="40" t="s">
         <v>176</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F126" s="4">
         <f>MAX(F32-F121,0)</f>
@@ -11344,7 +11344,7 @@
     </row>
     <row r="127" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B127" s="40" t="s">
         <v>176</v>
@@ -11383,7 +11383,7 @@
     </row>
     <row r="128" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="46" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B128" s="40" t="s">
         <v>176</v>
@@ -11422,7 +11422,7 @@
     </row>
     <row r="129" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="46" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B129" s="40" t="s">
         <v>176</v>
@@ -11461,7 +11461,7 @@
     </row>
     <row r="130" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="46" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B130" s="40" t="s">
         <v>176</v>
@@ -11528,7 +11528,7 @@
     </row>
     <row r="131" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="46" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B131" s="43" t="s">
         <v>165</v>
@@ -11613,8 +11613,8 @@
       <c r="Y132" s="8"/>
     </row>
     <row r="133" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" s="33" t="s">
-        <v>187</v>
+      <c r="A133" s="46" t="s">
+        <v>281</v>
       </c>
       <c r="B133" s="40" t="s">
         <v>176</v>
@@ -11680,8 +11680,8 @@
       </c>
     </row>
     <row r="134" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" s="33" t="s">
-        <v>189</v>
+      <c r="A134" s="46" t="s">
+        <v>280</v>
       </c>
       <c r="B134" s="40" t="s">
         <v>176</v>
@@ -11757,14 +11757,14 @@
       </c>
     </row>
     <row r="135" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="33" t="s">
-        <v>190</v>
+      <c r="A135" s="46" t="s">
+        <v>188</v>
       </c>
       <c r="B135" s="40" t="s">
         <v>176</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F135" s="4">
         <f>MAX(MIN(F134/$F$17, 1), 0)</f>
@@ -11834,6 +11834,7 @@
       </c>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A136" s="46"/>
       <c r="Z136">
         <v>0.2</v>
       </c>
@@ -11846,8 +11847,8 @@
       </c>
     </row>
     <row r="137" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="33" t="s">
-        <v>192</v>
+      <c r="A137" s="46" t="s">
+        <v>190</v>
       </c>
       <c r="B137" s="40" t="s">
         <v>176</v>
@@ -11923,8 +11924,8 @@
       </c>
     </row>
     <row r="138" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="33" t="s">
-        <v>193</v>
+      <c r="A138" s="46" t="s">
+        <v>191</v>
       </c>
       <c r="B138" s="40" t="s">
         <v>176</v>
@@ -11990,8 +11991,8 @@
       </c>
     </row>
     <row r="139" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="33" t="s">
-        <v>194</v>
+      <c r="A139" s="46" t="s">
+        <v>192</v>
       </c>
       <c r="B139" s="40" t="s">
         <v>176</v>
@@ -12058,7 +12059,7 @@
     </row>
     <row r="141" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="E141" s="15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
@@ -12076,14 +12077,14 @@
       <c r="Y141" s="8"/>
     </row>
     <row r="142" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="33" t="s">
-        <v>220</v>
+      <c r="A142" s="46" t="s">
+        <v>278</v>
       </c>
       <c r="B142" s="43" t="s">
         <v>165</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F142" s="4">
         <f>(F110 - F130 - F118)*$F$29</f>
@@ -12143,14 +12144,14 @@
       </c>
     </row>
     <row r="143" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="33" t="s">
-        <v>221</v>
+      <c r="A143" s="46" t="s">
+        <v>279</v>
       </c>
       <c r="B143" s="43" t="s">
         <v>165</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F143" s="4">
         <f>F130*$F20</f>
@@ -12345,7 +12346,7 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148" s="33" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F148" s="4">
         <f>F144+F119</f>
@@ -12405,8 +12406,11 @@
       </c>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A150" s="33" t="s">
-        <v>278</v>
+      <c r="A150" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="B150" s="43" t="s">
+        <v>165</v>
       </c>
       <c r="F150" s="4">
         <f>F121+F130+G130+F129</f>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871C3B71-9414-D04A-8BCB-63E748650B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE6D6BB-3EDE-CB43-8A49-46D25A5A8C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="500" windowWidth="33680" windowHeight="19400" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="7100" yWindow="760" windowWidth="26440" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,9 +522,6 @@
     <t>arr_area_protected_total</t>
   </si>
   <si>
-    <t>arr_area_protected_young</t>
-  </si>
-  <si>
     <t>arr_area_protected_original</t>
   </si>
   <si>
@@ -796,9 +793,6 @@
     <t>arr_biomass_c_ag_converted_away</t>
   </si>
   <si>
-    <t>arr_biomass_c_ag_min_reqd_per_area</t>
-  </si>
-  <si>
     <t>average stock in target land use classes</t>
   </si>
   <si>
@@ -896,6 +890,12 @@
   </si>
   <si>
     <t>vec_sf_nominal_initial</t>
+  </si>
+  <si>
+    <t>vec_area_protected_young</t>
+  </si>
+  <si>
+    <t>vec_biomass_c_ag_min_reqd_per_area</t>
   </si>
 </sst>
 </file>
@@ -6339,8 +6339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
   <dimension ref="A1:AM158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6529,7 +6529,7 @@
         <v>155</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>153</v>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="Y5" s="29"/>
       <c r="AB5" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC5" s="21" t="s">
         <v>33</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="6" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="B6" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>24</v>
@@ -6665,7 +6665,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>67</v>
@@ -6752,7 +6752,7 @@
         <v>157</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>114</v>
@@ -6838,10 +6838,10 @@
     </row>
     <row r="9" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>55</v>
@@ -6913,10 +6913,10 @@
     </row>
     <row r="10" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>145</v>
@@ -6962,10 +6962,10 @@
     </row>
     <row r="11" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>113</v>
@@ -7011,10 +7011,10 @@
     </row>
     <row r="12" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>66</v>
@@ -7056,7 +7056,7 @@
         <v>158</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>143</v>
@@ -7123,10 +7123,10 @@
     </row>
     <row r="14" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>54</v>
@@ -7165,16 +7165,16 @@
     </row>
     <row r="15" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F15" s="4">
         <v>5</v>
@@ -7224,13 +7224,13 @@
     </row>
     <row r="16" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F16" s="4">
         <v>1E-3</v>
@@ -7266,10 +7266,10 @@
     </row>
     <row r="17" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>118</v>
@@ -7293,10 +7293,10 @@
     </row>
     <row r="18" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="10" t="s">
@@ -7318,10 +7318,10 @@
     </row>
     <row r="19" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>116</v>
@@ -7345,13 +7345,13 @@
     </row>
     <row r="20" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F20" s="4">
         <v>0.3</v>
@@ -7365,10 +7365,10 @@
     </row>
     <row r="21" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>115</v>
@@ -7394,13 +7394,13 @@
     </row>
     <row r="22" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="F22" s="4">
         <f>F19-F21</f>
@@ -7438,7 +7438,7 @@
         <v>159</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>52</v>
@@ -7498,10 +7498,10 @@
     </row>
     <row r="25" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>108</v>
@@ -7547,10 +7547,10 @@
     </row>
     <row r="26" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>144</v>
@@ -7560,7 +7560,7 @@
         <v>5000</v>
       </c>
       <c r="G26" s="4">
-        <f>MIN(G13,G24)-G25</f>
+        <f>MIN(G13,G24)</f>
         <v>50000</v>
       </c>
       <c r="I26" s="4">
@@ -7568,7 +7568,7 @@
         <v>5000</v>
       </c>
       <c r="J26" s="4">
-        <f>MIN(J13,J24)-J25</f>
+        <f>MIN(J13,J24)</f>
         <v>50000</v>
       </c>
       <c r="L26" s="4">
@@ -7576,7 +7576,7 @@
         <v>5500</v>
       </c>
       <c r="M26" s="4">
-        <f>MIN(M13,M24)-M25</f>
+        <f>MIN(M13,M24)</f>
         <v>50000</v>
       </c>
       <c r="O26" s="4">
@@ -7584,7 +7584,7 @@
         <v>6000</v>
       </c>
       <c r="P26" s="4">
-        <f>MIN(P13,P24)-P25</f>
+        <f>MIN(P13,P24)</f>
         <v>50000</v>
       </c>
       <c r="R26" s="4">
@@ -7592,7 +7592,7 @@
         <v>6500</v>
       </c>
       <c r="S26" s="4">
-        <f>MIN(S13,S24)-S25</f>
+        <f>MIN(S13,S24)</f>
         <v>49000</v>
       </c>
       <c r="U26" s="4">
@@ -7600,7 +7600,7 @@
         <v>7200</v>
       </c>
       <c r="V26" s="4">
-        <f>MIN(V13,V24)-V25</f>
+        <f>MIN(V13,V24)</f>
         <v>49500</v>
       </c>
       <c r="X26" s="4">
@@ -7608,7 +7608,7 @@
         <v>7200</v>
       </c>
       <c r="Y26" s="4">
-        <f>MIN(Y13,Y24)-Y25</f>
+        <f>MIN(Y13,Y24)</f>
         <v>49500</v>
       </c>
       <c r="AC26" s="19">
@@ -7624,7 +7624,7 @@
     </row>
     <row r="27" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="E27" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -7653,13 +7653,13 @@
     </row>
     <row r="28" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>68</v>
@@ -7673,14 +7673,14 @@
     </row>
     <row r="29" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F29" s="4">
         <f>F28/F19</f>
@@ -7715,10 +7715,10 @@
     </row>
     <row r="32" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>53</v>
@@ -7787,7 +7787,7 @@
     </row>
     <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>88</v>
@@ -7840,10 +7840,10 @@
     </row>
     <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>87</v>
@@ -7957,7 +7957,7 @@
         <v>165</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" ref="L38:L40" si="0">IF(K38&gt;=M$11, IF(K37&lt;M$11, M$11-K37, 0),J38)</f>
+        <f>IF(K38&gt;=M$11, IF(K37&lt;M$11, M$11-K37, 0),J38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="4">
@@ -7969,7 +7969,7 @@
         <v>165</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" ref="O38:O40" si="1">IF(N38&gt;=P$11, IF(N37&lt;P$11, P$11-N37, 0),M38)</f>
+        <f t="shared" ref="O38:O40" si="0">IF(N38&gt;=P$11, IF(N37&lt;P$11, P$11-N37, 0),M38)</f>
         <v>0</v>
       </c>
       <c r="P38" s="4">
@@ -7981,7 +7981,7 @@
         <v>165</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" ref="R38:R40" si="2">IF(Q38&gt;=S$11, IF(Q37&lt;S$11, S$11-Q37, 0),P38)</f>
+        <f t="shared" ref="R38:R40" si="1">IF(Q38&gt;=S$11, IF(Q37&lt;S$11, S$11-Q37, 0),P38)</f>
         <v>0</v>
       </c>
       <c r="S38" s="4">
@@ -7993,7 +7993,7 @@
         <v>165</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" ref="U38:U40" si="3">IF(T38&gt;=V$11, IF(T37&lt;V$11, V$11-T37, 0),S38)</f>
+        <f t="shared" ref="U38:U40" si="2">IF(T38&gt;=V$11, IF(T37&lt;V$11, V$11-T37, 0),S38)</f>
         <v>0</v>
       </c>
       <c r="V38" s="4">
@@ -8005,7 +8005,7 @@
         <v>165</v>
       </c>
       <c r="X38" s="4">
-        <f t="shared" ref="X38:X40" si="4">IF(W38&gt;=Y$11, IF(W37&lt;Y$11, Y$11-W37, 0),V38)</f>
+        <f t="shared" ref="X38:X40" si="3">IF(W38&gt;=Y$11, IF(W37&lt;Y$11, Y$11-W37, 0),V38)</f>
         <v>0</v>
       </c>
       <c r="Y38" s="4">
@@ -8041,7 +8041,7 @@
         <v>165</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L38:L40" si="4">IF(K39&gt;=M$11, IF(K38&lt;M$11, M$11-K38, 0),J39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="4">
@@ -8053,7 +8053,7 @@
         <v>257</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P39" s="4">
@@ -8065,7 +8065,7 @@
         <v>257</v>
       </c>
       <c r="R39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S39" s="4">
@@ -8077,7 +8077,7 @@
         <v>257</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V39" s="4">
@@ -8089,7 +8089,7 @@
         <v>257</v>
       </c>
       <c r="X39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y39" s="4">
@@ -8114,7 +8114,7 @@
         <v>85</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" ref="I40" si="5">IF(H40&gt;=J$11, IF(H39&lt;J$11, J$11-H39, 0),G40)</f>
+        <f>IF(H40&gt;=J$11, IF(H39&lt;J$11, J$11-H39, 0),G40)</f>
         <v>0</v>
       </c>
       <c r="J40" s="4">
@@ -8125,7 +8125,7 @@
         <v>165</v>
       </c>
       <c r="L40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M40" s="4">
@@ -8136,7 +8136,7 @@
         <v>257</v>
       </c>
       <c r="O40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P40" s="4">
@@ -8148,7 +8148,7 @@
         <v>300</v>
       </c>
       <c r="R40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40" s="4">
@@ -8160,7 +8160,7 @@
         <v>300</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V40" s="4">
@@ -8172,7 +8172,7 @@
         <v>300</v>
       </c>
       <c r="X40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y40" s="4">
@@ -8190,13 +8190,13 @@
     </row>
     <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
@@ -8230,7 +8230,7 @@
       <c r="A43" s="48"/>
       <c r="B43" s="37"/>
       <c r="E43" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
@@ -8264,7 +8264,7 @@
       <c r="A44" s="48"/>
       <c r="B44" s="37"/>
       <c r="E44" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G44" s="4">
         <v>0</v>
@@ -8298,7 +8298,7 @@
       <c r="A45" s="48"/>
       <c r="B45" s="37"/>
       <c r="E45" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
@@ -8330,10 +8330,10 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="4">
@@ -8375,16 +8375,16 @@
     </row>
     <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G48" s="4">
         <f>MIN(G42,G$15*F37)</f>
@@ -8420,34 +8420,34 @@
       <c r="B49" s="37"/>
       <c r="D49" s="28"/>
       <c r="E49" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" ref="G49" si="6">MIN(G43,G$15*F38)</f>
+        <f t="shared" ref="G49" si="5">MIN(G43,G$15*F38)</f>
         <v>0</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" ref="J49" si="7">MIN(J43,J$15*I38)</f>
+        <f>MIN(J43,J$15*I38)</f>
         <v>0</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" ref="M49" si="8">MIN(M43,M$15*L38)</f>
+        <f t="shared" ref="M49" si="6">MIN(M43,M$15*L38)</f>
         <v>0</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" ref="P49" si="9">MIN(P43,P$15*O38)</f>
+        <f t="shared" ref="P49" si="7">MIN(P43,P$15*O38)</f>
         <v>0</v>
       </c>
       <c r="S49" s="4">
-        <f t="shared" ref="S49" si="10">MIN(S43,S$15*R38)</f>
+        <f t="shared" ref="S49" si="8">MIN(S43,S$15*R38)</f>
         <v>0</v>
       </c>
       <c r="V49" s="4">
-        <f t="shared" ref="V49" si="11">MIN(V43,V$15*U38)</f>
+        <f t="shared" ref="V49" si="9">MIN(V43,V$15*U38)</f>
         <v>0</v>
       </c>
       <c r="Y49" s="4">
-        <f t="shared" ref="Y49" si="12">MIN(Y43,Y$15*X38)</f>
+        <f t="shared" ref="Y49" si="10">MIN(Y43,Y$15*X38)</f>
         <v>0</v>
       </c>
     </row>
@@ -8456,7 +8456,7 @@
       <c r="B50" s="37"/>
       <c r="D50" s="28"/>
       <c r="E50" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G50" s="4">
         <f>MIN(G44,G$15*F39)</f>
@@ -8492,7 +8492,7 @@
       <c r="B51" s="37"/>
       <c r="D51" s="28"/>
       <c r="E51" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G51" s="4">
         <f>MIN(G45,G$15*F40)</f>
@@ -8525,10 +8525,10 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E52" s="14"/>
       <c r="G52" s="4">
@@ -8565,13 +8565,13 @@
     </row>
     <row r="54" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G54" s="4">
         <f>G42*$G$20</f>
@@ -8606,34 +8606,34 @@
       <c r="A55" s="48"/>
       <c r="B55" s="37"/>
       <c r="E55" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" ref="G55:G57" si="13">G43*$G$20</f>
+        <f t="shared" ref="G55:G57" si="11">G43*$G$20</f>
         <v>0</v>
       </c>
       <c r="J55" s="4">
-        <f t="shared" ref="J55:J57" si="14">J43*$G$20</f>
+        <f t="shared" ref="J55:J57" si="12">J43*$G$20</f>
         <v>0</v>
       </c>
       <c r="M55" s="4">
-        <f t="shared" ref="M55:M57" si="15">M43*$G$20</f>
+        <f t="shared" ref="M55:M57" si="13">M43*$G$20</f>
         <v>0</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" ref="P55:P57" si="16">P43*$G$20</f>
+        <f t="shared" ref="P55:P57" si="14">P43*$G$20</f>
         <v>0</v>
       </c>
       <c r="S55" s="4">
-        <f t="shared" ref="S55:S57" si="17">S43*$G$20</f>
+        <f t="shared" ref="S55:S57" si="15">S43*$G$20</f>
         <v>0</v>
       </c>
       <c r="V55" s="4">
-        <f t="shared" ref="V55:V57" si="18">V43*$G$20</f>
+        <f t="shared" ref="V55:V57" si="16">V43*$G$20</f>
         <v>0</v>
       </c>
       <c r="Y55" s="4">
-        <f t="shared" ref="Y55:Y57" si="19">Y43*$G$20</f>
+        <f t="shared" ref="Y55:Y57" si="17">Y43*$G$20</f>
         <v>0</v>
       </c>
     </row>
@@ -8641,34 +8641,34 @@
       <c r="A56" s="48"/>
       <c r="B56" s="37"/>
       <c r="E56" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G56" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <f>J44*$G$20</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J56" s="4">
+      <c r="P56" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M56" s="4">
+      <c r="S56" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="P56" s="4">
+      <c r="V56" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S56" s="4">
+      <c r="Y56" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V56" s="4">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Y56" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8676,43 +8676,43 @@
       <c r="A57" s="48"/>
       <c r="B57" s="37"/>
       <c r="E57" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G57" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J57" s="4">
+      <c r="P57" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M57" s="4">
+      <c r="S57" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="P57" s="4">
+      <c r="V57" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S57" s="4">
+      <c r="Y57" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V57" s="4">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E58" s="14"/>
       <c r="G58" s="4">
@@ -8749,10 +8749,10 @@
     </row>
     <row r="60" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>90</v>
@@ -8892,10 +8892,10 @@
     </row>
     <row r="66" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>109</v>
@@ -9022,10 +9022,10 @@
     </row>
     <row r="71" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>127</v>
@@ -9166,10 +9166,10 @@
     </row>
     <row r="75" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="14" t="s">
@@ -9218,10 +9218,10 @@
     </row>
     <row r="77" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>88</v>
@@ -9541,10 +9541,10 @@
     </row>
     <row r="84" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E84" s="14" t="s">
         <v>131</v>
@@ -9784,13 +9784,13 @@
     </row>
     <row r="89" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89" s="14" t="s">
         <v>206</v>
-      </c>
-      <c r="B89" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>207</v>
       </c>
       <c r="G89" s="4">
         <f>G55*G32</f>
@@ -9825,34 +9825,34 @@
       <c r="A90" s="47"/>
       <c r="B90" s="37"/>
       <c r="E90" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G90" s="4">
         <f>G56*G33</f>
         <v>0</v>
       </c>
       <c r="J90" s="4">
-        <f t="shared" ref="J90:J92" si="20">(G95-J79)*$F$29</f>
+        <f>(G95-J79)*$F$29</f>
         <v>0</v>
       </c>
       <c r="M90" s="4">
-        <f t="shared" ref="M90:M92" si="21">(J95-M79)*$F$29</f>
+        <f t="shared" ref="M90:M92" si="18">(J95-M79)*$F$29</f>
         <v>0</v>
       </c>
       <c r="P90" s="4">
-        <f t="shared" ref="P90:P92" si="22">(M95-P79)*$F$29</f>
+        <f t="shared" ref="P90:P92" si="19">(M95-P79)*$F$29</f>
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="S90" s="4">
-        <f t="shared" ref="S90:S92" si="23">(P95-S79)*$F$29</f>
+        <f t="shared" ref="S90:S92" si="20">(P95-S79)*$F$29</f>
         <v>9.5968000000000008E-3</v>
       </c>
       <c r="V90" s="4">
-        <f t="shared" ref="V90:V92" si="24">(S95-V79)*$F$29</f>
+        <f t="shared" ref="V90:V92" si="21">(S95-V79)*$F$29</f>
         <v>1.6000000000000004E-2</v>
       </c>
       <c r="Y90" s="4">
-        <f t="shared" ref="Y90:Y92" si="25">(V95-Y79)*$F$29</f>
+        <f t="shared" ref="Y90:Y92" si="22">(V95-Y79)*$F$29</f>
         <v>1.6E-2</v>
       </c>
     </row>
@@ -9860,34 +9860,34 @@
       <c r="A91" s="47"/>
       <c r="B91" s="37"/>
       <c r="E91" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G91" s="4">
         <f>G57*G34</f>
         <v>0</v>
       </c>
       <c r="J91" s="4">
+        <f t="shared" ref="J90:J92" si="23">(G96-J80)*$F$29</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S91" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M91" s="4">
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="V91" s="4">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P91" s="4">
+        <v>1.1036320000000002E-2</v>
+      </c>
+      <c r="Y91" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="S91" s="4">
-        <f t="shared" si="23"/>
-        <v>1.8400000000000001E-3</v>
-      </c>
-      <c r="V91" s="4">
-        <f t="shared" si="24"/>
-        <v>1.1036320000000002E-2</v>
-      </c>
-      <c r="Y91" s="4">
-        <f t="shared" si="25"/>
         <v>1.8400000000000007E-2</v>
       </c>
     </row>
@@ -9895,34 +9895,34 @@
       <c r="A92" s="47"/>
       <c r="B92" s="37"/>
       <c r="E92" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G92" s="4">
         <f>G58*G35</f>
         <v>0</v>
       </c>
       <c r="J92" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S92" s="4">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M92" s="4">
+      <c r="V92" s="4">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P92" s="4">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="Y92" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="S92" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V92" s="4">
-        <f t="shared" si="24"/>
-        <v>8.5999999999999998E-4</v>
-      </c>
-      <c r="Y92" s="4">
-        <f t="shared" si="25"/>
         <v>5.1582799999999995E-3</v>
       </c>
     </row>
@@ -9931,10 +9931,10 @@
     </row>
     <row r="94" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>70</v>
@@ -10079,14 +10079,14 @@
     </row>
     <row r="99" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D99" s="35"/>
       <c r="E99" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G99" s="4">
         <f>G94*$G$20</f>
@@ -10122,34 +10122,34 @@
       <c r="B100" s="37"/>
       <c r="D100" s="35"/>
       <c r="E100" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" ref="G100:G102" si="26">G95*$G$20</f>
+        <f t="shared" ref="G100:G102" si="24">G95*$G$20</f>
         <v>0</v>
       </c>
       <c r="J100" s="4">
-        <f t="shared" ref="J100:J102" si="27">J95*$G$20</f>
+        <f t="shared" ref="J100:J102" si="25">J95*$G$20</f>
         <v>0</v>
       </c>
       <c r="M100" s="4">
-        <f t="shared" ref="M100:M102" si="28">M95*$G$20</f>
+        <f t="shared" ref="M100:M102" si="26">M95*$G$20</f>
         <v>0.2</v>
       </c>
       <c r="P100" s="4">
-        <f t="shared" ref="P100:P102" si="29">P95*$G$20</f>
+        <f t="shared" ref="P100:P102" si="27">P95*$G$20</f>
         <v>1.1996</v>
       </c>
       <c r="S100" s="4">
-        <f t="shared" ref="S100:S102" si="30">S95*$G$20</f>
+        <f t="shared" ref="S100:S102" si="28">S95*$G$20</f>
         <v>3.5972008</v>
       </c>
       <c r="V100" s="4">
-        <f t="shared" ref="V100:V102" si="31">V95*$G$20</f>
+        <f t="shared" ref="V100:V102" si="29">V95*$G$20</f>
         <v>5.9960000000000004</v>
       </c>
       <c r="Y100" s="4">
-        <f t="shared" ref="Y100:Y102" si="32">Y95*$G$20</f>
+        <f t="shared" ref="Y100:Y102" si="30">Y95*$G$20</f>
         <v>9.1959999999999997</v>
       </c>
     </row>
@@ -10158,7 +10158,7 @@
       <c r="B101" s="37"/>
       <c r="D101" s="35"/>
       <c r="E101" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G101" s="4">
         <f>G96*$G$20</f>
@@ -10194,34 +10194,34 @@
       <c r="B102" s="37"/>
       <c r="D102" s="35"/>
       <c r="E102" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G102" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="4">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="J102" s="4">
+      <c r="P102" s="4">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M102" s="4">
+      <c r="S102" s="4">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="P102" s="4">
+        <v>0.1075</v>
+      </c>
+      <c r="V102" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="S102" s="4">
+        <v>0.64478499999999994</v>
+      </c>
+      <c r="Y102" s="4">
         <f t="shared" si="30"/>
-        <v>0.1075</v>
-      </c>
-      <c r="V102" s="4">
-        <f t="shared" si="31"/>
-        <v>0.64478499999999994</v>
-      </c>
-      <c r="Y102" s="4">
-        <f t="shared" si="32"/>
         <v>1.93349543</v>
       </c>
     </row>
@@ -10249,10 +10249,10 @@
     </row>
     <row r="106" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="14" t="s">
@@ -10317,10 +10317,10 @@
     </row>
     <row r="107" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E107" s="14" t="s">
         <v>141</v>
@@ -10384,13 +10384,13 @@
     </row>
     <row r="108" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F108" s="4">
         <v>1</v>
@@ -10449,10 +10449,10 @@
     </row>
     <row r="109" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E109" s="14" t="s">
         <v>131</v>
@@ -10516,13 +10516,13 @@
     </row>
     <row r="110" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B110" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F110" s="4">
         <f>F7*F19</f>
@@ -10583,10 +10583,10 @@
     </row>
     <row r="111" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B111" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E111" s="14" t="s">
         <v>142</v>
@@ -10672,13 +10672,13 @@
     </row>
     <row r="114" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B114" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F114" s="4">
         <f>F111*F7</f>
@@ -10739,13 +10739,13 @@
     </row>
     <row r="115" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B115" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G115" s="4">
         <f>SUM(G94:G97)</f>
@@ -10778,13 +10778,13 @@
     </row>
     <row r="116" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B116" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F116" s="4">
         <f>F114+F115</f>
@@ -10845,13 +10845,13 @@
     </row>
     <row r="117" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B117" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F117" s="4">
         <f>F110*$F$20</f>
@@ -10912,13 +10912,13 @@
     </row>
     <row r="118" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F118" s="4">
         <f>F9*F111</f>
@@ -10979,13 +10979,13 @@
     </row>
     <row r="119" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="46" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F119" s="4">
         <f>MIN(F118,F9*F15)</f>
@@ -11046,13 +11046,13 @@
     </row>
     <row r="120" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F120" s="4">
         <f>(F118-F119)*$F$14</f>
@@ -11113,13 +11113,13 @@
     </row>
     <row r="121" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="46" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F121" s="4">
         <f>MIN(F120+G120, F32)</f>
@@ -11152,13 +11152,13 @@
     </row>
     <row r="122" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="46" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F122" s="4">
         <f>F120/(F120+G120)</f>
@@ -11219,10 +11219,10 @@
     </row>
     <row r="123" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>121</v>
@@ -11305,13 +11305,13 @@
     </row>
     <row r="126" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="B126" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E126" s="14" t="s">
         <v>264</v>
-      </c>
-      <c r="B126" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>266</v>
       </c>
       <c r="F126" s="4">
         <f>MAX(F32-F121,0)</f>
@@ -11344,13 +11344,13 @@
     </row>
     <row r="127" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="46" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F127" s="4">
         <f>MIN(F138,F126)</f>
@@ -11383,10 +11383,10 @@
     </row>
     <row r="128" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E128" s="10" t="s">
         <v>123</v>
@@ -11422,10 +11422,10 @@
     </row>
     <row r="129" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E129" s="10" t="s">
         <v>146</v>
@@ -11461,10 +11461,10 @@
     </row>
     <row r="130" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>120</v>
@@ -11528,13 +11528,13 @@
     </row>
     <row r="131" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F131" s="4">
         <f>F130</f>
@@ -11614,10 +11614,10 @@
     </row>
     <row r="133" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>75</v>
@@ -11681,10 +11681,10 @@
     </row>
     <row r="134" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="46" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>137</v>
@@ -11758,13 +11758,13 @@
     </row>
     <row r="135" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E135" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="B135" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="F135" s="4">
         <f>MAX(MIN(F134/$F$17, 1), 0)</f>
@@ -11848,10 +11848,10 @@
     </row>
     <row r="137" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B137" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E137" s="10" t="s">
         <v>76</v>
@@ -11925,10 +11925,10 @@
     </row>
     <row r="138" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E138" s="10" t="s">
         <v>122</v>
@@ -11992,10 +11992,10 @@
     </row>
     <row r="139" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B139" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E139" s="10" t="s">
         <v>119</v>
@@ -12059,7 +12059,7 @@
     </row>
     <row r="141" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="E141" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
@@ -12078,13 +12078,13 @@
     </row>
     <row r="142" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F142" s="4">
         <f>(F110 - F130 - F118)*$F$29</f>
@@ -12145,13 +12145,13 @@
     </row>
     <row r="143" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F143" s="4">
         <f>F130*$F20</f>
@@ -12212,13 +12212,13 @@
     </row>
     <row r="144" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B144" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F144" s="4">
         <f>F118-F121*F122-F119</f>
@@ -12279,13 +12279,13 @@
     </row>
     <row r="145" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B145" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F145" s="4">
         <f>F118*$F20</f>
@@ -12346,7 +12346,7 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F148" s="4">
         <f>F144+F119</f>
@@ -12407,10 +12407,10 @@
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150" s="46" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B150" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F150" s="4">
         <f>F121+F130+G130+F129</f>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE6D6BB-3EDE-CB43-8A49-46D25A5A8C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC78003-B42E-B647-9794-4D0FE38B4C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="760" windowWidth="26440" windowHeight="19880" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="12440" yWindow="560" windowWidth="33680" windowHeight="19400" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -951,7 +951,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,6 +1030,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1043,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1178,11 +1184,17 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6339,8 +6351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
   <dimension ref="A1:AM158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6348,8 +6360,8 @@
     <col min="1" max="1" width="62.1640625" style="33" customWidth="1"/>
     <col min="2" max="2" width="14" style="36" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="27" style="22" customWidth="1"/>
-    <col min="5" max="5" width="44" style="10" customWidth="1"/>
+    <col min="4" max="4" width="27" style="22" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="44" style="10" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="5" customWidth="1"/>
@@ -6566,7 +6578,7 @@
         <v>135</v>
       </c>
       <c r="Y5" s="29"/>
-      <c r="AB5" s="49" t="s">
+      <c r="AB5" s="48" t="s">
         <v>235</v>
       </c>
       <c r="AC5" s="21" t="s">
@@ -6661,7 +6673,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="51" t="s">
         <v>156</v>
       </c>
       <c r="B7" s="40" t="s">
@@ -6748,7 +6760,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="51" t="s">
         <v>157</v>
       </c>
       <c r="B8" s="41" t="s">
@@ -6837,7 +6849,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="51" t="s">
         <v>225</v>
       </c>
       <c r="B9" s="41" t="s">
@@ -6912,7 +6924,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="51" t="s">
         <v>224</v>
       </c>
       <c r="B10" s="40" t="s">
@@ -6961,7 +6973,7 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="51" t="s">
         <v>222</v>
       </c>
       <c r="B11" s="40" t="s">
@@ -7010,7 +7022,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="51" t="s">
         <v>223</v>
       </c>
       <c r="B12" s="41" t="s">
@@ -7052,7 +7064,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="51" t="s">
         <v>158</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -7122,7 +7134,7 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="51" t="s">
         <v>226</v>
       </c>
       <c r="B14" s="41" t="s">
@@ -7164,7 +7176,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="51" t="s">
         <v>251</v>
       </c>
       <c r="B15" s="41" t="s">
@@ -7223,7 +7235,7 @@
       <c r="AE15" s="19"/>
     </row>
     <row r="16" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="51" t="s">
         <v>227</v>
       </c>
       <c r="B16" s="41" t="s">
@@ -7265,7 +7277,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="51" t="s">
         <v>228</v>
       </c>
       <c r="B17" s="41" t="s">
@@ -7292,7 +7304,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="51" t="s">
         <v>229</v>
       </c>
       <c r="B18" s="41" t="s">
@@ -7317,7 +7329,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="51" t="s">
         <v>231</v>
       </c>
       <c r="B19" s="41" t="s">
@@ -7344,7 +7356,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="51" t="s">
         <v>233</v>
       </c>
       <c r="B20" s="41" t="s">
@@ -7364,7 +7376,7 @@
       <c r="AE20" s="19"/>
     </row>
     <row r="21" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="51" t="s">
         <v>283</v>
       </c>
       <c r="B21" s="42" t="s">
@@ -7393,7 +7405,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="51" t="s">
         <v>232</v>
       </c>
       <c r="B22" s="42" t="s">
@@ -7434,7 +7446,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="51" t="s">
         <v>159</v>
       </c>
       <c r="B24" s="41" t="s">
@@ -7497,7 +7509,7 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="51" t="s">
         <v>282</v>
       </c>
       <c r="B25" s="43" t="s">
@@ -7546,7 +7558,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="51" t="s">
         <v>160</v>
       </c>
       <c r="B26" s="43" t="s">
@@ -7652,7 +7664,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="51" t="s">
         <v>281</v>
       </c>
       <c r="B28" s="41" t="s">
@@ -7672,7 +7684,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="51" t="s">
         <v>234</v>
       </c>
       <c r="B29" s="42" t="s">
@@ -7714,7 +7726,7 @@
       <c r="Y31" s="8"/>
     </row>
     <row r="32" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="51" t="s">
         <v>169</v>
       </c>
       <c r="B32" s="41" t="s">
@@ -7839,7 +7851,7 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="49" t="s">
         <v>181</v>
       </c>
       <c r="B37" s="37" t="s">
@@ -7929,7 +7941,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="37"/>
       <c r="E38" s="14" t="s">
         <v>69</v>
@@ -8014,7 +8026,7 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="37"/>
       <c r="E39" s="14" t="s">
         <v>79</v>
@@ -8098,7 +8110,7 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="37"/>
       <c r="E40" s="14" t="s">
         <v>80</v>
@@ -8189,7 +8201,7 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="50" t="s">
         <v>192</v>
       </c>
       <c r="B42" s="37" t="s">
@@ -8227,7 +8239,7 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="37"/>
       <c r="E43" s="14" t="s">
         <v>197</v>
@@ -8261,7 +8273,7 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="37"/>
       <c r="E44" s="14" t="s">
         <v>198</v>
@@ -8295,7 +8307,7 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="48"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="37"/>
       <c r="E45" s="14" t="s">
         <v>199</v>
@@ -8329,7 +8341,7 @@
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="51" t="s">
         <v>193</v>
       </c>
       <c r="B46" s="40" t="s">
@@ -8374,7 +8386,7 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="50" t="s">
         <v>265</v>
       </c>
       <c r="B48" s="37" t="s">
@@ -8416,14 +8428,14 @@
       </c>
     </row>
     <row r="49" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="37"/>
       <c r="D49" s="28"/>
       <c r="E49" s="14" t="s">
         <v>254</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" ref="G49" si="5">MIN(G43,G$15*F38)</f>
+        <f>MIN(G43,G$15*F38)</f>
         <v>0</v>
       </c>
       <c r="J49" s="4">
@@ -8431,28 +8443,28 @@
         <v>0</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" ref="M49" si="6">MIN(M43,M$15*L38)</f>
+        <f>MIN(M43,M$15*L38)</f>
         <v>0</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" ref="P49" si="7">MIN(P43,P$15*O38)</f>
+        <f t="shared" ref="P49" si="5">MIN(P43,P$15*O38)</f>
         <v>0</v>
       </c>
       <c r="S49" s="4">
-        <f t="shared" ref="S49" si="8">MIN(S43,S$15*R38)</f>
+        <f t="shared" ref="S49" si="6">MIN(S43,S$15*R38)</f>
         <v>0</v>
       </c>
       <c r="V49" s="4">
-        <f t="shared" ref="V49" si="9">MIN(V43,V$15*U38)</f>
+        <f t="shared" ref="V49" si="7">MIN(V43,V$15*U38)</f>
         <v>0</v>
       </c>
       <c r="Y49" s="4">
-        <f t="shared" ref="Y49" si="10">MIN(Y43,Y$15*X38)</f>
+        <f t="shared" ref="Y49" si="8">MIN(Y43,Y$15*X38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="37"/>
       <c r="D50" s="28"/>
       <c r="E50" s="14" t="s">
@@ -8488,7 +8500,7 @@
       </c>
     </row>
     <row r="51" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="37"/>
       <c r="D51" s="28"/>
       <c r="E51" s="14" t="s">
@@ -8524,7 +8536,7 @@
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="51" t="s">
         <v>266</v>
       </c>
       <c r="B52" s="40" t="s">
@@ -8564,7 +8576,7 @@
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="50" t="s">
         <v>194</v>
       </c>
       <c r="B54" s="37" t="s">
@@ -8603,48 +8615,48 @@
       </c>
     </row>
     <row r="55" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="48"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="37"/>
       <c r="E55" s="14" t="s">
         <v>201</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" ref="G55:G57" si="11">G43*$G$20</f>
+        <f>G43*$G$20</f>
         <v>0</v>
       </c>
       <c r="J55" s="4">
-        <f t="shared" ref="J55:J57" si="12">J43*$G$20</f>
+        <f>J43*$G$20</f>
         <v>0</v>
       </c>
       <c r="M55" s="4">
-        <f t="shared" ref="M55:M57" si="13">M43*$G$20</f>
+        <f>M43*$G$20</f>
         <v>0</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" ref="P55:P57" si="14">P43*$G$20</f>
+        <f t="shared" ref="P55:P57" si="9">P43*$G$20</f>
         <v>0</v>
       </c>
       <c r="S55" s="4">
-        <f t="shared" ref="S55:S57" si="15">S43*$G$20</f>
+        <f t="shared" ref="S55:S57" si="10">S43*$G$20</f>
         <v>0</v>
       </c>
       <c r="V55" s="4">
-        <f t="shared" ref="V55:V57" si="16">V43*$G$20</f>
+        <f t="shared" ref="V55:V57" si="11">V43*$G$20</f>
         <v>0</v>
       </c>
       <c r="Y55" s="4">
-        <f t="shared" ref="Y55:Y57" si="17">Y43*$G$20</f>
+        <f t="shared" ref="Y55:Y57" si="12">Y43*$G$20</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="48"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="37"/>
       <c r="E56" s="14" t="s">
         <v>202</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G55:G57" si="13">G44*$G$20</f>
         <v>0</v>
       </c>
       <c r="J56" s="4">
@@ -8652,63 +8664,63 @@
         <v>0</v>
       </c>
       <c r="M56" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="M55:M57" si="14">M44*$G$20</f>
         <v>0</v>
       </c>
       <c r="P56" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S56" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V56" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y56" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="48"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="37"/>
       <c r="E57" s="14" t="s">
         <v>203</v>
       </c>
       <c r="G57" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" ref="J55:J57" si="15">J45*$G$20</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J57" s="4">
+      <c r="Y57" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M57" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S57" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V57" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="51" t="s">
         <v>195</v>
       </c>
       <c r="B58" s="40" t="s">
@@ -8748,7 +8760,7 @@
       <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="50" t="s">
         <v>179</v>
       </c>
       <c r="B60" s="37" t="s">
@@ -8787,7 +8799,7 @@
       </c>
     </row>
     <row r="61" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="48"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="37"/>
       <c r="E61" s="14" t="s">
         <v>91</v>
@@ -8820,7 +8832,7 @@
       </c>
     </row>
     <row r="62" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="48"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="37"/>
       <c r="E62" s="14" t="s">
         <v>92</v>
@@ -8852,7 +8864,7 @@
       </c>
     </row>
     <row r="63" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="48"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="37"/>
       <c r="E63" s="14" t="s">
         <v>93</v>
@@ -8891,7 +8903,7 @@
       <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="50" t="s">
         <v>239</v>
       </c>
       <c r="B66" s="37" t="s">
@@ -8909,28 +8921,28 @@
         <v>0.85</v>
       </c>
       <c r="M66" s="4">
-        <f>J66+M37*M60</f>
-        <v>5.0999999999999996</v>
+        <f>J66*(1- $F$29)+M37*M60</f>
+        <v>5.0983000000000001</v>
       </c>
       <c r="P66" s="4">
-        <f>M66+P37*P60</f>
-        <v>15.299999999999999</v>
+        <f>M66*(1- $F$29)+P37*P60</f>
+        <v>15.288103399999999</v>
       </c>
       <c r="S66" s="4">
-        <f>P66+S37*S60</f>
-        <v>32.299999999999997</v>
+        <f>P66*(1- $F$29)+S37*S60</f>
+        <v>32.257527193199998</v>
       </c>
       <c r="V66" s="4">
-        <f>S66+V37*V60</f>
-        <v>62.899999999999991</v>
+        <f>S66*(1- $F$29)+V37*V60</f>
+        <v>62.793012138813594</v>
       </c>
       <c r="Y66" s="4">
-        <f>V66+Y37*Y60</f>
-        <v>113.89999999999999</v>
+        <f>V66*(1- $F$29)+Y37*Y60</f>
+        <v>113.66742611453597</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="48"/>
+      <c r="A67" s="50"/>
       <c r="B67" s="37"/>
       <c r="E67" s="14" t="s">
         <v>110</v>
@@ -8940,80 +8952,80 @@
         <v>0</v>
       </c>
       <c r="M67" s="4">
-        <f>J67+M38*M61</f>
+        <f>J67*(1- $F$29)+M38*M61</f>
         <v>0.8</v>
       </c>
       <c r="P67" s="4">
-        <f>M67+P38*P61</f>
-        <v>4.8</v>
+        <f>M67*(1- $F$29)+P38*P61</f>
+        <v>4.7984</v>
       </c>
       <c r="S67" s="4">
-        <f>P67+S38*S61</f>
-        <v>14.399999999999999</v>
+        <f>P67*(1- $F$29)+S38*S61</f>
+        <v>14.3888032</v>
       </c>
       <c r="V67" s="4">
-        <f>S67+V38*V61</f>
-        <v>30.4</v>
+        <f>S67*(1- $F$29)+V38*V61</f>
+        <v>30.3600255936</v>
       </c>
       <c r="Y67" s="4">
-        <f>V67+Y38*Y61</f>
-        <v>59.199999999999996</v>
+        <f>V67*(1- $F$29)+Y38*Y61</f>
+        <v>59.099305542412793</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="48"/>
+      <c r="A68" s="50"/>
       <c r="B68" s="37"/>
       <c r="D68" s="28"/>
       <c r="E68" s="14" t="s">
         <v>111</v>
       </c>
       <c r="M68" s="4">
-        <f>J68+M39*M62</f>
+        <f>J68*(1- $F$29)+M39*M62</f>
         <v>0</v>
       </c>
       <c r="P68" s="4">
-        <f>M68+P39*P62</f>
+        <f>M68*(1- $F$29)+P39*P62</f>
         <v>0.92</v>
       </c>
       <c r="S68" s="4">
-        <f>P68+S39*S62</f>
-        <v>5.5200000000000005</v>
+        <f>P68*(1- $F$29)+S39*S62</f>
+        <v>5.5181600000000008</v>
       </c>
       <c r="V68" s="4">
-        <f>S68+V39*V62</f>
-        <v>16.559999999999999</v>
+        <f>S68*(1- $F$29)+V39*V62</f>
+        <v>16.547123679999999</v>
       </c>
       <c r="Y68" s="4">
-        <f>V68+Y39*Y62</f>
-        <v>34.96</v>
+        <f>V68*(1- $F$29)+Y39*Y62</f>
+        <v>34.91402943264</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="48"/>
+      <c r="A69" s="50"/>
       <c r="B69" s="37"/>
       <c r="D69" s="28"/>
       <c r="E69" s="14" t="s">
         <v>112</v>
       </c>
       <c r="M69" s="4">
-        <f>J69+M40*M63</f>
+        <f>J69*(1- $F$29)+M40*M63</f>
         <v>0</v>
       </c>
       <c r="P69" s="4">
-        <f>M69+P40*P63</f>
+        <f>M69*(1- $F$29)+P40*P63</f>
         <v>0</v>
       </c>
       <c r="S69" s="4">
-        <f>P69+S40*S63</f>
+        <f>P69*(1- $F$29)+S40*S63</f>
         <v>0.43</v>
       </c>
       <c r="V69" s="4">
-        <f>S69+V40*V63</f>
-        <v>2.58</v>
+        <f>S69*(1- $F$29)+V40*V63</f>
+        <v>2.5791399999999998</v>
       </c>
       <c r="Y69" s="4">
-        <f>V69+Y40*Y63</f>
-        <v>7.74</v>
+        <f>V69*(1- $F$29)+Y40*Y63</f>
+        <v>7.7339817200000001</v>
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.2">
@@ -9021,7 +9033,7 @@
       <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="48" t="s">
+      <c r="A71" s="50" t="s">
         <v>236</v>
       </c>
       <c r="B71" s="37" t="s">
@@ -9059,7 +9071,7 @@
       </c>
     </row>
     <row r="72" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="37"/>
       <c r="E72" s="14" t="s">
         <v>128</v>
@@ -9093,7 +9105,7 @@
       </c>
     </row>
     <row r="73" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="48"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="37"/>
       <c r="D73" s="28" t="s">
         <v>152</v>
@@ -9130,7 +9142,7 @@
       </c>
     </row>
     <row r="74" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="48"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="37"/>
       <c r="D74" s="28"/>
       <c r="E74" s="14" t="s">
@@ -9165,7 +9177,7 @@
       </c>
     </row>
     <row r="75" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="51" t="s">
         <v>237</v>
       </c>
       <c r="B75" s="40" t="s">
@@ -9217,7 +9229,7 @@
       </c>
     </row>
     <row r="77" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="50" t="s">
+      <c r="A77" s="52" t="s">
         <v>238</v>
       </c>
       <c r="B77" s="37" t="s">
@@ -9252,7 +9264,7 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="50"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="37"/>
       <c r="E78" s="14" t="s">
         <v>148</v>
@@ -9315,7 +9327,7 @@
       </c>
     </row>
     <row r="79" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="50"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="37"/>
       <c r="D79" s="22">
         <v>0</v>
@@ -9381,7 +9393,7 @@
       </c>
     </row>
     <row r="80" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="50"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="37"/>
       <c r="D80" s="22">
         <v>1</v>
@@ -9447,7 +9459,7 @@
       </c>
     </row>
     <row r="81" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="37"/>
       <c r="D81" s="22">
         <v>2</v>
@@ -9540,7 +9552,7 @@
       </c>
     </row>
     <row r="84" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="47" t="s">
+      <c r="A84" s="49" t="s">
         <v>182</v>
       </c>
       <c r="B84" s="37" t="s">
@@ -9595,15 +9607,15 @@
       </c>
       <c r="X84" s="4">
         <f>IF(V94=0,1,MIN(MAX((V94/V66-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>0.92728154163131749</v>
+        <v>0.92886400737928387</v>
       </c>
       <c r="Y84" s="4">
         <f>Y60*X84</f>
-        <v>0.55636892497879042</v>
+        <v>0.5573184044275703</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="47"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="37"/>
       <c r="E85" s="14" t="s">
         <v>132</v>
@@ -9662,7 +9674,7 @@
       </c>
     </row>
     <row r="86" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="47"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="37"/>
       <c r="E86" s="14" t="s">
         <v>133</v>
@@ -9721,7 +9733,7 @@
       </c>
     </row>
     <row r="87" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="47"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="37"/>
       <c r="E87" s="14" t="s">
         <v>134</v>
@@ -9783,7 +9795,7 @@
       <c r="E88" s="14"/>
     </row>
     <row r="89" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="49" t="s">
         <v>205</v>
       </c>
       <c r="B89" s="37" t="s">
@@ -9822,7 +9834,7 @@
       </c>
     </row>
     <row r="90" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="47"/>
+      <c r="A90" s="49"/>
       <c r="B90" s="37"/>
       <c r="E90" s="14" t="s">
         <v>207</v>
@@ -9836,28 +9848,28 @@
         <v>0</v>
       </c>
       <c r="M90" s="4">
-        <f t="shared" ref="M90:M92" si="18">(J95-M79)*$F$29</f>
+        <f t="shared" ref="M90:M92" si="16">(J95-M79)*$F$29</f>
         <v>0</v>
       </c>
       <c r="P90" s="4">
-        <f t="shared" ref="P90:P92" si="19">(M95-P79)*$F$29</f>
+        <f t="shared" ref="P90:P92" si="17">(M95-P79)*$F$29</f>
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="S90" s="4">
-        <f t="shared" ref="S90:S92" si="20">(P95-S79)*$F$29</f>
+        <f t="shared" ref="S90:S92" si="18">(P95-S79)*$F$29</f>
         <v>9.5968000000000008E-3</v>
       </c>
       <c r="V90" s="4">
-        <f t="shared" ref="V90:V92" si="21">(S95-V79)*$F$29</f>
+        <f t="shared" ref="V90:V92" si="19">(S95-V79)*$F$29</f>
         <v>1.6000000000000004E-2</v>
       </c>
       <c r="Y90" s="4">
-        <f t="shared" ref="Y90:Y92" si="22">(V95-Y79)*$F$29</f>
+        <f t="shared" ref="Y90:Y92" si="20">(V95-Y79)*$F$29</f>
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="47"/>
+      <c r="A91" s="49"/>
       <c r="B91" s="37"/>
       <c r="E91" s="14" t="s">
         <v>208</v>
@@ -9867,32 +9879,32 @@
         <v>0</v>
       </c>
       <c r="J91" s="4">
-        <f t="shared" ref="J90:J92" si="23">(G96-J80)*$F$29</f>
+        <f t="shared" ref="J90:J92" si="21">(G96-J80)*$F$29</f>
         <v>0</v>
       </c>
       <c r="M91" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S91" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P91" s="4">
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="V91" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S91" s="4">
+        <v>1.1036320000000002E-2</v>
+      </c>
+      <c r="Y91" s="4">
         <f t="shared" si="20"/>
-        <v>1.8400000000000001E-3</v>
-      </c>
-      <c r="V91" s="4">
-        <f t="shared" si="21"/>
-        <v>1.1036320000000002E-2</v>
-      </c>
-      <c r="Y91" s="4">
-        <f t="shared" si="22"/>
         <v>1.8400000000000007E-2</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="47"/>
+      <c r="A92" s="49"/>
       <c r="B92" s="37"/>
       <c r="E92" s="14" t="s">
         <v>209</v>
@@ -9902,27 +9914,27 @@
         <v>0</v>
       </c>
       <c r="J92" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M92" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S92" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P92" s="4">
+      <c r="V92" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S92" s="4">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="Y92" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V92" s="4">
-        <f t="shared" si="21"/>
-        <v>8.5999999999999998E-4</v>
-      </c>
-      <c r="Y92" s="4">
-        <f t="shared" si="22"/>
         <v>5.1582799999999995E-3</v>
       </c>
     </row>
@@ -9944,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="J94" s="4">
-        <f>G94 - J78 - J89 + J37*J84</f>
+        <f>G94 - J78 - J89 - J42 + J37*J84</f>
         <v>0.85</v>
       </c>
       <c r="M94" s="4">
-        <f>J94 - M78 - M89 + M37*M84</f>
+        <f>J94 - M78 - M89 - M42 + M37*M84</f>
         <v>5.0983000000000001</v>
       </c>
       <c r="P94" s="4">
-        <f>M94 - P78 - P89 + P37*P84</f>
+        <f>M94 - P78 - P89 - P42 + P37*P84</f>
         <v>15.288103399999999</v>
       </c>
       <c r="S94" s="4">
-        <f>P94 - S78 - S89 + S37*S84</f>
+        <f>P94 - S78 - S89 - S42 + S37*S84</f>
         <v>32.257527193199998</v>
       </c>
       <c r="V94" s="4">
-        <f>S94 - V78 - V89 + V37*V84</f>
+        <f>S94 - V78 - V89 - V42 + V37*V84</f>
         <v>39.082999999999998</v>
       </c>
       <c r="Y94" s="4">
-        <f>V94 - Y78 - Y89 + Y37*Y84</f>
-        <v>55.774358623197188</v>
+        <f>V94 - Y78 - Y89 - Y42 + Y37*Y84</f>
+        <v>55.855064376343478</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -9979,27 +9991,27 @@
         <v>0</v>
       </c>
       <c r="J95" s="4">
-        <f>G95 - J79 - J90 + J38*J85</f>
+        <f t="shared" ref="J95:J97" si="22">G95 - J79 - J90 - J43 + J38*J85</f>
         <v>0</v>
       </c>
       <c r="M95" s="4">
-        <f>J95 - M79 - M90 + M38*M85</f>
+        <f t="shared" ref="M95:M97" si="23">J95 - M79 - M90 - M43 + M38*M85</f>
         <v>0.8</v>
       </c>
       <c r="P95" s="4">
-        <f>M95 - P79 - P90 + P38*P85</f>
+        <f t="shared" ref="P95:P97" si="24">M95 - P79 - P90 - P43 + P38*P85</f>
         <v>4.7984</v>
       </c>
       <c r="S95" s="4">
-        <f>P95 - S79 - S90 + S38*S85</f>
+        <f t="shared" ref="S95:S97" si="25">P95 - S79 - S90 - S43 + S38*S85</f>
         <v>14.3888032</v>
       </c>
       <c r="V95" s="4">
-        <f>S95 - V79 - V90 + V38*V85</f>
+        <f t="shared" ref="V95:V97" si="26">S95 - V79 - V90 - V43 + V38*V85</f>
         <v>23.984000000000002</v>
       </c>
       <c r="Y95" s="4">
-        <f>V95 - Y79 - Y90 + Y38*Y85</f>
+        <f t="shared" ref="Y95:Y97" si="27">V95 - Y79 - Y90 - Y43 + Y38*Y85</f>
         <v>36.783999999999999</v>
       </c>
     </row>
@@ -10014,27 +10026,27 @@
         <v>0</v>
       </c>
       <c r="J96" s="4">
-        <f>G96 - J80 - J91 + J39*J86</f>
+        <f>G96 - J80 - J91 - J44 + J39*J86</f>
         <v>0</v>
       </c>
       <c r="M96" s="4">
-        <f>J96 - M80 - M91 + M39*M86</f>
+        <f>J96 - M80 - M91 - M44 + M39*M86</f>
         <v>0</v>
       </c>
       <c r="P96" s="4">
-        <f>M96 - P80 - P91 + P39*P86</f>
+        <f>M96 - P80 - P91 - P44 + P39*P86</f>
         <v>0.92</v>
       </c>
       <c r="S96" s="4">
-        <f>P96 - S80 - S91 + S39*S86</f>
+        <f>P96 - S80 - S91 - S44 + S39*S86</f>
         <v>5.5181600000000008</v>
       </c>
       <c r="V96" s="4">
-        <f>S96 - V80 - V91 + V39*V86</f>
+        <f>S96 - V80 - V91 - V44 + V39*V86</f>
         <v>16.547123679999999</v>
       </c>
       <c r="Y96" s="4">
-        <f>V96 - Y80 - Y91 + Y39*Y86</f>
+        <f>V96 - Y80 - Y91 - Y44 + Y39*Y86</f>
         <v>27.581600000000005</v>
       </c>
     </row>
@@ -10049,27 +10061,27 @@
         <v>0</v>
       </c>
       <c r="J97" s="4">
-        <f>G97 - J81 - J92 + J40*J87</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M97" s="4">
-        <f>J97 - M81 - M92 + M40*M87</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P97" s="4">
-        <f>M97 - P81 - P92 + P40*P87</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S97" s="4">
-        <f>P97 - S81 - S92 + S40*S87</f>
+        <f t="shared" si="25"/>
         <v>0.43</v>
       </c>
       <c r="V97" s="4">
-        <f>S97 - V81 - V92 + V40*V87</f>
+        <f t="shared" si="26"/>
         <v>2.5791399999999998</v>
       </c>
       <c r="Y97" s="4">
-        <f>V97 - Y81 - Y92 + Y40*Y87</f>
+        <f t="shared" si="27"/>
         <v>7.7339817200000001</v>
       </c>
     </row>
@@ -10114,7 +10126,7 @@
       </c>
       <c r="Y99" s="4">
         <f>Y94*$G$20</f>
-        <v>13.943589655799297</v>
+        <v>13.963766094085869</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -10125,31 +10137,31 @@
         <v>213</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" ref="G100:G102" si="24">G95*$G$20</f>
+        <f t="shared" ref="G100:G102" si="28">G95*$G$20</f>
         <v>0</v>
       </c>
       <c r="J100" s="4">
-        <f t="shared" ref="J100:J102" si="25">J95*$G$20</f>
+        <f t="shared" ref="J100:J102" si="29">J95*$G$20</f>
         <v>0</v>
       </c>
       <c r="M100" s="4">
-        <f t="shared" ref="M100:M102" si="26">M95*$G$20</f>
+        <f t="shared" ref="M100:M102" si="30">M95*$G$20</f>
         <v>0.2</v>
       </c>
       <c r="P100" s="4">
-        <f t="shared" ref="P100:P102" si="27">P95*$G$20</f>
+        <f t="shared" ref="P100:P102" si="31">P95*$G$20</f>
         <v>1.1996</v>
       </c>
       <c r="S100" s="4">
-        <f t="shared" ref="S100:S102" si="28">S95*$G$20</f>
+        <f t="shared" ref="S100:S102" si="32">S95*$G$20</f>
         <v>3.5972008</v>
       </c>
       <c r="V100" s="4">
-        <f t="shared" ref="V100:V102" si="29">V95*$G$20</f>
+        <f t="shared" ref="V100:V102" si="33">V95*$G$20</f>
         <v>5.9960000000000004</v>
       </c>
       <c r="Y100" s="4">
-        <f t="shared" ref="Y100:Y102" si="30">Y95*$G$20</f>
+        <f t="shared" ref="Y100:Y102" si="34">Y95*$G$20</f>
         <v>9.1959999999999997</v>
       </c>
     </row>
@@ -10197,31 +10209,31 @@
         <v>215</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J102" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M102" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P102" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S102" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.1075</v>
       </c>
       <c r="V102" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.64478499999999994</v>
       </c>
       <c r="Y102" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.93349543</v>
       </c>
     </row>
@@ -10773,7 +10785,7 @@
       </c>
       <c r="Y115" s="4">
         <f>SUM(Y94:Y97)</f>
-        <v>127.87394034319721</v>
+        <v>127.95464609634348</v>
       </c>
     </row>
     <row r="116" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -10840,7 +10852,7 @@
       </c>
       <c r="Y116" s="4">
         <f>Y114+Y115</f>
-        <v>3187501.5744820591</v>
+        <v>3187501.6551878126</v>
       </c>
     </row>
     <row r="117" spans="1:25" ht="17" x14ac:dyDescent="0.2">

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC78003-B42E-B647-9794-4D0FE38B4C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08D78AE-190A-D342-B014-DBE3E572ADE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12440" yWindow="560" windowWidth="33680" windowHeight="19400" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="6180" yWindow="760" windowWidth="31100" windowHeight="19860" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -790,9 +790,6 @@
     <t>n/af ref to arr_orig_biomass_c_ag_starting</t>
   </si>
   <si>
-    <t>arr_biomass_c_ag_converted_away</t>
-  </si>
-  <si>
     <t>average stock in target land use classes</t>
   </si>
   <si>
@@ -883,9 +880,6 @@
     <t>arr_orig_frac_stock_available</t>
   </si>
   <si>
-    <t>arr_orig_biomass_c_average_per_area_no_ds</t>
-  </si>
-  <si>
     <t>vec_total_removals_met</t>
   </si>
   <si>
@@ -896,6 +890,12 @@
   </si>
   <si>
     <t>vec_biomass_c_ag_min_reqd_per_area</t>
+  </si>
+  <si>
+    <t>arr_orig_biomass_c_ag_converted_away</t>
+  </si>
+  <si>
+    <t>arr_orig_biomass_c_ag_average_per_area_no_ds</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1180,9 +1180,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6351,8 +6348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
   <dimension ref="A1:AM158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6578,7 +6575,7 @@
         <v>135</v>
       </c>
       <c r="Y5" s="29"/>
-      <c r="AB5" s="48" t="s">
+      <c r="AB5" s="47" t="s">
         <v>235</v>
       </c>
       <c r="AC5" s="21" t="s">
@@ -6673,7 +6670,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>156</v>
       </c>
       <c r="B7" s="40" t="s">
@@ -6760,7 +6757,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>157</v>
       </c>
       <c r="B8" s="41" t="s">
@@ -6849,7 +6846,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>225</v>
       </c>
       <c r="B9" s="41" t="s">
@@ -6924,7 +6921,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="50" t="s">
         <v>224</v>
       </c>
       <c r="B10" s="40" t="s">
@@ -6973,7 +6970,7 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="50" t="s">
         <v>222</v>
       </c>
       <c r="B11" s="40" t="s">
@@ -7022,7 +7019,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>223</v>
       </c>
       <c r="B12" s="41" t="s">
@@ -7064,7 +7061,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>158</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -7134,7 +7131,7 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>226</v>
       </c>
       <c r="B14" s="41" t="s">
@@ -7176,17 +7173,17 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
-        <v>251</v>
+      <c r="A15" s="50" t="s">
+        <v>250</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>162</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F15" s="4">
         <v>5</v>
@@ -7235,7 +7232,7 @@
       <c r="AE15" s="19"/>
     </row>
     <row r="16" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="50" t="s">
         <v>227</v>
       </c>
       <c r="B16" s="41" t="s">
@@ -7277,7 +7274,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="50" t="s">
         <v>228</v>
       </c>
       <c r="B17" s="41" t="s">
@@ -7304,7 +7301,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="50" t="s">
         <v>229</v>
       </c>
       <c r="B18" s="41" t="s">
@@ -7329,7 +7326,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="50" t="s">
         <v>231</v>
       </c>
       <c r="B19" s="41" t="s">
@@ -7356,7 +7353,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="50" t="s">
         <v>233</v>
       </c>
       <c r="B20" s="41" t="s">
@@ -7376,8 +7373,8 @@
       <c r="AE20" s="19"/>
     </row>
     <row r="21" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
-        <v>283</v>
+      <c r="A21" s="50" t="s">
+        <v>281</v>
       </c>
       <c r="B21" s="42" t="s">
         <v>175</v>
@@ -7405,7 +7402,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="50" t="s">
         <v>232</v>
       </c>
       <c r="B22" s="42" t="s">
@@ -7446,7 +7443,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="50" t="s">
         <v>159</v>
       </c>
       <c r="B24" s="41" t="s">
@@ -7509,8 +7506,8 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
-        <v>282</v>
+      <c r="A25" s="50" t="s">
+        <v>280</v>
       </c>
       <c r="B25" s="43" t="s">
         <v>164</v>
@@ -7558,7 +7555,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="50" t="s">
         <v>160</v>
       </c>
       <c r="B26" s="43" t="s">
@@ -7664,8 +7661,8 @@
       </c>
     </row>
     <row r="28" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
-        <v>281</v>
+      <c r="A28" s="50" t="s">
+        <v>279</v>
       </c>
       <c r="B28" s="41" t="s">
         <v>162</v>
@@ -7684,7 +7681,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="50" t="s">
         <v>234</v>
       </c>
       <c r="B29" s="42" t="s">
@@ -7726,7 +7723,7 @@
       <c r="Y31" s="8"/>
     </row>
     <row r="32" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="50" t="s">
         <v>169</v>
       </c>
       <c r="B32" s="41" t="s">
@@ -7851,7 +7848,7 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="48" t="s">
         <v>181</v>
       </c>
       <c r="B37" s="37" t="s">
@@ -7941,7 +7938,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="37"/>
       <c r="E38" s="14" t="s">
         <v>69</v>
@@ -8026,7 +8023,7 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="37"/>
       <c r="E39" s="14" t="s">
         <v>79</v>
@@ -8110,7 +8107,7 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="37"/>
       <c r="E40" s="14" t="s">
         <v>80</v>
@@ -8201,7 +8198,7 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="49" t="s">
         <v>192</v>
       </c>
       <c r="B42" s="37" t="s">
@@ -8239,7 +8236,7 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="37"/>
       <c r="E43" s="14" t="s">
         <v>197</v>
@@ -8273,7 +8270,7 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="37"/>
       <c r="E44" s="14" t="s">
         <v>198</v>
@@ -8307,7 +8304,7 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="37"/>
       <c r="E45" s="14" t="s">
         <v>199</v>
@@ -8341,7 +8338,7 @@
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="50" t="s">
         <v>193</v>
       </c>
       <c r="B46" s="40" t="s">
@@ -8386,17 +8383,17 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="50" t="s">
-        <v>265</v>
+      <c r="A48" s="49" t="s">
+        <v>264</v>
       </c>
       <c r="B48" s="37" t="s">
         <v>175</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G48" s="4">
         <f>MIN(G42,G$15*F37)</f>
@@ -8428,11 +8425,11 @@
       </c>
     </row>
     <row r="49" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="37"/>
       <c r="D49" s="28"/>
       <c r="E49" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G49" s="4">
         <f>MIN(G43,G$15*F38)</f>
@@ -8464,11 +8461,11 @@
       </c>
     </row>
     <row r="50" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="37"/>
       <c r="D50" s="28"/>
       <c r="E50" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G50" s="4">
         <f>MIN(G44,G$15*F39)</f>
@@ -8500,11 +8497,11 @@
       </c>
     </row>
     <row r="51" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="37"/>
       <c r="D51" s="28"/>
       <c r="E51" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G51" s="4">
         <f>MIN(G45,G$15*F40)</f>
@@ -8536,8 +8533,8 @@
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A52" s="51" t="s">
-        <v>266</v>
+      <c r="A52" s="50" t="s">
+        <v>265</v>
       </c>
       <c r="B52" s="40" t="s">
         <v>175</v>
@@ -8576,7 +8573,7 @@
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="49" t="s">
         <v>194</v>
       </c>
       <c r="B54" s="37" t="s">
@@ -8615,7 +8612,7 @@
       </c>
     </row>
     <row r="55" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="37"/>
       <c r="E55" s="14" t="s">
         <v>201</v>
@@ -8650,7 +8647,7 @@
       </c>
     </row>
     <row r="56" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="50"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="37"/>
       <c r="E56" s="14" t="s">
         <v>202</v>
@@ -8685,7 +8682,7 @@
       </c>
     </row>
     <row r="57" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="50"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="37"/>
       <c r="E57" s="14" t="s">
         <v>203</v>
@@ -8720,7 +8717,7 @@
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A58" s="51" t="s">
+      <c r="A58" s="50" t="s">
         <v>195</v>
       </c>
       <c r="B58" s="40" t="s">
@@ -8760,7 +8757,7 @@
       <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="49" t="s">
         <v>179</v>
       </c>
       <c r="B60" s="37" t="s">
@@ -8799,7 +8796,7 @@
       </c>
     </row>
     <row r="61" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="50"/>
+      <c r="A61" s="49"/>
       <c r="B61" s="37"/>
       <c r="E61" s="14" t="s">
         <v>91</v>
@@ -8832,7 +8829,7 @@
       </c>
     </row>
     <row r="62" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="50"/>
+      <c r="A62" s="49"/>
       <c r="B62" s="37"/>
       <c r="E62" s="14" t="s">
         <v>92</v>
@@ -8864,7 +8861,7 @@
       </c>
     </row>
     <row r="63" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="50"/>
+      <c r="A63" s="49"/>
       <c r="B63" s="37"/>
       <c r="E63" s="14" t="s">
         <v>93</v>
@@ -8903,7 +8900,7 @@
       <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="49" t="s">
         <v>239</v>
       </c>
       <c r="B66" s="37" t="s">
@@ -8942,7 +8939,7 @@
       </c>
     </row>
     <row r="67" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="50"/>
+      <c r="A67" s="49"/>
       <c r="B67" s="37"/>
       <c r="E67" s="14" t="s">
         <v>110</v>
@@ -8973,7 +8970,7 @@
       </c>
     </row>
     <row r="68" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="50"/>
+      <c r="A68" s="49"/>
       <c r="B68" s="37"/>
       <c r="D68" s="28"/>
       <c r="E68" s="14" t="s">
@@ -9001,7 +8998,7 @@
       </c>
     </row>
     <row r="69" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="50"/>
+      <c r="A69" s="49"/>
       <c r="B69" s="37"/>
       <c r="D69" s="28"/>
       <c r="E69" s="14" t="s">
@@ -9033,7 +9030,7 @@
       <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="49" t="s">
         <v>236</v>
       </c>
       <c r="B71" s="37" t="s">
@@ -9071,7 +9068,7 @@
       </c>
     </row>
     <row r="72" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="50"/>
+      <c r="A72" s="49"/>
       <c r="B72" s="37"/>
       <c r="E72" s="14" t="s">
         <v>128</v>
@@ -9105,7 +9102,7 @@
       </c>
     </row>
     <row r="73" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
+      <c r="A73" s="49"/>
       <c r="B73" s="37"/>
       <c r="D73" s="28" t="s">
         <v>152</v>
@@ -9142,7 +9139,7 @@
       </c>
     </row>
     <row r="74" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="50"/>
+      <c r="A74" s="49"/>
       <c r="B74" s="37"/>
       <c r="D74" s="28"/>
       <c r="E74" s="14" t="s">
@@ -9177,7 +9174,7 @@
       </c>
     </row>
     <row r="75" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="51" t="s">
+      <c r="A75" s="50" t="s">
         <v>237</v>
       </c>
       <c r="B75" s="40" t="s">
@@ -9229,7 +9226,7 @@
       </c>
     </row>
     <row r="77" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="52" t="s">
+      <c r="A77" s="51" t="s">
         <v>238</v>
       </c>
       <c r="B77" s="37" t="s">
@@ -9264,7 +9261,7 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="52"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="37"/>
       <c r="E78" s="14" t="s">
         <v>148</v>
@@ -9274,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="4">
-        <f>IF(F78&gt;=F$129, IF(F77&lt;F$129, F$129-F77, 0),G71)</f>
+        <f>IF(F78&gt;=F$130, IF(F77&lt;F$130, F$130-F77, 0),G71)</f>
         <v>0</v>
       </c>
       <c r="I78" s="4">
@@ -9282,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="4">
-        <f>IF(I78&gt;=I$129, IF(I77&lt;I$129, I$129-I77, 0),J71)</f>
+        <f>IF(I78&gt;=I$130, IF(I77&lt;I$130, I$130-I77, 0),J71)</f>
         <v>0</v>
       </c>
       <c r="L78" s="4">
@@ -9290,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="4">
-        <f>IF(L78&gt;=L$129, IF(L77&lt;L$129, L$129-L77, 0),M71)</f>
+        <f>IF(L78&gt;=L$130, IF(L77&lt;L$130, L$130-L77, 0),M71)</f>
         <v>0</v>
       </c>
       <c r="O78" s="4">
@@ -9298,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="4">
-        <f>IF(O78&gt;=O$129, IF(O77&lt;O$129, O$129-O77, 0),P71)</f>
+        <f>IF(O78&gt;=O$130, IF(O77&lt;O$130, O$130-O77, 0),P71)</f>
         <v>0</v>
       </c>
       <c r="R78" s="4">
@@ -9306,7 +9303,7 @@
         <v>6.7881033999999989</v>
       </c>
       <c r="S78" s="4">
-        <f>IF(R78&gt;=R$129, IF(R77&lt;R$129, R$129-R77, 0),S71)</f>
+        <f>IF(R78&gt;=R$130, IF(R77&lt;R$130, R$130-R77, 0),S71)</f>
         <v>0</v>
       </c>
       <c r="U78" s="4">
@@ -9314,7 +9311,7 @@
         <v>23.757527193199998</v>
       </c>
       <c r="V78" s="4">
-        <f>IF(U78&gt;=U$129, IF(U77&lt;U$129, U$129-U77, 0),V71)</f>
+        <f>IF(U78&gt;=U$130, IF(U77&lt;U$130, U$130-U77, 0),V71)</f>
         <v>23.757527193199998</v>
       </c>
       <c r="X78" s="4">
@@ -9322,12 +9319,12 @@
         <v>30.582999999999998</v>
       </c>
       <c r="Y78" s="4">
-        <f>IF(X78&gt;=X$129, IF(X77&lt;X$129, X$129-X77, 0),Y71)</f>
+        <f>IF(X78&gt;=X$130, IF(X77&lt;X$130, X$130-X77, 0),Y71)</f>
         <v>30.582999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="52"/>
+      <c r="A79" s="51"/>
       <c r="B79" s="37"/>
       <c r="D79" s="22">
         <v>0</v>
@@ -9340,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="4">
-        <f>IF(F79&gt;=F$129, IF(F78&lt;F$129, F$129-F78, 0),G72)</f>
+        <f>IF(F79&gt;=F$130, IF(F78&lt;F$130, F$130-F78, 0),G72)</f>
         <v>0</v>
       </c>
       <c r="I79" s="4">
@@ -9348,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="4">
-        <f>IF(I79&gt;=I$129, IF(I78&lt;I$129, I$129-I78, 0),J72)</f>
+        <f>IF(I79&gt;=I$130, IF(I78&lt;I$130, I$130-I78, 0),J72)</f>
         <v>0</v>
       </c>
       <c r="L79" s="4">
@@ -9356,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="4">
-        <f>IF(L79&gt;=L$129, IF(L78&lt;L$129, L$129-L78, 0),M72)</f>
+        <f>IF(L79&gt;=L$130, IF(L78&lt;L$130, L$130-L78, 0),M72)</f>
         <v>0</v>
       </c>
       <c r="O79" s="4">
@@ -9364,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="4">
-        <f>IF(O79&gt;=O$129, IF(O78&lt;O$129, O$129-O78, 0),P72)</f>
+        <f>IF(O79&gt;=O$130, IF(O78&lt;O$130, O$130-O78, 0),P72)</f>
         <v>0</v>
       </c>
       <c r="R79" s="4">
@@ -9372,7 +9369,7 @@
         <v>6.7881033999999989</v>
       </c>
       <c r="S79" s="4">
-        <f>IF(R79&gt;=R$129, IF(R78&lt;R$129, R$129-R78, 0),S72)</f>
+        <f>IF(R79&gt;=R$130, IF(R78&lt;R$130, R$130-R78, 0),S72)</f>
         <v>0</v>
       </c>
       <c r="U79" s="4">
@@ -9380,7 +9377,7 @@
         <v>30.146330393199996</v>
       </c>
       <c r="V79" s="4">
-        <f>IF(U79&gt;=U$129, IF(U78&lt;U$129, U$129-U78, 0),V72)</f>
+        <f>IF(U79&gt;=U$130, IF(U78&lt;U$130, U$130-U78, 0),V72)</f>
         <v>6.3888031999999981</v>
       </c>
       <c r="X79" s="4">
@@ -9388,12 +9385,12 @@
         <v>46.567</v>
       </c>
       <c r="Y79" s="4">
-        <f>IF(X79&gt;=X$129, IF(X78&lt;X$129, X$129-X78, 0),Y72)</f>
+        <f>IF(X79&gt;=X$130, IF(X78&lt;X$130, X$130-X78, 0),Y72)</f>
         <v>15.984000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="52"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="37"/>
       <c r="D80" s="22">
         <v>1</v>
@@ -9406,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="4">
-        <f>IF(F80&gt;=F$129, IF(F79&lt;F$129, F$129-F79, 0),G73)</f>
+        <f>IF(F80&gt;=F$130, IF(F79&lt;F$130, F$130-F79, 0),G73)</f>
         <v>0</v>
       </c>
       <c r="I80" s="4">
@@ -9414,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="4">
-        <f>IF(I80&gt;=I$129, IF(I79&lt;I$129, I$129-I79, 0),J73)</f>
+        <f>IF(I80&gt;=I$130, IF(I79&lt;I$130, I$130-I79, 0),J73)</f>
         <v>0</v>
       </c>
       <c r="L80" s="4">
@@ -9422,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="4">
-        <f>IF(L80&gt;=L$129, IF(L79&lt;L$129, L$129-L79, 0),M73)</f>
+        <f>IF(L80&gt;=L$130, IF(L79&lt;L$130, L$130-L79, 0),M73)</f>
         <v>0</v>
       </c>
       <c r="O80" s="4">
@@ -9430,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="4">
-        <f>IF(O80&gt;=O$129, IF(O79&lt;O$129, O$129-O79, 0),P73)</f>
+        <f>IF(O80&gt;=O$130, IF(O79&lt;O$130, O$130-O79, 0),P73)</f>
         <v>0</v>
       </c>
       <c r="R80" s="4">
@@ -9438,7 +9435,7 @@
         <v>6.7881033999999989</v>
       </c>
       <c r="S80" s="4">
-        <f>IF(R80&gt;=R$129, IF(R79&lt;R$129, R$129-R79, 0),S73)</f>
+        <f>IF(R80&gt;=R$130, IF(R79&lt;R$130, R$130-R79, 0),S73)</f>
         <v>0</v>
       </c>
       <c r="U80" s="4">
@@ -9446,7 +9443,7 @@
         <v>30.146330393199996</v>
       </c>
       <c r="V80" s="4">
-        <f>IF(U80&gt;=U$129, IF(U79&lt;U$129, U$129-U79, 0),V73)</f>
+        <f>IF(U80&gt;=U$130, IF(U79&lt;U$130, U$130-U79, 0),V73)</f>
         <v>0</v>
       </c>
       <c r="X80" s="4">
@@ -9454,12 +9451,12 @@
         <v>53.914123679999996</v>
       </c>
       <c r="Y80" s="4">
-        <f>IF(X80&gt;=X$129, IF(X79&lt;X$129, X$129-X79, 0),Y73)</f>
+        <f>IF(X80&gt;=X$130, IF(X79&lt;X$130, X$130-X79, 0),Y73)</f>
         <v>7.3471236799999957</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
+      <c r="A81" s="51"/>
       <c r="B81" s="37"/>
       <c r="D81" s="22">
         <v>2</v>
@@ -9472,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="4">
-        <f>IF(F81&gt;=F$129, IF(F80&lt;F$129, F$129-F80, 0),G74)</f>
+        <f>IF(F81&gt;=F$130, IF(F80&lt;F$130, F$130-F80, 0),G74)</f>
         <v>0</v>
       </c>
       <c r="I81" s="4">
@@ -9480,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="4">
-        <f>IF(I81&gt;=I$129, IF(I80&lt;I$129, I$129-I80, 0),J74)</f>
+        <f>IF(I81&gt;=I$130, IF(I80&lt;I$130, I$130-I80, 0),J74)</f>
         <v>0</v>
       </c>
       <c r="L81" s="4">
@@ -9488,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="4">
-        <f>IF(L81&gt;=L$129, IF(L80&lt;L$129, L$129-L80, 0),M74)</f>
+        <f>IF(L81&gt;=L$130, IF(L80&lt;L$130, L$130-L80, 0),M74)</f>
         <v>0</v>
       </c>
       <c r="O81" s="4">
@@ -9496,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="4">
-        <f>IF(O81&gt;=O$129, IF(O80&lt;O$129, O$129-O80, 0),P74)</f>
+        <f>IF(O81&gt;=O$130, IF(O80&lt;O$130, O$130-O80, 0),P74)</f>
         <v>0</v>
       </c>
       <c r="R81" s="4">
@@ -9504,7 +9501,7 @@
         <v>6.7881033999999989</v>
       </c>
       <c r="S81" s="4">
-        <f>IF(R81&gt;=R$129, IF(R80&lt;R$129, R$129-R80, 0),S74)</f>
+        <f>IF(R81&gt;=R$130, IF(R80&lt;R$130, R$130-R80, 0),S74)</f>
         <v>0</v>
       </c>
       <c r="U81" s="4">
@@ -9512,7 +9509,7 @@
         <v>30.146330393199996</v>
       </c>
       <c r="V81" s="4">
-        <f>IF(U81&gt;=U$129, IF(U80&lt;U$129, U$129-U80, 0),V74)</f>
+        <f>IF(U81&gt;=U$130, IF(U80&lt;U$130, U$130-U80, 0),V74)</f>
         <v>0</v>
       </c>
       <c r="X81" s="4">
@@ -9520,7 +9517,7 @@
         <v>53.914123679999996</v>
       </c>
       <c r="Y81" s="4">
-        <f>IF(X81&gt;=X$129, IF(X80&lt;X$129, X$129-X80, 0),Y74)</f>
+        <f>IF(X81&gt;=X$130, IF(X80&lt;X$130, X$130-X80, 0),Y74)</f>
         <v>0</v>
       </c>
     </row>
@@ -9552,7 +9549,7 @@
       </c>
     </row>
     <row r="84" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="48" t="s">
         <v>182</v>
       </c>
       <c r="B84" s="37" t="s">
@@ -9615,7 +9612,7 @@
       </c>
     </row>
     <row r="85" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="49"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="37"/>
       <c r="E85" s="14" t="s">
         <v>132</v>
@@ -9674,7 +9671,7 @@
       </c>
     </row>
     <row r="86" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="49"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="37"/>
       <c r="E86" s="14" t="s">
         <v>133</v>
@@ -9733,7 +9730,7 @@
       </c>
     </row>
     <row r="87" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="49"/>
+      <c r="A87" s="48"/>
       <c r="B87" s="37"/>
       <c r="E87" s="14" t="s">
         <v>134</v>
@@ -9795,7 +9792,7 @@
       <c r="E88" s="14"/>
     </row>
     <row r="89" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="49" t="s">
+      <c r="A89" s="48" t="s">
         <v>205</v>
       </c>
       <c r="B89" s="37" t="s">
@@ -9809,32 +9806,32 @@
         <v>0</v>
       </c>
       <c r="J89" s="4">
-        <f>(G94-J78)*$F$29</f>
+        <f>(G94-J78-J42)*$F$29</f>
         <v>0</v>
       </c>
       <c r="M89" s="4">
-        <f>(J94-M78)*$F$29</f>
+        <f>(J94-M78-M42)*$F$29</f>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="P89" s="4">
-        <f>(M94-P78)*$F$29</f>
+        <f>(M94-P78-P42)*$F$29</f>
         <v>1.01966E-2</v>
       </c>
       <c r="S89" s="4">
-        <f>(P94-S78)*$F$29</f>
+        <f>(P94-S78-S42)*$F$29</f>
         <v>3.0576206799999998E-2</v>
       </c>
       <c r="V89" s="4">
-        <f>(S94-V78)*$F$29</f>
+        <f>(S94-V78-V42)*$F$29</f>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Y89" s="4">
-        <f>(V94-Y78)*$F$29</f>
+        <f>(V94-Y78-Y42)*$F$29</f>
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="49"/>
+      <c r="A90" s="48"/>
       <c r="B90" s="37"/>
       <c r="E90" s="14" t="s">
         <v>207</v>
@@ -9844,32 +9841,32 @@
         <v>0</v>
       </c>
       <c r="J90" s="4">
-        <f>(G95-J79)*$F$29</f>
+        <f t="shared" ref="J90:J92" si="16">(G95-J79-J43)*$F$29</f>
         <v>0</v>
       </c>
       <c r="M90" s="4">
-        <f t="shared" ref="M90:M92" si="16">(J95-M79)*$F$29</f>
+        <f t="shared" ref="M90:M92" si="17">(J95-M79-M43)*$F$29</f>
         <v>0</v>
       </c>
       <c r="P90" s="4">
-        <f t="shared" ref="P90:P92" si="17">(M95-P79)*$F$29</f>
+        <f t="shared" ref="P90:P92" si="18">(M95-P79-P43)*$F$29</f>
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="S90" s="4">
-        <f t="shared" ref="S90:S92" si="18">(P95-S79)*$F$29</f>
+        <f t="shared" ref="S90:S92" si="19">(P95-S79-S43)*$F$29</f>
         <v>9.5968000000000008E-3</v>
       </c>
       <c r="V90" s="4">
-        <f t="shared" ref="V90:V92" si="19">(S95-V79)*$F$29</f>
+        <f t="shared" ref="V90:V92" si="20">(S95-V79-V43)*$F$29</f>
         <v>1.6000000000000004E-2</v>
       </c>
       <c r="Y90" s="4">
-        <f t="shared" ref="Y90:Y92" si="20">(V95-Y79)*$F$29</f>
+        <f t="shared" ref="Y90:Y92" si="21">(V95-Y79-Y43)*$F$29</f>
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="49"/>
+      <c r="A91" s="48"/>
       <c r="B91" s="37"/>
       <c r="E91" s="14" t="s">
         <v>208</v>
@@ -9879,32 +9876,32 @@
         <v>0</v>
       </c>
       <c r="J91" s="4">
-        <f t="shared" ref="J90:J92" si="21">(G96-J80)*$F$29</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M91" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P91" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S91" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.8400000000000001E-3</v>
       </c>
       <c r="V91" s="4">
-        <f t="shared" si="19"/>
+        <f>(S96-V80-V44)*$F$29</f>
         <v>1.1036320000000002E-2</v>
       </c>
       <c r="Y91" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.8400000000000007E-2</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="49"/>
+      <c r="A92" s="48"/>
       <c r="B92" s="37"/>
       <c r="E92" s="14" t="s">
         <v>209</v>
@@ -9914,27 +9911,27 @@
         <v>0</v>
       </c>
       <c r="J92" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S92" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="4">
+        <f t="shared" si="20"/>
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="Y92" s="4">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M92" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P92" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S92" s="4">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V92" s="4">
-        <f t="shared" si="19"/>
-        <v>8.5999999999999998E-4</v>
-      </c>
-      <c r="Y92" s="4">
-        <f t="shared" si="20"/>
         <v>5.1582799999999995E-3</v>
       </c>
     </row>
@@ -9942,7 +9939,7 @@
       <c r="E93" s="14"/>
     </row>
     <row r="94" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="48" t="s">
         <v>210</v>
       </c>
       <c r="B94" s="37" t="s">
@@ -9981,7 +9978,7 @@
       </c>
     </row>
     <row r="95" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="47"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="37"/>
       <c r="E95" s="14" t="s">
         <v>71</v>
@@ -10016,7 +10013,7 @@
       </c>
     </row>
     <row r="96" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="47"/>
+      <c r="A96" s="48"/>
       <c r="B96" s="37"/>
       <c r="E96" s="14" t="s">
         <v>72</v>
@@ -10051,7 +10048,7 @@
       </c>
     </row>
     <row r="97" spans="1:25" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="47"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="37"/>
       <c r="E97" s="14" t="s">
         <v>81</v>
@@ -10090,7 +10087,7 @@
       <c r="E98" s="14"/>
     </row>
     <row r="99" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="48" t="s">
         <v>211</v>
       </c>
       <c r="B99" s="37" t="s">
@@ -10130,7 +10127,7 @@
       </c>
     </row>
     <row r="100" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="47"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="37"/>
       <c r="D100" s="35"/>
       <c r="E100" s="14" t="s">
@@ -10166,7 +10163,7 @@
       </c>
     </row>
     <row r="101" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="47"/>
+      <c r="A101" s="48"/>
       <c r="B101" s="37"/>
       <c r="D101" s="35"/>
       <c r="E101" s="14" t="s">
@@ -10202,7 +10199,7 @@
       </c>
     </row>
     <row r="102" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="47"/>
+      <c r="A102" s="48"/>
       <c r="B102" s="37"/>
       <c r="D102" s="35"/>
       <c r="E102" s="14" t="s">
@@ -10260,7 +10257,7 @@
       <c r="G105" s="8"/>
     </row>
     <row r="106" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="50" t="s">
         <v>240</v>
       </c>
       <c r="B106" s="44" t="s">
@@ -10328,7 +10325,7 @@
       </c>
     </row>
     <row r="107" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="46" t="s">
+      <c r="A107" s="50" t="s">
         <v>241</v>
       </c>
       <c r="B107" s="40" t="s">
@@ -10395,7 +10392,7 @@
       </c>
     </row>
     <row r="108" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="46" t="s">
+      <c r="A108" s="50" t="s">
         <v>184</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -10460,7 +10457,7 @@
       </c>
     </row>
     <row r="109" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="46" t="s">
+      <c r="A109" s="50" t="s">
         <v>185</v>
       </c>
       <c r="B109" s="43" t="s">
@@ -10527,7 +10524,7 @@
       </c>
     </row>
     <row r="110" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="46" t="s">
+      <c r="A110" s="50" t="s">
         <v>242</v>
       </c>
       <c r="B110" s="43" t="s">
@@ -10545,56 +10542,56 @@
         <v>25000000</v>
       </c>
       <c r="I110" s="4">
-        <f>F110 - F130 - F118 - F142+I109*I7</f>
+        <f>F110 - F131 - F119 - F142+I109*I7</f>
         <v>1421423.1421982395</v>
       </c>
       <c r="J110" s="4">
-        <f>G110 - G130 - G118 - G142 + J109*J7</f>
+        <f>G110 - G131 - G119 - G142 + J109*J7</f>
         <v>23256357.107801761</v>
       </c>
       <c r="L110" s="4">
-        <f>I110 - I130 - I118 - I142+L109*L7</f>
+        <f>I110 - I131 - I119 - I142+L109*L7</f>
         <v>1339098.0188325029</v>
       </c>
       <c r="M110" s="4">
-        <f>J110 - J130 - J118 - J142 + M109*M7</f>
+        <f>J110 - J131 - J119 - J142 + M109*M7</f>
         <v>21469509.138674762</v>
       </c>
       <c r="O110" s="4">
-        <f>L110 - L130 - L118 - L142+O109*O7</f>
+        <f>L110 - L131 - L119 - L142+O109*O7</f>
         <v>1262299.2941418488</v>
       </c>
       <c r="P110" s="4">
-        <f>M110 - M130 - M118 - M142 + P109*P7</f>
+        <f>M110 - M131 - M119 - M142 + P109*P7</f>
         <v>19621955.062304016</v>
       </c>
       <c r="R110" s="4">
-        <f>O110 - O130 - O118 - O142+R109*R7</f>
+        <f>O110 - O131 - O119 - O142+R109*R7</f>
         <v>1188284.3985212983</v>
       </c>
       <c r="S110" s="4">
-        <f>P110 - P130 - P118 - P142 + S109*S7</f>
+        <f>P110 - P131 - P119 - P142 + S109*S7</f>
         <v>17672326.76258811</v>
       </c>
       <c r="U110" s="4">
-        <f>R110 - R130 - R118 - R142+U109*U7</f>
+        <f>R110 - R131 - R119 - R142+U109*U7</f>
         <v>1097914.9514073269</v>
       </c>
       <c r="V110" s="4">
-        <f>S110 - S130 - S118 - S142 + V109*V7</f>
+        <f>S110 - S131 - S119 - S142 + V109*V7</f>
         <v>14958270.076713715</v>
       </c>
       <c r="X110" s="4">
-        <f>U110 - U130 - U118 - U142+X109*X7</f>
+        <f>U110 - U131 - U119 - U142+X109*X7</f>
         <v>819907.25090646883</v>
       </c>
       <c r="Y110" s="4">
-        <f>V110 - V130 - V118 - V142 + Y109*Y7</f>
+        <f>V110 - V131 - V119 - V142 + Y109*Y7</f>
         <v>3187373.7005417161</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="46" t="s">
+      <c r="A111" s="50" t="s">
         <v>245</v>
       </c>
       <c r="B111" s="43" t="s">
@@ -10660,1040 +10657,1040 @@
         <v>12.782217278399568</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E112" s="13"/>
-    </row>
-    <row r="113" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="E113" s="11" t="s">
+    <row r="112" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F112" s="4">
+        <f>MAX(F111-$F21,0)</f>
+        <v>149.85</v>
+      </c>
+      <c r="G112" s="4">
+        <f>MAX(G111-$G21,0)</f>
+        <v>99.9</v>
+      </c>
+      <c r="I112" s="4">
+        <f>MAX(I111-$F21,0)</f>
+        <v>142.7065972058532</v>
+      </c>
+      <c r="J112" s="4">
+        <f>MAX(J111-$G21,0)</f>
+        <v>92.96265349260409</v>
+      </c>
+      <c r="L112" s="4">
+        <f>MAX(L111-$F21,0)</f>
+        <v>135.27657957448451</v>
+      </c>
+      <c r="M112" s="4">
+        <f>MAX(M111-$G21,0)</f>
+        <v>85.850234751890639</v>
+      </c>
+      <c r="O112" s="4">
+        <f>MAX(O111-$F21,0)</f>
+        <v>128.2629495566479</v>
+      </c>
+      <c r="P112" s="4">
+        <f>MAX(P111-$G21,0)</f>
+        <v>78.483377636421963</v>
+      </c>
+      <c r="R112" s="4">
+        <f>MAX(R111-$F21,0)</f>
+        <v>121.60045066816581</v>
+      </c>
+      <c r="S112" s="4">
+        <f>MAX(S111-$G21,0)</f>
+        <v>70.729833439897206</v>
+      </c>
+      <c r="U112" s="4">
+        <f>MAX(U111-$F21,0)</f>
+        <v>113.50579207115184</v>
+      </c>
+      <c r="V112" s="4">
+        <f>MAX(V111-$G21,0)</f>
+        <v>59.861397697928425</v>
+      </c>
+      <c r="X112" s="4">
+        <f>MAX(X111-$F21,0)</f>
+        <v>85.596418208164479</v>
+      </c>
+      <c r="Y112" s="4">
+        <f>MAX(Y111-$G21,0)</f>
+        <v>12.682217278399568</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E113" s="13"/>
+    </row>
+    <row r="114" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="E114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
-      <c r="R113" s="12"/>
-      <c r="S113" s="12"/>
-      <c r="U113" s="12"/>
-      <c r="V113" s="12"/>
-      <c r="X113" s="12"/>
-      <c r="Y113" s="12"/>
-    </row>
-    <row r="114" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="46" t="s">
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="12"/>
+    </row>
+    <row r="115" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="B114" s="44" t="s">
+      <c r="B115" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="E114" s="10" t="s">
+      <c r="E115" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F114" s="4">
+      <c r="F115" s="4">
         <f>F111*F7</f>
         <v>1500000</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G115" s="4">
         <f>G111*G7</f>
         <v>25000000</v>
       </c>
-      <c r="I114" s="4">
+      <c r="I115" s="4">
         <f>I111*I7</f>
         <v>1421423.1421982395</v>
       </c>
-      <c r="J114" s="4">
+      <c r="J115" s="4">
         <f>J111*J7</f>
         <v>23256357.107801761</v>
       </c>
-      <c r="L114" s="4">
+      <c r="L115" s="4">
         <f>L111*L7</f>
         <v>1339098.0188325029</v>
       </c>
-      <c r="M114" s="4">
+      <c r="M115" s="4">
         <f>M111*M7</f>
         <v>21469509.138674762</v>
       </c>
-      <c r="O114" s="4">
+      <c r="O115" s="4">
         <f>O111*O7</f>
         <v>1262299.2941418488</v>
       </c>
-      <c r="P114" s="4">
+      <c r="P115" s="4">
         <f>P111*P7</f>
         <v>19621955.062304016</v>
       </c>
-      <c r="R114" s="4">
+      <c r="R115" s="4">
         <f>R111*R7</f>
         <v>1188284.3985212983</v>
       </c>
-      <c r="S114" s="4">
+      <c r="S115" s="4">
         <f>S111*S7</f>
         <v>17672326.76258811</v>
       </c>
-      <c r="U114" s="4">
+      <c r="U115" s="4">
         <f>U111*U7</f>
         <v>1097914.9514073269</v>
       </c>
-      <c r="V114" s="4">
+      <c r="V115" s="4">
         <f>V111*V7</f>
         <v>14958270.076713715</v>
       </c>
-      <c r="X114" s="4">
+      <c r="X115" s="4">
         <f>X111*X7</f>
         <v>819907.25090646883</v>
       </c>
-      <c r="Y114" s="4">
+      <c r="Y115" s="4">
         <f>Y111*Y7</f>
         <v>3187373.7005417161</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="46" t="s">
+    <row r="116" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="B115" s="43" t="s">
+      <c r="B116" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="E116" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G116" s="4">
         <f>SUM(G94:G97)</f>
         <v>0</v>
       </c>
-      <c r="J115" s="4">
+      <c r="J116" s="4">
         <f>SUM(J94:J97)</f>
         <v>0.85</v>
       </c>
-      <c r="M115" s="4">
+      <c r="M116" s="4">
         <f>SUM(M94:M97)</f>
         <v>5.8982999999999999</v>
       </c>
-      <c r="P115" s="4">
+      <c r="P116" s="4">
         <f>SUM(P94:P97)</f>
         <v>21.0065034</v>
       </c>
-      <c r="S115" s="4">
+      <c r="S116" s="4">
         <f>SUM(S94:S97)</f>
         <v>52.594490393199997</v>
       </c>
-      <c r="V115" s="4">
+      <c r="V116" s="4">
         <f>SUM(V94:V97)</f>
         <v>82.193263680000001</v>
       </c>
-      <c r="Y115" s="4">
+      <c r="Y116" s="4">
         <f>SUM(Y94:Y97)</f>
         <v>127.95464609634348</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="46" t="s">
+    <row r="117" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="50" t="s">
         <v>243</v>
-      </c>
-      <c r="B116" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F116" s="4">
-        <f>F114+F115</f>
-        <v>1500000</v>
-      </c>
-      <c r="G116" s="4">
-        <f>G114+G115</f>
-        <v>25000000</v>
-      </c>
-      <c r="I116" s="4">
-        <f>I114+I115</f>
-        <v>1421423.1421982395</v>
-      </c>
-      <c r="J116" s="4">
-        <f>J114+J115</f>
-        <v>23256357.957801763</v>
-      </c>
-      <c r="L116" s="4">
-        <f>L114+L115</f>
-        <v>1339098.0188325029</v>
-      </c>
-      <c r="M116" s="4">
-        <f>M114+M115</f>
-        <v>21469515.036974762</v>
-      </c>
-      <c r="O116" s="4">
-        <f>O114+O115</f>
-        <v>1262299.2941418488</v>
-      </c>
-      <c r="P116" s="4">
-        <f>P114+P115</f>
-        <v>19621976.068807416</v>
-      </c>
-      <c r="R116" s="4">
-        <f>R114+R115</f>
-        <v>1188284.3985212983</v>
-      </c>
-      <c r="S116" s="4">
-        <f>S114+S115</f>
-        <v>17672379.357078504</v>
-      </c>
-      <c r="U116" s="4">
-        <f>U114+U115</f>
-        <v>1097914.9514073269</v>
-      </c>
-      <c r="V116" s="4">
-        <f>V114+V115</f>
-        <v>14958352.269977394</v>
-      </c>
-      <c r="X116" s="4">
-        <f>X114+X115</f>
-        <v>819907.25090646883</v>
-      </c>
-      <c r="Y116" s="4">
-        <f>Y114+Y115</f>
-        <v>3187501.6551878126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="46" t="s">
-        <v>244</v>
       </c>
       <c r="B117" s="43" t="s">
         <v>164</v>
       </c>
       <c r="E117" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F117" s="4">
+        <f>F115+F116</f>
+        <v>1500000</v>
+      </c>
+      <c r="G117" s="4">
+        <f>G115+G116</f>
+        <v>25000000</v>
+      </c>
+      <c r="I117" s="4">
+        <f>I115+I116</f>
+        <v>1421423.1421982395</v>
+      </c>
+      <c r="J117" s="4">
+        <f>J115+J116</f>
+        <v>23256357.957801763</v>
+      </c>
+      <c r="L117" s="4">
+        <f>L115+L116</f>
+        <v>1339098.0188325029</v>
+      </c>
+      <c r="M117" s="4">
+        <f>M115+M116</f>
+        <v>21469515.036974762</v>
+      </c>
+      <c r="O117" s="4">
+        <f>O115+O116</f>
+        <v>1262299.2941418488</v>
+      </c>
+      <c r="P117" s="4">
+        <f>P115+P116</f>
+        <v>19621976.068807416</v>
+      </c>
+      <c r="R117" s="4">
+        <f>R115+R116</f>
+        <v>1188284.3985212983</v>
+      </c>
+      <c r="S117" s="4">
+        <f>S115+S116</f>
+        <v>17672379.357078504</v>
+      </c>
+      <c r="U117" s="4">
+        <f>U115+U116</f>
+        <v>1097914.9514073269</v>
+      </c>
+      <c r="V117" s="4">
+        <f>V115+V116</f>
+        <v>14958352.269977394</v>
+      </c>
+      <c r="X117" s="4">
+        <f>X115+X116</f>
+        <v>819907.25090646883</v>
+      </c>
+      <c r="Y117" s="4">
+        <f>Y115+Y116</f>
+        <v>3187501.6551878126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B118" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E118" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F118" s="4">
         <f>F110*$F$20</f>
         <v>450000</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G118" s="4">
         <f>G110*$G$20</f>
         <v>6250000</v>
       </c>
-      <c r="I117" s="4">
+      <c r="I118" s="4">
         <f>I110*$F$20</f>
         <v>426426.94265947182</v>
       </c>
-      <c r="J117" s="4">
+      <c r="J118" s="4">
         <f>J110*$G$20</f>
         <v>5814089.2769504404</v>
       </c>
-      <c r="L117" s="4">
+      <c r="L118" s="4">
         <f>L110*$F$20</f>
         <v>401729.40564975084</v>
       </c>
-      <c r="M117" s="4">
+      <c r="M118" s="4">
         <f>M110*$G$20</f>
         <v>5367377.2846686905</v>
       </c>
-      <c r="O117" s="4">
+      <c r="O118" s="4">
         <f>O110*$F$20</f>
         <v>378689.78824255464</v>
       </c>
-      <c r="P117" s="4">
+      <c r="P118" s="4">
         <f>P110*$G$20</f>
         <v>4905488.7655760041</v>
       </c>
-      <c r="R117" s="4">
+      <c r="R118" s="4">
         <f>R110*$F$20</f>
         <v>356485.31955638947</v>
       </c>
-      <c r="S117" s="4">
+      <c r="S118" s="4">
         <f>S110*$G$20</f>
         <v>4418081.6906470275</v>
       </c>
-      <c r="U117" s="4">
+      <c r="U118" s="4">
         <f>U110*$F$20</f>
         <v>329374.48542219802</v>
       </c>
-      <c r="V117" s="4">
+      <c r="V118" s="4">
         <f>V110*$G$20</f>
         <v>3739567.5191784287</v>
       </c>
-      <c r="X117" s="4">
+      <c r="X118" s="4">
         <f>X110*$F$20</f>
         <v>245972.17527194065</v>
       </c>
-      <c r="Y117" s="4">
+      <c r="Y118" s="4">
         <f>Y110*$G$20</f>
         <v>796843.42513542902</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="B118" s="40" t="s">
+    <row r="119" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="B119" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="E118" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F118" s="4">
+      <c r="E119" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F119" s="4">
         <f>F9*F111</f>
         <v>7500</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G119" s="4">
         <f>G9*G111</f>
         <v>10000</v>
       </c>
-      <c r="I118" s="4">
+      <c r="I119" s="4">
         <f>I9*I111</f>
         <v>8857.1090267628988</v>
       </c>
-      <c r="J118" s="4">
+      <c r="J119" s="4">
         <f>J9*J111</f>
         <v>10236.891884186449</v>
       </c>
-      <c r="L118" s="4">
+      <c r="L119" s="4">
         <f>L9*L111</f>
         <v>7854.741615320102</v>
       </c>
-      <c r="M118" s="4">
+      <c r="M119" s="4">
         <f>M9*M111</f>
         <v>8079.3220666777197</v>
       </c>
-      <c r="O118" s="4">
+      <c r="O119" s="4">
         <f>O9*O111</f>
         <v>8988.9064689653533</v>
       </c>
-      <c r="P118" s="4">
+      <c r="P119" s="4">
         <f>P9*P111</f>
         <v>15088.008506193015</v>
       </c>
-      <c r="R118" s="4">
+      <c r="R119" s="4">
         <f>R9*R111</f>
         <v>12175.045066816581</v>
       </c>
-      <c r="S118" s="4">
+      <c r="S119" s="4">
         <f>S9*S111</f>
         <v>2762.363504155991</v>
       </c>
-      <c r="U118" s="4">
+      <c r="U119" s="4">
         <f>U9*U111</f>
         <v>11138.267622972882</v>
       </c>
-      <c r="V118" s="4">
+      <c r="V119" s="4">
         <f>V9*V111</f>
         <v>6295.9467582824846</v>
       </c>
-      <c r="X118" s="4">
+      <c r="X119" s="4">
         <f>X9*X111</f>
         <v>8403.1489844001189</v>
       </c>
-      <c r="Y118" s="4">
+      <c r="Y119" s="4">
         <f>Y9*Y111</f>
         <v>1342.1328142319546</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="B119" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="F119" s="4">
-        <f>MIN(F118,F9*F15)</f>
-        <v>250</v>
-      </c>
-      <c r="G119" s="4">
-        <f>MIN(G118,G9*G15)</f>
-        <v>1000</v>
-      </c>
-      <c r="I119" s="4">
-        <f>MIN(I118,I9*I15)</f>
-        <v>316.2</v>
-      </c>
-      <c r="J119" s="4">
-        <f>MIN(J118,J9*J15)</f>
-        <v>1078</v>
-      </c>
-      <c r="L119" s="4">
-        <f>MIN(L118,L9*L15)</f>
-        <v>301.60000000000002</v>
-      </c>
-      <c r="M119" s="4">
-        <f>MIN(M118,M9*M15)</f>
-        <v>921.2</v>
-      </c>
-      <c r="O119" s="4">
-        <f>MIN(O118,O9*O15)</f>
-        <v>329</v>
-      </c>
-      <c r="P119" s="4">
-        <f>MIN(P118,P9*P15)</f>
-        <v>1900.8000000000002</v>
-      </c>
-      <c r="R119" s="4">
-        <f>MIN(R118,R9*R15)</f>
-        <v>520</v>
-      </c>
-      <c r="S119" s="4">
-        <f>MIN(S118,S9*S15)</f>
-        <v>393.9</v>
-      </c>
-      <c r="U119" s="4">
-        <f>MIN(U118,U9*U15)</f>
-        <v>401.79999999999995</v>
-      </c>
-      <c r="V119" s="4">
-        <f>MIN(V118,V9*V15)</f>
-        <v>1155</v>
-      </c>
-      <c r="X119" s="4">
-        <f>MIN(X118,X9*X15)</f>
-        <v>499.79999999999995</v>
-      </c>
-      <c r="Y119" s="4">
-        <f>MIN(Y118,Y9*Y15)</f>
-        <v>945</v>
-      </c>
-    </row>
     <row r="120" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="46" t="s">
-        <v>268</v>
+      <c r="A120" s="50" t="s">
+        <v>266</v>
       </c>
       <c r="B120" s="40" t="s">
         <v>175</v>
       </c>
       <c r="E120" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F120" s="4">
+        <f>MIN(F119,F9*F15)</f>
+        <v>250</v>
+      </c>
+      <c r="G120" s="4">
+        <f>MIN(G119,G9*G15)</f>
+        <v>1000</v>
+      </c>
+      <c r="I120" s="4">
+        <f>MIN(I119,I9*I15)</f>
+        <v>316.2</v>
+      </c>
+      <c r="J120" s="4">
+        <f>MIN(J119,J9*J15)</f>
+        <v>1078</v>
+      </c>
+      <c r="L120" s="4">
+        <f>MIN(L119,L9*L15)</f>
+        <v>301.60000000000002</v>
+      </c>
+      <c r="M120" s="4">
+        <f>MIN(M119,M9*M15)</f>
+        <v>921.2</v>
+      </c>
+      <c r="O120" s="4">
+        <f>MIN(O119,O9*O15)</f>
+        <v>329</v>
+      </c>
+      <c r="P120" s="4">
+        <f>MIN(P119,P9*P15)</f>
+        <v>1900.8000000000002</v>
+      </c>
+      <c r="R120" s="4">
+        <f>MIN(R119,R9*R15)</f>
+        <v>520</v>
+      </c>
+      <c r="S120" s="4">
+        <f>MIN(S119,S9*S15)</f>
+        <v>393.9</v>
+      </c>
+      <c r="U120" s="4">
+        <f>MIN(U119,U9*U15)</f>
+        <v>401.79999999999995</v>
+      </c>
+      <c r="V120" s="4">
+        <f>MIN(V119,V9*V15)</f>
+        <v>1155</v>
+      </c>
+      <c r="X120" s="4">
+        <f>MIN(X119,X9*X15)</f>
+        <v>499.79999999999995</v>
+      </c>
+      <c r="Y120" s="4">
+        <f>MIN(Y119,Y9*Y15)</f>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="B121" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F121" s="4">
+        <f>(F119-F120)*$F$14</f>
+        <v>5075</v>
+      </c>
+      <c r="G121" s="4">
+        <f>(G119-G120+G46-G52)*$F$14</f>
+        <v>6300</v>
+      </c>
+      <c r="I121" s="4">
+        <f>(I119-I120)*$F$14</f>
+        <v>5978.6363187340285</v>
+      </c>
+      <c r="J121" s="4">
+        <f>(J119-J120+J46-J52)*$F$14</f>
+        <v>6411.2243189305136</v>
+      </c>
+      <c r="L121" s="4">
+        <f>(L119-L120)*$F$14</f>
+        <v>5287.1991307240705</v>
+      </c>
+      <c r="M121" s="4">
+        <f>(M119-M120+M46-M52)*$F$14</f>
+        <v>5010.6854466744035</v>
+      </c>
+      <c r="O121" s="4">
+        <f>(O119-O120)*$F$14</f>
+        <v>6061.9345282757467</v>
+      </c>
+      <c r="P121" s="4">
+        <f>(P119-P120+P46-P52)*$F$14</f>
+        <v>9231.0459543351099</v>
+      </c>
+      <c r="R121" s="4">
+        <f>(R119-R120)*$F$14</f>
+        <v>8158.5315467716064</v>
+      </c>
+      <c r="S121" s="4">
+        <f>(S119-S120+S46-S52)*$F$14</f>
+        <v>1657.9244529091936</v>
+      </c>
+      <c r="U121" s="4">
+        <f>(U119-U120)*$F$14</f>
+        <v>7515.5273360810179</v>
+      </c>
+      <c r="V121" s="4">
+        <f>(V119-V120+V46-V52)*$F$14</f>
+        <v>3598.6627307977387</v>
+      </c>
+      <c r="X121" s="4">
+        <f>(X119-X120)*$F$14</f>
+        <v>5532.3442890800825</v>
+      </c>
+      <c r="Y121" s="4">
+        <f>(Y119-Y120+Y46-Y52)*$F$14</f>
+        <v>277.99296996236819</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="F120" s="4">
-        <f>(F118-F119)*$F$14</f>
-        <v>5075</v>
-      </c>
-      <c r="G120" s="4">
-        <f>(G118-G119+G46-G52)*$F$14</f>
-        <v>6300</v>
-      </c>
-      <c r="I120" s="4">
-        <f>(I118-I119)*$F$14</f>
-        <v>5978.6363187340285</v>
-      </c>
-      <c r="J120" s="4">
-        <f>(J118-J119+J46-J52)*$F$14</f>
-        <v>6411.2243189305136</v>
-      </c>
-      <c r="L120" s="4">
-        <f>(L118-L119)*$F$14</f>
-        <v>5287.1991307240705</v>
-      </c>
-      <c r="M120" s="4">
-        <f>(M118-M119+M46-M52)*$F$14</f>
-        <v>5010.6854466744035</v>
-      </c>
-      <c r="O120" s="4">
-        <f>(O118-O119)*$F$14</f>
-        <v>6061.9345282757467</v>
-      </c>
-      <c r="P120" s="4">
-        <f>(P118-P119+P46-P52)*$F$14</f>
-        <v>9231.0459543351099</v>
-      </c>
-      <c r="R120" s="4">
-        <f>(R118-R119)*$F$14</f>
-        <v>8158.5315467716064</v>
-      </c>
-      <c r="S120" s="4">
-        <f>(S118-S119+S46-S52)*$F$14</f>
-        <v>1657.9244529091936</v>
-      </c>
-      <c r="U120" s="4">
-        <f>(U118-U119)*$F$14</f>
-        <v>7515.5273360810179</v>
-      </c>
-      <c r="V120" s="4">
-        <f>(V118-V119+V46-V52)*$F$14</f>
-        <v>3598.6627307977387</v>
-      </c>
-      <c r="X120" s="4">
-        <f>(X118-X119)*$F$14</f>
-        <v>5532.3442890800825</v>
-      </c>
-      <c r="Y120" s="4">
-        <f>(Y118-Y119+Y46-Y52)*$F$14</f>
-        <v>277.99296996236819</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="46" t="s">
+      <c r="B122" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F122" s="4">
+        <f>MIN(F121+G121, F32)</f>
+        <v>11375</v>
+      </c>
+      <c r="I122" s="4">
+        <f>MIN(I121+J121, I32)</f>
+        <v>12389.860637664542</v>
+      </c>
+      <c r="L122" s="4">
+        <f>MIN(L121+M121, L32)</f>
+        <v>10297.884577398474</v>
+      </c>
+      <c r="O122" s="4">
+        <f>MIN(O121+P121, O32)</f>
+        <v>15292.980482610856</v>
+      </c>
+      <c r="R122" s="4">
+        <f>MIN(R121+S121, R32)</f>
+        <v>9816.4559996808002</v>
+      </c>
+      <c r="U122" s="4">
+        <f>MIN(U121+V121, U32)</f>
+        <v>11114.190066878757</v>
+      </c>
+      <c r="X122" s="4">
+        <f>MIN(X121+Y121, X32)</f>
+        <v>5810.3372590424506</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="50" t="s">
         <v>260</v>
-      </c>
-      <c r="B121" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="F121" s="4">
-        <f>MIN(F120+G120, F32)</f>
-        <v>11375</v>
-      </c>
-      <c r="I121" s="4">
-        <f>MIN(I120+J120, I32)</f>
-        <v>12389.860637664542</v>
-      </c>
-      <c r="L121" s="4">
-        <f>MIN(L120+M120, L32)</f>
-        <v>10297.884577398474</v>
-      </c>
-      <c r="O121" s="4">
-        <f>MIN(O120+P120, O32)</f>
-        <v>15292.980482610856</v>
-      </c>
-      <c r="R121" s="4">
-        <f>MIN(R120+S120, R32)</f>
-        <v>9816.4559996808002</v>
-      </c>
-      <c r="U121" s="4">
-        <f>MIN(U120+V120, U32)</f>
-        <v>11114.190066878757</v>
-      </c>
-      <c r="X121" s="4">
-        <f>MIN(X120+Y120, X32)</f>
-        <v>5810.3372590424506</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="B122" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="F122" s="4">
-        <f>F120/(F120+G120)</f>
-        <v>0.44615384615384618</v>
-      </c>
-      <c r="G122" s="4">
-        <f>G120/(F120+G120)</f>
-        <v>0.55384615384615388</v>
-      </c>
-      <c r="I122" s="4">
-        <f>I120/(I120+J120)</f>
-        <v>0.48254266077531816</v>
-      </c>
-      <c r="J122" s="4">
-        <f>J120/(I120+J120)</f>
-        <v>0.51745733922468184</v>
-      </c>
-      <c r="L122" s="4">
-        <f>L120/(L120+M120)</f>
-        <v>0.51342575176345207</v>
-      </c>
-      <c r="M122" s="4">
-        <f>M120/(L120+M120)</f>
-        <v>0.48657424823654793</v>
-      </c>
-      <c r="O122" s="4">
-        <f>O120/(O120+P120)</f>
-        <v>0.39638673018438575</v>
-      </c>
-      <c r="P122" s="4">
-        <f>P120/(O120+P120)</f>
-        <v>0.60361326981561425</v>
-      </c>
-      <c r="R122" s="4">
-        <f>R120/(R120+S120)</f>
-        <v>0.83110763671093679</v>
-      </c>
-      <c r="S122" s="4">
-        <f>S120/(R120+S120)</f>
-        <v>0.16889236328906318</v>
-      </c>
-      <c r="U122" s="4">
-        <f>U120/(U120+V120)</f>
-        <v>0.67621007836440883</v>
-      </c>
-      <c r="V122" s="4">
-        <f>V120/(U120+V120)</f>
-        <v>0.32378992163559123</v>
-      </c>
-      <c r="X122" s="4">
-        <f>X120/(X120+Y120)</f>
-        <v>0.95215545026586257</v>
-      </c>
-      <c r="Y122" s="4">
-        <f>Y120/(X120+Y120)</f>
-        <v>4.7844549734137418E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="46" t="s">
-        <v>186</v>
       </c>
       <c r="B123" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="E123" s="10" t="s">
+      <c r="E123" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F123" s="4">
+        <f>F121/(F121+G121)</f>
+        <v>0.44615384615384618</v>
+      </c>
+      <c r="G123" s="4">
+        <f>G121/(F121+G121)</f>
+        <v>0.55384615384615388</v>
+      </c>
+      <c r="I123" s="4">
+        <f>I121/(I121+J121)</f>
+        <v>0.48254266077531816</v>
+      </c>
+      <c r="J123" s="4">
+        <f>J121/(I121+J121)</f>
+        <v>0.51745733922468184</v>
+      </c>
+      <c r="L123" s="4">
+        <f>L121/(L121+M121)</f>
+        <v>0.51342575176345207</v>
+      </c>
+      <c r="M123" s="4">
+        <f>M121/(L121+M121)</f>
+        <v>0.48657424823654793</v>
+      </c>
+      <c r="O123" s="4">
+        <f>O121/(O121+P121)</f>
+        <v>0.39638673018438575</v>
+      </c>
+      <c r="P123" s="4">
+        <f>P121/(O121+P121)</f>
+        <v>0.60361326981561425</v>
+      </c>
+      <c r="R123" s="4">
+        <f>R121/(R121+S121)</f>
+        <v>0.83110763671093679</v>
+      </c>
+      <c r="S123" s="4">
+        <f>S121/(R121+S121)</f>
+        <v>0.16889236328906318</v>
+      </c>
+      <c r="U123" s="4">
+        <f>U121/(U121+V121)</f>
+        <v>0.67621007836440883</v>
+      </c>
+      <c r="V123" s="4">
+        <f>V121/(U121+V121)</f>
+        <v>0.32378992163559123</v>
+      </c>
+      <c r="X123" s="4">
+        <f>X121/(X121+Y121)</f>
+        <v>0.95215545026586257</v>
+      </c>
+      <c r="Y123" s="4">
+        <f>Y121/(X121+Y121)</f>
+        <v>4.7844549734137418E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B124" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E124" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F123" s="4">
-        <f>MAX(F13-F26, 0)*F133</f>
+      <c r="F124" s="4">
+        <f>MAX(F13-F26, 0)*F112</f>
         <v>741757.5</v>
       </c>
-      <c r="G123" s="4">
-        <f>MAX(G13-G26, 0)*G133</f>
+      <c r="G124" s="4">
+        <f>MAX(G13-G26, 0)*G112</f>
         <v>19970010</v>
       </c>
-      <c r="I123" s="4">
-        <f>MAX(I13-I26, 0)*I133</f>
+      <c r="I124" s="4">
+        <f>MAX(I13-I26, 0)*I112</f>
         <v>697549.84714221046</v>
       </c>
-      <c r="J123" s="4">
-        <f>MAX(J13-J26, 0)*J133</f>
+      <c r="J124" s="4">
+        <f>MAX(J13-J26, 0)*J112</f>
         <v>18573008.54128737</v>
       </c>
-      <c r="L123" s="4">
-        <f>MAX(L13-L26, 0)*L133</f>
+      <c r="L124" s="4">
+        <f>MAX(L13-L26, 0)*L112</f>
         <v>585747.5895575179</v>
       </c>
-      <c r="M123" s="4">
-        <f>MAX(M13-M26, 0)*M133</f>
+      <c r="M124" s="4">
+        <f>MAX(M13-M26, 0)*M112</f>
         <v>17143948.479013555</v>
       </c>
-      <c r="O123" s="4">
-        <f>MAX(O13-O26, 0)*O133</f>
+      <c r="O124" s="4">
+        <f>MAX(O13-O26, 0)*O112</f>
         <v>482268.69033299608</v>
       </c>
-      <c r="P123" s="4">
-        <f>MAX(P13-P26, 0)*P133</f>
+      <c r="P124" s="4">
+        <f>MAX(P13-P26, 0)*P112</f>
         <v>15657747.771976728</v>
       </c>
-      <c r="R123" s="4">
-        <f>MAX(R13-R26, 0)*R133</f>
+      <c r="R124" s="4">
+        <f>MAX(R13-R26, 0)*R112</f>
         <v>384257.42411140393</v>
       </c>
-      <c r="S123" s="4">
-        <f>MAX(S13-S26, 0)*S133</f>
+      <c r="S124" s="4">
+        <f>MAX(S13-S26, 0)*S112</f>
         <v>14178856.060528994</v>
       </c>
-      <c r="U123" s="4">
-        <f>MAX(U13-U26, 0)*U133</f>
+      <c r="U124" s="4">
+        <f>MAX(U13-U26, 0)*U112</f>
         <v>268100.68087206065</v>
       </c>
-      <c r="V123" s="4">
-        <f>MAX(V13-V26, 0)*V133</f>
+      <c r="V124" s="4">
+        <f>MAX(V13-V26, 0)*V112</f>
         <v>11963898.943907974</v>
       </c>
-      <c r="X123" s="4">
-        <f>MAX(X13-X26, 0)*X133</f>
+      <c r="X124" s="4">
+        <f>MAX(X13-X26, 0)*X112</f>
         <v>193790.29082328439</v>
       </c>
-      <c r="Y123" s="4">
-        <f>MAX(Y13-Y26, 0)*Y133</f>
+      <c r="Y124" s="4">
+        <f>MAX(Y13-Y26, 0)*Y112</f>
         <v>2533336.3124467055</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="E125" s="15" t="s">
+    <row r="126" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="E126" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="O125" s="8"/>
-      <c r="P125" s="8"/>
-      <c r="R125" s="8"/>
-      <c r="S125" s="8"/>
-      <c r="U125" s="8"/>
-      <c r="V125" s="8"/>
-      <c r="X125" s="8"/>
-      <c r="Y125" s="8"/>
-    </row>
-    <row r="126" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="46" t="s">
-        <v>262</v>
-      </c>
-      <c r="B126" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="F126" s="4">
-        <f>MAX(F32-F121,0)</f>
-        <v>1988625</v>
-      </c>
-      <c r="I126" s="4">
-        <f>MAX(I32-I121,0)</f>
-        <v>2037610.1393623354</v>
-      </c>
-      <c r="L126" s="4">
-        <f>MAX(L32-L121,0)</f>
-        <v>2099702.1154226013</v>
-      </c>
-      <c r="O126" s="4">
-        <f>MAX(O32-O121,0)</f>
-        <v>2194707.0195173891</v>
-      </c>
-      <c r="R126" s="4">
-        <f>MAX(R32-R121,0)</f>
-        <v>2990183.5440003192</v>
-      </c>
-      <c r="U126" s="4">
-        <f>MAX(U32-U121,0)</f>
-        <v>24988885.809933122</v>
-      </c>
-      <c r="X126" s="4">
-        <f>MAX(X32-X121,0)</f>
-        <v>2514189.6627409575</v>
-      </c>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+      <c r="R126" s="8"/>
+      <c r="S126" s="8"/>
+      <c r="U126" s="8"/>
+      <c r="V126" s="8"/>
+      <c r="X126" s="8"/>
+      <c r="Y126" s="8"/>
     </row>
     <row r="127" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="46" t="s">
-        <v>263</v>
+      <c r="A127" s="50" t="s">
+        <v>261</v>
       </c>
       <c r="B127" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="E127" s="10" t="s">
-        <v>166</v>
+      <c r="E127" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="F127" s="4">
-        <f>MIN(F138,F126)</f>
+        <f>MAX(F32-F122,0)</f>
         <v>1988625</v>
       </c>
       <c r="I127" s="4">
-        <f>MIN(I138,I126)</f>
+        <f>MAX(I32-I122,0)</f>
         <v>2037610.1393623354</v>
       </c>
       <c r="L127" s="4">
-        <f>MIN(L138,L126)</f>
+        <f>MAX(L32-L122,0)</f>
         <v>2099702.1154226013</v>
       </c>
       <c r="O127" s="4">
-        <f>MIN(O138,O126)</f>
+        <f>MAX(O32-O122,0)</f>
         <v>2194707.0195173891</v>
       </c>
       <c r="R127" s="4">
-        <f>MIN(R138,R126)</f>
+        <f>MAX(R32-R122,0)</f>
         <v>2990183.5440003192</v>
       </c>
       <c r="U127" s="4">
-        <f>MIN(U138,U126)</f>
-        <v>12231999.624780035</v>
+        <f>MAX(U32-U122,0)</f>
+        <v>24988885.809933122</v>
       </c>
       <c r="X127" s="4">
-        <f>MIN(X138,X126)</f>
-        <v>1789147.7110482706</v>
+        <f>MAX(X32-X122,0)</f>
+        <v>2514189.6627409575</v>
       </c>
     </row>
     <row r="128" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="46" t="s">
-        <v>274</v>
+      <c r="A128" s="50" t="s">
+        <v>262</v>
       </c>
       <c r="B128" s="40" t="s">
         <v>175</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="F128" s="4">
-        <f>F126-F127</f>
-        <v>0</v>
+        <f>MIN(F138,F127)</f>
+        <v>1988625</v>
       </c>
       <c r="I128" s="4">
-        <f>I126-I127</f>
-        <v>0</v>
+        <f>MIN(I138,I127)</f>
+        <v>2037610.1393623354</v>
       </c>
       <c r="L128" s="4">
-        <f>L126-L127</f>
-        <v>0</v>
+        <f>MIN(L138,L127)</f>
+        <v>2099702.1154226013</v>
       </c>
       <c r="O128" s="4">
-        <f>O126-O127</f>
-        <v>0</v>
+        <f>MIN(O138,O127)</f>
+        <v>2194707.0195173891</v>
       </c>
       <c r="R128" s="4">
-        <f>R126-R127</f>
-        <v>0</v>
+        <f>MIN(R138,R127)</f>
+        <v>2990183.5440003192</v>
       </c>
       <c r="U128" s="4">
-        <f>U126-U127</f>
-        <v>12756886.185153088</v>
+        <f>MIN(U138,U127)</f>
+        <v>12231999.624780035</v>
       </c>
       <c r="X128" s="4">
-        <f>X126-X127</f>
-        <v>725041.95169268688</v>
+        <f>MIN(X138,X127)</f>
+        <v>1789147.7110482706</v>
       </c>
     </row>
     <row r="129" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="46" t="s">
-        <v>217</v>
+      <c r="A129" s="50" t="s">
+        <v>273</v>
       </c>
       <c r="B129" s="40" t="s">
         <v>175</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F129" s="4">
-        <f>MIN(F128,G75)</f>
+        <f>F127-F128</f>
         <v>0</v>
       </c>
       <c r="I129" s="4">
-        <f>MIN(I128,J75)</f>
+        <f>I127-I128</f>
         <v>0</v>
       </c>
       <c r="L129" s="4">
-        <f>MIN(L128,M75)</f>
+        <f>L127-L128</f>
         <v>0</v>
       </c>
       <c r="O129" s="4">
-        <f>MIN(O128,P75)</f>
+        <f>O127-O128</f>
         <v>0</v>
       </c>
       <c r="R129" s="4">
-        <f>MIN(R128,S75)</f>
+        <f>R127-R128</f>
         <v>0</v>
       </c>
       <c r="U129" s="4">
-        <f>MIN(U128,V75)</f>
-        <v>30.146330393199996</v>
+        <f>U127-U128</f>
+        <v>12756886.185153088</v>
       </c>
       <c r="X129" s="4">
-        <f>MIN(X128,Y75)</f>
-        <v>53.914123679999996</v>
+        <f>X127-X128</f>
+        <v>725041.95169268688</v>
       </c>
     </row>
     <row r="130" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="46" t="s">
-        <v>270</v>
+      <c r="A130" s="50" t="s">
+        <v>217</v>
       </c>
       <c r="B130" s="40" t="s">
         <v>175</v>
       </c>
       <c r="E130" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F130" s="4">
+        <f>MIN(F129,G75)</f>
+        <v>0</v>
+      </c>
+      <c r="I130" s="4">
+        <f>MIN(I129,J75)</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="4">
+        <f>MIN(L129,M75)</f>
+        <v>0</v>
+      </c>
+      <c r="O130" s="4">
+        <f>MIN(O129,P75)</f>
+        <v>0</v>
+      </c>
+      <c r="R130" s="4">
+        <f>MIN(R129,S75)</f>
+        <v>0</v>
+      </c>
+      <c r="U130" s="4">
+        <f>MIN(U129,V75)</f>
+        <v>30.146330393199996</v>
+      </c>
+      <c r="X130" s="4">
+        <f>MIN(X129,Y75)</f>
+        <v>53.914123679999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="B131" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E131" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F130" s="4">
-        <f>F139*F127</f>
+      <c r="F131" s="4">
+        <f>F139*F128</f>
         <v>71219.296394549616</v>
       </c>
-      <c r="G130" s="4">
-        <f>G139*F127</f>
+      <c r="G131" s="4">
+        <f>G139*F128</f>
         <v>1917405.7036054505</v>
       </c>
-      <c r="I130" s="4">
-        <f>I139*I127</f>
+      <c r="I131" s="4">
+        <f>I139*I128</f>
         <v>73756.795864359185</v>
       </c>
-      <c r="J130" s="4">
-        <f>J139*I127</f>
+      <c r="J131" s="4">
+        <f>J139*I128</f>
         <v>1963853.343497976</v>
       </c>
-      <c r="L130" s="4">
-        <f>L139*L127</f>
+      <c r="L131" s="4">
+        <f>L139*L128</f>
         <v>69369.234990881247</v>
       </c>
-      <c r="M130" s="4">
-        <f>M139*L127</f>
+      <c r="M131" s="4">
+        <f>M139*L128</f>
         <v>2030332.8804317201</v>
       </c>
-      <c r="O130" s="4">
-        <f>O139*O127</f>
+      <c r="O131" s="4">
+        <f>O139*O128</f>
         <v>65578.525427093409</v>
       </c>
-      <c r="P130" s="4">
-        <f>P139*O127</f>
+      <c r="P131" s="4">
+        <f>P139*O128</f>
         <v>2129128.4940902959</v>
       </c>
-      <c r="R130" s="4">
-        <f>R139*R127</f>
+      <c r="R131" s="4">
+        <f>R139*R128</f>
         <v>78897.979298843828</v>
       </c>
-      <c r="S130" s="4">
-        <f>S139*R127</f>
+      <c r="S131" s="4">
+        <f>S139*R128</f>
         <v>2911285.5647014757</v>
       </c>
-      <c r="U130" s="4">
-        <f>U139*U127</f>
+      <c r="U131" s="4">
+        <f>U139*U128</f>
         <v>268100.68087206065</v>
       </c>
-      <c r="V130" s="4">
-        <f>V139*U127</f>
+      <c r="V131" s="4">
+        <f>V139*U128</f>
         <v>11963898.943907974</v>
       </c>
-      <c r="X130" s="4">
-        <f>X139*X127</f>
+      <c r="X131" s="4">
+        <f>X139*X128</f>
         <v>193790.29082328439</v>
       </c>
-      <c r="Y130" s="4">
-        <f>Y139*X127</f>
+      <c r="Y131" s="4">
+        <f>Y139*X128</f>
         <v>1595357.4202249863</v>
       </c>
     </row>
-    <row r="131" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="B131" s="43" t="s">
+    <row r="132" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="B132" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="E132" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F131" s="4">
-        <f>F130</f>
+      <c r="F132" s="4">
+        <f>F131</f>
         <v>71219.296394549616</v>
       </c>
-      <c r="G131" s="4">
-        <f>G130+F129</f>
+      <c r="G132" s="4">
+        <f>G131+F130</f>
         <v>1917405.7036054505</v>
       </c>
-      <c r="I131" s="4">
-        <f>I130</f>
+      <c r="I132" s="4">
+        <f>I131</f>
         <v>73756.795864359185</v>
       </c>
-      <c r="J131" s="4">
-        <f>J130+I129</f>
+      <c r="J132" s="4">
+        <f>J131+I130</f>
         <v>1963853.343497976</v>
       </c>
-      <c r="L131" s="4">
-        <f>L130</f>
+      <c r="L132" s="4">
+        <f>L131</f>
         <v>69369.234990881247</v>
       </c>
-      <c r="M131" s="4">
-        <f>M130+L129</f>
+      <c r="M132" s="4">
+        <f>M131+L130</f>
         <v>2030332.8804317201</v>
       </c>
-      <c r="O131" s="4">
-        <f>O130</f>
+      <c r="O132" s="4">
+        <f>O131</f>
         <v>65578.525427093409</v>
       </c>
-      <c r="P131" s="4">
-        <f>P130+O129</f>
+      <c r="P132" s="4">
+        <f>P131+O130</f>
         <v>2129128.4940902959</v>
       </c>
-      <c r="R131" s="4">
-        <f>R130</f>
+      <c r="R132" s="4">
+        <f>R131</f>
         <v>78897.979298843828</v>
       </c>
-      <c r="S131" s="4">
-        <f>S130+R129</f>
+      <c r="S132" s="4">
+        <f>S131+R130</f>
         <v>2911285.5647014757</v>
       </c>
-      <c r="U131" s="4">
-        <f>U130</f>
+      <c r="U132" s="4">
+        <f>U131</f>
         <v>268100.68087206065</v>
       </c>
-      <c r="V131" s="4">
-        <f>V130+U129</f>
+      <c r="V132" s="4">
+        <f>V131+U130</f>
         <v>11963929.090238368</v>
       </c>
-      <c r="X131" s="4">
-        <f>X130</f>
+      <c r="X132" s="4">
+        <f>X131</f>
         <v>193790.29082328439</v>
       </c>
-      <c r="Y131" s="4">
-        <f>Y130+X129</f>
+      <c r="Y132" s="4">
+        <f>Y131+X130</f>
         <v>1595411.3343486662</v>
       </c>
     </row>
-    <row r="132" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="E132" s="15" t="s">
+    <row r="133" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="E133" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-      <c r="O132" s="8"/>
-      <c r="P132" s="8"/>
-      <c r="R132" s="8"/>
-      <c r="S132" s="8"/>
-      <c r="U132" s="8"/>
-      <c r="V132" s="8"/>
-      <c r="X132" s="8"/>
-      <c r="Y132" s="8"/>
-    </row>
-    <row r="133" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="B133" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F133" s="4">
-        <f>MAX(F111-$F21,0)</f>
-        <v>149.85</v>
-      </c>
-      <c r="G133" s="4">
-        <f>MAX(G111-$G21,0)</f>
-        <v>99.9</v>
-      </c>
-      <c r="I133" s="4">
-        <f>MAX(I111-$F21,0)</f>
-        <v>142.7065972058532</v>
-      </c>
-      <c r="J133" s="4">
-        <f>MAX(J111-$G21,0)</f>
-        <v>92.96265349260409</v>
-      </c>
-      <c r="L133" s="4">
-        <f>MAX(L111-$F21,0)</f>
-        <v>135.27657957448451</v>
-      </c>
-      <c r="M133" s="4">
-        <f>MAX(M111-$G21,0)</f>
-        <v>85.850234751890639</v>
-      </c>
-      <c r="O133" s="4">
-        <f>MAX(O111-$F21,0)</f>
-        <v>128.2629495566479</v>
-      </c>
-      <c r="P133" s="4">
-        <f>MAX(P111-$G21,0)</f>
-        <v>78.483377636421963</v>
-      </c>
-      <c r="R133" s="4">
-        <f>MAX(R111-$F21,0)</f>
-        <v>121.60045066816581</v>
-      </c>
-      <c r="S133" s="4">
-        <f>MAX(S111-$G21,0)</f>
-        <v>70.729833439897206</v>
-      </c>
-      <c r="U133" s="4">
-        <f>MAX(U111-$F21,0)</f>
-        <v>113.50579207115184</v>
-      </c>
-      <c r="V133" s="4">
-        <f>MAX(V111-$G21,0)</f>
-        <v>59.861397697928425</v>
-      </c>
-      <c r="X133" s="4">
-        <f>MAX(X111-$F21,0)</f>
-        <v>85.596418208164479</v>
-      </c>
-      <c r="Y133" s="4">
-        <f>MAX(Y111-$G21,0)</f>
-        <v>12.682217278399568</v>
-      </c>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+      <c r="O133" s="8"/>
+      <c r="P133" s="8"/>
+      <c r="R133" s="8"/>
+      <c r="S133" s="8"/>
+      <c r="U133" s="8"/>
+      <c r="V133" s="8"/>
+      <c r="X133" s="8"/>
+      <c r="Y133" s="8"/>
     </row>
     <row r="134" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" s="46" t="s">
-        <v>278</v>
+      <c r="A134" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="B134" s="40" t="s">
         <v>175</v>
@@ -11702,59 +11699,59 @@
         <v>137</v>
       </c>
       <c r="F134" s="4">
-        <f>F133/$F$22</f>
+        <f>F112/$F$22</f>
         <v>1</v>
       </c>
       <c r="G134" s="4">
-        <f>G133/$G$22</f>
+        <f>G112/$G$22</f>
         <v>1</v>
       </c>
       <c r="I134" s="4">
-        <f>I133/$F$22</f>
+        <f>I112/$F$22</f>
         <v>0.95232964435003808</v>
       </c>
       <c r="J134" s="4">
-        <f>J133/$G$22</f>
+        <f>J112/$G$22</f>
         <v>0.93055709201805892</v>
       </c>
       <c r="L134" s="4">
-        <f>L133/$F$22</f>
+        <f>L112/$F$22</f>
         <v>0.9027466104403371</v>
       </c>
       <c r="M134" s="4">
-        <f>M133/$G$22</f>
+        <f>M112/$G$22</f>
         <v>0.85936170922813448</v>
       </c>
       <c r="O134" s="4">
-        <f>O133/$F$22</f>
+        <f>O112/$F$22</f>
         <v>0.85594227265030298</v>
       </c>
       <c r="P134" s="4">
-        <f>P133/$G$22</f>
+        <f>P112/$G$22</f>
         <v>0.78561939575997952</v>
       </c>
       <c r="R134" s="4">
-        <f>R133/$F$22</f>
+        <f>R112/$F$22</f>
         <v>0.8114811522733788</v>
       </c>
       <c r="S134" s="4">
-        <f>S133/$G$22</f>
+        <f>S112/$G$22</f>
         <v>0.70800634073971169</v>
       </c>
       <c r="U134" s="4">
-        <f>U133/$F$22</f>
+        <f>U112/$F$22</f>
         <v>0.75746274321756324</v>
       </c>
       <c r="V134" s="4">
-        <f>V133/$G$22</f>
+        <f>V112/$G$22</f>
         <v>0.59921319016945362</v>
       </c>
       <c r="X134" s="4">
-        <f>X133/$F$22</f>
+        <f>X112/$F$22</f>
         <v>0.57121400205648643</v>
       </c>
       <c r="Y134" s="4">
-        <f>Y133/$G$22</f>
+        <f>Y112/$G$22</f>
         <v>0.12694912190590157</v>
       </c>
       <c r="Z134">
@@ -11769,7 +11766,7 @@
       </c>
     </row>
     <row r="135" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="46" t="s">
+      <c r="A135" s="50" t="s">
         <v>187</v>
       </c>
       <c r="B135" s="40" t="s">
@@ -11779,7 +11776,7 @@
         <v>188</v>
       </c>
       <c r="F135" s="4">
-        <f>MAX(MIN(F134/$F$17, 1), 0)</f>
+        <f>MAX(MIN((F134-$F$16)/$F$17, 1), 0)</f>
         <v>1</v>
       </c>
       <c r="G135" s="4">
@@ -11787,7 +11784,7 @@
         <v>1</v>
       </c>
       <c r="I135" s="4">
-        <f>MAX(MIN(I134/$F$17, 1), 0)</f>
+        <f>MAX(MIN((I134-$F$16)/$F$17, 1), 0)</f>
         <v>1</v>
       </c>
       <c r="J135" s="4">
@@ -11795,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="L135" s="4">
-        <f>MAX(MIN(L134/$F$17, 1), 0)</f>
+        <f>MAX(MIN((L134-$F$16)/$F$17, 1), 0)</f>
         <v>1</v>
       </c>
       <c r="M135" s="4">
@@ -11803,7 +11800,7 @@
         <v>1</v>
       </c>
       <c r="O135" s="4">
-        <f>MAX(MIN(O134/$F$17, 1), 0)</f>
+        <f>MAX(MIN((O134-$F$16)/$F$17, 1), 0)</f>
         <v>1</v>
       </c>
       <c r="P135" s="4">
@@ -11811,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="R135" s="4">
-        <f>MAX(MIN(R134/$F$17, 1), 0)</f>
+        <f>MAX(MIN((R134-$F$16)/$F$17, 1), 0)</f>
         <v>1</v>
       </c>
       <c r="S135" s="4">
@@ -11819,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="U135" s="4">
-        <f>MAX(MIN(U134/$F$17, 1), 0)</f>
+        <f>MAX(MIN((U134-$F$16)/$F$17, 1), 0)</f>
         <v>1</v>
       </c>
       <c r="V135" s="4">
@@ -11827,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="X135" s="4">
-        <f>MAX(MIN(X134/$F$17, 1), 0)</f>
+        <f>MAX(MIN((X134-$F$16)/$F$17, 1), 0)</f>
         <v>1</v>
       </c>
       <c r="Y135" s="4">
@@ -11846,7 +11843,7 @@
       </c>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A136" s="46"/>
+      <c r="A136" s="50"/>
       <c r="Z136">
         <v>0.2</v>
       </c>
@@ -11859,7 +11856,7 @@
       </c>
     </row>
     <row r="137" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="46" t="s">
+      <c r="A137" s="50" t="s">
         <v>189</v>
       </c>
       <c r="B137" s="40" t="s">
@@ -11869,59 +11866,59 @@
         <v>76</v>
       </c>
       <c r="F137" s="4">
-        <f>F123*F135</f>
+        <f>F124*F135</f>
         <v>741757.5</v>
       </c>
       <c r="G137" s="4">
-        <f>G123*G135</f>
+        <f>G124*G135</f>
         <v>19970010</v>
       </c>
       <c r="I137" s="4">
-        <f>I123*I135</f>
+        <f>I124*I135</f>
         <v>697549.84714221046</v>
       </c>
       <c r="J137" s="4">
-        <f>J123*J135</f>
+        <f>J124*J135</f>
         <v>18573008.54128737</v>
       </c>
       <c r="L137" s="4">
-        <f>L123*L135</f>
+        <f>L124*L135</f>
         <v>585747.5895575179</v>
       </c>
       <c r="M137" s="4">
-        <f>M123*M135</f>
+        <f>M124*M135</f>
         <v>17143948.479013555</v>
       </c>
       <c r="O137" s="4">
-        <f>O123*O135</f>
+        <f>O124*O135</f>
         <v>482268.69033299608</v>
       </c>
       <c r="P137" s="4">
-        <f>P123*P135</f>
+        <f>P124*P135</f>
         <v>15657747.771976728</v>
       </c>
       <c r="R137" s="4">
-        <f>R123*R135</f>
+        <f>R124*R135</f>
         <v>384257.42411140393</v>
       </c>
       <c r="S137" s="4">
-        <f>S123*S135</f>
+        <f>S124*S135</f>
         <v>14178856.060528994</v>
       </c>
       <c r="U137" s="4">
-        <f>U123*U135</f>
+        <f>U124*U135</f>
         <v>268100.68087206065</v>
       </c>
       <c r="V137" s="4">
-        <f>V123*V135</f>
+        <f>V124*V135</f>
         <v>11963898.943907974</v>
       </c>
       <c r="X137" s="4">
-        <f>X123*X135</f>
+        <f>X124*X135</f>
         <v>193790.29082328439</v>
       </c>
       <c r="Y137" s="4">
-        <f>Y123*Y135</f>
+        <f>Y124*Y135</f>
         <v>1595357.4202249863</v>
       </c>
       <c r="Z137">
@@ -11936,7 +11933,7 @@
       </c>
     </row>
     <row r="138" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="46" t="s">
+      <c r="A138" s="50" t="s">
         <v>190</v>
       </c>
       <c r="B138" s="40" t="s">
@@ -12003,7 +12000,7 @@
       </c>
     </row>
     <row r="139" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="46" t="s">
+      <c r="A139" s="50" t="s">
         <v>191</v>
       </c>
       <c r="B139" s="40" t="s">
@@ -12071,7 +12068,7 @@
     </row>
     <row r="141" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="E141" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
@@ -12090,7 +12087,7 @@
     </row>
     <row r="142" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B142" s="43" t="s">
         <v>164</v>
@@ -12099,65 +12096,65 @@
         <v>204</v>
       </c>
       <c r="F142" s="4">
-        <f>(F110 - F130 - F118)*$F$29</f>
+        <f>(F110 - F131 - F119)*$F$29</f>
         <v>2842.5614072109011</v>
       </c>
       <c r="G142" s="4">
-        <f>(G110 - G130 - G118)*$G$29</f>
+        <f>(G110 - G131 - G119)*$G$29</f>
         <v>46145.188592789098</v>
       </c>
       <c r="I142" s="4">
-        <f>(I110 - I130 - I118)*$F$29</f>
+        <f>(I110 - I131 - I119)*$F$29</f>
         <v>2677.6184746142349</v>
       </c>
       <c r="J142" s="4">
-        <f>(J110 - J130 - J118)*$G$29</f>
+        <f>(J110 - J131 - J119)*$G$29</f>
         <v>42564.533744839202</v>
       </c>
       <c r="L142" s="4">
-        <f>(L110 - L130 - L118)*$F$29</f>
+        <f>(L110 - L131 - L119)*$F$29</f>
         <v>2523.7480844526031</v>
       </c>
       <c r="M142" s="4">
-        <f>(M110 - M130 - M118)*$G$29</f>
+        <f>(M110 - M131 - M119)*$G$29</f>
         <v>38862.193872352735</v>
       </c>
       <c r="O142" s="4">
-        <f>(O110 - O130 - O118)*$F$29</f>
+        <f>(O110 - O131 - O119)*$F$29</f>
         <v>2375.4637244915798</v>
       </c>
       <c r="P142" s="4">
-        <f>(P110 - P130 - P118)*$G$29</f>
+        <f>(P110 - P131 - P119)*$G$29</f>
         <v>34955.477119415053</v>
       </c>
       <c r="R142" s="4">
-        <f>(R110 - R130 - R118)*$F$29</f>
+        <f>(R110 - R131 - R119)*$F$29</f>
         <v>2194.4227483112763</v>
       </c>
       <c r="S142" s="4">
-        <f>(S110 - S130 - S118)*$G$29</f>
+        <f>(S110 - S131 - S119)*$G$29</f>
         <v>29516.557668764955</v>
       </c>
       <c r="U142" s="4">
-        <f>(U110 - U130 - U118)*$F$29</f>
+        <f>(U110 - U131 - U119)*$F$29</f>
         <v>1637.352005824587</v>
       </c>
       <c r="V142" s="4">
-        <f>(V110 - V130 - V118)*$G$29</f>
+        <f>(V110 - V131 - V119)*$G$29</f>
         <v>5976.1503720949167</v>
       </c>
       <c r="X142" s="4">
-        <f>(X110 - X130 - X118)*$F$29</f>
+        <f>(X110 - X131 - X119)*$F$29</f>
         <v>1235.4276221975688</v>
       </c>
       <c r="Y142" s="4">
-        <f>(Y110 - Y130 - Y118)*$G$29</f>
+        <f>(Y110 - Y131 - Y119)*$G$29</f>
         <v>3181.3482950049956</v>
       </c>
     </row>
     <row r="143" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B143" s="43" t="s">
         <v>164</v>
@@ -12166,59 +12163,59 @@
         <v>216</v>
       </c>
       <c r="F143" s="4">
-        <f>F130*$F20</f>
+        <f>F131*$F20</f>
         <v>21365.788918364884</v>
       </c>
       <c r="G143" s="4">
-        <f>(G130+F129)*$G20</f>
+        <f>(G131+F130)*$G20</f>
         <v>479351.42590136261</v>
       </c>
       <c r="I143" s="4">
-        <f>I130*$F20</f>
+        <f>I131*$F20</f>
         <v>22127.038759307754</v>
       </c>
       <c r="J143" s="4">
-        <f>(J130+I129)*$G20</f>
+        <f>(J131+I130)*$G20</f>
         <v>490963.33587449399</v>
       </c>
       <c r="L143" s="4">
-        <f>L130*$F20</f>
+        <f>L131*$F20</f>
         <v>20810.770497264373</v>
       </c>
       <c r="M143" s="4">
-        <f>(M130+L129)*$G20</f>
+        <f>(M131+L130)*$G20</f>
         <v>507583.22010793001</v>
       </c>
       <c r="O143" s="4">
-        <f>O130*$F20</f>
+        <f>O131*$F20</f>
         <v>19673.557628128023</v>
       </c>
       <c r="P143" s="4">
-        <f>(P130+O129)*$G20</f>
+        <f>(P131+O130)*$G20</f>
         <v>532282.12352257397</v>
       </c>
       <c r="R143" s="4">
-        <f>R130*$F20</f>
+        <f>R131*$F20</f>
         <v>23669.393789653146</v>
       </c>
       <c r="S143" s="4">
-        <f>(S130+R129)*$G20</f>
+        <f>(S131+R130)*$G20</f>
         <v>727821.39117536892</v>
       </c>
       <c r="U143" s="4">
-        <f>U130*$F20</f>
+        <f>U131*$F20</f>
         <v>80430.204261618186</v>
       </c>
       <c r="V143" s="4">
-        <f>(V130+U129)*$G20</f>
+        <f>(V131+U130)*$G20</f>
         <v>2990982.272559592</v>
       </c>
       <c r="X143" s="4">
-        <f>X130*$F20</f>
+        <f>X131*$F20</f>
         <v>58137.087246985313</v>
       </c>
       <c r="Y143" s="4">
-        <f>(Y130+X129)*$G20</f>
+        <f>(Y131+X130)*$G20</f>
         <v>398852.83358716656</v>
       </c>
     </row>
@@ -12233,59 +12230,59 @@
         <v>167</v>
       </c>
       <c r="F144" s="4">
-        <f>F118-F121*F122-F119</f>
+        <f>F119-F122*F123-F120</f>
         <v>2175</v>
       </c>
       <c r="G144" s="4">
-        <f>G118-F121*G122-G119</f>
+        <f>G119-F122*G123-G120</f>
         <v>2700</v>
       </c>
       <c r="I144" s="4">
-        <f>I118-I121*I122-I119</f>
+        <f>I119-I122*I123-I120</f>
         <v>2562.2727080288705</v>
       </c>
       <c r="J144" s="4">
-        <f>J118-I121*J122-J119</f>
+        <f>J119-I122*J123-J120</f>
         <v>2747.6675652559352</v>
       </c>
       <c r="L144" s="4">
-        <f>L118-L121*L122-L119</f>
+        <f>L119-L122*L123-L120</f>
         <v>2265.9424845960316</v>
       </c>
       <c r="M144" s="4">
-        <f>M118-L121*M122-M119</f>
+        <f>M119-L122*M123-M120</f>
         <v>2147.4366200033164</v>
       </c>
       <c r="O144" s="4">
-        <f>O118-O121*O122-O119</f>
+        <f>O119-O122*O123-O120</f>
         <v>2597.9719406896065</v>
       </c>
       <c r="P144" s="4">
-        <f>P118-O121*P122-P119</f>
+        <f>P119-O122*P123-P120</f>
         <v>3956.1625518579049</v>
       </c>
       <c r="R144" s="4">
-        <f>R118-R121*R122-R119</f>
+        <f>R119-R122*R123-R120</f>
         <v>3496.5135200449749</v>
       </c>
       <c r="S144" s="4">
-        <f>S118-R121*S122-S119</f>
+        <f>S119-R122*S123-S120</f>
         <v>710.53905124679738</v>
       </c>
       <c r="U144" s="4">
-        <f>U118-U121*U122-U119</f>
+        <f>U119-U122*U123-U120</f>
         <v>3220.9402868918642</v>
       </c>
       <c r="V144" s="4">
-        <f>V118-U121*V122-V119</f>
+        <f>V119-U122*V123-V120</f>
         <v>1542.2840274847454</v>
       </c>
       <c r="X144" s="4">
-        <f>X118-X121*X122-X119</f>
+        <f>X119-X122*X123-X120</f>
         <v>2371.0046953200363</v>
       </c>
       <c r="Y144" s="4">
-        <f>Y118-X121*Y122-Y119</f>
+        <f>Y119-X122*Y123-Y120</f>
         <v>119.13984426958632</v>
       </c>
     </row>
@@ -12300,156 +12297,156 @@
         <v>168</v>
       </c>
       <c r="F145" s="4">
-        <f>F118*$F20</f>
+        <f>F119*$F20</f>
         <v>2250</v>
       </c>
       <c r="G145" s="4">
-        <f>(G118+G46-G52)*$G20</f>
+        <f>(G119+G46-G52)*$G20</f>
         <v>2500</v>
       </c>
       <c r="I145" s="4">
-        <f>I118*$F20</f>
+        <f>I119*$F20</f>
         <v>2657.1327080288697</v>
       </c>
       <c r="J145" s="4">
-        <f>(J118+J46-J52)*$G20</f>
+        <f>(J119+J46-J52)*$G20</f>
         <v>2559.2229710466122</v>
       </c>
       <c r="L145" s="4">
-        <f>L118*$F20</f>
+        <f>L119*$F20</f>
         <v>2356.4224845960307</v>
       </c>
       <c r="M145" s="4">
-        <f>(M118+M46-M52)*$G20</f>
+        <f>(M119+M46-M52)*$G20</f>
         <v>2019.8305166694299</v>
       </c>
       <c r="O145" s="4">
-        <f>O118*$F20</f>
+        <f>O119*$F20</f>
         <v>2696.6719406896059</v>
       </c>
       <c r="P145" s="4">
-        <f>(P118+P46-P52)*$G20</f>
+        <f>(P119+P46-P52)*$G20</f>
         <v>3772.0021265482537</v>
       </c>
       <c r="R145" s="4">
-        <f>R118*$F20</f>
+        <f>R119*$F20</f>
         <v>3652.5135200449745</v>
       </c>
       <c r="S145" s="4">
-        <f>(S118+S46-S52)*$G20</f>
+        <f>(S119+S46-S52)*$G20</f>
         <v>690.59087603899775</v>
       </c>
       <c r="U145" s="4">
-        <f>U118*$F20</f>
+        <f>U119*$F20</f>
         <v>3341.4802868918646</v>
       </c>
       <c r="V145" s="4">
-        <f>(V118+V46-V52)*$G20</f>
+        <f>(V119+V46-V52)*$G20</f>
         <v>1573.9866895706211</v>
       </c>
       <c r="X145" s="4">
-        <f>X118*$F20</f>
+        <f>X119*$F20</f>
         <v>2520.9446953200354</v>
       </c>
       <c r="Y145" s="4">
-        <f>(Y118+Y46-Y52)*$G20</f>
+        <f>(Y119+Y46-Y52)*$G20</f>
         <v>335.53320355798866</v>
       </c>
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F148" s="4">
-        <f>F144+F119</f>
+        <f>F144+F120</f>
         <v>2425</v>
       </c>
       <c r="G148" s="4">
-        <f>G144+G119</f>
+        <f>G144+G120</f>
         <v>3700</v>
       </c>
       <c r="I148" s="4">
-        <f>I144+I119</f>
+        <f>I144+I120</f>
         <v>2878.4727080288703</v>
       </c>
       <c r="J148" s="4">
-        <f>J144+J119</f>
+        <f>J144+J120</f>
         <v>3825.6675652559352</v>
       </c>
       <c r="L148" s="4">
-        <f>L144+L119</f>
+        <f>L144+L120</f>
         <v>2567.5424845960315</v>
       </c>
       <c r="M148" s="4">
-        <f>M144+M119</f>
+        <f>M144+M120</f>
         <v>3068.6366200033162</v>
       </c>
       <c r="O148" s="4">
-        <f>O144+O119</f>
+        <f>O144+O120</f>
         <v>2926.9719406896065</v>
       </c>
       <c r="P148" s="4">
-        <f>P144+P119</f>
+        <f>P144+P120</f>
         <v>5856.9625518579051</v>
       </c>
       <c r="R148" s="4">
-        <f>R144+R119</f>
+        <f>R144+R120</f>
         <v>4016.5135200449749</v>
       </c>
       <c r="S148" s="4">
-        <f>S144+S119</f>
+        <f>S144+S120</f>
         <v>1104.4390512467974</v>
       </c>
       <c r="U148" s="4">
-        <f>U144+U119</f>
+        <f>U144+U120</f>
         <v>3622.7402868918643</v>
       </c>
       <c r="V148" s="4">
-        <f>V144+V119</f>
+        <f>V144+V120</f>
         <v>2697.2840274847454</v>
       </c>
       <c r="X148" s="4">
-        <f>X144+X119</f>
+        <f>X144+X120</f>
         <v>2870.8046953200364</v>
       </c>
       <c r="Y148" s="4">
-        <f>Y144+Y119</f>
+        <f>Y144+Y120</f>
         <v>1064.1398442695863</v>
       </c>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150" s="46" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B150" s="43" t="s">
         <v>164</v>
       </c>
       <c r="F150" s="4">
-        <f>F121+F130+G130+F129</f>
+        <f>F122+F131+G131+F130</f>
         <v>2000000</v>
       </c>
       <c r="I150" s="4">
-        <f>I121+I130+J130</f>
+        <f>I122+I131+J131</f>
         <v>2049999.9999999998</v>
       </c>
       <c r="L150" s="4">
-        <f>L121+L130+M130</f>
+        <f>L122+L131+M131</f>
         <v>2110000</v>
       </c>
       <c r="O150" s="4">
-        <f>O121+O130+P130</f>
+        <f>O122+O131+P131</f>
         <v>2210000</v>
       </c>
       <c r="R150" s="4">
-        <f>R121+R130+S130</f>
+        <f>R122+R131+S131</f>
         <v>3000000.0000000005</v>
       </c>
       <c r="U150" s="4">
-        <f>U121+U130+V130</f>
+        <f>U122+U131+V131</f>
         <v>12243113.814846914</v>
       </c>
       <c r="X150" s="4">
-        <f>X121+X130+Y130</f>
+        <f>X122+X131+Y131</f>
         <v>1794958.0483073131</v>
       </c>
     </row>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08D78AE-190A-D342-B014-DBE3E572ADE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3B5766-04CE-9C43-886A-FDD847ED12F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="760" windowWidth="31100" windowHeight="19860" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="-1860" yWindow="500" windowWidth="33680" windowHeight="19400" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,9 +531,6 @@
     <t>input</t>
   </si>
   <si>
-    <t>input/output (starting condition input)</t>
-  </si>
-  <si>
     <t>output</t>
   </si>
   <si>
@@ -847,7 +844,7 @@
     <t>arr_orig_biomass_c_ag_preserved_in_conversion</t>
   </si>
   <si>
-    <t>arr_orig_biomass_c_ag_available_from_conversion</t>
+    <t>vec_young_biomass_c_ag_available_from_conversion</t>
   </si>
   <si>
     <t>TOTAL C CONVERTED FOR COMPARISON TO LAND USE STOCK MATRIX (must use for comparing loss)</t>
@@ -896,6 +893,9 @@
   </si>
   <si>
     <t>arr_orig_biomass_c_ag_average_per_area_no_ds</t>
+  </si>
+  <si>
+    <t>arr_total_biomass_c_ag_available_from_conversion</t>
   </si>
 </sst>
 </file>
@@ -951,7 +951,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1026,12 +1026,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1049,7 +1043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1178,20 +1172,17 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6346,10 +6337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
-  <dimension ref="A1:AM158"/>
+  <dimension ref="A1:AM159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6537,7 +6528,7 @@
       <c r="A5" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="39" t="s">
         <v>161</v>
       </c>
       <c r="D5" s="31" t="s">
@@ -6575,8 +6566,8 @@
         <v>135</v>
       </c>
       <c r="Y5" s="29"/>
-      <c r="AB5" s="47" t="s">
-        <v>235</v>
+      <c r="AB5" s="46" t="s">
+        <v>234</v>
       </c>
       <c r="AC5" s="21" t="s">
         <v>33</v>
@@ -6600,10 +6591,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="B6" s="39" t="s">
-        <v>163</v>
-      </c>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B6" s="39"/>
       <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
@@ -6670,11 +6659,11 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>156</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>67</v>
@@ -6757,7 +6746,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>157</v>
       </c>
       <c r="B8" s="41" t="s">
@@ -6820,7 +6809,7 @@
       </c>
       <c r="Y8" s="4">
         <f>V8-V9+V12</f>
-        <v>249795</v>
+        <v>249801</v>
       </c>
       <c r="AC8" s="19">
         <v>0.05</v>
@@ -6846,8 +6835,8 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
-        <v>225</v>
+      <c r="A9" s="49" t="s">
+        <v>224</v>
       </c>
       <c r="B9" s="41" t="s">
         <v>162</v>
@@ -6921,11 +6910,11 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>224</v>
+      <c r="A10" s="49" t="s">
+        <v>223</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>145</v>
@@ -6970,11 +6959,11 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
-        <v>222</v>
+      <c r="A11" s="49" t="s">
+        <v>221</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>113</v>
@@ -7019,8 +7008,8 @@
       </c>
     </row>
     <row r="12" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>223</v>
+      <c r="A12" s="49" t="s">
+        <v>222</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>162</v>
@@ -7044,10 +7033,10 @@
         <v>92</v>
       </c>
       <c r="V12" s="4">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Y12" s="4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="AC12" s="19">
         <v>0.36</v>
@@ -7061,11 +7050,11 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="49" t="s">
         <v>158</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>143</v>
@@ -7131,8 +7120,8 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
-        <v>226</v>
+      <c r="A14" s="49" t="s">
+        <v>225</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>162</v>
@@ -7173,17 +7162,17 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
-        <v>250</v>
+      <c r="A15" s="49" t="s">
+        <v>249</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>162</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F15" s="4">
         <v>5</v>
@@ -7232,14 +7221,14 @@
       <c r="AE15" s="19"/>
     </row>
     <row r="16" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>227</v>
+      <c r="A16" s="49" t="s">
+        <v>226</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>162</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F16" s="4">
         <v>1E-3</v>
@@ -7274,8 +7263,8 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
-        <v>228</v>
+      <c r="A17" s="49" t="s">
+        <v>227</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>162</v>
@@ -7301,8 +7290,8 @@
       </c>
     </row>
     <row r="18" spans="1:31" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
-        <v>229</v>
+      <c r="A18" s="49" t="s">
+        <v>228</v>
       </c>
       <c r="B18" s="41" t="s">
         <v>162</v>
@@ -7326,8 +7315,8 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
-        <v>231</v>
+      <c r="A19" s="49" t="s">
+        <v>230</v>
       </c>
       <c r="B19" s="41" t="s">
         <v>162</v>
@@ -7353,14 +7342,14 @@
       </c>
     </row>
     <row r="20" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
-        <v>233</v>
+      <c r="A20" s="49" t="s">
+        <v>232</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>162</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20" s="4">
         <v>0.3</v>
@@ -7373,11 +7362,11 @@
       <c r="AE20" s="19"/>
     </row>
     <row r="21" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
-        <v>281</v>
+      <c r="A21" s="49" t="s">
+        <v>280</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>115</v>
@@ -7402,14 +7391,14 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
-        <v>232</v>
+      <c r="A22" s="49" t="s">
+        <v>231</v>
       </c>
       <c r="B22" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="F22" s="4">
         <f>F19-F21</f>
@@ -7443,7 +7432,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="49" t="s">
         <v>159</v>
       </c>
       <c r="B24" s="41" t="s">
@@ -7506,11 +7495,11 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="50" t="s">
-        <v>280</v>
+      <c r="A25" s="49" t="s">
+        <v>279</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>108</v>
@@ -7555,11 +7544,11 @@
       </c>
     </row>
     <row r="26" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="49" t="s">
         <v>160</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>144</v>
@@ -7633,7 +7622,7 @@
     </row>
     <row r="27" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="E27" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -7661,14 +7650,14 @@
       </c>
     </row>
     <row r="28" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
-        <v>279</v>
+      <c r="A28" s="49" t="s">
+        <v>278</v>
       </c>
       <c r="B28" s="41" t="s">
         <v>162</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>68</v>
@@ -7681,15 +7670,15 @@
       </c>
     </row>
     <row r="29" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="s">
-        <v>234</v>
+      <c r="A29" s="49" t="s">
+        <v>233</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F29" s="4">
         <f>F28/F19</f>
@@ -7723,8 +7712,8 @@
       <c r="Y31" s="8"/>
     </row>
     <row r="32" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
-        <v>169</v>
+      <c r="A32" s="49" t="s">
+        <v>168</v>
       </c>
       <c r="B32" s="41" t="s">
         <v>162</v>
@@ -7796,7 +7785,7 @@
     </row>
     <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>88</v>
@@ -7848,11 +7837,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="48" t="s">
-        <v>181</v>
+      <c r="A37" s="47" t="s">
+        <v>180</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>87</v>
@@ -7938,7 +7927,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="37"/>
       <c r="E38" s="14" t="s">
         <v>69</v>
@@ -8023,7 +8012,7 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="49"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="37"/>
       <c r="E39" s="14" t="s">
         <v>79</v>
@@ -8050,7 +8039,7 @@
         <v>165</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" ref="L38:L40" si="4">IF(K39&gt;=M$11, IF(K38&lt;M$11, M$11-K38, 0),J39)</f>
+        <f t="shared" ref="L39:L40" si="4">IF(K39&gt;=M$11, IF(K38&lt;M$11, M$11-K38, 0),J39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="4">
@@ -8107,7 +8096,7 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="49"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="37"/>
       <c r="E40" s="14" t="s">
         <v>80</v>
@@ -8198,151 +8187,151 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="49" t="s">
-        <v>192</v>
+      <c r="A42" s="48" t="s">
+        <v>191</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
       </c>
       <c r="J42" s="4">
-        <f>IF(G37=0, 0, G94*I37/G37)</f>
+        <f>IF(G37=0, 0, G95*I37/G37)</f>
         <v>0</v>
       </c>
       <c r="M42" s="4">
-        <f>IF(J37=0, 0, J94*L37/J37)</f>
+        <f>IF(J37=0, 0, J95*L37/J37)</f>
         <v>0</v>
       </c>
       <c r="P42" s="4">
-        <f>IF(M37=0, 0, M94*O37/M37)</f>
+        <f>IF(M37=0, 0, M95*O37/M37)</f>
         <v>0</v>
       </c>
       <c r="S42" s="4">
-        <f>IF(P37=0, 0, P94*R37/P37)</f>
+        <f>IF(P37=0, 0, P95*R37/P37)</f>
         <v>0</v>
       </c>
       <c r="V42" s="4">
-        <f>IF(S37=0, 0, S94*U37/S37)</f>
+        <f>IF(S37=0, 0, S95*U37/S37)</f>
         <v>0</v>
       </c>
       <c r="Y42" s="4">
-        <f>IF(V37=0, 0, V94*X37/V37)</f>
+        <f>IF(V37=0, 0, V95*X37/V37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="37"/>
       <c r="E43" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <f>IF(G38=0, 0, G95*I38/G38)</f>
+        <f>IF(G38=0, 0, G96*I38/G38)</f>
         <v>0</v>
       </c>
       <c r="M43" s="4">
-        <f>IF(J38=0, 0, J95*L38/J38)</f>
+        <f>IF(J38=0, 0, J96*L38/J38)</f>
         <v>0</v>
       </c>
       <c r="P43" s="4">
-        <f>IF(M38=0, 0, M95*O38/M38)</f>
+        <f>IF(M38=0, 0, M96*O38/M38)</f>
         <v>0</v>
       </c>
       <c r="S43" s="4">
-        <f>IF(P38=0, 0, P95*R38/P38)</f>
+        <f>IF(P38=0, 0, P96*R38/P38)</f>
         <v>0</v>
       </c>
       <c r="V43" s="4">
-        <f>IF(S38=0, 0, S95*U38/S38)</f>
+        <f>IF(S38=0, 0, S96*U38/S38)</f>
         <v>0</v>
       </c>
       <c r="Y43" s="4">
-        <f>IF(V38=0, 0, V95*X38/V38)</f>
+        <f>IF(V38=0, 0, V96*X38/V38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="49"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="37"/>
       <c r="E44" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G44" s="4">
         <v>0</v>
       </c>
       <c r="J44" s="4">
-        <f>IF(G39=0, 0, G96*I39/G39)</f>
+        <f>IF(G39=0, 0, G97*I39/G39)</f>
         <v>0</v>
       </c>
       <c r="M44" s="4">
-        <f>IF(J39=0, 0, J96*L39/J39)</f>
+        <f>IF(J39=0, 0, J97*L39/J39)</f>
         <v>0</v>
       </c>
       <c r="P44" s="4">
-        <f>IF(M39=0, 0, M96*O39/M39)</f>
+        <f>IF(M39=0, 0, M97*O39/M39)</f>
         <v>0</v>
       </c>
       <c r="S44" s="4">
-        <f>IF(P39=0, 0, P96*R39/P39)</f>
+        <f>IF(P39=0, 0, P97*R39/P39)</f>
         <v>0</v>
       </c>
       <c r="V44" s="4">
-        <f>IF(S39=0, 0, S96*U39/S39)</f>
+        <f>IF(S39=0, 0, S97*U39/S39)</f>
         <v>0</v>
       </c>
       <c r="Y44" s="4">
-        <f>IF(V39=0, 0, V96*X39/V39)</f>
+        <f>IF(V39=0, 0, V97*X39/V39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="49"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="37"/>
       <c r="E45" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
       </c>
       <c r="J45" s="4">
-        <f>IF(G40=0, 0, G97*I40/G40)</f>
+        <f>IF(G40=0, 0, G98*I40/G40)</f>
         <v>0</v>
       </c>
       <c r="M45" s="4">
-        <f>IF(J40=0, 0, J97*L40/J40)</f>
+        <f>IF(J40=0, 0, J98*L40/J40)</f>
         <v>0</v>
       </c>
       <c r="P45" s="4">
-        <f>IF(M40=0, 0, M97*O40/M40)</f>
+        <f>IF(M40=0, 0, M98*O40/M40)</f>
         <v>0</v>
       </c>
       <c r="S45" s="4">
-        <f>IF(P40=0, 0, P97*R40/P40)</f>
+        <f>IF(P40=0, 0, P98*R40/P40)</f>
         <v>0</v>
       </c>
       <c r="V45" s="4">
-        <f>IF(S40=0, 0, S97*U40/S40)</f>
+        <f>IF(S40=0, 0, S98*U40/S40)</f>
         <v>0</v>
       </c>
       <c r="Y45" s="4">
-        <f>IF(V40=0, 0, V97*X40/V40)</f>
+        <f>IF(V40=0, 0, V98*X40/V40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="50" t="s">
-        <v>193</v>
+      <c r="A46" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="4">
@@ -8383,17 +8372,17 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="49" t="s">
-        <v>264</v>
+      <c r="A48" s="48" t="s">
+        <v>263</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G48" s="4">
         <f>MIN(G42,G$15*F37)</f>
@@ -8425,11 +8414,11 @@
       </c>
     </row>
     <row r="49" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="37"/>
       <c r="D49" s="28"/>
       <c r="E49" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G49" s="4">
         <f>MIN(G43,G$15*F38)</f>
@@ -8461,11 +8450,11 @@
       </c>
     </row>
     <row r="50" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="49"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="37"/>
       <c r="D50" s="28"/>
       <c r="E50" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G50" s="4">
         <f>MIN(G44,G$15*F39)</f>
@@ -8497,11 +8486,11 @@
       </c>
     </row>
     <row r="51" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="49"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="37"/>
       <c r="D51" s="28"/>
       <c r="E51" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G51" s="4">
         <f>MIN(G45,G$15*F40)</f>
@@ -8533,11 +8522,11 @@
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A52" s="50" t="s">
-        <v>265</v>
+      <c r="A52" s="49" t="s">
+        <v>264</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E52" s="14"/>
       <c r="G52" s="4">
@@ -8570,1052 +8559,1028 @@
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="B53" s="40"/>
       <c r="E53" s="14"/>
-    </row>
-    <row r="54" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G54" s="4">
+      <c r="G53" s="4">
+        <f>G46-G52</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <f>J46-J52</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <f>M46-M52</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <f>P46-P52</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="4">
+        <f>S46-S52</f>
+        <v>0</v>
+      </c>
+      <c r="V53" s="4">
+        <f>V46-V52</f>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="4">
+        <f>Y46-Y52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="G55" s="4">
         <f>G42*$G$20</f>
         <v>0</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J55" s="4">
         <f>J42*$G$20</f>
         <v>0</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M55" s="4">
         <f>M42*$G$20</f>
         <v>0</v>
       </c>
-      <c r="P54" s="4">
+      <c r="P55" s="4">
         <f>P42*$G$20</f>
         <v>0</v>
       </c>
-      <c r="S54" s="4">
+      <c r="S55" s="4">
         <f>S42*$G$20</f>
         <v>0</v>
       </c>
-      <c r="V54" s="4">
+      <c r="V55" s="4">
         <f>V42*$G$20</f>
         <v>0</v>
       </c>
-      <c r="Y54" s="4">
+      <c r="Y55" s="4">
         <f>Y42*$G$20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="49"/>
-      <c r="B55" s="37"/>
-      <c r="E55" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G55" s="4">
-        <f>G43*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
-        <f>J43*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="4">
-        <f>M43*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="P55" s="4">
-        <f t="shared" ref="P55:P57" si="9">P43*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="S55" s="4">
-        <f t="shared" ref="S55:S57" si="10">S43*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="V55" s="4">
-        <f t="shared" ref="V55:V57" si="11">V43*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="Y55" s="4">
-        <f t="shared" ref="Y55:Y57" si="12">Y43*$G$20</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="56" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="49"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="37"/>
       <c r="E56" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" ref="G55:G57" si="13">G44*$G$20</f>
+        <f>G43*$G$20</f>
         <v>0</v>
       </c>
       <c r="J56" s="4">
-        <f>J44*$G$20</f>
+        <f>J43*$G$20</f>
         <v>0</v>
       </c>
       <c r="M56" s="4">
-        <f t="shared" ref="M55:M57" si="14">M44*$G$20</f>
+        <f>M43*$G$20</f>
         <v>0</v>
       </c>
       <c r="P56" s="4">
-        <f t="shared" si="9"/>
+        <f>P43*$G$20</f>
         <v>0</v>
       </c>
       <c r="S56" s="4">
-        <f t="shared" si="10"/>
+        <f>S43*$G$20</f>
         <v>0</v>
       </c>
       <c r="V56" s="4">
-        <f t="shared" si="11"/>
+        <f>V43*$G$20</f>
         <v>0</v>
       </c>
       <c r="Y56" s="4">
-        <f t="shared" si="12"/>
+        <f>Y43*$G$20</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="49"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="37"/>
       <c r="E57" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="13"/>
+        <f>G44*$G$20</f>
         <v>0</v>
       </c>
       <c r="J57" s="4">
-        <f t="shared" ref="J55:J57" si="15">J45*$G$20</f>
+        <f>J44*$G$20</f>
         <v>0</v>
       </c>
       <c r="M57" s="4">
-        <f t="shared" si="14"/>
+        <f>M44*$G$20</f>
         <v>0</v>
       </c>
       <c r="P57" s="4">
-        <f t="shared" si="9"/>
+        <f>P44*$G$20</f>
         <v>0</v>
       </c>
       <c r="S57" s="4">
-        <f t="shared" si="10"/>
+        <f>S44*$G$20</f>
         <v>0</v>
       </c>
       <c r="V57" s="4">
-        <f t="shared" si="11"/>
+        <f>V44*$G$20</f>
         <v>0</v>
       </c>
       <c r="Y57" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A58" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="B58" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" s="14"/>
+        <f>Y44*$G$20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="48"/>
+      <c r="B58" s="37"/>
+      <c r="E58" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="G58" s="4">
-        <f>SUM(G54:G57)</f>
+        <f>G45*$G$20</f>
         <v>0</v>
       </c>
       <c r="J58" s="4">
-        <f>SUM(J54:J57)</f>
+        <f>J45*$G$20</f>
         <v>0</v>
       </c>
       <c r="M58" s="4">
-        <f>SUM(M54:M57)</f>
+        <f>M45*$G$20</f>
         <v>0</v>
       </c>
       <c r="P58" s="4">
-        <f>SUM(P54:P57)</f>
+        <f>P45*$G$20</f>
         <v>0</v>
       </c>
       <c r="S58" s="4">
-        <f>SUM(S54:S57)</f>
+        <f>S45*$G$20</f>
         <v>0</v>
       </c>
       <c r="V58" s="4">
-        <f>SUM(V54:V57)</f>
+        <f>V45*$G$20</f>
         <v>0</v>
       </c>
       <c r="Y58" s="4">
-        <f>SUM(Y54:Y57)</f>
+        <f>Y45*$G$20</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A59" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>174</v>
+      </c>
       <c r="E59" s="14"/>
-    </row>
-    <row r="60" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="14" t="s">
+      <c r="G59" s="4">
+        <f>SUM(G55:G58)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <f>SUM(J55:J58)</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="4">
+        <f>SUM(M55:M58)</f>
+        <v>0</v>
+      </c>
+      <c r="P59" s="4">
+        <f>SUM(P55:P58)</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="4">
+        <f>SUM(S55:S58)</f>
+        <v>0</v>
+      </c>
+      <c r="V59" s="4">
+        <f>SUM(V55:V58)</f>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="4">
+        <f>SUM(Y55:Y58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G61" s="4">
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J61" s="4">
         <f>AC7</f>
         <v>0.01</v>
       </c>
-      <c r="M60" s="4">
+      <c r="M61" s="4">
         <f>AC8</f>
         <v>0.05</v>
       </c>
-      <c r="P60" s="4">
+      <c r="P61" s="4">
         <f>AC9</f>
         <v>0.12</v>
       </c>
-      <c r="S60" s="4">
+      <c r="S61" s="4">
         <f>AC11</f>
         <v>0.2</v>
       </c>
-      <c r="V60" s="4">
+      <c r="V61" s="4">
         <f>AC12</f>
         <v>0.36</v>
       </c>
-      <c r="Y60" s="4">
+      <c r="Y61" s="4">
         <f>AC14</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="49"/>
-      <c r="B61" s="37"/>
-      <c r="E61" s="14" t="s">
+    <row r="62" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="48"/>
+      <c r="B62" s="37"/>
+      <c r="E62" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G61" s="4">
-        <v>0</v>
-      </c>
-      <c r="J61" s="4">
-        <v>0</v>
-      </c>
-      <c r="M61" s="4">
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
         <f>AC7</f>
         <v>0.01</v>
       </c>
-      <c r="P61" s="4">
+      <c r="P62" s="4">
         <f>AC8</f>
         <v>0.05</v>
       </c>
-      <c r="S61" s="4">
+      <c r="S62" s="4">
         <f>AC9</f>
         <v>0.12</v>
       </c>
-      <c r="V61" s="4">
+      <c r="V62" s="4">
         <f>AC11</f>
         <v>0.2</v>
       </c>
-      <c r="Y61" s="4">
+      <c r="Y62" s="4">
         <f>AC12</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="49"/>
-      <c r="B62" s="37"/>
-      <c r="E62" s="14" t="s">
+    <row r="63" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="48"/>
+      <c r="B63" s="37"/>
+      <c r="E63" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G62" s="4">
-        <v>0</v>
-      </c>
-      <c r="J62" s="4">
-        <v>0</v>
-      </c>
-      <c r="M62" s="4">
-        <v>0</v>
-      </c>
-      <c r="P62" s="4">
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0</v>
+      </c>
+      <c r="P63" s="4">
         <f>AC7</f>
         <v>0.01</v>
       </c>
-      <c r="S62" s="4">
+      <c r="S63" s="4">
         <f>AC8</f>
         <v>0.05</v>
       </c>
-      <c r="V62" s="4">
+      <c r="V63" s="4">
         <f>AC9</f>
         <v>0.12</v>
       </c>
-      <c r="Y62" s="4">
+      <c r="Y63" s="4">
         <f>AC11</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="49"/>
-      <c r="B63" s="37"/>
-      <c r="E63" s="14" t="s">
+    <row r="64" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="48"/>
+      <c r="B64" s="37"/>
+      <c r="E64" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4">
-        <v>0</v>
-      </c>
-      <c r="M63" s="4">
-        <v>0</v>
-      </c>
-      <c r="P63" s="4">
-        <v>0</v>
-      </c>
-      <c r="S63" s="4">
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+      <c r="M64" s="4">
+        <v>0</v>
+      </c>
+      <c r="P64" s="4">
+        <v>0</v>
+      </c>
+      <c r="S64" s="4">
         <f>AC7</f>
         <v>0.01</v>
       </c>
-      <c r="V63" s="4">
+      <c r="V64" s="4">
         <f>AC8</f>
         <v>0.05</v>
       </c>
-      <c r="Y63" s="4">
+      <c r="Y64" s="4">
         <f>AC9</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="E64" s="14" t="s">
+    <row r="65" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="E65" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E65" s="14"/>
-    </row>
-    <row r="66" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E66" s="14" t="s">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E67" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G66" s="4">
-        <f>G37*G60</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="4">
-        <f>J37*J60</f>
+      <c r="G67" s="4">
+        <f>G37*G61</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <f>J37*J61</f>
         <v>0.85</v>
       </c>
-      <c r="M66" s="4">
-        <f>J66*(1- $F$29)+M37*M60</f>
+      <c r="M67" s="4">
+        <f>J67*(1- $F$29)+M37*M61</f>
         <v>5.0983000000000001</v>
       </c>
-      <c r="P66" s="4">
-        <f>M66*(1- $F$29)+P37*P60</f>
+      <c r="P67" s="4">
+        <f>M67*(1- $F$29)+P37*P61</f>
         <v>15.288103399999999</v>
       </c>
-      <c r="S66" s="4">
-        <f>P66*(1- $F$29)+S37*S60</f>
+      <c r="S67" s="4">
+        <f>P67*(1- $F$29)+S37*S61</f>
         <v>32.257527193199998</v>
       </c>
-      <c r="V66" s="4">
-        <f>S66*(1- $F$29)+V37*V60</f>
+      <c r="V67" s="4">
+        <f>S67*(1- $F$29)+V37*V61</f>
         <v>62.793012138813594</v>
       </c>
-      <c r="Y66" s="4">
-        <f>V66*(1- $F$29)+Y37*Y60</f>
+      <c r="Y67" s="4">
+        <f>V67*(1- $F$29)+Y37*Y61</f>
         <v>113.66742611453597</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="49"/>
-      <c r="B67" s="37"/>
-      <c r="E67" s="14" t="s">
+    <row r="68" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="48"/>
+      <c r="B68" s="37"/>
+      <c r="E68" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="J67" s="4">
-        <f>J38*J61</f>
-        <v>0</v>
-      </c>
-      <c r="M67" s="4">
-        <f>J67*(1- $F$29)+M38*M61</f>
+      <c r="J68" s="4">
+        <f>J38*J62</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="4">
+        <f>J68*(1- $F$29)+M38*M62</f>
         <v>0.8</v>
       </c>
-      <c r="P67" s="4">
-        <f>M67*(1- $F$29)+P38*P61</f>
+      <c r="P68" s="4">
+        <f>M68*(1- $F$29)+P38*P62</f>
         <v>4.7984</v>
       </c>
-      <c r="S67" s="4">
-        <f>P67*(1- $F$29)+S38*S61</f>
+      <c r="S68" s="4">
+        <f>P68*(1- $F$29)+S38*S62</f>
         <v>14.3888032</v>
       </c>
-      <c r="V67" s="4">
-        <f>S67*(1- $F$29)+V38*V61</f>
+      <c r="V68" s="4">
+        <f>S68*(1- $F$29)+V38*V62</f>
         <v>30.3600255936</v>
       </c>
-      <c r="Y67" s="4">
-        <f>V67*(1- $F$29)+Y38*Y61</f>
+      <c r="Y68" s="4">
+        <f>V68*(1- $F$29)+Y38*Y62</f>
         <v>59.099305542412793</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="49"/>
-      <c r="B68" s="37"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="M68" s="4">
-        <f>J68*(1- $F$29)+M39*M62</f>
-        <v>0</v>
-      </c>
-      <c r="P68" s="4">
-        <f>M68*(1- $F$29)+P39*P62</f>
-        <v>0.92</v>
-      </c>
-      <c r="S68" s="4">
-        <f>P68*(1- $F$29)+S39*S62</f>
-        <v>5.5181600000000008</v>
-      </c>
-      <c r="V68" s="4">
-        <f>S68*(1- $F$29)+V39*V62</f>
-        <v>16.547123679999999</v>
-      </c>
-      <c r="Y68" s="4">
-        <f>V68*(1- $F$29)+Y39*Y62</f>
-        <v>34.91402943264</v>
-      </c>
-    </row>
     <row r="69" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="49"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="37"/>
       <c r="D69" s="28"/>
       <c r="E69" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M69" s="4">
+        <f>J69*(1- $F$29)+M39*M63</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <f>M69*(1- $F$29)+P39*P63</f>
+        <v>0.92</v>
+      </c>
+      <c r="S69" s="4">
+        <f>P69*(1- $F$29)+S39*S63</f>
+        <v>5.5181600000000008</v>
+      </c>
+      <c r="V69" s="4">
+        <f>S69*(1- $F$29)+V39*V63</f>
+        <v>16.547123679999999</v>
+      </c>
+      <c r="Y69" s="4">
+        <f>V69*(1- $F$29)+Y39*Y63</f>
+        <v>34.91402943264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="48"/>
+      <c r="B70" s="37"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="M69" s="4">
-        <f>J69*(1- $F$29)+M40*M63</f>
-        <v>0</v>
-      </c>
-      <c r="P69" s="4">
-        <f>M69*(1- $F$29)+P40*P63</f>
-        <v>0</v>
-      </c>
-      <c r="S69" s="4">
-        <f>P69*(1- $F$29)+S40*S63</f>
+      <c r="M70" s="4">
+        <f>J70*(1- $F$29)+M40*M64</f>
+        <v>0</v>
+      </c>
+      <c r="P70" s="4">
+        <f>M70*(1- $F$29)+P40*P64</f>
+        <v>0</v>
+      </c>
+      <c r="S70" s="4">
+        <f>P70*(1- $F$29)+S40*S64</f>
         <v>0.43</v>
       </c>
-      <c r="V69" s="4">
-        <f>S69*(1- $F$29)+V40*V63</f>
+      <c r="V70" s="4">
+        <f>S70*(1- $F$29)+V40*V64</f>
         <v>2.5791399999999998</v>
       </c>
-      <c r="Y69" s="4">
-        <f>V69*(1- $F$29)+Y40*Y63</f>
+      <c r="Y70" s="4">
+        <f>V70*(1- $F$29)+Y40*Y64</f>
         <v>7.7339817200000001</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D70" s="28"/>
-      <c r="E70" s="14"/>
-    </row>
-    <row r="71" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E71" s="14" t="s">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="D71" s="28"/>
+      <c r="E71" s="14"/>
+    </row>
+    <row r="72" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E72" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G71" s="4">
-        <v>0</v>
-      </c>
-      <c r="J71" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D79)*MAX(G94-$G$21*G37-J42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D79)*MAX(J94-$G$21*J37-M42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P71" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D79)*MAX(M94-$G$21*M37-P42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S71" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D79)*MAX(P94-$G$21*P37-S42,0)</f>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D80)*MAX(G95-$G$21*G37-J42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D80)*MAX(J95-$G$21*J37-M42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D80)*MAX(M95-$G$21*M37-P42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S72" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D80)*MAX(P95-$G$21*P37-S42,0)</f>
         <v>6.7881033999999989</v>
       </c>
-      <c r="V71" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D79)*MAX(S94-$G$21*S37-V42,0)</f>
+      <c r="V72" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D80)*MAX(S95-$G$21*S37-V42,0)</f>
         <v>23.757527193199998</v>
       </c>
-      <c r="Y71" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D79)*MAX(V94-$G$21*V37-Y42,0)</f>
+      <c r="Y72" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D80)*MAX(V95-$G$21*V37-Y42,0)</f>
         <v>30.582999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="49"/>
-      <c r="B72" s="37"/>
-      <c r="E72" s="14" t="s">
+    <row r="73" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="48"/>
+      <c r="B73" s="37"/>
+      <c r="E73" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G72" s="4">
-        <v>0</v>
-      </c>
-      <c r="J72" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D80)*MAX(G95-$G$21*G38-J43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M72" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D80)*MAX(J95-$G$21*J38-M43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P72" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D80)*MAX(M95-$G$21*M38-P43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S72" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D80)*MAX(P95-$G$21*P38-S43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V72" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D80)*MAX(S95-$G$21*S38-V43,0)</f>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D81)*MAX(G96-$G$21*G38-J43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D81)*MAX(J96-$G$21*J38-M43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P73" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D81)*MAX(M96-$G$21*M38-P43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S73" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D81)*MAX(P96-$G$21*P38-S43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V73" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D81)*MAX(S96-$G$21*S38-V43,0)</f>
         <v>6.3888031999999999</v>
       </c>
-      <c r="Y72" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D80)*MAX(V95-$G$21*V38-Y43,0)</f>
+      <c r="Y73" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D81)*MAX(V96-$G$21*V38-Y43,0)</f>
         <v>15.984000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="49"/>
-      <c r="B73" s="37"/>
-      <c r="D73" s="28" t="s">
+    <row r="74" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="48"/>
+      <c r="B74" s="37"/>
+      <c r="D74" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E74" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G73" s="4">
-        <v>0</v>
-      </c>
-      <c r="J73" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D81)*MAX(G96-$G$21*G39-J44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M73" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D81)*MAX(J96-$G$21*J39-M44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P73" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D81)*MAX(M96-$G$21*M39-P44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S73" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D81)*MAX(P96-$G$21*P39-S44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V73" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D81)*MAX(S96-$G$21*S39-V44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y73" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D81)*MAX(V96-$G$21*V39-Y44,0)</f>
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D82)*MAX(G97-$G$21*G39-J44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D82)*MAX(J97-$G$21*J39-M44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P74" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D82)*MAX(M97-$G$21*M39-P44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S74" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D82)*MAX(P97-$G$21*P39-S44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V74" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D82)*MAX(S97-$G$21*S39-V44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D82)*MAX(V97-$G$21*V39-Y44,0)</f>
         <v>7.3471236799999975</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="49"/>
-      <c r="B74" s="37"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G74" s="4">
-        <v>0</v>
-      </c>
-      <c r="J74" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D82)*MAX(G97-$G$21*G40-J45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D82)*MAX(J97-$G$21*J40-M45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P74" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D82)*MAX(M97-$G$21*M40-P45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S74" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D82)*MAX(P97-$G$21*P40-S45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V74" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D82)*MAX(S97-$G$21*S40-V45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D82)*MAX(V97-$G$21*V40-Y45,0)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="75" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B75" s="40" t="s">
-        <v>175</v>
-      </c>
+      <c r="A75" s="48"/>
+      <c r="B75" s="37"/>
       <c r="D75" s="28"/>
       <c r="E75" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <f>INT(I$4-$AE$6 &gt; $D83)*MAX(G98-$G$21*G40-J45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="4">
+        <f>INT(L$4-$AE$6 &gt; $D83)*MAX(J98-$G$21*J40-M45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="4">
+        <f>INT(O$4-$AE$6 &gt; $D83)*MAX(M98-$G$21*M40-P45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S75" s="4">
+        <f>INT(R$4-$AE$6 &gt; $D83)*MAX(P98-$G$21*P40-S45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V75" s="4">
+        <f>INT(U$4-$AE$6 &gt; $D83)*MAX(S98-$G$21*S40-V45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="4">
+        <f>INT(X$4-$AE$6 &gt; $D83)*MAX(V98-$G$21*V40-Y45,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" s="28"/>
+      <c r="E76" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="G75" s="4">
-        <v>0</v>
-      </c>
-      <c r="J75" s="4">
-        <f>SUM(J71:J74)</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="4">
-        <f>SUM(M71:M74)</f>
-        <v>0</v>
-      </c>
-      <c r="P75" s="4">
-        <f>SUM(P71:P74)</f>
-        <v>0</v>
-      </c>
-      <c r="S75" s="4">
-        <f>SUM(S71:S74)</f>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
+        <f>SUM(J72:J75)</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="4">
+        <f>SUM(M72:M75)</f>
+        <v>0</v>
+      </c>
+      <c r="P76" s="4">
+        <f>SUM(P72:P75)</f>
+        <v>0</v>
+      </c>
+      <c r="S76" s="4">
+        <f>SUM(S72:S75)</f>
         <v>6.7881033999999989</v>
       </c>
-      <c r="V75" s="4">
-        <f>SUM(V71:V74)</f>
+      <c r="V76" s="4">
+        <f>SUM(V72:V75)</f>
         <v>30.146330393199996</v>
       </c>
-      <c r="Y75" s="4">
-        <f>SUM(Y71:Y74)</f>
+      <c r="Y76" s="4">
+        <f>SUM(Y72:Y75)</f>
         <v>53.914123679999996</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AD76" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D76" s="28"/>
-      <c r="E76" s="14"/>
-      <c r="AB76" t="s">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="D77" s="28"/>
+      <c r="E77" s="14"/>
+      <c r="AB77" t="s">
         <v>85</v>
       </c>
-      <c r="AD76" t="s">
+      <c r="AD77" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E77" s="14" t="s">
+    <row r="78" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F77" s="4">
-        <v>0</v>
-      </c>
-      <c r="I77" s="4">
-        <v>0</v>
-      </c>
-      <c r="L77" s="4">
-        <v>0</v>
-      </c>
-      <c r="O77" s="4">
-        <v>0</v>
-      </c>
-      <c r="R77" s="4">
-        <v>0</v>
-      </c>
-      <c r="U77" s="4">
-        <v>0</v>
-      </c>
-      <c r="X77" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="s">
+      <c r="F78" s="4">
+        <v>0</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0</v>
+      </c>
+      <c r="O78" s="4">
+        <v>0</v>
+      </c>
+      <c r="R78" s="4">
+        <v>0</v>
+      </c>
+      <c r="U78" s="4">
+        <v>0</v>
+      </c>
+      <c r="X78" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB78" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="51"/>
-      <c r="B78" s="37"/>
-      <c r="E78" s="14" t="s">
+    <row r="79" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="50"/>
+      <c r="B79" s="37"/>
+      <c r="E79" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F78" s="4">
-        <f>SUM(G$71:G71)</f>
-        <v>0</v>
-      </c>
-      <c r="G78" s="4">
-        <f>IF(F78&gt;=F$130, IF(F77&lt;F$130, F$130-F77, 0),G71)</f>
-        <v>0</v>
-      </c>
-      <c r="I78" s="4">
-        <f>SUM(J$71:J71)</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="4">
-        <f>IF(I78&gt;=I$130, IF(I77&lt;I$130, I$130-I77, 0),J71)</f>
-        <v>0</v>
-      </c>
-      <c r="L78" s="4">
-        <f>SUM(M$71:M71)</f>
-        <v>0</v>
-      </c>
-      <c r="M78" s="4">
-        <f>IF(L78&gt;=L$130, IF(L77&lt;L$130, L$130-L77, 0),M71)</f>
-        <v>0</v>
-      </c>
-      <c r="O78" s="4">
-        <f>SUM(P$71:P71)</f>
-        <v>0</v>
-      </c>
-      <c r="P78" s="4">
-        <f>IF(O78&gt;=O$130, IF(O77&lt;O$130, O$130-O77, 0),P71)</f>
-        <v>0</v>
-      </c>
-      <c r="R78" s="4">
-        <f>SUM(S$71:S71)</f>
+      <c r="F79" s="4">
+        <f>SUM(G$72:G72)</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <f>IF(F79&gt;=F$131, IF(F78&lt;F$131, F$131-F78, 0),G72)</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="4">
+        <f>SUM(J$72:J72)</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="4">
+        <f>IF(I79&gt;=I$131, IF(I78&lt;I$131, I$131-I78, 0),J72)</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="4">
+        <f>SUM(M$72:M72)</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="4">
+        <f>IF(L79&gt;=L$131, IF(L78&lt;L$131, L$131-L78, 0),M72)</f>
+        <v>0</v>
+      </c>
+      <c r="O79" s="4">
+        <f>SUM(P$72:P72)</f>
+        <v>0</v>
+      </c>
+      <c r="P79" s="4">
+        <f>IF(O79&gt;=O$131, IF(O78&lt;O$131, O$131-O78, 0),P72)</f>
+        <v>0</v>
+      </c>
+      <c r="R79" s="4">
+        <f>SUM(S$72:S72)</f>
         <v>6.7881033999999989</v>
       </c>
-      <c r="S78" s="4">
-        <f>IF(R78&gt;=R$130, IF(R77&lt;R$130, R$130-R77, 0),S71)</f>
-        <v>0</v>
-      </c>
-      <c r="U78" s="4">
-        <f>SUM(V$71:V71)</f>
+      <c r="S79" s="4">
+        <f>IF(R79&gt;=R$131, IF(R78&lt;R$131, R$131-R78, 0),S72)</f>
+        <v>0</v>
+      </c>
+      <c r="U79" s="4">
+        <f>SUM(V$72:V72)</f>
         <v>23.757527193199998</v>
       </c>
-      <c r="V78" s="4">
-        <f>IF(U78&gt;=U$130, IF(U77&lt;U$130, U$130-U77, 0),V71)</f>
+      <c r="V79" s="4">
+        <f>IF(U79&gt;=U$131, IF(U78&lt;U$131, U$131-U78, 0),V72)</f>
         <v>23.757527193199998</v>
       </c>
-      <c r="X78" s="4">
-        <f>SUM(Y$71:Y71)</f>
+      <c r="X79" s="4">
+        <f>SUM(Y$72:Y72)</f>
         <v>30.582999999999998</v>
       </c>
-      <c r="Y78" s="4">
-        <f>IF(X78&gt;=X$130, IF(X77&lt;X$130, X$130-X77, 0),Y71)</f>
+      <c r="Y79" s="4">
+        <f>IF(X79&gt;=X$131, IF(X78&lt;X$131, X$131-X78, 0),Y72)</f>
         <v>30.582999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
-      <c r="B79" s="37"/>
-      <c r="D79" s="22">
-        <v>0</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F79" s="4">
-        <f>SUM(G$71:G72)</f>
-        <v>0</v>
-      </c>
-      <c r="G79" s="4">
-        <f>IF(F79&gt;=F$130, IF(F78&lt;F$130, F$130-F78, 0),G72)</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="4">
-        <f>SUM(J$71:J72)</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="4">
-        <f>IF(I79&gt;=I$130, IF(I78&lt;I$130, I$130-I78, 0),J72)</f>
-        <v>0</v>
-      </c>
-      <c r="L79" s="4">
-        <f>SUM(M$71:M72)</f>
-        <v>0</v>
-      </c>
-      <c r="M79" s="4">
-        <f>IF(L79&gt;=L$130, IF(L78&lt;L$130, L$130-L78, 0),M72)</f>
-        <v>0</v>
-      </c>
-      <c r="O79" s="4">
-        <f>SUM(P$71:P72)</f>
-        <v>0</v>
-      </c>
-      <c r="P79" s="4">
-        <f>IF(O79&gt;=O$130, IF(O78&lt;O$130, O$130-O78, 0),P72)</f>
-        <v>0</v>
-      </c>
-      <c r="R79" s="4">
-        <f>SUM(S$71:S72)</f>
-        <v>6.7881033999999989</v>
-      </c>
-      <c r="S79" s="4">
-        <f>IF(R79&gt;=R$130, IF(R78&lt;R$130, R$130-R78, 0),S72)</f>
-        <v>0</v>
-      </c>
-      <c r="U79" s="4">
-        <f>SUM(V$71:V72)</f>
-        <v>30.146330393199996</v>
-      </c>
-      <c r="V79" s="4">
-        <f>IF(U79&gt;=U$130, IF(U78&lt;U$130, U$130-U78, 0),V72)</f>
-        <v>6.3888031999999981</v>
-      </c>
-      <c r="X79" s="4">
-        <f>SUM(Y$71:Y72)</f>
-        <v>46.567</v>
-      </c>
-      <c r="Y79" s="4">
-        <f>IF(X79&gt;=X$130, IF(X78&lt;X$130, X$130-X78, 0),Y72)</f>
-        <v>15.984000000000002</v>
-      </c>
-    </row>
     <row r="80" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="51"/>
+      <c r="A80" s="50"/>
       <c r="B80" s="37"/>
       <c r="D80" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F80" s="4">
-        <f>SUM(G$71:G73)</f>
+        <f>SUM(G$72:G73)</f>
         <v>0</v>
       </c>
       <c r="G80" s="4">
-        <f>IF(F80&gt;=F$130, IF(F79&lt;F$130, F$130-F79, 0),G73)</f>
+        <f>IF(F80&gt;=F$131, IF(F79&lt;F$131, F$131-F79, 0),G73)</f>
         <v>0</v>
       </c>
       <c r="I80" s="4">
-        <f>SUM(J$71:J73)</f>
+        <f>SUM(J$72:J73)</f>
         <v>0</v>
       </c>
       <c r="J80" s="4">
-        <f>IF(I80&gt;=I$130, IF(I79&lt;I$130, I$130-I79, 0),J73)</f>
+        <f>IF(I80&gt;=I$131, IF(I79&lt;I$131, I$131-I79, 0),J73)</f>
         <v>0</v>
       </c>
       <c r="L80" s="4">
-        <f>SUM(M$71:M73)</f>
+        <f>SUM(M$72:M73)</f>
         <v>0</v>
       </c>
       <c r="M80" s="4">
-        <f>IF(L80&gt;=L$130, IF(L79&lt;L$130, L$130-L79, 0),M73)</f>
+        <f>IF(L80&gt;=L$131, IF(L79&lt;L$131, L$131-L79, 0),M73)</f>
         <v>0</v>
       </c>
       <c r="O80" s="4">
-        <f>SUM(P$71:P73)</f>
+        <f>SUM(P$72:P73)</f>
         <v>0</v>
       </c>
       <c r="P80" s="4">
-        <f>IF(O80&gt;=O$130, IF(O79&lt;O$130, O$130-O79, 0),P73)</f>
+        <f>IF(O80&gt;=O$131, IF(O79&lt;O$131, O$131-O79, 0),P73)</f>
         <v>0</v>
       </c>
       <c r="R80" s="4">
-        <f>SUM(S$71:S73)</f>
+        <f>SUM(S$72:S73)</f>
         <v>6.7881033999999989</v>
       </c>
       <c r="S80" s="4">
-        <f>IF(R80&gt;=R$130, IF(R79&lt;R$130, R$130-R79, 0),S73)</f>
+        <f>IF(R80&gt;=R$131, IF(R79&lt;R$131, R$131-R79, 0),S73)</f>
         <v>0</v>
       </c>
       <c r="U80" s="4">
-        <f>SUM(V$71:V73)</f>
+        <f>SUM(V$72:V73)</f>
         <v>30.146330393199996</v>
       </c>
       <c r="V80" s="4">
-        <f>IF(U80&gt;=U$130, IF(U79&lt;U$130, U$130-U79, 0),V73)</f>
-        <v>0</v>
+        <f>IF(U80&gt;=U$131, IF(U79&lt;U$131, U$131-U79, 0),V73)</f>
+        <v>6.3888031999999981</v>
       </c>
       <c r="X80" s="4">
-        <f>SUM(Y$71:Y73)</f>
-        <v>53.914123679999996</v>
+        <f>SUM(Y$72:Y73)</f>
+        <v>46.567</v>
       </c>
       <c r="Y80" s="4">
-        <f>IF(X80&gt;=X$130, IF(X79&lt;X$130, X$130-X79, 0),Y73)</f>
-        <v>7.3471236799999957</v>
+        <f>IF(X80&gt;=X$131, IF(X79&lt;X$131, X$131-X79, 0),Y73)</f>
+        <v>15.984000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="51"/>
+      <c r="A81" s="50"/>
       <c r="B81" s="37"/>
       <c r="D81" s="22">
+        <v>1</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" s="4">
+        <f>SUM(G$72:G74)</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <f>IF(F81&gt;=F$131, IF(F80&lt;F$131, F$131-F80, 0),G74)</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="4">
+        <f>SUM(J$72:J74)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="4">
+        <f>IF(I81&gt;=I$131, IF(I80&lt;I$131, I$131-I80, 0),J74)</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="4">
+        <f>SUM(M$72:M74)</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="4">
+        <f>IF(L81&gt;=L$131, IF(L80&lt;L$131, L$131-L80, 0),M74)</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="4">
+        <f>SUM(P$72:P74)</f>
+        <v>0</v>
+      </c>
+      <c r="P81" s="4">
+        <f>IF(O81&gt;=O$131, IF(O80&lt;O$131, O$131-O80, 0),P74)</f>
+        <v>0</v>
+      </c>
+      <c r="R81" s="4">
+        <f>SUM(S$72:S74)</f>
+        <v>6.7881033999999989</v>
+      </c>
+      <c r="S81" s="4">
+        <f>IF(R81&gt;=R$131, IF(R80&lt;R$131, R$131-R80, 0),S74)</f>
+        <v>0</v>
+      </c>
+      <c r="U81" s="4">
+        <f>SUM(V$72:V74)</f>
+        <v>30.146330393199996</v>
+      </c>
+      <c r="V81" s="4">
+        <f>IF(U81&gt;=U$131, IF(U80&lt;U$131, U$131-U80, 0),V74)</f>
+        <v>0</v>
+      </c>
+      <c r="X81" s="4">
+        <f>SUM(Y$72:Y74)</f>
+        <v>53.914123679999996</v>
+      </c>
+      <c r="Y81" s="4">
+        <f>IF(X81&gt;=X$131, IF(X80&lt;X$131, X$131-X80, 0),Y74)</f>
+        <v>7.3471236799999957</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="50"/>
+      <c r="B82" s="37"/>
+      <c r="D82" s="22">
         <v>2</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E82" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F81" s="4">
-        <f>SUM(G$71:G74)</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="4">
-        <f>IF(F81&gt;=F$130, IF(F80&lt;F$130, F$130-F80, 0),G74)</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="4">
-        <f>SUM(J$71:J74)</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="4">
-        <f>IF(I81&gt;=I$130, IF(I80&lt;I$130, I$130-I80, 0),J74)</f>
-        <v>0</v>
-      </c>
-      <c r="L81" s="4">
-        <f>SUM(M$71:M74)</f>
-        <v>0</v>
-      </c>
-      <c r="M81" s="4">
-        <f>IF(L81&gt;=L$130, IF(L80&lt;L$130, L$130-L80, 0),M74)</f>
-        <v>0</v>
-      </c>
-      <c r="O81" s="4">
-        <f>SUM(P$71:P74)</f>
-        <v>0</v>
-      </c>
-      <c r="P81" s="4">
-        <f>IF(O81&gt;=O$130, IF(O80&lt;O$130, O$130-O80, 0),P74)</f>
-        <v>0</v>
-      </c>
-      <c r="R81" s="4">
-        <f>SUM(S$71:S74)</f>
+      <c r="F82" s="4">
+        <f>SUM(G$72:G75)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
+        <f>IF(F82&gt;=F$131, IF(F81&lt;F$131, F$131-F81, 0),G75)</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="4">
+        <f>SUM(J$72:J75)</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="4">
+        <f>IF(I82&gt;=I$131, IF(I81&lt;I$131, I$131-I81, 0),J75)</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="4">
+        <f>SUM(M$72:M75)</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="4">
+        <f>IF(L82&gt;=L$131, IF(L81&lt;L$131, L$131-L81, 0),M75)</f>
+        <v>0</v>
+      </c>
+      <c r="O82" s="4">
+        <f>SUM(P$72:P75)</f>
+        <v>0</v>
+      </c>
+      <c r="P82" s="4">
+        <f>IF(O82&gt;=O$131, IF(O81&lt;O$131, O$131-O81, 0),P75)</f>
+        <v>0</v>
+      </c>
+      <c r="R82" s="4">
+        <f>SUM(S$72:S75)</f>
         <v>6.7881033999999989</v>
       </c>
-      <c r="S81" s="4">
-        <f>IF(R81&gt;=R$130, IF(R80&lt;R$130, R$130-R80, 0),S74)</f>
-        <v>0</v>
-      </c>
-      <c r="U81" s="4">
-        <f>SUM(V$71:V74)</f>
+      <c r="S82" s="4">
+        <f>IF(R82&gt;=R$131, IF(R81&lt;R$131, R$131-R81, 0),S75)</f>
+        <v>0</v>
+      </c>
+      <c r="U82" s="4">
+        <f>SUM(V$72:V75)</f>
         <v>30.146330393199996</v>
       </c>
-      <c r="V81" s="4">
-        <f>IF(U81&gt;=U$130, IF(U80&lt;U$130, U$130-U80, 0),V74)</f>
-        <v>0</v>
-      </c>
-      <c r="X81" s="4">
-        <f>SUM(Y$71:Y74)</f>
+      <c r="V82" s="4">
+        <f>IF(U82&gt;=U$131, IF(U81&lt;U$131, U$131-U81, 0),V75)</f>
+        <v>0</v>
+      </c>
+      <c r="X82" s="4">
+        <f>SUM(Y$72:Y75)</f>
         <v>53.914123679999996</v>
       </c>
-      <c r="Y81" s="4">
-        <f>IF(X81&gt;=X$130, IF(X80&lt;X$130, X$130-X80, 0),Y74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D82" s="22">
+      <c r="Y82" s="4">
+        <f>IF(X82&gt;=X$131, IF(X81&lt;X$131, X$131-X81, 0),Y75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D83" s="22">
         <v>3</v>
       </c>
-      <c r="E82" s="14"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="E83" s="14"/>
-      <c r="I83" s="4" t="s">
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E84" s="14"/>
+      <c r="I84" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="L84" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="O83" s="4" t="s">
+      <c r="O84" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="R83" s="4" t="s">
+      <c r="R84" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="U83" s="4" t="s">
+      <c r="U84" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="X83" s="4" t="s">
+      <c r="X84" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="B84" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E84" s="14" t="s">
+    <row r="85" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="G84" s="4">
-        <f>G60</f>
-        <v>0</v>
-      </c>
-      <c r="I84" s="4">
-        <f>IF(G94=0,1,MIN(MAX((G94/G66-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="J84" s="4">
-        <f>J60*I84</f>
-        <v>0.01</v>
-      </c>
-      <c r="L84" s="4">
-        <f>IF(J94=0,1,MIN(MAX((J94/J66-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="M84" s="4">
-        <f>M60*L84</f>
-        <v>0.05</v>
-      </c>
-      <c r="O84" s="4">
-        <f>IF(M94=0,1,MIN(MAX((M94/M66-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P84" s="4">
-        <f>P60*O84</f>
-        <v>0.12</v>
-      </c>
-      <c r="R84" s="4">
-        <f>IF(P94=0,1,MIN(MAX((P94/P66-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="S84" s="4">
-        <f>S60*R84</f>
-        <v>0.2</v>
-      </c>
-      <c r="U84" s="4">
-        <f>IF(S94=0,1,MIN(MAX((S94/S66-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="V84" s="4">
-        <f>V60*U84</f>
-        <v>0.36</v>
-      </c>
-      <c r="X84" s="4">
-        <f>IF(V94=0,1,MIN(MAX((V94/V66-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>0.92886400737928387</v>
-      </c>
-      <c r="Y84" s="4">
-        <f>Y60*X84</f>
-        <v>0.5573184044275703</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="48"/>
-      <c r="B85" s="37"/>
-      <c r="E85" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="G85" s="4">
         <f>G61</f>
@@ -9626,55 +9591,55 @@
         <v>1</v>
       </c>
       <c r="J85" s="4">
-        <f>J61</f>
-        <v>0</v>
+        <f>J61*I85</f>
+        <v>0.01</v>
       </c>
       <c r="L85" s="4">
         <f>IF(J95=0,1,MIN(MAX((J95/J67-$F$16)/($F$18-$F$16), 0), 1))</f>
         <v>1</v>
       </c>
       <c r="M85" s="4">
-        <f>M61</f>
-        <v>0.01</v>
+        <f>M61*L85</f>
+        <v>0.05</v>
       </c>
       <c r="O85" s="4">
         <f>IF(M95=0,1,MIN(MAX((M95/M67-$F$16)/($F$18-$F$16), 0), 1))</f>
         <v>1</v>
       </c>
       <c r="P85" s="4">
-        <f>P61</f>
-        <v>0.05</v>
+        <f>P61*O85</f>
+        <v>0.12</v>
       </c>
       <c r="R85" s="4">
         <f>IF(P95=0,1,MIN(MAX((P95/P67-$F$16)/($F$18-$F$16), 0), 1))</f>
         <v>1</v>
       </c>
       <c r="S85" s="4">
-        <f>S61</f>
-        <v>0.12</v>
+        <f>S61*R85</f>
+        <v>0.2</v>
       </c>
       <c r="U85" s="4">
         <f>IF(S95=0,1,MIN(MAX((S95/S67-$F$16)/($F$18-$F$16), 0), 1))</f>
         <v>1</v>
       </c>
       <c r="V85" s="4">
-        <f>V61</f>
-        <v>0.2</v>
+        <f>V61*U85</f>
+        <v>0.36</v>
       </c>
       <c r="X85" s="4">
         <f>IF(V95=0,1,MIN(MAX((V95/V67-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
+        <v>0.92886400737928387</v>
       </c>
       <c r="Y85" s="4">
-        <f>Y61</f>
-        <v>0.36</v>
+        <f>Y61*X85</f>
+        <v>0.5573184044275703</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
+      <c r="A86" s="47"/>
       <c r="B86" s="37"/>
       <c r="E86" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G86" s="4">
         <f>G62</f>
@@ -9694,7 +9659,7 @@
       </c>
       <c r="M86" s="4">
         <f>M62</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O86" s="4">
         <f>IF(M96=0,1,MIN(MAX((M96/M68-$F$16)/($F$18-$F$16), 0), 1))</f>
@@ -9702,7 +9667,7 @@
       </c>
       <c r="P86" s="4">
         <f>P62</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="R86" s="4">
         <f>IF(P96=0,1,MIN(MAX((P96/P68-$F$16)/($F$18-$F$16), 0), 1))</f>
@@ -9710,7 +9675,7 @@
       </c>
       <c r="S86" s="4">
         <f>S62</f>
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="U86" s="4">
         <f>IF(S96=0,1,MIN(MAX((S96/S68-$F$16)/($F$18-$F$16), 0), 1))</f>
@@ -9718,7 +9683,7 @@
       </c>
       <c r="V86" s="4">
         <f>V62</f>
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="X86" s="4">
         <f>IF(V96=0,1,MIN(MAX((V96/V68-$F$16)/($F$18-$F$16), 0), 1))</f>
@@ -9726,14 +9691,14 @@
       </c>
       <c r="Y86" s="4">
         <f>Y62</f>
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="48"/>
+      <c r="A87" s="47"/>
       <c r="B87" s="37"/>
       <c r="E87" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G87" s="4">
         <f>G63</f>
@@ -9761,7 +9726,7 @@
       </c>
       <c r="P87" s="4">
         <f>P63</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R87" s="4">
         <f>IF(P97=0,1,MIN(MAX((P97/P69-$F$16)/($F$18-$F$16), 0), 1))</f>
@@ -9769,7 +9734,7 @@
       </c>
       <c r="S87" s="4">
         <f>S63</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="U87" s="4">
         <f>IF(S97=0,1,MIN(MAX((S97/S69-$F$16)/($F$18-$F$16), 0), 1))</f>
@@ -9777,7 +9742,7 @@
       </c>
       <c r="V87" s="4">
         <f>V63</f>
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="X87" s="4">
         <f>IF(V97=0,1,MIN(MAX((V97/V69-$F$16)/($F$18-$F$16), 0), 1))</f>
@@ -9785,460 +9750,513 @@
       </c>
       <c r="Y87" s="4">
         <f>Y63</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="47"/>
+      <c r="B88" s="37"/>
+      <c r="E88" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G88" s="4">
+        <f>G64</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="4">
+        <f>IF(G98=0,1,MIN(MAX((G98/G70-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J88" s="4">
+        <f>J64</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="4">
+        <f>IF(J98=0,1,MIN(MAX((J98/J70-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M88" s="4">
+        <f>M64</f>
+        <v>0</v>
+      </c>
+      <c r="O88" s="4">
+        <f>IF(M98=0,1,MIN(MAX((M98/M70-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P88" s="4">
+        <f>P64</f>
+        <v>0</v>
+      </c>
+      <c r="R88" s="4">
+        <f>IF(P98=0,1,MIN(MAX((P98/P70-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S88" s="4">
+        <f>S64</f>
+        <v>0.01</v>
+      </c>
+      <c r="U88" s="4">
+        <f>IF(S98=0,1,MIN(MAX((S98/S70-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V88" s="4">
+        <f>V64</f>
+        <v>0.05</v>
+      </c>
+      <c r="X88" s="4">
+        <f>IF(V98=0,1,MIN(MAX((V98/V70-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y88" s="4">
+        <f>Y64</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E88" s="14"/>
-    </row>
-    <row r="89" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="48" t="s">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E89" s="14"/>
+    </row>
+    <row r="90" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E90" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B89" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="G89" s="4">
-        <f>G55*G32</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="4">
-        <f>(G94-J78-J42)*$F$29</f>
-        <v>0</v>
-      </c>
-      <c r="M89" s="4">
-        <f>(J94-M78-M42)*$F$29</f>
+      <c r="G90" s="4">
+        <f>G56*G32</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="4">
+        <f>(G95-J79-J42)*$F$29</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="4">
+        <f>(J95-M79-M42)*$F$29</f>
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="P89" s="4">
-        <f>(M94-P78-P42)*$F$29</f>
+      <c r="P90" s="4">
+        <f>(M95-P79-P42)*$F$29</f>
         <v>1.01966E-2</v>
       </c>
-      <c r="S89" s="4">
-        <f>(P94-S78-S42)*$F$29</f>
+      <c r="S90" s="4">
+        <f>(P95-S79-S42)*$F$29</f>
         <v>3.0576206799999998E-2</v>
       </c>
-      <c r="V89" s="4">
-        <f>(S94-V78-V42)*$F$29</f>
+      <c r="V90" s="4">
+        <f>(S95-V79-V42)*$F$29</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Y89" s="4">
-        <f>(V94-Y78-Y42)*$F$29</f>
+      <c r="Y90" s="4">
+        <f>(V95-Y79-Y42)*$F$29</f>
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="48"/>
-      <c r="B90" s="37"/>
-      <c r="E90" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G90" s="4">
-        <f>G56*G33</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="4">
-        <f t="shared" ref="J90:J92" si="16">(G95-J79-J43)*$F$29</f>
-        <v>0</v>
-      </c>
-      <c r="M90" s="4">
-        <f t="shared" ref="M90:M92" si="17">(J95-M79-M43)*$F$29</f>
-        <v>0</v>
-      </c>
-      <c r="P90" s="4">
-        <f t="shared" ref="P90:P92" si="18">(M95-P79-P43)*$F$29</f>
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="S90" s="4">
-        <f t="shared" ref="S90:S92" si="19">(P95-S79-S43)*$F$29</f>
-        <v>9.5968000000000008E-3</v>
-      </c>
-      <c r="V90" s="4">
-        <f t="shared" ref="V90:V92" si="20">(S95-V79-V43)*$F$29</f>
-        <v>1.6000000000000004E-2</v>
-      </c>
-      <c r="Y90" s="4">
-        <f t="shared" ref="Y90:Y92" si="21">(V95-Y79-Y43)*$F$29</f>
-        <v>1.6E-2</v>
-      </c>
-    </row>
     <row r="91" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="48"/>
+      <c r="A91" s="47"/>
       <c r="B91" s="37"/>
       <c r="E91" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G91" s="4">
-        <f>G57*G34</f>
+        <f>G57*G33</f>
         <v>0</v>
       </c>
       <c r="J91" s="4">
-        <f t="shared" si="16"/>
+        <f>(G96-J80-J43)*$F$29</f>
         <v>0</v>
       </c>
       <c r="M91" s="4">
-        <f t="shared" si="17"/>
+        <f>(J96-M80-M43)*$F$29</f>
         <v>0</v>
       </c>
       <c r="P91" s="4">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>(M96-P80-P43)*$F$29</f>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="S91" s="4">
-        <f t="shared" si="19"/>
-        <v>1.8400000000000001E-3</v>
+        <f>(P96-S80-S43)*$F$29</f>
+        <v>9.5968000000000008E-3</v>
       </c>
       <c r="V91" s="4">
-        <f>(S96-V80-V44)*$F$29</f>
-        <v>1.1036320000000002E-2</v>
+        <f>(S96-V80-V43)*$F$29</f>
+        <v>1.6000000000000004E-2</v>
       </c>
       <c r="Y91" s="4">
-        <f t="shared" si="21"/>
-        <v>1.8400000000000007E-2</v>
+        <f>(V96-Y80-Y43)*$F$29</f>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="48"/>
+      <c r="A92" s="47"/>
       <c r="B92" s="37"/>
       <c r="E92" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G92" s="4">
+        <f>G58*G34</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="4">
+        <f>(G97-J81-J44)*$F$29</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="4">
+        <f>(J97-M81-M44)*$F$29</f>
+        <v>0</v>
+      </c>
+      <c r="P92" s="4">
+        <f>(M97-P81-P44)*$F$29</f>
+        <v>0</v>
+      </c>
+      <c r="S92" s="4">
+        <f>(P97-S81-S44)*$F$29</f>
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="V92" s="4">
+        <f>(S97-V81-V44)*$F$29</f>
+        <v>1.1036320000000002E-2</v>
+      </c>
+      <c r="Y92" s="4">
+        <f>(V97-Y81-Y44)*$F$29</f>
+        <v>1.8400000000000007E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="47"/>
+      <c r="B93" s="37"/>
+      <c r="E93" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G93" s="4">
+        <f>G59*G35</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="4">
+        <f>(G98-J82-J45)*$F$29</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="4">
+        <f>(J98-M82-M45)*$F$29</f>
+        <v>0</v>
+      </c>
+      <c r="P93" s="4">
+        <f>(M98-P82-P45)*$F$29</f>
+        <v>0</v>
+      </c>
+      <c r="S93" s="4">
+        <f>(P98-S82-S45)*$F$29</f>
+        <v>0</v>
+      </c>
+      <c r="V93" s="4">
+        <f>(S98-V82-V45)*$F$29</f>
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="Y93" s="4">
+        <f>(V98-Y82-Y45)*$F$29</f>
+        <v>5.1582799999999995E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E94" s="14"/>
+    </row>
+    <row r="95" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="G92" s="4">
-        <f>G58*G35</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M92" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P92" s="4">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S92" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V92" s="4">
-        <f t="shared" si="20"/>
-        <v>8.5999999999999998E-4</v>
-      </c>
-      <c r="Y92" s="4">
-        <f t="shared" si="21"/>
-        <v>5.1582799999999995E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E93" s="14"/>
-    </row>
-    <row r="94" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="B94" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E94" s="14" t="s">
+      <c r="B95" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E95" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G94" s="4">
-        <f>G60*G37</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="4">
-        <f>G94 - J78 - J89 - J42 + J37*J84</f>
+      <c r="G95" s="4">
+        <f>G61*G37</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="4">
+        <f>G95 - J79 - J90 - J42 + J37*J85</f>
         <v>0.85</v>
       </c>
-      <c r="M94" s="4">
-        <f>J94 - M78 - M89 - M42 + M37*M84</f>
+      <c r="M95" s="4">
+        <f>J95 - M79 - M90 - M42 + M37*M85</f>
         <v>5.0983000000000001</v>
       </c>
-      <c r="P94" s="4">
-        <f>M94 - P78 - P89 - P42 + P37*P84</f>
+      <c r="P95" s="4">
+        <f>M95 - P79 - P90 - P42 + P37*P85</f>
         <v>15.288103399999999</v>
       </c>
-      <c r="S94" s="4">
-        <f>P94 - S78 - S89 - S42 + S37*S84</f>
+      <c r="S95" s="4">
+        <f>P95 - S79 - S90 - S42 + S37*S85</f>
         <v>32.257527193199998</v>
       </c>
-      <c r="V94" s="4">
-        <f>S94 - V78 - V89 - V42 + V37*V84</f>
+      <c r="V95" s="4">
+        <f>S95 - V79 - V90 - V42 + V37*V85</f>
         <v>39.082999999999998</v>
       </c>
-      <c r="Y94" s="4">
-        <f>V94 - Y78 - Y89 - Y42 + Y37*Y84</f>
+      <c r="Y95" s="4">
+        <f>V95 - Y79 - Y90 - Y42 + Y37*Y85</f>
         <v>55.855064376343478</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="48"/>
-      <c r="B95" s="37"/>
-      <c r="E95" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G95" s="4">
-        <f>G61*G38</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="4">
-        <f t="shared" ref="J95:J97" si="22">G95 - J79 - J90 - J43 + J38*J85</f>
-        <v>0</v>
-      </c>
-      <c r="M95" s="4">
-        <f t="shared" ref="M95:M97" si="23">J95 - M79 - M90 - M43 + M38*M85</f>
-        <v>0.8</v>
-      </c>
-      <c r="P95" s="4">
-        <f t="shared" ref="P95:P97" si="24">M95 - P79 - P90 - P43 + P38*P85</f>
-        <v>4.7984</v>
-      </c>
-      <c r="S95" s="4">
-        <f t="shared" ref="S95:S97" si="25">P95 - S79 - S90 - S43 + S38*S85</f>
-        <v>14.3888032</v>
-      </c>
-      <c r="V95" s="4">
-        <f t="shared" ref="V95:V97" si="26">S95 - V79 - V90 - V43 + V38*V85</f>
-        <v>23.984000000000002</v>
-      </c>
-      <c r="Y95" s="4">
-        <f t="shared" ref="Y95:Y97" si="27">V95 - Y79 - Y90 - Y43 + Y38*Y85</f>
-        <v>36.783999999999999</v>
-      </c>
-    </row>
     <row r="96" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="48"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="37"/>
       <c r="E96" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G96" s="4">
-        <f>G62*G39</f>
+        <f>G62*G38</f>
         <v>0</v>
       </c>
       <c r="J96" s="4">
-        <f>G96 - J80 - J91 - J44 + J39*J86</f>
+        <f>G96 - J80 - J91 - J43 + J38*J86</f>
         <v>0</v>
       </c>
       <c r="M96" s="4">
-        <f>J96 - M80 - M91 - M44 + M39*M86</f>
-        <v>0</v>
+        <f>J96 - M80 - M91 - M43 + M38*M86</f>
+        <v>0.8</v>
       </c>
       <c r="P96" s="4">
-        <f>M96 - P80 - P91 - P44 + P39*P86</f>
-        <v>0.92</v>
+        <f>M96 - P80 - P91 - P43 + P38*P86</f>
+        <v>4.7984</v>
       </c>
       <c r="S96" s="4">
-        <f>P96 - S80 - S91 - S44 + S39*S86</f>
-        <v>5.5181600000000008</v>
+        <f>P96 - S80 - S91 - S43 + S38*S86</f>
+        <v>14.3888032</v>
       </c>
       <c r="V96" s="4">
-        <f>S96 - V80 - V91 - V44 + V39*V86</f>
-        <v>16.547123679999999</v>
+        <f>S96 - V80 - V91 - V43 + V38*V86</f>
+        <v>23.984000000000002</v>
       </c>
       <c r="Y96" s="4">
-        <f>V96 - Y80 - Y91 - Y44 + Y39*Y86</f>
-        <v>27.581600000000005</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="48"/>
+        <f>V96 - Y80 - Y91 - Y43 + Y38*Y86</f>
+        <v>36.783999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="47"/>
       <c r="B97" s="37"/>
       <c r="E97" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G97" s="4">
+        <f>G63*G39</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="4">
+        <f>G97 - J81 - J92 - J44 + J39*J87</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="4">
+        <f>J97 - M81 - M92 - M44 + M39*M87</f>
+        <v>0</v>
+      </c>
+      <c r="P97" s="4">
+        <f>M97 - P81 - P92 - P44 + P39*P87</f>
+        <v>0.92</v>
+      </c>
+      <c r="S97" s="4">
+        <f>P97 - S81 - S92 - S44 + S39*S87</f>
+        <v>5.5181600000000008</v>
+      </c>
+      <c r="V97" s="4">
+        <f>S97 - V81 - V92 - V44 + V39*V87</f>
+        <v>16.547123679999999</v>
+      </c>
+      <c r="Y97" s="4">
+        <f>V97 - Y81 - Y92 - Y44 + Y39*Y87</f>
+        <v>27.581600000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="47"/>
+      <c r="B98" s="37"/>
+      <c r="E98" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G97" s="4">
-        <f>G63*G40</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="4">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M97" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P97" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S97" s="4">
-        <f t="shared" si="25"/>
+      <c r="G98" s="4">
+        <f>G64*G40</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="4">
+        <f>G98 - J82 - J93 - J45 + J40*J88</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="4">
+        <f>J98 - M82 - M93 - M45 + M40*M88</f>
+        <v>0</v>
+      </c>
+      <c r="P98" s="4">
+        <f>M98 - P82 - P93 - P45 + P40*P88</f>
+        <v>0</v>
+      </c>
+      <c r="S98" s="4">
+        <f>P98 - S82 - S93 - S45 + S40*S88</f>
         <v>0.43</v>
       </c>
-      <c r="V97" s="4">
-        <f t="shared" si="26"/>
+      <c r="V98" s="4">
+        <f>S98 - V82 - V93 - V45 + V40*V88</f>
         <v>2.5791399999999998</v>
       </c>
-      <c r="Y97" s="4">
-        <f t="shared" si="27"/>
+      <c r="Y98" s="4">
+        <f>V98 - Y82 - Y93 - Y45 + Y40*Y88</f>
         <v>7.7339817200000001</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D98" s="35"/>
-      <c r="E98" s="14"/>
-    </row>
-    <row r="99" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="B99" s="37" t="s">
-        <v>175</v>
-      </c>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D99" s="35"/>
-      <c r="E99" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G99" s="4">
-        <f>G94*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="4">
-        <f>J94*$G$20</f>
-        <v>0.21249999999999999</v>
-      </c>
-      <c r="M99" s="4">
-        <f>M94*$G$20</f>
-        <v>1.274575</v>
-      </c>
-      <c r="P99" s="4">
-        <f>P94*$G$20</f>
-        <v>3.8220258499999997</v>
-      </c>
-      <c r="S99" s="4">
-        <f>S94*$G$20</f>
-        <v>8.0643817982999995</v>
-      </c>
-      <c r="V99" s="4">
-        <f>V94*$G$20</f>
-        <v>9.7707499999999996</v>
-      </c>
-      <c r="Y99" s="4">
-        <f>Y94*$G$20</f>
-        <v>13.963766094085869</v>
-      </c>
+      <c r="E99" s="14"/>
     </row>
     <row r="100" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="48"/>
-      <c r="B100" s="37"/>
+      <c r="A100" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>174</v>
+      </c>
       <c r="D100" s="35"/>
       <c r="E100" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" ref="G100:G102" si="28">G95*$G$20</f>
+        <f>G95*$G$20</f>
         <v>0</v>
       </c>
       <c r="J100" s="4">
-        <f t="shared" ref="J100:J102" si="29">J95*$G$20</f>
-        <v>0</v>
+        <f>J95*$G$20</f>
+        <v>0.21249999999999999</v>
       </c>
       <c r="M100" s="4">
-        <f t="shared" ref="M100:M102" si="30">M95*$G$20</f>
-        <v>0.2</v>
+        <f>M95*$G$20</f>
+        <v>1.274575</v>
       </c>
       <c r="P100" s="4">
-        <f t="shared" ref="P100:P102" si="31">P95*$G$20</f>
-        <v>1.1996</v>
+        <f>P95*$G$20</f>
+        <v>3.8220258499999997</v>
       </c>
       <c r="S100" s="4">
-        <f t="shared" ref="S100:S102" si="32">S95*$G$20</f>
-        <v>3.5972008</v>
+        <f>S95*$G$20</f>
+        <v>8.0643817982999995</v>
       </c>
       <c r="V100" s="4">
-        <f t="shared" ref="V100:V102" si="33">V95*$G$20</f>
-        <v>5.9960000000000004</v>
+        <f>V95*$G$20</f>
+        <v>9.7707499999999996</v>
       </c>
       <c r="Y100" s="4">
-        <f t="shared" ref="Y100:Y102" si="34">Y95*$G$20</f>
-        <v>9.1959999999999997</v>
+        <f>Y95*$G$20</f>
+        <v>13.963766094085869</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="48"/>
+      <c r="A101" s="47"/>
       <c r="B101" s="37"/>
       <c r="D101" s="35"/>
       <c r="E101" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G101" s="4">
-        <f>G96*$G$20</f>
+        <f t="shared" ref="G101:G103" si="9">G96*$G$20</f>
         <v>0</v>
       </c>
       <c r="J101" s="4">
-        <f>J96*$G$20</f>
+        <f t="shared" ref="J101:J103" si="10">J96*$G$20</f>
         <v>0</v>
       </c>
       <c r="M101" s="4">
-        <f>M96*$G$20</f>
-        <v>0</v>
+        <f t="shared" ref="M101:M103" si="11">M96*$G$20</f>
+        <v>0.2</v>
       </c>
       <c r="P101" s="4">
-        <f>P96*$G$20</f>
-        <v>0.23</v>
+        <f t="shared" ref="P101:P103" si="12">P96*$G$20</f>
+        <v>1.1996</v>
       </c>
       <c r="S101" s="4">
-        <f>S96*$G$20</f>
-        <v>1.3795400000000002</v>
+        <f t="shared" ref="S101:S103" si="13">S96*$G$20</f>
+        <v>3.5972008</v>
       </c>
       <c r="V101" s="4">
-        <f>V96*$G$20</f>
-        <v>4.1367809199999996</v>
+        <f t="shared" ref="V101:V103" si="14">V96*$G$20</f>
+        <v>5.9960000000000004</v>
       </c>
       <c r="Y101" s="4">
-        <f>Y96*$G$20</f>
-        <v>6.8954000000000013</v>
+        <f t="shared" ref="Y101:Y103" si="15">Y96*$G$20</f>
+        <v>9.1959999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="48"/>
+      <c r="A102" s="47"/>
       <c r="B102" s="37"/>
       <c r="D102" s="35"/>
       <c r="E102" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="28"/>
+        <f>G97*$G$20</f>
         <v>0</v>
       </c>
       <c r="J102" s="4">
-        <f t="shared" si="29"/>
+        <f>J97*$G$20</f>
         <v>0</v>
       </c>
       <c r="M102" s="4">
-        <f t="shared" si="30"/>
+        <f>M97*$G$20</f>
         <v>0</v>
       </c>
       <c r="P102" s="4">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f>P97*$G$20</f>
+        <v>0.23</v>
       </c>
       <c r="S102" s="4">
-        <f t="shared" si="32"/>
+        <f>S97*$G$20</f>
+        <v>1.3795400000000002</v>
+      </c>
+      <c r="V102" s="4">
+        <f>V97*$G$20</f>
+        <v>4.1367809199999996</v>
+      </c>
+      <c r="Y102" s="4">
+        <f>Y97*$G$20</f>
+        <v>6.8954000000000013</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="47"/>
+      <c r="B103" s="37"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G103" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P103" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S103" s="4">
+        <f t="shared" si="13"/>
         <v>0.1075</v>
       </c>
-      <c r="V102" s="4">
-        <f t="shared" si="33"/>
+      <c r="V103" s="4">
+        <f t="shared" si="14"/>
         <v>0.64478499999999994</v>
       </c>
-      <c r="Y102" s="4">
-        <f t="shared" si="34"/>
+      <c r="Y103" s="4">
+        <f t="shared" si="15"/>
         <v>1.93349543</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A103" s="38"/>
-      <c r="B103" s="45"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="14"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="38"/>
@@ -10246,2259 +10264,2253 @@
       <c r="D104" s="35"/>
       <c r="E104" s="14"/>
     </row>
-    <row r="105" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A105" s="38"/>
+      <c r="B105" s="45"/>
       <c r="D105" s="35"/>
-      <c r="E105" s="15" t="s">
+      <c r="E105" s="14"/>
+    </row>
+    <row r="106" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="D106" s="35"/>
+      <c r="E106" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F106" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G105" s="8"/>
-    </row>
-    <row r="106" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="B106" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="D106" s="35"/>
-      <c r="E106" s="14" t="s">
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="B107" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D107" s="35"/>
+      <c r="E107" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F107" s="4">
         <f>$F$28</f>
         <v>0.3</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G107" s="4">
         <f>$G$28</f>
         <v>0.92</v>
       </c>
-      <c r="I106" s="4">
+      <c r="I107" s="4">
         <f>$F$28</f>
         <v>0.3</v>
       </c>
-      <c r="J106" s="4">
+      <c r="J107" s="4">
         <f>$G$28</f>
         <v>0.92</v>
       </c>
-      <c r="L106" s="4">
+      <c r="L107" s="4">
         <f>$F$28</f>
         <v>0.3</v>
       </c>
-      <c r="M106" s="4">
+      <c r="M107" s="4">
         <f>$G$28</f>
         <v>0.92</v>
       </c>
-      <c r="O106" s="4">
+      <c r="O107" s="4">
         <f>$F$28</f>
         <v>0.3</v>
       </c>
-      <c r="P106" s="4">
+      <c r="P107" s="4">
         <f>$G$28</f>
         <v>0.92</v>
       </c>
-      <c r="R106" s="4">
+      <c r="R107" s="4">
         <f>$F$28</f>
         <v>0.3</v>
       </c>
-      <c r="S106" s="4">
+      <c r="S107" s="4">
         <f>$G$28</f>
         <v>0.92</v>
       </c>
-      <c r="U106" s="4">
+      <c r="U107" s="4">
         <f>$F$28</f>
         <v>0.3</v>
       </c>
-      <c r="V106" s="4">
+      <c r="V107" s="4">
         <f>$G$28</f>
         <v>0.92</v>
       </c>
-      <c r="X106" s="4">
+      <c r="X107" s="4">
         <f>$F$28</f>
         <v>0.3</v>
       </c>
-      <c r="Y106" s="4">
+      <c r="Y107" s="4">
         <f>$G$28</f>
         <v>0.92</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="B107" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E107" s="14" t="s">
+    <row r="108" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="B108" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E108" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F108" s="4">
         <f>F7*$F$19</f>
         <v>1500000</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G108" s="4">
         <f>G7*$G$19</f>
         <v>25000000</v>
       </c>
-      <c r="I107" s="4">
+      <c r="I108" s="4">
         <f>I7*$F$19</f>
         <v>1492500</v>
       </c>
-      <c r="J107" s="4">
+      <c r="J108" s="4">
         <f>J7*$G$19</f>
         <v>24990000</v>
       </c>
-      <c r="L107" s="4">
+      <c r="L108" s="4">
         <f>L7*$F$19</f>
         <v>1483200</v>
       </c>
-      <c r="M107" s="4">
+      <c r="M108" s="4">
         <f>M7*$G$19</f>
         <v>24979000</v>
       </c>
-      <c r="O107" s="4">
+      <c r="O108" s="4">
         <f>O7*$F$19</f>
         <v>1474500</v>
       </c>
-      <c r="P107" s="4">
+      <c r="P108" s="4">
         <f>P7*$G$19</f>
         <v>24969600</v>
       </c>
-      <c r="R107" s="4">
+      <c r="R108" s="4">
         <f>R7*$F$19</f>
         <v>1464000</v>
       </c>
-      <c r="S107" s="4">
+      <c r="S108" s="4">
         <f>S7*$G$19</f>
         <v>24950400</v>
       </c>
-      <c r="U107" s="4">
+      <c r="U108" s="4">
         <f>U7*$F$19</f>
         <v>1449000</v>
       </c>
-      <c r="V107" s="4">
+      <c r="V108" s="4">
         <f>V7*$G$19</f>
         <v>24946500</v>
       </c>
-      <c r="X107" s="4">
+      <c r="X108" s="4">
         <f>X7*$F$19</f>
         <v>1434300</v>
       </c>
-      <c r="Y107" s="4">
+      <c r="Y108" s="4">
         <f>Y7*$G$19</f>
         <v>24936000</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="50" t="s">
+    <row r="109" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B109" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+      <c r="G109" s="4">
+        <v>1</v>
+      </c>
+      <c r="I109" s="4">
+        <f>IF(F111=0,0,MIN(MAX((F111/F108-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="J109" s="4">
+        <f>IF(G111=0,0,MIN(MAX((G111/G108-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="L109" s="4">
+        <f>IF(I111=0,0,MIN(MAX((I111/I108-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="M109" s="4">
+        <f>IF(J111=0,0,MIN(MAX((J111/J108-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="O109" s="4">
+        <f>IF(L111=0,0,MIN(MAX((L111/L108-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P109" s="4">
+        <f>IF(M111=0,0,MIN(MAX((M111/M108-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="R109" s="4">
+        <f>IF(O111=0,0,MIN(MAX((O111/O108-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="S109" s="4">
+        <f>IF(P111=0,0,MIN(MAX((P111/P108-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="U109" s="4">
+        <f>IF(R111=0,0,MIN(MAX((R111/R108-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V109" s="4">
+        <f>IF(S111=0,0,MIN(MAX((S111/S108-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="X109" s="4">
+        <f>IF(U111=0,0,MIN(MAX((U111/U108-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y109" s="4">
+        <f>IF(V111=0,0,MIN(MAX((V111/V108-$F$16)/($F$18-$F$16), 0), 1))</f>
+        <v>0.89478919993714923</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="B108" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F108" s="4">
-        <v>1</v>
-      </c>
-      <c r="G108" s="4">
-        <v>1</v>
-      </c>
-      <c r="I108" s="4">
-        <f>IF(F110=0,0,MIN(MAX((F110/F107-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="J108" s="4">
-        <f>IF(G110=0,0,MIN(MAX((G110/G107-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="L108" s="4">
-        <f>IF(I110=0,0,MIN(MAX((I110/I107-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="M108" s="4">
-        <f>IF(J110=0,0,MIN(MAX((J110/J107-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="O108" s="4">
-        <f>IF(L110=0,0,MIN(MAX((L110/L107-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P108" s="4">
-        <f>IF(M110=0,0,MIN(MAX((M110/M107-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="R108" s="4">
-        <f>IF(O110=0,0,MIN(MAX((O110/O107-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="S108" s="4">
-        <f>IF(P110=0,0,MIN(MAX((P110/P107-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="U108" s="4">
-        <f>IF(R110=0,0,MIN(MAX((R110/R107-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="V108" s="4">
-        <f>IF(S110=0,0,MIN(MAX((S110/S107-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="X108" s="4">
-        <f>IF(U110=0,0,MIN(MAX((U110/U107-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>1</v>
-      </c>
-      <c r="Y108" s="4">
-        <f>IF(V110=0,0,MIN(MAX((V110/V107-$F$16)/($F$18-$F$16), 0), 1))</f>
-        <v>0.89478920325752509</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="B109" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E109" s="14" t="s">
+      <c r="B110" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E110" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F109" s="4">
-        <f>F106</f>
+      <c r="F110" s="4">
+        <f>F107</f>
         <v>0.3</v>
       </c>
-      <c r="G109" s="4">
-        <f>G106</f>
+      <c r="G110" s="4">
+        <f>G107</f>
         <v>0.92</v>
       </c>
-      <c r="I109" s="4">
-        <f xml:space="preserve"> I106*I108</f>
+      <c r="I110" s="4">
+        <f xml:space="preserve"> I107*I109</f>
         <v>0.3</v>
       </c>
-      <c r="J109" s="4">
-        <f>J106*J108</f>
+      <c r="J110" s="4">
+        <f>J107*J109</f>
         <v>0.92</v>
       </c>
-      <c r="L109" s="4">
-        <f xml:space="preserve"> L106*L108</f>
+      <c r="L110" s="4">
+        <f xml:space="preserve"> L107*L109</f>
         <v>0.3</v>
       </c>
-      <c r="M109" s="4">
-        <f>M106*M108</f>
+      <c r="M110" s="4">
+        <f>M107*M109</f>
         <v>0.92</v>
       </c>
-      <c r="O109" s="4">
-        <f xml:space="preserve"> O106*O108</f>
+      <c r="O110" s="4">
+        <f xml:space="preserve"> O107*O109</f>
         <v>0.3</v>
       </c>
-      <c r="P109" s="4">
-        <f>P106*P108</f>
+      <c r="P110" s="4">
+        <f>P107*P109</f>
         <v>0.92</v>
       </c>
-      <c r="R109" s="4">
-        <f xml:space="preserve"> R106*R108</f>
+      <c r="R110" s="4">
+        <f xml:space="preserve"> R107*R109</f>
         <v>0.3</v>
       </c>
-      <c r="S109" s="4">
-        <f>S106*S108</f>
+      <c r="S110" s="4">
+        <f>S107*S109</f>
         <v>0.92</v>
       </c>
-      <c r="U109" s="4">
-        <f xml:space="preserve"> U106*U108</f>
+      <c r="U110" s="4">
+        <f xml:space="preserve"> U107*U109</f>
         <v>0.3</v>
       </c>
-      <c r="V109" s="4">
-        <f>V106*V108</f>
+      <c r="V110" s="4">
+        <f>V107*V109</f>
         <v>0.92</v>
       </c>
-      <c r="X109" s="4">
-        <f xml:space="preserve"> X106*X108</f>
+      <c r="X110" s="4">
+        <f xml:space="preserve"> X107*X109</f>
         <v>0.3</v>
       </c>
-      <c r="Y109" s="4">
-        <f>Y106*Y108</f>
-        <v>0.82320606699692311</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="B110" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F110" s="4">
+      <c r="Y110" s="4">
+        <f>Y107*Y109</f>
+        <v>0.82320606394217732</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="B111" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F111" s="4">
         <f>F7*F19</f>
         <v>1500000</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G111" s="4">
         <f>G7*G19</f>
         <v>25000000</v>
       </c>
-      <c r="I110" s="4">
-        <f>F110 - F131 - F119 - F142+I109*I7</f>
+      <c r="I111" s="4">
+        <f>F111 - F132 - F120 - F143+I110*I7</f>
         <v>1421423.1421982395</v>
       </c>
-      <c r="J110" s="4">
-        <f>G110 - G131 - G119 - G142 + J109*J7</f>
+      <c r="J111" s="4">
+        <f>G111 - G132 - G120 - G143 + J110*J7</f>
         <v>23256357.107801761</v>
       </c>
-      <c r="L110" s="4">
-        <f>I110 - I131 - I119 - I142+L109*L7</f>
+      <c r="L111" s="4">
+        <f>I111 - I132 - I120 - I143+L110*L7</f>
         <v>1339098.0188325029</v>
       </c>
-      <c r="M110" s="4">
-        <f>J110 - J131 - J119 - J142 + M109*M7</f>
+      <c r="M111" s="4">
+        <f>J111 - J132 - J120 - J143 + M110*M7</f>
         <v>21469509.138674762</v>
       </c>
-      <c r="O110" s="4">
-        <f>L110 - L131 - L119 - L142+O109*O7</f>
+      <c r="O111" s="4">
+        <f>L111 - L132 - L120 - L143+O110*O7</f>
         <v>1262299.2941418488</v>
       </c>
-      <c r="P110" s="4">
-        <f>M110 - M131 - M119 - M142 + P109*P7</f>
-        <v>19621955.062304016</v>
-      </c>
-      <c r="R110" s="4">
-        <f>O110 - O131 - O119 - O142+R109*R7</f>
-        <v>1188284.3985212983</v>
-      </c>
-      <c r="S110" s="4">
-        <f>P110 - P131 - P119 - P142 + S109*S7</f>
-        <v>17672326.76258811</v>
-      </c>
-      <c r="U110" s="4">
-        <f>R110 - R131 - R119 - R142+U109*U7</f>
-        <v>1097914.9514073269</v>
-      </c>
-      <c r="V110" s="4">
-        <f>S110 - S131 - S119 - S142 + V109*V7</f>
-        <v>14958270.076713715</v>
-      </c>
-      <c r="X110" s="4">
-        <f>U110 - U131 - U119 - U142+X109*X7</f>
-        <v>819907.25090646883</v>
-      </c>
-      <c r="Y110" s="4">
-        <f>V110 - V131 - V119 - V142 + Y109*Y7</f>
-        <v>3187373.7005417161</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="B111" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E111" s="14" t="s">
+      <c r="P111" s="4">
+        <f>M111 - M132 - M120 - M143 + P110*P7</f>
+        <v>19621955.060604014</v>
+      </c>
+      <c r="R111" s="4">
+        <f>O111 - O132 - O120 - O143+R110*R7</f>
+        <v>1188284.3985157635</v>
+      </c>
+      <c r="S111" s="4">
+        <f>P111 - P132 - P120 - P143 + S110*S7</f>
+        <v>17672326.749100834</v>
+      </c>
+      <c r="U111" s="4">
+        <f>R111 - R132 - R120 - R143+U110*U7</f>
+        <v>1097914.9513435864</v>
+      </c>
+      <c r="V111" s="4">
+        <f>S111 - S132 - S120 - S143 + V110*V7</f>
+        <v>14958270.021299271</v>
+      </c>
+      <c r="X111" s="4">
+        <f>U111 - U132 - U120 - U143+X110*X7</f>
+        <v>819907.25085905532</v>
+      </c>
+      <c r="Y111" s="4">
+        <f>V111 - V132 - V120 - V143 + Y110*Y7</f>
+        <v>3187373.6439100648</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B112" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E112" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F111" s="4">
-        <f>F110/F7</f>
+      <c r="F112" s="4">
+        <f>F111/F7</f>
         <v>150</v>
       </c>
-      <c r="G111" s="4">
-        <f>G110/G7</f>
+      <c r="G112" s="4">
+        <f>G111/G7</f>
         <v>100</v>
       </c>
-      <c r="I111" s="4">
-        <f>I110/I7</f>
+      <c r="I112" s="4">
+        <f>I111/I7</f>
         <v>142.85659720585321</v>
       </c>
-      <c r="J111" s="4">
-        <f>J110/J7</f>
+      <c r="J112" s="4">
+        <f>J111/J7</f>
         <v>93.062653492604085</v>
       </c>
-      <c r="L111" s="4">
-        <f>L110/L7</f>
+      <c r="L112" s="4">
+        <f>L111/L7</f>
         <v>135.42657957448452</v>
       </c>
-      <c r="M111" s="4">
-        <f>M110/M7</f>
+      <c r="M112" s="4">
+        <f>M111/M7</f>
         <v>85.950234751890633</v>
       </c>
-      <c r="O111" s="4">
-        <f>O110/O7</f>
+      <c r="O112" s="4">
+        <f>O111/O7</f>
         <v>128.4129495566479</v>
       </c>
-      <c r="P111" s="4">
-        <f>P110/P7</f>
-        <v>78.583377636421957</v>
-      </c>
-      <c r="R111" s="4">
-        <f>R110/R7</f>
-        <v>121.75045066816581</v>
-      </c>
-      <c r="S111" s="4">
-        <f>S110/S7</f>
-        <v>70.8298334398972</v>
-      </c>
-      <c r="U111" s="4">
-        <f>U110/U7</f>
-        <v>113.65579207115185</v>
-      </c>
-      <c r="V111" s="4">
-        <f>V110/V7</f>
-        <v>59.961397697928426</v>
-      </c>
-      <c r="X111" s="4">
-        <f>X110/X7</f>
-        <v>85.746418208164485</v>
-      </c>
-      <c r="Y111" s="4">
-        <f>Y110/Y7</f>
-        <v>12.782217278399568</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" ht="34" x14ac:dyDescent="0.2">
-      <c r="A112" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="B112" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E112" s="10" t="s">
+      <c r="P112" s="4">
+        <f>P111/P7</f>
+        <v>78.583377629613665</v>
+      </c>
+      <c r="R112" s="4">
+        <f>R111/R7</f>
+        <v>121.75045066759871</v>
+      </c>
+      <c r="S112" s="4">
+        <f>S111/S7</f>
+        <v>70.829833385840843</v>
+      </c>
+      <c r="U112" s="4">
+        <f>U111/U7</f>
+        <v>113.65579206455347</v>
+      </c>
+      <c r="V112" s="4">
+        <f>V111/V7</f>
+        <v>59.961397475795287</v>
+      </c>
+      <c r="X112" s="4">
+        <f>X111/X7</f>
+        <v>85.746418203205948</v>
+      </c>
+      <c r="Y112" s="4">
+        <f>Y111/Y7</f>
+        <v>12.782217051291566</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B113" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E113" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F112" s="4">
-        <f>MAX(F111-$F21,0)</f>
+      <c r="F113" s="4">
+        <f>MAX(F112-$F21,0)</f>
         <v>149.85</v>
       </c>
-      <c r="G112" s="4">
-        <f>MAX(G111-$G21,0)</f>
+      <c r="G113" s="4">
+        <f>MAX(G112-$G21,0)</f>
         <v>99.9</v>
       </c>
-      <c r="I112" s="4">
-        <f>MAX(I111-$F21,0)</f>
+      <c r="I113" s="4">
+        <f>MAX(I112-$F21,0)</f>
         <v>142.7065972058532</v>
       </c>
-      <c r="J112" s="4">
-        <f>MAX(J111-$G21,0)</f>
+      <c r="J113" s="4">
+        <f>MAX(J112-$G21,0)</f>
         <v>92.96265349260409</v>
       </c>
-      <c r="L112" s="4">
-        <f>MAX(L111-$F21,0)</f>
+      <c r="L113" s="4">
+        <f>MAX(L112-$F21,0)</f>
         <v>135.27657957448451</v>
       </c>
-      <c r="M112" s="4">
-        <f>MAX(M111-$G21,0)</f>
+      <c r="M113" s="4">
+        <f>MAX(M112-$G21,0)</f>
         <v>85.850234751890639</v>
       </c>
-      <c r="O112" s="4">
-        <f>MAX(O111-$F21,0)</f>
+      <c r="O113" s="4">
+        <f>MAX(O112-$F21,0)</f>
         <v>128.2629495566479</v>
       </c>
-      <c r="P112" s="4">
-        <f>MAX(P111-$G21,0)</f>
-        <v>78.483377636421963</v>
-      </c>
-      <c r="R112" s="4">
-        <f>MAX(R111-$F21,0)</f>
-        <v>121.60045066816581</v>
-      </c>
-      <c r="S112" s="4">
-        <f>MAX(S111-$G21,0)</f>
-        <v>70.729833439897206</v>
-      </c>
-      <c r="U112" s="4">
-        <f>MAX(U111-$F21,0)</f>
-        <v>113.50579207115184</v>
-      </c>
-      <c r="V112" s="4">
-        <f>MAX(V111-$G21,0)</f>
-        <v>59.861397697928425</v>
-      </c>
-      <c r="X112" s="4">
-        <f>MAX(X111-$F21,0)</f>
-        <v>85.596418208164479</v>
-      </c>
-      <c r="Y112" s="4">
-        <f>MAX(Y111-$G21,0)</f>
-        <v>12.682217278399568</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E113" s="13"/>
-    </row>
-    <row r="114" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="E114" s="11" t="s">
+      <c r="P113" s="4">
+        <f>MAX(P112-$G21,0)</f>
+        <v>78.48337762961367</v>
+      </c>
+      <c r="R113" s="4">
+        <f>MAX(R112-$F21,0)</f>
+        <v>121.60045066759871</v>
+      </c>
+      <c r="S113" s="4">
+        <f>MAX(S112-$G21,0)</f>
+        <v>70.729833385840848</v>
+      </c>
+      <c r="U113" s="4">
+        <f>MAX(U112-$F21,0)</f>
+        <v>113.50579206455346</v>
+      </c>
+      <c r="V113" s="4">
+        <f>MAX(V112-$G21,0)</f>
+        <v>59.861397475795286</v>
+      </c>
+      <c r="X113" s="4">
+        <f>MAX(X112-$F21,0)</f>
+        <v>85.596418203205943</v>
+      </c>
+      <c r="Y113" s="4">
+        <f>MAX(Y112-$G21,0)</f>
+        <v>12.682217051291566</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E114" s="13"/>
+    </row>
+    <row r="115" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="E115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="12"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-      <c r="R114" s="12"/>
-      <c r="S114" s="12"/>
-      <c r="U114" s="12"/>
-      <c r="V114" s="12"/>
-      <c r="X114" s="12"/>
-      <c r="Y114" s="12"/>
-    </row>
-    <row r="115" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="B115" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F115" s="4">
-        <f>F111*F7</f>
-        <v>1500000</v>
-      </c>
-      <c r="G115" s="4">
-        <f>G111*G7</f>
-        <v>25000000</v>
-      </c>
-      <c r="I115" s="4">
-        <f>I111*I7</f>
-        <v>1421423.1421982395</v>
-      </c>
-      <c r="J115" s="4">
-        <f>J111*J7</f>
-        <v>23256357.107801761</v>
-      </c>
-      <c r="L115" s="4">
-        <f>L111*L7</f>
-        <v>1339098.0188325029</v>
-      </c>
-      <c r="M115" s="4">
-        <f>M111*M7</f>
-        <v>21469509.138674762</v>
-      </c>
-      <c r="O115" s="4">
-        <f>O111*O7</f>
-        <v>1262299.2941418488</v>
-      </c>
-      <c r="P115" s="4">
-        <f>P111*P7</f>
-        <v>19621955.062304016</v>
-      </c>
-      <c r="R115" s="4">
-        <f>R111*R7</f>
-        <v>1188284.3985212983</v>
-      </c>
-      <c r="S115" s="4">
-        <f>S111*S7</f>
-        <v>17672326.76258811</v>
-      </c>
-      <c r="U115" s="4">
-        <f>U111*U7</f>
-        <v>1097914.9514073269</v>
-      </c>
-      <c r="V115" s="4">
-        <f>V111*V7</f>
-        <v>14958270.076713715</v>
-      </c>
-      <c r="X115" s="4">
-        <f>X111*X7</f>
-        <v>819907.25090646883</v>
-      </c>
-      <c r="Y115" s="4">
-        <f>Y111*Y7</f>
-        <v>3187373.7005417161</v>
-      </c>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+      <c r="X115" s="12"/>
+      <c r="Y115" s="12"/>
     </row>
     <row r="116" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="50" t="s">
+      <c r="A116" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="B116" s="43" t="s">
-        <v>164</v>
+      <c r="B116" s="44" t="s">
+        <v>182</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>219</v>
       </c>
+      <c r="F116" s="4">
+        <f>F112*F7</f>
+        <v>1500000</v>
+      </c>
       <c r="G116" s="4">
-        <f>SUM(G94:G97)</f>
-        <v>0</v>
+        <f>G112*G7</f>
+        <v>25000000</v>
+      </c>
+      <c r="I116" s="4">
+        <f>I112*I7</f>
+        <v>1421423.1421982395</v>
       </c>
       <c r="J116" s="4">
-        <f>SUM(J94:J97)</f>
-        <v>0.85</v>
+        <f>J112*J7</f>
+        <v>23256357.107801761</v>
+      </c>
+      <c r="L116" s="4">
+        <f>L112*L7</f>
+        <v>1339098.0188325029</v>
       </c>
       <c r="M116" s="4">
-        <f>SUM(M94:M97)</f>
-        <v>5.8982999999999999</v>
+        <f>M112*M7</f>
+        <v>21469509.138674762</v>
+      </c>
+      <c r="O116" s="4">
+        <f>O112*O7</f>
+        <v>1262299.2941418488</v>
       </c>
       <c r="P116" s="4">
-        <f>SUM(P94:P97)</f>
-        <v>21.0065034</v>
+        <f>P112*P7</f>
+        <v>19621955.060604014</v>
+      </c>
+      <c r="R116" s="4">
+        <f>R112*R7</f>
+        <v>1188284.3985157635</v>
       </c>
       <c r="S116" s="4">
-        <f>SUM(S94:S97)</f>
-        <v>52.594490393199997</v>
+        <f>S112*S7</f>
+        <v>17672326.749100834</v>
+      </c>
+      <c r="U116" s="4">
+        <f>U112*U7</f>
+        <v>1097914.9513435864</v>
       </c>
       <c r="V116" s="4">
-        <f>SUM(V94:V97)</f>
-        <v>82.193263680000001</v>
+        <f>V112*V7</f>
+        <v>14958270.021299271</v>
+      </c>
+      <c r="X116" s="4">
+        <f>X112*X7</f>
+        <v>819907.25085905532</v>
       </c>
       <c r="Y116" s="4">
-        <f>SUM(Y94:Y97)</f>
-        <v>127.95464609634348</v>
+        <f>Y112*Y7</f>
+        <v>3187373.6439100648</v>
       </c>
     </row>
     <row r="117" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="50" t="s">
-        <v>243</v>
+      <c r="A117" s="49" t="s">
+        <v>245</v>
       </c>
       <c r="B117" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F117" s="4">
-        <f>F115+F116</f>
+      <c r="G117" s="4">
+        <f>SUM(G95:G98)</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="4">
+        <f>SUM(J95:J98)</f>
+        <v>0.85</v>
+      </c>
+      <c r="M117" s="4">
+        <f>SUM(M95:M98)</f>
+        <v>5.8982999999999999</v>
+      </c>
+      <c r="P117" s="4">
+        <f>SUM(P95:P98)</f>
+        <v>21.0065034</v>
+      </c>
+      <c r="S117" s="4">
+        <f>SUM(S95:S98)</f>
+        <v>52.594490393199997</v>
+      </c>
+      <c r="V117" s="4">
+        <f>SUM(V95:V98)</f>
+        <v>82.193263680000001</v>
+      </c>
+      <c r="Y117" s="4">
+        <f>SUM(Y95:Y98)</f>
+        <v>127.95464609634348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="B118" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F118" s="4">
+        <f>F116+F117</f>
         <v>1500000</v>
       </c>
-      <c r="G117" s="4">
-        <f>G115+G116</f>
+      <c r="G118" s="4">
+        <f>G116+G117</f>
         <v>25000000</v>
       </c>
-      <c r="I117" s="4">
-        <f>I115+I116</f>
+      <c r="I118" s="4">
+        <f>I116+I117</f>
         <v>1421423.1421982395</v>
       </c>
-      <c r="J117" s="4">
-        <f>J115+J116</f>
+      <c r="J118" s="4">
+        <f>J116+J117</f>
         <v>23256357.957801763</v>
       </c>
-      <c r="L117" s="4">
-        <f>L115+L116</f>
+      <c r="L118" s="4">
+        <f>L116+L117</f>
         <v>1339098.0188325029</v>
       </c>
-      <c r="M117" s="4">
-        <f>M115+M116</f>
+      <c r="M118" s="4">
+        <f>M116+M117</f>
         <v>21469515.036974762</v>
       </c>
-      <c r="O117" s="4">
-        <f>O115+O116</f>
+      <c r="O118" s="4">
+        <f>O116+O117</f>
         <v>1262299.2941418488</v>
       </c>
-      <c r="P117" s="4">
-        <f>P115+P116</f>
-        <v>19621976.068807416</v>
-      </c>
-      <c r="R117" s="4">
-        <f>R115+R116</f>
-        <v>1188284.3985212983</v>
-      </c>
-      <c r="S117" s="4">
-        <f>S115+S116</f>
-        <v>17672379.357078504</v>
-      </c>
-      <c r="U117" s="4">
-        <f>U115+U116</f>
-        <v>1097914.9514073269</v>
-      </c>
-      <c r="V117" s="4">
-        <f>V115+V116</f>
-        <v>14958352.269977394</v>
-      </c>
-      <c r="X117" s="4">
-        <f>X115+X116</f>
-        <v>819907.25090646883</v>
-      </c>
-      <c r="Y117" s="4">
-        <f>Y115+Y116</f>
-        <v>3187501.6551878126</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="B118" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F118" s="4">
-        <f>F110*$F$20</f>
+      <c r="P118" s="4">
+        <f>P116+P117</f>
+        <v>19621976.067107413</v>
+      </c>
+      <c r="R118" s="4">
+        <f>R116+R117</f>
+        <v>1188284.3985157635</v>
+      </c>
+      <c r="S118" s="4">
+        <f>S116+S117</f>
+        <v>17672379.343591228</v>
+      </c>
+      <c r="U118" s="4">
+        <f>U116+U117</f>
+        <v>1097914.9513435864</v>
+      </c>
+      <c r="V118" s="4">
+        <f>V116+V117</f>
+        <v>14958352.214562951</v>
+      </c>
+      <c r="X118" s="4">
+        <f>X116+X117</f>
+        <v>819907.25085905532</v>
+      </c>
+      <c r="Y118" s="4">
+        <f>Y116+Y117</f>
+        <v>3187501.5985561614</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B119" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F119" s="4">
+        <f>F111*$F$20</f>
         <v>450000</v>
       </c>
-      <c r="G118" s="4">
-        <f>G110*$G$20</f>
+      <c r="G119" s="4">
+        <f>G111*$G$20</f>
         <v>6250000</v>
       </c>
-      <c r="I118" s="4">
-        <f>I110*$F$20</f>
+      <c r="I119" s="4">
+        <f>I111*$F$20</f>
         <v>426426.94265947182</v>
       </c>
-      <c r="J118" s="4">
-        <f>J110*$G$20</f>
+      <c r="J119" s="4">
+        <f>J111*$G$20</f>
         <v>5814089.2769504404</v>
       </c>
-      <c r="L118" s="4">
-        <f>L110*$F$20</f>
+      <c r="L119" s="4">
+        <f>L111*$F$20</f>
         <v>401729.40564975084</v>
       </c>
-      <c r="M118" s="4">
-        <f>M110*$G$20</f>
+      <c r="M119" s="4">
+        <f>M111*$G$20</f>
         <v>5367377.2846686905</v>
       </c>
-      <c r="O118" s="4">
-        <f>O110*$F$20</f>
+      <c r="O119" s="4">
+        <f>O111*$F$20</f>
         <v>378689.78824255464</v>
       </c>
-      <c r="P118" s="4">
-        <f>P110*$G$20</f>
-        <v>4905488.7655760041</v>
-      </c>
-      <c r="R118" s="4">
-        <f>R110*$F$20</f>
-        <v>356485.31955638947</v>
-      </c>
-      <c r="S118" s="4">
-        <f>S110*$G$20</f>
-        <v>4418081.6906470275</v>
-      </c>
-      <c r="U118" s="4">
-        <f>U110*$F$20</f>
-        <v>329374.48542219802</v>
-      </c>
-      <c r="V118" s="4">
-        <f>V110*$G$20</f>
-        <v>3739567.5191784287</v>
-      </c>
-      <c r="X118" s="4">
-        <f>X110*$F$20</f>
-        <v>245972.17527194065</v>
-      </c>
-      <c r="Y118" s="4">
-        <f>Y110*$G$20</f>
-        <v>796843.42513542902</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="B119" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E119" s="10" t="s">
+      <c r="P119" s="4">
+        <f>P111*$G$20</f>
+        <v>4905488.7651510034</v>
+      </c>
+      <c r="R119" s="4">
+        <f>R111*$F$20</f>
+        <v>356485.31955472904</v>
+      </c>
+      <c r="S119" s="4">
+        <f>S111*$G$20</f>
+        <v>4418081.6872752085</v>
+      </c>
+      <c r="U119" s="4">
+        <f>U111*$F$20</f>
+        <v>329374.48540307593</v>
+      </c>
+      <c r="V119" s="4">
+        <f>V111*$G$20</f>
+        <v>3739567.5053248177</v>
+      </c>
+      <c r="X119" s="4">
+        <f>X111*$F$20</f>
+        <v>245972.17525771659</v>
+      </c>
+      <c r="Y119" s="4">
+        <f>Y111*$G$20</f>
+        <v>796843.41097751621</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="B120" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F120" s="4">
+        <f>F9*F112</f>
+        <v>7500</v>
+      </c>
+      <c r="G120" s="4">
+        <f>G9*G112</f>
+        <v>10000</v>
+      </c>
+      <c r="I120" s="4">
+        <f>I9*I112</f>
+        <v>8857.1090267628988</v>
+      </c>
+      <c r="J120" s="4">
+        <f>J9*J112</f>
+        <v>10236.891884186449</v>
+      </c>
+      <c r="L120" s="4">
+        <f>L9*L112</f>
+        <v>7854.741615320102</v>
+      </c>
+      <c r="M120" s="4">
+        <f>M9*M112</f>
+        <v>8079.3220666777197</v>
+      </c>
+      <c r="O120" s="4">
+        <f>O9*O112</f>
+        <v>8988.9064689653533</v>
+      </c>
+      <c r="P120" s="4">
+        <f>P9*P112</f>
+        <v>15088.008504885824</v>
+      </c>
+      <c r="R120" s="4">
+        <f>R9*R112</f>
+        <v>12175.045066759871</v>
+      </c>
+      <c r="S120" s="4">
+        <f>S9*S112</f>
+        <v>2762.3635020477927</v>
+      </c>
+      <c r="U120" s="4">
+        <f>U9*U112</f>
+        <v>11138.267622326241</v>
+      </c>
+      <c r="V120" s="4">
+        <f>V9*V112</f>
+        <v>6295.9467349585047</v>
+      </c>
+      <c r="X120" s="4">
+        <f>X9*X112</f>
+        <v>8403.1489839141832</v>
+      </c>
+      <c r="Y120" s="4">
+        <f>Y9*Y112</f>
+        <v>1342.1327903856145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="B121" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E121" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="F119" s="4">
-        <f>F9*F111</f>
-        <v>7500</v>
-      </c>
-      <c r="G119" s="4">
-        <f>G9*G111</f>
-        <v>10000</v>
-      </c>
-      <c r="I119" s="4">
-        <f>I9*I111</f>
-        <v>8857.1090267628988</v>
-      </c>
-      <c r="J119" s="4">
-        <f>J9*J111</f>
-        <v>10236.891884186449</v>
-      </c>
-      <c r="L119" s="4">
-        <f>L9*L111</f>
-        <v>7854.741615320102</v>
-      </c>
-      <c r="M119" s="4">
-        <f>M9*M111</f>
-        <v>8079.3220666777197</v>
-      </c>
-      <c r="O119" s="4">
-        <f>O9*O111</f>
-        <v>8988.9064689653533</v>
-      </c>
-      <c r="P119" s="4">
-        <f>P9*P111</f>
-        <v>15088.008506193015</v>
-      </c>
-      <c r="R119" s="4">
-        <f>R9*R111</f>
-        <v>12175.045066816581</v>
-      </c>
-      <c r="S119" s="4">
-        <f>S9*S111</f>
-        <v>2762.363504155991</v>
-      </c>
-      <c r="U119" s="4">
-        <f>U9*U111</f>
-        <v>11138.267622972882</v>
-      </c>
-      <c r="V119" s="4">
-        <f>V9*V111</f>
-        <v>6295.9467582824846</v>
-      </c>
-      <c r="X119" s="4">
-        <f>X9*X111</f>
-        <v>8403.1489844001189</v>
-      </c>
-      <c r="Y119" s="4">
-        <f>Y9*Y111</f>
-        <v>1342.1328142319546</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="B120" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E120" s="10" t="s">
+      <c r="F121" s="4">
+        <f>MIN(F120,F9*F15)</f>
+        <v>250</v>
+      </c>
+      <c r="G121" s="4">
+        <f>MIN(G120,G9*G15)</f>
+        <v>1000</v>
+      </c>
+      <c r="I121" s="4">
+        <f>MIN(I120,I9*I15)</f>
+        <v>316.2</v>
+      </c>
+      <c r="J121" s="4">
+        <f>MIN(J120,J9*J15)</f>
+        <v>1078</v>
+      </c>
+      <c r="L121" s="4">
+        <f>MIN(L120,L9*L15)</f>
+        <v>301.60000000000002</v>
+      </c>
+      <c r="M121" s="4">
+        <f>MIN(M120,M9*M15)</f>
+        <v>921.2</v>
+      </c>
+      <c r="O121" s="4">
+        <f>MIN(O120,O9*O15)</f>
+        <v>329</v>
+      </c>
+      <c r="P121" s="4">
+        <f>MIN(P120,P9*P15)</f>
+        <v>1900.8000000000002</v>
+      </c>
+      <c r="R121" s="4">
+        <f>MIN(R120,R9*R15)</f>
+        <v>520</v>
+      </c>
+      <c r="S121" s="4">
+        <f>MIN(S120,S9*S15)</f>
+        <v>393.9</v>
+      </c>
+      <c r="U121" s="4">
+        <f>MIN(U120,U9*U15)</f>
+        <v>401.79999999999995</v>
+      </c>
+      <c r="V121" s="4">
+        <f>MIN(V120,V9*V15)</f>
+        <v>1155</v>
+      </c>
+      <c r="X121" s="4">
+        <f>MIN(X120,X9*X15)</f>
+        <v>499.79999999999995</v>
+      </c>
+      <c r="Y121" s="4">
+        <f>MIN(Y120,Y9*Y15)</f>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="B122" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F122" s="4">
+        <f>(F120-F121)*$F$14</f>
+        <v>5075</v>
+      </c>
+      <c r="G122" s="4">
+        <f>(G120-G121+G53)*$F$14</f>
+        <v>6300</v>
+      </c>
+      <c r="I122" s="4">
+        <f>(I120-I121)*$F$14</f>
+        <v>5978.6363187340285</v>
+      </c>
+      <c r="J122" s="4">
+        <f>(J120-J121+J53)*$F$14</f>
+        <v>6411.2243189305136</v>
+      </c>
+      <c r="L122" s="4">
+        <f>(L120-L121)*$F$14</f>
+        <v>5287.1991307240705</v>
+      </c>
+      <c r="M122" s="4">
+        <f>(M120-M121+M53)*$F$14</f>
+        <v>5010.6854466744035</v>
+      </c>
+      <c r="O122" s="4">
+        <f>(O120-O121)*$F$14</f>
+        <v>6061.9345282757467</v>
+      </c>
+      <c r="P122" s="4">
+        <f>(P120-P121+P53)*$F$14</f>
+        <v>9231.0459534200763</v>
+      </c>
+      <c r="R122" s="4">
+        <f>(R120-R121)*$F$14</f>
+        <v>8158.5315467319087</v>
+      </c>
+      <c r="S122" s="4">
+        <f>(S120-S121+S53)*$F$14</f>
+        <v>1657.9244514334548</v>
+      </c>
+      <c r="U122" s="4">
+        <f>(U120-U121)*$F$14</f>
+        <v>7515.5273356283687</v>
+      </c>
+      <c r="V122" s="4">
+        <f>(V120-V121+V53)*$F$14</f>
+        <v>3598.6627144709532</v>
+      </c>
+      <c r="X122" s="4">
+        <f>(X120-X121)*$F$14</f>
+        <v>5532.3442887399278</v>
+      </c>
+      <c r="Y122" s="4">
+        <f>(Y120-Y121+Y53)*$F$14</f>
+        <v>277.99295326993013</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="B123" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F123" s="4">
+        <f>MIN(F122+G122, F32)</f>
+        <v>11375</v>
+      </c>
+      <c r="I123" s="4">
+        <f>MIN(I122+J122, I32)</f>
+        <v>12389.860637664542</v>
+      </c>
+      <c r="L123" s="4">
+        <f>MIN(L122+M122, L32)</f>
+        <v>10297.884577398474</v>
+      </c>
+      <c r="O123" s="4">
+        <f>MIN(O122+P122, O32)</f>
+        <v>15292.980481695824</v>
+      </c>
+      <c r="R123" s="4">
+        <f>MIN(R122+S122, R32)</f>
+        <v>9816.4559981653638</v>
+      </c>
+      <c r="U123" s="4">
+        <f>MIN(U122+V122, U32)</f>
+        <v>11114.190050099322</v>
+      </c>
+      <c r="X123" s="4">
+        <f>MIN(X122+Y122, X32)</f>
+        <v>5810.3372420098576</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="B124" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E124" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="F120" s="4">
-        <f>MIN(F119,F9*F15)</f>
-        <v>250</v>
-      </c>
-      <c r="G120" s="4">
-        <f>MIN(G119,G9*G15)</f>
-        <v>1000</v>
-      </c>
-      <c r="I120" s="4">
-        <f>MIN(I119,I9*I15)</f>
-        <v>316.2</v>
-      </c>
-      <c r="J120" s="4">
-        <f>MIN(J119,J9*J15)</f>
-        <v>1078</v>
-      </c>
-      <c r="L120" s="4">
-        <f>MIN(L119,L9*L15)</f>
-        <v>301.60000000000002</v>
-      </c>
-      <c r="M120" s="4">
-        <f>MIN(M119,M9*M15)</f>
-        <v>921.2</v>
-      </c>
-      <c r="O120" s="4">
-        <f>MIN(O119,O9*O15)</f>
-        <v>329</v>
-      </c>
-      <c r="P120" s="4">
-        <f>MIN(P119,P9*P15)</f>
-        <v>1900.8000000000002</v>
-      </c>
-      <c r="R120" s="4">
-        <f>MIN(R119,R9*R15)</f>
-        <v>520</v>
-      </c>
-      <c r="S120" s="4">
-        <f>MIN(S119,S9*S15)</f>
-        <v>393.9</v>
-      </c>
-      <c r="U120" s="4">
-        <f>MIN(U119,U9*U15)</f>
-        <v>401.79999999999995</v>
-      </c>
-      <c r="V120" s="4">
-        <f>MIN(V119,V9*V15)</f>
-        <v>1155</v>
-      </c>
-      <c r="X120" s="4">
-        <f>MIN(X119,X9*X15)</f>
-        <v>499.79999999999995</v>
-      </c>
-      <c r="Y120" s="4">
-        <f>MIN(Y119,Y9*Y15)</f>
-        <v>945</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="B121" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="F121" s="4">
-        <f>(F119-F120)*$F$14</f>
-        <v>5075</v>
-      </c>
-      <c r="G121" s="4">
-        <f>(G119-G120+G46-G52)*$F$14</f>
-        <v>6300</v>
-      </c>
-      <c r="I121" s="4">
-        <f>(I119-I120)*$F$14</f>
-        <v>5978.6363187340285</v>
-      </c>
-      <c r="J121" s="4">
-        <f>(J119-J120+J46-J52)*$F$14</f>
-        <v>6411.2243189305136</v>
-      </c>
-      <c r="L121" s="4">
-        <f>(L119-L120)*$F$14</f>
-        <v>5287.1991307240705</v>
-      </c>
-      <c r="M121" s="4">
-        <f>(M119-M120+M46-M52)*$F$14</f>
-        <v>5010.6854466744035</v>
-      </c>
-      <c r="O121" s="4">
-        <f>(O119-O120)*$F$14</f>
-        <v>6061.9345282757467</v>
-      </c>
-      <c r="P121" s="4">
-        <f>(P119-P120+P46-P52)*$F$14</f>
-        <v>9231.0459543351099</v>
-      </c>
-      <c r="R121" s="4">
-        <f>(R119-R120)*$F$14</f>
-        <v>8158.5315467716064</v>
-      </c>
-      <c r="S121" s="4">
-        <f>(S119-S120+S46-S52)*$F$14</f>
-        <v>1657.9244529091936</v>
-      </c>
-      <c r="U121" s="4">
-        <f>(U119-U120)*$F$14</f>
-        <v>7515.5273360810179</v>
-      </c>
-      <c r="V121" s="4">
-        <f>(V119-V120+V46-V52)*$F$14</f>
-        <v>3598.6627307977387</v>
-      </c>
-      <c r="X121" s="4">
-        <f>(X119-X120)*$F$14</f>
-        <v>5532.3442890800825</v>
-      </c>
-      <c r="Y121" s="4">
-        <f>(Y119-Y120+Y46-Y52)*$F$14</f>
-        <v>277.99296996236819</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="B122" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="F122" s="4">
-        <f>MIN(F121+G121, F32)</f>
-        <v>11375</v>
-      </c>
-      <c r="I122" s="4">
-        <f>MIN(I121+J121, I32)</f>
-        <v>12389.860637664542</v>
-      </c>
-      <c r="L122" s="4">
-        <f>MIN(L121+M121, L32)</f>
-        <v>10297.884577398474</v>
-      </c>
-      <c r="O122" s="4">
-        <f>MIN(O121+P121, O32)</f>
-        <v>15292.980482610856</v>
-      </c>
-      <c r="R122" s="4">
-        <f>MIN(R121+S121, R32)</f>
-        <v>9816.4559996808002</v>
-      </c>
-      <c r="U122" s="4">
-        <f>MIN(U121+V121, U32)</f>
-        <v>11114.190066878757</v>
-      </c>
-      <c r="X122" s="4">
-        <f>MIN(X121+Y121, X32)</f>
-        <v>5810.3372590424506</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="50" t="s">
+      <c r="F124" s="4">
+        <f>F122/(F122+G122)</f>
+        <v>0.44615384615384618</v>
+      </c>
+      <c r="G124" s="4">
+        <f>G122/(F122+G122)</f>
+        <v>0.55384615384615388</v>
+      </c>
+      <c r="I124" s="4">
+        <f>I122/(I122+J122)</f>
+        <v>0.48254266077531816</v>
+      </c>
+      <c r="J124" s="4">
+        <f>J122/(I122+J122)</f>
+        <v>0.51745733922468184</v>
+      </c>
+      <c r="L124" s="4">
+        <f>L122/(L122+M122)</f>
+        <v>0.51342575176345207</v>
+      </c>
+      <c r="M124" s="4">
+        <f>M122/(L122+M122)</f>
+        <v>0.48657424823654793</v>
+      </c>
+      <c r="O124" s="4">
+        <f>O122/(O122+P122)</f>
+        <v>0.39638673020810294</v>
+      </c>
+      <c r="P124" s="4">
+        <f>P122/(O122+P122)</f>
+        <v>0.603613269791897</v>
+      </c>
+      <c r="R124" s="4">
+        <f>R122/(R122+S122)</f>
+        <v>0.83110763683519684</v>
+      </c>
+      <c r="S124" s="4">
+        <f>S122/(R122+S122)</f>
+        <v>0.16889236316480316</v>
+      </c>
+      <c r="U124" s="4">
+        <f>U122/(U122+V122)</f>
+        <v>0.67621007934457689</v>
+      </c>
+      <c r="V124" s="4">
+        <f>V122/(U122+V122)</f>
+        <v>0.32378992065542317</v>
+      </c>
+      <c r="X124" s="4">
+        <f>X122/(X122+Y122)</f>
+        <v>0.95215545299849602</v>
+      </c>
+      <c r="Y124" s="4">
+        <f>Y122/(X122+Y122)</f>
+        <v>4.7844547001504062E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="B125" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F125" s="4">
+        <f>MAX(F13-F26, 0)*F113</f>
+        <v>741757.5</v>
+      </c>
+      <c r="G125" s="4">
+        <f>MAX(G13-G26, 0)*G113</f>
+        <v>19970010</v>
+      </c>
+      <c r="I125" s="4">
+        <f>MAX(I13-I26, 0)*I113</f>
+        <v>697549.84714221046</v>
+      </c>
+      <c r="J125" s="4">
+        <f>MAX(J13-J26, 0)*J113</f>
+        <v>18573008.54128737</v>
+      </c>
+      <c r="L125" s="4">
+        <f>MAX(L13-L26, 0)*L113</f>
+        <v>585747.5895575179</v>
+      </c>
+      <c r="M125" s="4">
+        <f>MAX(M13-M26, 0)*M113</f>
+        <v>17143948.479013555</v>
+      </c>
+      <c r="O125" s="4">
+        <f>MAX(O13-O26, 0)*O113</f>
+        <v>482268.69033299608</v>
+      </c>
+      <c r="P125" s="4">
+        <f>MAX(P13-P26, 0)*P113</f>
+        <v>15657747.770618446</v>
+      </c>
+      <c r="R125" s="4">
+        <f>MAX(R13-R26, 0)*R113</f>
+        <v>384257.42410961189</v>
+      </c>
+      <c r="S125" s="4">
+        <f>MAX(S13-S26, 0)*S113</f>
+        <v>14178856.049692586</v>
+      </c>
+      <c r="U125" s="4">
+        <f>MAX(U13-U26, 0)*U113</f>
+        <v>268100.68085647526</v>
+      </c>
+      <c r="V125" s="4">
+        <f>MAX(V13-V26, 0)*V113</f>
+        <v>11963898.899512446</v>
+      </c>
+      <c r="X125" s="4">
+        <f>MAX(X13-X26, 0)*X113</f>
+        <v>193790.29081205826</v>
+      </c>
+      <c r="Y125" s="4">
+        <f>MAX(Y13-Y26, 0)*Y113</f>
+        <v>2533336.2670807466</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="E127" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="R127" s="8"/>
+      <c r="S127" s="8"/>
+      <c r="U127" s="8"/>
+      <c r="V127" s="8"/>
+      <c r="X127" s="8"/>
+      <c r="Y127" s="8"/>
+    </row>
+    <row r="128" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="B123" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E123" s="14" t="s">
+      <c r="B128" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F128" s="4">
+        <f>MAX(F32-F123,0)</f>
+        <v>1988625</v>
+      </c>
+      <c r="I128" s="4">
+        <f>MAX(I32-I123,0)</f>
+        <v>2037610.1393623354</v>
+      </c>
+      <c r="L128" s="4">
+        <f>MAX(L32-L123,0)</f>
+        <v>2099702.1154226013</v>
+      </c>
+      <c r="O128" s="4">
+        <f>MAX(O32-O123,0)</f>
+        <v>2194707.0195183042</v>
+      </c>
+      <c r="R128" s="4">
+        <f>MAX(R32-R123,0)</f>
+        <v>2990183.5440018345</v>
+      </c>
+      <c r="U128" s="4">
+        <f>MAX(U32-U123,0)</f>
+        <v>24988885.809949901</v>
+      </c>
+      <c r="X128" s="4">
+        <f>MAX(X32-X123,0)</f>
+        <v>2514189.66275799</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B129" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F129" s="4">
+        <f>MIN(F139,F128)</f>
+        <v>1988625</v>
+      </c>
+      <c r="I129" s="4">
+        <f>MIN(I139,I128)</f>
+        <v>2037610.1393623354</v>
+      </c>
+      <c r="L129" s="4">
+        <f>MIN(L139,L128)</f>
+        <v>2099702.1154226013</v>
+      </c>
+      <c r="O129" s="4">
+        <f>MIN(O139,O128)</f>
+        <v>2194707.0195183042</v>
+      </c>
+      <c r="R129" s="4">
+        <f>MIN(R139,R128)</f>
+        <v>2990183.5440018345</v>
+      </c>
+      <c r="U129" s="4">
+        <f>MIN(U139,U128)</f>
+        <v>12231999.580368921</v>
+      </c>
+      <c r="X129" s="4">
+        <f>MIN(X139,X128)</f>
+        <v>1789147.6536721885</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="F123" s="4">
-        <f>F121/(F121+G121)</f>
-        <v>0.44615384615384618</v>
-      </c>
-      <c r="G123" s="4">
-        <f>G121/(F121+G121)</f>
-        <v>0.55384615384615388</v>
-      </c>
-      <c r="I123" s="4">
-        <f>I121/(I121+J121)</f>
-        <v>0.48254266077531816</v>
-      </c>
-      <c r="J123" s="4">
-        <f>J121/(I121+J121)</f>
-        <v>0.51745733922468184</v>
-      </c>
-      <c r="L123" s="4">
-        <f>L121/(L121+M121)</f>
-        <v>0.51342575176345207</v>
-      </c>
-      <c r="M123" s="4">
-        <f>M121/(L121+M121)</f>
-        <v>0.48657424823654793</v>
-      </c>
-      <c r="O123" s="4">
-        <f>O121/(O121+P121)</f>
-        <v>0.39638673018438575</v>
-      </c>
-      <c r="P123" s="4">
-        <f>P121/(O121+P121)</f>
-        <v>0.60361326981561425</v>
-      </c>
-      <c r="R123" s="4">
-        <f>R121/(R121+S121)</f>
-        <v>0.83110763671093679</v>
-      </c>
-      <c r="S123" s="4">
-        <f>S121/(R121+S121)</f>
-        <v>0.16889236328906318</v>
-      </c>
-      <c r="U123" s="4">
-        <f>U121/(U121+V121)</f>
-        <v>0.67621007836440883</v>
-      </c>
-      <c r="V123" s="4">
-        <f>V121/(U121+V121)</f>
-        <v>0.32378992163559123</v>
-      </c>
-      <c r="X123" s="4">
-        <f>X121/(X121+Y121)</f>
-        <v>0.95215545026586257</v>
-      </c>
-      <c r="Y123" s="4">
-        <f>Y121/(X121+Y121)</f>
-        <v>4.7844549734137418E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" ht="34" x14ac:dyDescent="0.2">
-      <c r="A124" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="B124" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F124" s="4">
-        <f>MAX(F13-F26, 0)*F112</f>
-        <v>741757.5</v>
-      </c>
-      <c r="G124" s="4">
-        <f>MAX(G13-G26, 0)*G112</f>
-        <v>19970010</v>
-      </c>
-      <c r="I124" s="4">
-        <f>MAX(I13-I26, 0)*I112</f>
-        <v>697549.84714221046</v>
-      </c>
-      <c r="J124" s="4">
-        <f>MAX(J13-J26, 0)*J112</f>
-        <v>18573008.54128737</v>
-      </c>
-      <c r="L124" s="4">
-        <f>MAX(L13-L26, 0)*L112</f>
-        <v>585747.5895575179</v>
-      </c>
-      <c r="M124" s="4">
-        <f>MAX(M13-M26, 0)*M112</f>
-        <v>17143948.479013555</v>
-      </c>
-      <c r="O124" s="4">
-        <f>MAX(O13-O26, 0)*O112</f>
-        <v>482268.69033299608</v>
-      </c>
-      <c r="P124" s="4">
-        <f>MAX(P13-P26, 0)*P112</f>
-        <v>15657747.771976728</v>
-      </c>
-      <c r="R124" s="4">
-        <f>MAX(R13-R26, 0)*R112</f>
-        <v>384257.42411140393</v>
-      </c>
-      <c r="S124" s="4">
-        <f>MAX(S13-S26, 0)*S112</f>
-        <v>14178856.060528994</v>
-      </c>
-      <c r="U124" s="4">
-        <f>MAX(U13-U26, 0)*U112</f>
-        <v>268100.68087206065</v>
-      </c>
-      <c r="V124" s="4">
-        <f>MAX(V13-V26, 0)*V112</f>
-        <v>11963898.943907974</v>
-      </c>
-      <c r="X124" s="4">
-        <f>MAX(X13-X26, 0)*X112</f>
-        <v>193790.29082328439</v>
-      </c>
-      <c r="Y124" s="4">
-        <f>MAX(Y13-Y26, 0)*Y112</f>
-        <v>2533336.3124467055</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="E126" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
-      <c r="R126" s="8"/>
-      <c r="S126" s="8"/>
-      <c r="U126" s="8"/>
-      <c r="V126" s="8"/>
-      <c r="X126" s="8"/>
-      <c r="Y126" s="8"/>
-    </row>
-    <row r="127" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="B127" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="F127" s="4">
-        <f>MAX(F32-F122,0)</f>
-        <v>1988625</v>
-      </c>
-      <c r="I127" s="4">
-        <f>MAX(I32-I122,0)</f>
-        <v>2037610.1393623354</v>
-      </c>
-      <c r="L127" s="4">
-        <f>MAX(L32-L122,0)</f>
-        <v>2099702.1154226013</v>
-      </c>
-      <c r="O127" s="4">
-        <f>MAX(O32-O122,0)</f>
-        <v>2194707.0195173891</v>
-      </c>
-      <c r="R127" s="4">
-        <f>MAX(R32-R122,0)</f>
-        <v>2990183.5440003192</v>
-      </c>
-      <c r="U127" s="4">
-        <f>MAX(U32-U122,0)</f>
-        <v>24988885.809933122</v>
-      </c>
-      <c r="X127" s="4">
-        <f>MAX(X32-X122,0)</f>
-        <v>2514189.6627409575</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="B128" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F128" s="4">
-        <f>MIN(F138,F127)</f>
-        <v>1988625</v>
-      </c>
-      <c r="I128" s="4">
-        <f>MIN(I138,I127)</f>
-        <v>2037610.1393623354</v>
-      </c>
-      <c r="L128" s="4">
-        <f>MIN(L138,L127)</f>
-        <v>2099702.1154226013</v>
-      </c>
-      <c r="O128" s="4">
-        <f>MIN(O138,O127)</f>
-        <v>2194707.0195173891</v>
-      </c>
-      <c r="R128" s="4">
-        <f>MIN(R138,R127)</f>
-        <v>2990183.5440003192</v>
-      </c>
-      <c r="U128" s="4">
-        <f>MIN(U138,U127)</f>
-        <v>12231999.624780035</v>
-      </c>
-      <c r="X128" s="4">
-        <f>MIN(X138,X127)</f>
-        <v>1789147.7110482706</v>
-      </c>
-    </row>
-    <row r="129" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="50" t="s">
+      <c r="B130" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F130" s="4">
+        <f>F128-F129</f>
+        <v>0</v>
+      </c>
+      <c r="I130" s="4">
+        <f>I128-I129</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="4">
+        <f>L128-L129</f>
+        <v>0</v>
+      </c>
+      <c r="O130" s="4">
+        <f>O128-O129</f>
+        <v>0</v>
+      </c>
+      <c r="R130" s="4">
+        <f>R128-R129</f>
+        <v>0</v>
+      </c>
+      <c r="U130" s="4">
+        <f>U128-U129</f>
+        <v>12756886.22958098</v>
+      </c>
+      <c r="X130" s="4">
+        <f>X128-X129</f>
+        <v>725042.00908580143</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="B131" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F131" s="4">
+        <f>MIN(F130,G76)</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="4">
+        <f>MIN(I130,J76)</f>
+        <v>0</v>
+      </c>
+      <c r="L131" s="4">
+        <f>MIN(L130,M76)</f>
+        <v>0</v>
+      </c>
+      <c r="O131" s="4">
+        <f>MIN(O130,P76)</f>
+        <v>0</v>
+      </c>
+      <c r="R131" s="4">
+        <f>MIN(R130,S76)</f>
+        <v>0</v>
+      </c>
+      <c r="U131" s="4">
+        <f>MIN(U130,V76)</f>
+        <v>30.146330393199996</v>
+      </c>
+      <c r="X131" s="4">
+        <f>MIN(X130,Y76)</f>
+        <v>53.914123679999996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F132" s="4">
+        <f>F140*F129</f>
+        <v>71219.296394549616</v>
+      </c>
+      <c r="G132" s="4">
+        <f>G140*F129</f>
+        <v>1917405.7036054505</v>
+      </c>
+      <c r="I132" s="4">
+        <f>I140*I129</f>
+        <v>73756.795864359185</v>
+      </c>
+      <c r="J132" s="4">
+        <f>J140*I129</f>
+        <v>1963853.343497976</v>
+      </c>
+      <c r="L132" s="4">
+        <f>L140*L129</f>
+        <v>69369.234990881247</v>
+      </c>
+      <c r="M132" s="4">
+        <f>M140*L129</f>
+        <v>2030332.8804317201</v>
+      </c>
+      <c r="O132" s="4">
+        <f>O140*O129</f>
+        <v>65578.525432639595</v>
+      </c>
+      <c r="P132" s="4">
+        <f>P140*O129</f>
+        <v>2129128.4940856644</v>
+      </c>
+      <c r="R132" s="4">
+        <f>R140*R129</f>
+        <v>78897.979357233533</v>
+      </c>
+      <c r="S132" s="4">
+        <f>S140*R129</f>
+        <v>2911285.5646446007</v>
+      </c>
+      <c r="U132" s="4">
+        <f>U140*U129</f>
+        <v>268100.68085647526</v>
+      </c>
+      <c r="V132" s="4">
+        <f>V140*U129</f>
+        <v>11963898.899512446</v>
+      </c>
+      <c r="X132" s="4">
+        <f>X140*X129</f>
+        <v>193790.29081205826</v>
+      </c>
+      <c r="Y132" s="4">
+        <f>Y140*X129</f>
+        <v>1595357.3628601301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="B129" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F129" s="4">
-        <f>F127-F128</f>
-        <v>0</v>
-      </c>
-      <c r="I129" s="4">
-        <f>I127-I128</f>
-        <v>0</v>
-      </c>
-      <c r="L129" s="4">
-        <f>L127-L128</f>
-        <v>0</v>
-      </c>
-      <c r="O129" s="4">
-        <f>O127-O128</f>
-        <v>0</v>
-      </c>
-      <c r="R129" s="4">
-        <f>R127-R128</f>
-        <v>0</v>
-      </c>
-      <c r="U129" s="4">
-        <f>U127-U128</f>
-        <v>12756886.185153088</v>
-      </c>
-      <c r="X129" s="4">
-        <f>X127-X128</f>
-        <v>725041.95169268688</v>
-      </c>
-    </row>
-    <row r="130" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="B130" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F130" s="4">
-        <f>MIN(F129,G75)</f>
-        <v>0</v>
-      </c>
-      <c r="I130" s="4">
-        <f>MIN(I129,J75)</f>
-        <v>0</v>
-      </c>
-      <c r="L130" s="4">
-        <f>MIN(L129,M75)</f>
-        <v>0</v>
-      </c>
-      <c r="O130" s="4">
-        <f>MIN(O129,P75)</f>
-        <v>0</v>
-      </c>
-      <c r="R130" s="4">
-        <f>MIN(R129,S75)</f>
-        <v>0</v>
-      </c>
-      <c r="U130" s="4">
-        <f>MIN(U129,V75)</f>
-        <v>30.146330393199996</v>
-      </c>
-      <c r="X130" s="4">
-        <f>MIN(X129,Y75)</f>
-        <v>53.914123679999996</v>
-      </c>
-    </row>
-    <row r="131" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="B131" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F131" s="4">
-        <f>F139*F128</f>
+      <c r="B133" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F133" s="4">
+        <f>F132</f>
         <v>71219.296394549616</v>
       </c>
-      <c r="G131" s="4">
-        <f>G139*F128</f>
+      <c r="G133" s="4">
+        <f>G132+F131</f>
         <v>1917405.7036054505</v>
       </c>
-      <c r="I131" s="4">
-        <f>I139*I128</f>
+      <c r="I133" s="4">
+        <f>I132</f>
         <v>73756.795864359185</v>
       </c>
-      <c r="J131" s="4">
-        <f>J139*I128</f>
+      <c r="J133" s="4">
+        <f>J132+I131</f>
         <v>1963853.343497976</v>
       </c>
-      <c r="L131" s="4">
-        <f>L139*L128</f>
+      <c r="L133" s="4">
+        <f>L132</f>
         <v>69369.234990881247</v>
       </c>
-      <c r="M131" s="4">
-        <f>M139*L128</f>
+      <c r="M133" s="4">
+        <f>M132+L131</f>
         <v>2030332.8804317201</v>
       </c>
-      <c r="O131" s="4">
-        <f>O139*O128</f>
-        <v>65578.525427093409</v>
-      </c>
-      <c r="P131" s="4">
-        <f>P139*O128</f>
-        <v>2129128.4940902959</v>
-      </c>
-      <c r="R131" s="4">
-        <f>R139*R128</f>
-        <v>78897.979298843828</v>
-      </c>
-      <c r="S131" s="4">
-        <f>S139*R128</f>
-        <v>2911285.5647014757</v>
-      </c>
-      <c r="U131" s="4">
-        <f>U139*U128</f>
-        <v>268100.68087206065</v>
-      </c>
-      <c r="V131" s="4">
-        <f>V139*U128</f>
-        <v>11963898.943907974</v>
-      </c>
-      <c r="X131" s="4">
-        <f>X139*X128</f>
-        <v>193790.29082328439</v>
-      </c>
-      <c r="Y131" s="4">
-        <f>Y139*X128</f>
-        <v>1595357.4202249863</v>
-      </c>
-    </row>
-    <row r="132" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="B132" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F132" s="4">
-        <f>F131</f>
-        <v>71219.296394549616</v>
-      </c>
-      <c r="G132" s="4">
-        <f>G131+F130</f>
-        <v>1917405.7036054505</v>
-      </c>
-      <c r="I132" s="4">
-        <f>I131</f>
-        <v>73756.795864359185</v>
-      </c>
-      <c r="J132" s="4">
-        <f>J131+I130</f>
-        <v>1963853.343497976</v>
-      </c>
-      <c r="L132" s="4">
-        <f>L131</f>
-        <v>69369.234990881247</v>
-      </c>
-      <c r="M132" s="4">
-        <f>M131+L130</f>
-        <v>2030332.8804317201</v>
-      </c>
-      <c r="O132" s="4">
-        <f>O131</f>
-        <v>65578.525427093409</v>
-      </c>
-      <c r="P132" s="4">
-        <f>P131+O130</f>
-        <v>2129128.4940902959</v>
-      </c>
-      <c r="R132" s="4">
-        <f>R131</f>
-        <v>78897.979298843828</v>
-      </c>
-      <c r="S132" s="4">
-        <f>S131+R130</f>
-        <v>2911285.5647014757</v>
-      </c>
-      <c r="U132" s="4">
-        <f>U131</f>
-        <v>268100.68087206065</v>
-      </c>
-      <c r="V132" s="4">
-        <f>V131+U130</f>
-        <v>11963929.090238368</v>
-      </c>
-      <c r="X132" s="4">
-        <f>X131</f>
-        <v>193790.29082328439</v>
-      </c>
-      <c r="Y132" s="4">
-        <f>Y131+X130</f>
-        <v>1595411.3343486662</v>
-      </c>
-    </row>
-    <row r="133" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="E133" s="15" t="s">
+      <c r="O133" s="4">
+        <f>O132</f>
+        <v>65578.525432639595</v>
+      </c>
+      <c r="P133" s="4">
+        <f>P132+O131</f>
+        <v>2129128.4940856644</v>
+      </c>
+      <c r="R133" s="4">
+        <f>R132</f>
+        <v>78897.979357233533</v>
+      </c>
+      <c r="S133" s="4">
+        <f>S132+R131</f>
+        <v>2911285.5646446007</v>
+      </c>
+      <c r="U133" s="4">
+        <f>U132</f>
+        <v>268100.68085647526</v>
+      </c>
+      <c r="V133" s="4">
+        <f>V132+U131</f>
+        <v>11963929.045842839</v>
+      </c>
+      <c r="X133" s="4">
+        <f>X132</f>
+        <v>193790.29081205826</v>
+      </c>
+      <c r="Y133" s="4">
+        <f>Y132+X131</f>
+        <v>1595411.2769838101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="E134" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
-      <c r="L133" s="8"/>
-      <c r="M133" s="8"/>
-      <c r="O133" s="8"/>
-      <c r="P133" s="8"/>
-      <c r="R133" s="8"/>
-      <c r="S133" s="8"/>
-      <c r="U133" s="8"/>
-      <c r="V133" s="8"/>
-      <c r="X133" s="8"/>
-      <c r="Y133" s="8"/>
-    </row>
-    <row r="134" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="B134" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E134" s="10" t="s">
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+      <c r="R134" s="8"/>
+      <c r="S134" s="8"/>
+      <c r="U134" s="8"/>
+      <c r="V134" s="8"/>
+      <c r="X134" s="8"/>
+      <c r="Y134" s="8"/>
+    </row>
+    <row r="135" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E135" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F134" s="4">
-        <f>F112/$F$22</f>
+      <c r="F135" s="4">
+        <f>F113/$F$22</f>
         <v>1</v>
       </c>
-      <c r="G134" s="4">
-        <f>G112/$G$22</f>
+      <c r="G135" s="4">
+        <f>G113/$G$22</f>
         <v>1</v>
       </c>
-      <c r="I134" s="4">
-        <f>I112/$F$22</f>
+      <c r="I135" s="4">
+        <f>I113/$F$22</f>
         <v>0.95232964435003808</v>
       </c>
-      <c r="J134" s="4">
-        <f>J112/$G$22</f>
+      <c r="J135" s="4">
+        <f>J113/$G$22</f>
         <v>0.93055709201805892</v>
       </c>
-      <c r="L134" s="4">
-        <f>L112/$F$22</f>
+      <c r="L135" s="4">
+        <f>L113/$F$22</f>
         <v>0.9027466104403371</v>
       </c>
-      <c r="M134" s="4">
-        <f>M112/$G$22</f>
+      <c r="M135" s="4">
+        <f>M113/$G$22</f>
         <v>0.85936170922813448</v>
       </c>
-      <c r="O134" s="4">
-        <f>O112/$F$22</f>
+      <c r="O135" s="4">
+        <f>O113/$F$22</f>
         <v>0.85594227265030298</v>
       </c>
-      <c r="P134" s="4">
-        <f>P112/$G$22</f>
-        <v>0.78561939575997952</v>
-      </c>
-      <c r="R134" s="4">
-        <f>R112/$F$22</f>
-        <v>0.8114811522733788</v>
-      </c>
-      <c r="S134" s="4">
-        <f>S112/$G$22</f>
-        <v>0.70800634073971169</v>
-      </c>
-      <c r="U134" s="4">
-        <f>U112/$F$22</f>
-        <v>0.75746274321756324</v>
-      </c>
-      <c r="V134" s="4">
-        <f>V112/$G$22</f>
-        <v>0.59921319016945362</v>
-      </c>
-      <c r="X134" s="4">
-        <f>X112/$F$22</f>
-        <v>0.57121400205648643</v>
-      </c>
-      <c r="Y134" s="4">
-        <f>Y112/$G$22</f>
-        <v>0.12694912190590157</v>
-      </c>
-      <c r="Z134">
+      <c r="P135" s="4">
+        <f>P113/$G$22</f>
+        <v>0.78561939569182848</v>
+      </c>
+      <c r="R135" s="4">
+        <f>R113/$F$22</f>
+        <v>0.81148115226959439</v>
+      </c>
+      <c r="S135" s="4">
+        <f>S113/$G$22</f>
+        <v>0.70800634019860709</v>
+      </c>
+      <c r="U135" s="4">
+        <f>U113/$F$22</f>
+        <v>0.75746274317353002</v>
+      </c>
+      <c r="V135" s="4">
+        <f>V113/$G$22</f>
+        <v>0.59921318794589873</v>
+      </c>
+      <c r="X135" s="4">
+        <f>X113/$F$22</f>
+        <v>0.57121400202339634</v>
+      </c>
+      <c r="Y135" s="4">
+        <f>Y113/$G$22</f>
+        <v>0.12694911963254821</v>
+      </c>
+      <c r="Z135">
         <v>0.5</v>
-      </c>
-      <c r="AA134">
-        <f>SUM(Z$6:Z134)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AB134">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="B135" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F135" s="4">
-        <f>MAX(MIN((F134-$F$16)/$F$17, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G135" s="4">
-        <f>MAX(MIN((G134-$F$16)/$F$17, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="I135" s="4">
-        <f>MAX(MIN((I134-$F$16)/$F$17, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="J135" s="4">
-        <f>MAX(MIN((J134-$F$16)/$F$17, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="L135" s="4">
-        <f>MAX(MIN((L134-$F$16)/$F$17, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="M135" s="4">
-        <f>MAX(MIN((M134-$F$16)/$F$17, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="O135" s="4">
-        <f>MAX(MIN((O134-$F$16)/$F$17, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="P135" s="4">
-        <f>MAX(MIN((P134-$F$16)/$F$17, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="R135" s="4">
-        <f>MAX(MIN((R134-$F$16)/$F$17, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="S135" s="4">
-        <f>MAX(MIN((S134-$F$16)/$F$17, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="U135" s="4">
-        <f>MAX(MIN((U134-$F$16)/$F$17, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V135" s="4">
-        <f>MAX(MIN((V134-$F$16)/$F$17, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="X135" s="4">
-        <f>MAX(MIN((X134-$F$16)/$F$17, 1), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y135" s="4">
-        <f>MAX(MIN((Y134-$F$16)/$F$17, 1), 0)</f>
-        <v>0.62974560952950787</v>
-      </c>
-      <c r="Z135">
-        <v>0.3</v>
       </c>
       <c r="AA135">
         <f>SUM(Z$6:Z135)</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB135">
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A136" s="50"/>
+    <row r="136" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B136" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F136" s="4">
+        <f>MAX(MIN((F135-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G136" s="4">
+        <f>MAX(MIN((G135-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I136" s="4">
+        <f>MAX(MIN((I135-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="J136" s="4">
+        <f>MAX(MIN((J135-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L136" s="4">
+        <f>MAX(MIN((L135-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M136" s="4">
+        <f>MAX(MIN((M135-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="O136" s="4">
+        <f>MAX(MIN((O135-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="P136" s="4">
+        <f>MAX(MIN((P135-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="R136" s="4">
+        <f>MAX(MIN((R135-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="S136" s="4">
+        <f>MAX(MIN((S135-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="U136" s="4">
+        <f>MAX(MIN((U135-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="V136" s="4">
+        <f>MAX(MIN((V135-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="X136" s="4">
+        <f>MAX(MIN((X135-$F$16)/$F$17, 1), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y136" s="4">
+        <f>MAX(MIN((Y135-$F$16)/$F$17, 1), 0)</f>
+        <v>0.629745598162741</v>
+      </c>
       <c r="Z136">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AA136">
         <f>SUM(Z$6:Z136)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="B137" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F137" s="4">
-        <f>F124*F135</f>
-        <v>741757.5</v>
-      </c>
-      <c r="G137" s="4">
-        <f>G124*G135</f>
-        <v>19970010</v>
-      </c>
-      <c r="I137" s="4">
-        <f>I124*I135</f>
-        <v>697549.84714221046</v>
-      </c>
-      <c r="J137" s="4">
-        <f>J124*J135</f>
-        <v>18573008.54128737</v>
-      </c>
-      <c r="L137" s="4">
-        <f>L124*L135</f>
-        <v>585747.5895575179</v>
-      </c>
-      <c r="M137" s="4">
-        <f>M124*M135</f>
-        <v>17143948.479013555</v>
-      </c>
-      <c r="O137" s="4">
-        <f>O124*O135</f>
-        <v>482268.69033299608</v>
-      </c>
-      <c r="P137" s="4">
-        <f>P124*P135</f>
-        <v>15657747.771976728</v>
-      </c>
-      <c r="R137" s="4">
-        <f>R124*R135</f>
-        <v>384257.42411140393</v>
-      </c>
-      <c r="S137" s="4">
-        <f>S124*S135</f>
-        <v>14178856.060528994</v>
-      </c>
-      <c r="U137" s="4">
-        <f>U124*U135</f>
-        <v>268100.68087206065</v>
-      </c>
-      <c r="V137" s="4">
-        <f>V124*V135</f>
-        <v>11963898.943907974</v>
-      </c>
-      <c r="X137" s="4">
-        <f>X124*X135</f>
-        <v>193790.29082328439</v>
-      </c>
-      <c r="Y137" s="4">
-        <f>Y124*Y135</f>
-        <v>1595357.4202249863</v>
-      </c>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A137" s="49"/>
       <c r="Z137">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="AA137">
-        <f>SUM(Z$6:Z155)</f>
-        <v>1.125</v>
+        <f>SUM(Z$6:Z137)</f>
+        <v>1</v>
       </c>
       <c r="AB137">
         <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="50" t="s">
+      <c r="A138" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B138" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F138" s="4">
+        <f>F125*F136</f>
+        <v>741757.5</v>
+      </c>
+      <c r="G138" s="4">
+        <f>G125*G136</f>
+        <v>19970010</v>
+      </c>
+      <c r="I138" s="4">
+        <f>I125*I136</f>
+        <v>697549.84714221046</v>
+      </c>
+      <c r="J138" s="4">
+        <f>J125*J136</f>
+        <v>18573008.54128737</v>
+      </c>
+      <c r="L138" s="4">
+        <f>L125*L136</f>
+        <v>585747.5895575179</v>
+      </c>
+      <c r="M138" s="4">
+        <f>M125*M136</f>
+        <v>17143948.479013555</v>
+      </c>
+      <c r="O138" s="4">
+        <f>O125*O136</f>
+        <v>482268.69033299608</v>
+      </c>
+      <c r="P138" s="4">
+        <f>P125*P136</f>
+        <v>15657747.770618446</v>
+      </c>
+      <c r="R138" s="4">
+        <f>R125*R136</f>
+        <v>384257.42410961189</v>
+      </c>
+      <c r="S138" s="4">
+        <f>S125*S136</f>
+        <v>14178856.049692586</v>
+      </c>
+      <c r="U138" s="4">
+        <f>U125*U136</f>
+        <v>268100.68085647526</v>
+      </c>
+      <c r="V138" s="4">
+        <f>V125*V136</f>
+        <v>11963898.899512446</v>
+      </c>
+      <c r="X138" s="4">
+        <f>X125*X136</f>
+        <v>193790.29081205826</v>
+      </c>
+      <c r="Y138" s="4">
+        <f>Y125*Y136</f>
+        <v>1595357.3628601301</v>
+      </c>
+      <c r="Z138">
+        <v>0.125</v>
+      </c>
+      <c r="AA138">
+        <f>SUM(Z$6:Z156)</f>
+        <v>1.125</v>
+      </c>
+      <c r="AB138">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B139" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F139" s="4">
+        <f>F138+G138</f>
+        <v>20711767.5</v>
+      </c>
+      <c r="G139" s="4">
+        <f>F139</f>
+        <v>20711767.5</v>
+      </c>
+      <c r="I139" s="4">
+        <f>I138+J138</f>
+        <v>19270558.388429582</v>
+      </c>
+      <c r="J139" s="4">
+        <f>I139</f>
+        <v>19270558.388429582</v>
+      </c>
+      <c r="L139" s="4">
+        <f>L138+M138</f>
+        <v>17729696.068571072</v>
+      </c>
+      <c r="M139" s="4">
+        <f>L139</f>
+        <v>17729696.068571072</v>
+      </c>
+      <c r="O139" s="4">
+        <f>O138+P138</f>
+        <v>16140016.460951442</v>
+      </c>
+      <c r="P139" s="4">
+        <f>O139</f>
+        <v>16140016.460951442</v>
+      </c>
+      <c r="R139" s="4">
+        <f>R138+S138</f>
+        <v>14563113.473802198</v>
+      </c>
+      <c r="S139" s="4">
+        <f>R139</f>
+        <v>14563113.473802198</v>
+      </c>
+      <c r="U139" s="4">
+        <f>U138+V138</f>
+        <v>12231999.580368921</v>
+      </c>
+      <c r="V139" s="4">
+        <f>U139</f>
+        <v>12231999.580368921</v>
+      </c>
+      <c r="X139" s="4">
+        <f>X138+Y138</f>
+        <v>1789147.6536721885</v>
+      </c>
+      <c r="Y139" s="4">
+        <f>X139</f>
+        <v>1789147.6536721885</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="B138" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F138" s="4">
-        <f>F137+G137</f>
-        <v>20711767.5</v>
-      </c>
-      <c r="G138" s="4">
-        <f>F138</f>
-        <v>20711767.5</v>
-      </c>
-      <c r="I138" s="4">
-        <f>I137+J137</f>
-        <v>19270558.388429582</v>
-      </c>
-      <c r="J138" s="4">
-        <f>I138</f>
-        <v>19270558.388429582</v>
-      </c>
-      <c r="L138" s="4">
-        <f>L137+M137</f>
-        <v>17729696.068571072</v>
-      </c>
-      <c r="M138" s="4">
-        <f>L138</f>
-        <v>17729696.068571072</v>
-      </c>
-      <c r="O138" s="4">
-        <f>O137+P137</f>
-        <v>16140016.462309724</v>
-      </c>
-      <c r="P138" s="4">
-        <f>O138</f>
-        <v>16140016.462309724</v>
-      </c>
-      <c r="R138" s="4">
-        <f>R137+S137</f>
-        <v>14563113.484640397</v>
-      </c>
-      <c r="S138" s="4">
-        <f>R138</f>
-        <v>14563113.484640397</v>
-      </c>
-      <c r="U138" s="4">
-        <f>U137+V137</f>
-        <v>12231999.624780035</v>
-      </c>
-      <c r="V138" s="4">
-        <f>U138</f>
-        <v>12231999.624780035</v>
-      </c>
-      <c r="X138" s="4">
-        <f>X137+Y137</f>
-        <v>1789147.7110482706</v>
-      </c>
-      <c r="Y138" s="4">
-        <f>X138</f>
-        <v>1789147.7110482706</v>
-      </c>
-    </row>
-    <row r="139" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="B139" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E139" s="10" t="s">
+      <c r="B140" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E140" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F139" s="4">
-        <f>F137/F138</f>
+      <c r="F140" s="4">
+        <f>F138/F139</f>
         <v>3.5813336548896658E-2</v>
       </c>
-      <c r="G139" s="4">
-        <f>G137/G138</f>
+      <c r="G140" s="4">
+        <f>G138/G139</f>
         <v>0.96418666345110338</v>
       </c>
-      <c r="I139" s="4">
-        <f>I137/I138</f>
+      <c r="I140" s="4">
+        <f>I138/I139</f>
         <v>3.6197697704547727E-2</v>
       </c>
-      <c r="J139" s="4">
-        <f>J137/J138</f>
+      <c r="J140" s="4">
+        <f>J138/J139</f>
         <v>0.96380230229545216</v>
       </c>
-      <c r="L139" s="4">
-        <f>L137/L138</f>
+      <c r="L140" s="4">
+        <f>L138/L139</f>
         <v>3.3037655428050795E-2</v>
       </c>
-      <c r="M139" s="4">
-        <f>M137/M138</f>
+      <c r="M140" s="4">
+        <f>M138/M139</f>
         <v>0.96696234457194918</v>
       </c>
-      <c r="O139" s="4">
-        <f>O137/O138</f>
-        <v>2.9880309692322384E-2</v>
-      </c>
-      <c r="P139" s="4">
-        <f>P137/P138</f>
-        <v>0.97011969030767764</v>
-      </c>
-      <c r="R139" s="4">
-        <f>R137/R138</f>
-        <v>2.6385664337277688E-2</v>
-      </c>
-      <c r="S139" s="4">
-        <f>S137/S138</f>
-        <v>0.97361433566272237</v>
-      </c>
-      <c r="U139" s="4">
-        <f>U137/U138</f>
-        <v>2.1917976544810584E-2</v>
-      </c>
-      <c r="V139" s="4">
-        <f>V137/V138</f>
-        <v>0.97808202345518946</v>
-      </c>
-      <c r="X139" s="4">
-        <f>X137/X138</f>
-        <v>0.10831430497694441</v>
-      </c>
-      <c r="Y139" s="4">
-        <f>Y137/Y138</f>
-        <v>0.89168569502305561</v>
-      </c>
-    </row>
-    <row r="141" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="E141" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-      <c r="L141" s="8"/>
-      <c r="M141" s="8"/>
-      <c r="O141" s="8"/>
-      <c r="P141" s="8"/>
-      <c r="R141" s="8"/>
-      <c r="S141" s="8"/>
-      <c r="U141" s="8"/>
-      <c r="V141" s="8"/>
-      <c r="X141" s="8"/>
-      <c r="Y141" s="8"/>
+      <c r="O140" s="4">
+        <f>O138/O139</f>
+        <v>2.9880309694836998E-2</v>
+      </c>
+      <c r="P140" s="4">
+        <f>P138/P139</f>
+        <v>0.97011969030516298</v>
+      </c>
+      <c r="R140" s="4">
+        <f>R138/R139</f>
+        <v>2.6385664356791447E-2</v>
+      </c>
+      <c r="S140" s="4">
+        <f>S138/S139</f>
+        <v>0.97361433564320854</v>
+      </c>
+      <c r="U140" s="4">
+        <f>U138/U139</f>
+        <v>2.1917976623114736E-2</v>
+      </c>
+      <c r="V140" s="4">
+        <f>V138/V139</f>
+        <v>0.97808202337688521</v>
+      </c>
+      <c r="X140" s="4">
+        <f>X138/X139</f>
+        <v>0.1083143084441956</v>
+      </c>
+      <c r="Y140" s="4">
+        <f>Y138/Y139</f>
+        <v>0.89168569155580435</v>
+      </c>
     </row>
     <row r="142" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="46" t="s">
+      <c r="E142" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="8"/>
+      <c r="O142" s="8"/>
+      <c r="P142" s="8"/>
+      <c r="R142" s="8"/>
+      <c r="S142" s="8"/>
+      <c r="U142" s="8"/>
+      <c r="V142" s="8"/>
+      <c r="X142" s="8"/>
+      <c r="Y142" s="8"/>
+    </row>
+    <row r="143" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="B143" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F143" s="4">
+        <f>(F111 - F132 - F120)*$F$29</f>
+        <v>2842.5614072109011</v>
+      </c>
+      <c r="G143" s="4">
+        <f>(G111 - G132 - G120)*$G$29+SUM(G90:G93)</f>
+        <v>46145.188592789098</v>
+      </c>
+      <c r="I143" s="4">
+        <f>(I111 - I132 - I120)*$F$29</f>
+        <v>2677.6184746142349</v>
+      </c>
+      <c r="J143" s="4">
+        <f>(J111 - J132 - J120)*$G$29+SUM(J90:J93)</f>
+        <v>42564.533744839202</v>
+      </c>
+      <c r="L143" s="4">
+        <f>(L111 - L132 - L120)*$F$29</f>
+        <v>2523.7480844526031</v>
+      </c>
+      <c r="M143" s="4">
+        <f>(M111 - M132 - M120)*$G$29+SUM(M90:M93)</f>
+        <v>38862.195572352735</v>
+      </c>
+      <c r="O143" s="4">
+        <f>(O111 - O132 - O120)*$F$29</f>
+        <v>2375.4637244804881</v>
+      </c>
+      <c r="P143" s="4">
+        <f>(P111 - P132 - P120)*$G$29+SUM(P90:P93)</f>
+        <v>34955.488912626926</v>
+      </c>
+      <c r="R143" s="4">
+        <f>(R111 - R132 - R120)*$F$29</f>
+        <v>2194.4227481835401</v>
+      </c>
+      <c r="S143" s="4">
+        <f>(S111 - S132 - S120)*$G$29+SUM(S90:S93)</f>
+        <v>29516.599654915171</v>
+      </c>
+      <c r="U143" s="4">
+        <f>(U111 - U132 - U120)*$F$29</f>
+        <v>1637.3520057295698</v>
+      </c>
+      <c r="V143" s="4">
+        <f>(V111 - V132 - V120)*$G$29+SUM(V90:V93)</f>
+        <v>5976.1952464237338</v>
+      </c>
+      <c r="X143" s="4">
+        <f>(X111 - X132 - X120)*$F$29</f>
+        <v>1235.4276221261657</v>
+      </c>
+      <c r="Y143" s="4">
+        <f>(Y111 - Y132 - Y120)*$G$29+SUM(Y90:Y93)</f>
+        <v>3181.4048547990983</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="B142" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F142" s="4">
-        <f>(F110 - F131 - F119)*$F$29</f>
-        <v>2842.5614072109011</v>
-      </c>
-      <c r="G142" s="4">
-        <f>(G110 - G131 - G119)*$G$29</f>
-        <v>46145.188592789098</v>
-      </c>
-      <c r="I142" s="4">
-        <f>(I110 - I131 - I119)*$F$29</f>
-        <v>2677.6184746142349</v>
-      </c>
-      <c r="J142" s="4">
-        <f>(J110 - J131 - J119)*$G$29</f>
-        <v>42564.533744839202</v>
-      </c>
-      <c r="L142" s="4">
-        <f>(L110 - L131 - L119)*$F$29</f>
-        <v>2523.7480844526031</v>
-      </c>
-      <c r="M142" s="4">
-        <f>(M110 - M131 - M119)*$G$29</f>
-        <v>38862.193872352735</v>
-      </c>
-      <c r="O142" s="4">
-        <f>(O110 - O131 - O119)*$F$29</f>
-        <v>2375.4637244915798</v>
-      </c>
-      <c r="P142" s="4">
-        <f>(P110 - P131 - P119)*$G$29</f>
-        <v>34955.477119415053</v>
-      </c>
-      <c r="R142" s="4">
-        <f>(R110 - R131 - R119)*$F$29</f>
-        <v>2194.4227483112763</v>
-      </c>
-      <c r="S142" s="4">
-        <f>(S110 - S131 - S119)*$G$29</f>
-        <v>29516.557668764955</v>
-      </c>
-      <c r="U142" s="4">
-        <f>(U110 - U131 - U119)*$F$29</f>
-        <v>1637.352005824587</v>
-      </c>
-      <c r="V142" s="4">
-        <f>(V110 - V131 - V119)*$G$29</f>
-        <v>5976.1503720949167</v>
-      </c>
-      <c r="X142" s="4">
-        <f>(X110 - X131 - X119)*$F$29</f>
-        <v>1235.4276221975688</v>
-      </c>
-      <c r="Y142" s="4">
-        <f>(Y110 - Y131 - Y119)*$G$29</f>
-        <v>3181.3482950049956</v>
-      </c>
-    </row>
-    <row r="143" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="B143" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="F143" s="4">
-        <f>F131*$F20</f>
+      <c r="B144" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F144" s="4">
+        <f>F132*$F20</f>
         <v>21365.788918364884</v>
       </c>
-      <c r="G143" s="4">
-        <f>(G131+F130)*$G20</f>
+      <c r="G144" s="4">
+        <f>(G132+F131)*$G20</f>
         <v>479351.42590136261</v>
       </c>
-      <c r="I143" s="4">
-        <f>I131*$F20</f>
+      <c r="I144" s="4">
+        <f>I132*$F20</f>
         <v>22127.038759307754</v>
       </c>
-      <c r="J143" s="4">
-        <f>(J131+I130)*$G20</f>
+      <c r="J144" s="4">
+        <f>(J132+I131)*$G20</f>
         <v>490963.33587449399</v>
       </c>
-      <c r="L143" s="4">
-        <f>L131*$F20</f>
+      <c r="L144" s="4">
+        <f>L132*$F20</f>
         <v>20810.770497264373</v>
       </c>
-      <c r="M143" s="4">
-        <f>(M131+L130)*$G20</f>
+      <c r="M144" s="4">
+        <f>(M132+L131)*$G20</f>
         <v>507583.22010793001</v>
       </c>
-      <c r="O143" s="4">
-        <f>O131*$F20</f>
-        <v>19673.557628128023</v>
-      </c>
-      <c r="P143" s="4">
-        <f>(P131+O130)*$G20</f>
-        <v>532282.12352257397</v>
-      </c>
-      <c r="R143" s="4">
-        <f>R131*$F20</f>
-        <v>23669.393789653146</v>
-      </c>
-      <c r="S143" s="4">
-        <f>(S131+R130)*$G20</f>
-        <v>727821.39117536892</v>
-      </c>
-      <c r="U143" s="4">
-        <f>U131*$F20</f>
-        <v>80430.204261618186</v>
-      </c>
-      <c r="V143" s="4">
-        <f>(V131+U130)*$G20</f>
-        <v>2990982.272559592</v>
-      </c>
-      <c r="X143" s="4">
-        <f>X131*$F20</f>
-        <v>58137.087246985313</v>
-      </c>
-      <c r="Y143" s="4">
-        <f>(Y131+X130)*$G20</f>
-        <v>398852.83358716656</v>
-      </c>
-    </row>
-    <row r="144" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="46" t="s">
+      <c r="O144" s="4">
+        <f>O132*$F20</f>
+        <v>19673.557629791878</v>
+      </c>
+      <c r="P144" s="4">
+        <f>(P132+O131)*$G20</f>
+        <v>532282.1235214161</v>
+      </c>
+      <c r="R144" s="4">
+        <f>R132*$F20</f>
+        <v>23669.393807170058</v>
+      </c>
+      <c r="S144" s="4">
+        <f>(S132+R131)*$G20</f>
+        <v>727821.39116115018</v>
+      </c>
+      <c r="U144" s="4">
+        <f>U132*$F20</f>
+        <v>80430.204256942568</v>
+      </c>
+      <c r="V144" s="4">
+        <f>(V132+U131)*$G20</f>
+        <v>2990982.2614607099</v>
+      </c>
+      <c r="X144" s="4">
+        <f>X132*$F20</f>
+        <v>58137.087243617476</v>
+      </c>
+      <c r="Y144" s="4">
+        <f>(Y132+X131)*$G20</f>
+        <v>398852.81924595253</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B145" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F145" s="4">
+        <f>F120-F123*F124-F121</f>
+        <v>2175</v>
+      </c>
+      <c r="G145" s="4">
+        <f>G120-F123*G124-G121+G53</f>
+        <v>2700</v>
+      </c>
+      <c r="I145" s="4">
+        <f>I120-I123*I124-I121</f>
+        <v>2562.2727080288705</v>
+      </c>
+      <c r="J145" s="4">
+        <f>J120-I123*J124-J121+J53</f>
+        <v>2747.6675652559352</v>
+      </c>
+      <c r="L145" s="4">
+        <f>L120-L123*L124-L121</f>
+        <v>2265.9424845960316</v>
+      </c>
+      <c r="M145" s="4">
+        <f>M120-L123*M124-M121+M53</f>
+        <v>2147.4366200033164</v>
+      </c>
+      <c r="O145" s="4">
+        <f>O120-O123*O124-O121</f>
+        <v>2597.9719406896065</v>
+      </c>
+      <c r="P145" s="4">
+        <f>P120-O123*P124-P121+P53</f>
+        <v>3956.1625514657471</v>
+      </c>
+      <c r="R145" s="4">
+        <f>R120-R123*R124-R121</f>
+        <v>3496.5135200279619</v>
+      </c>
+      <c r="S145" s="4">
+        <f>S120-R123*S124-S121+S53</f>
+        <v>710.53905061433773</v>
+      </c>
+      <c r="U145" s="4">
+        <f>U120-U123*U124-U121</f>
+        <v>3220.9402866978717</v>
+      </c>
+      <c r="V145" s="4">
+        <f>V120-U123*V124-V121+V53</f>
+        <v>1542.284020487552</v>
+      </c>
+      <c r="X145" s="4">
+        <f>X120-X123*X124-X121</f>
+        <v>2371.0046951742552</v>
+      </c>
+      <c r="Y145" s="4">
+        <f>Y120-X123*Y124-Y121+Y53</f>
+        <v>119.13983711568426</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="B144" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E144" s="10" t="s">
+      <c r="B146" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E146" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F144" s="4">
-        <f>F119-F122*F123-F120</f>
-        <v>2175</v>
-      </c>
-      <c r="G144" s="4">
-        <f>G119-F122*G123-G120</f>
-        <v>2700</v>
-      </c>
-      <c r="I144" s="4">
-        <f>I119-I122*I123-I120</f>
-        <v>2562.2727080288705</v>
-      </c>
-      <c r="J144" s="4">
-        <f>J119-I122*J123-J120</f>
-        <v>2747.6675652559352</v>
-      </c>
-      <c r="L144" s="4">
-        <f>L119-L122*L123-L120</f>
-        <v>2265.9424845960316</v>
-      </c>
-      <c r="M144" s="4">
-        <f>M119-L122*M123-M120</f>
-        <v>2147.4366200033164</v>
-      </c>
-      <c r="O144" s="4">
-        <f>O119-O122*O123-O120</f>
-        <v>2597.9719406896065</v>
-      </c>
-      <c r="P144" s="4">
-        <f>P119-O122*P123-P120</f>
-        <v>3956.1625518579049</v>
-      </c>
-      <c r="R144" s="4">
-        <f>R119-R122*R123-R120</f>
-        <v>3496.5135200449749</v>
-      </c>
-      <c r="S144" s="4">
-        <f>S119-R122*S123-S120</f>
-        <v>710.53905124679738</v>
-      </c>
-      <c r="U144" s="4">
-        <f>U119-U122*U123-U120</f>
-        <v>3220.9402868918642</v>
-      </c>
-      <c r="V144" s="4">
-        <f>V119-U122*V123-V120</f>
-        <v>1542.2840274847454</v>
-      </c>
-      <c r="X144" s="4">
-        <f>X119-X122*X123-X120</f>
-        <v>2371.0046953200363</v>
-      </c>
-      <c r="Y144" s="4">
-        <f>Y119-X122*Y123-Y120</f>
-        <v>119.13984426958632</v>
-      </c>
-    </row>
-    <row r="145" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B145" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F145" s="4">
-        <f>F119*$F20</f>
+      <c r="F146" s="4">
+        <f>F120*$F20</f>
         <v>2250</v>
       </c>
-      <c r="G145" s="4">
-        <f>(G119+G46-G52)*$G20</f>
+      <c r="G146" s="4">
+        <f>(G120+G53)*$G20</f>
         <v>2500</v>
       </c>
-      <c r="I145" s="4">
-        <f>I119*$F20</f>
+      <c r="I146" s="4">
+        <f>I120*$F20</f>
         <v>2657.1327080288697</v>
       </c>
-      <c r="J145" s="4">
-        <f>(J119+J46-J52)*$G20</f>
+      <c r="J146" s="4">
+        <f>(J120+J53)*$G20</f>
         <v>2559.2229710466122</v>
       </c>
-      <c r="L145" s="4">
-        <f>L119*$F20</f>
+      <c r="L146" s="4">
+        <f>L120*$F20</f>
         <v>2356.4224845960307</v>
       </c>
-      <c r="M145" s="4">
-        <f>(M119+M46-M52)*$G20</f>
+      <c r="M146" s="4">
+        <f>(M120+M53)*$G20</f>
         <v>2019.8305166694299</v>
       </c>
-      <c r="O145" s="4">
-        <f>O119*$F20</f>
+      <c r="O146" s="4">
+        <f>O120*$F20</f>
         <v>2696.6719406896059</v>
       </c>
-      <c r="P145" s="4">
-        <f>(P119+P46-P52)*$G20</f>
-        <v>3772.0021265482537</v>
-      </c>
-      <c r="R145" s="4">
-        <f>R119*$F20</f>
-        <v>3652.5135200449745</v>
-      </c>
-      <c r="S145" s="4">
-        <f>(S119+S46-S52)*$G20</f>
-        <v>690.59087603899775</v>
-      </c>
-      <c r="U145" s="4">
-        <f>U119*$F20</f>
-        <v>3341.4802868918646</v>
-      </c>
-      <c r="V145" s="4">
-        <f>(V119+V46-V52)*$G20</f>
-        <v>1573.9866895706211</v>
-      </c>
-      <c r="X145" s="4">
-        <f>X119*$F20</f>
-        <v>2520.9446953200354</v>
-      </c>
-      <c r="Y145" s="4">
-        <f>(Y119+Y46-Y52)*$G20</f>
-        <v>335.53320355798866</v>
-      </c>
-    </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A148" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="F148" s="4">
-        <f>F144+F120</f>
+      <c r="P146" s="4">
+        <f>(P120+P53)*$G20</f>
+        <v>3772.0021262214559</v>
+      </c>
+      <c r="R146" s="4">
+        <f>R120*$F20</f>
+        <v>3652.513520027961</v>
+      </c>
+      <c r="S146" s="4">
+        <f>(S120+S53)*$G20</f>
+        <v>690.59087551194818</v>
+      </c>
+      <c r="U146" s="4">
+        <f>U120*$F20</f>
+        <v>3341.4802866978721</v>
+      </c>
+      <c r="V146" s="4">
+        <f>(V120+V53)*$G20</f>
+        <v>1573.9866837396262</v>
+      </c>
+      <c r="X146" s="4">
+        <f>X120*$F20</f>
+        <v>2520.9446951742548</v>
+      </c>
+      <c r="Y146" s="4">
+        <f>(Y120+Y53)*$G20</f>
+        <v>335.53319759640362</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A149" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F149" s="4">
+        <f>F145+F121</f>
         <v>2425</v>
       </c>
-      <c r="G148" s="4">
-        <f>G144+G120</f>
+      <c r="G149" s="4">
+        <f>G145+G121</f>
         <v>3700</v>
       </c>
-      <c r="I148" s="4">
-        <f>I144+I120</f>
+      <c r="I149" s="4">
+        <f>I145+I121</f>
         <v>2878.4727080288703</v>
       </c>
-      <c r="J148" s="4">
-        <f>J144+J120</f>
+      <c r="J149" s="4">
+        <f>J145+J121</f>
         <v>3825.6675652559352</v>
       </c>
-      <c r="L148" s="4">
-        <f>L144+L120</f>
+      <c r="L149" s="4">
+        <f>L145+L121</f>
         <v>2567.5424845960315</v>
       </c>
-      <c r="M148" s="4">
-        <f>M144+M120</f>
+      <c r="M149" s="4">
+        <f>M145+M121</f>
         <v>3068.6366200033162</v>
       </c>
-      <c r="O148" s="4">
-        <f>O144+O120</f>
+      <c r="O149" s="4">
+        <f>O145+O121</f>
         <v>2926.9719406896065</v>
       </c>
-      <c r="P148" s="4">
-        <f>P144+P120</f>
-        <v>5856.9625518579051</v>
-      </c>
-      <c r="R148" s="4">
-        <f>R144+R120</f>
-        <v>4016.5135200449749</v>
-      </c>
-      <c r="S148" s="4">
-        <f>S144+S120</f>
-        <v>1104.4390512467974</v>
-      </c>
-      <c r="U148" s="4">
-        <f>U144+U120</f>
-        <v>3622.7402868918643</v>
-      </c>
-      <c r="V148" s="4">
-        <f>V144+V120</f>
-        <v>2697.2840274847454</v>
-      </c>
-      <c r="X148" s="4">
-        <f>X144+X120</f>
-        <v>2870.8046953200364</v>
-      </c>
-      <c r="Y148" s="4">
-        <f>Y144+Y120</f>
-        <v>1064.1398442695863</v>
-      </c>
-    </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A150" s="46" t="s">
-        <v>278</v>
-      </c>
-      <c r="B150" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="F150" s="4">
-        <f>F122+F131+G131+F130</f>
+      <c r="P149" s="4">
+        <f>P145+P121</f>
+        <v>5856.9625514657473</v>
+      </c>
+      <c r="R149" s="4">
+        <f>R145+R121</f>
+        <v>4016.5135200279619</v>
+      </c>
+      <c r="S149" s="4">
+        <f>S145+S121</f>
+        <v>1104.4390506143377</v>
+      </c>
+      <c r="U149" s="4">
+        <f>U145+U121</f>
+        <v>3622.7402866978719</v>
+      </c>
+      <c r="V149" s="4">
+        <f>V145+V121</f>
+        <v>2697.284020487552</v>
+      </c>
+      <c r="X149" s="4">
+        <f>X145+X121</f>
+        <v>2870.8046951742554</v>
+      </c>
+      <c r="Y149" s="4">
+        <f>Y145+Y121</f>
+        <v>1064.1398371156843</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A151" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="B151" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="F151" s="4">
+        <f>F123+F132+G132+F131</f>
         <v>2000000</v>
       </c>
-      <c r="I150" s="4">
-        <f>I122+I131+J131</f>
+      <c r="I151" s="4">
+        <f>I123+I132+J132</f>
         <v>2049999.9999999998</v>
       </c>
-      <c r="L150" s="4">
-        <f>L122+L131+M131</f>
+      <c r="L151" s="4">
+        <f>L123+L132+M132</f>
         <v>2110000</v>
       </c>
-      <c r="O150" s="4">
-        <f>O122+O131+P131</f>
+      <c r="O151" s="4">
+        <f>O123+O132+P132</f>
         <v>2210000</v>
       </c>
-      <c r="R150" s="4">
-        <f>R122+R131+S131</f>
-        <v>3000000.0000000005</v>
-      </c>
-      <c r="U150" s="4">
-        <f>U122+U131+V131</f>
-        <v>12243113.814846914</v>
-      </c>
-      <c r="X150" s="4">
-        <f>X122+X131+Y131</f>
-        <v>1794958.0483073131</v>
-      </c>
-    </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="F151" s="4">
-        <f>F150/F32</f>
+      <c r="R151" s="4">
+        <f>R123+R132+S132</f>
+        <v>2999999.9999999995</v>
+      </c>
+      <c r="U151" s="4">
+        <f>U123+U132+V132</f>
+        <v>12243113.77041902</v>
+      </c>
+      <c r="X151" s="4">
+        <f>X123+X132+Y132</f>
+        <v>1794957.9909141983</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="F152" s="4">
+        <f>F151/F32</f>
         <v>1</v>
       </c>
-      <c r="I151" s="4">
-        <f>I150/I32</f>
+      <c r="I152" s="4">
+        <f>I151/I32</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="L151" s="4">
-        <f>L150/L32</f>
+      <c r="L152" s="4">
+        <f>L151/L32</f>
         <v>1</v>
       </c>
-      <c r="O151" s="4">
-        <f>O150/O32</f>
+      <c r="O152" s="4">
+        <f>O151/O32</f>
         <v>1</v>
       </c>
-      <c r="R151" s="4">
-        <f>R150/R32</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="U151" s="4">
-        <f>U150/U32</f>
-        <v>0.48972455259387659</v>
-      </c>
-      <c r="X151" s="4">
-        <f>X150/X32</f>
-        <v>0.71228493980448937</v>
-      </c>
-    </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Z156">
-        <v>0.1225</v>
-      </c>
-      <c r="AA156">
-        <f>SUM(Z$6:Z156)</f>
-        <v>1.2475000000000001</v>
-      </c>
-      <c r="AB156">
-        <v>20</v>
+      <c r="R152" s="4">
+        <f>R151/R32</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="U152" s="4">
+        <f>U151/U32</f>
+        <v>0.48972455081676081</v>
+      </c>
+      <c r="X152" s="4">
+        <f>X151/X32</f>
+        <v>0.71228491702944374</v>
       </c>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z157">
-        <v>0.12239999999999999</v>
+        <v>0.1225</v>
       </c>
       <c r="AA157">
         <f>SUM(Z$6:Z157)</f>
-        <v>1.3699000000000001</v>
+        <v>1.2475000000000001</v>
       </c>
       <c r="AB157">
         <v>20</v>
@@ -12506,52 +12518,64 @@
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z158">
-        <v>0.12230000000000001</v>
+        <v>0.12239999999999999</v>
       </c>
       <c r="AA158">
         <f>SUM(Z$6:Z158)</f>
-        <v>1.4922000000000002</v>
+        <v>1.3699000000000001</v>
       </c>
       <c r="AB158">
         <v>20</v>
       </c>
     </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z159">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="AA159">
+        <f>SUM(Z$6:Z159)</f>
+        <v>1.4922000000000002</v>
+      </c>
+      <c r="AB159">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
     <mergeCell ref="A48:A51"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B78:B82"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="A85:A88"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="D74:D77"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="R5:S5"/>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9899F6F-C232-1241-9D48-CC7CBCB36DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6325D8A9-6329-AD4A-A219-1AE5EC10DAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="760" windowWidth="31100" windowHeight="19860" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="2680" yWindow="760" windowWidth="31100" windowHeight="19860" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="300">
   <si>
     <t>forest_primary_c_ha</t>
   </si>
@@ -922,10 +922,28 @@
     <t>A_r(t + 1)</t>
   </si>
   <si>
-    <t>\alpha_{avail}(t)</t>
-  </si>
-  <si>
-    <t>\bar{S}_{targ}</t>
+    <t>\chi_(t)</t>
+  </si>
+  <si>
+    <t>\check{\alpha}(t)</t>
+  </si>
+  <si>
+    <t>\bar{\alpha}(t)</t>
+  </si>
+  <si>
+    <t>\hat{\alpha}(t)</t>
+  </si>
+  <si>
+    <t>\bar{S}_{targ}(t)</t>
+  </si>
+  <si>
+    <t>k_0</t>
+  </si>
+  <si>
+    <t>\gamma</t>
+  </si>
+  <si>
+    <t>k_{heav}</t>
   </si>
 </sst>
 </file>
@@ -981,7 +999,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1078,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF12501A"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1073,7 +1097,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1220,6 +1244,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6375,8 +6402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
   <dimension ref="A1:AN159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7232,7 +7259,7 @@
         <v>249</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>162</v>
@@ -7293,7 +7320,9 @@
       <c r="A16" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="49" t="s">
+        <v>293</v>
+      </c>
       <c r="C16" s="41" t="s">
         <v>162</v>
       </c>
@@ -7336,7 +7365,9 @@
       <c r="A17" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="49" t="s">
+        <v>294</v>
+      </c>
       <c r="C17" s="41" t="s">
         <v>162</v>
       </c>
@@ -7364,7 +7395,9 @@
       <c r="A18" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="53" t="s">
+        <v>295</v>
+      </c>
       <c r="C18" s="41" t="s">
         <v>162</v>
       </c>
@@ -7390,7 +7423,9 @@
       <c r="A19" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="49" t="s">
+        <v>297</v>
+      </c>
       <c r="C19" s="41" t="s">
         <v>162</v>
       </c>
@@ -7418,7 +7453,9 @@
       <c r="A20" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="49" t="s">
+        <v>298</v>
+      </c>
       <c r="C20" s="41" t="s">
         <v>162</v>
       </c>
@@ -7469,7 +7506,9 @@
       <c r="A22" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="49" t="s">
+        <v>299</v>
+      </c>
       <c r="C22" s="42" t="s">
         <v>174</v>
       </c>

--- a/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
+++ b/sisepuede/ref/validation_workbooks/carbon_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/validation_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3B5766-04CE-9C43-886A-FDD847ED12F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA712FE-16B0-424C-AFA9-3E7216209D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1860" yWindow="500" windowWidth="33680" windowHeight="19400" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
+    <workbookView xWindow="2680" yWindow="760" windowWidth="31100" windowHeight="19860" activeTab="2" xr2:uid="{49B92464-5B50-C04B-B571-E5276F1DC1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="300">
   <si>
     <t>forest_primary_c_ha</t>
   </si>
@@ -896,6 +896,54 @@
   </si>
   <si>
     <t>arr_total_biomass_c_ag_available_from_conversion</t>
+  </si>
+  <si>
+    <t>latex variable</t>
+  </si>
+  <si>
+    <t>A_r(t)</t>
+  </si>
+  <si>
+    <t>A(t)</t>
+  </si>
+  <si>
+    <t>A_{in}(t)</t>
+  </si>
+  <si>
+    <t>A_{out}(t)</t>
+  </si>
+  <si>
+    <t>\hat{a}^{(y)}_{out}(t)</t>
+  </si>
+  <si>
+    <t>a^{(y)}_{out}(t)</t>
+  </si>
+  <si>
+    <t>A_r(t + 1)</t>
+  </si>
+  <si>
+    <t>\chi_(t)</t>
+  </si>
+  <si>
+    <t>\check{\alpha}(t)</t>
+  </si>
+  <si>
+    <t>\bar{\alpha}(t)</t>
+  </si>
+  <si>
+    <t>\hat{\alpha}(t)</t>
+  </si>
+  <si>
+    <t>\bar{S}_{targ}(t)</t>
+  </si>
+  <si>
+    <t>k_0</t>
+  </si>
+  <si>
+    <t>\gamma</t>
+  </si>
+  <si>
+    <t>k_{heav}</t>
   </si>
 </sst>
 </file>
@@ -951,7 +999,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,6 +1078,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF12501A"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1043,7 +1097,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1184,6 +1238,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6337,57 +6400,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F0562-A765-A442-B9DB-CF71D123E451}">
-  <dimension ref="A1:AM159"/>
+  <dimension ref="A1:AN159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.1640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="14" style="36" customWidth="1"/>
-    <col min="3" max="3" width="4.1640625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="27" style="22" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="44" style="10" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="5" customWidth="1"/>
-    <col min="9" max="10" width="13.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="5" customWidth="1"/>
-    <col min="12" max="13" width="13.33203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="21.1640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="22.83203125" style="5" customWidth="1"/>
-    <col min="18" max="19" width="13.33203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.1640625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="12.5" style="4" customWidth="1"/>
-    <col min="23" max="23" width="9.1640625" style="5" customWidth="1"/>
-    <col min="24" max="25" width="13.33203125" style="4" customWidth="1"/>
-    <col min="26" max="28" width="14.6640625" customWidth="1"/>
-    <col min="29" max="31" width="14.1640625" customWidth="1"/>
-    <col min="32" max="32" width="4.1640625" customWidth="1"/>
-    <col min="33" max="33" width="3.33203125" customWidth="1"/>
+    <col min="1" max="2" width="62.1640625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14" style="36" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="27" style="22" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="44" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="5" customWidth="1"/>
+    <col min="10" max="11" width="13.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="5" customWidth="1"/>
+    <col min="13" max="14" width="13.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="21.1640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="22.83203125" style="5" customWidth="1"/>
+    <col min="19" max="20" width="13.33203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="12.5" style="4" customWidth="1"/>
+    <col min="24" max="24" width="9.1640625" style="5" customWidth="1"/>
+    <col min="25" max="26" width="13.33203125" style="4" customWidth="1"/>
+    <col min="27" max="29" width="14.6640625" customWidth="1"/>
+    <col min="30" max="32" width="14.1640625" customWidth="1"/>
+    <col min="33" max="33" width="4.1640625" customWidth="1"/>
+    <col min="34" max="34" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="5">
+      <c r="I1" s="5">
         <v>1</v>
       </c>
-      <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -6404,33 +6467,34 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
-    </row>
-    <row r="2" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="5" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="27">
+      <c r="I2" s="27">
         <v>150</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="4">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="4">
         <v>249700</v>
       </c>
-      <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
@@ -6439,22 +6503,23 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
-    </row>
-    <row r="3" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="27">
+      <c r="I3" s="27">
         <v>30</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -6470,6117 +6535,6263 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:39" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="20">
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:40" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="20">
         <v>1</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="20">
+      <c r="K4" s="20"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="20">
         <v>2</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="20">
+      <c r="N4" s="20"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="20">
         <v>3</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="20">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="20">
         <v>4</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="20">
+      <c r="T4" s="20"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="20">
         <v>5</v>
       </c>
-      <c r="V4" s="20"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="20">
+      <c r="W4" s="20"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="20">
         <v>6</v>
       </c>
-      <c r="Y4" s="20"/>
-      <c r="AC4" s="30" t="s">
+      <c r="Z4" s="20"/>
+      <c r="AD4" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="AD4" s="30"/>
       <c r="AE4" s="30"/>
-      <c r="AJ4" t="s">
+      <c r="AF4" s="30"/>
+      <c r="AK4" t="s">
         <v>94</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>96</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>98</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="E5" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="F5" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="G5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="29" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="29"/>
+      <c r="M5" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="O5" s="29" t="s">
+      <c r="N5" s="29"/>
+      <c r="P5" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="29"/>
-      <c r="R5" s="29" t="s">
+      <c r="Q5" s="29"/>
+      <c r="S5" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="S5" s="29"/>
-      <c r="U5" s="29" t="s">
+      <c r="T5" s="29"/>
+      <c r="V5" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="V5" s="29"/>
-      <c r="X5" s="29" t="s">
+      <c r="W5" s="29"/>
+      <c r="Y5" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="Y5" s="29"/>
-      <c r="AB5" s="46" t="s">
+      <c r="Z5" s="29"/>
+      <c r="AC5" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="AC5" s="21" t="s">
+      <c r="AD5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AD5" s="21" t="s">
+      <c r="AE5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="21" t="s">
+      <c r="AF5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>94</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>96</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>99</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B6" s="39"/>
-      <c r="F6" s="4" t="s">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="C6" s="39"/>
+      <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="19">
-        <v>0</v>
-      </c>
       <c r="AD6" s="19">
-        <f>SUM(AC$6:AC6)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="19">
+        <f>SUM(AD$6:AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="19">
         <v>2</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>94</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>97</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>98</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>10000</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>250000</v>
-      </c>
-      <c r="I7" s="4">
-        <f>F13</f>
-        <v>9950</v>
       </c>
       <c r="J7" s="4">
         <f>G13</f>
+        <v>9950</v>
+      </c>
+      <c r="K7" s="4">
+        <f>H13</f>
         <v>249900</v>
-      </c>
-      <c r="L7" s="4">
-        <f>I13</f>
-        <v>9888</v>
       </c>
       <c r="M7" s="4">
         <f>J13</f>
+        <v>9888</v>
+      </c>
+      <c r="N7" s="4">
+        <f>K13</f>
         <v>249790</v>
-      </c>
-      <c r="O7" s="4">
-        <f>L13</f>
-        <v>9830</v>
       </c>
       <c r="P7" s="4">
         <f>M13</f>
+        <v>9830</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>N13</f>
         <v>249696</v>
-      </c>
-      <c r="R7" s="4">
-        <f>O13</f>
-        <v>9760</v>
       </c>
       <c r="S7" s="4">
         <f>P13</f>
+        <v>9760</v>
+      </c>
+      <c r="T7" s="4">
+        <f>Q13</f>
         <v>249504</v>
-      </c>
-      <c r="U7" s="4">
-        <f>R13</f>
-        <v>9660</v>
       </c>
       <c r="V7" s="4">
         <f>S13</f>
+        <v>9660</v>
+      </c>
+      <c r="W7" s="4">
+        <f>T13</f>
         <v>249465</v>
       </c>
-      <c r="X7" s="4">
-        <f>U7-U9</f>
+      <c r="Y7" s="4">
+        <f>V7-V9</f>
         <v>9562</v>
       </c>
-      <c r="Y7" s="4">
-        <f>MAX(V7-V9,0)</f>
+      <c r="Z7" s="4">
+        <f>MAX(W7-W9,0)</f>
         <v>249360</v>
       </c>
-      <c r="AC7" s="19">
+      <c r="AD7" s="19">
         <v>0.01</v>
       </c>
-      <c r="AD7" s="19">
-        <f>SUM(AC$6:AC7)</f>
+      <c r="AE7" s="19">
+        <f>SUM(AD$6:AD7)</f>
         <v>0.01</v>
       </c>
-      <c r="AE7" s="19">
+      <c r="AF7" s="19">
         <v>2</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>94</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>97</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>99</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="F8" s="4">
-        <f>F7</f>
-        <v>10000</v>
       </c>
       <c r="G8" s="4">
         <f>G7</f>
+        <v>10000</v>
+      </c>
+      <c r="H8" s="4">
+        <f>H7</f>
         <v>250000</v>
       </c>
-      <c r="I8" s="4">
-        <f>I7</f>
+      <c r="J8" s="4">
+        <f>J7</f>
         <v>9950</v>
       </c>
-      <c r="J8" s="4">
-        <f>G8-G9+G12</f>
+      <c r="K8" s="4">
+        <f>H8-H9+H12</f>
         <v>249985</v>
       </c>
-      <c r="L8" s="4">
-        <f>L7</f>
+      <c r="M8" s="4">
+        <f>M7</f>
         <v>9888</v>
       </c>
-      <c r="M8" s="4">
-        <f>J8-J9+J12</f>
+      <c r="N8" s="4">
+        <f>K8-K9+K12</f>
         <v>249955</v>
       </c>
-      <c r="O8" s="4">
-        <f>O7</f>
+      <c r="P8" s="4">
+        <f>P7</f>
         <v>9830</v>
       </c>
-      <c r="P8" s="4">
-        <f>M8-M9+M12</f>
+      <c r="Q8" s="4">
+        <f>N8-N9+N12</f>
         <v>249953</v>
       </c>
-      <c r="R8" s="4">
-        <f>R7</f>
+      <c r="S8" s="4">
+        <f>S7</f>
         <v>9760</v>
       </c>
-      <c r="S8" s="4">
-        <f>P8-P9+P12</f>
+      <c r="T8" s="4">
+        <f>Q8-Q9+Q12</f>
         <v>249804</v>
       </c>
-      <c r="U8" s="4">
-        <f>U7</f>
+      <c r="V8" s="4">
+        <f>V7</f>
         <v>9660</v>
       </c>
-      <c r="V8" s="4">
-        <f>S8-S9+S12</f>
+      <c r="W8" s="4">
+        <f>T8-T9+T12</f>
         <v>249857</v>
       </c>
-      <c r="X8" s="4">
-        <f>X7</f>
+      <c r="Y8" s="4">
+        <f>Y7</f>
         <v>9562</v>
       </c>
-      <c r="Y8" s="4">
-        <f>V8-V9+V12</f>
+      <c r="Z8" s="4">
+        <f>W8-W9+W12</f>
         <v>249801</v>
       </c>
-      <c r="AC8" s="19">
+      <c r="AD8" s="19">
         <v>0.05</v>
       </c>
-      <c r="AD8" s="19">
-        <f>SUM(AC$6:AC8)</f>
+      <c r="AE8" s="19">
+        <f>SUM(AD$6:AD8)</f>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="AE8" s="19">
+      <c r="AF8" s="19">
         <v>2</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>95</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>96</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>99</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>50</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>100</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>62</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>110</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>58</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>94</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>70</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>192</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>100</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <v>39</v>
       </c>
-      <c r="U9" s="4">
+      <c r="V9" s="4">
         <v>98</v>
       </c>
-      <c r="V9" s="4">
+      <c r="W9" s="4">
         <v>105</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <v>98</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Z9" s="4">
+        <v>116</v>
+      </c>
+      <c r="AD9" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="AE9" s="19">
+        <f>SUM(AD$6:AD9)</f>
+        <v>0.18</v>
+      </c>
+      <c r="AF9" s="19">
+        <v>2</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN9" t="s">
         <v>105</v>
       </c>
-      <c r="AC9" s="19">
-        <v>0.12</v>
-      </c>
-      <c r="AD9" s="19">
-        <f>SUM(AC$6:AC9)</f>
-        <v>0.18</v>
-      </c>
-      <c r="AE9" s="19">
-        <v>2</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:40" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="4">
-        <f>-MIN(G7-G9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f>-MIN(J7-J9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <f>-MIN(M7-M9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <f>-MIN(P7-P9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="4">
-        <f>-MIN(S7-S9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="4">
-        <f>-MIN(V7-V9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4">
-        <f>-MIN(Y7-Y9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="19">
+      <c r="H10" s="4">
+        <f>-MIN(H7-H9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f>-MIN(K7-K9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <f>-MIN(N7-N9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>-MIN(Q7-Q9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <f>-MIN(T7-T9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <f>-MIN(W7-W9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <f>-MIN(Z7-Z9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="19">
         <v>0.2</v>
       </c>
-      <c r="AD10" s="19">
-        <f>SUM(AC$6:AC10)</f>
+      <c r="AE10" s="19">
+        <f>SUM(AD$6:AD10)</f>
         <v>0.38</v>
       </c>
-      <c r="AE10" s="19">
+      <c r="AF10" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="4">
-        <f>MAX(G10-G25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <f>MAX(J10-J25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <f>MAX(M10-M25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <f>MAX(P10-P25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
-        <f>MAX(S10-S25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="4">
-        <f>MAX(V10-V25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="4">
-        <f>MAX(Y10-Y25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="19">
+      <c r="H11" s="4">
+        <f>MAX(H10-H25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>MAX(K10-K25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f>MAX(N10-N25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>MAX(Q10-Q25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <f>MAX(T10-T25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <f>MAX(W10-W25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <f>MAX(Z10-Z25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="19">
         <v>0.2</v>
       </c>
-      <c r="AD11" s="19">
-        <f>SUM(AC$6:AC11)</f>
+      <c r="AE11" s="19">
+        <f>SUM(AD$6:AD11)</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="AE11" s="19">
+      <c r="AF11" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>85</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>80</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>92</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>43</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <v>92</v>
       </c>
-      <c r="V12" s="4">
+      <c r="W12" s="4">
         <v>49</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Z12" s="4">
         <v>110</v>
       </c>
-      <c r="AC12" s="19">
+      <c r="AD12" s="19">
         <v>0.36</v>
       </c>
-      <c r="AD12" s="19">
-        <f>SUM(AC$6:AC12)</f>
+      <c r="AE12" s="19">
+        <f>SUM(AD$6:AD12)</f>
         <v>0.94000000000000006</v>
       </c>
-      <c r="AE12" s="19">
+      <c r="AF12" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="4">
-        <f>MAX(F7-F9,0)</f>
-        <v>9950</v>
       </c>
       <c r="G13" s="4">
         <f>MAX(G7-G9,0)</f>
+        <v>9950</v>
+      </c>
+      <c r="H13" s="4">
+        <f>MAX(H7-H9,0)</f>
         <v>249900</v>
-      </c>
-      <c r="I13" s="4">
-        <f>MAX(I7-I9,0)</f>
-        <v>9888</v>
       </c>
       <c r="J13" s="4">
         <f>MAX(J7-J9,0)</f>
+        <v>9888</v>
+      </c>
+      <c r="K13" s="4">
+        <f>MAX(K7-K9,0)</f>
         <v>249790</v>
-      </c>
-      <c r="L13" s="4">
-        <f>MAX(L7-L9,0)</f>
-        <v>9830</v>
       </c>
       <c r="M13" s="4">
         <f>MAX(M7-M9,0)</f>
+        <v>9830</v>
+      </c>
+      <c r="N13" s="4">
+        <f>MAX(N7-N9,0)</f>
         <v>249696</v>
-      </c>
-      <c r="O13" s="4">
-        <f>MAX(O7-O9,0)</f>
-        <v>9760</v>
       </c>
       <c r="P13" s="4">
         <f>MAX(P7-P9,0)</f>
+        <v>9760</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>MAX(Q7-Q9,0)</f>
         <v>249504</v>
-      </c>
-      <c r="R13" s="4">
-        <f>MAX(R7-R9,0)</f>
-        <v>9660</v>
       </c>
       <c r="S13" s="4">
         <f>MAX(S7-S9,0)</f>
+        <v>9660</v>
+      </c>
+      <c r="T13" s="4">
+        <f>MAX(T7-T9,0)</f>
         <v>249465</v>
-      </c>
-      <c r="U13" s="4">
-        <f>MAX(U7-U9,0)</f>
-        <v>9562</v>
       </c>
       <c r="V13" s="4">
         <f>MAX(V7-V9,0)</f>
+        <v>9562</v>
+      </c>
+      <c r="W13" s="4">
+        <f>MAX(W7-W9,0)</f>
         <v>249360</v>
-      </c>
-      <c r="X13" s="4">
-        <f>MAX(X7-X9,0)</f>
-        <v>9464</v>
       </c>
       <c r="Y13" s="4">
         <f>MAX(Y7-Y9,0)</f>
-        <v>249255</v>
-      </c>
-      <c r="AC13" s="19"/>
+        <v>9464</v>
+      </c>
+      <c r="Z13" s="4">
+        <f>MAX(Z7-Z9,0)</f>
+        <v>249244</v>
+      </c>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
-    </row>
-    <row r="14" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF13" s="19"/>
+    </row>
+    <row r="14" spans="1:40" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>0.7</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>0.7</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>0.7</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>0.7</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>0.7</v>
       </c>
-      <c r="U14" s="4">
+      <c r="V14" s="4">
         <v>0.7</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Y14" s="4">
         <v>0.7</v>
       </c>
-      <c r="AC14" s="19">
+      <c r="AD14" s="19">
         <v>0.6</v>
       </c>
-      <c r="AD14" s="19">
-        <f>SUM(AC$6:AC14)</f>
+      <c r="AE14" s="19">
+        <f>SUM(AD$6:AD14)</f>
         <v>1.54</v>
       </c>
-      <c r="AE14" s="19">
+      <c r="AF14" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>5</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>10</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>5.2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>4.7</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q15" s="4">
         <v>9.9</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <v>5.2</v>
       </c>
-      <c r="S15" s="4">
+      <c r="T15" s="4">
         <v>10.1</v>
       </c>
-      <c r="U15" s="4">
+      <c r="V15" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="V15" s="4">
+      <c r="W15" s="4">
         <v>11</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Y15" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Z15" s="4">
         <v>9</v>
       </c>
-      <c r="AC15" s="19"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
-    </row>
-    <row r="16" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+      <c r="AF15" s="19"/>
+    </row>
+    <row r="16" spans="1:40" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>1E-3</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.3</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>0.3</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>0.3</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <v>0.3</v>
       </c>
-      <c r="U16" s="4">
+      <c r="V16" s="4">
         <v>0.3</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Y16" s="4">
         <v>0.3</v>
       </c>
-      <c r="AC16" s="19">
+      <c r="AD16" s="19">
         <v>1.8</v>
       </c>
-      <c r="AD16" s="19">
-        <f>SUM(AC$6:AC16)</f>
+      <c r="AE16" s="19">
+        <f>SUM(AD$6:AD16)</f>
         <v>3.34</v>
       </c>
-      <c r="AE16" s="19">
+      <c r="AF16" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="E17" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.2</v>
       </c>
-      <c r="AC17" s="19">
+      <c r="AD17" s="19">
         <v>3</v>
       </c>
-      <c r="AD17" s="19">
-        <f>SUM(AC$6:AC17)</f>
+      <c r="AE17" s="19">
+        <f>SUM(AD$6:AD17)</f>
         <v>6.34</v>
       </c>
-      <c r="AE17" s="19">
+      <c r="AF17" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>0.67</v>
       </c>
-      <c r="AC18" s="19">
+      <c r="AD18" s="19">
         <v>6</v>
       </c>
-      <c r="AD18" s="19">
-        <f>SUM(AC$6:AC18)</f>
+      <c r="AE18" s="19">
+        <f>SUM(AD$6:AD18)</f>
         <v>12.34</v>
       </c>
-      <c r="AE18" s="19">
+      <c r="AF18" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>150</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>100</v>
       </c>
-      <c r="AC19" s="19">
+      <c r="AD19" s="19">
         <v>10</v>
       </c>
-      <c r="AD19" s="19">
-        <f>SUM(AC$6:AC19)</f>
+      <c r="AE19" s="19">
+        <f>SUM(AD$6:AD19)</f>
         <v>22.34</v>
       </c>
-      <c r="AE19" s="19">
+      <c r="AF19" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>0.3</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>0.25</v>
       </c>
-      <c r="AC20" s="19"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
-    </row>
-    <row r="21" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AF20" s="19"/>
+    </row>
+    <row r="21" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="4">
-        <f>F$19*$F$16</f>
+      <c r="G21" s="4">
+        <f>G$19*$G$16</f>
         <v>0.15</v>
       </c>
-      <c r="G21" s="4">
-        <f>G$19*$F$16</f>
+      <c r="H21" s="4">
+        <f>H$19*$G$16</f>
         <v>0.1</v>
       </c>
-      <c r="AC21" s="19">
+      <c r="AD21" s="19">
         <v>12</v>
       </c>
-      <c r="AD21" s="19">
-        <f>SUM(AC$6:AC21)</f>
+      <c r="AE21" s="19">
+        <f>SUM(AD$6:AD21)</f>
         <v>34.340000000000003</v>
       </c>
-      <c r="AE21" s="19">
+      <c r="AF21" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="F22" s="4">
-        <f>F19-F21</f>
-        <v>149.85</v>
       </c>
       <c r="G22" s="4">
         <f>G19-G21</f>
+        <v>149.85</v>
+      </c>
+      <c r="H22" s="4">
+        <f>H19-H21</f>
         <v>99.9</v>
       </c>
-      <c r="AC22" s="19">
+      <c r="AD22" s="19">
         <v>13.5</v>
       </c>
-      <c r="AD22" s="19">
-        <f>SUM(AC$6:AC22)</f>
+      <c r="AE22" s="19">
+        <f>SUM(AD$6:AD22)</f>
         <v>47.84</v>
       </c>
-      <c r="AE22" s="19">
+      <c r="AF22" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AC23" s="19">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AD23" s="19">
         <v>12</v>
       </c>
-      <c r="AD23" s="19">
-        <f>SUM(AC$6:AC23)</f>
+      <c r="AE23" s="19">
+        <f>SUM(AD$6:AD23)</f>
         <v>59.84</v>
       </c>
-      <c r="AE23" s="19">
+      <c r="AF23" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="49"/>
+      <c r="C24" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>5000</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>50000</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>5000</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>50000</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>5500</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <v>50000</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <v>6000</v>
       </c>
-      <c r="P24" s="4">
+      <c r="Q24" s="4">
         <v>50000</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <v>6500</v>
       </c>
-      <c r="S24" s="4">
+      <c r="T24" s="4">
         <v>49000</v>
       </c>
-      <c r="U24" s="4">
+      <c r="V24" s="4">
         <v>7200</v>
       </c>
-      <c r="V24" s="4">
+      <c r="W24" s="4">
         <v>49500</v>
       </c>
-      <c r="X24" s="4">
+      <c r="Y24" s="4">
         <v>7200</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="Z24" s="4">
         <v>49500</v>
       </c>
-      <c r="AC24" s="19">
+      <c r="AD24" s="19">
         <v>10</v>
       </c>
-      <c r="AD24" s="19">
-        <f>SUM(AC$6:AC24)</f>
+      <c r="AE24" s="19">
+        <f>SUM(AD$6:AD24)</f>
         <v>69.84</v>
       </c>
-      <c r="AE24" s="19">
+      <c r="AF24" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="F25" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="4">
-        <f>MAX(G$24-G$13, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <f>MAX(J$24-J$13, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="4">
-        <f>MAX(M$24-M$13, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="4">
-        <f>MAX(P$24-P$13, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="4">
-        <f>MAX(S$24-S$13, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="4">
-        <f>MAX(V$24-V$13, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="4">
-        <f>MAX(Y$24-Y$13, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="19">
+      <c r="H25" s="4">
+        <f>MAX(H$24-H$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f>MAX(K$24-K$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <f>MAX(N$24-N$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>MAX(Q$24-Q$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <f>MAX(T$24-T$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <f>MAX(W$24-W$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4">
+        <f>MAX(Z$24-Z$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="19">
         <v>6</v>
       </c>
-      <c r="AD25" s="19">
-        <f>SUM(AC$6:AC25)</f>
+      <c r="AE25" s="19">
+        <f>SUM(AD$6:AD25)</f>
         <v>75.84</v>
       </c>
-      <c r="AE25" s="19">
+      <c r="AF25" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="49"/>
+      <c r="C26" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="F26" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="F26" s="4">
-        <f>MIN(F13,F24)</f>
-        <v>5000</v>
       </c>
       <c r="G26" s="4">
         <f>MIN(G13,G24)</f>
+        <v>5000</v>
+      </c>
+      <c r="H26" s="4">
+        <f>MIN(H13,H24)</f>
         <v>50000</v>
-      </c>
-      <c r="I26" s="4">
-        <f>MIN(I13,I24)</f>
-        <v>5000</v>
       </c>
       <c r="J26" s="4">
         <f>MIN(J13,J24)</f>
+        <v>5000</v>
+      </c>
+      <c r="K26" s="4">
+        <f>MIN(K13,K24)</f>
         <v>50000</v>
-      </c>
-      <c r="L26" s="4">
-        <f>MIN(L13,L24)</f>
-        <v>5500</v>
       </c>
       <c r="M26" s="4">
         <f>MIN(M13,M24)</f>
+        <v>5500</v>
+      </c>
+      <c r="N26" s="4">
+        <f>MIN(N13,N24)</f>
         <v>50000</v>
-      </c>
-      <c r="O26" s="4">
-        <f>MIN(O13,O24)</f>
-        <v>6000</v>
       </c>
       <c r="P26" s="4">
         <f>MIN(P13,P24)</f>
+        <v>6000</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>MIN(Q13,Q24)</f>
         <v>50000</v>
-      </c>
-      <c r="R26" s="4">
-        <f>MIN(R13,R24)</f>
-        <v>6500</v>
       </c>
       <c r="S26" s="4">
         <f>MIN(S13,S24)</f>
+        <v>6500</v>
+      </c>
+      <c r="T26" s="4">
+        <f>MIN(T13,T24)</f>
         <v>49000</v>
-      </c>
-      <c r="U26" s="4">
-        <f>MIN(U13,U24)</f>
-        <v>7200</v>
       </c>
       <c r="V26" s="4">
         <f>MIN(V13,V24)</f>
+        <v>7200</v>
+      </c>
+      <c r="W26" s="4">
+        <f>MIN(W13,W24)</f>
         <v>49500</v>
-      </c>
-      <c r="X26" s="4">
-        <f>MIN(X13,X24)</f>
-        <v>7200</v>
       </c>
       <c r="Y26" s="4">
         <f>MIN(Y13,Y24)</f>
+        <v>7200</v>
+      </c>
+      <c r="Z26" s="4">
+        <f>MIN(Z13,Z24)</f>
         <v>49500</v>
       </c>
-      <c r="AC26" s="19">
+      <c r="AD26" s="19">
         <v>3</v>
       </c>
-      <c r="AD26" s="19">
-        <f>SUM(AC$6:AC26)</f>
+      <c r="AE26" s="19">
+        <f>SUM(AD$6:AD26)</f>
         <v>78.84</v>
       </c>
-      <c r="AE26" s="19">
+      <c r="AF26" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="E27" s="15" t="s">
+    <row r="27" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="F27" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="H27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="K27" s="8"/>
       <c r="M27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="N27" s="8"/>
       <c r="P27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="Q27" s="8"/>
       <c r="S27" s="8"/>
-      <c r="U27" s="8"/>
+      <c r="T27" s="8"/>
       <c r="V27" s="8"/>
-      <c r="X27" s="8"/>
+      <c r="W27" s="8"/>
       <c r="Y27" s="8"/>
-      <c r="AC27" s="19">
+      <c r="Z27" s="8"/>
+      <c r="AD27" s="19">
         <v>1.8</v>
       </c>
-      <c r="AD27" s="19">
-        <f>SUM(AC$6:AC27)</f>
+      <c r="AE27" s="19">
+        <f>SUM(AD$6:AD27)</f>
         <v>80.64</v>
       </c>
-      <c r="AE27" s="19">
+      <c r="AF27" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="49"/>
+      <c r="C28" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="E28" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="F28" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>0.3</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>0.92</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="49"/>
+      <c r="C29" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="4">
-        <f>F28/F19</f>
+      <c r="G29" s="4">
+        <f>G28/G19</f>
         <v>2E-3</v>
       </c>
-      <c r="G29" s="4">
-        <f>F29</f>
+      <c r="H29" s="4">
+        <f>G29</f>
         <v>2E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="E31" s="15" t="s">
+    <row r="30" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="35"/>
+    </row>
+    <row r="31" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="F31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="K31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="O31" s="8"/>
+      <c r="N31" s="8"/>
       <c r="P31" s="8"/>
-      <c r="R31" s="8"/>
+      <c r="Q31" s="8"/>
       <c r="S31" s="8"/>
-      <c r="U31" s="8"/>
+      <c r="T31" s="8"/>
       <c r="V31" s="8"/>
-      <c r="X31" s="8"/>
+      <c r="W31" s="8"/>
       <c r="Y31" s="8"/>
-    </row>
-    <row r="32" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="Z31" s="8"/>
+    </row>
+    <row r="32" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="49"/>
+      <c r="C32" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>2000000</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <v>2050000</v>
       </c>
-      <c r="L32" s="4">
+      <c r="M32" s="4">
         <v>2110000</v>
       </c>
-      <c r="O32" s="4">
+      <c r="P32" s="4">
         <v>2210000</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="4">
         <v>3000000</v>
       </c>
-      <c r="U32" s="4">
+      <c r="V32" s="4">
         <v>25000000</v>
       </c>
-      <c r="X32" s="4">
+      <c r="Y32" s="4">
         <v>2520000</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="E34" s="11" t="s">
+    <row r="34" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="F34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="12"/>
       <c r="G34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="H34" s="12"/>
       <c r="J34" s="12"/>
-      <c r="L34" s="12"/>
+      <c r="K34" s="12"/>
       <c r="M34" s="12"/>
-      <c r="O34" s="12"/>
+      <c r="N34" s="12"/>
       <c r="P34" s="12"/>
-      <c r="R34" s="12"/>
+      <c r="Q34" s="12"/>
       <c r="S34" s="12"/>
-      <c r="U34" s="12"/>
+      <c r="T34" s="12"/>
       <c r="V34" s="12"/>
-      <c r="X34" s="12"/>
+      <c r="W34" s="12"/>
       <c r="Y34" s="12"/>
-    </row>
-    <row r="35" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="E35" s="15" t="s">
+      <c r="Z34" s="12"/>
+    </row>
+    <row r="35" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="F35" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="I35" s="4" t="s">
+      <c r="H35" s="8"/>
+      <c r="J35" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="O35" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="P35" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="F36" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="5">
-        <f>SUM(J$36:J36)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="4">
-        <v>0</v>
-      </c>
-      <c r="K36" s="5">
-        <f>SUM(M$36:M36)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="4">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5">
-        <f>SUM(P$36:P36)</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="5">
-        <f>SUM(S$36:S36)</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="4">
-        <v>0</v>
-      </c>
-      <c r="T36" s="5">
-        <f>SUM(V$36:V36)</f>
-        <v>0</v>
-      </c>
-      <c r="V36" s="4">
-        <v>0</v>
-      </c>
-      <c r="W36" s="5">
-        <f>SUM(Y$36:Y36)</f>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <f>SUM(K$36:K36)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <f>SUM(N$36:N36)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <f>SUM(Q$36:Q36)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>0</v>
+      </c>
+      <c r="R36" s="5">
+        <f>SUM(T$36:T36)</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="4">
+        <v>0</v>
+      </c>
+      <c r="U36" s="5">
+        <f>SUM(W$36:W36)</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="4">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5">
+        <f>SUM(Z$36:Z36)</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="51"/>
+      <c r="C37" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="F37" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
       <c r="G37" s="4">
-        <f>G12</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <f>H12</f>
         <v>85</v>
       </c>
-      <c r="H37" s="5">
-        <f>SUM(G$36:G37)</f>
+      <c r="I37" s="5">
+        <f>SUM(H$36:H37)</f>
         <v>85</v>
       </c>
-      <c r="I37" s="4">
-        <f>IF(H37&gt;=J$11, IF(H36&lt;J$11, J$11-H36, 0),G37)</f>
-        <v>0</v>
-      </c>
       <c r="J37" s="4">
-        <f>G37-I37</f>
+        <f>IF(I37&gt;=K$11, IF(I36&lt;K$11, K$11-I36, 0),H37)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <f>H37-J37</f>
         <v>85</v>
       </c>
-      <c r="K37" s="5">
-        <f>SUM(J$36:J37)</f>
+      <c r="L37" s="5">
+        <f>SUM(K$36:K37)</f>
         <v>85</v>
       </c>
-      <c r="L37" s="4">
-        <f>IF(K37&gt;=M$11, IF(K36&lt;M$11, M$11-K36, 0),J37)</f>
-        <v>0</v>
-      </c>
       <c r="M37" s="4">
-        <f>J37-L37</f>
+        <f>IF(L37&gt;=N$11, IF(L36&lt;N$11, N$11-L36, 0),K37)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <f>K37-M37</f>
         <v>85</v>
       </c>
-      <c r="N37" s="5">
-        <f>SUM(M$36:M37)</f>
+      <c r="O37" s="5">
+        <f>SUM(N$36:N37)</f>
         <v>85</v>
       </c>
-      <c r="O37" s="4">
-        <f>IF(N37&gt;=P$11, IF(N36&lt;P$11, P$11-N36, 0),M37)</f>
-        <v>0</v>
-      </c>
       <c r="P37" s="4">
-        <f>M37-O37</f>
+        <f>IF(O37&gt;=Q$11, IF(O36&lt;Q$11, Q$11-O36, 0),N37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
+        <f>N37-P37</f>
         <v>85</v>
       </c>
-      <c r="Q37" s="5">
-        <f>SUM(P$36:P37)</f>
+      <c r="R37" s="5">
+        <f>SUM(Q$36:Q37)</f>
         <v>85</v>
       </c>
-      <c r="R37" s="4">
-        <f>IF(Q37&gt;=S$11, IF(Q36&lt;S$11, S$11-Q36, 0),P37)</f>
-        <v>0</v>
-      </c>
       <c r="S37" s="4">
-        <f>P37-R37</f>
+        <f>IF(R37&gt;=T$11, IF(R36&lt;T$11, T$11-R36, 0),Q37)</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="4">
+        <f>Q37-S37</f>
         <v>85</v>
       </c>
-      <c r="T37" s="5">
-        <f>SUM(S$36:S37)</f>
+      <c r="U37" s="5">
+        <f>SUM(T$36:T37)</f>
         <v>85</v>
       </c>
-      <c r="U37" s="4">
-        <f>IF(T37&gt;=V$11, IF(T36&lt;V$11, V$11-T36, 0),S37)</f>
-        <v>0</v>
-      </c>
       <c r="V37" s="4">
-        <f>S37-U37</f>
+        <f>IF(U37&gt;=W$11, IF(U36&lt;W$11, W$11-U36, 0),T37)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="4">
+        <f>T37-V37</f>
         <v>85</v>
       </c>
-      <c r="W37" s="5">
-        <f>SUM(V$36:V37)</f>
+      <c r="X37" s="5">
+        <f>SUM(W$36:W37)</f>
         <v>85</v>
       </c>
-      <c r="X37" s="4">
-        <f>IF(W37&gt;=Y$11, IF(W36&lt;Y$11, Y$11-W36, 0),V37)</f>
-        <v>0</v>
-      </c>
       <c r="Y37" s="4">
-        <f>V37-X37</f>
+        <f>IF(X37&gt;=Z$11, IF(X36&lt;Z$11, Z$11-X36, 0),W37)</f>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="4">
+        <f>W37-Y37</f>
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
-      <c r="B38" s="37"/>
-      <c r="E38" s="14" t="s">
+      <c r="B38" s="49"/>
+      <c r="C38" s="37"/>
+      <c r="F38" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
       <c r="G38" s="4">
         <v>0</v>
       </c>
-      <c r="H38" s="5">
-        <f>SUM(G$36:G38)</f>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <f>SUM(H$36:H38)</f>
         <v>85</v>
       </c>
-      <c r="I38" s="4">
-        <f>IF(H38&gt;=J$11, IF(H37&lt;J$11, J$11-H37, 0),G38)</f>
-        <v>0</v>
-      </c>
       <c r="J38" s="4">
-        <f>J12</f>
+        <f>IF(I38&gt;=K$11, IF(I37&lt;K$11, K$11-I37, 0),H38)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <f>K12</f>
         <v>80</v>
       </c>
-      <c r="K38" s="5">
-        <f>SUM(J$36:J38)</f>
+      <c r="L38" s="5">
+        <f>SUM(K$36:K38)</f>
         <v>165</v>
       </c>
-      <c r="L38" s="4">
-        <f>IF(K38&gt;=M$11, IF(K37&lt;M$11, M$11-K37, 0),J38)</f>
-        <v>0</v>
-      </c>
       <c r="M38" s="4">
-        <f>J38-L38</f>
+        <f>IF(L38&gt;=N$11, IF(L37&lt;N$11, N$11-L37, 0),K38)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <f>K38-M38</f>
         <v>80</v>
       </c>
-      <c r="N38" s="5">
-        <f>SUM(M$36:M38)</f>
+      <c r="O38" s="5">
+        <f>SUM(N$36:N38)</f>
         <v>165</v>
       </c>
-      <c r="O38" s="4">
-        <f t="shared" ref="O38:O40" si="0">IF(N38&gt;=P$11, IF(N37&lt;P$11, P$11-N37, 0),M38)</f>
-        <v>0</v>
-      </c>
       <c r="P38" s="4">
-        <f>M38-O38</f>
+        <f t="shared" ref="P38:P40" si="0">IF(O38&gt;=Q$11, IF(O37&lt;Q$11, Q$11-O37, 0),N38)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <f>N38-P38</f>
         <v>80</v>
       </c>
-      <c r="Q38" s="5">
-        <f>SUM(P$36:P38)</f>
+      <c r="R38" s="5">
+        <f>SUM(Q$36:Q38)</f>
         <v>165</v>
       </c>
-      <c r="R38" s="4">
-        <f t="shared" ref="R38:R40" si="1">IF(Q38&gt;=S$11, IF(Q37&lt;S$11, S$11-Q37, 0),P38)</f>
-        <v>0</v>
-      </c>
       <c r="S38" s="4">
-        <f>P38-R38</f>
+        <f t="shared" ref="S38:S40" si="1">IF(R38&gt;=T$11, IF(R37&lt;T$11, T$11-R37, 0),Q38)</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="4">
+        <f>Q38-S38</f>
         <v>80</v>
       </c>
-      <c r="T38" s="5">
-        <f>SUM(S$36:S38)</f>
+      <c r="U38" s="5">
+        <f>SUM(T$36:T38)</f>
         <v>165</v>
       </c>
-      <c r="U38" s="4">
-        <f t="shared" ref="U38:U40" si="2">IF(T38&gt;=V$11, IF(T37&lt;V$11, V$11-T37, 0),S38)</f>
-        <v>0</v>
-      </c>
       <c r="V38" s="4">
-        <f>S38-U38</f>
+        <f t="shared" ref="V38:V40" si="2">IF(U38&gt;=W$11, IF(U37&lt;W$11, W$11-U37, 0),T38)</f>
+        <v>0</v>
+      </c>
+      <c r="W38" s="4">
+        <f>T38-V38</f>
         <v>80</v>
       </c>
-      <c r="W38" s="5">
-        <f>SUM(V$36:V38)</f>
+      <c r="X38" s="5">
+        <f>SUM(W$36:W38)</f>
         <v>165</v>
       </c>
-      <c r="X38" s="4">
-        <f t="shared" ref="X38:X40" si="3">IF(W38&gt;=Y$11, IF(W37&lt;Y$11, Y$11-W37, 0),V38)</f>
-        <v>0</v>
-      </c>
       <c r="Y38" s="4">
-        <f>V38-X38</f>
+        <f t="shared" ref="Y38:Y40" si="3">IF(X38&gt;=Z$11, IF(X37&lt;Z$11, Z$11-X37, 0),W38)</f>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="4">
+        <f>W38-Y38</f>
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="48"/>
-      <c r="B39" s="37"/>
-      <c r="E39" s="14" t="s">
+      <c r="B39" s="49"/>
+      <c r="C39" s="37"/>
+      <c r="F39" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
       <c r="G39" s="4">
         <v>0</v>
       </c>
-      <c r="H39" s="5">
-        <f>SUM(G$36:G39)</f>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f>SUM(H$36:H39)</f>
         <v>85</v>
       </c>
-      <c r="I39" s="4">
-        <f>IF(H39&gt;=J$11, IF(H38&lt;J$11, J$11-H38, 0),G39)</f>
-        <v>0</v>
-      </c>
       <c r="J39" s="4">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5">
-        <f>SUM(J$36:J39)</f>
+        <f>IF(I39&gt;=K$11, IF(I38&lt;K$11, K$11-I38, 0),H39)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <f>SUM(K$36:K39)</f>
         <v>165</v>
       </c>
-      <c r="L39" s="4">
-        <f t="shared" ref="L39:L40" si="4">IF(K39&gt;=M$11, IF(K38&lt;M$11, M$11-K38, 0),J39)</f>
-        <v>0</v>
-      </c>
       <c r="M39" s="4">
-        <f>M12</f>
+        <f t="shared" ref="M39:M40" si="4">IF(L39&gt;=N$11, IF(L38&lt;N$11, N$11-L38, 0),K39)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <f>N12</f>
         <v>92</v>
       </c>
-      <c r="N39" s="5">
-        <f>SUM(M$36:M39)</f>
+      <c r="O39" s="5">
+        <f>SUM(N$36:N39)</f>
         <v>257</v>
       </c>
-      <c r="O39" s="4">
+      <c r="P39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P39" s="4">
-        <f>M39-O39</f>
+      <c r="Q39" s="4">
+        <f>N39-P39</f>
         <v>92</v>
       </c>
-      <c r="Q39" s="5">
-        <f>SUM(P$36:P39)</f>
+      <c r="R39" s="5">
+        <f>SUM(Q$36:Q39)</f>
         <v>257</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S39" s="4">
-        <f>P39-R39</f>
+      <c r="T39" s="4">
+        <f>Q39-S39</f>
         <v>92</v>
       </c>
-      <c r="T39" s="5">
-        <f>SUM(S$36:S39)</f>
+      <c r="U39" s="5">
+        <f>SUM(T$36:T39)</f>
         <v>257</v>
       </c>
-      <c r="U39" s="4">
+      <c r="V39" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V39" s="4">
-        <f>S39-U39</f>
+      <c r="W39" s="4">
+        <f>T39-V39</f>
         <v>92</v>
       </c>
-      <c r="W39" s="5">
-        <f>SUM(V$36:V39)</f>
+      <c r="X39" s="5">
+        <f>SUM(W$36:W39)</f>
         <v>257</v>
       </c>
-      <c r="X39" s="4">
+      <c r="Y39" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="4">
-        <f>V39-X39</f>
+      <c r="Z39" s="4">
+        <f>W39-Y39</f>
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="48"/>
-      <c r="B40" s="37"/>
-      <c r="E40" s="14" t="s">
+      <c r="B40" s="49"/>
+      <c r="C40" s="37"/>
+      <c r="F40" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
       <c r="G40" s="4">
         <v>0</v>
       </c>
-      <c r="H40" s="5">
-        <f>SUM(G$36:G40)</f>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <f>SUM(H$36:H40)</f>
         <v>85</v>
       </c>
-      <c r="I40" s="4">
-        <f>IF(H40&gt;=J$11, IF(H39&lt;J$11, J$11-H39, 0),G40)</f>
-        <v>0</v>
-      </c>
       <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5">
-        <f>SUM(J$36:J40)</f>
+        <f>IF(I40&gt;=K$11, IF(I39&lt;K$11, K$11-I39, 0),H40)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <f>SUM(K$36:K40)</f>
         <v>165</v>
       </c>
-      <c r="L40" s="4">
+      <c r="M40" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5">
-        <f>SUM(M$36:M40)</f>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <f>SUM(N$36:N40)</f>
         <v>257</v>
       </c>
-      <c r="O40" s="4">
+      <c r="P40" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P40" s="4">
-        <f>P12</f>
+      <c r="Q40" s="4">
+        <f>Q12</f>
         <v>43</v>
       </c>
-      <c r="Q40" s="5">
-        <f>SUM(P$36:P40)</f>
+      <c r="R40" s="5">
+        <f>SUM(Q$36:Q40)</f>
         <v>300</v>
       </c>
-      <c r="R40" s="4">
+      <c r="S40" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S40" s="4">
-        <f>P40-R40</f>
+      <c r="T40" s="4">
+        <f>Q40-S40</f>
         <v>43</v>
       </c>
-      <c r="T40" s="5">
-        <f>SUM(S$36:S40)</f>
+      <c r="U40" s="5">
+        <f>SUM(T$36:T40)</f>
         <v>300</v>
       </c>
-      <c r="U40" s="4">
+      <c r="V40" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V40" s="4">
-        <f>S40-U40</f>
+      <c r="W40" s="4">
+        <f>T40-V40</f>
         <v>43</v>
       </c>
-      <c r="W40" s="5">
-        <f>SUM(V$36:V40)</f>
+      <c r="X40" s="5">
+        <f>SUM(W$36:W40)</f>
         <v>300</v>
       </c>
-      <c r="X40" s="4">
+      <c r="Y40" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="4">
-        <f>V40-X40</f>
+      <c r="Z40" s="4">
+        <f>W40-Y40</f>
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="E41" s="14" t="s">
+    <row r="41" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="F41" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="49"/>
+      <c r="C42" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="F42" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
-        <f>IF(G37=0, 0, G95*I37/G37)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="4">
-        <f>IF(J37=0, 0, J95*L37/J37)</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="4">
-        <f>IF(M37=0, 0, M95*O37/M37)</f>
-        <v>0</v>
-      </c>
-      <c r="S42" s="4">
-        <f>IF(P37=0, 0, P95*R37/P37)</f>
-        <v>0</v>
-      </c>
-      <c r="V42" s="4">
-        <f>IF(S37=0, 0, S95*U37/S37)</f>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="4">
-        <f>IF(V37=0, 0, V95*X37/V37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f>IF(H37=0, 0, H95*J37/H37)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <f>IF(K37=0, 0, K95*M37/K37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
+        <f>IF(N37=0, 0, N95*P37/N37)</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="4">
+        <f>IF(Q37=0, 0, Q95*S37/Q37)</f>
+        <v>0</v>
+      </c>
+      <c r="W42" s="4">
+        <f>IF(T37=0, 0, T95*V37/T37)</f>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="4">
+        <f>IF(W37=0, 0, W95*Y37/W37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="48"/>
-      <c r="B43" s="37"/>
-      <c r="E43" s="14" t="s">
+      <c r="B43" s="49"/>
+      <c r="C43" s="37"/>
+      <c r="F43" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4">
-        <f>IF(G38=0, 0, G96*I38/G38)</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="4">
-        <f>IF(J38=0, 0, J96*L38/J38)</f>
-        <v>0</v>
-      </c>
-      <c r="P43" s="4">
-        <f>IF(M38=0, 0, M96*O38/M38)</f>
-        <v>0</v>
-      </c>
-      <c r="S43" s="4">
-        <f>IF(P38=0, 0, P96*R38/P38)</f>
-        <v>0</v>
-      </c>
-      <c r="V43" s="4">
-        <f>IF(S38=0, 0, S96*U38/S38)</f>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="4">
-        <f>IF(V38=0, 0, V96*X38/V38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <f>IF(H38=0, 0, H96*J38/H38)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <f>IF(K38=0, 0, K96*M38/K38)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4">
+        <f>IF(N38=0, 0, N96*P38/N38)</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="4">
+        <f>IF(Q38=0, 0, Q96*S38/Q38)</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="4">
+        <f>IF(T38=0, 0, T96*V38/T38)</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="4">
+        <f>IF(W38=0, 0, W96*Y38/W38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="48"/>
-      <c r="B44" s="37"/>
-      <c r="E44" s="14" t="s">
+      <c r="B44" s="49"/>
+      <c r="C44" s="37"/>
+      <c r="F44" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="G44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <f>IF(G39=0, 0, G97*I39/G39)</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="4">
-        <f>IF(J39=0, 0, J97*L39/J39)</f>
-        <v>0</v>
-      </c>
-      <c r="P44" s="4">
-        <f>IF(M39=0, 0, M97*O39/M39)</f>
-        <v>0</v>
-      </c>
-      <c r="S44" s="4">
-        <f>IF(P39=0, 0, P97*R39/P39)</f>
-        <v>0</v>
-      </c>
-      <c r="V44" s="4">
-        <f>IF(S39=0, 0, S97*U39/S39)</f>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="4">
-        <f>IF(V39=0, 0, V97*X39/V39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <f>IF(H39=0, 0, H97*J39/H39)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <f>IF(K39=0, 0, K97*M39/K39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
+        <f>IF(N39=0, 0, N97*P39/N39)</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <f>IF(Q39=0, 0, Q97*S39/Q39)</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="4">
+        <f>IF(T39=0, 0, T97*V39/T39)</f>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="4">
+        <f>IF(W39=0, 0, W97*Y39/W39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="48"/>
-      <c r="B45" s="37"/>
-      <c r="E45" s="14" t="s">
+      <c r="B45" s="49"/>
+      <c r="C45" s="37"/>
+      <c r="F45" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <f>IF(G40=0, 0, G98*I40/G40)</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="4">
-        <f>IF(J40=0, 0, J98*L40/J40)</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="4">
-        <f>IF(M40=0, 0, M98*O40/M40)</f>
-        <v>0</v>
-      </c>
-      <c r="S45" s="4">
-        <f>IF(P40=0, 0, P98*R40/P40)</f>
-        <v>0</v>
-      </c>
-      <c r="V45" s="4">
-        <f>IF(S40=0, 0, S98*U40/S40)</f>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="4">
-        <f>IF(V40=0, 0, V98*X40/V40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <f>IF(H40=0, 0, H98*J40/H40)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <f>IF(K40=0, 0, K98*M40/K40)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
+        <f>IF(N40=0, 0, N98*P40/N40)</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="4">
+        <f>IF(Q40=0, 0, Q98*S40/Q40)</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="4">
+        <f>IF(T40=0, 0, T98*V40/T40)</f>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="4">
+        <f>IF(W40=0, 0, W98*Y40/W40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="49"/>
+      <c r="C46" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="G46" s="4">
-        <f>SUM(G42:G45)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
-        <f>SUM(J42:J45)</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="4">
-        <f>SUM(M42:M45)</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="4">
-        <f>SUM(P42:P45)</f>
-        <v>0</v>
-      </c>
-      <c r="S46" s="4">
-        <f>SUM(S42:S45)</f>
-        <v>0</v>
-      </c>
-      <c r="V46" s="4">
-        <f>SUM(V42:V45)</f>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="4">
-        <f>SUM(Y42:Y45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="E47" s="14" t="s">
+      <c r="F46" s="14"/>
+      <c r="H46" s="4">
+        <f>SUM(H42:H45)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <f>SUM(K42:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <f>SUM(N42:N45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="4">
+        <f>SUM(Q42:Q45)</f>
+        <v>0</v>
+      </c>
+      <c r="T46" s="4">
+        <f>SUM(T42:T45)</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="4">
+        <f>SUM(W42:W45)</f>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="4">
+        <f>SUM(Z42:Z45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="F47" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="49"/>
+      <c r="C48" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="E48" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="F48" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="4">
-        <f>MIN(G42,G$15*F37)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <f>MIN(J42,J$15*I37)</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="4">
-        <f>MIN(M42,M$15*L37)</f>
-        <v>0</v>
-      </c>
-      <c r="P48" s="4">
-        <f>MIN(P42,P$15*O37)</f>
-        <v>0</v>
-      </c>
-      <c r="S48" s="4">
-        <f>MIN(S42,S$15*R37)</f>
-        <v>0</v>
-      </c>
-      <c r="V48" s="4">
-        <f>MIN(V42,V$15*U37)</f>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="4">
-        <f>MIN(Y42,Y$15*X37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="H48" s="4">
+        <f>MIN(H42,H$15*G37)</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <f>MIN(K42,K$15*J37)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="4">
+        <f>MIN(N42,N$15*M37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="4">
+        <f>MIN(Q42,Q$15*P37)</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="4">
+        <f>MIN(T42,T$15*S37)</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="4">
+        <f>MIN(W42,W$15*V37)</f>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="4">
+        <f>MIN(Z42,Z$15*Y37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="48"/>
-      <c r="B49" s="37"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="14" t="s">
+      <c r="B49" s="49"/>
+      <c r="C49" s="37"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="G49" s="4">
-        <f>MIN(G43,G$15*F38)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="4">
-        <f>MIN(J43,J$15*I38)</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="4">
-        <f>MIN(M43,M$15*L38)</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="4">
-        <f t="shared" ref="P49" si="5">MIN(P43,P$15*O38)</f>
-        <v>0</v>
-      </c>
-      <c r="S49" s="4">
-        <f t="shared" ref="S49" si="6">MIN(S43,S$15*R38)</f>
-        <v>0</v>
-      </c>
-      <c r="V49" s="4">
-        <f t="shared" ref="V49" si="7">MIN(V43,V$15*U38)</f>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="4">
-        <f t="shared" ref="Y49" si="8">MIN(Y43,Y$15*X38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="H49" s="4">
+        <f>MIN(H43,H$15*G38)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <f>MIN(K43,K$15*J38)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
+        <f>MIN(N43,N$15*M38)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="4">
+        <f t="shared" ref="Q49" si="5">MIN(Q43,Q$15*P38)</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="4">
+        <f t="shared" ref="T49" si="6">MIN(T43,T$15*S38)</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="4">
+        <f t="shared" ref="W49" si="7">MIN(W43,W$15*V38)</f>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="4">
+        <f t="shared" ref="Z49" si="8">MIN(Z43,Z$15*Y38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="48"/>
-      <c r="B50" s="37"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="14" t="s">
+      <c r="B50" s="49"/>
+      <c r="C50" s="37"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="G50" s="4">
-        <f>MIN(G44,G$15*F39)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
-        <f>MIN(J44,J$15*I39)</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="4">
-        <f>MIN(M44,M$15*L39)</f>
-        <v>0</v>
-      </c>
-      <c r="P50" s="4">
-        <f>MIN(P44,P$15*O39)</f>
-        <v>0</v>
-      </c>
-      <c r="S50" s="4">
-        <f>MIN(S44,S$15*R39)</f>
-        <v>0</v>
-      </c>
-      <c r="V50" s="4">
-        <f>MIN(V44,V$15*U39)</f>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="4">
-        <f>MIN(Y44,Y$15*X39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="H50" s="4">
+        <f>MIN(H44,H$15*G39)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <f>MIN(K44,K$15*J39)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
+        <f>MIN(N44,N$15*M39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4">
+        <f>MIN(Q44,Q$15*P39)</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="4">
+        <f>MIN(T44,T$15*S39)</f>
+        <v>0</v>
+      </c>
+      <c r="W50" s="4">
+        <f>MIN(W44,W$15*V39)</f>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="4">
+        <f>MIN(Z44,Z$15*Y39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="48"/>
-      <c r="B51" s="37"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="14" t="s">
+      <c r="B51" s="49"/>
+      <c r="C51" s="37"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="G51" s="4">
-        <f>MIN(G45,G$15*F40)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="4">
-        <f>MIN(J45,J$15*I40)</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="4">
-        <f>MIN(M45,M$15*L40)</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="4">
-        <f>MIN(P45,P$15*O40)</f>
-        <v>0</v>
-      </c>
-      <c r="S51" s="4">
-        <f>MIN(S45,S$15*R40)</f>
-        <v>0</v>
-      </c>
-      <c r="V51" s="4">
-        <f>MIN(V45,V$15*U40)</f>
-        <v>0</v>
-      </c>
-      <c r="Y51" s="4">
-        <f>MIN(Y45,Y$15*X40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H51" s="4">
+        <f>MIN(H45,H$15*G40)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <f>MIN(K45,K$15*J40)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <f>MIN(N45,N$15*M40)</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4">
+        <f>MIN(Q45,Q$15*P40)</f>
+        <v>0</v>
+      </c>
+      <c r="T51" s="4">
+        <f>MIN(T45,T$15*S40)</f>
+        <v>0</v>
+      </c>
+      <c r="W51" s="4">
+        <f>MIN(W45,W$15*V40)</f>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="4">
+        <f>MIN(Z45,Z$15*Y40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="49"/>
+      <c r="C52" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="G52" s="4">
-        <f>SUM(G48:G51)</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
-        <f>SUM(J48:J51)</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="4">
-        <f>SUM(M48:M51)</f>
-        <v>0</v>
-      </c>
-      <c r="P52" s="4">
-        <f>SUM(P48:P51)</f>
-        <v>0</v>
-      </c>
-      <c r="S52" s="4">
-        <f>SUM(S48:S51)</f>
-        <v>0</v>
-      </c>
-      <c r="V52" s="4">
-        <f>SUM(V48:V51)</f>
-        <v>0</v>
-      </c>
-      <c r="Y52" s="4">
-        <f>SUM(Y48:Y51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F52" s="14"/>
+      <c r="H52" s="4">
+        <f>SUM(H48:H51)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <f>SUM(K48:K51)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
+        <f>SUM(N48:N51)</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="4">
+        <f>SUM(Q48:Q51)</f>
+        <v>0</v>
+      </c>
+      <c r="T52" s="4">
+        <f>SUM(T48:T51)</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="4">
+        <f>SUM(W48:W51)</f>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="4">
+        <f>SUM(Z48:Z51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="E53" s="14"/>
-      <c r="G53" s="4">
-        <f>G46-G52</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="4">
-        <f>J46-J52</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="4">
-        <f>M46-M52</f>
-        <v>0</v>
-      </c>
-      <c r="P53" s="4">
-        <f>P46-P52</f>
-        <v>0</v>
-      </c>
-      <c r="S53" s="4">
-        <f>S46-S52</f>
-        <v>0</v>
-      </c>
-      <c r="V53" s="4">
-        <f>V46-V52</f>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="4">
-        <f>Y46-Y52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E54" s="14"/>
-    </row>
-    <row r="55" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="B53" s="49"/>
+      <c r="C53" s="40"/>
+      <c r="F53" s="14"/>
+      <c r="H53" s="4">
+        <f>H46-H52</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <f>K46-K52</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
+        <f>N46-N52</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="4">
+        <f>Q46-Q52</f>
+        <v>0</v>
+      </c>
+      <c r="T53" s="4">
+        <f>T46-T52</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="4">
+        <f>W46-W52</f>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="4">
+        <f>Z46-Z52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="49"/>
+      <c r="C55" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="F55" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="G55" s="4">
-        <f>G42*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
-        <f>J42*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="4">
-        <f>M42*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="P55" s="4">
-        <f>P42*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="S55" s="4">
-        <f>S42*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="V55" s="4">
-        <f>V42*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="Y55" s="4">
-        <f>Y42*$G$20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="H55" s="4">
+        <f>H42*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <f>K42*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="4">
+        <f>N42*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="4">
+        <f>Q42*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="T55" s="4">
+        <f>T42*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="W55" s="4">
+        <f>W42*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="4">
+        <f>Z42*$H$20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="48"/>
-      <c r="B56" s="37"/>
-      <c r="E56" s="14" t="s">
+      <c r="B56" s="49"/>
+      <c r="C56" s="37"/>
+      <c r="F56" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="G56" s="4">
-        <f>G43*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="4">
-        <f>J43*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="4">
-        <f>M43*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="P56" s="4">
-        <f>P43*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="S56" s="4">
-        <f>S43*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="V56" s="4">
-        <f>V43*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="Y56" s="4">
-        <f>Y43*$G$20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="H56" s="4">
+        <f>H43*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <f>K43*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="4">
+        <f>N43*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="4">
+        <f>Q43*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="T56" s="4">
+        <f>T43*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="W56" s="4">
+        <f>W43*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="4">
+        <f>Z43*$H$20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="48"/>
-      <c r="B57" s="37"/>
-      <c r="E57" s="14" t="s">
+      <c r="B57" s="49"/>
+      <c r="C57" s="37"/>
+      <c r="F57" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G57" s="4">
-        <f>G44*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="4">
-        <f>J44*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="4">
-        <f>M44*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="P57" s="4">
-        <f>P44*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="S57" s="4">
-        <f>S44*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="V57" s="4">
-        <f>V44*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="4">
-        <f>Y44*$G$20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="H57" s="4">
+        <f>H44*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <f>K44*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="4">
+        <f>N44*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="4">
+        <f>Q44*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="T57" s="4">
+        <f>T44*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="W57" s="4">
+        <f>W44*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="4">
+        <f>Z44*$H$20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="48"/>
-      <c r="B58" s="37"/>
-      <c r="E58" s="14" t="s">
+      <c r="B58" s="49"/>
+      <c r="C58" s="37"/>
+      <c r="F58" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="G58" s="4">
-        <f>G45*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="4">
-        <f>J45*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="4">
-        <f>M45*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="P58" s="4">
-        <f>P45*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="S58" s="4">
-        <f>S45*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="V58" s="4">
-        <f>V45*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="4">
-        <f>Y45*$G$20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H58" s="4">
+        <f>H45*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <f>K45*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="4">
+        <f>N45*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="4">
+        <f>Q45*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="T58" s="4">
+        <f>T45*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="W58" s="4">
+        <f>W45*$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="4">
+        <f>Z45*$H$20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="49"/>
+      <c r="C59" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="E59" s="14"/>
-      <c r="G59" s="4">
-        <f>SUM(G55:G58)</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
-        <f>SUM(J55:J58)</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="4">
-        <f>SUM(M55:M58)</f>
-        <v>0</v>
-      </c>
-      <c r="P59" s="4">
-        <f>SUM(P55:P58)</f>
-        <v>0</v>
-      </c>
-      <c r="S59" s="4">
-        <f>SUM(S55:S58)</f>
-        <v>0</v>
-      </c>
-      <c r="V59" s="4">
-        <f>SUM(V55:V58)</f>
-        <v>0</v>
-      </c>
-      <c r="Y59" s="4">
-        <f>SUM(Y55:Y58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E60" s="14"/>
-    </row>
-    <row r="61" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="F59" s="14"/>
+      <c r="H59" s="4">
+        <f>SUM(H55:H58)</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <f>SUM(K55:K58)</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="4">
+        <f>SUM(N55:N58)</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="4">
+        <f>SUM(Q55:Q58)</f>
+        <v>0</v>
+      </c>
+      <c r="T59" s="4">
+        <f>SUM(T55:T58)</f>
+        <v>0</v>
+      </c>
+      <c r="W59" s="4">
+        <f>SUM(W55:W58)</f>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="4">
+        <f>SUM(Z55:Z58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="49"/>
+      <c r="C61" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="F61" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G61" s="4">
-        <f>AC6</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="4">
-        <f>AC7</f>
+      <c r="H61" s="4">
+        <f>AD6</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <f>AD7</f>
         <v>0.01</v>
       </c>
-      <c r="M61" s="4">
-        <f>AC8</f>
+      <c r="N61" s="4">
+        <f>AD8</f>
         <v>0.05</v>
       </c>
-      <c r="P61" s="4">
-        <f>AC9</f>
+      <c r="Q61" s="4">
+        <f>AD9</f>
         <v>0.12</v>
       </c>
-      <c r="S61" s="4">
-        <f>AC11</f>
+      <c r="T61" s="4">
+        <f>AD11</f>
         <v>0.2</v>
       </c>
-      <c r="V61" s="4">
-        <f>AC12</f>
+      <c r="W61" s="4">
+        <f>AD12</f>
         <v>0.36</v>
       </c>
-      <c r="Y61" s="4">
-        <f>AC14</f>
+      <c r="Z61" s="4">
+        <f>AD14</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="48"/>
-      <c r="B62" s="37"/>
-      <c r="E62" s="14" t="s">
+      <c r="B62" s="49"/>
+      <c r="C62" s="37"/>
+      <c r="F62" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G62" s="4">
-        <v>0</v>
-      </c>
-      <c r="J62" s="4">
-        <v>0</v>
-      </c>
-      <c r="M62" s="4">
-        <f>AC7</f>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="N62" s="4">
+        <f>AD7</f>
         <v>0.01</v>
       </c>
-      <c r="P62" s="4">
-        <f>AC8</f>
+      <c r="Q62" s="4">
+        <f>AD8</f>
         <v>0.05</v>
       </c>
-      <c r="S62" s="4">
-        <f>AC9</f>
+      <c r="T62" s="4">
+        <f>AD9</f>
         <v>0.12</v>
       </c>
-      <c r="V62" s="4">
-        <f>AC11</f>
+      <c r="W62" s="4">
+        <f>AD11</f>
         <v>0.2</v>
       </c>
-      <c r="Y62" s="4">
-        <f>AC12</f>
+      <c r="Z62" s="4">
+        <f>AD12</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="48"/>
-      <c r="B63" s="37"/>
-      <c r="E63" s="14" t="s">
+      <c r="B63" s="49"/>
+      <c r="C63" s="37"/>
+      <c r="F63" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4">
-        <v>0</v>
-      </c>
-      <c r="M63" s="4">
-        <v>0</v>
-      </c>
-      <c r="P63" s="4">
-        <f>AC7</f>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="N63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="4">
+        <f>AD7</f>
         <v>0.01</v>
       </c>
-      <c r="S63" s="4">
-        <f>AC8</f>
+      <c r="T63" s="4">
+        <f>AD8</f>
         <v>0.05</v>
       </c>
-      <c r="V63" s="4">
-        <f>AC9</f>
+      <c r="W63" s="4">
+        <f>AD9</f>
         <v>0.12</v>
       </c>
-      <c r="Y63" s="4">
-        <f>AC11</f>
+      <c r="Z63" s="4">
+        <f>AD11</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="48"/>
-      <c r="B64" s="37"/>
-      <c r="E64" s="14" t="s">
+      <c r="B64" s="49"/>
+      <c r="C64" s="37"/>
+      <c r="F64" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G64" s="4">
-        <v>0</v>
-      </c>
-      <c r="J64" s="4">
-        <v>0</v>
-      </c>
-      <c r="M64" s="4">
-        <v>0</v>
-      </c>
-      <c r="P64" s="4">
-        <v>0</v>
-      </c>
-      <c r="S64" s="4">
-        <f>AC7</f>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+      <c r="N64" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>0</v>
+      </c>
+      <c r="T64" s="4">
+        <f>AD7</f>
         <v>0.01</v>
       </c>
-      <c r="V64" s="4">
-        <f>AC8</f>
+      <c r="W64" s="4">
+        <f>AD8</f>
         <v>0.05</v>
       </c>
-      <c r="Y64" s="4">
-        <f>AC9</f>
+      <c r="Z64" s="4">
+        <f>AD9</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="E65" s="14" t="s">
+    <row r="65" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="F65" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E66" s="14"/>
-    </row>
-    <row r="67" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="49"/>
+      <c r="C67" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="F67" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G67" s="4">
-        <f>G37*G61</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="4">
-        <f>J37*J61</f>
+      <c r="H67" s="4">
+        <f>H37*H61</f>
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <f>K37*K61</f>
         <v>0.85</v>
       </c>
-      <c r="M67" s="4">
-        <f>J67*(1- $F$29)+M37*M61</f>
+      <c r="N67" s="4">
+        <f>K67*(1- $G$29)+N37*N61</f>
         <v>5.0983000000000001</v>
       </c>
-      <c r="P67" s="4">
-        <f>M67*(1- $F$29)+P37*P61</f>
+      <c r="Q67" s="4">
+        <f>N67*(1- $G$29)+Q37*Q61</f>
         <v>15.288103399999999</v>
       </c>
-      <c r="S67" s="4">
-        <f>P67*(1- $F$29)+S37*S61</f>
+      <c r="T67" s="4">
+        <f>Q67*(1- $G$29)+T37*T61</f>
         <v>32.257527193199998</v>
       </c>
-      <c r="V67" s="4">
-        <f>S67*(1- $F$29)+V37*V61</f>
+      <c r="W67" s="4">
+        <f>T67*(1- $G$29)+W37*W61</f>
         <v>62.793012138813594</v>
       </c>
-      <c r="Y67" s="4">
-        <f>V67*(1- $F$29)+Y37*Y61</f>
+      <c r="Z67" s="4">
+        <f>W67*(1- $G$29)+Z37*Z61</f>
         <v>113.66742611453597</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="48"/>
-      <c r="B68" s="37"/>
-      <c r="E68" s="14" t="s">
+      <c r="B68" s="49"/>
+      <c r="C68" s="37"/>
+      <c r="F68" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="J68" s="4">
-        <f>J38*J62</f>
-        <v>0</v>
-      </c>
-      <c r="M68" s="4">
-        <f>J68*(1- $F$29)+M38*M62</f>
+      <c r="K68" s="4">
+        <f>K38*K62</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="4">
+        <f>K68*(1- $G$29)+N38*N62</f>
         <v>0.8</v>
       </c>
-      <c r="P68" s="4">
-        <f>M68*(1- $F$29)+P38*P62</f>
+      <c r="Q68" s="4">
+        <f>N68*(1- $G$29)+Q38*Q62</f>
         <v>4.7984</v>
       </c>
-      <c r="S68" s="4">
-        <f>P68*(1- $F$29)+S38*S62</f>
+      <c r="T68" s="4">
+        <f>Q68*(1- $G$29)+T38*T62</f>
         <v>14.3888032</v>
       </c>
-      <c r="V68" s="4">
-        <f>S68*(1- $F$29)+V38*V62</f>
+      <c r="W68" s="4">
+        <f>T68*(1- $G$29)+W38*W62</f>
         <v>30.3600255936</v>
       </c>
-      <c r="Y68" s="4">
-        <f>V68*(1- $F$29)+Y38*Y62</f>
+      <c r="Z68" s="4">
+        <f>W68*(1- $G$29)+Z38*Z62</f>
         <v>59.099305542412793</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="48"/>
-      <c r="B69" s="37"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="14" t="s">
+      <c r="B69" s="49"/>
+      <c r="C69" s="37"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="M69" s="4">
-        <f>J69*(1- $F$29)+M39*M63</f>
-        <v>0</v>
-      </c>
-      <c r="P69" s="4">
-        <f>M69*(1- $F$29)+P39*P63</f>
+      <c r="N69" s="4">
+        <f>K69*(1- $G$29)+N39*N63</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="4">
+        <f>N69*(1- $G$29)+Q39*Q63</f>
         <v>0.92</v>
       </c>
-      <c r="S69" s="4">
-        <f>P69*(1- $F$29)+S39*S63</f>
+      <c r="T69" s="4">
+        <f>Q69*(1- $G$29)+T39*T63</f>
         <v>5.5181600000000008</v>
       </c>
-      <c r="V69" s="4">
-        <f>S69*(1- $F$29)+V39*V63</f>
+      <c r="W69" s="4">
+        <f>T69*(1- $G$29)+W39*W63</f>
         <v>16.547123679999999</v>
       </c>
-      <c r="Y69" s="4">
-        <f>V69*(1- $F$29)+Y39*Y63</f>
+      <c r="Z69" s="4">
+        <f>W69*(1- $G$29)+Z39*Z63</f>
         <v>34.91402943264</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="48"/>
-      <c r="B70" s="37"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="14" t="s">
+      <c r="B70" s="49"/>
+      <c r="C70" s="37"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="M70" s="4">
-        <f>J70*(1- $F$29)+M40*M64</f>
-        <v>0</v>
-      </c>
-      <c r="P70" s="4">
-        <f>M70*(1- $F$29)+P40*P64</f>
-        <v>0</v>
-      </c>
-      <c r="S70" s="4">
-        <f>P70*(1- $F$29)+S40*S64</f>
+      <c r="N70" s="4">
+        <f>K70*(1- $G$29)+N40*N64</f>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="4">
+        <f>N70*(1- $G$29)+Q40*Q64</f>
+        <v>0</v>
+      </c>
+      <c r="T70" s="4">
+        <f>Q70*(1- $G$29)+T40*T64</f>
         <v>0.43</v>
       </c>
-      <c r="V70" s="4">
-        <f>S70*(1- $F$29)+V40*V64</f>
+      <c r="W70" s="4">
+        <f>T70*(1- $G$29)+W40*W64</f>
         <v>2.5791399999999998</v>
       </c>
-      <c r="Y70" s="4">
-        <f>V70*(1- $F$29)+Y40*Y64</f>
+      <c r="Z70" s="4">
+        <f>W70*(1- $G$29)+Z40*Z64</f>
         <v>7.7339817200000001</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D71" s="28"/>
-      <c r="E71" s="14"/>
-    </row>
-    <row r="72" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E71" s="28"/>
+      <c r="F71" s="14"/>
+    </row>
+    <row r="72" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="49"/>
+      <c r="C72" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="F72" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G72" s="4">
-        <v>0</v>
-      </c>
-      <c r="J72" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D80)*MAX(G95-$G$21*G37-J42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M72" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D80)*MAX(J95-$G$21*J37-M42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P72" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D80)*MAX(M95-$G$21*M37-P42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S72" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D80)*MAX(P95-$G$21*P37-S42,0)</f>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <f>INT(J$4-$AF$6 &gt; $E80)*MAX(H95-$H$21*H37-K42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="4">
+        <f>INT(M$4-$AF$6 &gt; $E80)*MAX(K95-$H$21*K37-N42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="4">
+        <f>INT(P$4-$AF$6 &gt; $E80)*MAX(N95-$H$21*N37-Q42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T72" s="4">
+        <f>INT(S$4-$AF$6 &gt; $E80)*MAX(Q95-$H$21*Q37-T42,0)</f>
         <v>6.7881033999999989</v>
       </c>
-      <c r="V72" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D80)*MAX(S95-$G$21*S37-V42,0)</f>
+      <c r="W72" s="4">
+        <f>INT(V$4-$AF$6 &gt; $E80)*MAX(T95-$H$21*T37-W42,0)</f>
         <v>23.757527193199998</v>
       </c>
-      <c r="Y72" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D80)*MAX(V95-$G$21*V37-Y42,0)</f>
+      <c r="Z72" s="4">
+        <f>INT(Y$4-$AF$6 &gt; $E80)*MAX(W95-$H$21*W37-Z42,0)</f>
         <v>30.582999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="48"/>
-      <c r="B73" s="37"/>
-      <c r="E73" s="14" t="s">
+      <c r="B73" s="49"/>
+      <c r="C73" s="37"/>
+      <c r="F73" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G73" s="4">
-        <v>0</v>
-      </c>
-      <c r="J73" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D81)*MAX(G96-$G$21*G38-J43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M73" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D81)*MAX(J96-$G$21*J38-M43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P73" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D81)*MAX(M96-$G$21*M38-P43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S73" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D81)*MAX(P96-$G$21*P38-S43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V73" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D81)*MAX(S96-$G$21*S38-V43,0)</f>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <f>INT(J$4-$AF$6 &gt; $E81)*MAX(H96-$H$21*H38-K43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="4">
+        <f>INT(M$4-$AF$6 &gt; $E81)*MAX(K96-$H$21*K38-N43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="4">
+        <f>INT(P$4-$AF$6 &gt; $E81)*MAX(N96-$H$21*N38-Q43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T73" s="4">
+        <f>INT(S$4-$AF$6 &gt; $E81)*MAX(Q96-$H$21*Q38-T43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W73" s="4">
+        <f>INT(V$4-$AF$6 &gt; $E81)*MAX(T96-$H$21*T38-W43,0)</f>
         <v>6.3888031999999999</v>
       </c>
-      <c r="Y73" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D81)*MAX(V96-$G$21*V38-Y43,0)</f>
+      <c r="Z73" s="4">
+        <f>INT(Y$4-$AF$6 &gt; $E81)*MAX(W96-$H$21*W38-Z43,0)</f>
         <v>15.984000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="48"/>
-      <c r="B74" s="37"/>
-      <c r="D74" s="28" t="s">
+      <c r="B74" s="49"/>
+      <c r="C74" s="37"/>
+      <c r="E74" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="F74" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G74" s="4">
-        <v>0</v>
-      </c>
-      <c r="J74" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D82)*MAX(G97-$G$21*G39-J44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D82)*MAX(J97-$G$21*J39-M44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P74" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D82)*MAX(M97-$G$21*M39-P44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S74" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D82)*MAX(P97-$G$21*P39-S44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V74" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D82)*MAX(S97-$G$21*S39-V44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D82)*MAX(V97-$G$21*V39-Y44,0)</f>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <f>INT(J$4-$AF$6 &gt; $E82)*MAX(H97-$H$21*H39-K44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="4">
+        <f>INT(M$4-$AF$6 &gt; $E82)*MAX(K97-$H$21*K39-N44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="4">
+        <f>INT(P$4-$AF$6 &gt; $E82)*MAX(N97-$H$21*N39-Q44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T74" s="4">
+        <f>INT(S$4-$AF$6 &gt; $E82)*MAX(Q97-$H$21*Q39-T44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W74" s="4">
+        <f>INT(V$4-$AF$6 &gt; $E82)*MAX(T97-$H$21*T39-W44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="4">
+        <f>INT(Y$4-$AF$6 &gt; $E82)*MAX(W97-$H$21*W39-Z44,0)</f>
         <v>7.3471236799999975</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="48"/>
-      <c r="B75" s="37"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="14" t="s">
+      <c r="B75" s="49"/>
+      <c r="C75" s="37"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G75" s="4">
-        <v>0</v>
-      </c>
-      <c r="J75" s="4">
-        <f>INT(I$4-$AE$6 &gt; $D83)*MAX(G98-$G$21*G40-J45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="4">
-        <f>INT(L$4-$AE$6 &gt; $D83)*MAX(J98-$G$21*J40-M45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P75" s="4">
-        <f>INT(O$4-$AE$6 &gt; $D83)*MAX(M98-$G$21*M40-P45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S75" s="4">
-        <f>INT(R$4-$AE$6 &gt; $D83)*MAX(P98-$G$21*P40-S45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V75" s="4">
-        <f>INT(U$4-$AE$6 &gt; $D83)*MAX(S98-$G$21*S40-V45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y75" s="4">
-        <f>INT(X$4-$AE$6 &gt; $D83)*MAX(V98-$G$21*V40-Y45,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <f>INT(J$4-$AF$6 &gt; $E83)*MAX(H98-$H$21*H40-K45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="4">
+        <f>INT(M$4-$AF$6 &gt; $E83)*MAX(K98-$H$21*K40-N45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="4">
+        <f>INT(P$4-$AF$6 &gt; $E83)*MAX(N98-$H$21*N40-Q45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T75" s="4">
+        <f>INT(S$4-$AF$6 &gt; $E83)*MAX(Q98-$H$21*Q40-T45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W75" s="4">
+        <f>INT(V$4-$AF$6 &gt; $E83)*MAX(T98-$H$21*T40-W45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="4">
+        <f>INT(Y$4-$AF$6 &gt; $E83)*MAX(W98-$H$21*W40-Z45,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="49"/>
+      <c r="C76" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="28"/>
+      <c r="F76" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="G76" s="4">
-        <v>0</v>
-      </c>
-      <c r="J76" s="4">
-        <f>SUM(J72:J75)</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="4">
-        <f>SUM(M72:M75)</f>
-        <v>0</v>
-      </c>
-      <c r="P76" s="4">
-        <f>SUM(P72:P75)</f>
-        <v>0</v>
-      </c>
-      <c r="S76" s="4">
-        <f>SUM(S72:S75)</f>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <f>SUM(K72:K75)</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="4">
+        <f>SUM(N72:N75)</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="4">
+        <f>SUM(Q72:Q75)</f>
+        <v>0</v>
+      </c>
+      <c r="T76" s="4">
+        <f>SUM(T72:T75)</f>
         <v>6.7881033999999989</v>
       </c>
-      <c r="V76" s="4">
-        <f>SUM(V72:V75)</f>
+      <c r="W76" s="4">
+        <f>SUM(W72:W75)</f>
         <v>30.146330393199996</v>
       </c>
-      <c r="Y76" s="4">
-        <f>SUM(Y72:Y75)</f>
+      <c r="Z76" s="4">
+        <f>SUM(Z72:Z75)</f>
         <v>53.914123679999996</v>
       </c>
-      <c r="AD76" t="s">
+      <c r="AE76" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D77" s="28"/>
-      <c r="E77" s="14"/>
-      <c r="AB77" t="s">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E77" s="28"/>
+      <c r="F77" s="14"/>
+      <c r="AC77" t="s">
         <v>85</v>
       </c>
-      <c r="AD77" t="s">
+      <c r="AE77" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="52"/>
+      <c r="C78" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="F78" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F78" s="4">
-        <v>0</v>
-      </c>
-      <c r="I78" s="4">
-        <v>0</v>
-      </c>
-      <c r="L78" s="4">
-        <v>0</v>
-      </c>
-      <c r="O78" s="4">
-        <v>0</v>
-      </c>
-      <c r="R78" s="4">
-        <v>0</v>
-      </c>
-      <c r="U78" s="4">
-        <v>0</v>
-      </c>
-      <c r="X78" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="s">
+      <c r="G78" s="4">
+        <v>0</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+      <c r="P78" s="4">
+        <v>0</v>
+      </c>
+      <c r="S78" s="4">
+        <v>0</v>
+      </c>
+      <c r="V78" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC78" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="50"/>
-      <c r="B79" s="37"/>
-      <c r="E79" s="14" t="s">
+      <c r="B79" s="52"/>
+      <c r="C79" s="37"/>
+      <c r="F79" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F79" s="4">
-        <f>SUM(G$72:G72)</f>
-        <v>0</v>
-      </c>
       <c r="G79" s="4">
-        <f>IF(F79&gt;=F$131, IF(F78&lt;F$131, F$131-F78, 0),G72)</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="4">
-        <f>SUM(J$72:J72)</f>
+        <f>SUM(H$72:H72)</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="4">
+        <f>IF(G79&gt;=G$131, IF(G78&lt;G$131, G$131-G78, 0),H72)</f>
         <v>0</v>
       </c>
       <c r="J79" s="4">
-        <f>IF(I79&gt;=I$131, IF(I78&lt;I$131, I$131-I78, 0),J72)</f>
-        <v>0</v>
-      </c>
-      <c r="L79" s="4">
-        <f>SUM(M$72:M72)</f>
+        <f>SUM(K$72:K72)</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <f>IF(J79&gt;=J$131, IF(J78&lt;J$131, J$131-J78, 0),K72)</f>
         <v>0</v>
       </c>
       <c r="M79" s="4">
-        <f>IF(L79&gt;=L$131, IF(L78&lt;L$131, L$131-L78, 0),M72)</f>
-        <v>0</v>
-      </c>
-      <c r="O79" s="4">
-        <f>SUM(P$72:P72)</f>
+        <f>SUM(N$72:N72)</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="4">
+        <f>IF(M79&gt;=M$131, IF(M78&lt;M$131, M$131-M78, 0),N72)</f>
         <v>0</v>
       </c>
       <c r="P79" s="4">
-        <f>IF(O79&gt;=O$131, IF(O78&lt;O$131, O$131-O78, 0),P72)</f>
-        <v>0</v>
-      </c>
-      <c r="R79" s="4">
-        <f>SUM(S$72:S72)</f>
+        <f>SUM(Q$72:Q72)</f>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="4">
+        <f>IF(P79&gt;=P$131, IF(P78&lt;P$131, P$131-P78, 0),Q72)</f>
+        <v>0</v>
+      </c>
+      <c r="S79" s="4">
+        <f>SUM(T$72:T72)</f>
         <v>6.7881033999999989</v>
       </c>
-      <c r="S79" s="4">
-        <f>IF(R79&gt;=R$131, IF(R78&lt;R$131, R$131-R78, 0),S72)</f>
-        <v>0</v>
-      </c>
-      <c r="U79" s="4">
-        <f>SUM(V$72:V72)</f>
+      <c r="T79" s="4">
+        <f>IF(S79&gt;=S$131, IF(S78&lt;S$131, S$131-S78, 0),T72)</f>
+        <v>0</v>
+      </c>
+      <c r="V79" s="4">
+        <f>SUM(W$72:W72)</f>
         <v>23.757527193199998</v>
       </c>
-      <c r="V79" s="4">
-        <f>IF(U79&gt;=U$131, IF(U78&lt;U$131, U$131-U78, 0),V72)</f>
+      <c r="W79" s="4">
+        <f>IF(V79&gt;=V$131, IF(V78&lt;V$131, V$131-V78, 0),W72)</f>
         <v>23.757527193199998</v>
       </c>
-      <c r="X79" s="4">
-        <f>SUM(Y$72:Y72)</f>
+      <c r="Y79" s="4">
+        <f>SUM(Z$72:Z72)</f>
         <v>30.582999999999998</v>
       </c>
-      <c r="Y79" s="4">
-        <f>IF(X79&gt;=X$131, IF(X78&lt;X$131, X$131-X78, 0),Y72)</f>
+      <c r="Z79" s="4">
+        <f>IF(Y79&gt;=Y$131, IF(Y78&lt;Y$131, Y$131-Y78, 0),Z72)</f>
         <v>30.582999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="50"/>
-      <c r="B80" s="37"/>
-      <c r="D80" s="22">
-        <v>0</v>
-      </c>
-      <c r="E80" s="14" t="s">
+      <c r="B80" s="52"/>
+      <c r="C80" s="37"/>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F80" s="4">
-        <f>SUM(G$72:G73)</f>
-        <v>0</v>
-      </c>
       <c r="G80" s="4">
-        <f>IF(F80&gt;=F$131, IF(F79&lt;F$131, F$131-F79, 0),G73)</f>
-        <v>0</v>
-      </c>
-      <c r="I80" s="4">
-        <f>SUM(J$72:J73)</f>
+        <f>SUM(H$72:H73)</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="4">
+        <f>IF(G80&gt;=G$131, IF(G79&lt;G$131, G$131-G79, 0),H73)</f>
         <v>0</v>
       </c>
       <c r="J80" s="4">
-        <f>IF(I80&gt;=I$131, IF(I79&lt;I$131, I$131-I79, 0),J73)</f>
-        <v>0</v>
-      </c>
-      <c r="L80" s="4">
-        <f>SUM(M$72:M73)</f>
+        <f>SUM(K$72:K73)</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="4">
+        <f>IF(J80&gt;=J$131, IF(J79&lt;J$131, J$131-J79, 0),K73)</f>
         <v>0</v>
       </c>
       <c r="M80" s="4">
-        <f>IF(L80&gt;=L$131, IF(L79&lt;L$131, L$131-L79, 0),M73)</f>
-        <v>0</v>
-      </c>
-      <c r="O80" s="4">
-        <f>SUM(P$72:P73)</f>
+        <f>SUM(N$72:N73)</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="4">
+        <f>IF(M80&gt;=M$131, IF(M79&lt;M$131, M$131-M79, 0),N73)</f>
         <v>0</v>
       </c>
       <c r="P80" s="4">
-        <f>IF(O80&gt;=O$131, IF(O79&lt;O$131, O$131-O79, 0),P73)</f>
-        <v>0</v>
-      </c>
-      <c r="R80" s="4">
-        <f>SUM(S$72:S73)</f>
+        <f>SUM(Q$72:Q73)</f>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="4">
+        <f>IF(P80&gt;=P$131, IF(P79&lt;P$131, P$131-P79, 0),Q73)</f>
+        <v>0</v>
+      </c>
+      <c r="S80" s="4">
+        <f>SUM(T$72:T73)</f>
         <v>6.7881033999999989</v>
       </c>
-      <c r="S80" s="4">
-        <f>IF(R80&gt;=R$131, IF(R79&lt;R$131, R$131-R79, 0),S73)</f>
-        <v>0</v>
-      </c>
-      <c r="U80" s="4">
-        <f>SUM(V$72:V73)</f>
+      <c r="T80" s="4">
+        <f>IF(S80&gt;=S$131, IF(S79&lt;S$131, S$131-S79, 0),T73)</f>
+        <v>0</v>
+      </c>
+      <c r="V80" s="4">
+        <f>SUM(W$72:W73)</f>
         <v>30.146330393199996</v>
       </c>
-      <c r="V80" s="4">
-        <f>IF(U80&gt;=U$131, IF(U79&lt;U$131, U$131-U79, 0),V73)</f>
+      <c r="W80" s="4">
+        <f>IF(V80&gt;=V$131, IF(V79&lt;V$131, V$131-V79, 0),W73)</f>
         <v>6.3888031999999981</v>
       </c>
-      <c r="X80" s="4">
-        <f>SUM(Y$72:Y73)</f>
+      <c r="Y80" s="4">
+        <f>SUM(Z$72:Z73)</f>
         <v>46.567</v>
       </c>
-      <c r="Y80" s="4">
-        <f>IF(X80&gt;=X$131, IF(X79&lt;X$131, X$131-X79, 0),Y73)</f>
+      <c r="Z80" s="4">
+        <f>IF(Y80&gt;=Y$131, IF(Y79&lt;Y$131, Y$131-Y79, 0),Z73)</f>
         <v>15.984000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="50"/>
-      <c r="B81" s="37"/>
-      <c r="D81" s="22">
+      <c r="B81" s="52"/>
+      <c r="C81" s="37"/>
+      <c r="E81" s="22">
         <v>1</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="F81" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F81" s="4">
-        <f>SUM(G$72:G74)</f>
-        <v>0</v>
-      </c>
       <c r="G81" s="4">
-        <f>IF(F81&gt;=F$131, IF(F80&lt;F$131, F$131-F80, 0),G74)</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="4">
-        <f>SUM(J$72:J74)</f>
+        <f>SUM(H$72:H74)</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="4">
+        <f>IF(G81&gt;=G$131, IF(G80&lt;G$131, G$131-G80, 0),H74)</f>
         <v>0</v>
       </c>
       <c r="J81" s="4">
-        <f>IF(I81&gt;=I$131, IF(I80&lt;I$131, I$131-I80, 0),J74)</f>
-        <v>0</v>
-      </c>
-      <c r="L81" s="4">
-        <f>SUM(M$72:M74)</f>
+        <f>SUM(K$72:K74)</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <f>IF(J81&gt;=J$131, IF(J80&lt;J$131, J$131-J80, 0),K74)</f>
         <v>0</v>
       </c>
       <c r="M81" s="4">
-        <f>IF(L81&gt;=L$131, IF(L80&lt;L$131, L$131-L80, 0),M74)</f>
-        <v>0</v>
-      </c>
-      <c r="O81" s="4">
-        <f>SUM(P$72:P74)</f>
+        <f>SUM(N$72:N74)</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="4">
+        <f>IF(M81&gt;=M$131, IF(M80&lt;M$131, M$131-M80, 0),N74)</f>
         <v>0</v>
       </c>
       <c r="P81" s="4">
-        <f>IF(O81&gt;=O$131, IF(O80&lt;O$131, O$131-O80, 0),P74)</f>
-        <v>0</v>
-      </c>
-      <c r="R81" s="4">
-        <f>SUM(S$72:S74)</f>
+        <f>SUM(Q$72:Q74)</f>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="4">
+        <f>IF(P81&gt;=P$131, IF(P80&lt;P$131, P$131-P80, 0),Q74)</f>
+        <v>0</v>
+      </c>
+      <c r="S81" s="4">
+        <f>SUM(T$72:T74)</f>
         <v>6.7881033999999989</v>
       </c>
-      <c r="S81" s="4">
-        <f>IF(R81&gt;=R$131, IF(R80&lt;R$131, R$131-R80, 0),S74)</f>
-        <v>0</v>
-      </c>
-      <c r="U81" s="4">
-        <f>SUM(V$72:V74)</f>
+      <c r="T81" s="4">
+        <f>IF(S81&gt;=S$131, IF(S80&lt;S$131, S$131-S80, 0),T74)</f>
+        <v>0</v>
+      </c>
+      <c r="V81" s="4">
+        <f>SUM(W$72:W74)</f>
         <v>30.146330393199996</v>
       </c>
-      <c r="V81" s="4">
-        <f>IF(U81&gt;=U$131, IF(U80&lt;U$131, U$131-U80, 0),V74)</f>
-        <v>0</v>
-      </c>
-      <c r="X81" s="4">
-        <f>SUM(Y$72:Y74)</f>
+      <c r="W81" s="4">
+        <f>IF(V81&gt;=V$131, IF(V80&lt;V$131, V$131-V80, 0),W74)</f>
+        <v>0</v>
+      </c>
+      <c r="Y81" s="4">
+        <f>SUM(Z$72:Z74)</f>
         <v>53.914123679999996</v>
       </c>
-      <c r="Y81" s="4">
-        <f>IF(X81&gt;=X$131, IF(X80&lt;X$131, X$131-X80, 0),Y74)</f>
+      <c r="Z81" s="4">
+        <f>IF(Y81&gt;=Y$131, IF(Y80&lt;Y$131, Y$131-Y80, 0),Z74)</f>
         <v>7.3471236799999957</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="50"/>
-      <c r="B82" s="37"/>
-      <c r="D82" s="22">
+      <c r="B82" s="52"/>
+      <c r="C82" s="37"/>
+      <c r="E82" s="22">
         <v>2</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="F82" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F82" s="4">
-        <f>SUM(G$72:G75)</f>
-        <v>0</v>
-      </c>
       <c r="G82" s="4">
-        <f>IF(F82&gt;=F$131, IF(F81&lt;F$131, F$131-F81, 0),G75)</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="4">
-        <f>SUM(J$72:J75)</f>
+        <f>SUM(H$72:H75)</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="4">
+        <f>IF(G82&gt;=G$131, IF(G81&lt;G$131, G$131-G81, 0),H75)</f>
         <v>0</v>
       </c>
       <c r="J82" s="4">
-        <f>IF(I82&gt;=I$131, IF(I81&lt;I$131, I$131-I81, 0),J75)</f>
-        <v>0</v>
-      </c>
-      <c r="L82" s="4">
-        <f>SUM(M$72:M75)</f>
+        <f>SUM(K$72:K75)</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <f>IF(J82&gt;=J$131, IF(J81&lt;J$131, J$131-J81, 0),K75)</f>
         <v>0</v>
       </c>
       <c r="M82" s="4">
-        <f>IF(L82&gt;=L$131, IF(L81&lt;L$131, L$131-L81, 0),M75)</f>
-        <v>0</v>
-      </c>
-      <c r="O82" s="4">
-        <f>SUM(P$72:P75)</f>
+        <f>SUM(N$72:N75)</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="4">
+        <f>IF(M82&gt;=M$131, IF(M81&lt;M$131, M$131-M81, 0),N75)</f>
         <v>0</v>
       </c>
       <c r="P82" s="4">
-        <f>IF(O82&gt;=O$131, IF(O81&lt;O$131, O$131-O81, 0),P75)</f>
-        <v>0</v>
-      </c>
-      <c r="R82" s="4">
-        <f>SUM(S$72:S75)</f>
+        <f>SUM(Q$72:Q75)</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="4">
+        <f>IF(P82&gt;=P$131, IF(P81&lt;P$131, P$131-P81, 0),Q75)</f>
+        <v>0</v>
+      </c>
+      <c r="S82" s="4">
+        <f>SUM(T$72:T75)</f>
         <v>6.7881033999999989</v>
       </c>
-      <c r="S82" s="4">
-        <f>IF(R82&gt;=R$131, IF(R81&lt;R$131, R$131-R81, 0),S75)</f>
-        <v>0</v>
-      </c>
-      <c r="U82" s="4">
-        <f>SUM(V$72:V75)</f>
+      <c r="T82" s="4">
+        <f>IF(S82&gt;=S$131, IF(S81&lt;S$131, S$131-S81, 0),T75)</f>
+        <v>0</v>
+      </c>
+      <c r="V82" s="4">
+        <f>SUM(W$72:W75)</f>
         <v>30.146330393199996</v>
       </c>
-      <c r="V82" s="4">
-        <f>IF(U82&gt;=U$131, IF(U81&lt;U$131, U$131-U81, 0),V75)</f>
-        <v>0</v>
-      </c>
-      <c r="X82" s="4">
-        <f>SUM(Y$72:Y75)</f>
+      <c r="W82" s="4">
+        <f>IF(V82&gt;=V$131, IF(V81&lt;V$131, V$131-V81, 0),W75)</f>
+        <v>0</v>
+      </c>
+      <c r="Y82" s="4">
+        <f>SUM(Z$72:Z75)</f>
         <v>53.914123679999996</v>
       </c>
-      <c r="Y82" s="4">
-        <f>IF(X82&gt;=X$131, IF(X81&lt;X$131, X$131-X81, 0),Y75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D83" s="22">
+      <c r="Z82" s="4">
+        <f>IF(Y82&gt;=Y$131, IF(Y81&lt;Y$131, Y$131-Y81, 0),Z75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E83" s="22">
         <v>3</v>
       </c>
-      <c r="E83" s="14"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E84" s="14"/>
-      <c r="I84" s="4" t="s">
+      <c r="F83" s="14"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="F84" s="14"/>
+      <c r="J84" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L84" s="4" t="s">
+      <c r="M84" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="O84" s="4" t="s">
+      <c r="P84" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="R84" s="4" t="s">
+      <c r="S84" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="U84" s="4" t="s">
+      <c r="V84" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="X84" s="4" t="s">
+      <c r="Y84" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="51"/>
+      <c r="C85" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="F85" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G85" s="4">
-        <f>G61</f>
-        <v>0</v>
-      </c>
-      <c r="I85" s="4">
-        <f>IF(G95=0,1,MIN(MAX((G95/G67-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="H85" s="4">
+        <f>H61</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="4">
+        <f>IF(H95=0,1,MIN(MAX((H95/H67-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="J85" s="4">
-        <f>J61*I85</f>
+      <c r="K85" s="4">
+        <f>K61*J85</f>
         <v>0.01</v>
       </c>
-      <c r="L85" s="4">
-        <f>IF(J95=0,1,MIN(MAX((J95/J67-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="M85" s="4">
+        <f>IF(K95=0,1,MIN(MAX((K95/K67-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="M85" s="4">
-        <f>M61*L85</f>
+      <c r="N85" s="4">
+        <f>N61*M85</f>
         <v>0.05</v>
       </c>
-      <c r="O85" s="4">
-        <f>IF(M95=0,1,MIN(MAX((M95/M67-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="P85" s="4">
+        <f>IF(N95=0,1,MIN(MAX((N95/N67-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="P85" s="4">
-        <f>P61*O85</f>
+      <c r="Q85" s="4">
+        <f>Q61*P85</f>
         <v>0.12</v>
       </c>
-      <c r="R85" s="4">
-        <f>IF(P95=0,1,MIN(MAX((P95/P67-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="S85" s="4">
+        <f>IF(Q95=0,1,MIN(MAX((Q95/Q67-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="S85" s="4">
-        <f>S61*R85</f>
+      <c r="T85" s="4">
+        <f>T61*S85</f>
         <v>0.2</v>
       </c>
-      <c r="U85" s="4">
-        <f>IF(S95=0,1,MIN(MAX((S95/S67-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="V85" s="4">
+        <f>IF(T95=0,1,MIN(MAX((T95/T67-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="V85" s="4">
-        <f>V61*U85</f>
+      <c r="W85" s="4">
+        <f>W61*V85</f>
         <v>0.36</v>
       </c>
-      <c r="X85" s="4">
-        <f>IF(V95=0,1,MIN(MAX((V95/V67-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="Y85" s="4">
+        <f>IF(W95=0,1,MIN(MAX((W95/W67-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>0.92886400737928387</v>
       </c>
-      <c r="Y85" s="4">
-        <f>Y61*X85</f>
+      <c r="Z85" s="4">
+        <f>Z61*Y85</f>
         <v>0.5573184044275703</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="47"/>
-      <c r="B86" s="37"/>
-      <c r="E86" s="14" t="s">
+      <c r="B86" s="51"/>
+      <c r="C86" s="37"/>
+      <c r="F86" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G86" s="4">
-        <f>G62</f>
-        <v>0</v>
-      </c>
-      <c r="I86" s="4">
-        <f>IF(G96=0,1,MIN(MAX((G96/G68-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="H86" s="4">
+        <f>H62</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="4">
+        <f>IF(H96=0,1,MIN(MAX((H96/H68-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="J86" s="4">
-        <f>J62</f>
-        <v>0</v>
-      </c>
-      <c r="L86" s="4">
-        <f>IF(J96=0,1,MIN(MAX((J96/J68-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="K86" s="4">
+        <f>K62</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="4">
+        <f>IF(K96=0,1,MIN(MAX((K96/K68-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="M86" s="4">
-        <f>M62</f>
+      <c r="N86" s="4">
+        <f>N62</f>
         <v>0.01</v>
       </c>
-      <c r="O86" s="4">
-        <f>IF(M96=0,1,MIN(MAX((M96/M68-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="P86" s="4">
+        <f>IF(N96=0,1,MIN(MAX((N96/N68-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="P86" s="4">
-        <f>P62</f>
+      <c r="Q86" s="4">
+        <f>Q62</f>
         <v>0.05</v>
       </c>
-      <c r="R86" s="4">
-        <f>IF(P96=0,1,MIN(MAX((P96/P68-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="S86" s="4">
+        <f>IF(Q96=0,1,MIN(MAX((Q96/Q68-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="S86" s="4">
-        <f>S62</f>
+      <c r="T86" s="4">
+        <f>T62</f>
         <v>0.12</v>
       </c>
-      <c r="U86" s="4">
-        <f>IF(S96=0,1,MIN(MAX((S96/S68-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="V86" s="4">
+        <f>IF(T96=0,1,MIN(MAX((T96/T68-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="V86" s="4">
-        <f>V62</f>
+      <c r="W86" s="4">
+        <f>W62</f>
         <v>0.2</v>
       </c>
-      <c r="X86" s="4">
-        <f>IF(V96=0,1,MIN(MAX((V96/V68-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="Y86" s="4">
+        <f>IF(W96=0,1,MIN(MAX((W96/W68-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="Y86" s="4">
-        <f>Y62</f>
+      <c r="Z86" s="4">
+        <f>Z62</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="47"/>
-      <c r="B87" s="37"/>
-      <c r="E87" s="14" t="s">
+      <c r="B87" s="51"/>
+      <c r="C87" s="37"/>
+      <c r="F87" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G87" s="4">
-        <f>G63</f>
-        <v>0</v>
-      </c>
-      <c r="I87" s="4">
-        <f>IF(G97=0,1,MIN(MAX((G97/G69-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="H87" s="4">
+        <f>H63</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
+        <f>IF(H97=0,1,MIN(MAX((H97/H69-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="J87" s="4">
-        <f>J63</f>
-        <v>0</v>
-      </c>
-      <c r="L87" s="4">
-        <f>IF(J97=0,1,MIN(MAX((J97/J69-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="K87" s="4">
+        <f>K63</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="4">
+        <f>IF(K97=0,1,MIN(MAX((K97/K69-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="M87" s="4">
-        <f>M63</f>
-        <v>0</v>
-      </c>
-      <c r="O87" s="4">
-        <f>IF(M97=0,1,MIN(MAX((M97/M69-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="N87" s="4">
+        <f>N63</f>
+        <v>0</v>
+      </c>
+      <c r="P87" s="4">
+        <f>IF(N97=0,1,MIN(MAX((N97/N69-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="P87" s="4">
-        <f>P63</f>
+      <c r="Q87" s="4">
+        <f>Q63</f>
         <v>0.01</v>
       </c>
-      <c r="R87" s="4">
-        <f>IF(P97=0,1,MIN(MAX((P97/P69-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="S87" s="4">
+        <f>IF(Q97=0,1,MIN(MAX((Q97/Q69-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="S87" s="4">
-        <f>S63</f>
+      <c r="T87" s="4">
+        <f>T63</f>
         <v>0.05</v>
       </c>
-      <c r="U87" s="4">
-        <f>IF(S97=0,1,MIN(MAX((S97/S69-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="V87" s="4">
+        <f>IF(T97=0,1,MIN(MAX((T97/T69-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="V87" s="4">
-        <f>V63</f>
+      <c r="W87" s="4">
+        <f>W63</f>
         <v>0.12</v>
       </c>
-      <c r="X87" s="4">
-        <f>IF(V97=0,1,MIN(MAX((V97/V69-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="Y87" s="4">
+        <f>IF(W97=0,1,MIN(MAX((W97/W69-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="Y87" s="4">
-        <f>Y63</f>
+      <c r="Z87" s="4">
+        <f>Z63</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="47"/>
-      <c r="B88" s="37"/>
-      <c r="E88" s="14" t="s">
+      <c r="B88" s="51"/>
+      <c r="C88" s="37"/>
+      <c r="F88" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G88" s="4">
-        <f>G64</f>
-        <v>0</v>
-      </c>
-      <c r="I88" s="4">
-        <f>IF(G98=0,1,MIN(MAX((G98/G70-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="H88" s="4">
+        <f>H64</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="4">
+        <f>IF(H98=0,1,MIN(MAX((H98/H70-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="J88" s="4">
-        <f>J64</f>
-        <v>0</v>
-      </c>
-      <c r="L88" s="4">
-        <f>IF(J98=0,1,MIN(MAX((J98/J70-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="K88" s="4">
+        <f>K64</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="4">
+        <f>IF(K98=0,1,MIN(MAX((K98/K70-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="M88" s="4">
-        <f>M64</f>
-        <v>0</v>
-      </c>
-      <c r="O88" s="4">
-        <f>IF(M98=0,1,MIN(MAX((M98/M70-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="N88" s="4">
+        <f>N64</f>
+        <v>0</v>
+      </c>
+      <c r="P88" s="4">
+        <f>IF(N98=0,1,MIN(MAX((N98/N70-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="P88" s="4">
-        <f>P64</f>
-        <v>0</v>
-      </c>
-      <c r="R88" s="4">
-        <f>IF(P98=0,1,MIN(MAX((P98/P70-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="Q88" s="4">
+        <f>Q64</f>
+        <v>0</v>
+      </c>
+      <c r="S88" s="4">
+        <f>IF(Q98=0,1,MIN(MAX((Q98/Q70-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="S88" s="4">
-        <f>S64</f>
+      <c r="T88" s="4">
+        <f>T64</f>
         <v>0.01</v>
       </c>
-      <c r="U88" s="4">
-        <f>IF(S98=0,1,MIN(MAX((S98/S70-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="V88" s="4">
+        <f>IF(T98=0,1,MIN(MAX((T98/T70-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="V88" s="4">
-        <f>V64</f>
+      <c r="W88" s="4">
+        <f>W64</f>
         <v>0.05</v>
       </c>
-      <c r="X88" s="4">
-        <f>IF(V98=0,1,MIN(MAX((V98/V70-$F$16)/($F$18-$F$16), 0), 1))</f>
+      <c r="Y88" s="4">
+        <f>IF(W98=0,1,MIN(MAX((W98/W70-$G$16)/($G$18-$G$16), 0), 1))</f>
         <v>1</v>
       </c>
-      <c r="Y88" s="4">
-        <f>Y64</f>
+      <c r="Z88" s="4">
+        <f>Z64</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E89" s="14"/>
-    </row>
-    <row r="90" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="F89" s="14"/>
+    </row>
+    <row r="90" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="B90" s="37" t="s">
+      <c r="B90" s="51"/>
+      <c r="C90" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="F90" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="G90" s="4">
-        <f>G56*G32</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="4">
-        <f>(G95-J79-J42)*$F$29</f>
-        <v>0</v>
-      </c>
-      <c r="M90" s="4">
-        <f>(J95-M79-M42)*$F$29</f>
+      <c r="H90" s="4">
+        <f>H56*H32</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="4">
+        <f>(H95-K79-K42)*$G$29</f>
+        <v>0</v>
+      </c>
+      <c r="N90" s="4">
+        <f>(K95-N79-N42)*$G$29</f>
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="P90" s="4">
-        <f>(M95-P79-P42)*$F$29</f>
+      <c r="Q90" s="4">
+        <f>(N95-Q79-Q42)*$G$29</f>
         <v>1.01966E-2</v>
       </c>
-      <c r="S90" s="4">
-        <f>(P95-S79-S42)*$F$29</f>
+      <c r="T90" s="4">
+        <f>(Q95-T79-T42)*$G$29</f>
         <v>3.0576206799999998E-2</v>
       </c>
-      <c r="V90" s="4">
-        <f>(S95-V79-V42)*$F$29</f>
+      <c r="W90" s="4">
+        <f>(T95-W79-W42)*$G$29</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Y90" s="4">
-        <f>(V95-Y79-Y42)*$F$29</f>
+      <c r="Z90" s="4">
+        <f>(W95-Z79-Z42)*$G$29</f>
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="47"/>
-      <c r="B91" s="37"/>
-      <c r="E91" s="14" t="s">
+      <c r="B91" s="51"/>
+      <c r="C91" s="37"/>
+      <c r="F91" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="G91" s="4">
-        <f>G57*G33</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="4">
-        <f>(G96-J80-J43)*$F$29</f>
-        <v>0</v>
-      </c>
-      <c r="M91" s="4">
-        <f>(J96-M80-M43)*$F$29</f>
-        <v>0</v>
-      </c>
-      <c r="P91" s="4">
-        <f>(M96-P80-P43)*$F$29</f>
+      <c r="H91" s="4">
+        <f>H57*H33</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="4">
+        <f>(H96-K80-K43)*$G$29</f>
+        <v>0</v>
+      </c>
+      <c r="N91" s="4">
+        <f>(K96-N80-N43)*$G$29</f>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="4">
+        <f>(N96-Q80-Q43)*$G$29</f>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="S91" s="4">
-        <f>(P96-S80-S43)*$F$29</f>
+      <c r="T91" s="4">
+        <f>(Q96-T80-T43)*$G$29</f>
         <v>9.5968000000000008E-3</v>
       </c>
-      <c r="V91" s="4">
-        <f>(S96-V80-V43)*$F$29</f>
+      <c r="W91" s="4">
+        <f>(T96-W80-W43)*$G$29</f>
         <v>1.6000000000000004E-2</v>
       </c>
-      <c r="Y91" s="4">
-        <f>(V96-Y80-Y43)*$F$29</f>
+      <c r="Z91" s="4">
+        <f>(W96-Z80-Z43)*$G$29</f>
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="47"/>
-      <c r="B92" s="37"/>
-      <c r="E92" s="14" t="s">
+      <c r="B92" s="51"/>
+      <c r="C92" s="37"/>
+      <c r="F92" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G92" s="4">
-        <f>G58*G34</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="4">
-        <f>(G97-J81-J44)*$F$29</f>
-        <v>0</v>
-      </c>
-      <c r="M92" s="4">
-        <f>(J97-M81-M44)*$F$29</f>
-        <v>0</v>
-      </c>
-      <c r="P92" s="4">
-        <f>(M97-P81-P44)*$F$29</f>
-        <v>0</v>
-      </c>
